--- a/controller/src/main/resources/jxls_templates/jianjishu_shoutuo.xlsx
+++ b/controller/src/main/resources/jxls_templates/jianjishu_shoutuo.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work_Code\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12750" yWindow="45" windowWidth="15900" windowHeight="12420" tabRatio="570"/>
+    <workbookView xWindow="12756" yWindow="48" windowWidth="15900" windowHeight="12420" tabRatio="570"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -14,15 +19,130 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">お見積書!$A$1:$T$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">見積条件書!$A$1:$S$69</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">見積詳細!$A$1:$F$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">見積条件書!$A$1:$S$69</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>DONG</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:area(lastCell="H49")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A29" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="ba1", var="r", lastCell="F29")</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>DONG</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:area(lastCell="T30")</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>DONG</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:area(lastCell="S70")</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>DONG</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:area(lastCell="F38")</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="183">
   <si>
     <t>委託元（和文）</t>
     <rPh sb="4" eb="6">
@@ -238,18 +358,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ASD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ESD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CSD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -290,10 +398,6 @@
     <rPh sb="2" eb="4">
       <t>タンカ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SPD</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1552,6 +1656,26 @@
   </si>
   <si>
     <t>${qu.requestnumber}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${r.deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${r.completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${r.claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${r.supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${r.claimamount}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1573,18 +1697,18 @@
     <numFmt numFmtId="184" formatCode="&quot;¥&quot;#,##0"/>
     <numFmt numFmtId="185" formatCode="#,##0.00;[Red]#,##0.00"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1592,7 +1716,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1600,7 +1724,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1635,7 +1759,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1643,7 +1767,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1661,7 +1785,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1751,6 +1875,14 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1790,7 +1922,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -2248,28 +2380,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -2296,7 +2406,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2628,12 +2738,6 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="37" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="39" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2916,7 +3020,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2927,19 +3031,22 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
     <cellStyle name="標準 3" xfId="2"/>
     <cellStyle name="標準 4" xfId="3"/>
     <cellStyle name="標準 5" xfId="4"/>
     <cellStyle name="標準 6" xfId="5"/>
     <cellStyle name="標準_作業内容および見積もり" xfId="6"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3072,7 +3179,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3114,7 +3221,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3149,7 +3256,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3357,33 +3464,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="10.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:8" ht="13.8">
       <c r="A1" s="111" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B1" s="111"/>
       <c r="G1" s="117" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H1" s="118"/>
     </row>
@@ -3392,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>15</v>
@@ -3417,7 +3524,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>15</v>
@@ -3427,7 +3534,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="33" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="11" t="s">
@@ -3438,10 +3545,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="35" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>15</v>
@@ -3451,10 +3558,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="35" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>15</v>
@@ -3473,12 +3580,12 @@
       <c r="G8" s="119"/>
       <c r="H8" s="120"/>
     </row>
-    <row r="9" spans="1:8" s="7" customFormat="1" ht="13.5">
+    <row r="9" spans="1:8" s="7" customFormat="1" ht="14.4">
       <c r="A9" s="34" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>15</v>
@@ -3491,7 +3598,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>15</v>
@@ -3504,7 +3611,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>15</v>
@@ -3517,7 +3624,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>15</v>
@@ -3541,7 +3648,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>15</v>
@@ -3554,7 +3661,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>15</v>
@@ -3586,7 +3693,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="33" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="11" t="s">
@@ -3600,7 +3707,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>15</v>
@@ -3608,12 +3715,12 @@
       <c r="G19" s="119"/>
       <c r="H19" s="120"/>
     </row>
-    <row r="20" spans="1:8" s="7" customFormat="1" ht="13.5">
+    <row r="20" spans="1:8" s="7" customFormat="1" ht="14.4">
       <c r="A20" s="33" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>15</v>
@@ -3623,7 +3730,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="33" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="11" t="s">
@@ -3634,7 +3741,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="33" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="11" t="s">
@@ -3643,9 +3750,9 @@
       <c r="G22" s="119"/>
       <c r="H22" s="120"/>
     </row>
-    <row r="23" spans="1:8" s="7" customFormat="1" ht="13.5">
+    <row r="23" spans="1:8" s="7" customFormat="1" ht="14.4">
       <c r="A23" s="34" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="11" t="s">
@@ -3654,12 +3761,12 @@
       <c r="G23" s="119"/>
       <c r="H23" s="120"/>
     </row>
-    <row r="24" spans="1:8" s="7" customFormat="1" ht="13.5">
+    <row r="24" spans="1:8" s="7" customFormat="1" ht="14.4">
       <c r="A24" s="34" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>15</v>
@@ -3667,7 +3774,7 @@
       <c r="G24" s="119"/>
       <c r="H24" s="120"/>
     </row>
-    <row r="25" spans="1:8" s="7" customFormat="1" ht="13.5">
+    <row r="25" spans="1:8" s="7" customFormat="1" ht="14.4">
       <c r="A25" s="34" t="s">
         <v>12</v>
       </c>
@@ -3697,22 +3804,22 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="37" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B28" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="40" t="s">
         <v>37</v>
-      </c>
-      <c r="C28" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="F28" s="40" t="s">
-        <v>41</v>
       </c>
       <c r="G28" s="119"/>
       <c r="H28" s="120"/>
@@ -3720,381 +3827,303 @@
     <row r="29" spans="1:8" ht="13.5" customHeight="1">
       <c r="A29" s="38" t="str">
         <f>IF(B29="","","第一回")</f>
-        <v/>
-      </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="32"/>
+        <v>第一回</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>182</v>
+      </c>
       <c r="G29" s="119"/>
       <c r="H29" s="120"/>
     </row>
-    <row r="30" spans="1:8" ht="13.5">
-      <c r="A30" s="38" t="str">
-        <f>IF(B30="","","第二回")</f>
-        <v/>
-      </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="119"/>
-      <c r="H30" s="120"/>
-    </row>
-    <row r="31" spans="1:8" ht="13.5">
-      <c r="A31" s="38" t="str">
-        <f>IF(B31="","","第三回")</f>
-        <v/>
-      </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="119"/>
-      <c r="H31" s="120"/>
-    </row>
-    <row r="32" spans="1:8" ht="14.25" thickBot="1">
-      <c r="A32" s="38" t="str">
-        <f>IF(B32="","","第四回")</f>
-        <v/>
-      </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="121"/>
-      <c r="H32" s="122"/>
-    </row>
-    <row r="33" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" ht="14.25">
-      <c r="A34" s="21" t="s">
+    <row r="30" spans="1:8" ht="6.75" customHeight="1">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" ht="13.8">
+      <c r="A31" s="21" t="s">
         <v>18</v>
       </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="B32" s="1"/>
+      <c r="D32" s="114" t="s">
+        <v>163</v>
+      </c>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="B33" s="1"/>
+      <c r="D33" s="115" t="s">
+        <v>177</v>
+      </c>
+      <c r="E33" s="115"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="115"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B34" s="42">
+        <f ca="1">TODAY()</f>
+        <v>43895</v>
+      </c>
+      <c r="D34" s="113" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="113"/>
+      <c r="F34" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="H34" s="30"/>
+      <c r="I34" s="25"/>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="1"/>
       <c r="D35" s="114" t="s">
-        <v>167</v>
+        <v>56</v>
       </c>
       <c r="E35" s="114"/>
-      <c r="F35" s="114"/>
-      <c r="G35" s="114"/>
-      <c r="H35" s="114"/>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="F35" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="H35" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="D36" s="115" t="s">
-        <v>181</v>
-      </c>
-      <c r="E36" s="115"/>
-      <c r="F36" s="115"/>
-      <c r="G36" s="115"/>
-      <c r="H36" s="115"/>
-    </row>
-    <row r="37" spans="1:9" ht="13.5">
-      <c r="A37" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="B37" s="42">
-        <f ca="1">TODAY()</f>
-        <v>43894</v>
-      </c>
-      <c r="D37" s="113" t="s">
-        <v>58</v>
-      </c>
-      <c r="E37" s="113"/>
-      <c r="F37" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="G37" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="H37" s="30"/>
-      <c r="I37" s="25"/>
-    </row>
-    <row r="38" spans="1:9" ht="13.5">
+      <c r="D36" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="113"/>
+      <c r="F36" s="116" t="s">
+        <v>124</v>
+      </c>
+      <c r="G36" s="116"/>
+      <c r="H36" s="29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="3" customFormat="1">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" s="3" customFormat="1">
+      <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="D38" s="114" t="s">
-        <v>60</v>
-      </c>
-      <c r="E38" s="114"/>
-      <c r="F38" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="G38" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="H38" s="29" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="D39" s="113" t="s">
-        <v>61</v>
-      </c>
-      <c r="E39" s="113"/>
-      <c r="F39" s="116" t="s">
-        <v>128</v>
-      </c>
-      <c r="G39" s="116"/>
-      <c r="H39" s="29" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="3" customFormat="1">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:9" s="3" customFormat="1">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:9" s="3" customFormat="1" ht="14.25">
-      <c r="A42" s="110" t="s">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" s="3" customFormat="1" ht="15.6">
+      <c r="A39" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="110" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="107" t="s">
+      <c r="B39" s="110" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="108"/>
-      <c r="E42" s="108"/>
-      <c r="F42" s="109"/>
-      <c r="G42" s="112" t="s">
+      <c r="D39" s="108"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="109"/>
+      <c r="G39" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="H42" s="110" t="s">
+      <c r="H39" s="110" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="14.25">
-      <c r="A43" s="110"/>
-      <c r="B43" s="110"/>
-      <c r="C43" s="13" t="s">
+    <row r="40" spans="1:9" ht="15.6">
+      <c r="A40" s="110"/>
+      <c r="B40" s="110"/>
+      <c r="C40" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E43" s="13" t="s">
+      <c r="D40" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G43" s="110"/>
-      <c r="H43" s="110"/>
-    </row>
-    <row r="44" spans="1:9" ht="14.25">
-      <c r="A44" s="12">
-        <v>180001</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="14">
-        <v>1.05</v>
-      </c>
-      <c r="D44" s="14">
-        <v>4200</v>
-      </c>
-      <c r="E44" s="14">
-        <v>2.1</v>
-      </c>
-      <c r="F44" s="14">
-        <v>3500</v>
-      </c>
+      <c r="F40" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" s="110"/>
+      <c r="H40" s="110"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.6">
+      <c r="A41" s="12"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="15">
+        <f>C41+E41</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="22">
+        <f>C41*D41+E41*F41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.6">
+      <c r="A42" s="12"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="15">
+        <f>C42+E42</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="22">
+        <f>C42*D42+E42*F42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.6">
+      <c r="A43" s="12"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="15">
+        <f>C43+E43</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="22">
+        <f>C43*D43+E43*F43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.6">
+      <c r="A44" s="19"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
       <c r="G44" s="15">
         <f>C44+E44</f>
-        <v>3.1500000000000004</v>
+        <v>0</v>
       </c>
       <c r="H44" s="22">
         <f>C44*D44+E44*F44</f>
-        <v>11760</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="14.25">
-      <c r="A45" s="12">
-        <v>160001</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.6">
+      <c r="A45" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="14">
-        <v>2.1</v>
-      </c>
-      <c r="D45" s="14">
-        <v>4200</v>
-      </c>
-      <c r="E45" s="14">
-        <v>4.2</v>
-      </c>
-      <c r="F45" s="14">
-        <v>3500</v>
-      </c>
-      <c r="G45" s="15">
-        <f>C45+E45</f>
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="H45" s="22">
-        <f>C45*D45+E45*F45</f>
-        <v>23520</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="14.25">
-      <c r="A46" s="12">
-        <v>170001</v>
-      </c>
-      <c r="B46" s="14" t="s">
+      <c r="C45" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="14">
-        <v>3.25</v>
-      </c>
-      <c r="D46" s="14">
-        <v>4200</v>
-      </c>
-      <c r="E46" s="14">
-        <v>6.5</v>
-      </c>
-      <c r="F46" s="14">
-        <v>3500</v>
-      </c>
-      <c r="G46" s="15">
-        <f>C46+E46</f>
-        <v>9.75</v>
-      </c>
-      <c r="H46" s="22">
-        <f>C46*D46+E46*F46</f>
-        <v>36400</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="14.25">
-      <c r="A47" s="19">
-        <v>120001</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="14">
-        <v>1</v>
-      </c>
-      <c r="D47" s="14">
-        <v>4200</v>
-      </c>
-      <c r="E47" s="14">
-        <v>1</v>
-      </c>
-      <c r="F47" s="14">
-        <v>3500</v>
-      </c>
-      <c r="G47" s="15">
-        <f>C47+E47</f>
-        <v>2</v>
-      </c>
-      <c r="H47" s="22">
-        <f>C47*D47+E47*F47</f>
-        <v>7700</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="14.25">
-      <c r="A48" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="14" t="s">
+      <c r="F45" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" s="23"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.6">
+      <c r="A46" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H48" s="23">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="15">
-      <c r="A49" s="105" t="s">
+      <c r="B46" s="106"/>
+      <c r="C46" s="20">
+        <f>SUM(C41:C45)</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="106"/>
-      <c r="C49" s="20">
-        <f>SUM(C44:C48)</f>
-        <v>7.4</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E49" s="20">
-        <f>SUM(E44:E48)</f>
-        <v>13.8</v>
-      </c>
-      <c r="F49" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G49" s="20">
-        <f>SUM(G44:G48)</f>
-        <v>21.200000000000003</v>
-      </c>
-      <c r="H49" s="24">
-        <f>SUM(H44:H48)</f>
-        <v>89380</v>
+      <c r="E46" s="20">
+        <f>SUM(E41:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" s="20">
+        <f>SUM(G41:G45)</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="24">
+        <f>SUM(H41:H45)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A44:F47" name="範囲3"/>
-    <protectedRange sqref="H48" name="範囲4"/>
+    <protectedRange sqref="A41:F44" name="範囲3"/>
+    <protectedRange sqref="H45" name="範囲4"/>
   </protectedRanges>
   <mergeCells count="14">
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:H40"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D35:H35"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="G1:H32"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="G1:H29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <tabColor indexed="43"/>
     <pageSetUpPr fitToPage="1"/>
@@ -4102,558 +4131,558 @@
   <dimension ref="A1:U42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:F11"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="2" width="5.625" style="43" customWidth="1"/>
-    <col min="3" max="3" width="5.625" style="44" customWidth="1"/>
-    <col min="4" max="4" width="7.25" style="44" customWidth="1"/>
-    <col min="5" max="18" width="5.625" style="44" customWidth="1"/>
-    <col min="19" max="19" width="9.375" style="44" customWidth="1"/>
-    <col min="20" max="20" width="2.625" style="44" customWidth="1"/>
-    <col min="21" max="21" width="20.875" style="44" customWidth="1"/>
-    <col min="22" max="22" width="5.625" style="44" customWidth="1"/>
+    <col min="1" max="2" width="5.6640625" style="43" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="44" customWidth="1"/>
+    <col min="4" max="4" width="7.21875" style="44" customWidth="1"/>
+    <col min="5" max="18" width="5.6640625" style="44" customWidth="1"/>
+    <col min="19" max="19" width="9.33203125" style="44" customWidth="1"/>
+    <col min="20" max="20" width="2.6640625" style="44" customWidth="1"/>
+    <col min="21" max="21" width="20.88671875" style="44" customWidth="1"/>
+    <col min="22" max="22" width="5.6640625" style="44" customWidth="1"/>
     <col min="23" max="256" width="9" style="44"/>
-    <col min="257" max="259" width="5.625" style="44" customWidth="1"/>
-    <col min="260" max="260" width="7.25" style="44" customWidth="1"/>
-    <col min="261" max="274" width="5.625" style="44" customWidth="1"/>
-    <col min="275" max="275" width="9.375" style="44" customWidth="1"/>
-    <col min="276" max="276" width="2.625" style="44" customWidth="1"/>
-    <col min="277" max="277" width="20.875" style="44" customWidth="1"/>
-    <col min="278" max="278" width="5.625" style="44" customWidth="1"/>
+    <col min="257" max="259" width="5.6640625" style="44" customWidth="1"/>
+    <col min="260" max="260" width="7.21875" style="44" customWidth="1"/>
+    <col min="261" max="274" width="5.6640625" style="44" customWidth="1"/>
+    <col min="275" max="275" width="9.33203125" style="44" customWidth="1"/>
+    <col min="276" max="276" width="2.6640625" style="44" customWidth="1"/>
+    <col min="277" max="277" width="20.88671875" style="44" customWidth="1"/>
+    <col min="278" max="278" width="5.6640625" style="44" customWidth="1"/>
     <col min="279" max="512" width="9" style="44"/>
-    <col min="513" max="515" width="5.625" style="44" customWidth="1"/>
-    <col min="516" max="516" width="7.25" style="44" customWidth="1"/>
-    <col min="517" max="530" width="5.625" style="44" customWidth="1"/>
-    <col min="531" max="531" width="9.375" style="44" customWidth="1"/>
-    <col min="532" max="532" width="2.625" style="44" customWidth="1"/>
-    <col min="533" max="533" width="20.875" style="44" customWidth="1"/>
-    <col min="534" max="534" width="5.625" style="44" customWidth="1"/>
+    <col min="513" max="515" width="5.6640625" style="44" customWidth="1"/>
+    <col min="516" max="516" width="7.21875" style="44" customWidth="1"/>
+    <col min="517" max="530" width="5.6640625" style="44" customWidth="1"/>
+    <col min="531" max="531" width="9.33203125" style="44" customWidth="1"/>
+    <col min="532" max="532" width="2.6640625" style="44" customWidth="1"/>
+    <col min="533" max="533" width="20.88671875" style="44" customWidth="1"/>
+    <col min="534" max="534" width="5.6640625" style="44" customWidth="1"/>
     <col min="535" max="768" width="9" style="44"/>
-    <col min="769" max="771" width="5.625" style="44" customWidth="1"/>
-    <col min="772" max="772" width="7.25" style="44" customWidth="1"/>
-    <col min="773" max="786" width="5.625" style="44" customWidth="1"/>
-    <col min="787" max="787" width="9.375" style="44" customWidth="1"/>
-    <col min="788" max="788" width="2.625" style="44" customWidth="1"/>
-    <col min="789" max="789" width="20.875" style="44" customWidth="1"/>
-    <col min="790" max="790" width="5.625" style="44" customWidth="1"/>
+    <col min="769" max="771" width="5.6640625" style="44" customWidth="1"/>
+    <col min="772" max="772" width="7.21875" style="44" customWidth="1"/>
+    <col min="773" max="786" width="5.6640625" style="44" customWidth="1"/>
+    <col min="787" max="787" width="9.33203125" style="44" customWidth="1"/>
+    <col min="788" max="788" width="2.6640625" style="44" customWidth="1"/>
+    <col min="789" max="789" width="20.88671875" style="44" customWidth="1"/>
+    <col min="790" max="790" width="5.6640625" style="44" customWidth="1"/>
     <col min="791" max="1024" width="9" style="44"/>
-    <col min="1025" max="1027" width="5.625" style="44" customWidth="1"/>
-    <col min="1028" max="1028" width="7.25" style="44" customWidth="1"/>
-    <col min="1029" max="1042" width="5.625" style="44" customWidth="1"/>
-    <col min="1043" max="1043" width="9.375" style="44" customWidth="1"/>
-    <col min="1044" max="1044" width="2.625" style="44" customWidth="1"/>
-    <col min="1045" max="1045" width="20.875" style="44" customWidth="1"/>
-    <col min="1046" max="1046" width="5.625" style="44" customWidth="1"/>
+    <col min="1025" max="1027" width="5.6640625" style="44" customWidth="1"/>
+    <col min="1028" max="1028" width="7.21875" style="44" customWidth="1"/>
+    <col min="1029" max="1042" width="5.6640625" style="44" customWidth="1"/>
+    <col min="1043" max="1043" width="9.33203125" style="44" customWidth="1"/>
+    <col min="1044" max="1044" width="2.6640625" style="44" customWidth="1"/>
+    <col min="1045" max="1045" width="20.88671875" style="44" customWidth="1"/>
+    <col min="1046" max="1046" width="5.6640625" style="44" customWidth="1"/>
     <col min="1047" max="1280" width="9" style="44"/>
-    <col min="1281" max="1283" width="5.625" style="44" customWidth="1"/>
-    <col min="1284" max="1284" width="7.25" style="44" customWidth="1"/>
-    <col min="1285" max="1298" width="5.625" style="44" customWidth="1"/>
-    <col min="1299" max="1299" width="9.375" style="44" customWidth="1"/>
-    <col min="1300" max="1300" width="2.625" style="44" customWidth="1"/>
-    <col min="1301" max="1301" width="20.875" style="44" customWidth="1"/>
-    <col min="1302" max="1302" width="5.625" style="44" customWidth="1"/>
+    <col min="1281" max="1283" width="5.6640625" style="44" customWidth="1"/>
+    <col min="1284" max="1284" width="7.21875" style="44" customWidth="1"/>
+    <col min="1285" max="1298" width="5.6640625" style="44" customWidth="1"/>
+    <col min="1299" max="1299" width="9.33203125" style="44" customWidth="1"/>
+    <col min="1300" max="1300" width="2.6640625" style="44" customWidth="1"/>
+    <col min="1301" max="1301" width="20.88671875" style="44" customWidth="1"/>
+    <col min="1302" max="1302" width="5.6640625" style="44" customWidth="1"/>
     <col min="1303" max="1536" width="9" style="44"/>
-    <col min="1537" max="1539" width="5.625" style="44" customWidth="1"/>
-    <col min="1540" max="1540" width="7.25" style="44" customWidth="1"/>
-    <col min="1541" max="1554" width="5.625" style="44" customWidth="1"/>
-    <col min="1555" max="1555" width="9.375" style="44" customWidth="1"/>
-    <col min="1556" max="1556" width="2.625" style="44" customWidth="1"/>
-    <col min="1557" max="1557" width="20.875" style="44" customWidth="1"/>
-    <col min="1558" max="1558" width="5.625" style="44" customWidth="1"/>
+    <col min="1537" max="1539" width="5.6640625" style="44" customWidth="1"/>
+    <col min="1540" max="1540" width="7.21875" style="44" customWidth="1"/>
+    <col min="1541" max="1554" width="5.6640625" style="44" customWidth="1"/>
+    <col min="1555" max="1555" width="9.33203125" style="44" customWidth="1"/>
+    <col min="1556" max="1556" width="2.6640625" style="44" customWidth="1"/>
+    <col min="1557" max="1557" width="20.88671875" style="44" customWidth="1"/>
+    <col min="1558" max="1558" width="5.6640625" style="44" customWidth="1"/>
     <col min="1559" max="1792" width="9" style="44"/>
-    <col min="1793" max="1795" width="5.625" style="44" customWidth="1"/>
-    <col min="1796" max="1796" width="7.25" style="44" customWidth="1"/>
-    <col min="1797" max="1810" width="5.625" style="44" customWidth="1"/>
-    <col min="1811" max="1811" width="9.375" style="44" customWidth="1"/>
-    <col min="1812" max="1812" width="2.625" style="44" customWidth="1"/>
-    <col min="1813" max="1813" width="20.875" style="44" customWidth="1"/>
-    <col min="1814" max="1814" width="5.625" style="44" customWidth="1"/>
+    <col min="1793" max="1795" width="5.6640625" style="44" customWidth="1"/>
+    <col min="1796" max="1796" width="7.21875" style="44" customWidth="1"/>
+    <col min="1797" max="1810" width="5.6640625" style="44" customWidth="1"/>
+    <col min="1811" max="1811" width="9.33203125" style="44" customWidth="1"/>
+    <col min="1812" max="1812" width="2.6640625" style="44" customWidth="1"/>
+    <col min="1813" max="1813" width="20.88671875" style="44" customWidth="1"/>
+    <col min="1814" max="1814" width="5.6640625" style="44" customWidth="1"/>
     <col min="1815" max="2048" width="9" style="44"/>
-    <col min="2049" max="2051" width="5.625" style="44" customWidth="1"/>
-    <col min="2052" max="2052" width="7.25" style="44" customWidth="1"/>
-    <col min="2053" max="2066" width="5.625" style="44" customWidth="1"/>
-    <col min="2067" max="2067" width="9.375" style="44" customWidth="1"/>
-    <col min="2068" max="2068" width="2.625" style="44" customWidth="1"/>
-    <col min="2069" max="2069" width="20.875" style="44" customWidth="1"/>
-    <col min="2070" max="2070" width="5.625" style="44" customWidth="1"/>
+    <col min="2049" max="2051" width="5.6640625" style="44" customWidth="1"/>
+    <col min="2052" max="2052" width="7.21875" style="44" customWidth="1"/>
+    <col min="2053" max="2066" width="5.6640625" style="44" customWidth="1"/>
+    <col min="2067" max="2067" width="9.33203125" style="44" customWidth="1"/>
+    <col min="2068" max="2068" width="2.6640625" style="44" customWidth="1"/>
+    <col min="2069" max="2069" width="20.88671875" style="44" customWidth="1"/>
+    <col min="2070" max="2070" width="5.6640625" style="44" customWidth="1"/>
     <col min="2071" max="2304" width="9" style="44"/>
-    <col min="2305" max="2307" width="5.625" style="44" customWidth="1"/>
-    <col min="2308" max="2308" width="7.25" style="44" customWidth="1"/>
-    <col min="2309" max="2322" width="5.625" style="44" customWidth="1"/>
-    <col min="2323" max="2323" width="9.375" style="44" customWidth="1"/>
-    <col min="2324" max="2324" width="2.625" style="44" customWidth="1"/>
-    <col min="2325" max="2325" width="20.875" style="44" customWidth="1"/>
-    <col min="2326" max="2326" width="5.625" style="44" customWidth="1"/>
+    <col min="2305" max="2307" width="5.6640625" style="44" customWidth="1"/>
+    <col min="2308" max="2308" width="7.21875" style="44" customWidth="1"/>
+    <col min="2309" max="2322" width="5.6640625" style="44" customWidth="1"/>
+    <col min="2323" max="2323" width="9.33203125" style="44" customWidth="1"/>
+    <col min="2324" max="2324" width="2.6640625" style="44" customWidth="1"/>
+    <col min="2325" max="2325" width="20.88671875" style="44" customWidth="1"/>
+    <col min="2326" max="2326" width="5.6640625" style="44" customWidth="1"/>
     <col min="2327" max="2560" width="9" style="44"/>
-    <col min="2561" max="2563" width="5.625" style="44" customWidth="1"/>
-    <col min="2564" max="2564" width="7.25" style="44" customWidth="1"/>
-    <col min="2565" max="2578" width="5.625" style="44" customWidth="1"/>
-    <col min="2579" max="2579" width="9.375" style="44" customWidth="1"/>
-    <col min="2580" max="2580" width="2.625" style="44" customWidth="1"/>
-    <col min="2581" max="2581" width="20.875" style="44" customWidth="1"/>
-    <col min="2582" max="2582" width="5.625" style="44" customWidth="1"/>
+    <col min="2561" max="2563" width="5.6640625" style="44" customWidth="1"/>
+    <col min="2564" max="2564" width="7.21875" style="44" customWidth="1"/>
+    <col min="2565" max="2578" width="5.6640625" style="44" customWidth="1"/>
+    <col min="2579" max="2579" width="9.33203125" style="44" customWidth="1"/>
+    <col min="2580" max="2580" width="2.6640625" style="44" customWidth="1"/>
+    <col min="2581" max="2581" width="20.88671875" style="44" customWidth="1"/>
+    <col min="2582" max="2582" width="5.6640625" style="44" customWidth="1"/>
     <col min="2583" max="2816" width="9" style="44"/>
-    <col min="2817" max="2819" width="5.625" style="44" customWidth="1"/>
-    <col min="2820" max="2820" width="7.25" style="44" customWidth="1"/>
-    <col min="2821" max="2834" width="5.625" style="44" customWidth="1"/>
-    <col min="2835" max="2835" width="9.375" style="44" customWidth="1"/>
-    <col min="2836" max="2836" width="2.625" style="44" customWidth="1"/>
-    <col min="2837" max="2837" width="20.875" style="44" customWidth="1"/>
-    <col min="2838" max="2838" width="5.625" style="44" customWidth="1"/>
+    <col min="2817" max="2819" width="5.6640625" style="44" customWidth="1"/>
+    <col min="2820" max="2820" width="7.21875" style="44" customWidth="1"/>
+    <col min="2821" max="2834" width="5.6640625" style="44" customWidth="1"/>
+    <col min="2835" max="2835" width="9.33203125" style="44" customWidth="1"/>
+    <col min="2836" max="2836" width="2.6640625" style="44" customWidth="1"/>
+    <col min="2837" max="2837" width="20.88671875" style="44" customWidth="1"/>
+    <col min="2838" max="2838" width="5.6640625" style="44" customWidth="1"/>
     <col min="2839" max="3072" width="9" style="44"/>
-    <col min="3073" max="3075" width="5.625" style="44" customWidth="1"/>
-    <col min="3076" max="3076" width="7.25" style="44" customWidth="1"/>
-    <col min="3077" max="3090" width="5.625" style="44" customWidth="1"/>
-    <col min="3091" max="3091" width="9.375" style="44" customWidth="1"/>
-    <col min="3092" max="3092" width="2.625" style="44" customWidth="1"/>
-    <col min="3093" max="3093" width="20.875" style="44" customWidth="1"/>
-    <col min="3094" max="3094" width="5.625" style="44" customWidth="1"/>
+    <col min="3073" max="3075" width="5.6640625" style="44" customWidth="1"/>
+    <col min="3076" max="3076" width="7.21875" style="44" customWidth="1"/>
+    <col min="3077" max="3090" width="5.6640625" style="44" customWidth="1"/>
+    <col min="3091" max="3091" width="9.33203125" style="44" customWidth="1"/>
+    <col min="3092" max="3092" width="2.6640625" style="44" customWidth="1"/>
+    <col min="3093" max="3093" width="20.88671875" style="44" customWidth="1"/>
+    <col min="3094" max="3094" width="5.6640625" style="44" customWidth="1"/>
     <col min="3095" max="3328" width="9" style="44"/>
-    <col min="3329" max="3331" width="5.625" style="44" customWidth="1"/>
-    <col min="3332" max="3332" width="7.25" style="44" customWidth="1"/>
-    <col min="3333" max="3346" width="5.625" style="44" customWidth="1"/>
-    <col min="3347" max="3347" width="9.375" style="44" customWidth="1"/>
-    <col min="3348" max="3348" width="2.625" style="44" customWidth="1"/>
-    <col min="3349" max="3349" width="20.875" style="44" customWidth="1"/>
-    <col min="3350" max="3350" width="5.625" style="44" customWidth="1"/>
+    <col min="3329" max="3331" width="5.6640625" style="44" customWidth="1"/>
+    <col min="3332" max="3332" width="7.21875" style="44" customWidth="1"/>
+    <col min="3333" max="3346" width="5.6640625" style="44" customWidth="1"/>
+    <col min="3347" max="3347" width="9.33203125" style="44" customWidth="1"/>
+    <col min="3348" max="3348" width="2.6640625" style="44" customWidth="1"/>
+    <col min="3349" max="3349" width="20.88671875" style="44" customWidth="1"/>
+    <col min="3350" max="3350" width="5.6640625" style="44" customWidth="1"/>
     <col min="3351" max="3584" width="9" style="44"/>
-    <col min="3585" max="3587" width="5.625" style="44" customWidth="1"/>
-    <col min="3588" max="3588" width="7.25" style="44" customWidth="1"/>
-    <col min="3589" max="3602" width="5.625" style="44" customWidth="1"/>
-    <col min="3603" max="3603" width="9.375" style="44" customWidth="1"/>
-    <col min="3604" max="3604" width="2.625" style="44" customWidth="1"/>
-    <col min="3605" max="3605" width="20.875" style="44" customWidth="1"/>
-    <col min="3606" max="3606" width="5.625" style="44" customWidth="1"/>
+    <col min="3585" max="3587" width="5.6640625" style="44" customWidth="1"/>
+    <col min="3588" max="3588" width="7.21875" style="44" customWidth="1"/>
+    <col min="3589" max="3602" width="5.6640625" style="44" customWidth="1"/>
+    <col min="3603" max="3603" width="9.33203125" style="44" customWidth="1"/>
+    <col min="3604" max="3604" width="2.6640625" style="44" customWidth="1"/>
+    <col min="3605" max="3605" width="20.88671875" style="44" customWidth="1"/>
+    <col min="3606" max="3606" width="5.6640625" style="44" customWidth="1"/>
     <col min="3607" max="3840" width="9" style="44"/>
-    <col min="3841" max="3843" width="5.625" style="44" customWidth="1"/>
-    <col min="3844" max="3844" width="7.25" style="44" customWidth="1"/>
-    <col min="3845" max="3858" width="5.625" style="44" customWidth="1"/>
-    <col min="3859" max="3859" width="9.375" style="44" customWidth="1"/>
-    <col min="3860" max="3860" width="2.625" style="44" customWidth="1"/>
-    <col min="3861" max="3861" width="20.875" style="44" customWidth="1"/>
-    <col min="3862" max="3862" width="5.625" style="44" customWidth="1"/>
+    <col min="3841" max="3843" width="5.6640625" style="44" customWidth="1"/>
+    <col min="3844" max="3844" width="7.21875" style="44" customWidth="1"/>
+    <col min="3845" max="3858" width="5.6640625" style="44" customWidth="1"/>
+    <col min="3859" max="3859" width="9.33203125" style="44" customWidth="1"/>
+    <col min="3860" max="3860" width="2.6640625" style="44" customWidth="1"/>
+    <col min="3861" max="3861" width="20.88671875" style="44" customWidth="1"/>
+    <col min="3862" max="3862" width="5.6640625" style="44" customWidth="1"/>
     <col min="3863" max="4096" width="9" style="44"/>
-    <col min="4097" max="4099" width="5.625" style="44" customWidth="1"/>
-    <col min="4100" max="4100" width="7.25" style="44" customWidth="1"/>
-    <col min="4101" max="4114" width="5.625" style="44" customWidth="1"/>
-    <col min="4115" max="4115" width="9.375" style="44" customWidth="1"/>
-    <col min="4116" max="4116" width="2.625" style="44" customWidth="1"/>
-    <col min="4117" max="4117" width="20.875" style="44" customWidth="1"/>
-    <col min="4118" max="4118" width="5.625" style="44" customWidth="1"/>
+    <col min="4097" max="4099" width="5.6640625" style="44" customWidth="1"/>
+    <col min="4100" max="4100" width="7.21875" style="44" customWidth="1"/>
+    <col min="4101" max="4114" width="5.6640625" style="44" customWidth="1"/>
+    <col min="4115" max="4115" width="9.33203125" style="44" customWidth="1"/>
+    <col min="4116" max="4116" width="2.6640625" style="44" customWidth="1"/>
+    <col min="4117" max="4117" width="20.88671875" style="44" customWidth="1"/>
+    <col min="4118" max="4118" width="5.6640625" style="44" customWidth="1"/>
     <col min="4119" max="4352" width="9" style="44"/>
-    <col min="4353" max="4355" width="5.625" style="44" customWidth="1"/>
-    <col min="4356" max="4356" width="7.25" style="44" customWidth="1"/>
-    <col min="4357" max="4370" width="5.625" style="44" customWidth="1"/>
-    <col min="4371" max="4371" width="9.375" style="44" customWidth="1"/>
-    <col min="4372" max="4372" width="2.625" style="44" customWidth="1"/>
-    <col min="4373" max="4373" width="20.875" style="44" customWidth="1"/>
-    <col min="4374" max="4374" width="5.625" style="44" customWidth="1"/>
+    <col min="4353" max="4355" width="5.6640625" style="44" customWidth="1"/>
+    <col min="4356" max="4356" width="7.21875" style="44" customWidth="1"/>
+    <col min="4357" max="4370" width="5.6640625" style="44" customWidth="1"/>
+    <col min="4371" max="4371" width="9.33203125" style="44" customWidth="1"/>
+    <col min="4372" max="4372" width="2.6640625" style="44" customWidth="1"/>
+    <col min="4373" max="4373" width="20.88671875" style="44" customWidth="1"/>
+    <col min="4374" max="4374" width="5.6640625" style="44" customWidth="1"/>
     <col min="4375" max="4608" width="9" style="44"/>
-    <col min="4609" max="4611" width="5.625" style="44" customWidth="1"/>
-    <col min="4612" max="4612" width="7.25" style="44" customWidth="1"/>
-    <col min="4613" max="4626" width="5.625" style="44" customWidth="1"/>
-    <col min="4627" max="4627" width="9.375" style="44" customWidth="1"/>
-    <col min="4628" max="4628" width="2.625" style="44" customWidth="1"/>
-    <col min="4629" max="4629" width="20.875" style="44" customWidth="1"/>
-    <col min="4630" max="4630" width="5.625" style="44" customWidth="1"/>
+    <col min="4609" max="4611" width="5.6640625" style="44" customWidth="1"/>
+    <col min="4612" max="4612" width="7.21875" style="44" customWidth="1"/>
+    <col min="4613" max="4626" width="5.6640625" style="44" customWidth="1"/>
+    <col min="4627" max="4627" width="9.33203125" style="44" customWidth="1"/>
+    <col min="4628" max="4628" width="2.6640625" style="44" customWidth="1"/>
+    <col min="4629" max="4629" width="20.88671875" style="44" customWidth="1"/>
+    <col min="4630" max="4630" width="5.6640625" style="44" customWidth="1"/>
     <col min="4631" max="4864" width="9" style="44"/>
-    <col min="4865" max="4867" width="5.625" style="44" customWidth="1"/>
-    <col min="4868" max="4868" width="7.25" style="44" customWidth="1"/>
-    <col min="4869" max="4882" width="5.625" style="44" customWidth="1"/>
-    <col min="4883" max="4883" width="9.375" style="44" customWidth="1"/>
-    <col min="4884" max="4884" width="2.625" style="44" customWidth="1"/>
-    <col min="4885" max="4885" width="20.875" style="44" customWidth="1"/>
-    <col min="4886" max="4886" width="5.625" style="44" customWidth="1"/>
+    <col min="4865" max="4867" width="5.6640625" style="44" customWidth="1"/>
+    <col min="4868" max="4868" width="7.21875" style="44" customWidth="1"/>
+    <col min="4869" max="4882" width="5.6640625" style="44" customWidth="1"/>
+    <col min="4883" max="4883" width="9.33203125" style="44" customWidth="1"/>
+    <col min="4884" max="4884" width="2.6640625" style="44" customWidth="1"/>
+    <col min="4885" max="4885" width="20.88671875" style="44" customWidth="1"/>
+    <col min="4886" max="4886" width="5.6640625" style="44" customWidth="1"/>
     <col min="4887" max="5120" width="9" style="44"/>
-    <col min="5121" max="5123" width="5.625" style="44" customWidth="1"/>
-    <col min="5124" max="5124" width="7.25" style="44" customWidth="1"/>
-    <col min="5125" max="5138" width="5.625" style="44" customWidth="1"/>
-    <col min="5139" max="5139" width="9.375" style="44" customWidth="1"/>
-    <col min="5140" max="5140" width="2.625" style="44" customWidth="1"/>
-    <col min="5141" max="5141" width="20.875" style="44" customWidth="1"/>
-    <col min="5142" max="5142" width="5.625" style="44" customWidth="1"/>
+    <col min="5121" max="5123" width="5.6640625" style="44" customWidth="1"/>
+    <col min="5124" max="5124" width="7.21875" style="44" customWidth="1"/>
+    <col min="5125" max="5138" width="5.6640625" style="44" customWidth="1"/>
+    <col min="5139" max="5139" width="9.33203125" style="44" customWidth="1"/>
+    <col min="5140" max="5140" width="2.6640625" style="44" customWidth="1"/>
+    <col min="5141" max="5141" width="20.88671875" style="44" customWidth="1"/>
+    <col min="5142" max="5142" width="5.6640625" style="44" customWidth="1"/>
     <col min="5143" max="5376" width="9" style="44"/>
-    <col min="5377" max="5379" width="5.625" style="44" customWidth="1"/>
-    <col min="5380" max="5380" width="7.25" style="44" customWidth="1"/>
-    <col min="5381" max="5394" width="5.625" style="44" customWidth="1"/>
-    <col min="5395" max="5395" width="9.375" style="44" customWidth="1"/>
-    <col min="5396" max="5396" width="2.625" style="44" customWidth="1"/>
-    <col min="5397" max="5397" width="20.875" style="44" customWidth="1"/>
-    <col min="5398" max="5398" width="5.625" style="44" customWidth="1"/>
+    <col min="5377" max="5379" width="5.6640625" style="44" customWidth="1"/>
+    <col min="5380" max="5380" width="7.21875" style="44" customWidth="1"/>
+    <col min="5381" max="5394" width="5.6640625" style="44" customWidth="1"/>
+    <col min="5395" max="5395" width="9.33203125" style="44" customWidth="1"/>
+    <col min="5396" max="5396" width="2.6640625" style="44" customWidth="1"/>
+    <col min="5397" max="5397" width="20.88671875" style="44" customWidth="1"/>
+    <col min="5398" max="5398" width="5.6640625" style="44" customWidth="1"/>
     <col min="5399" max="5632" width="9" style="44"/>
-    <col min="5633" max="5635" width="5.625" style="44" customWidth="1"/>
-    <col min="5636" max="5636" width="7.25" style="44" customWidth="1"/>
-    <col min="5637" max="5650" width="5.625" style="44" customWidth="1"/>
-    <col min="5651" max="5651" width="9.375" style="44" customWidth="1"/>
-    <col min="5652" max="5652" width="2.625" style="44" customWidth="1"/>
-    <col min="5653" max="5653" width="20.875" style="44" customWidth="1"/>
-    <col min="5654" max="5654" width="5.625" style="44" customWidth="1"/>
+    <col min="5633" max="5635" width="5.6640625" style="44" customWidth="1"/>
+    <col min="5636" max="5636" width="7.21875" style="44" customWidth="1"/>
+    <col min="5637" max="5650" width="5.6640625" style="44" customWidth="1"/>
+    <col min="5651" max="5651" width="9.33203125" style="44" customWidth="1"/>
+    <col min="5652" max="5652" width="2.6640625" style="44" customWidth="1"/>
+    <col min="5653" max="5653" width="20.88671875" style="44" customWidth="1"/>
+    <col min="5654" max="5654" width="5.6640625" style="44" customWidth="1"/>
     <col min="5655" max="5888" width="9" style="44"/>
-    <col min="5889" max="5891" width="5.625" style="44" customWidth="1"/>
-    <col min="5892" max="5892" width="7.25" style="44" customWidth="1"/>
-    <col min="5893" max="5906" width="5.625" style="44" customWidth="1"/>
-    <col min="5907" max="5907" width="9.375" style="44" customWidth="1"/>
-    <col min="5908" max="5908" width="2.625" style="44" customWidth="1"/>
-    <col min="5909" max="5909" width="20.875" style="44" customWidth="1"/>
-    <col min="5910" max="5910" width="5.625" style="44" customWidth="1"/>
+    <col min="5889" max="5891" width="5.6640625" style="44" customWidth="1"/>
+    <col min="5892" max="5892" width="7.21875" style="44" customWidth="1"/>
+    <col min="5893" max="5906" width="5.6640625" style="44" customWidth="1"/>
+    <col min="5907" max="5907" width="9.33203125" style="44" customWidth="1"/>
+    <col min="5908" max="5908" width="2.6640625" style="44" customWidth="1"/>
+    <col min="5909" max="5909" width="20.88671875" style="44" customWidth="1"/>
+    <col min="5910" max="5910" width="5.6640625" style="44" customWidth="1"/>
     <col min="5911" max="6144" width="9" style="44"/>
-    <col min="6145" max="6147" width="5.625" style="44" customWidth="1"/>
-    <col min="6148" max="6148" width="7.25" style="44" customWidth="1"/>
-    <col min="6149" max="6162" width="5.625" style="44" customWidth="1"/>
-    <col min="6163" max="6163" width="9.375" style="44" customWidth="1"/>
-    <col min="6164" max="6164" width="2.625" style="44" customWidth="1"/>
-    <col min="6165" max="6165" width="20.875" style="44" customWidth="1"/>
-    <col min="6166" max="6166" width="5.625" style="44" customWidth="1"/>
+    <col min="6145" max="6147" width="5.6640625" style="44" customWidth="1"/>
+    <col min="6148" max="6148" width="7.21875" style="44" customWidth="1"/>
+    <col min="6149" max="6162" width="5.6640625" style="44" customWidth="1"/>
+    <col min="6163" max="6163" width="9.33203125" style="44" customWidth="1"/>
+    <col min="6164" max="6164" width="2.6640625" style="44" customWidth="1"/>
+    <col min="6165" max="6165" width="20.88671875" style="44" customWidth="1"/>
+    <col min="6166" max="6166" width="5.6640625" style="44" customWidth="1"/>
     <col min="6167" max="6400" width="9" style="44"/>
-    <col min="6401" max="6403" width="5.625" style="44" customWidth="1"/>
-    <col min="6404" max="6404" width="7.25" style="44" customWidth="1"/>
-    <col min="6405" max="6418" width="5.625" style="44" customWidth="1"/>
-    <col min="6419" max="6419" width="9.375" style="44" customWidth="1"/>
-    <col min="6420" max="6420" width="2.625" style="44" customWidth="1"/>
-    <col min="6421" max="6421" width="20.875" style="44" customWidth="1"/>
-    <col min="6422" max="6422" width="5.625" style="44" customWidth="1"/>
+    <col min="6401" max="6403" width="5.6640625" style="44" customWidth="1"/>
+    <col min="6404" max="6404" width="7.21875" style="44" customWidth="1"/>
+    <col min="6405" max="6418" width="5.6640625" style="44" customWidth="1"/>
+    <col min="6419" max="6419" width="9.33203125" style="44" customWidth="1"/>
+    <col min="6420" max="6420" width="2.6640625" style="44" customWidth="1"/>
+    <col min="6421" max="6421" width="20.88671875" style="44" customWidth="1"/>
+    <col min="6422" max="6422" width="5.6640625" style="44" customWidth="1"/>
     <col min="6423" max="6656" width="9" style="44"/>
-    <col min="6657" max="6659" width="5.625" style="44" customWidth="1"/>
-    <col min="6660" max="6660" width="7.25" style="44" customWidth="1"/>
-    <col min="6661" max="6674" width="5.625" style="44" customWidth="1"/>
-    <col min="6675" max="6675" width="9.375" style="44" customWidth="1"/>
-    <col min="6676" max="6676" width="2.625" style="44" customWidth="1"/>
-    <col min="6677" max="6677" width="20.875" style="44" customWidth="1"/>
-    <col min="6678" max="6678" width="5.625" style="44" customWidth="1"/>
+    <col min="6657" max="6659" width="5.6640625" style="44" customWidth="1"/>
+    <col min="6660" max="6660" width="7.21875" style="44" customWidth="1"/>
+    <col min="6661" max="6674" width="5.6640625" style="44" customWidth="1"/>
+    <col min="6675" max="6675" width="9.33203125" style="44" customWidth="1"/>
+    <col min="6676" max="6676" width="2.6640625" style="44" customWidth="1"/>
+    <col min="6677" max="6677" width="20.88671875" style="44" customWidth="1"/>
+    <col min="6678" max="6678" width="5.6640625" style="44" customWidth="1"/>
     <col min="6679" max="6912" width="9" style="44"/>
-    <col min="6913" max="6915" width="5.625" style="44" customWidth="1"/>
-    <col min="6916" max="6916" width="7.25" style="44" customWidth="1"/>
-    <col min="6917" max="6930" width="5.625" style="44" customWidth="1"/>
-    <col min="6931" max="6931" width="9.375" style="44" customWidth="1"/>
-    <col min="6932" max="6932" width="2.625" style="44" customWidth="1"/>
-    <col min="6933" max="6933" width="20.875" style="44" customWidth="1"/>
-    <col min="6934" max="6934" width="5.625" style="44" customWidth="1"/>
+    <col min="6913" max="6915" width="5.6640625" style="44" customWidth="1"/>
+    <col min="6916" max="6916" width="7.21875" style="44" customWidth="1"/>
+    <col min="6917" max="6930" width="5.6640625" style="44" customWidth="1"/>
+    <col min="6931" max="6931" width="9.33203125" style="44" customWidth="1"/>
+    <col min="6932" max="6932" width="2.6640625" style="44" customWidth="1"/>
+    <col min="6933" max="6933" width="20.88671875" style="44" customWidth="1"/>
+    <col min="6934" max="6934" width="5.6640625" style="44" customWidth="1"/>
     <col min="6935" max="7168" width="9" style="44"/>
-    <col min="7169" max="7171" width="5.625" style="44" customWidth="1"/>
-    <col min="7172" max="7172" width="7.25" style="44" customWidth="1"/>
-    <col min="7173" max="7186" width="5.625" style="44" customWidth="1"/>
-    <col min="7187" max="7187" width="9.375" style="44" customWidth="1"/>
-    <col min="7188" max="7188" width="2.625" style="44" customWidth="1"/>
-    <col min="7189" max="7189" width="20.875" style="44" customWidth="1"/>
-    <col min="7190" max="7190" width="5.625" style="44" customWidth="1"/>
+    <col min="7169" max="7171" width="5.6640625" style="44" customWidth="1"/>
+    <col min="7172" max="7172" width="7.21875" style="44" customWidth="1"/>
+    <col min="7173" max="7186" width="5.6640625" style="44" customWidth="1"/>
+    <col min="7187" max="7187" width="9.33203125" style="44" customWidth="1"/>
+    <col min="7188" max="7188" width="2.6640625" style="44" customWidth="1"/>
+    <col min="7189" max="7189" width="20.88671875" style="44" customWidth="1"/>
+    <col min="7190" max="7190" width="5.6640625" style="44" customWidth="1"/>
     <col min="7191" max="7424" width="9" style="44"/>
-    <col min="7425" max="7427" width="5.625" style="44" customWidth="1"/>
-    <col min="7428" max="7428" width="7.25" style="44" customWidth="1"/>
-    <col min="7429" max="7442" width="5.625" style="44" customWidth="1"/>
-    <col min="7443" max="7443" width="9.375" style="44" customWidth="1"/>
-    <col min="7444" max="7444" width="2.625" style="44" customWidth="1"/>
-    <col min="7445" max="7445" width="20.875" style="44" customWidth="1"/>
-    <col min="7446" max="7446" width="5.625" style="44" customWidth="1"/>
+    <col min="7425" max="7427" width="5.6640625" style="44" customWidth="1"/>
+    <col min="7428" max="7428" width="7.21875" style="44" customWidth="1"/>
+    <col min="7429" max="7442" width="5.6640625" style="44" customWidth="1"/>
+    <col min="7443" max="7443" width="9.33203125" style="44" customWidth="1"/>
+    <col min="7444" max="7444" width="2.6640625" style="44" customWidth="1"/>
+    <col min="7445" max="7445" width="20.88671875" style="44" customWidth="1"/>
+    <col min="7446" max="7446" width="5.6640625" style="44" customWidth="1"/>
     <col min="7447" max="7680" width="9" style="44"/>
-    <col min="7681" max="7683" width="5.625" style="44" customWidth="1"/>
-    <col min="7684" max="7684" width="7.25" style="44" customWidth="1"/>
-    <col min="7685" max="7698" width="5.625" style="44" customWidth="1"/>
-    <col min="7699" max="7699" width="9.375" style="44" customWidth="1"/>
-    <col min="7700" max="7700" width="2.625" style="44" customWidth="1"/>
-    <col min="7701" max="7701" width="20.875" style="44" customWidth="1"/>
-    <col min="7702" max="7702" width="5.625" style="44" customWidth="1"/>
+    <col min="7681" max="7683" width="5.6640625" style="44" customWidth="1"/>
+    <col min="7684" max="7684" width="7.21875" style="44" customWidth="1"/>
+    <col min="7685" max="7698" width="5.6640625" style="44" customWidth="1"/>
+    <col min="7699" max="7699" width="9.33203125" style="44" customWidth="1"/>
+    <col min="7700" max="7700" width="2.6640625" style="44" customWidth="1"/>
+    <col min="7701" max="7701" width="20.88671875" style="44" customWidth="1"/>
+    <col min="7702" max="7702" width="5.6640625" style="44" customWidth="1"/>
     <col min="7703" max="7936" width="9" style="44"/>
-    <col min="7937" max="7939" width="5.625" style="44" customWidth="1"/>
-    <col min="7940" max="7940" width="7.25" style="44" customWidth="1"/>
-    <col min="7941" max="7954" width="5.625" style="44" customWidth="1"/>
-    <col min="7955" max="7955" width="9.375" style="44" customWidth="1"/>
-    <col min="7956" max="7956" width="2.625" style="44" customWidth="1"/>
-    <col min="7957" max="7957" width="20.875" style="44" customWidth="1"/>
-    <col min="7958" max="7958" width="5.625" style="44" customWidth="1"/>
+    <col min="7937" max="7939" width="5.6640625" style="44" customWidth="1"/>
+    <col min="7940" max="7940" width="7.21875" style="44" customWidth="1"/>
+    <col min="7941" max="7954" width="5.6640625" style="44" customWidth="1"/>
+    <col min="7955" max="7955" width="9.33203125" style="44" customWidth="1"/>
+    <col min="7956" max="7956" width="2.6640625" style="44" customWidth="1"/>
+    <col min="7957" max="7957" width="20.88671875" style="44" customWidth="1"/>
+    <col min="7958" max="7958" width="5.6640625" style="44" customWidth="1"/>
     <col min="7959" max="8192" width="9" style="44"/>
-    <col min="8193" max="8195" width="5.625" style="44" customWidth="1"/>
-    <col min="8196" max="8196" width="7.25" style="44" customWidth="1"/>
-    <col min="8197" max="8210" width="5.625" style="44" customWidth="1"/>
-    <col min="8211" max="8211" width="9.375" style="44" customWidth="1"/>
-    <col min="8212" max="8212" width="2.625" style="44" customWidth="1"/>
-    <col min="8213" max="8213" width="20.875" style="44" customWidth="1"/>
-    <col min="8214" max="8214" width="5.625" style="44" customWidth="1"/>
+    <col min="8193" max="8195" width="5.6640625" style="44" customWidth="1"/>
+    <col min="8196" max="8196" width="7.21875" style="44" customWidth="1"/>
+    <col min="8197" max="8210" width="5.6640625" style="44" customWidth="1"/>
+    <col min="8211" max="8211" width="9.33203125" style="44" customWidth="1"/>
+    <col min="8212" max="8212" width="2.6640625" style="44" customWidth="1"/>
+    <col min="8213" max="8213" width="20.88671875" style="44" customWidth="1"/>
+    <col min="8214" max="8214" width="5.6640625" style="44" customWidth="1"/>
     <col min="8215" max="8448" width="9" style="44"/>
-    <col min="8449" max="8451" width="5.625" style="44" customWidth="1"/>
-    <col min="8452" max="8452" width="7.25" style="44" customWidth="1"/>
-    <col min="8453" max="8466" width="5.625" style="44" customWidth="1"/>
-    <col min="8467" max="8467" width="9.375" style="44" customWidth="1"/>
-    <col min="8468" max="8468" width="2.625" style="44" customWidth="1"/>
-    <col min="8469" max="8469" width="20.875" style="44" customWidth="1"/>
-    <col min="8470" max="8470" width="5.625" style="44" customWidth="1"/>
+    <col min="8449" max="8451" width="5.6640625" style="44" customWidth="1"/>
+    <col min="8452" max="8452" width="7.21875" style="44" customWidth="1"/>
+    <col min="8453" max="8466" width="5.6640625" style="44" customWidth="1"/>
+    <col min="8467" max="8467" width="9.33203125" style="44" customWidth="1"/>
+    <col min="8468" max="8468" width="2.6640625" style="44" customWidth="1"/>
+    <col min="8469" max="8469" width="20.88671875" style="44" customWidth="1"/>
+    <col min="8470" max="8470" width="5.6640625" style="44" customWidth="1"/>
     <col min="8471" max="8704" width="9" style="44"/>
-    <col min="8705" max="8707" width="5.625" style="44" customWidth="1"/>
-    <col min="8708" max="8708" width="7.25" style="44" customWidth="1"/>
-    <col min="8709" max="8722" width="5.625" style="44" customWidth="1"/>
-    <col min="8723" max="8723" width="9.375" style="44" customWidth="1"/>
-    <col min="8724" max="8724" width="2.625" style="44" customWidth="1"/>
-    <col min="8725" max="8725" width="20.875" style="44" customWidth="1"/>
-    <col min="8726" max="8726" width="5.625" style="44" customWidth="1"/>
+    <col min="8705" max="8707" width="5.6640625" style="44" customWidth="1"/>
+    <col min="8708" max="8708" width="7.21875" style="44" customWidth="1"/>
+    <col min="8709" max="8722" width="5.6640625" style="44" customWidth="1"/>
+    <col min="8723" max="8723" width="9.33203125" style="44" customWidth="1"/>
+    <col min="8724" max="8724" width="2.6640625" style="44" customWidth="1"/>
+    <col min="8725" max="8725" width="20.88671875" style="44" customWidth="1"/>
+    <col min="8726" max="8726" width="5.6640625" style="44" customWidth="1"/>
     <col min="8727" max="8960" width="9" style="44"/>
-    <col min="8961" max="8963" width="5.625" style="44" customWidth="1"/>
-    <col min="8964" max="8964" width="7.25" style="44" customWidth="1"/>
-    <col min="8965" max="8978" width="5.625" style="44" customWidth="1"/>
-    <col min="8979" max="8979" width="9.375" style="44" customWidth="1"/>
-    <col min="8980" max="8980" width="2.625" style="44" customWidth="1"/>
-    <col min="8981" max="8981" width="20.875" style="44" customWidth="1"/>
-    <col min="8982" max="8982" width="5.625" style="44" customWidth="1"/>
+    <col min="8961" max="8963" width="5.6640625" style="44" customWidth="1"/>
+    <col min="8964" max="8964" width="7.21875" style="44" customWidth="1"/>
+    <col min="8965" max="8978" width="5.6640625" style="44" customWidth="1"/>
+    <col min="8979" max="8979" width="9.33203125" style="44" customWidth="1"/>
+    <col min="8980" max="8980" width="2.6640625" style="44" customWidth="1"/>
+    <col min="8981" max="8981" width="20.88671875" style="44" customWidth="1"/>
+    <col min="8982" max="8982" width="5.6640625" style="44" customWidth="1"/>
     <col min="8983" max="9216" width="9" style="44"/>
-    <col min="9217" max="9219" width="5.625" style="44" customWidth="1"/>
-    <col min="9220" max="9220" width="7.25" style="44" customWidth="1"/>
-    <col min="9221" max="9234" width="5.625" style="44" customWidth="1"/>
-    <col min="9235" max="9235" width="9.375" style="44" customWidth="1"/>
-    <col min="9236" max="9236" width="2.625" style="44" customWidth="1"/>
-    <col min="9237" max="9237" width="20.875" style="44" customWidth="1"/>
-    <col min="9238" max="9238" width="5.625" style="44" customWidth="1"/>
+    <col min="9217" max="9219" width="5.6640625" style="44" customWidth="1"/>
+    <col min="9220" max="9220" width="7.21875" style="44" customWidth="1"/>
+    <col min="9221" max="9234" width="5.6640625" style="44" customWidth="1"/>
+    <col min="9235" max="9235" width="9.33203125" style="44" customWidth="1"/>
+    <col min="9236" max="9236" width="2.6640625" style="44" customWidth="1"/>
+    <col min="9237" max="9237" width="20.88671875" style="44" customWidth="1"/>
+    <col min="9238" max="9238" width="5.6640625" style="44" customWidth="1"/>
     <col min="9239" max="9472" width="9" style="44"/>
-    <col min="9473" max="9475" width="5.625" style="44" customWidth="1"/>
-    <col min="9476" max="9476" width="7.25" style="44" customWidth="1"/>
-    <col min="9477" max="9490" width="5.625" style="44" customWidth="1"/>
-    <col min="9491" max="9491" width="9.375" style="44" customWidth="1"/>
-    <col min="9492" max="9492" width="2.625" style="44" customWidth="1"/>
-    <col min="9493" max="9493" width="20.875" style="44" customWidth="1"/>
-    <col min="9494" max="9494" width="5.625" style="44" customWidth="1"/>
+    <col min="9473" max="9475" width="5.6640625" style="44" customWidth="1"/>
+    <col min="9476" max="9476" width="7.21875" style="44" customWidth="1"/>
+    <col min="9477" max="9490" width="5.6640625" style="44" customWidth="1"/>
+    <col min="9491" max="9491" width="9.33203125" style="44" customWidth="1"/>
+    <col min="9492" max="9492" width="2.6640625" style="44" customWidth="1"/>
+    <col min="9493" max="9493" width="20.88671875" style="44" customWidth="1"/>
+    <col min="9494" max="9494" width="5.6640625" style="44" customWidth="1"/>
     <col min="9495" max="9728" width="9" style="44"/>
-    <col min="9729" max="9731" width="5.625" style="44" customWidth="1"/>
-    <col min="9732" max="9732" width="7.25" style="44" customWidth="1"/>
-    <col min="9733" max="9746" width="5.625" style="44" customWidth="1"/>
-    <col min="9747" max="9747" width="9.375" style="44" customWidth="1"/>
-    <col min="9748" max="9748" width="2.625" style="44" customWidth="1"/>
-    <col min="9749" max="9749" width="20.875" style="44" customWidth="1"/>
-    <col min="9750" max="9750" width="5.625" style="44" customWidth="1"/>
+    <col min="9729" max="9731" width="5.6640625" style="44" customWidth="1"/>
+    <col min="9732" max="9732" width="7.21875" style="44" customWidth="1"/>
+    <col min="9733" max="9746" width="5.6640625" style="44" customWidth="1"/>
+    <col min="9747" max="9747" width="9.33203125" style="44" customWidth="1"/>
+    <col min="9748" max="9748" width="2.6640625" style="44" customWidth="1"/>
+    <col min="9749" max="9749" width="20.88671875" style="44" customWidth="1"/>
+    <col min="9750" max="9750" width="5.6640625" style="44" customWidth="1"/>
     <col min="9751" max="9984" width="9" style="44"/>
-    <col min="9985" max="9987" width="5.625" style="44" customWidth="1"/>
-    <col min="9988" max="9988" width="7.25" style="44" customWidth="1"/>
-    <col min="9989" max="10002" width="5.625" style="44" customWidth="1"/>
-    <col min="10003" max="10003" width="9.375" style="44" customWidth="1"/>
-    <col min="10004" max="10004" width="2.625" style="44" customWidth="1"/>
-    <col min="10005" max="10005" width="20.875" style="44" customWidth="1"/>
-    <col min="10006" max="10006" width="5.625" style="44" customWidth="1"/>
+    <col min="9985" max="9987" width="5.6640625" style="44" customWidth="1"/>
+    <col min="9988" max="9988" width="7.21875" style="44" customWidth="1"/>
+    <col min="9989" max="10002" width="5.6640625" style="44" customWidth="1"/>
+    <col min="10003" max="10003" width="9.33203125" style="44" customWidth="1"/>
+    <col min="10004" max="10004" width="2.6640625" style="44" customWidth="1"/>
+    <col min="10005" max="10005" width="20.88671875" style="44" customWidth="1"/>
+    <col min="10006" max="10006" width="5.6640625" style="44" customWidth="1"/>
     <col min="10007" max="10240" width="9" style="44"/>
-    <col min="10241" max="10243" width="5.625" style="44" customWidth="1"/>
-    <col min="10244" max="10244" width="7.25" style="44" customWidth="1"/>
-    <col min="10245" max="10258" width="5.625" style="44" customWidth="1"/>
-    <col min="10259" max="10259" width="9.375" style="44" customWidth="1"/>
-    <col min="10260" max="10260" width="2.625" style="44" customWidth="1"/>
-    <col min="10261" max="10261" width="20.875" style="44" customWidth="1"/>
-    <col min="10262" max="10262" width="5.625" style="44" customWidth="1"/>
+    <col min="10241" max="10243" width="5.6640625" style="44" customWidth="1"/>
+    <col min="10244" max="10244" width="7.21875" style="44" customWidth="1"/>
+    <col min="10245" max="10258" width="5.6640625" style="44" customWidth="1"/>
+    <col min="10259" max="10259" width="9.33203125" style="44" customWidth="1"/>
+    <col min="10260" max="10260" width="2.6640625" style="44" customWidth="1"/>
+    <col min="10261" max="10261" width="20.88671875" style="44" customWidth="1"/>
+    <col min="10262" max="10262" width="5.6640625" style="44" customWidth="1"/>
     <col min="10263" max="10496" width="9" style="44"/>
-    <col min="10497" max="10499" width="5.625" style="44" customWidth="1"/>
-    <col min="10500" max="10500" width="7.25" style="44" customWidth="1"/>
-    <col min="10501" max="10514" width="5.625" style="44" customWidth="1"/>
-    <col min="10515" max="10515" width="9.375" style="44" customWidth="1"/>
-    <col min="10516" max="10516" width="2.625" style="44" customWidth="1"/>
-    <col min="10517" max="10517" width="20.875" style="44" customWidth="1"/>
-    <col min="10518" max="10518" width="5.625" style="44" customWidth="1"/>
+    <col min="10497" max="10499" width="5.6640625" style="44" customWidth="1"/>
+    <col min="10500" max="10500" width="7.21875" style="44" customWidth="1"/>
+    <col min="10501" max="10514" width="5.6640625" style="44" customWidth="1"/>
+    <col min="10515" max="10515" width="9.33203125" style="44" customWidth="1"/>
+    <col min="10516" max="10516" width="2.6640625" style="44" customWidth="1"/>
+    <col min="10517" max="10517" width="20.88671875" style="44" customWidth="1"/>
+    <col min="10518" max="10518" width="5.6640625" style="44" customWidth="1"/>
     <col min="10519" max="10752" width="9" style="44"/>
-    <col min="10753" max="10755" width="5.625" style="44" customWidth="1"/>
-    <col min="10756" max="10756" width="7.25" style="44" customWidth="1"/>
-    <col min="10757" max="10770" width="5.625" style="44" customWidth="1"/>
-    <col min="10771" max="10771" width="9.375" style="44" customWidth="1"/>
-    <col min="10772" max="10772" width="2.625" style="44" customWidth="1"/>
-    <col min="10773" max="10773" width="20.875" style="44" customWidth="1"/>
-    <col min="10774" max="10774" width="5.625" style="44" customWidth="1"/>
+    <col min="10753" max="10755" width="5.6640625" style="44" customWidth="1"/>
+    <col min="10756" max="10756" width="7.21875" style="44" customWidth="1"/>
+    <col min="10757" max="10770" width="5.6640625" style="44" customWidth="1"/>
+    <col min="10771" max="10771" width="9.33203125" style="44" customWidth="1"/>
+    <col min="10772" max="10772" width="2.6640625" style="44" customWidth="1"/>
+    <col min="10773" max="10773" width="20.88671875" style="44" customWidth="1"/>
+    <col min="10774" max="10774" width="5.6640625" style="44" customWidth="1"/>
     <col min="10775" max="11008" width="9" style="44"/>
-    <col min="11009" max="11011" width="5.625" style="44" customWidth="1"/>
-    <col min="11012" max="11012" width="7.25" style="44" customWidth="1"/>
-    <col min="11013" max="11026" width="5.625" style="44" customWidth="1"/>
-    <col min="11027" max="11027" width="9.375" style="44" customWidth="1"/>
-    <col min="11028" max="11028" width="2.625" style="44" customWidth="1"/>
-    <col min="11029" max="11029" width="20.875" style="44" customWidth="1"/>
-    <col min="11030" max="11030" width="5.625" style="44" customWidth="1"/>
+    <col min="11009" max="11011" width="5.6640625" style="44" customWidth="1"/>
+    <col min="11012" max="11012" width="7.21875" style="44" customWidth="1"/>
+    <col min="11013" max="11026" width="5.6640625" style="44" customWidth="1"/>
+    <col min="11027" max="11027" width="9.33203125" style="44" customWidth="1"/>
+    <col min="11028" max="11028" width="2.6640625" style="44" customWidth="1"/>
+    <col min="11029" max="11029" width="20.88671875" style="44" customWidth="1"/>
+    <col min="11030" max="11030" width="5.6640625" style="44" customWidth="1"/>
     <col min="11031" max="11264" width="9" style="44"/>
-    <col min="11265" max="11267" width="5.625" style="44" customWidth="1"/>
-    <col min="11268" max="11268" width="7.25" style="44" customWidth="1"/>
-    <col min="11269" max="11282" width="5.625" style="44" customWidth="1"/>
-    <col min="11283" max="11283" width="9.375" style="44" customWidth="1"/>
-    <col min="11284" max="11284" width="2.625" style="44" customWidth="1"/>
-    <col min="11285" max="11285" width="20.875" style="44" customWidth="1"/>
-    <col min="11286" max="11286" width="5.625" style="44" customWidth="1"/>
+    <col min="11265" max="11267" width="5.6640625" style="44" customWidth="1"/>
+    <col min="11268" max="11268" width="7.21875" style="44" customWidth="1"/>
+    <col min="11269" max="11282" width="5.6640625" style="44" customWidth="1"/>
+    <col min="11283" max="11283" width="9.33203125" style="44" customWidth="1"/>
+    <col min="11284" max="11284" width="2.6640625" style="44" customWidth="1"/>
+    <col min="11285" max="11285" width="20.88671875" style="44" customWidth="1"/>
+    <col min="11286" max="11286" width="5.6640625" style="44" customWidth="1"/>
     <col min="11287" max="11520" width="9" style="44"/>
-    <col min="11521" max="11523" width="5.625" style="44" customWidth="1"/>
-    <col min="11524" max="11524" width="7.25" style="44" customWidth="1"/>
-    <col min="11525" max="11538" width="5.625" style="44" customWidth="1"/>
-    <col min="11539" max="11539" width="9.375" style="44" customWidth="1"/>
-    <col min="11540" max="11540" width="2.625" style="44" customWidth="1"/>
-    <col min="11541" max="11541" width="20.875" style="44" customWidth="1"/>
-    <col min="11542" max="11542" width="5.625" style="44" customWidth="1"/>
+    <col min="11521" max="11523" width="5.6640625" style="44" customWidth="1"/>
+    <col min="11524" max="11524" width="7.21875" style="44" customWidth="1"/>
+    <col min="11525" max="11538" width="5.6640625" style="44" customWidth="1"/>
+    <col min="11539" max="11539" width="9.33203125" style="44" customWidth="1"/>
+    <col min="11540" max="11540" width="2.6640625" style="44" customWidth="1"/>
+    <col min="11541" max="11541" width="20.88671875" style="44" customWidth="1"/>
+    <col min="11542" max="11542" width="5.6640625" style="44" customWidth="1"/>
     <col min="11543" max="11776" width="9" style="44"/>
-    <col min="11777" max="11779" width="5.625" style="44" customWidth="1"/>
-    <col min="11780" max="11780" width="7.25" style="44" customWidth="1"/>
-    <col min="11781" max="11794" width="5.625" style="44" customWidth="1"/>
-    <col min="11795" max="11795" width="9.375" style="44" customWidth="1"/>
-    <col min="11796" max="11796" width="2.625" style="44" customWidth="1"/>
-    <col min="11797" max="11797" width="20.875" style="44" customWidth="1"/>
-    <col min="11798" max="11798" width="5.625" style="44" customWidth="1"/>
+    <col min="11777" max="11779" width="5.6640625" style="44" customWidth="1"/>
+    <col min="11780" max="11780" width="7.21875" style="44" customWidth="1"/>
+    <col min="11781" max="11794" width="5.6640625" style="44" customWidth="1"/>
+    <col min="11795" max="11795" width="9.33203125" style="44" customWidth="1"/>
+    <col min="11796" max="11796" width="2.6640625" style="44" customWidth="1"/>
+    <col min="11797" max="11797" width="20.88671875" style="44" customWidth="1"/>
+    <col min="11798" max="11798" width="5.6640625" style="44" customWidth="1"/>
     <col min="11799" max="12032" width="9" style="44"/>
-    <col min="12033" max="12035" width="5.625" style="44" customWidth="1"/>
-    <col min="12036" max="12036" width="7.25" style="44" customWidth="1"/>
-    <col min="12037" max="12050" width="5.625" style="44" customWidth="1"/>
-    <col min="12051" max="12051" width="9.375" style="44" customWidth="1"/>
-    <col min="12052" max="12052" width="2.625" style="44" customWidth="1"/>
-    <col min="12053" max="12053" width="20.875" style="44" customWidth="1"/>
-    <col min="12054" max="12054" width="5.625" style="44" customWidth="1"/>
+    <col min="12033" max="12035" width="5.6640625" style="44" customWidth="1"/>
+    <col min="12036" max="12036" width="7.21875" style="44" customWidth="1"/>
+    <col min="12037" max="12050" width="5.6640625" style="44" customWidth="1"/>
+    <col min="12051" max="12051" width="9.33203125" style="44" customWidth="1"/>
+    <col min="12052" max="12052" width="2.6640625" style="44" customWidth="1"/>
+    <col min="12053" max="12053" width="20.88671875" style="44" customWidth="1"/>
+    <col min="12054" max="12054" width="5.6640625" style="44" customWidth="1"/>
     <col min="12055" max="12288" width="9" style="44"/>
-    <col min="12289" max="12291" width="5.625" style="44" customWidth="1"/>
-    <col min="12292" max="12292" width="7.25" style="44" customWidth="1"/>
-    <col min="12293" max="12306" width="5.625" style="44" customWidth="1"/>
-    <col min="12307" max="12307" width="9.375" style="44" customWidth="1"/>
-    <col min="12308" max="12308" width="2.625" style="44" customWidth="1"/>
-    <col min="12309" max="12309" width="20.875" style="44" customWidth="1"/>
-    <col min="12310" max="12310" width="5.625" style="44" customWidth="1"/>
+    <col min="12289" max="12291" width="5.6640625" style="44" customWidth="1"/>
+    <col min="12292" max="12292" width="7.21875" style="44" customWidth="1"/>
+    <col min="12293" max="12306" width="5.6640625" style="44" customWidth="1"/>
+    <col min="12307" max="12307" width="9.33203125" style="44" customWidth="1"/>
+    <col min="12308" max="12308" width="2.6640625" style="44" customWidth="1"/>
+    <col min="12309" max="12309" width="20.88671875" style="44" customWidth="1"/>
+    <col min="12310" max="12310" width="5.6640625" style="44" customWidth="1"/>
     <col min="12311" max="12544" width="9" style="44"/>
-    <col min="12545" max="12547" width="5.625" style="44" customWidth="1"/>
-    <col min="12548" max="12548" width="7.25" style="44" customWidth="1"/>
-    <col min="12549" max="12562" width="5.625" style="44" customWidth="1"/>
-    <col min="12563" max="12563" width="9.375" style="44" customWidth="1"/>
-    <col min="12564" max="12564" width="2.625" style="44" customWidth="1"/>
-    <col min="12565" max="12565" width="20.875" style="44" customWidth="1"/>
-    <col min="12566" max="12566" width="5.625" style="44" customWidth="1"/>
+    <col min="12545" max="12547" width="5.6640625" style="44" customWidth="1"/>
+    <col min="12548" max="12548" width="7.21875" style="44" customWidth="1"/>
+    <col min="12549" max="12562" width="5.6640625" style="44" customWidth="1"/>
+    <col min="12563" max="12563" width="9.33203125" style="44" customWidth="1"/>
+    <col min="12564" max="12564" width="2.6640625" style="44" customWidth="1"/>
+    <col min="12565" max="12565" width="20.88671875" style="44" customWidth="1"/>
+    <col min="12566" max="12566" width="5.6640625" style="44" customWidth="1"/>
     <col min="12567" max="12800" width="9" style="44"/>
-    <col min="12801" max="12803" width="5.625" style="44" customWidth="1"/>
-    <col min="12804" max="12804" width="7.25" style="44" customWidth="1"/>
-    <col min="12805" max="12818" width="5.625" style="44" customWidth="1"/>
-    <col min="12819" max="12819" width="9.375" style="44" customWidth="1"/>
-    <col min="12820" max="12820" width="2.625" style="44" customWidth="1"/>
-    <col min="12821" max="12821" width="20.875" style="44" customWidth="1"/>
-    <col min="12822" max="12822" width="5.625" style="44" customWidth="1"/>
+    <col min="12801" max="12803" width="5.6640625" style="44" customWidth="1"/>
+    <col min="12804" max="12804" width="7.21875" style="44" customWidth="1"/>
+    <col min="12805" max="12818" width="5.6640625" style="44" customWidth="1"/>
+    <col min="12819" max="12819" width="9.33203125" style="44" customWidth="1"/>
+    <col min="12820" max="12820" width="2.6640625" style="44" customWidth="1"/>
+    <col min="12821" max="12821" width="20.88671875" style="44" customWidth="1"/>
+    <col min="12822" max="12822" width="5.6640625" style="44" customWidth="1"/>
     <col min="12823" max="13056" width="9" style="44"/>
-    <col min="13057" max="13059" width="5.625" style="44" customWidth="1"/>
-    <col min="13060" max="13060" width="7.25" style="44" customWidth="1"/>
-    <col min="13061" max="13074" width="5.625" style="44" customWidth="1"/>
-    <col min="13075" max="13075" width="9.375" style="44" customWidth="1"/>
-    <col min="13076" max="13076" width="2.625" style="44" customWidth="1"/>
-    <col min="13077" max="13077" width="20.875" style="44" customWidth="1"/>
-    <col min="13078" max="13078" width="5.625" style="44" customWidth="1"/>
+    <col min="13057" max="13059" width="5.6640625" style="44" customWidth="1"/>
+    <col min="13060" max="13060" width="7.21875" style="44" customWidth="1"/>
+    <col min="13061" max="13074" width="5.6640625" style="44" customWidth="1"/>
+    <col min="13075" max="13075" width="9.33203125" style="44" customWidth="1"/>
+    <col min="13076" max="13076" width="2.6640625" style="44" customWidth="1"/>
+    <col min="13077" max="13077" width="20.88671875" style="44" customWidth="1"/>
+    <col min="13078" max="13078" width="5.6640625" style="44" customWidth="1"/>
     <col min="13079" max="13312" width="9" style="44"/>
-    <col min="13313" max="13315" width="5.625" style="44" customWidth="1"/>
-    <col min="13316" max="13316" width="7.25" style="44" customWidth="1"/>
-    <col min="13317" max="13330" width="5.625" style="44" customWidth="1"/>
-    <col min="13331" max="13331" width="9.375" style="44" customWidth="1"/>
-    <col min="13332" max="13332" width="2.625" style="44" customWidth="1"/>
-    <col min="13333" max="13333" width="20.875" style="44" customWidth="1"/>
-    <col min="13334" max="13334" width="5.625" style="44" customWidth="1"/>
+    <col min="13313" max="13315" width="5.6640625" style="44" customWidth="1"/>
+    <col min="13316" max="13316" width="7.21875" style="44" customWidth="1"/>
+    <col min="13317" max="13330" width="5.6640625" style="44" customWidth="1"/>
+    <col min="13331" max="13331" width="9.33203125" style="44" customWidth="1"/>
+    <col min="13332" max="13332" width="2.6640625" style="44" customWidth="1"/>
+    <col min="13333" max="13333" width="20.88671875" style="44" customWidth="1"/>
+    <col min="13334" max="13334" width="5.6640625" style="44" customWidth="1"/>
     <col min="13335" max="13568" width="9" style="44"/>
-    <col min="13569" max="13571" width="5.625" style="44" customWidth="1"/>
-    <col min="13572" max="13572" width="7.25" style="44" customWidth="1"/>
-    <col min="13573" max="13586" width="5.625" style="44" customWidth="1"/>
-    <col min="13587" max="13587" width="9.375" style="44" customWidth="1"/>
-    <col min="13588" max="13588" width="2.625" style="44" customWidth="1"/>
-    <col min="13589" max="13589" width="20.875" style="44" customWidth="1"/>
-    <col min="13590" max="13590" width="5.625" style="44" customWidth="1"/>
+    <col min="13569" max="13571" width="5.6640625" style="44" customWidth="1"/>
+    <col min="13572" max="13572" width="7.21875" style="44" customWidth="1"/>
+    <col min="13573" max="13586" width="5.6640625" style="44" customWidth="1"/>
+    <col min="13587" max="13587" width="9.33203125" style="44" customWidth="1"/>
+    <col min="13588" max="13588" width="2.6640625" style="44" customWidth="1"/>
+    <col min="13589" max="13589" width="20.88671875" style="44" customWidth="1"/>
+    <col min="13590" max="13590" width="5.6640625" style="44" customWidth="1"/>
     <col min="13591" max="13824" width="9" style="44"/>
-    <col min="13825" max="13827" width="5.625" style="44" customWidth="1"/>
-    <col min="13828" max="13828" width="7.25" style="44" customWidth="1"/>
-    <col min="13829" max="13842" width="5.625" style="44" customWidth="1"/>
-    <col min="13843" max="13843" width="9.375" style="44" customWidth="1"/>
-    <col min="13844" max="13844" width="2.625" style="44" customWidth="1"/>
-    <col min="13845" max="13845" width="20.875" style="44" customWidth="1"/>
-    <col min="13846" max="13846" width="5.625" style="44" customWidth="1"/>
+    <col min="13825" max="13827" width="5.6640625" style="44" customWidth="1"/>
+    <col min="13828" max="13828" width="7.21875" style="44" customWidth="1"/>
+    <col min="13829" max="13842" width="5.6640625" style="44" customWidth="1"/>
+    <col min="13843" max="13843" width="9.33203125" style="44" customWidth="1"/>
+    <col min="13844" max="13844" width="2.6640625" style="44" customWidth="1"/>
+    <col min="13845" max="13845" width="20.88671875" style="44" customWidth="1"/>
+    <col min="13846" max="13846" width="5.6640625" style="44" customWidth="1"/>
     <col min="13847" max="14080" width="9" style="44"/>
-    <col min="14081" max="14083" width="5.625" style="44" customWidth="1"/>
-    <col min="14084" max="14084" width="7.25" style="44" customWidth="1"/>
-    <col min="14085" max="14098" width="5.625" style="44" customWidth="1"/>
-    <col min="14099" max="14099" width="9.375" style="44" customWidth="1"/>
-    <col min="14100" max="14100" width="2.625" style="44" customWidth="1"/>
-    <col min="14101" max="14101" width="20.875" style="44" customWidth="1"/>
-    <col min="14102" max="14102" width="5.625" style="44" customWidth="1"/>
+    <col min="14081" max="14083" width="5.6640625" style="44" customWidth="1"/>
+    <col min="14084" max="14084" width="7.21875" style="44" customWidth="1"/>
+    <col min="14085" max="14098" width="5.6640625" style="44" customWidth="1"/>
+    <col min="14099" max="14099" width="9.33203125" style="44" customWidth="1"/>
+    <col min="14100" max="14100" width="2.6640625" style="44" customWidth="1"/>
+    <col min="14101" max="14101" width="20.88671875" style="44" customWidth="1"/>
+    <col min="14102" max="14102" width="5.6640625" style="44" customWidth="1"/>
     <col min="14103" max="14336" width="9" style="44"/>
-    <col min="14337" max="14339" width="5.625" style="44" customWidth="1"/>
-    <col min="14340" max="14340" width="7.25" style="44" customWidth="1"/>
-    <col min="14341" max="14354" width="5.625" style="44" customWidth="1"/>
-    <col min="14355" max="14355" width="9.375" style="44" customWidth="1"/>
-    <col min="14356" max="14356" width="2.625" style="44" customWidth="1"/>
-    <col min="14357" max="14357" width="20.875" style="44" customWidth="1"/>
-    <col min="14358" max="14358" width="5.625" style="44" customWidth="1"/>
+    <col min="14337" max="14339" width="5.6640625" style="44" customWidth="1"/>
+    <col min="14340" max="14340" width="7.21875" style="44" customWidth="1"/>
+    <col min="14341" max="14354" width="5.6640625" style="44" customWidth="1"/>
+    <col min="14355" max="14355" width="9.33203125" style="44" customWidth="1"/>
+    <col min="14356" max="14356" width="2.6640625" style="44" customWidth="1"/>
+    <col min="14357" max="14357" width="20.88671875" style="44" customWidth="1"/>
+    <col min="14358" max="14358" width="5.6640625" style="44" customWidth="1"/>
     <col min="14359" max="14592" width="9" style="44"/>
-    <col min="14593" max="14595" width="5.625" style="44" customWidth="1"/>
-    <col min="14596" max="14596" width="7.25" style="44" customWidth="1"/>
-    <col min="14597" max="14610" width="5.625" style="44" customWidth="1"/>
-    <col min="14611" max="14611" width="9.375" style="44" customWidth="1"/>
-    <col min="14612" max="14612" width="2.625" style="44" customWidth="1"/>
-    <col min="14613" max="14613" width="20.875" style="44" customWidth="1"/>
-    <col min="14614" max="14614" width="5.625" style="44" customWidth="1"/>
+    <col min="14593" max="14595" width="5.6640625" style="44" customWidth="1"/>
+    <col min="14596" max="14596" width="7.21875" style="44" customWidth="1"/>
+    <col min="14597" max="14610" width="5.6640625" style="44" customWidth="1"/>
+    <col min="14611" max="14611" width="9.33203125" style="44" customWidth="1"/>
+    <col min="14612" max="14612" width="2.6640625" style="44" customWidth="1"/>
+    <col min="14613" max="14613" width="20.88671875" style="44" customWidth="1"/>
+    <col min="14614" max="14614" width="5.6640625" style="44" customWidth="1"/>
     <col min="14615" max="14848" width="9" style="44"/>
-    <col min="14849" max="14851" width="5.625" style="44" customWidth="1"/>
-    <col min="14852" max="14852" width="7.25" style="44" customWidth="1"/>
-    <col min="14853" max="14866" width="5.625" style="44" customWidth="1"/>
-    <col min="14867" max="14867" width="9.375" style="44" customWidth="1"/>
-    <col min="14868" max="14868" width="2.625" style="44" customWidth="1"/>
-    <col min="14869" max="14869" width="20.875" style="44" customWidth="1"/>
-    <col min="14870" max="14870" width="5.625" style="44" customWidth="1"/>
+    <col min="14849" max="14851" width="5.6640625" style="44" customWidth="1"/>
+    <col min="14852" max="14852" width="7.21875" style="44" customWidth="1"/>
+    <col min="14853" max="14866" width="5.6640625" style="44" customWidth="1"/>
+    <col min="14867" max="14867" width="9.33203125" style="44" customWidth="1"/>
+    <col min="14868" max="14868" width="2.6640625" style="44" customWidth="1"/>
+    <col min="14869" max="14869" width="20.88671875" style="44" customWidth="1"/>
+    <col min="14870" max="14870" width="5.6640625" style="44" customWidth="1"/>
     <col min="14871" max="15104" width="9" style="44"/>
-    <col min="15105" max="15107" width="5.625" style="44" customWidth="1"/>
-    <col min="15108" max="15108" width="7.25" style="44" customWidth="1"/>
-    <col min="15109" max="15122" width="5.625" style="44" customWidth="1"/>
-    <col min="15123" max="15123" width="9.375" style="44" customWidth="1"/>
-    <col min="15124" max="15124" width="2.625" style="44" customWidth="1"/>
-    <col min="15125" max="15125" width="20.875" style="44" customWidth="1"/>
-    <col min="15126" max="15126" width="5.625" style="44" customWidth="1"/>
+    <col min="15105" max="15107" width="5.6640625" style="44" customWidth="1"/>
+    <col min="15108" max="15108" width="7.21875" style="44" customWidth="1"/>
+    <col min="15109" max="15122" width="5.6640625" style="44" customWidth="1"/>
+    <col min="15123" max="15123" width="9.33203125" style="44" customWidth="1"/>
+    <col min="15124" max="15124" width="2.6640625" style="44" customWidth="1"/>
+    <col min="15125" max="15125" width="20.88671875" style="44" customWidth="1"/>
+    <col min="15126" max="15126" width="5.6640625" style="44" customWidth="1"/>
     <col min="15127" max="15360" width="9" style="44"/>
-    <col min="15361" max="15363" width="5.625" style="44" customWidth="1"/>
-    <col min="15364" max="15364" width="7.25" style="44" customWidth="1"/>
-    <col min="15365" max="15378" width="5.625" style="44" customWidth="1"/>
-    <col min="15379" max="15379" width="9.375" style="44" customWidth="1"/>
-    <col min="15380" max="15380" width="2.625" style="44" customWidth="1"/>
-    <col min="15381" max="15381" width="20.875" style="44" customWidth="1"/>
-    <col min="15382" max="15382" width="5.625" style="44" customWidth="1"/>
+    <col min="15361" max="15363" width="5.6640625" style="44" customWidth="1"/>
+    <col min="15364" max="15364" width="7.21875" style="44" customWidth="1"/>
+    <col min="15365" max="15378" width="5.6640625" style="44" customWidth="1"/>
+    <col min="15379" max="15379" width="9.33203125" style="44" customWidth="1"/>
+    <col min="15380" max="15380" width="2.6640625" style="44" customWidth="1"/>
+    <col min="15381" max="15381" width="20.88671875" style="44" customWidth="1"/>
+    <col min="15382" max="15382" width="5.6640625" style="44" customWidth="1"/>
     <col min="15383" max="15616" width="9" style="44"/>
-    <col min="15617" max="15619" width="5.625" style="44" customWidth="1"/>
-    <col min="15620" max="15620" width="7.25" style="44" customWidth="1"/>
-    <col min="15621" max="15634" width="5.625" style="44" customWidth="1"/>
-    <col min="15635" max="15635" width="9.375" style="44" customWidth="1"/>
-    <col min="15636" max="15636" width="2.625" style="44" customWidth="1"/>
-    <col min="15637" max="15637" width="20.875" style="44" customWidth="1"/>
-    <col min="15638" max="15638" width="5.625" style="44" customWidth="1"/>
+    <col min="15617" max="15619" width="5.6640625" style="44" customWidth="1"/>
+    <col min="15620" max="15620" width="7.21875" style="44" customWidth="1"/>
+    <col min="15621" max="15634" width="5.6640625" style="44" customWidth="1"/>
+    <col min="15635" max="15635" width="9.33203125" style="44" customWidth="1"/>
+    <col min="15636" max="15636" width="2.6640625" style="44" customWidth="1"/>
+    <col min="15637" max="15637" width="20.88671875" style="44" customWidth="1"/>
+    <col min="15638" max="15638" width="5.6640625" style="44" customWidth="1"/>
     <col min="15639" max="15872" width="9" style="44"/>
-    <col min="15873" max="15875" width="5.625" style="44" customWidth="1"/>
-    <col min="15876" max="15876" width="7.25" style="44" customWidth="1"/>
-    <col min="15877" max="15890" width="5.625" style="44" customWidth="1"/>
-    <col min="15891" max="15891" width="9.375" style="44" customWidth="1"/>
-    <col min="15892" max="15892" width="2.625" style="44" customWidth="1"/>
-    <col min="15893" max="15893" width="20.875" style="44" customWidth="1"/>
-    <col min="15894" max="15894" width="5.625" style="44" customWidth="1"/>
+    <col min="15873" max="15875" width="5.6640625" style="44" customWidth="1"/>
+    <col min="15876" max="15876" width="7.21875" style="44" customWidth="1"/>
+    <col min="15877" max="15890" width="5.6640625" style="44" customWidth="1"/>
+    <col min="15891" max="15891" width="9.33203125" style="44" customWidth="1"/>
+    <col min="15892" max="15892" width="2.6640625" style="44" customWidth="1"/>
+    <col min="15893" max="15893" width="20.88671875" style="44" customWidth="1"/>
+    <col min="15894" max="15894" width="5.6640625" style="44" customWidth="1"/>
     <col min="15895" max="16128" width="9" style="44"/>
-    <col min="16129" max="16131" width="5.625" style="44" customWidth="1"/>
-    <col min="16132" max="16132" width="7.25" style="44" customWidth="1"/>
-    <col min="16133" max="16146" width="5.625" style="44" customWidth="1"/>
-    <col min="16147" max="16147" width="9.375" style="44" customWidth="1"/>
-    <col min="16148" max="16148" width="2.625" style="44" customWidth="1"/>
-    <col min="16149" max="16149" width="20.875" style="44" customWidth="1"/>
-    <col min="16150" max="16150" width="5.625" style="44" customWidth="1"/>
+    <col min="16129" max="16131" width="5.6640625" style="44" customWidth="1"/>
+    <col min="16132" max="16132" width="7.21875" style="44" customWidth="1"/>
+    <col min="16133" max="16146" width="5.6640625" style="44" customWidth="1"/>
+    <col min="16147" max="16147" width="9.33203125" style="44" customWidth="1"/>
+    <col min="16148" max="16148" width="2.6640625" style="44" customWidth="1"/>
+    <col min="16149" max="16149" width="20.88671875" style="44" customWidth="1"/>
+    <col min="16150" max="16150" width="5.6640625" style="44" customWidth="1"/>
     <col min="16151" max="16384" width="9" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="23.1" customHeight="1">
-      <c r="C1" s="164" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
-      <c r="I1" s="164"/>
-      <c r="J1" s="164"/>
-      <c r="K1" s="164"/>
-      <c r="L1" s="164"/>
-      <c r="M1" s="164"/>
-      <c r="N1" s="164"/>
-      <c r="O1" s="164"/>
-      <c r="P1" s="164"/>
-      <c r="Q1" s="164"/>
-      <c r="R1" s="164"/>
-      <c r="S1" s="164"/>
-      <c r="T1" s="164"/>
+      <c r="C1" s="162" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
+      <c r="O1" s="162"/>
+      <c r="P1" s="162"/>
+      <c r="Q1" s="162"/>
+      <c r="R1" s="162"/>
+      <c r="S1" s="162"/>
+      <c r="T1" s="162"/>
     </row>
     <row r="2" spans="1:20" ht="23.1" customHeight="1">
-      <c r="P2" s="167" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="167" t="str">
+      <c r="P2" s="165" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q2" s="165"/>
+      <c r="R2" s="165" t="str">
         <f>記入!B12</f>
         <v>${qu.contractnumber}</v>
       </c>
-      <c r="S2" s="167"/>
+      <c r="S2" s="165"/>
     </row>
     <row r="3" spans="1:20" ht="23.1" customHeight="1">
       <c r="A3" s="45"/>
@@ -4662,88 +4691,88 @@
         <f>記入!B2</f>
         <v>${qu.trusteejapanese}</v>
       </c>
-      <c r="R3" s="170">
-        <f ca="1">記入!B37</f>
-        <v>43894</v>
-      </c>
-      <c r="S3" s="170"/>
+      <c r="R3" s="168">
+        <f ca="1">記入!B34</f>
+        <v>43895</v>
+      </c>
+      <c r="S3" s="168"/>
     </row>
     <row r="4" spans="1:20" ht="23.1" customHeight="1">
       <c r="A4" s="45"/>
       <c r="B4" s="45"/>
       <c r="C4" s="46" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="23.1" customHeight="1">
       <c r="A5" s="45"/>
       <c r="B5" s="45"/>
       <c r="C5" s="47" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="49" customFormat="1" ht="23.1" customHeight="1">
       <c r="A6" s="48"/>
       <c r="B6" s="48"/>
       <c r="C6" s="49" t="str">
-        <f>"(件名番号："&amp;記入!D36&amp;")"</f>
+        <f>"(件名番号："&amp;記入!D33&amp;")"</f>
         <v>(件名番号：${qu.requestnumber})</v>
       </c>
-      <c r="K6" s="165" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" s="165"/>
-      <c r="M6" s="165"/>
-      <c r="N6" s="165"/>
-      <c r="O6" s="165"/>
-      <c r="P6" s="165"/>
-      <c r="Q6" s="165"/>
-      <c r="R6" s="165"/>
-      <c r="S6" s="165"/>
+      <c r="K6" s="163" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="163"/>
+      <c r="M6" s="163"/>
+      <c r="N6" s="163"/>
+      <c r="O6" s="163"/>
+      <c r="P6" s="163"/>
+      <c r="Q6" s="163"/>
+      <c r="R6" s="163"/>
+      <c r="S6" s="163"/>
     </row>
     <row r="7" spans="1:20" ht="23.1" customHeight="1">
-      <c r="K7" s="165"/>
-      <c r="L7" s="165"/>
-      <c r="M7" s="165"/>
-      <c r="N7" s="165"/>
-      <c r="O7" s="165"/>
-      <c r="P7" s="165"/>
-      <c r="Q7" s="165"/>
-      <c r="R7" s="165"/>
-      <c r="S7" s="165"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="163"/>
+      <c r="N7" s="163"/>
+      <c r="O7" s="163"/>
+      <c r="P7" s="163"/>
+      <c r="Q7" s="163"/>
+      <c r="R7" s="163"/>
+      <c r="S7" s="163"/>
     </row>
     <row r="8" spans="1:20" ht="23.1" customHeight="1">
       <c r="A8" s="50"/>
       <c r="B8" s="50"/>
       <c r="C8" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" s="165"/>
-      <c r="L8" s="165"/>
-      <c r="M8" s="165"/>
-      <c r="N8" s="165"/>
-      <c r="O8" s="165"/>
-      <c r="P8" s="165"/>
-      <c r="Q8" s="165"/>
-      <c r="R8" s="165"/>
-      <c r="S8" s="165"/>
+        <v>51</v>
+      </c>
+      <c r="K8" s="163"/>
+      <c r="L8" s="163"/>
+      <c r="M8" s="163"/>
+      <c r="N8" s="163"/>
+      <c r="O8" s="163"/>
+      <c r="P8" s="163"/>
+      <c r="Q8" s="163"/>
+      <c r="R8" s="163"/>
+      <c r="S8" s="163"/>
     </row>
     <row r="9" spans="1:20" ht="23.1" customHeight="1">
-      <c r="C9" s="166" t="str">
+      <c r="C9" s="164" t="str">
         <f>記入!B10</f>
         <v>${qu.pjjapanese}</v>
       </c>
-      <c r="D9" s="166"/>
-      <c r="E9" s="166"/>
-      <c r="F9" s="166"/>
-      <c r="G9" s="166"/>
-      <c r="H9" s="166"/>
-      <c r="I9" s="166"/>
-      <c r="J9" s="166"/>
-      <c r="K9" s="166"/>
-      <c r="L9" s="166"/>
-      <c r="M9" s="166"/>
-      <c r="N9" s="166"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="164"/>
+      <c r="L9" s="164"/>
+      <c r="M9" s="164"/>
+      <c r="N9" s="164"/>
     </row>
     <row r="10" spans="1:20" ht="23.1" customHeight="1">
       <c r="C10" s="51"/>
@@ -4761,104 +4790,104 @@
       <c r="A11" s="52"/>
       <c r="B11" s="52"/>
       <c r="C11" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="162" t="str">
+        <v>52</v>
+      </c>
+      <c r="E11" s="160" t="str">
         <f>記入!B19</f>
         <v>${qu.currencyposition}</v>
       </c>
-      <c r="F11" s="162"/>
-      <c r="G11" s="171">
+      <c r="F11" s="160"/>
+      <c r="G11" s="169">
         <f>M26</f>
         <v>0</v>
       </c>
-      <c r="H11" s="171"/>
-      <c r="I11" s="171"/>
-      <c r="J11" s="171"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="169"/>
+      <c r="J11" s="169"/>
       <c r="R11" s="53" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="23.1" customHeight="1">
       <c r="C12" s="44" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F12" s="44" t="str">
-        <f>記入!F37</f>
+        <f>記入!F34</f>
         <v>■一括</v>
       </c>
       <c r="H12" s="44" t="str">
-        <f>記入!G37</f>
+        <f>記入!G34</f>
         <v>□実績精算</v>
       </c>
       <c r="N12" s="44" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="23.1" customHeight="1">
       <c r="C13" s="44" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F13" s="44" t="str">
-        <f>記入!F38</f>
+        <f>記入!F35</f>
         <v>□請負</v>
       </c>
       <c r="H13" s="44" t="str">
-        <f>記入!G38</f>
+        <f>記入!G35</f>
         <v>■委任</v>
       </c>
       <c r="J13" s="44" t="str">
-        <f>記入!H38</f>
+        <f>記入!H35</f>
         <v>□保守</v>
       </c>
       <c r="N13" s="44" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="24.75" customHeight="1">
       <c r="C14" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="168" t="str">
-        <f>記入!F39</f>
+        <v>57</v>
+      </c>
+      <c r="F14" s="166" t="str">
+        <f>記入!F36</f>
         <v>□あり(12ヵ月）</v>
       </c>
-      <c r="G14" s="168"/>
-      <c r="H14" s="168"/>
+      <c r="G14" s="166"/>
+      <c r="H14" s="166"/>
       <c r="I14" s="54"/>
       <c r="J14" s="44" t="str">
-        <f>記入!H39</f>
+        <f>記入!H36</f>
         <v>■なし</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="23.1" customHeight="1">
       <c r="C15" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="169" t="str">
+        <v>58</v>
+      </c>
+      <c r="F15" s="167" t="str">
         <f>記入!B14</f>
         <v>${qu.startdate}</v>
       </c>
-      <c r="G15" s="169"/>
-      <c r="H15" s="169"/>
+      <c r="G15" s="167"/>
+      <c r="H15" s="167"/>
     </row>
     <row r="16" spans="1:20" ht="23.1" customHeight="1">
       <c r="C16" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="169" t="str">
+        <v>59</v>
+      </c>
+      <c r="F16" s="167" t="str">
         <f>記入!B15</f>
         <v>${qu.enddate}</v>
       </c>
-      <c r="G16" s="169"/>
-      <c r="H16" s="169"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="167"/>
     </row>
     <row r="17" spans="1:21" ht="23.1" customHeight="1">
       <c r="C17" s="44" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F17" s="55" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M17" s="26"/>
       <c r="O17" s="26"/>
@@ -4867,10 +4896,10 @@
     </row>
     <row r="18" spans="1:21" ht="23.1" customHeight="1">
       <c r="C18" s="44" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F18" s="55" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M18" s="26"/>
       <c r="O18" s="26"/>
@@ -4878,297 +4907,297 @@
       <c r="R18" s="26"/>
     </row>
     <row r="19" spans="1:21" ht="23.1" customHeight="1" thickBot="1">
-      <c r="C19" s="163" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="163"/>
-      <c r="E19" s="163"/>
-      <c r="F19" s="163" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="163"/>
-      <c r="H19" s="163"/>
-      <c r="I19" s="163"/>
+      <c r="C19" s="161" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="161"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="161" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="161"/>
+      <c r="H19" s="161"/>
+      <c r="I19" s="161"/>
     </row>
     <row r="20" spans="1:21" ht="23.1" customHeight="1" thickBot="1">
       <c r="B20" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="150" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="150"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="150"/>
-      <c r="G20" s="150"/>
-      <c r="H20" s="150"/>
-      <c r="I20" s="150"/>
-      <c r="J20" s="150"/>
-      <c r="K20" s="150"/>
-      <c r="L20" s="151"/>
-      <c r="M20" s="152" t="str">
+        <v>66</v>
+      </c>
+      <c r="C20" s="148" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="148"/>
+      <c r="E20" s="148"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="148"/>
+      <c r="K20" s="148"/>
+      <c r="L20" s="149"/>
+      <c r="M20" s="150" t="str">
         <f>"金額"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>金額(${qu.currencyposition})</v>
       </c>
-      <c r="N20" s="152"/>
-      <c r="O20" s="152"/>
-      <c r="P20" s="152" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q20" s="152"/>
-      <c r="R20" s="152"/>
-      <c r="S20" s="153"/>
+      <c r="N20" s="150"/>
+      <c r="O20" s="150"/>
+      <c r="P20" s="150" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q20" s="150"/>
+      <c r="R20" s="150"/>
+      <c r="S20" s="151"/>
     </row>
     <row r="21" spans="1:21" ht="33" customHeight="1">
       <c r="B21" s="57">
         <v>1</v>
       </c>
-      <c r="C21" s="154" t="str">
+      <c r="C21" s="152" t="str">
         <f>記入!B10</f>
         <v>${qu.pjjapanese}</v>
       </c>
-      <c r="D21" s="155"/>
-      <c r="E21" s="155"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="155"/>
-      <c r="H21" s="155"/>
-      <c r="I21" s="155"/>
-      <c r="J21" s="155"/>
-      <c r="K21" s="155"/>
-      <c r="L21" s="156"/>
-      <c r="M21" s="157" t="str">
+      <c r="D21" s="153"/>
+      <c r="E21" s="153"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="153"/>
+      <c r="H21" s="153"/>
+      <c r="I21" s="153"/>
+      <c r="J21" s="153"/>
+      <c r="K21" s="153"/>
+      <c r="L21" s="154"/>
+      <c r="M21" s="155" t="str">
         <f>記入!B20</f>
         <v>${qu.claimamount}</v>
       </c>
-      <c r="N21" s="158"/>
-      <c r="O21" s="159"/>
-      <c r="P21" s="160"/>
-      <c r="Q21" s="160"/>
-      <c r="R21" s="160"/>
-      <c r="S21" s="161"/>
+      <c r="N21" s="156"/>
+      <c r="O21" s="157"/>
+      <c r="P21" s="158"/>
+      <c r="Q21" s="158"/>
+      <c r="R21" s="158"/>
+      <c r="S21" s="159"/>
       <c r="U21" s="58"/>
     </row>
     <row r="22" spans="1:21" ht="23.1" customHeight="1">
       <c r="B22" s="59">
         <v>2</v>
       </c>
-      <c r="C22" s="140" t="s">
-        <v>139</v>
-      </c>
-      <c r="D22" s="140"/>
-      <c r="E22" s="140"/>
-      <c r="F22" s="140"/>
-      <c r="G22" s="140"/>
-      <c r="H22" s="141"/>
-      <c r="I22" s="141"/>
-      <c r="J22" s="141"/>
-      <c r="K22" s="141"/>
-      <c r="L22" s="142"/>
-      <c r="M22" s="143" t="s">
-        <v>73</v>
-      </c>
-      <c r="N22" s="143"/>
-      <c r="O22" s="143"/>
-      <c r="P22" s="144"/>
-      <c r="Q22" s="144"/>
-      <c r="R22" s="144"/>
-      <c r="S22" s="145"/>
+      <c r="C22" s="138" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="138"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="139"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="139"/>
+      <c r="K22" s="139"/>
+      <c r="L22" s="140"/>
+      <c r="M22" s="141" t="s">
+        <v>69</v>
+      </c>
+      <c r="N22" s="141"/>
+      <c r="O22" s="141"/>
+      <c r="P22" s="142"/>
+      <c r="Q22" s="142"/>
+      <c r="R22" s="142"/>
+      <c r="S22" s="143"/>
       <c r="U22" s="60"/>
     </row>
     <row r="23" spans="1:21" ht="23.1" customHeight="1">
       <c r="B23" s="59">
         <v>3</v>
       </c>
-      <c r="C23" s="140" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="140"/>
-      <c r="E23" s="140"/>
-      <c r="F23" s="140"/>
-      <c r="G23" s="140"/>
-      <c r="H23" s="141"/>
-      <c r="I23" s="141"/>
-      <c r="J23" s="141"/>
-      <c r="K23" s="141"/>
-      <c r="L23" s="142"/>
-      <c r="M23" s="143">
+      <c r="C23" s="138" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="138"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="139"/>
+      <c r="I23" s="139"/>
+      <c r="J23" s="139"/>
+      <c r="K23" s="139"/>
+      <c r="L23" s="140"/>
+      <c r="M23" s="141">
         <v>0</v>
       </c>
-      <c r="N23" s="143"/>
-      <c r="O23" s="143"/>
-      <c r="P23" s="144"/>
-      <c r="Q23" s="144"/>
-      <c r="R23" s="144"/>
-      <c r="S23" s="145"/>
+      <c r="N23" s="141"/>
+      <c r="O23" s="141"/>
+      <c r="P23" s="142"/>
+      <c r="Q23" s="142"/>
+      <c r="R23" s="142"/>
+      <c r="S23" s="143"/>
     </row>
     <row r="24" spans="1:21" ht="23.1" customHeight="1">
       <c r="B24" s="59">
         <v>4</v>
       </c>
-      <c r="C24" s="140"/>
-      <c r="D24" s="140"/>
-      <c r="E24" s="140"/>
-      <c r="F24" s="140"/>
-      <c r="G24" s="140"/>
-      <c r="H24" s="141"/>
-      <c r="I24" s="141"/>
-      <c r="J24" s="141"/>
-      <c r="K24" s="141"/>
-      <c r="L24" s="142"/>
-      <c r="M24" s="143">
+      <c r="C24" s="138"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="139"/>
+      <c r="I24" s="139"/>
+      <c r="J24" s="139"/>
+      <c r="K24" s="139"/>
+      <c r="L24" s="140"/>
+      <c r="M24" s="141">
         <v>0</v>
       </c>
-      <c r="N24" s="143"/>
-      <c r="O24" s="143"/>
-      <c r="P24" s="144"/>
-      <c r="Q24" s="144"/>
-      <c r="R24" s="144"/>
-      <c r="S24" s="145"/>
+      <c r="N24" s="141"/>
+      <c r="O24" s="141"/>
+      <c r="P24" s="142"/>
+      <c r="Q24" s="142"/>
+      <c r="R24" s="142"/>
+      <c r="S24" s="143"/>
     </row>
     <row r="25" spans="1:21" ht="23.1" customHeight="1">
       <c r="B25" s="61">
         <v>5</v>
       </c>
-      <c r="C25" s="146"/>
-      <c r="D25" s="146"/>
-      <c r="E25" s="146"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="147"/>
-      <c r="I25" s="147"/>
-      <c r="J25" s="147"/>
-      <c r="K25" s="147"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="149">
+      <c r="C25" s="144"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="144"/>
+      <c r="F25" s="144"/>
+      <c r="G25" s="144"/>
+      <c r="H25" s="145"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="145"/>
+      <c r="K25" s="145"/>
+      <c r="L25" s="146"/>
+      <c r="M25" s="147">
         <v>0</v>
       </c>
-      <c r="N25" s="149"/>
-      <c r="O25" s="149"/>
-      <c r="P25" s="144"/>
-      <c r="Q25" s="144"/>
-      <c r="R25" s="144"/>
-      <c r="S25" s="145"/>
+      <c r="N25" s="147"/>
+      <c r="O25" s="147"/>
+      <c r="P25" s="142"/>
+      <c r="Q25" s="142"/>
+      <c r="R25" s="142"/>
+      <c r="S25" s="143"/>
     </row>
     <row r="26" spans="1:21" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B26" s="126" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="127"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="127"/>
-      <c r="H26" s="127"/>
-      <c r="I26" s="127"/>
-      <c r="J26" s="127"/>
-      <c r="K26" s="127"/>
-      <c r="L26" s="128"/>
-      <c r="M26" s="129">
+      <c r="B26" s="124" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="125"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="125"/>
+      <c r="G26" s="125"/>
+      <c r="H26" s="125"/>
+      <c r="I26" s="125"/>
+      <c r="J26" s="125"/>
+      <c r="K26" s="125"/>
+      <c r="L26" s="126"/>
+      <c r="M26" s="127">
         <f>SUM(M21:O25)</f>
         <v>0</v>
       </c>
-      <c r="N26" s="130"/>
-      <c r="O26" s="131"/>
-      <c r="P26" s="132"/>
-      <c r="Q26" s="132"/>
-      <c r="R26" s="132"/>
-      <c r="S26" s="133"/>
+      <c r="N26" s="128"/>
+      <c r="O26" s="129"/>
+      <c r="P26" s="130"/>
+      <c r="Q26" s="130"/>
+      <c r="R26" s="130"/>
+      <c r="S26" s="131"/>
     </row>
     <row r="27" spans="1:21" ht="23.1" customHeight="1">
-      <c r="C27" s="134" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="135"/>
-      <c r="E27" s="135"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="135"/>
-      <c r="H27" s="135"/>
-      <c r="I27" s="135"/>
-      <c r="J27" s="135"/>
-      <c r="K27" s="135"/>
-      <c r="L27" s="135"/>
-      <c r="M27" s="135"/>
-      <c r="N27" s="135"/>
-      <c r="O27" s="135"/>
-      <c r="P27" s="135"/>
-      <c r="Q27" s="135"/>
-      <c r="R27" s="135"/>
-      <c r="S27" s="136"/>
+      <c r="C27" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="133"/>
+      <c r="E27" s="133"/>
+      <c r="F27" s="133"/>
+      <c r="G27" s="133"/>
+      <c r="H27" s="133"/>
+      <c r="I27" s="133"/>
+      <c r="J27" s="133"/>
+      <c r="K27" s="133"/>
+      <c r="L27" s="133"/>
+      <c r="M27" s="133"/>
+      <c r="N27" s="133"/>
+      <c r="O27" s="133"/>
+      <c r="P27" s="133"/>
+      <c r="Q27" s="133"/>
+      <c r="R27" s="133"/>
+      <c r="S27" s="134"/>
     </row>
     <row r="28" spans="1:21" ht="18" customHeight="1">
       <c r="A28" s="62"/>
       <c r="B28" s="62"/>
-      <c r="C28" s="137" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="138"/>
-      <c r="E28" s="138"/>
-      <c r="F28" s="138"/>
-      <c r="G28" s="138"/>
-      <c r="H28" s="138"/>
-      <c r="I28" s="138"/>
-      <c r="J28" s="138"/>
-      <c r="K28" s="138"/>
-      <c r="L28" s="138"/>
-      <c r="M28" s="138"/>
-      <c r="N28" s="138"/>
-      <c r="O28" s="138"/>
-      <c r="P28" s="138"/>
-      <c r="Q28" s="138"/>
-      <c r="R28" s="138"/>
-      <c r="S28" s="139"/>
+      <c r="C28" s="135" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="136"/>
+      <c r="E28" s="136"/>
+      <c r="F28" s="136"/>
+      <c r="G28" s="136"/>
+      <c r="H28" s="136"/>
+      <c r="I28" s="136"/>
+      <c r="J28" s="136"/>
+      <c r="K28" s="136"/>
+      <c r="L28" s="136"/>
+      <c r="M28" s="136"/>
+      <c r="N28" s="136"/>
+      <c r="O28" s="136"/>
+      <c r="P28" s="136"/>
+      <c r="Q28" s="136"/>
+      <c r="R28" s="136"/>
+      <c r="S28" s="137"/>
     </row>
     <row r="29" spans="1:21" ht="18" customHeight="1">
       <c r="A29" s="62"/>
       <c r="B29" s="62"/>
-      <c r="C29" s="134"/>
-      <c r="D29" s="135"/>
-      <c r="E29" s="135"/>
-      <c r="F29" s="135"/>
-      <c r="G29" s="135"/>
-      <c r="H29" s="135"/>
-      <c r="I29" s="135"/>
-      <c r="J29" s="135"/>
-      <c r="K29" s="135"/>
-      <c r="L29" s="135"/>
-      <c r="M29" s="135"/>
-      <c r="N29" s="135"/>
-      <c r="O29" s="135"/>
-      <c r="P29" s="135"/>
-      <c r="Q29" s="135"/>
-      <c r="R29" s="135"/>
-      <c r="S29" s="136"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="133"/>
+      <c r="F29" s="133"/>
+      <c r="G29" s="133"/>
+      <c r="H29" s="133"/>
+      <c r="I29" s="133"/>
+      <c r="J29" s="133"/>
+      <c r="K29" s="133"/>
+      <c r="L29" s="133"/>
+      <c r="M29" s="133"/>
+      <c r="N29" s="133"/>
+      <c r="O29" s="133"/>
+      <c r="P29" s="133"/>
+      <c r="Q29" s="133"/>
+      <c r="R29" s="133"/>
+      <c r="S29" s="134"/>
     </row>
     <row r="30" spans="1:21" ht="18" customHeight="1">
       <c r="A30" s="62"/>
       <c r="B30" s="62"/>
-      <c r="C30" s="123"/>
-      <c r="D30" s="124"/>
-      <c r="E30" s="124"/>
-      <c r="F30" s="124"/>
-      <c r="G30" s="124"/>
-      <c r="H30" s="124"/>
-      <c r="I30" s="124"/>
-      <c r="J30" s="124"/>
-      <c r="K30" s="124"/>
-      <c r="L30" s="124"/>
-      <c r="M30" s="124"/>
-      <c r="N30" s="124"/>
-      <c r="O30" s="124"/>
-      <c r="P30" s="124"/>
-      <c r="Q30" s="124"/>
-      <c r="R30" s="124"/>
-      <c r="S30" s="125"/>
-    </row>
-    <row r="31" spans="1:21" ht="21.95" customHeight="1"/>
-    <row r="32" spans="1:21" ht="21.95" customHeight="1"/>
-    <row r="33" ht="21.95" customHeight="1"/>
-    <row r="34" ht="21.95" customHeight="1"/>
-    <row r="35" ht="21.95" customHeight="1"/>
-    <row r="36" ht="21.95" customHeight="1"/>
-    <row r="37" ht="21.95" customHeight="1"/>
-    <row r="38" ht="21.95" customHeight="1"/>
-    <row r="39" ht="21.95" customHeight="1"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="122"/>
+      <c r="G30" s="122"/>
+      <c r="H30" s="122"/>
+      <c r="I30" s="122"/>
+      <c r="J30" s="122"/>
+      <c r="K30" s="122"/>
+      <c r="L30" s="122"/>
+      <c r="M30" s="122"/>
+      <c r="N30" s="122"/>
+      <c r="O30" s="122"/>
+      <c r="P30" s="122"/>
+      <c r="Q30" s="122"/>
+      <c r="R30" s="122"/>
+      <c r="S30" s="123"/>
+    </row>
+    <row r="31" spans="1:21" ht="21.9" customHeight="1"/>
+    <row r="32" spans="1:21" ht="21.9" customHeight="1"/>
+    <row r="33" ht="21.9" customHeight="1"/>
+    <row r="34" ht="21.9" customHeight="1"/>
+    <row r="35" ht="21.9" customHeight="1"/>
+    <row r="36" ht="21.9" customHeight="1"/>
+    <row r="37" ht="21.9" customHeight="1"/>
+    <row r="38" ht="21.9" customHeight="1"/>
+    <row r="39" ht="21.9" customHeight="1"/>
     <row r="40" ht="20.100000000000001" customHeight="1"/>
     <row r="41" ht="20.100000000000001" customHeight="1"/>
     <row r="42" ht="20.100000000000001" customHeight="1"/>
@@ -5216,935 +5245,936 @@
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.51181102362204722" right="0.47244094488188981" top="0.51181102362204722" bottom="0.55118110236220474" header="0.39370078740157483" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="82" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="81" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3">
     <tabColor indexed="43"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:T69"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:R13"/>
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17:N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="44" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="44" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="44" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="44" customWidth="1"/>
     <col min="3" max="4" width="6" style="44" customWidth="1"/>
-    <col min="5" max="6" width="8.5" style="44" customWidth="1"/>
-    <col min="7" max="7" width="7.375" style="44" customWidth="1"/>
-    <col min="8" max="9" width="7.75" style="44" customWidth="1"/>
-    <col min="10" max="11" width="7.625" style="44" customWidth="1"/>
-    <col min="12" max="12" width="5.625" style="44" customWidth="1"/>
-    <col min="13" max="13" width="9.625" style="44" customWidth="1"/>
-    <col min="14" max="17" width="5.125" style="44" customWidth="1"/>
-    <col min="18" max="18" width="2.625" style="44" customWidth="1"/>
+    <col min="5" max="6" width="8.44140625" style="44" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="44" customWidth="1"/>
+    <col min="8" max="9" width="7.77734375" style="44" customWidth="1"/>
+    <col min="10" max="11" width="7.6640625" style="44" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" style="44" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" style="44" customWidth="1"/>
+    <col min="14" max="17" width="5.109375" style="44" customWidth="1"/>
+    <col min="18" max="18" width="2.6640625" style="44" customWidth="1"/>
     <col min="19" max="19" width="3" style="44" customWidth="1"/>
     <col min="20" max="256" width="9" style="44"/>
-    <col min="257" max="257" width="3.5" style="44" customWidth="1"/>
-    <col min="258" max="258" width="5.625" style="44" customWidth="1"/>
+    <col min="257" max="257" width="3.44140625" style="44" customWidth="1"/>
+    <col min="258" max="258" width="5.6640625" style="44" customWidth="1"/>
     <col min="259" max="260" width="6" style="44" customWidth="1"/>
-    <col min="261" max="262" width="8.5" style="44" customWidth="1"/>
-    <col min="263" max="263" width="7.375" style="44" customWidth="1"/>
-    <col min="264" max="265" width="7.75" style="44" customWidth="1"/>
-    <col min="266" max="267" width="7.625" style="44" customWidth="1"/>
-    <col min="268" max="268" width="5.625" style="44" customWidth="1"/>
-    <col min="269" max="269" width="9.625" style="44" customWidth="1"/>
-    <col min="270" max="273" width="5.125" style="44" customWidth="1"/>
-    <col min="274" max="274" width="2.625" style="44" customWidth="1"/>
+    <col min="261" max="262" width="8.44140625" style="44" customWidth="1"/>
+    <col min="263" max="263" width="7.33203125" style="44" customWidth="1"/>
+    <col min="264" max="265" width="7.77734375" style="44" customWidth="1"/>
+    <col min="266" max="267" width="7.6640625" style="44" customWidth="1"/>
+    <col min="268" max="268" width="5.6640625" style="44" customWidth="1"/>
+    <col min="269" max="269" width="9.6640625" style="44" customWidth="1"/>
+    <col min="270" max="273" width="5.109375" style="44" customWidth="1"/>
+    <col min="274" max="274" width="2.6640625" style="44" customWidth="1"/>
     <col min="275" max="512" width="9" style="44"/>
-    <col min="513" max="513" width="3.5" style="44" customWidth="1"/>
-    <col min="514" max="514" width="5.625" style="44" customWidth="1"/>
+    <col min="513" max="513" width="3.44140625" style="44" customWidth="1"/>
+    <col min="514" max="514" width="5.6640625" style="44" customWidth="1"/>
     <col min="515" max="516" width="6" style="44" customWidth="1"/>
-    <col min="517" max="518" width="8.5" style="44" customWidth="1"/>
-    <col min="519" max="519" width="7.375" style="44" customWidth="1"/>
-    <col min="520" max="521" width="7.75" style="44" customWidth="1"/>
-    <col min="522" max="523" width="7.625" style="44" customWidth="1"/>
-    <col min="524" max="524" width="5.625" style="44" customWidth="1"/>
-    <col min="525" max="525" width="9.625" style="44" customWidth="1"/>
-    <col min="526" max="529" width="5.125" style="44" customWidth="1"/>
-    <col min="530" max="530" width="2.625" style="44" customWidth="1"/>
+    <col min="517" max="518" width="8.44140625" style="44" customWidth="1"/>
+    <col min="519" max="519" width="7.33203125" style="44" customWidth="1"/>
+    <col min="520" max="521" width="7.77734375" style="44" customWidth="1"/>
+    <col min="522" max="523" width="7.6640625" style="44" customWidth="1"/>
+    <col min="524" max="524" width="5.6640625" style="44" customWidth="1"/>
+    <col min="525" max="525" width="9.6640625" style="44" customWidth="1"/>
+    <col min="526" max="529" width="5.109375" style="44" customWidth="1"/>
+    <col min="530" max="530" width="2.6640625" style="44" customWidth="1"/>
     <col min="531" max="768" width="9" style="44"/>
-    <col min="769" max="769" width="3.5" style="44" customWidth="1"/>
-    <col min="770" max="770" width="5.625" style="44" customWidth="1"/>
+    <col min="769" max="769" width="3.44140625" style="44" customWidth="1"/>
+    <col min="770" max="770" width="5.6640625" style="44" customWidth="1"/>
     <col min="771" max="772" width="6" style="44" customWidth="1"/>
-    <col min="773" max="774" width="8.5" style="44" customWidth="1"/>
-    <col min="775" max="775" width="7.375" style="44" customWidth="1"/>
-    <col min="776" max="777" width="7.75" style="44" customWidth="1"/>
-    <col min="778" max="779" width="7.625" style="44" customWidth="1"/>
-    <col min="780" max="780" width="5.625" style="44" customWidth="1"/>
-    <col min="781" max="781" width="9.625" style="44" customWidth="1"/>
-    <col min="782" max="785" width="5.125" style="44" customWidth="1"/>
-    <col min="786" max="786" width="2.625" style="44" customWidth="1"/>
+    <col min="773" max="774" width="8.44140625" style="44" customWidth="1"/>
+    <col min="775" max="775" width="7.33203125" style="44" customWidth="1"/>
+    <col min="776" max="777" width="7.77734375" style="44" customWidth="1"/>
+    <col min="778" max="779" width="7.6640625" style="44" customWidth="1"/>
+    <col min="780" max="780" width="5.6640625" style="44" customWidth="1"/>
+    <col min="781" max="781" width="9.6640625" style="44" customWidth="1"/>
+    <col min="782" max="785" width="5.109375" style="44" customWidth="1"/>
+    <col min="786" max="786" width="2.6640625" style="44" customWidth="1"/>
     <col min="787" max="1024" width="9" style="44"/>
-    <col min="1025" max="1025" width="3.5" style="44" customWidth="1"/>
-    <col min="1026" max="1026" width="5.625" style="44" customWidth="1"/>
+    <col min="1025" max="1025" width="3.44140625" style="44" customWidth="1"/>
+    <col min="1026" max="1026" width="5.6640625" style="44" customWidth="1"/>
     <col min="1027" max="1028" width="6" style="44" customWidth="1"/>
-    <col min="1029" max="1030" width="8.5" style="44" customWidth="1"/>
-    <col min="1031" max="1031" width="7.375" style="44" customWidth="1"/>
-    <col min="1032" max="1033" width="7.75" style="44" customWidth="1"/>
-    <col min="1034" max="1035" width="7.625" style="44" customWidth="1"/>
-    <col min="1036" max="1036" width="5.625" style="44" customWidth="1"/>
-    <col min="1037" max="1037" width="9.625" style="44" customWidth="1"/>
-    <col min="1038" max="1041" width="5.125" style="44" customWidth="1"/>
-    <col min="1042" max="1042" width="2.625" style="44" customWidth="1"/>
+    <col min="1029" max="1030" width="8.44140625" style="44" customWidth="1"/>
+    <col min="1031" max="1031" width="7.33203125" style="44" customWidth="1"/>
+    <col min="1032" max="1033" width="7.77734375" style="44" customWidth="1"/>
+    <col min="1034" max="1035" width="7.6640625" style="44" customWidth="1"/>
+    <col min="1036" max="1036" width="5.6640625" style="44" customWidth="1"/>
+    <col min="1037" max="1037" width="9.6640625" style="44" customWidth="1"/>
+    <col min="1038" max="1041" width="5.109375" style="44" customWidth="1"/>
+    <col min="1042" max="1042" width="2.6640625" style="44" customWidth="1"/>
     <col min="1043" max="1280" width="9" style="44"/>
-    <col min="1281" max="1281" width="3.5" style="44" customWidth="1"/>
-    <col min="1282" max="1282" width="5.625" style="44" customWidth="1"/>
+    <col min="1281" max="1281" width="3.44140625" style="44" customWidth="1"/>
+    <col min="1282" max="1282" width="5.6640625" style="44" customWidth="1"/>
     <col min="1283" max="1284" width="6" style="44" customWidth="1"/>
-    <col min="1285" max="1286" width="8.5" style="44" customWidth="1"/>
-    <col min="1287" max="1287" width="7.375" style="44" customWidth="1"/>
-    <col min="1288" max="1289" width="7.75" style="44" customWidth="1"/>
-    <col min="1290" max="1291" width="7.625" style="44" customWidth="1"/>
-    <col min="1292" max="1292" width="5.625" style="44" customWidth="1"/>
-    <col min="1293" max="1293" width="9.625" style="44" customWidth="1"/>
-    <col min="1294" max="1297" width="5.125" style="44" customWidth="1"/>
-    <col min="1298" max="1298" width="2.625" style="44" customWidth="1"/>
+    <col min="1285" max="1286" width="8.44140625" style="44" customWidth="1"/>
+    <col min="1287" max="1287" width="7.33203125" style="44" customWidth="1"/>
+    <col min="1288" max="1289" width="7.77734375" style="44" customWidth="1"/>
+    <col min="1290" max="1291" width="7.6640625" style="44" customWidth="1"/>
+    <col min="1292" max="1292" width="5.6640625" style="44" customWidth="1"/>
+    <col min="1293" max="1293" width="9.6640625" style="44" customWidth="1"/>
+    <col min="1294" max="1297" width="5.109375" style="44" customWidth="1"/>
+    <col min="1298" max="1298" width="2.6640625" style="44" customWidth="1"/>
     <col min="1299" max="1536" width="9" style="44"/>
-    <col min="1537" max="1537" width="3.5" style="44" customWidth="1"/>
-    <col min="1538" max="1538" width="5.625" style="44" customWidth="1"/>
+    <col min="1537" max="1537" width="3.44140625" style="44" customWidth="1"/>
+    <col min="1538" max="1538" width="5.6640625" style="44" customWidth="1"/>
     <col min="1539" max="1540" width="6" style="44" customWidth="1"/>
-    <col min="1541" max="1542" width="8.5" style="44" customWidth="1"/>
-    <col min="1543" max="1543" width="7.375" style="44" customWidth="1"/>
-    <col min="1544" max="1545" width="7.75" style="44" customWidth="1"/>
-    <col min="1546" max="1547" width="7.625" style="44" customWidth="1"/>
-    <col min="1548" max="1548" width="5.625" style="44" customWidth="1"/>
-    <col min="1549" max="1549" width="9.625" style="44" customWidth="1"/>
-    <col min="1550" max="1553" width="5.125" style="44" customWidth="1"/>
-    <col min="1554" max="1554" width="2.625" style="44" customWidth="1"/>
+    <col min="1541" max="1542" width="8.44140625" style="44" customWidth="1"/>
+    <col min="1543" max="1543" width="7.33203125" style="44" customWidth="1"/>
+    <col min="1544" max="1545" width="7.77734375" style="44" customWidth="1"/>
+    <col min="1546" max="1547" width="7.6640625" style="44" customWidth="1"/>
+    <col min="1548" max="1548" width="5.6640625" style="44" customWidth="1"/>
+    <col min="1549" max="1549" width="9.6640625" style="44" customWidth="1"/>
+    <col min="1550" max="1553" width="5.109375" style="44" customWidth="1"/>
+    <col min="1554" max="1554" width="2.6640625" style="44" customWidth="1"/>
     <col min="1555" max="1792" width="9" style="44"/>
-    <col min="1793" max="1793" width="3.5" style="44" customWidth="1"/>
-    <col min="1794" max="1794" width="5.625" style="44" customWidth="1"/>
+    <col min="1793" max="1793" width="3.44140625" style="44" customWidth="1"/>
+    <col min="1794" max="1794" width="5.6640625" style="44" customWidth="1"/>
     <col min="1795" max="1796" width="6" style="44" customWidth="1"/>
-    <col min="1797" max="1798" width="8.5" style="44" customWidth="1"/>
-    <col min="1799" max="1799" width="7.375" style="44" customWidth="1"/>
-    <col min="1800" max="1801" width="7.75" style="44" customWidth="1"/>
-    <col min="1802" max="1803" width="7.625" style="44" customWidth="1"/>
-    <col min="1804" max="1804" width="5.625" style="44" customWidth="1"/>
-    <col min="1805" max="1805" width="9.625" style="44" customWidth="1"/>
-    <col min="1806" max="1809" width="5.125" style="44" customWidth="1"/>
-    <col min="1810" max="1810" width="2.625" style="44" customWidth="1"/>
+    <col min="1797" max="1798" width="8.44140625" style="44" customWidth="1"/>
+    <col min="1799" max="1799" width="7.33203125" style="44" customWidth="1"/>
+    <col min="1800" max="1801" width="7.77734375" style="44" customWidth="1"/>
+    <col min="1802" max="1803" width="7.6640625" style="44" customWidth="1"/>
+    <col min="1804" max="1804" width="5.6640625" style="44" customWidth="1"/>
+    <col min="1805" max="1805" width="9.6640625" style="44" customWidth="1"/>
+    <col min="1806" max="1809" width="5.109375" style="44" customWidth="1"/>
+    <col min="1810" max="1810" width="2.6640625" style="44" customWidth="1"/>
     <col min="1811" max="2048" width="9" style="44"/>
-    <col min="2049" max="2049" width="3.5" style="44" customWidth="1"/>
-    <col min="2050" max="2050" width="5.625" style="44" customWidth="1"/>
+    <col min="2049" max="2049" width="3.44140625" style="44" customWidth="1"/>
+    <col min="2050" max="2050" width="5.6640625" style="44" customWidth="1"/>
     <col min="2051" max="2052" width="6" style="44" customWidth="1"/>
-    <col min="2053" max="2054" width="8.5" style="44" customWidth="1"/>
-    <col min="2055" max="2055" width="7.375" style="44" customWidth="1"/>
-    <col min="2056" max="2057" width="7.75" style="44" customWidth="1"/>
-    <col min="2058" max="2059" width="7.625" style="44" customWidth="1"/>
-    <col min="2060" max="2060" width="5.625" style="44" customWidth="1"/>
-    <col min="2061" max="2061" width="9.625" style="44" customWidth="1"/>
-    <col min="2062" max="2065" width="5.125" style="44" customWidth="1"/>
-    <col min="2066" max="2066" width="2.625" style="44" customWidth="1"/>
+    <col min="2053" max="2054" width="8.44140625" style="44" customWidth="1"/>
+    <col min="2055" max="2055" width="7.33203125" style="44" customWidth="1"/>
+    <col min="2056" max="2057" width="7.77734375" style="44" customWidth="1"/>
+    <col min="2058" max="2059" width="7.6640625" style="44" customWidth="1"/>
+    <col min="2060" max="2060" width="5.6640625" style="44" customWidth="1"/>
+    <col min="2061" max="2061" width="9.6640625" style="44" customWidth="1"/>
+    <col min="2062" max="2065" width="5.109375" style="44" customWidth="1"/>
+    <col min="2066" max="2066" width="2.6640625" style="44" customWidth="1"/>
     <col min="2067" max="2304" width="9" style="44"/>
-    <col min="2305" max="2305" width="3.5" style="44" customWidth="1"/>
-    <col min="2306" max="2306" width="5.625" style="44" customWidth="1"/>
+    <col min="2305" max="2305" width="3.44140625" style="44" customWidth="1"/>
+    <col min="2306" max="2306" width="5.6640625" style="44" customWidth="1"/>
     <col min="2307" max="2308" width="6" style="44" customWidth="1"/>
-    <col min="2309" max="2310" width="8.5" style="44" customWidth="1"/>
-    <col min="2311" max="2311" width="7.375" style="44" customWidth="1"/>
-    <col min="2312" max="2313" width="7.75" style="44" customWidth="1"/>
-    <col min="2314" max="2315" width="7.625" style="44" customWidth="1"/>
-    <col min="2316" max="2316" width="5.625" style="44" customWidth="1"/>
-    <col min="2317" max="2317" width="9.625" style="44" customWidth="1"/>
-    <col min="2318" max="2321" width="5.125" style="44" customWidth="1"/>
-    <col min="2322" max="2322" width="2.625" style="44" customWidth="1"/>
+    <col min="2309" max="2310" width="8.44140625" style="44" customWidth="1"/>
+    <col min="2311" max="2311" width="7.33203125" style="44" customWidth="1"/>
+    <col min="2312" max="2313" width="7.77734375" style="44" customWidth="1"/>
+    <col min="2314" max="2315" width="7.6640625" style="44" customWidth="1"/>
+    <col min="2316" max="2316" width="5.6640625" style="44" customWidth="1"/>
+    <col min="2317" max="2317" width="9.6640625" style="44" customWidth="1"/>
+    <col min="2318" max="2321" width="5.109375" style="44" customWidth="1"/>
+    <col min="2322" max="2322" width="2.6640625" style="44" customWidth="1"/>
     <col min="2323" max="2560" width="9" style="44"/>
-    <col min="2561" max="2561" width="3.5" style="44" customWidth="1"/>
-    <col min="2562" max="2562" width="5.625" style="44" customWidth="1"/>
+    <col min="2561" max="2561" width="3.44140625" style="44" customWidth="1"/>
+    <col min="2562" max="2562" width="5.6640625" style="44" customWidth="1"/>
     <col min="2563" max="2564" width="6" style="44" customWidth="1"/>
-    <col min="2565" max="2566" width="8.5" style="44" customWidth="1"/>
-    <col min="2567" max="2567" width="7.375" style="44" customWidth="1"/>
-    <col min="2568" max="2569" width="7.75" style="44" customWidth="1"/>
-    <col min="2570" max="2571" width="7.625" style="44" customWidth="1"/>
-    <col min="2572" max="2572" width="5.625" style="44" customWidth="1"/>
-    <col min="2573" max="2573" width="9.625" style="44" customWidth="1"/>
-    <col min="2574" max="2577" width="5.125" style="44" customWidth="1"/>
-    <col min="2578" max="2578" width="2.625" style="44" customWidth="1"/>
+    <col min="2565" max="2566" width="8.44140625" style="44" customWidth="1"/>
+    <col min="2567" max="2567" width="7.33203125" style="44" customWidth="1"/>
+    <col min="2568" max="2569" width="7.77734375" style="44" customWidth="1"/>
+    <col min="2570" max="2571" width="7.6640625" style="44" customWidth="1"/>
+    <col min="2572" max="2572" width="5.6640625" style="44" customWidth="1"/>
+    <col min="2573" max="2573" width="9.6640625" style="44" customWidth="1"/>
+    <col min="2574" max="2577" width="5.109375" style="44" customWidth="1"/>
+    <col min="2578" max="2578" width="2.6640625" style="44" customWidth="1"/>
     <col min="2579" max="2816" width="9" style="44"/>
-    <col min="2817" max="2817" width="3.5" style="44" customWidth="1"/>
-    <col min="2818" max="2818" width="5.625" style="44" customWidth="1"/>
+    <col min="2817" max="2817" width="3.44140625" style="44" customWidth="1"/>
+    <col min="2818" max="2818" width="5.6640625" style="44" customWidth="1"/>
     <col min="2819" max="2820" width="6" style="44" customWidth="1"/>
-    <col min="2821" max="2822" width="8.5" style="44" customWidth="1"/>
-    <col min="2823" max="2823" width="7.375" style="44" customWidth="1"/>
-    <col min="2824" max="2825" width="7.75" style="44" customWidth="1"/>
-    <col min="2826" max="2827" width="7.625" style="44" customWidth="1"/>
-    <col min="2828" max="2828" width="5.625" style="44" customWidth="1"/>
-    <col min="2829" max="2829" width="9.625" style="44" customWidth="1"/>
-    <col min="2830" max="2833" width="5.125" style="44" customWidth="1"/>
-    <col min="2834" max="2834" width="2.625" style="44" customWidth="1"/>
+    <col min="2821" max="2822" width="8.44140625" style="44" customWidth="1"/>
+    <col min="2823" max="2823" width="7.33203125" style="44" customWidth="1"/>
+    <col min="2824" max="2825" width="7.77734375" style="44" customWidth="1"/>
+    <col min="2826" max="2827" width="7.6640625" style="44" customWidth="1"/>
+    <col min="2828" max="2828" width="5.6640625" style="44" customWidth="1"/>
+    <col min="2829" max="2829" width="9.6640625" style="44" customWidth="1"/>
+    <col min="2830" max="2833" width="5.109375" style="44" customWidth="1"/>
+    <col min="2834" max="2834" width="2.6640625" style="44" customWidth="1"/>
     <col min="2835" max="3072" width="9" style="44"/>
-    <col min="3073" max="3073" width="3.5" style="44" customWidth="1"/>
-    <col min="3074" max="3074" width="5.625" style="44" customWidth="1"/>
+    <col min="3073" max="3073" width="3.44140625" style="44" customWidth="1"/>
+    <col min="3074" max="3074" width="5.6640625" style="44" customWidth="1"/>
     <col min="3075" max="3076" width="6" style="44" customWidth="1"/>
-    <col min="3077" max="3078" width="8.5" style="44" customWidth="1"/>
-    <col min="3079" max="3079" width="7.375" style="44" customWidth="1"/>
-    <col min="3080" max="3081" width="7.75" style="44" customWidth="1"/>
-    <col min="3082" max="3083" width="7.625" style="44" customWidth="1"/>
-    <col min="3084" max="3084" width="5.625" style="44" customWidth="1"/>
-    <col min="3085" max="3085" width="9.625" style="44" customWidth="1"/>
-    <col min="3086" max="3089" width="5.125" style="44" customWidth="1"/>
-    <col min="3090" max="3090" width="2.625" style="44" customWidth="1"/>
+    <col min="3077" max="3078" width="8.44140625" style="44" customWidth="1"/>
+    <col min="3079" max="3079" width="7.33203125" style="44" customWidth="1"/>
+    <col min="3080" max="3081" width="7.77734375" style="44" customWidth="1"/>
+    <col min="3082" max="3083" width="7.6640625" style="44" customWidth="1"/>
+    <col min="3084" max="3084" width="5.6640625" style="44" customWidth="1"/>
+    <col min="3085" max="3085" width="9.6640625" style="44" customWidth="1"/>
+    <col min="3086" max="3089" width="5.109375" style="44" customWidth="1"/>
+    <col min="3090" max="3090" width="2.6640625" style="44" customWidth="1"/>
     <col min="3091" max="3328" width="9" style="44"/>
-    <col min="3329" max="3329" width="3.5" style="44" customWidth="1"/>
-    <col min="3330" max="3330" width="5.625" style="44" customWidth="1"/>
+    <col min="3329" max="3329" width="3.44140625" style="44" customWidth="1"/>
+    <col min="3330" max="3330" width="5.6640625" style="44" customWidth="1"/>
     <col min="3331" max="3332" width="6" style="44" customWidth="1"/>
-    <col min="3333" max="3334" width="8.5" style="44" customWidth="1"/>
-    <col min="3335" max="3335" width="7.375" style="44" customWidth="1"/>
-    <col min="3336" max="3337" width="7.75" style="44" customWidth="1"/>
-    <col min="3338" max="3339" width="7.625" style="44" customWidth="1"/>
-    <col min="3340" max="3340" width="5.625" style="44" customWidth="1"/>
-    <col min="3341" max="3341" width="9.625" style="44" customWidth="1"/>
-    <col min="3342" max="3345" width="5.125" style="44" customWidth="1"/>
-    <col min="3346" max="3346" width="2.625" style="44" customWidth="1"/>
+    <col min="3333" max="3334" width="8.44140625" style="44" customWidth="1"/>
+    <col min="3335" max="3335" width="7.33203125" style="44" customWidth="1"/>
+    <col min="3336" max="3337" width="7.77734375" style="44" customWidth="1"/>
+    <col min="3338" max="3339" width="7.6640625" style="44" customWidth="1"/>
+    <col min="3340" max="3340" width="5.6640625" style="44" customWidth="1"/>
+    <col min="3341" max="3341" width="9.6640625" style="44" customWidth="1"/>
+    <col min="3342" max="3345" width="5.109375" style="44" customWidth="1"/>
+    <col min="3346" max="3346" width="2.6640625" style="44" customWidth="1"/>
     <col min="3347" max="3584" width="9" style="44"/>
-    <col min="3585" max="3585" width="3.5" style="44" customWidth="1"/>
-    <col min="3586" max="3586" width="5.625" style="44" customWidth="1"/>
+    <col min="3585" max="3585" width="3.44140625" style="44" customWidth="1"/>
+    <col min="3586" max="3586" width="5.6640625" style="44" customWidth="1"/>
     <col min="3587" max="3588" width="6" style="44" customWidth="1"/>
-    <col min="3589" max="3590" width="8.5" style="44" customWidth="1"/>
-    <col min="3591" max="3591" width="7.375" style="44" customWidth="1"/>
-    <col min="3592" max="3593" width="7.75" style="44" customWidth="1"/>
-    <col min="3594" max="3595" width="7.625" style="44" customWidth="1"/>
-    <col min="3596" max="3596" width="5.625" style="44" customWidth="1"/>
-    <col min="3597" max="3597" width="9.625" style="44" customWidth="1"/>
-    <col min="3598" max="3601" width="5.125" style="44" customWidth="1"/>
-    <col min="3602" max="3602" width="2.625" style="44" customWidth="1"/>
+    <col min="3589" max="3590" width="8.44140625" style="44" customWidth="1"/>
+    <col min="3591" max="3591" width="7.33203125" style="44" customWidth="1"/>
+    <col min="3592" max="3593" width="7.77734375" style="44" customWidth="1"/>
+    <col min="3594" max="3595" width="7.6640625" style="44" customWidth="1"/>
+    <col min="3596" max="3596" width="5.6640625" style="44" customWidth="1"/>
+    <col min="3597" max="3597" width="9.6640625" style="44" customWidth="1"/>
+    <col min="3598" max="3601" width="5.109375" style="44" customWidth="1"/>
+    <col min="3602" max="3602" width="2.6640625" style="44" customWidth="1"/>
     <col min="3603" max="3840" width="9" style="44"/>
-    <col min="3841" max="3841" width="3.5" style="44" customWidth="1"/>
-    <col min="3842" max="3842" width="5.625" style="44" customWidth="1"/>
+    <col min="3841" max="3841" width="3.44140625" style="44" customWidth="1"/>
+    <col min="3842" max="3842" width="5.6640625" style="44" customWidth="1"/>
     <col min="3843" max="3844" width="6" style="44" customWidth="1"/>
-    <col min="3845" max="3846" width="8.5" style="44" customWidth="1"/>
-    <col min="3847" max="3847" width="7.375" style="44" customWidth="1"/>
-    <col min="3848" max="3849" width="7.75" style="44" customWidth="1"/>
-    <col min="3850" max="3851" width="7.625" style="44" customWidth="1"/>
-    <col min="3852" max="3852" width="5.625" style="44" customWidth="1"/>
-    <col min="3853" max="3853" width="9.625" style="44" customWidth="1"/>
-    <col min="3854" max="3857" width="5.125" style="44" customWidth="1"/>
-    <col min="3858" max="3858" width="2.625" style="44" customWidth="1"/>
+    <col min="3845" max="3846" width="8.44140625" style="44" customWidth="1"/>
+    <col min="3847" max="3847" width="7.33203125" style="44" customWidth="1"/>
+    <col min="3848" max="3849" width="7.77734375" style="44" customWidth="1"/>
+    <col min="3850" max="3851" width="7.6640625" style="44" customWidth="1"/>
+    <col min="3852" max="3852" width="5.6640625" style="44" customWidth="1"/>
+    <col min="3853" max="3853" width="9.6640625" style="44" customWidth="1"/>
+    <col min="3854" max="3857" width="5.109375" style="44" customWidth="1"/>
+    <col min="3858" max="3858" width="2.6640625" style="44" customWidth="1"/>
     <col min="3859" max="4096" width="9" style="44"/>
-    <col min="4097" max="4097" width="3.5" style="44" customWidth="1"/>
-    <col min="4098" max="4098" width="5.625" style="44" customWidth="1"/>
+    <col min="4097" max="4097" width="3.44140625" style="44" customWidth="1"/>
+    <col min="4098" max="4098" width="5.6640625" style="44" customWidth="1"/>
     <col min="4099" max="4100" width="6" style="44" customWidth="1"/>
-    <col min="4101" max="4102" width="8.5" style="44" customWidth="1"/>
-    <col min="4103" max="4103" width="7.375" style="44" customWidth="1"/>
-    <col min="4104" max="4105" width="7.75" style="44" customWidth="1"/>
-    <col min="4106" max="4107" width="7.625" style="44" customWidth="1"/>
-    <col min="4108" max="4108" width="5.625" style="44" customWidth="1"/>
-    <col min="4109" max="4109" width="9.625" style="44" customWidth="1"/>
-    <col min="4110" max="4113" width="5.125" style="44" customWidth="1"/>
-    <col min="4114" max="4114" width="2.625" style="44" customWidth="1"/>
+    <col min="4101" max="4102" width="8.44140625" style="44" customWidth="1"/>
+    <col min="4103" max="4103" width="7.33203125" style="44" customWidth="1"/>
+    <col min="4104" max="4105" width="7.77734375" style="44" customWidth="1"/>
+    <col min="4106" max="4107" width="7.6640625" style="44" customWidth="1"/>
+    <col min="4108" max="4108" width="5.6640625" style="44" customWidth="1"/>
+    <col min="4109" max="4109" width="9.6640625" style="44" customWidth="1"/>
+    <col min="4110" max="4113" width="5.109375" style="44" customWidth="1"/>
+    <col min="4114" max="4114" width="2.6640625" style="44" customWidth="1"/>
     <col min="4115" max="4352" width="9" style="44"/>
-    <col min="4353" max="4353" width="3.5" style="44" customWidth="1"/>
-    <col min="4354" max="4354" width="5.625" style="44" customWidth="1"/>
+    <col min="4353" max="4353" width="3.44140625" style="44" customWidth="1"/>
+    <col min="4354" max="4354" width="5.6640625" style="44" customWidth="1"/>
     <col min="4355" max="4356" width="6" style="44" customWidth="1"/>
-    <col min="4357" max="4358" width="8.5" style="44" customWidth="1"/>
-    <col min="4359" max="4359" width="7.375" style="44" customWidth="1"/>
-    <col min="4360" max="4361" width="7.75" style="44" customWidth="1"/>
-    <col min="4362" max="4363" width="7.625" style="44" customWidth="1"/>
-    <col min="4364" max="4364" width="5.625" style="44" customWidth="1"/>
-    <col min="4365" max="4365" width="9.625" style="44" customWidth="1"/>
-    <col min="4366" max="4369" width="5.125" style="44" customWidth="1"/>
-    <col min="4370" max="4370" width="2.625" style="44" customWidth="1"/>
+    <col min="4357" max="4358" width="8.44140625" style="44" customWidth="1"/>
+    <col min="4359" max="4359" width="7.33203125" style="44" customWidth="1"/>
+    <col min="4360" max="4361" width="7.77734375" style="44" customWidth="1"/>
+    <col min="4362" max="4363" width="7.6640625" style="44" customWidth="1"/>
+    <col min="4364" max="4364" width="5.6640625" style="44" customWidth="1"/>
+    <col min="4365" max="4365" width="9.6640625" style="44" customWidth="1"/>
+    <col min="4366" max="4369" width="5.109375" style="44" customWidth="1"/>
+    <col min="4370" max="4370" width="2.6640625" style="44" customWidth="1"/>
     <col min="4371" max="4608" width="9" style="44"/>
-    <col min="4609" max="4609" width="3.5" style="44" customWidth="1"/>
-    <col min="4610" max="4610" width="5.625" style="44" customWidth="1"/>
+    <col min="4609" max="4609" width="3.44140625" style="44" customWidth="1"/>
+    <col min="4610" max="4610" width="5.6640625" style="44" customWidth="1"/>
     <col min="4611" max="4612" width="6" style="44" customWidth="1"/>
-    <col min="4613" max="4614" width="8.5" style="44" customWidth="1"/>
-    <col min="4615" max="4615" width="7.375" style="44" customWidth="1"/>
-    <col min="4616" max="4617" width="7.75" style="44" customWidth="1"/>
-    <col min="4618" max="4619" width="7.625" style="44" customWidth="1"/>
-    <col min="4620" max="4620" width="5.625" style="44" customWidth="1"/>
-    <col min="4621" max="4621" width="9.625" style="44" customWidth="1"/>
-    <col min="4622" max="4625" width="5.125" style="44" customWidth="1"/>
-    <col min="4626" max="4626" width="2.625" style="44" customWidth="1"/>
+    <col min="4613" max="4614" width="8.44140625" style="44" customWidth="1"/>
+    <col min="4615" max="4615" width="7.33203125" style="44" customWidth="1"/>
+    <col min="4616" max="4617" width="7.77734375" style="44" customWidth="1"/>
+    <col min="4618" max="4619" width="7.6640625" style="44" customWidth="1"/>
+    <col min="4620" max="4620" width="5.6640625" style="44" customWidth="1"/>
+    <col min="4621" max="4621" width="9.6640625" style="44" customWidth="1"/>
+    <col min="4622" max="4625" width="5.109375" style="44" customWidth="1"/>
+    <col min="4626" max="4626" width="2.6640625" style="44" customWidth="1"/>
     <col min="4627" max="4864" width="9" style="44"/>
-    <col min="4865" max="4865" width="3.5" style="44" customWidth="1"/>
-    <col min="4866" max="4866" width="5.625" style="44" customWidth="1"/>
+    <col min="4865" max="4865" width="3.44140625" style="44" customWidth="1"/>
+    <col min="4866" max="4866" width="5.6640625" style="44" customWidth="1"/>
     <col min="4867" max="4868" width="6" style="44" customWidth="1"/>
-    <col min="4869" max="4870" width="8.5" style="44" customWidth="1"/>
-    <col min="4871" max="4871" width="7.375" style="44" customWidth="1"/>
-    <col min="4872" max="4873" width="7.75" style="44" customWidth="1"/>
-    <col min="4874" max="4875" width="7.625" style="44" customWidth="1"/>
-    <col min="4876" max="4876" width="5.625" style="44" customWidth="1"/>
-    <col min="4877" max="4877" width="9.625" style="44" customWidth="1"/>
-    <col min="4878" max="4881" width="5.125" style="44" customWidth="1"/>
-    <col min="4882" max="4882" width="2.625" style="44" customWidth="1"/>
+    <col min="4869" max="4870" width="8.44140625" style="44" customWidth="1"/>
+    <col min="4871" max="4871" width="7.33203125" style="44" customWidth="1"/>
+    <col min="4872" max="4873" width="7.77734375" style="44" customWidth="1"/>
+    <col min="4874" max="4875" width="7.6640625" style="44" customWidth="1"/>
+    <col min="4876" max="4876" width="5.6640625" style="44" customWidth="1"/>
+    <col min="4877" max="4877" width="9.6640625" style="44" customWidth="1"/>
+    <col min="4878" max="4881" width="5.109375" style="44" customWidth="1"/>
+    <col min="4882" max="4882" width="2.6640625" style="44" customWidth="1"/>
     <col min="4883" max="5120" width="9" style="44"/>
-    <col min="5121" max="5121" width="3.5" style="44" customWidth="1"/>
-    <col min="5122" max="5122" width="5.625" style="44" customWidth="1"/>
+    <col min="5121" max="5121" width="3.44140625" style="44" customWidth="1"/>
+    <col min="5122" max="5122" width="5.6640625" style="44" customWidth="1"/>
     <col min="5123" max="5124" width="6" style="44" customWidth="1"/>
-    <col min="5125" max="5126" width="8.5" style="44" customWidth="1"/>
-    <col min="5127" max="5127" width="7.375" style="44" customWidth="1"/>
-    <col min="5128" max="5129" width="7.75" style="44" customWidth="1"/>
-    <col min="5130" max="5131" width="7.625" style="44" customWidth="1"/>
-    <col min="5132" max="5132" width="5.625" style="44" customWidth="1"/>
-    <col min="5133" max="5133" width="9.625" style="44" customWidth="1"/>
-    <col min="5134" max="5137" width="5.125" style="44" customWidth="1"/>
-    <col min="5138" max="5138" width="2.625" style="44" customWidth="1"/>
+    <col min="5125" max="5126" width="8.44140625" style="44" customWidth="1"/>
+    <col min="5127" max="5127" width="7.33203125" style="44" customWidth="1"/>
+    <col min="5128" max="5129" width="7.77734375" style="44" customWidth="1"/>
+    <col min="5130" max="5131" width="7.6640625" style="44" customWidth="1"/>
+    <col min="5132" max="5132" width="5.6640625" style="44" customWidth="1"/>
+    <col min="5133" max="5133" width="9.6640625" style="44" customWidth="1"/>
+    <col min="5134" max="5137" width="5.109375" style="44" customWidth="1"/>
+    <col min="5138" max="5138" width="2.6640625" style="44" customWidth="1"/>
     <col min="5139" max="5376" width="9" style="44"/>
-    <col min="5377" max="5377" width="3.5" style="44" customWidth="1"/>
-    <col min="5378" max="5378" width="5.625" style="44" customWidth="1"/>
+    <col min="5377" max="5377" width="3.44140625" style="44" customWidth="1"/>
+    <col min="5378" max="5378" width="5.6640625" style="44" customWidth="1"/>
     <col min="5379" max="5380" width="6" style="44" customWidth="1"/>
-    <col min="5381" max="5382" width="8.5" style="44" customWidth="1"/>
-    <col min="5383" max="5383" width="7.375" style="44" customWidth="1"/>
-    <col min="5384" max="5385" width="7.75" style="44" customWidth="1"/>
-    <col min="5386" max="5387" width="7.625" style="44" customWidth="1"/>
-    <col min="5388" max="5388" width="5.625" style="44" customWidth="1"/>
-    <col min="5389" max="5389" width="9.625" style="44" customWidth="1"/>
-    <col min="5390" max="5393" width="5.125" style="44" customWidth="1"/>
-    <col min="5394" max="5394" width="2.625" style="44" customWidth="1"/>
+    <col min="5381" max="5382" width="8.44140625" style="44" customWidth="1"/>
+    <col min="5383" max="5383" width="7.33203125" style="44" customWidth="1"/>
+    <col min="5384" max="5385" width="7.77734375" style="44" customWidth="1"/>
+    <col min="5386" max="5387" width="7.6640625" style="44" customWidth="1"/>
+    <col min="5388" max="5388" width="5.6640625" style="44" customWidth="1"/>
+    <col min="5389" max="5389" width="9.6640625" style="44" customWidth="1"/>
+    <col min="5390" max="5393" width="5.109375" style="44" customWidth="1"/>
+    <col min="5394" max="5394" width="2.6640625" style="44" customWidth="1"/>
     <col min="5395" max="5632" width="9" style="44"/>
-    <col min="5633" max="5633" width="3.5" style="44" customWidth="1"/>
-    <col min="5634" max="5634" width="5.625" style="44" customWidth="1"/>
+    <col min="5633" max="5633" width="3.44140625" style="44" customWidth="1"/>
+    <col min="5634" max="5634" width="5.6640625" style="44" customWidth="1"/>
     <col min="5635" max="5636" width="6" style="44" customWidth="1"/>
-    <col min="5637" max="5638" width="8.5" style="44" customWidth="1"/>
-    <col min="5639" max="5639" width="7.375" style="44" customWidth="1"/>
-    <col min="5640" max="5641" width="7.75" style="44" customWidth="1"/>
-    <col min="5642" max="5643" width="7.625" style="44" customWidth="1"/>
-    <col min="5644" max="5644" width="5.625" style="44" customWidth="1"/>
-    <col min="5645" max="5645" width="9.625" style="44" customWidth="1"/>
-    <col min="5646" max="5649" width="5.125" style="44" customWidth="1"/>
-    <col min="5650" max="5650" width="2.625" style="44" customWidth="1"/>
+    <col min="5637" max="5638" width="8.44140625" style="44" customWidth="1"/>
+    <col min="5639" max="5639" width="7.33203125" style="44" customWidth="1"/>
+    <col min="5640" max="5641" width="7.77734375" style="44" customWidth="1"/>
+    <col min="5642" max="5643" width="7.6640625" style="44" customWidth="1"/>
+    <col min="5644" max="5644" width="5.6640625" style="44" customWidth="1"/>
+    <col min="5645" max="5645" width="9.6640625" style="44" customWidth="1"/>
+    <col min="5646" max="5649" width="5.109375" style="44" customWidth="1"/>
+    <col min="5650" max="5650" width="2.6640625" style="44" customWidth="1"/>
     <col min="5651" max="5888" width="9" style="44"/>
-    <col min="5889" max="5889" width="3.5" style="44" customWidth="1"/>
-    <col min="5890" max="5890" width="5.625" style="44" customWidth="1"/>
+    <col min="5889" max="5889" width="3.44140625" style="44" customWidth="1"/>
+    <col min="5890" max="5890" width="5.6640625" style="44" customWidth="1"/>
     <col min="5891" max="5892" width="6" style="44" customWidth="1"/>
-    <col min="5893" max="5894" width="8.5" style="44" customWidth="1"/>
-    <col min="5895" max="5895" width="7.375" style="44" customWidth="1"/>
-    <col min="5896" max="5897" width="7.75" style="44" customWidth="1"/>
-    <col min="5898" max="5899" width="7.625" style="44" customWidth="1"/>
-    <col min="5900" max="5900" width="5.625" style="44" customWidth="1"/>
-    <col min="5901" max="5901" width="9.625" style="44" customWidth="1"/>
-    <col min="5902" max="5905" width="5.125" style="44" customWidth="1"/>
-    <col min="5906" max="5906" width="2.625" style="44" customWidth="1"/>
+    <col min="5893" max="5894" width="8.44140625" style="44" customWidth="1"/>
+    <col min="5895" max="5895" width="7.33203125" style="44" customWidth="1"/>
+    <col min="5896" max="5897" width="7.77734375" style="44" customWidth="1"/>
+    <col min="5898" max="5899" width="7.6640625" style="44" customWidth="1"/>
+    <col min="5900" max="5900" width="5.6640625" style="44" customWidth="1"/>
+    <col min="5901" max="5901" width="9.6640625" style="44" customWidth="1"/>
+    <col min="5902" max="5905" width="5.109375" style="44" customWidth="1"/>
+    <col min="5906" max="5906" width="2.6640625" style="44" customWidth="1"/>
     <col min="5907" max="6144" width="9" style="44"/>
-    <col min="6145" max="6145" width="3.5" style="44" customWidth="1"/>
-    <col min="6146" max="6146" width="5.625" style="44" customWidth="1"/>
+    <col min="6145" max="6145" width="3.44140625" style="44" customWidth="1"/>
+    <col min="6146" max="6146" width="5.6640625" style="44" customWidth="1"/>
     <col min="6147" max="6148" width="6" style="44" customWidth="1"/>
-    <col min="6149" max="6150" width="8.5" style="44" customWidth="1"/>
-    <col min="6151" max="6151" width="7.375" style="44" customWidth="1"/>
-    <col min="6152" max="6153" width="7.75" style="44" customWidth="1"/>
-    <col min="6154" max="6155" width="7.625" style="44" customWidth="1"/>
-    <col min="6156" max="6156" width="5.625" style="44" customWidth="1"/>
-    <col min="6157" max="6157" width="9.625" style="44" customWidth="1"/>
-    <col min="6158" max="6161" width="5.125" style="44" customWidth="1"/>
-    <col min="6162" max="6162" width="2.625" style="44" customWidth="1"/>
+    <col min="6149" max="6150" width="8.44140625" style="44" customWidth="1"/>
+    <col min="6151" max="6151" width="7.33203125" style="44" customWidth="1"/>
+    <col min="6152" max="6153" width="7.77734375" style="44" customWidth="1"/>
+    <col min="6154" max="6155" width="7.6640625" style="44" customWidth="1"/>
+    <col min="6156" max="6156" width="5.6640625" style="44" customWidth="1"/>
+    <col min="6157" max="6157" width="9.6640625" style="44" customWidth="1"/>
+    <col min="6158" max="6161" width="5.109375" style="44" customWidth="1"/>
+    <col min="6162" max="6162" width="2.6640625" style="44" customWidth="1"/>
     <col min="6163" max="6400" width="9" style="44"/>
-    <col min="6401" max="6401" width="3.5" style="44" customWidth="1"/>
-    <col min="6402" max="6402" width="5.625" style="44" customWidth="1"/>
+    <col min="6401" max="6401" width="3.44140625" style="44" customWidth="1"/>
+    <col min="6402" max="6402" width="5.6640625" style="44" customWidth="1"/>
     <col min="6403" max="6404" width="6" style="44" customWidth="1"/>
-    <col min="6405" max="6406" width="8.5" style="44" customWidth="1"/>
-    <col min="6407" max="6407" width="7.375" style="44" customWidth="1"/>
-    <col min="6408" max="6409" width="7.75" style="44" customWidth="1"/>
-    <col min="6410" max="6411" width="7.625" style="44" customWidth="1"/>
-    <col min="6412" max="6412" width="5.625" style="44" customWidth="1"/>
-    <col min="6413" max="6413" width="9.625" style="44" customWidth="1"/>
-    <col min="6414" max="6417" width="5.125" style="44" customWidth="1"/>
-    <col min="6418" max="6418" width="2.625" style="44" customWidth="1"/>
+    <col min="6405" max="6406" width="8.44140625" style="44" customWidth="1"/>
+    <col min="6407" max="6407" width="7.33203125" style="44" customWidth="1"/>
+    <col min="6408" max="6409" width="7.77734375" style="44" customWidth="1"/>
+    <col min="6410" max="6411" width="7.6640625" style="44" customWidth="1"/>
+    <col min="6412" max="6412" width="5.6640625" style="44" customWidth="1"/>
+    <col min="6413" max="6413" width="9.6640625" style="44" customWidth="1"/>
+    <col min="6414" max="6417" width="5.109375" style="44" customWidth="1"/>
+    <col min="6418" max="6418" width="2.6640625" style="44" customWidth="1"/>
     <col min="6419" max="6656" width="9" style="44"/>
-    <col min="6657" max="6657" width="3.5" style="44" customWidth="1"/>
-    <col min="6658" max="6658" width="5.625" style="44" customWidth="1"/>
+    <col min="6657" max="6657" width="3.44140625" style="44" customWidth="1"/>
+    <col min="6658" max="6658" width="5.6640625" style="44" customWidth="1"/>
     <col min="6659" max="6660" width="6" style="44" customWidth="1"/>
-    <col min="6661" max="6662" width="8.5" style="44" customWidth="1"/>
-    <col min="6663" max="6663" width="7.375" style="44" customWidth="1"/>
-    <col min="6664" max="6665" width="7.75" style="44" customWidth="1"/>
-    <col min="6666" max="6667" width="7.625" style="44" customWidth="1"/>
-    <col min="6668" max="6668" width="5.625" style="44" customWidth="1"/>
-    <col min="6669" max="6669" width="9.625" style="44" customWidth="1"/>
-    <col min="6670" max="6673" width="5.125" style="44" customWidth="1"/>
-    <col min="6674" max="6674" width="2.625" style="44" customWidth="1"/>
+    <col min="6661" max="6662" width="8.44140625" style="44" customWidth="1"/>
+    <col min="6663" max="6663" width="7.33203125" style="44" customWidth="1"/>
+    <col min="6664" max="6665" width="7.77734375" style="44" customWidth="1"/>
+    <col min="6666" max="6667" width="7.6640625" style="44" customWidth="1"/>
+    <col min="6668" max="6668" width="5.6640625" style="44" customWidth="1"/>
+    <col min="6669" max="6669" width="9.6640625" style="44" customWidth="1"/>
+    <col min="6670" max="6673" width="5.109375" style="44" customWidth="1"/>
+    <col min="6674" max="6674" width="2.6640625" style="44" customWidth="1"/>
     <col min="6675" max="6912" width="9" style="44"/>
-    <col min="6913" max="6913" width="3.5" style="44" customWidth="1"/>
-    <col min="6914" max="6914" width="5.625" style="44" customWidth="1"/>
+    <col min="6913" max="6913" width="3.44140625" style="44" customWidth="1"/>
+    <col min="6914" max="6914" width="5.6640625" style="44" customWidth="1"/>
     <col min="6915" max="6916" width="6" style="44" customWidth="1"/>
-    <col min="6917" max="6918" width="8.5" style="44" customWidth="1"/>
-    <col min="6919" max="6919" width="7.375" style="44" customWidth="1"/>
-    <col min="6920" max="6921" width="7.75" style="44" customWidth="1"/>
-    <col min="6922" max="6923" width="7.625" style="44" customWidth="1"/>
-    <col min="6924" max="6924" width="5.625" style="44" customWidth="1"/>
-    <col min="6925" max="6925" width="9.625" style="44" customWidth="1"/>
-    <col min="6926" max="6929" width="5.125" style="44" customWidth="1"/>
-    <col min="6930" max="6930" width="2.625" style="44" customWidth="1"/>
+    <col min="6917" max="6918" width="8.44140625" style="44" customWidth="1"/>
+    <col min="6919" max="6919" width="7.33203125" style="44" customWidth="1"/>
+    <col min="6920" max="6921" width="7.77734375" style="44" customWidth="1"/>
+    <col min="6922" max="6923" width="7.6640625" style="44" customWidth="1"/>
+    <col min="6924" max="6924" width="5.6640625" style="44" customWidth="1"/>
+    <col min="6925" max="6925" width="9.6640625" style="44" customWidth="1"/>
+    <col min="6926" max="6929" width="5.109375" style="44" customWidth="1"/>
+    <col min="6930" max="6930" width="2.6640625" style="44" customWidth="1"/>
     <col min="6931" max="7168" width="9" style="44"/>
-    <col min="7169" max="7169" width="3.5" style="44" customWidth="1"/>
-    <col min="7170" max="7170" width="5.625" style="44" customWidth="1"/>
+    <col min="7169" max="7169" width="3.44140625" style="44" customWidth="1"/>
+    <col min="7170" max="7170" width="5.6640625" style="44" customWidth="1"/>
     <col min="7171" max="7172" width="6" style="44" customWidth="1"/>
-    <col min="7173" max="7174" width="8.5" style="44" customWidth="1"/>
-    <col min="7175" max="7175" width="7.375" style="44" customWidth="1"/>
-    <col min="7176" max="7177" width="7.75" style="44" customWidth="1"/>
-    <col min="7178" max="7179" width="7.625" style="44" customWidth="1"/>
-    <col min="7180" max="7180" width="5.625" style="44" customWidth="1"/>
-    <col min="7181" max="7181" width="9.625" style="44" customWidth="1"/>
-    <col min="7182" max="7185" width="5.125" style="44" customWidth="1"/>
-    <col min="7186" max="7186" width="2.625" style="44" customWidth="1"/>
+    <col min="7173" max="7174" width="8.44140625" style="44" customWidth="1"/>
+    <col min="7175" max="7175" width="7.33203125" style="44" customWidth="1"/>
+    <col min="7176" max="7177" width="7.77734375" style="44" customWidth="1"/>
+    <col min="7178" max="7179" width="7.6640625" style="44" customWidth="1"/>
+    <col min="7180" max="7180" width="5.6640625" style="44" customWidth="1"/>
+    <col min="7181" max="7181" width="9.6640625" style="44" customWidth="1"/>
+    <col min="7182" max="7185" width="5.109375" style="44" customWidth="1"/>
+    <col min="7186" max="7186" width="2.6640625" style="44" customWidth="1"/>
     <col min="7187" max="7424" width="9" style="44"/>
-    <col min="7425" max="7425" width="3.5" style="44" customWidth="1"/>
-    <col min="7426" max="7426" width="5.625" style="44" customWidth="1"/>
+    <col min="7425" max="7425" width="3.44140625" style="44" customWidth="1"/>
+    <col min="7426" max="7426" width="5.6640625" style="44" customWidth="1"/>
     <col min="7427" max="7428" width="6" style="44" customWidth="1"/>
-    <col min="7429" max="7430" width="8.5" style="44" customWidth="1"/>
-    <col min="7431" max="7431" width="7.375" style="44" customWidth="1"/>
-    <col min="7432" max="7433" width="7.75" style="44" customWidth="1"/>
-    <col min="7434" max="7435" width="7.625" style="44" customWidth="1"/>
-    <col min="7436" max="7436" width="5.625" style="44" customWidth="1"/>
-    <col min="7437" max="7437" width="9.625" style="44" customWidth="1"/>
-    <col min="7438" max="7441" width="5.125" style="44" customWidth="1"/>
-    <col min="7442" max="7442" width="2.625" style="44" customWidth="1"/>
+    <col min="7429" max="7430" width="8.44140625" style="44" customWidth="1"/>
+    <col min="7431" max="7431" width="7.33203125" style="44" customWidth="1"/>
+    <col min="7432" max="7433" width="7.77734375" style="44" customWidth="1"/>
+    <col min="7434" max="7435" width="7.6640625" style="44" customWidth="1"/>
+    <col min="7436" max="7436" width="5.6640625" style="44" customWidth="1"/>
+    <col min="7437" max="7437" width="9.6640625" style="44" customWidth="1"/>
+    <col min="7438" max="7441" width="5.109375" style="44" customWidth="1"/>
+    <col min="7442" max="7442" width="2.6640625" style="44" customWidth="1"/>
     <col min="7443" max="7680" width="9" style="44"/>
-    <col min="7681" max="7681" width="3.5" style="44" customWidth="1"/>
-    <col min="7682" max="7682" width="5.625" style="44" customWidth="1"/>
+    <col min="7681" max="7681" width="3.44140625" style="44" customWidth="1"/>
+    <col min="7682" max="7682" width="5.6640625" style="44" customWidth="1"/>
     <col min="7683" max="7684" width="6" style="44" customWidth="1"/>
-    <col min="7685" max="7686" width="8.5" style="44" customWidth="1"/>
-    <col min="7687" max="7687" width="7.375" style="44" customWidth="1"/>
-    <col min="7688" max="7689" width="7.75" style="44" customWidth="1"/>
-    <col min="7690" max="7691" width="7.625" style="44" customWidth="1"/>
-    <col min="7692" max="7692" width="5.625" style="44" customWidth="1"/>
-    <col min="7693" max="7693" width="9.625" style="44" customWidth="1"/>
-    <col min="7694" max="7697" width="5.125" style="44" customWidth="1"/>
-    <col min="7698" max="7698" width="2.625" style="44" customWidth="1"/>
+    <col min="7685" max="7686" width="8.44140625" style="44" customWidth="1"/>
+    <col min="7687" max="7687" width="7.33203125" style="44" customWidth="1"/>
+    <col min="7688" max="7689" width="7.77734375" style="44" customWidth="1"/>
+    <col min="7690" max="7691" width="7.6640625" style="44" customWidth="1"/>
+    <col min="7692" max="7692" width="5.6640625" style="44" customWidth="1"/>
+    <col min="7693" max="7693" width="9.6640625" style="44" customWidth="1"/>
+    <col min="7694" max="7697" width="5.109375" style="44" customWidth="1"/>
+    <col min="7698" max="7698" width="2.6640625" style="44" customWidth="1"/>
     <col min="7699" max="7936" width="9" style="44"/>
-    <col min="7937" max="7937" width="3.5" style="44" customWidth="1"/>
-    <col min="7938" max="7938" width="5.625" style="44" customWidth="1"/>
+    <col min="7937" max="7937" width="3.44140625" style="44" customWidth="1"/>
+    <col min="7938" max="7938" width="5.6640625" style="44" customWidth="1"/>
     <col min="7939" max="7940" width="6" style="44" customWidth="1"/>
-    <col min="7941" max="7942" width="8.5" style="44" customWidth="1"/>
-    <col min="7943" max="7943" width="7.375" style="44" customWidth="1"/>
-    <col min="7944" max="7945" width="7.75" style="44" customWidth="1"/>
-    <col min="7946" max="7947" width="7.625" style="44" customWidth="1"/>
-    <col min="7948" max="7948" width="5.625" style="44" customWidth="1"/>
-    <col min="7949" max="7949" width="9.625" style="44" customWidth="1"/>
-    <col min="7950" max="7953" width="5.125" style="44" customWidth="1"/>
-    <col min="7954" max="7954" width="2.625" style="44" customWidth="1"/>
+    <col min="7941" max="7942" width="8.44140625" style="44" customWidth="1"/>
+    <col min="7943" max="7943" width="7.33203125" style="44" customWidth="1"/>
+    <col min="7944" max="7945" width="7.77734375" style="44" customWidth="1"/>
+    <col min="7946" max="7947" width="7.6640625" style="44" customWidth="1"/>
+    <col min="7948" max="7948" width="5.6640625" style="44" customWidth="1"/>
+    <col min="7949" max="7949" width="9.6640625" style="44" customWidth="1"/>
+    <col min="7950" max="7953" width="5.109375" style="44" customWidth="1"/>
+    <col min="7954" max="7954" width="2.6640625" style="44" customWidth="1"/>
     <col min="7955" max="8192" width="9" style="44"/>
-    <col min="8193" max="8193" width="3.5" style="44" customWidth="1"/>
-    <col min="8194" max="8194" width="5.625" style="44" customWidth="1"/>
+    <col min="8193" max="8193" width="3.44140625" style="44" customWidth="1"/>
+    <col min="8194" max="8194" width="5.6640625" style="44" customWidth="1"/>
     <col min="8195" max="8196" width="6" style="44" customWidth="1"/>
-    <col min="8197" max="8198" width="8.5" style="44" customWidth="1"/>
-    <col min="8199" max="8199" width="7.375" style="44" customWidth="1"/>
-    <col min="8200" max="8201" width="7.75" style="44" customWidth="1"/>
-    <col min="8202" max="8203" width="7.625" style="44" customWidth="1"/>
-    <col min="8204" max="8204" width="5.625" style="44" customWidth="1"/>
-    <col min="8205" max="8205" width="9.625" style="44" customWidth="1"/>
-    <col min="8206" max="8209" width="5.125" style="44" customWidth="1"/>
-    <col min="8210" max="8210" width="2.625" style="44" customWidth="1"/>
+    <col min="8197" max="8198" width="8.44140625" style="44" customWidth="1"/>
+    <col min="8199" max="8199" width="7.33203125" style="44" customWidth="1"/>
+    <col min="8200" max="8201" width="7.77734375" style="44" customWidth="1"/>
+    <col min="8202" max="8203" width="7.6640625" style="44" customWidth="1"/>
+    <col min="8204" max="8204" width="5.6640625" style="44" customWidth="1"/>
+    <col min="8205" max="8205" width="9.6640625" style="44" customWidth="1"/>
+    <col min="8206" max="8209" width="5.109375" style="44" customWidth="1"/>
+    <col min="8210" max="8210" width="2.6640625" style="44" customWidth="1"/>
     <col min="8211" max="8448" width="9" style="44"/>
-    <col min="8449" max="8449" width="3.5" style="44" customWidth="1"/>
-    <col min="8450" max="8450" width="5.625" style="44" customWidth="1"/>
+    <col min="8449" max="8449" width="3.44140625" style="44" customWidth="1"/>
+    <col min="8450" max="8450" width="5.6640625" style="44" customWidth="1"/>
     <col min="8451" max="8452" width="6" style="44" customWidth="1"/>
-    <col min="8453" max="8454" width="8.5" style="44" customWidth="1"/>
-    <col min="8455" max="8455" width="7.375" style="44" customWidth="1"/>
-    <col min="8456" max="8457" width="7.75" style="44" customWidth="1"/>
-    <col min="8458" max="8459" width="7.625" style="44" customWidth="1"/>
-    <col min="8460" max="8460" width="5.625" style="44" customWidth="1"/>
-    <col min="8461" max="8461" width="9.625" style="44" customWidth="1"/>
-    <col min="8462" max="8465" width="5.125" style="44" customWidth="1"/>
-    <col min="8466" max="8466" width="2.625" style="44" customWidth="1"/>
+    <col min="8453" max="8454" width="8.44140625" style="44" customWidth="1"/>
+    <col min="8455" max="8455" width="7.33203125" style="44" customWidth="1"/>
+    <col min="8456" max="8457" width="7.77734375" style="44" customWidth="1"/>
+    <col min="8458" max="8459" width="7.6640625" style="44" customWidth="1"/>
+    <col min="8460" max="8460" width="5.6640625" style="44" customWidth="1"/>
+    <col min="8461" max="8461" width="9.6640625" style="44" customWidth="1"/>
+    <col min="8462" max="8465" width="5.109375" style="44" customWidth="1"/>
+    <col min="8466" max="8466" width="2.6640625" style="44" customWidth="1"/>
     <col min="8467" max="8704" width="9" style="44"/>
-    <col min="8705" max="8705" width="3.5" style="44" customWidth="1"/>
-    <col min="8706" max="8706" width="5.625" style="44" customWidth="1"/>
+    <col min="8705" max="8705" width="3.44140625" style="44" customWidth="1"/>
+    <col min="8706" max="8706" width="5.6640625" style="44" customWidth="1"/>
     <col min="8707" max="8708" width="6" style="44" customWidth="1"/>
-    <col min="8709" max="8710" width="8.5" style="44" customWidth="1"/>
-    <col min="8711" max="8711" width="7.375" style="44" customWidth="1"/>
-    <col min="8712" max="8713" width="7.75" style="44" customWidth="1"/>
-    <col min="8714" max="8715" width="7.625" style="44" customWidth="1"/>
-    <col min="8716" max="8716" width="5.625" style="44" customWidth="1"/>
-    <col min="8717" max="8717" width="9.625" style="44" customWidth="1"/>
-    <col min="8718" max="8721" width="5.125" style="44" customWidth="1"/>
-    <col min="8722" max="8722" width="2.625" style="44" customWidth="1"/>
+    <col min="8709" max="8710" width="8.44140625" style="44" customWidth="1"/>
+    <col min="8711" max="8711" width="7.33203125" style="44" customWidth="1"/>
+    <col min="8712" max="8713" width="7.77734375" style="44" customWidth="1"/>
+    <col min="8714" max="8715" width="7.6640625" style="44" customWidth="1"/>
+    <col min="8716" max="8716" width="5.6640625" style="44" customWidth="1"/>
+    <col min="8717" max="8717" width="9.6640625" style="44" customWidth="1"/>
+    <col min="8718" max="8721" width="5.109375" style="44" customWidth="1"/>
+    <col min="8722" max="8722" width="2.6640625" style="44" customWidth="1"/>
     <col min="8723" max="8960" width="9" style="44"/>
-    <col min="8961" max="8961" width="3.5" style="44" customWidth="1"/>
-    <col min="8962" max="8962" width="5.625" style="44" customWidth="1"/>
+    <col min="8961" max="8961" width="3.44140625" style="44" customWidth="1"/>
+    <col min="8962" max="8962" width="5.6640625" style="44" customWidth="1"/>
     <col min="8963" max="8964" width="6" style="44" customWidth="1"/>
-    <col min="8965" max="8966" width="8.5" style="44" customWidth="1"/>
-    <col min="8967" max="8967" width="7.375" style="44" customWidth="1"/>
-    <col min="8968" max="8969" width="7.75" style="44" customWidth="1"/>
-    <col min="8970" max="8971" width="7.625" style="44" customWidth="1"/>
-    <col min="8972" max="8972" width="5.625" style="44" customWidth="1"/>
-    <col min="8973" max="8973" width="9.625" style="44" customWidth="1"/>
-    <col min="8974" max="8977" width="5.125" style="44" customWidth="1"/>
-    <col min="8978" max="8978" width="2.625" style="44" customWidth="1"/>
+    <col min="8965" max="8966" width="8.44140625" style="44" customWidth="1"/>
+    <col min="8967" max="8967" width="7.33203125" style="44" customWidth="1"/>
+    <col min="8968" max="8969" width="7.77734375" style="44" customWidth="1"/>
+    <col min="8970" max="8971" width="7.6640625" style="44" customWidth="1"/>
+    <col min="8972" max="8972" width="5.6640625" style="44" customWidth="1"/>
+    <col min="8973" max="8973" width="9.6640625" style="44" customWidth="1"/>
+    <col min="8974" max="8977" width="5.109375" style="44" customWidth="1"/>
+    <col min="8978" max="8978" width="2.6640625" style="44" customWidth="1"/>
     <col min="8979" max="9216" width="9" style="44"/>
-    <col min="9217" max="9217" width="3.5" style="44" customWidth="1"/>
-    <col min="9218" max="9218" width="5.625" style="44" customWidth="1"/>
+    <col min="9217" max="9217" width="3.44140625" style="44" customWidth="1"/>
+    <col min="9218" max="9218" width="5.6640625" style="44" customWidth="1"/>
     <col min="9219" max="9220" width="6" style="44" customWidth="1"/>
-    <col min="9221" max="9222" width="8.5" style="44" customWidth="1"/>
-    <col min="9223" max="9223" width="7.375" style="44" customWidth="1"/>
-    <col min="9224" max="9225" width="7.75" style="44" customWidth="1"/>
-    <col min="9226" max="9227" width="7.625" style="44" customWidth="1"/>
-    <col min="9228" max="9228" width="5.625" style="44" customWidth="1"/>
-    <col min="9229" max="9229" width="9.625" style="44" customWidth="1"/>
-    <col min="9230" max="9233" width="5.125" style="44" customWidth="1"/>
-    <col min="9234" max="9234" width="2.625" style="44" customWidth="1"/>
+    <col min="9221" max="9222" width="8.44140625" style="44" customWidth="1"/>
+    <col min="9223" max="9223" width="7.33203125" style="44" customWidth="1"/>
+    <col min="9224" max="9225" width="7.77734375" style="44" customWidth="1"/>
+    <col min="9226" max="9227" width="7.6640625" style="44" customWidth="1"/>
+    <col min="9228" max="9228" width="5.6640625" style="44" customWidth="1"/>
+    <col min="9229" max="9229" width="9.6640625" style="44" customWidth="1"/>
+    <col min="9230" max="9233" width="5.109375" style="44" customWidth="1"/>
+    <col min="9234" max="9234" width="2.6640625" style="44" customWidth="1"/>
     <col min="9235" max="9472" width="9" style="44"/>
-    <col min="9473" max="9473" width="3.5" style="44" customWidth="1"/>
-    <col min="9474" max="9474" width="5.625" style="44" customWidth="1"/>
+    <col min="9473" max="9473" width="3.44140625" style="44" customWidth="1"/>
+    <col min="9474" max="9474" width="5.6640625" style="44" customWidth="1"/>
     <col min="9475" max="9476" width="6" style="44" customWidth="1"/>
-    <col min="9477" max="9478" width="8.5" style="44" customWidth="1"/>
-    <col min="9479" max="9479" width="7.375" style="44" customWidth="1"/>
-    <col min="9480" max="9481" width="7.75" style="44" customWidth="1"/>
-    <col min="9482" max="9483" width="7.625" style="44" customWidth="1"/>
-    <col min="9484" max="9484" width="5.625" style="44" customWidth="1"/>
-    <col min="9485" max="9485" width="9.625" style="44" customWidth="1"/>
-    <col min="9486" max="9489" width="5.125" style="44" customWidth="1"/>
-    <col min="9490" max="9490" width="2.625" style="44" customWidth="1"/>
+    <col min="9477" max="9478" width="8.44140625" style="44" customWidth="1"/>
+    <col min="9479" max="9479" width="7.33203125" style="44" customWidth="1"/>
+    <col min="9480" max="9481" width="7.77734375" style="44" customWidth="1"/>
+    <col min="9482" max="9483" width="7.6640625" style="44" customWidth="1"/>
+    <col min="9484" max="9484" width="5.6640625" style="44" customWidth="1"/>
+    <col min="9485" max="9485" width="9.6640625" style="44" customWidth="1"/>
+    <col min="9486" max="9489" width="5.109375" style="44" customWidth="1"/>
+    <col min="9490" max="9490" width="2.6640625" style="44" customWidth="1"/>
     <col min="9491" max="9728" width="9" style="44"/>
-    <col min="9729" max="9729" width="3.5" style="44" customWidth="1"/>
-    <col min="9730" max="9730" width="5.625" style="44" customWidth="1"/>
+    <col min="9729" max="9729" width="3.44140625" style="44" customWidth="1"/>
+    <col min="9730" max="9730" width="5.6640625" style="44" customWidth="1"/>
     <col min="9731" max="9732" width="6" style="44" customWidth="1"/>
-    <col min="9733" max="9734" width="8.5" style="44" customWidth="1"/>
-    <col min="9735" max="9735" width="7.375" style="44" customWidth="1"/>
-    <col min="9736" max="9737" width="7.75" style="44" customWidth="1"/>
-    <col min="9738" max="9739" width="7.625" style="44" customWidth="1"/>
-    <col min="9740" max="9740" width="5.625" style="44" customWidth="1"/>
-    <col min="9741" max="9741" width="9.625" style="44" customWidth="1"/>
-    <col min="9742" max="9745" width="5.125" style="44" customWidth="1"/>
-    <col min="9746" max="9746" width="2.625" style="44" customWidth="1"/>
+    <col min="9733" max="9734" width="8.44140625" style="44" customWidth="1"/>
+    <col min="9735" max="9735" width="7.33203125" style="44" customWidth="1"/>
+    <col min="9736" max="9737" width="7.77734375" style="44" customWidth="1"/>
+    <col min="9738" max="9739" width="7.6640625" style="44" customWidth="1"/>
+    <col min="9740" max="9740" width="5.6640625" style="44" customWidth="1"/>
+    <col min="9741" max="9741" width="9.6640625" style="44" customWidth="1"/>
+    <col min="9742" max="9745" width="5.109375" style="44" customWidth="1"/>
+    <col min="9746" max="9746" width="2.6640625" style="44" customWidth="1"/>
     <col min="9747" max="9984" width="9" style="44"/>
-    <col min="9985" max="9985" width="3.5" style="44" customWidth="1"/>
-    <col min="9986" max="9986" width="5.625" style="44" customWidth="1"/>
+    <col min="9985" max="9985" width="3.44140625" style="44" customWidth="1"/>
+    <col min="9986" max="9986" width="5.6640625" style="44" customWidth="1"/>
     <col min="9987" max="9988" width="6" style="44" customWidth="1"/>
-    <col min="9989" max="9990" width="8.5" style="44" customWidth="1"/>
-    <col min="9991" max="9991" width="7.375" style="44" customWidth="1"/>
-    <col min="9992" max="9993" width="7.75" style="44" customWidth="1"/>
-    <col min="9994" max="9995" width="7.625" style="44" customWidth="1"/>
-    <col min="9996" max="9996" width="5.625" style="44" customWidth="1"/>
-    <col min="9997" max="9997" width="9.625" style="44" customWidth="1"/>
-    <col min="9998" max="10001" width="5.125" style="44" customWidth="1"/>
-    <col min="10002" max="10002" width="2.625" style="44" customWidth="1"/>
+    <col min="9989" max="9990" width="8.44140625" style="44" customWidth="1"/>
+    <col min="9991" max="9991" width="7.33203125" style="44" customWidth="1"/>
+    <col min="9992" max="9993" width="7.77734375" style="44" customWidth="1"/>
+    <col min="9994" max="9995" width="7.6640625" style="44" customWidth="1"/>
+    <col min="9996" max="9996" width="5.6640625" style="44" customWidth="1"/>
+    <col min="9997" max="9997" width="9.6640625" style="44" customWidth="1"/>
+    <col min="9998" max="10001" width="5.109375" style="44" customWidth="1"/>
+    <col min="10002" max="10002" width="2.6640625" style="44" customWidth="1"/>
     <col min="10003" max="10240" width="9" style="44"/>
-    <col min="10241" max="10241" width="3.5" style="44" customWidth="1"/>
-    <col min="10242" max="10242" width="5.625" style="44" customWidth="1"/>
+    <col min="10241" max="10241" width="3.44140625" style="44" customWidth="1"/>
+    <col min="10242" max="10242" width="5.6640625" style="44" customWidth="1"/>
     <col min="10243" max="10244" width="6" style="44" customWidth="1"/>
-    <col min="10245" max="10246" width="8.5" style="44" customWidth="1"/>
-    <col min="10247" max="10247" width="7.375" style="44" customWidth="1"/>
-    <col min="10248" max="10249" width="7.75" style="44" customWidth="1"/>
-    <col min="10250" max="10251" width="7.625" style="44" customWidth="1"/>
-    <col min="10252" max="10252" width="5.625" style="44" customWidth="1"/>
-    <col min="10253" max="10253" width="9.625" style="44" customWidth="1"/>
-    <col min="10254" max="10257" width="5.125" style="44" customWidth="1"/>
-    <col min="10258" max="10258" width="2.625" style="44" customWidth="1"/>
+    <col min="10245" max="10246" width="8.44140625" style="44" customWidth="1"/>
+    <col min="10247" max="10247" width="7.33203125" style="44" customWidth="1"/>
+    <col min="10248" max="10249" width="7.77734375" style="44" customWidth="1"/>
+    <col min="10250" max="10251" width="7.6640625" style="44" customWidth="1"/>
+    <col min="10252" max="10252" width="5.6640625" style="44" customWidth="1"/>
+    <col min="10253" max="10253" width="9.6640625" style="44" customWidth="1"/>
+    <col min="10254" max="10257" width="5.109375" style="44" customWidth="1"/>
+    <col min="10258" max="10258" width="2.6640625" style="44" customWidth="1"/>
     <col min="10259" max="10496" width="9" style="44"/>
-    <col min="10497" max="10497" width="3.5" style="44" customWidth="1"/>
-    <col min="10498" max="10498" width="5.625" style="44" customWidth="1"/>
+    <col min="10497" max="10497" width="3.44140625" style="44" customWidth="1"/>
+    <col min="10498" max="10498" width="5.6640625" style="44" customWidth="1"/>
     <col min="10499" max="10500" width="6" style="44" customWidth="1"/>
-    <col min="10501" max="10502" width="8.5" style="44" customWidth="1"/>
-    <col min="10503" max="10503" width="7.375" style="44" customWidth="1"/>
-    <col min="10504" max="10505" width="7.75" style="44" customWidth="1"/>
-    <col min="10506" max="10507" width="7.625" style="44" customWidth="1"/>
-    <col min="10508" max="10508" width="5.625" style="44" customWidth="1"/>
-    <col min="10509" max="10509" width="9.625" style="44" customWidth="1"/>
-    <col min="10510" max="10513" width="5.125" style="44" customWidth="1"/>
-    <col min="10514" max="10514" width="2.625" style="44" customWidth="1"/>
+    <col min="10501" max="10502" width="8.44140625" style="44" customWidth="1"/>
+    <col min="10503" max="10503" width="7.33203125" style="44" customWidth="1"/>
+    <col min="10504" max="10505" width="7.77734375" style="44" customWidth="1"/>
+    <col min="10506" max="10507" width="7.6640625" style="44" customWidth="1"/>
+    <col min="10508" max="10508" width="5.6640625" style="44" customWidth="1"/>
+    <col min="10509" max="10509" width="9.6640625" style="44" customWidth="1"/>
+    <col min="10510" max="10513" width="5.109375" style="44" customWidth="1"/>
+    <col min="10514" max="10514" width="2.6640625" style="44" customWidth="1"/>
     <col min="10515" max="10752" width="9" style="44"/>
-    <col min="10753" max="10753" width="3.5" style="44" customWidth="1"/>
-    <col min="10754" max="10754" width="5.625" style="44" customWidth="1"/>
+    <col min="10753" max="10753" width="3.44140625" style="44" customWidth="1"/>
+    <col min="10754" max="10754" width="5.6640625" style="44" customWidth="1"/>
     <col min="10755" max="10756" width="6" style="44" customWidth="1"/>
-    <col min="10757" max="10758" width="8.5" style="44" customWidth="1"/>
-    <col min="10759" max="10759" width="7.375" style="44" customWidth="1"/>
-    <col min="10760" max="10761" width="7.75" style="44" customWidth="1"/>
-    <col min="10762" max="10763" width="7.625" style="44" customWidth="1"/>
-    <col min="10764" max="10764" width="5.625" style="44" customWidth="1"/>
-    <col min="10765" max="10765" width="9.625" style="44" customWidth="1"/>
-    <col min="10766" max="10769" width="5.125" style="44" customWidth="1"/>
-    <col min="10770" max="10770" width="2.625" style="44" customWidth="1"/>
+    <col min="10757" max="10758" width="8.44140625" style="44" customWidth="1"/>
+    <col min="10759" max="10759" width="7.33203125" style="44" customWidth="1"/>
+    <col min="10760" max="10761" width="7.77734375" style="44" customWidth="1"/>
+    <col min="10762" max="10763" width="7.6640625" style="44" customWidth="1"/>
+    <col min="10764" max="10764" width="5.6640625" style="44" customWidth="1"/>
+    <col min="10765" max="10765" width="9.6640625" style="44" customWidth="1"/>
+    <col min="10766" max="10769" width="5.109375" style="44" customWidth="1"/>
+    <col min="10770" max="10770" width="2.6640625" style="44" customWidth="1"/>
     <col min="10771" max="11008" width="9" style="44"/>
-    <col min="11009" max="11009" width="3.5" style="44" customWidth="1"/>
-    <col min="11010" max="11010" width="5.625" style="44" customWidth="1"/>
+    <col min="11009" max="11009" width="3.44140625" style="44" customWidth="1"/>
+    <col min="11010" max="11010" width="5.6640625" style="44" customWidth="1"/>
     <col min="11011" max="11012" width="6" style="44" customWidth="1"/>
-    <col min="11013" max="11014" width="8.5" style="44" customWidth="1"/>
-    <col min="11015" max="11015" width="7.375" style="44" customWidth="1"/>
-    <col min="11016" max="11017" width="7.75" style="44" customWidth="1"/>
-    <col min="11018" max="11019" width="7.625" style="44" customWidth="1"/>
-    <col min="11020" max="11020" width="5.625" style="44" customWidth="1"/>
-    <col min="11021" max="11021" width="9.625" style="44" customWidth="1"/>
-    <col min="11022" max="11025" width="5.125" style="44" customWidth="1"/>
-    <col min="11026" max="11026" width="2.625" style="44" customWidth="1"/>
+    <col min="11013" max="11014" width="8.44140625" style="44" customWidth="1"/>
+    <col min="11015" max="11015" width="7.33203125" style="44" customWidth="1"/>
+    <col min="11016" max="11017" width="7.77734375" style="44" customWidth="1"/>
+    <col min="11018" max="11019" width="7.6640625" style="44" customWidth="1"/>
+    <col min="11020" max="11020" width="5.6640625" style="44" customWidth="1"/>
+    <col min="11021" max="11021" width="9.6640625" style="44" customWidth="1"/>
+    <col min="11022" max="11025" width="5.109375" style="44" customWidth="1"/>
+    <col min="11026" max="11026" width="2.6640625" style="44" customWidth="1"/>
     <col min="11027" max="11264" width="9" style="44"/>
-    <col min="11265" max="11265" width="3.5" style="44" customWidth="1"/>
-    <col min="11266" max="11266" width="5.625" style="44" customWidth="1"/>
+    <col min="11265" max="11265" width="3.44140625" style="44" customWidth="1"/>
+    <col min="11266" max="11266" width="5.6640625" style="44" customWidth="1"/>
     <col min="11267" max="11268" width="6" style="44" customWidth="1"/>
-    <col min="11269" max="11270" width="8.5" style="44" customWidth="1"/>
-    <col min="11271" max="11271" width="7.375" style="44" customWidth="1"/>
-    <col min="11272" max="11273" width="7.75" style="44" customWidth="1"/>
-    <col min="11274" max="11275" width="7.625" style="44" customWidth="1"/>
-    <col min="11276" max="11276" width="5.625" style="44" customWidth="1"/>
-    <col min="11277" max="11277" width="9.625" style="44" customWidth="1"/>
-    <col min="11278" max="11281" width="5.125" style="44" customWidth="1"/>
-    <col min="11282" max="11282" width="2.625" style="44" customWidth="1"/>
+    <col min="11269" max="11270" width="8.44140625" style="44" customWidth="1"/>
+    <col min="11271" max="11271" width="7.33203125" style="44" customWidth="1"/>
+    <col min="11272" max="11273" width="7.77734375" style="44" customWidth="1"/>
+    <col min="11274" max="11275" width="7.6640625" style="44" customWidth="1"/>
+    <col min="11276" max="11276" width="5.6640625" style="44" customWidth="1"/>
+    <col min="11277" max="11277" width="9.6640625" style="44" customWidth="1"/>
+    <col min="11278" max="11281" width="5.109375" style="44" customWidth="1"/>
+    <col min="11282" max="11282" width="2.6640625" style="44" customWidth="1"/>
     <col min="11283" max="11520" width="9" style="44"/>
-    <col min="11521" max="11521" width="3.5" style="44" customWidth="1"/>
-    <col min="11522" max="11522" width="5.625" style="44" customWidth="1"/>
+    <col min="11521" max="11521" width="3.44140625" style="44" customWidth="1"/>
+    <col min="11522" max="11522" width="5.6640625" style="44" customWidth="1"/>
     <col min="11523" max="11524" width="6" style="44" customWidth="1"/>
-    <col min="11525" max="11526" width="8.5" style="44" customWidth="1"/>
-    <col min="11527" max="11527" width="7.375" style="44" customWidth="1"/>
-    <col min="11528" max="11529" width="7.75" style="44" customWidth="1"/>
-    <col min="11530" max="11531" width="7.625" style="44" customWidth="1"/>
-    <col min="11532" max="11532" width="5.625" style="44" customWidth="1"/>
-    <col min="11533" max="11533" width="9.625" style="44" customWidth="1"/>
-    <col min="11534" max="11537" width="5.125" style="44" customWidth="1"/>
-    <col min="11538" max="11538" width="2.625" style="44" customWidth="1"/>
+    <col min="11525" max="11526" width="8.44140625" style="44" customWidth="1"/>
+    <col min="11527" max="11527" width="7.33203125" style="44" customWidth="1"/>
+    <col min="11528" max="11529" width="7.77734375" style="44" customWidth="1"/>
+    <col min="11530" max="11531" width="7.6640625" style="44" customWidth="1"/>
+    <col min="11532" max="11532" width="5.6640625" style="44" customWidth="1"/>
+    <col min="11533" max="11533" width="9.6640625" style="44" customWidth="1"/>
+    <col min="11534" max="11537" width="5.109375" style="44" customWidth="1"/>
+    <col min="11538" max="11538" width="2.6640625" style="44" customWidth="1"/>
     <col min="11539" max="11776" width="9" style="44"/>
-    <col min="11777" max="11777" width="3.5" style="44" customWidth="1"/>
-    <col min="11778" max="11778" width="5.625" style="44" customWidth="1"/>
+    <col min="11777" max="11777" width="3.44140625" style="44" customWidth="1"/>
+    <col min="11778" max="11778" width="5.6640625" style="44" customWidth="1"/>
     <col min="11779" max="11780" width="6" style="44" customWidth="1"/>
-    <col min="11781" max="11782" width="8.5" style="44" customWidth="1"/>
-    <col min="11783" max="11783" width="7.375" style="44" customWidth="1"/>
-    <col min="11784" max="11785" width="7.75" style="44" customWidth="1"/>
-    <col min="11786" max="11787" width="7.625" style="44" customWidth="1"/>
-    <col min="11788" max="11788" width="5.625" style="44" customWidth="1"/>
-    <col min="11789" max="11789" width="9.625" style="44" customWidth="1"/>
-    <col min="11790" max="11793" width="5.125" style="44" customWidth="1"/>
-    <col min="11794" max="11794" width="2.625" style="44" customWidth="1"/>
+    <col min="11781" max="11782" width="8.44140625" style="44" customWidth="1"/>
+    <col min="11783" max="11783" width="7.33203125" style="44" customWidth="1"/>
+    <col min="11784" max="11785" width="7.77734375" style="44" customWidth="1"/>
+    <col min="11786" max="11787" width="7.6640625" style="44" customWidth="1"/>
+    <col min="11788" max="11788" width="5.6640625" style="44" customWidth="1"/>
+    <col min="11789" max="11789" width="9.6640625" style="44" customWidth="1"/>
+    <col min="11790" max="11793" width="5.109375" style="44" customWidth="1"/>
+    <col min="11794" max="11794" width="2.6640625" style="44" customWidth="1"/>
     <col min="11795" max="12032" width="9" style="44"/>
-    <col min="12033" max="12033" width="3.5" style="44" customWidth="1"/>
-    <col min="12034" max="12034" width="5.625" style="44" customWidth="1"/>
+    <col min="12033" max="12033" width="3.44140625" style="44" customWidth="1"/>
+    <col min="12034" max="12034" width="5.6640625" style="44" customWidth="1"/>
     <col min="12035" max="12036" width="6" style="44" customWidth="1"/>
-    <col min="12037" max="12038" width="8.5" style="44" customWidth="1"/>
-    <col min="12039" max="12039" width="7.375" style="44" customWidth="1"/>
-    <col min="12040" max="12041" width="7.75" style="44" customWidth="1"/>
-    <col min="12042" max="12043" width="7.625" style="44" customWidth="1"/>
-    <col min="12044" max="12044" width="5.625" style="44" customWidth="1"/>
-    <col min="12045" max="12045" width="9.625" style="44" customWidth="1"/>
-    <col min="12046" max="12049" width="5.125" style="44" customWidth="1"/>
-    <col min="12050" max="12050" width="2.625" style="44" customWidth="1"/>
+    <col min="12037" max="12038" width="8.44140625" style="44" customWidth="1"/>
+    <col min="12039" max="12039" width="7.33203125" style="44" customWidth="1"/>
+    <col min="12040" max="12041" width="7.77734375" style="44" customWidth="1"/>
+    <col min="12042" max="12043" width="7.6640625" style="44" customWidth="1"/>
+    <col min="12044" max="12044" width="5.6640625" style="44" customWidth="1"/>
+    <col min="12045" max="12045" width="9.6640625" style="44" customWidth="1"/>
+    <col min="12046" max="12049" width="5.109375" style="44" customWidth="1"/>
+    <col min="12050" max="12050" width="2.6640625" style="44" customWidth="1"/>
     <col min="12051" max="12288" width="9" style="44"/>
-    <col min="12289" max="12289" width="3.5" style="44" customWidth="1"/>
-    <col min="12290" max="12290" width="5.625" style="44" customWidth="1"/>
+    <col min="12289" max="12289" width="3.44140625" style="44" customWidth="1"/>
+    <col min="12290" max="12290" width="5.6640625" style="44" customWidth="1"/>
     <col min="12291" max="12292" width="6" style="44" customWidth="1"/>
-    <col min="12293" max="12294" width="8.5" style="44" customWidth="1"/>
-    <col min="12295" max="12295" width="7.375" style="44" customWidth="1"/>
-    <col min="12296" max="12297" width="7.75" style="44" customWidth="1"/>
-    <col min="12298" max="12299" width="7.625" style="44" customWidth="1"/>
-    <col min="12300" max="12300" width="5.625" style="44" customWidth="1"/>
-    <col min="12301" max="12301" width="9.625" style="44" customWidth="1"/>
-    <col min="12302" max="12305" width="5.125" style="44" customWidth="1"/>
-    <col min="12306" max="12306" width="2.625" style="44" customWidth="1"/>
+    <col min="12293" max="12294" width="8.44140625" style="44" customWidth="1"/>
+    <col min="12295" max="12295" width="7.33203125" style="44" customWidth="1"/>
+    <col min="12296" max="12297" width="7.77734375" style="44" customWidth="1"/>
+    <col min="12298" max="12299" width="7.6640625" style="44" customWidth="1"/>
+    <col min="12300" max="12300" width="5.6640625" style="44" customWidth="1"/>
+    <col min="12301" max="12301" width="9.6640625" style="44" customWidth="1"/>
+    <col min="12302" max="12305" width="5.109375" style="44" customWidth="1"/>
+    <col min="12306" max="12306" width="2.6640625" style="44" customWidth="1"/>
     <col min="12307" max="12544" width="9" style="44"/>
-    <col min="12545" max="12545" width="3.5" style="44" customWidth="1"/>
-    <col min="12546" max="12546" width="5.625" style="44" customWidth="1"/>
+    <col min="12545" max="12545" width="3.44140625" style="44" customWidth="1"/>
+    <col min="12546" max="12546" width="5.6640625" style="44" customWidth="1"/>
     <col min="12547" max="12548" width="6" style="44" customWidth="1"/>
-    <col min="12549" max="12550" width="8.5" style="44" customWidth="1"/>
-    <col min="12551" max="12551" width="7.375" style="44" customWidth="1"/>
-    <col min="12552" max="12553" width="7.75" style="44" customWidth="1"/>
-    <col min="12554" max="12555" width="7.625" style="44" customWidth="1"/>
-    <col min="12556" max="12556" width="5.625" style="44" customWidth="1"/>
-    <col min="12557" max="12557" width="9.625" style="44" customWidth="1"/>
-    <col min="12558" max="12561" width="5.125" style="44" customWidth="1"/>
-    <col min="12562" max="12562" width="2.625" style="44" customWidth="1"/>
+    <col min="12549" max="12550" width="8.44140625" style="44" customWidth="1"/>
+    <col min="12551" max="12551" width="7.33203125" style="44" customWidth="1"/>
+    <col min="12552" max="12553" width="7.77734375" style="44" customWidth="1"/>
+    <col min="12554" max="12555" width="7.6640625" style="44" customWidth="1"/>
+    <col min="12556" max="12556" width="5.6640625" style="44" customWidth="1"/>
+    <col min="12557" max="12557" width="9.6640625" style="44" customWidth="1"/>
+    <col min="12558" max="12561" width="5.109375" style="44" customWidth="1"/>
+    <col min="12562" max="12562" width="2.6640625" style="44" customWidth="1"/>
     <col min="12563" max="12800" width="9" style="44"/>
-    <col min="12801" max="12801" width="3.5" style="44" customWidth="1"/>
-    <col min="12802" max="12802" width="5.625" style="44" customWidth="1"/>
+    <col min="12801" max="12801" width="3.44140625" style="44" customWidth="1"/>
+    <col min="12802" max="12802" width="5.6640625" style="44" customWidth="1"/>
     <col min="12803" max="12804" width="6" style="44" customWidth="1"/>
-    <col min="12805" max="12806" width="8.5" style="44" customWidth="1"/>
-    <col min="12807" max="12807" width="7.375" style="44" customWidth="1"/>
-    <col min="12808" max="12809" width="7.75" style="44" customWidth="1"/>
-    <col min="12810" max="12811" width="7.625" style="44" customWidth="1"/>
-    <col min="12812" max="12812" width="5.625" style="44" customWidth="1"/>
-    <col min="12813" max="12813" width="9.625" style="44" customWidth="1"/>
-    <col min="12814" max="12817" width="5.125" style="44" customWidth="1"/>
-    <col min="12818" max="12818" width="2.625" style="44" customWidth="1"/>
+    <col min="12805" max="12806" width="8.44140625" style="44" customWidth="1"/>
+    <col min="12807" max="12807" width="7.33203125" style="44" customWidth="1"/>
+    <col min="12808" max="12809" width="7.77734375" style="44" customWidth="1"/>
+    <col min="12810" max="12811" width="7.6640625" style="44" customWidth="1"/>
+    <col min="12812" max="12812" width="5.6640625" style="44" customWidth="1"/>
+    <col min="12813" max="12813" width="9.6640625" style="44" customWidth="1"/>
+    <col min="12814" max="12817" width="5.109375" style="44" customWidth="1"/>
+    <col min="12818" max="12818" width="2.6640625" style="44" customWidth="1"/>
     <col min="12819" max="13056" width="9" style="44"/>
-    <col min="13057" max="13057" width="3.5" style="44" customWidth="1"/>
-    <col min="13058" max="13058" width="5.625" style="44" customWidth="1"/>
+    <col min="13057" max="13057" width="3.44140625" style="44" customWidth="1"/>
+    <col min="13058" max="13058" width="5.6640625" style="44" customWidth="1"/>
     <col min="13059" max="13060" width="6" style="44" customWidth="1"/>
-    <col min="13061" max="13062" width="8.5" style="44" customWidth="1"/>
-    <col min="13063" max="13063" width="7.375" style="44" customWidth="1"/>
-    <col min="13064" max="13065" width="7.75" style="44" customWidth="1"/>
-    <col min="13066" max="13067" width="7.625" style="44" customWidth="1"/>
-    <col min="13068" max="13068" width="5.625" style="44" customWidth="1"/>
-    <col min="13069" max="13069" width="9.625" style="44" customWidth="1"/>
-    <col min="13070" max="13073" width="5.125" style="44" customWidth="1"/>
-    <col min="13074" max="13074" width="2.625" style="44" customWidth="1"/>
+    <col min="13061" max="13062" width="8.44140625" style="44" customWidth="1"/>
+    <col min="13063" max="13063" width="7.33203125" style="44" customWidth="1"/>
+    <col min="13064" max="13065" width="7.77734375" style="44" customWidth="1"/>
+    <col min="13066" max="13067" width="7.6640625" style="44" customWidth="1"/>
+    <col min="13068" max="13068" width="5.6640625" style="44" customWidth="1"/>
+    <col min="13069" max="13069" width="9.6640625" style="44" customWidth="1"/>
+    <col min="13070" max="13073" width="5.109375" style="44" customWidth="1"/>
+    <col min="13074" max="13074" width="2.6640625" style="44" customWidth="1"/>
     <col min="13075" max="13312" width="9" style="44"/>
-    <col min="13313" max="13313" width="3.5" style="44" customWidth="1"/>
-    <col min="13314" max="13314" width="5.625" style="44" customWidth="1"/>
+    <col min="13313" max="13313" width="3.44140625" style="44" customWidth="1"/>
+    <col min="13314" max="13314" width="5.6640625" style="44" customWidth="1"/>
     <col min="13315" max="13316" width="6" style="44" customWidth="1"/>
-    <col min="13317" max="13318" width="8.5" style="44" customWidth="1"/>
-    <col min="13319" max="13319" width="7.375" style="44" customWidth="1"/>
-    <col min="13320" max="13321" width="7.75" style="44" customWidth="1"/>
-    <col min="13322" max="13323" width="7.625" style="44" customWidth="1"/>
-    <col min="13324" max="13324" width="5.625" style="44" customWidth="1"/>
-    <col min="13325" max="13325" width="9.625" style="44" customWidth="1"/>
-    <col min="13326" max="13329" width="5.125" style="44" customWidth="1"/>
-    <col min="13330" max="13330" width="2.625" style="44" customWidth="1"/>
+    <col min="13317" max="13318" width="8.44140625" style="44" customWidth="1"/>
+    <col min="13319" max="13319" width="7.33203125" style="44" customWidth="1"/>
+    <col min="13320" max="13321" width="7.77734375" style="44" customWidth="1"/>
+    <col min="13322" max="13323" width="7.6640625" style="44" customWidth="1"/>
+    <col min="13324" max="13324" width="5.6640625" style="44" customWidth="1"/>
+    <col min="13325" max="13325" width="9.6640625" style="44" customWidth="1"/>
+    <col min="13326" max="13329" width="5.109375" style="44" customWidth="1"/>
+    <col min="13330" max="13330" width="2.6640625" style="44" customWidth="1"/>
     <col min="13331" max="13568" width="9" style="44"/>
-    <col min="13569" max="13569" width="3.5" style="44" customWidth="1"/>
-    <col min="13570" max="13570" width="5.625" style="44" customWidth="1"/>
+    <col min="13569" max="13569" width="3.44140625" style="44" customWidth="1"/>
+    <col min="13570" max="13570" width="5.6640625" style="44" customWidth="1"/>
     <col min="13571" max="13572" width="6" style="44" customWidth="1"/>
-    <col min="13573" max="13574" width="8.5" style="44" customWidth="1"/>
-    <col min="13575" max="13575" width="7.375" style="44" customWidth="1"/>
-    <col min="13576" max="13577" width="7.75" style="44" customWidth="1"/>
-    <col min="13578" max="13579" width="7.625" style="44" customWidth="1"/>
-    <col min="13580" max="13580" width="5.625" style="44" customWidth="1"/>
-    <col min="13581" max="13581" width="9.625" style="44" customWidth="1"/>
-    <col min="13582" max="13585" width="5.125" style="44" customWidth="1"/>
-    <col min="13586" max="13586" width="2.625" style="44" customWidth="1"/>
+    <col min="13573" max="13574" width="8.44140625" style="44" customWidth="1"/>
+    <col min="13575" max="13575" width="7.33203125" style="44" customWidth="1"/>
+    <col min="13576" max="13577" width="7.77734375" style="44" customWidth="1"/>
+    <col min="13578" max="13579" width="7.6640625" style="44" customWidth="1"/>
+    <col min="13580" max="13580" width="5.6640625" style="44" customWidth="1"/>
+    <col min="13581" max="13581" width="9.6640625" style="44" customWidth="1"/>
+    <col min="13582" max="13585" width="5.109375" style="44" customWidth="1"/>
+    <col min="13586" max="13586" width="2.6640625" style="44" customWidth="1"/>
     <col min="13587" max="13824" width="9" style="44"/>
-    <col min="13825" max="13825" width="3.5" style="44" customWidth="1"/>
-    <col min="13826" max="13826" width="5.625" style="44" customWidth="1"/>
+    <col min="13825" max="13825" width="3.44140625" style="44" customWidth="1"/>
+    <col min="13826" max="13826" width="5.6640625" style="44" customWidth="1"/>
     <col min="13827" max="13828" width="6" style="44" customWidth="1"/>
-    <col min="13829" max="13830" width="8.5" style="44" customWidth="1"/>
-    <col min="13831" max="13831" width="7.375" style="44" customWidth="1"/>
-    <col min="13832" max="13833" width="7.75" style="44" customWidth="1"/>
-    <col min="13834" max="13835" width="7.625" style="44" customWidth="1"/>
-    <col min="13836" max="13836" width="5.625" style="44" customWidth="1"/>
-    <col min="13837" max="13837" width="9.625" style="44" customWidth="1"/>
-    <col min="13838" max="13841" width="5.125" style="44" customWidth="1"/>
-    <col min="13842" max="13842" width="2.625" style="44" customWidth="1"/>
+    <col min="13829" max="13830" width="8.44140625" style="44" customWidth="1"/>
+    <col min="13831" max="13831" width="7.33203125" style="44" customWidth="1"/>
+    <col min="13832" max="13833" width="7.77734375" style="44" customWidth="1"/>
+    <col min="13834" max="13835" width="7.6640625" style="44" customWidth="1"/>
+    <col min="13836" max="13836" width="5.6640625" style="44" customWidth="1"/>
+    <col min="13837" max="13837" width="9.6640625" style="44" customWidth="1"/>
+    <col min="13838" max="13841" width="5.109375" style="44" customWidth="1"/>
+    <col min="13842" max="13842" width="2.6640625" style="44" customWidth="1"/>
     <col min="13843" max="14080" width="9" style="44"/>
-    <col min="14081" max="14081" width="3.5" style="44" customWidth="1"/>
-    <col min="14082" max="14082" width="5.625" style="44" customWidth="1"/>
+    <col min="14081" max="14081" width="3.44140625" style="44" customWidth="1"/>
+    <col min="14082" max="14082" width="5.6640625" style="44" customWidth="1"/>
     <col min="14083" max="14084" width="6" style="44" customWidth="1"/>
-    <col min="14085" max="14086" width="8.5" style="44" customWidth="1"/>
-    <col min="14087" max="14087" width="7.375" style="44" customWidth="1"/>
-    <col min="14088" max="14089" width="7.75" style="44" customWidth="1"/>
-    <col min="14090" max="14091" width="7.625" style="44" customWidth="1"/>
-    <col min="14092" max="14092" width="5.625" style="44" customWidth="1"/>
-    <col min="14093" max="14093" width="9.625" style="44" customWidth="1"/>
-    <col min="14094" max="14097" width="5.125" style="44" customWidth="1"/>
-    <col min="14098" max="14098" width="2.625" style="44" customWidth="1"/>
+    <col min="14085" max="14086" width="8.44140625" style="44" customWidth="1"/>
+    <col min="14087" max="14087" width="7.33203125" style="44" customWidth="1"/>
+    <col min="14088" max="14089" width="7.77734375" style="44" customWidth="1"/>
+    <col min="14090" max="14091" width="7.6640625" style="44" customWidth="1"/>
+    <col min="14092" max="14092" width="5.6640625" style="44" customWidth="1"/>
+    <col min="14093" max="14093" width="9.6640625" style="44" customWidth="1"/>
+    <col min="14094" max="14097" width="5.109375" style="44" customWidth="1"/>
+    <col min="14098" max="14098" width="2.6640625" style="44" customWidth="1"/>
     <col min="14099" max="14336" width="9" style="44"/>
-    <col min="14337" max="14337" width="3.5" style="44" customWidth="1"/>
-    <col min="14338" max="14338" width="5.625" style="44" customWidth="1"/>
+    <col min="14337" max="14337" width="3.44140625" style="44" customWidth="1"/>
+    <col min="14338" max="14338" width="5.6640625" style="44" customWidth="1"/>
     <col min="14339" max="14340" width="6" style="44" customWidth="1"/>
-    <col min="14341" max="14342" width="8.5" style="44" customWidth="1"/>
-    <col min="14343" max="14343" width="7.375" style="44" customWidth="1"/>
-    <col min="14344" max="14345" width="7.75" style="44" customWidth="1"/>
-    <col min="14346" max="14347" width="7.625" style="44" customWidth="1"/>
-    <col min="14348" max="14348" width="5.625" style="44" customWidth="1"/>
-    <col min="14349" max="14349" width="9.625" style="44" customWidth="1"/>
-    <col min="14350" max="14353" width="5.125" style="44" customWidth="1"/>
-    <col min="14354" max="14354" width="2.625" style="44" customWidth="1"/>
+    <col min="14341" max="14342" width="8.44140625" style="44" customWidth="1"/>
+    <col min="14343" max="14343" width="7.33203125" style="44" customWidth="1"/>
+    <col min="14344" max="14345" width="7.77734375" style="44" customWidth="1"/>
+    <col min="14346" max="14347" width="7.6640625" style="44" customWidth="1"/>
+    <col min="14348" max="14348" width="5.6640625" style="44" customWidth="1"/>
+    <col min="14349" max="14349" width="9.6640625" style="44" customWidth="1"/>
+    <col min="14350" max="14353" width="5.109375" style="44" customWidth="1"/>
+    <col min="14354" max="14354" width="2.6640625" style="44" customWidth="1"/>
     <col min="14355" max="14592" width="9" style="44"/>
-    <col min="14593" max="14593" width="3.5" style="44" customWidth="1"/>
-    <col min="14594" max="14594" width="5.625" style="44" customWidth="1"/>
+    <col min="14593" max="14593" width="3.44140625" style="44" customWidth="1"/>
+    <col min="14594" max="14594" width="5.6640625" style="44" customWidth="1"/>
     <col min="14595" max="14596" width="6" style="44" customWidth="1"/>
-    <col min="14597" max="14598" width="8.5" style="44" customWidth="1"/>
-    <col min="14599" max="14599" width="7.375" style="44" customWidth="1"/>
-    <col min="14600" max="14601" width="7.75" style="44" customWidth="1"/>
-    <col min="14602" max="14603" width="7.625" style="44" customWidth="1"/>
-    <col min="14604" max="14604" width="5.625" style="44" customWidth="1"/>
-    <col min="14605" max="14605" width="9.625" style="44" customWidth="1"/>
-    <col min="14606" max="14609" width="5.125" style="44" customWidth="1"/>
-    <col min="14610" max="14610" width="2.625" style="44" customWidth="1"/>
+    <col min="14597" max="14598" width="8.44140625" style="44" customWidth="1"/>
+    <col min="14599" max="14599" width="7.33203125" style="44" customWidth="1"/>
+    <col min="14600" max="14601" width="7.77734375" style="44" customWidth="1"/>
+    <col min="14602" max="14603" width="7.6640625" style="44" customWidth="1"/>
+    <col min="14604" max="14604" width="5.6640625" style="44" customWidth="1"/>
+    <col min="14605" max="14605" width="9.6640625" style="44" customWidth="1"/>
+    <col min="14606" max="14609" width="5.109375" style="44" customWidth="1"/>
+    <col min="14610" max="14610" width="2.6640625" style="44" customWidth="1"/>
     <col min="14611" max="14848" width="9" style="44"/>
-    <col min="14849" max="14849" width="3.5" style="44" customWidth="1"/>
-    <col min="14850" max="14850" width="5.625" style="44" customWidth="1"/>
+    <col min="14849" max="14849" width="3.44140625" style="44" customWidth="1"/>
+    <col min="14850" max="14850" width="5.6640625" style="44" customWidth="1"/>
     <col min="14851" max="14852" width="6" style="44" customWidth="1"/>
-    <col min="14853" max="14854" width="8.5" style="44" customWidth="1"/>
-    <col min="14855" max="14855" width="7.375" style="44" customWidth="1"/>
-    <col min="14856" max="14857" width="7.75" style="44" customWidth="1"/>
-    <col min="14858" max="14859" width="7.625" style="44" customWidth="1"/>
-    <col min="14860" max="14860" width="5.625" style="44" customWidth="1"/>
-    <col min="14861" max="14861" width="9.625" style="44" customWidth="1"/>
-    <col min="14862" max="14865" width="5.125" style="44" customWidth="1"/>
-    <col min="14866" max="14866" width="2.625" style="44" customWidth="1"/>
+    <col min="14853" max="14854" width="8.44140625" style="44" customWidth="1"/>
+    <col min="14855" max="14855" width="7.33203125" style="44" customWidth="1"/>
+    <col min="14856" max="14857" width="7.77734375" style="44" customWidth="1"/>
+    <col min="14858" max="14859" width="7.6640625" style="44" customWidth="1"/>
+    <col min="14860" max="14860" width="5.6640625" style="44" customWidth="1"/>
+    <col min="14861" max="14861" width="9.6640625" style="44" customWidth="1"/>
+    <col min="14862" max="14865" width="5.109375" style="44" customWidth="1"/>
+    <col min="14866" max="14866" width="2.6640625" style="44" customWidth="1"/>
     <col min="14867" max="15104" width="9" style="44"/>
-    <col min="15105" max="15105" width="3.5" style="44" customWidth="1"/>
-    <col min="15106" max="15106" width="5.625" style="44" customWidth="1"/>
+    <col min="15105" max="15105" width="3.44140625" style="44" customWidth="1"/>
+    <col min="15106" max="15106" width="5.6640625" style="44" customWidth="1"/>
     <col min="15107" max="15108" width="6" style="44" customWidth="1"/>
-    <col min="15109" max="15110" width="8.5" style="44" customWidth="1"/>
-    <col min="15111" max="15111" width="7.375" style="44" customWidth="1"/>
-    <col min="15112" max="15113" width="7.75" style="44" customWidth="1"/>
-    <col min="15114" max="15115" width="7.625" style="44" customWidth="1"/>
-    <col min="15116" max="15116" width="5.625" style="44" customWidth="1"/>
-    <col min="15117" max="15117" width="9.625" style="44" customWidth="1"/>
-    <col min="15118" max="15121" width="5.125" style="44" customWidth="1"/>
-    <col min="15122" max="15122" width="2.625" style="44" customWidth="1"/>
+    <col min="15109" max="15110" width="8.44140625" style="44" customWidth="1"/>
+    <col min="15111" max="15111" width="7.33203125" style="44" customWidth="1"/>
+    <col min="15112" max="15113" width="7.77734375" style="44" customWidth="1"/>
+    <col min="15114" max="15115" width="7.6640625" style="44" customWidth="1"/>
+    <col min="15116" max="15116" width="5.6640625" style="44" customWidth="1"/>
+    <col min="15117" max="15117" width="9.6640625" style="44" customWidth="1"/>
+    <col min="15118" max="15121" width="5.109375" style="44" customWidth="1"/>
+    <col min="15122" max="15122" width="2.6640625" style="44" customWidth="1"/>
     <col min="15123" max="15360" width="9" style="44"/>
-    <col min="15361" max="15361" width="3.5" style="44" customWidth="1"/>
-    <col min="15362" max="15362" width="5.625" style="44" customWidth="1"/>
+    <col min="15361" max="15361" width="3.44140625" style="44" customWidth="1"/>
+    <col min="15362" max="15362" width="5.6640625" style="44" customWidth="1"/>
     <col min="15363" max="15364" width="6" style="44" customWidth="1"/>
-    <col min="15365" max="15366" width="8.5" style="44" customWidth="1"/>
-    <col min="15367" max="15367" width="7.375" style="44" customWidth="1"/>
-    <col min="15368" max="15369" width="7.75" style="44" customWidth="1"/>
-    <col min="15370" max="15371" width="7.625" style="44" customWidth="1"/>
-    <col min="15372" max="15372" width="5.625" style="44" customWidth="1"/>
-    <col min="15373" max="15373" width="9.625" style="44" customWidth="1"/>
-    <col min="15374" max="15377" width="5.125" style="44" customWidth="1"/>
-    <col min="15378" max="15378" width="2.625" style="44" customWidth="1"/>
+    <col min="15365" max="15366" width="8.44140625" style="44" customWidth="1"/>
+    <col min="15367" max="15367" width="7.33203125" style="44" customWidth="1"/>
+    <col min="15368" max="15369" width="7.77734375" style="44" customWidth="1"/>
+    <col min="15370" max="15371" width="7.6640625" style="44" customWidth="1"/>
+    <col min="15372" max="15372" width="5.6640625" style="44" customWidth="1"/>
+    <col min="15373" max="15373" width="9.6640625" style="44" customWidth="1"/>
+    <col min="15374" max="15377" width="5.109375" style="44" customWidth="1"/>
+    <col min="15378" max="15378" width="2.6640625" style="44" customWidth="1"/>
     <col min="15379" max="15616" width="9" style="44"/>
-    <col min="15617" max="15617" width="3.5" style="44" customWidth="1"/>
-    <col min="15618" max="15618" width="5.625" style="44" customWidth="1"/>
+    <col min="15617" max="15617" width="3.44140625" style="44" customWidth="1"/>
+    <col min="15618" max="15618" width="5.6640625" style="44" customWidth="1"/>
     <col min="15619" max="15620" width="6" style="44" customWidth="1"/>
-    <col min="15621" max="15622" width="8.5" style="44" customWidth="1"/>
-    <col min="15623" max="15623" width="7.375" style="44" customWidth="1"/>
-    <col min="15624" max="15625" width="7.75" style="44" customWidth="1"/>
-    <col min="15626" max="15627" width="7.625" style="44" customWidth="1"/>
-    <col min="15628" max="15628" width="5.625" style="44" customWidth="1"/>
-    <col min="15629" max="15629" width="9.625" style="44" customWidth="1"/>
-    <col min="15630" max="15633" width="5.125" style="44" customWidth="1"/>
-    <col min="15634" max="15634" width="2.625" style="44" customWidth="1"/>
+    <col min="15621" max="15622" width="8.44140625" style="44" customWidth="1"/>
+    <col min="15623" max="15623" width="7.33203125" style="44" customWidth="1"/>
+    <col min="15624" max="15625" width="7.77734375" style="44" customWidth="1"/>
+    <col min="15626" max="15627" width="7.6640625" style="44" customWidth="1"/>
+    <col min="15628" max="15628" width="5.6640625" style="44" customWidth="1"/>
+    <col min="15629" max="15629" width="9.6640625" style="44" customWidth="1"/>
+    <col min="15630" max="15633" width="5.109375" style="44" customWidth="1"/>
+    <col min="15634" max="15634" width="2.6640625" style="44" customWidth="1"/>
     <col min="15635" max="15872" width="9" style="44"/>
-    <col min="15873" max="15873" width="3.5" style="44" customWidth="1"/>
-    <col min="15874" max="15874" width="5.625" style="44" customWidth="1"/>
+    <col min="15873" max="15873" width="3.44140625" style="44" customWidth="1"/>
+    <col min="15874" max="15874" width="5.6640625" style="44" customWidth="1"/>
     <col min="15875" max="15876" width="6" style="44" customWidth="1"/>
-    <col min="15877" max="15878" width="8.5" style="44" customWidth="1"/>
-    <col min="15879" max="15879" width="7.375" style="44" customWidth="1"/>
-    <col min="15880" max="15881" width="7.75" style="44" customWidth="1"/>
-    <col min="15882" max="15883" width="7.625" style="44" customWidth="1"/>
-    <col min="15884" max="15884" width="5.625" style="44" customWidth="1"/>
-    <col min="15885" max="15885" width="9.625" style="44" customWidth="1"/>
-    <col min="15886" max="15889" width="5.125" style="44" customWidth="1"/>
-    <col min="15890" max="15890" width="2.625" style="44" customWidth="1"/>
+    <col min="15877" max="15878" width="8.44140625" style="44" customWidth="1"/>
+    <col min="15879" max="15879" width="7.33203125" style="44" customWidth="1"/>
+    <col min="15880" max="15881" width="7.77734375" style="44" customWidth="1"/>
+    <col min="15882" max="15883" width="7.6640625" style="44" customWidth="1"/>
+    <col min="15884" max="15884" width="5.6640625" style="44" customWidth="1"/>
+    <col min="15885" max="15885" width="9.6640625" style="44" customWidth="1"/>
+    <col min="15886" max="15889" width="5.109375" style="44" customWidth="1"/>
+    <col min="15890" max="15890" width="2.6640625" style="44" customWidth="1"/>
     <col min="15891" max="16128" width="9" style="44"/>
-    <col min="16129" max="16129" width="3.5" style="44" customWidth="1"/>
-    <col min="16130" max="16130" width="5.625" style="44" customWidth="1"/>
+    <col min="16129" max="16129" width="3.44140625" style="44" customWidth="1"/>
+    <col min="16130" max="16130" width="5.6640625" style="44" customWidth="1"/>
     <col min="16131" max="16132" width="6" style="44" customWidth="1"/>
-    <col min="16133" max="16134" width="8.5" style="44" customWidth="1"/>
-    <col min="16135" max="16135" width="7.375" style="44" customWidth="1"/>
-    <col min="16136" max="16137" width="7.75" style="44" customWidth="1"/>
-    <col min="16138" max="16139" width="7.625" style="44" customWidth="1"/>
-    <col min="16140" max="16140" width="5.625" style="44" customWidth="1"/>
-    <col min="16141" max="16141" width="9.625" style="44" customWidth="1"/>
-    <col min="16142" max="16145" width="5.125" style="44" customWidth="1"/>
-    <col min="16146" max="16146" width="2.625" style="44" customWidth="1"/>
+    <col min="16133" max="16134" width="8.44140625" style="44" customWidth="1"/>
+    <col min="16135" max="16135" width="7.33203125" style="44" customWidth="1"/>
+    <col min="16136" max="16137" width="7.77734375" style="44" customWidth="1"/>
+    <col min="16138" max="16139" width="7.6640625" style="44" customWidth="1"/>
+    <col min="16140" max="16140" width="5.6640625" style="44" customWidth="1"/>
+    <col min="16141" max="16141" width="9.6640625" style="44" customWidth="1"/>
+    <col min="16142" max="16145" width="5.109375" style="44" customWidth="1"/>
+    <col min="16146" max="16146" width="2.6640625" style="44" customWidth="1"/>
     <col min="16147" max="16384" width="9" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1">
-      <c r="N1" s="167" t="s">
-        <v>126</v>
-      </c>
-      <c r="O1" s="167"/>
-      <c r="P1" s="202" t="str">
+      <c r="N1" s="165" t="s">
+        <v>122</v>
+      </c>
+      <c r="O1" s="165"/>
+      <c r="P1" s="200" t="str">
         <f>お見積書!R2</f>
         <v>${qu.contractnumber}</v>
       </c>
-      <c r="Q1" s="202"/>
-      <c r="R1" s="202"/>
+      <c r="Q1" s="200"/>
+      <c r="R1" s="200"/>
     </row>
     <row r="2" spans="1:18" ht="18" customHeight="1">
-      <c r="O2" s="200">
+      <c r="O2" s="198">
         <f ca="1">お見積書!R3</f>
-        <v>43894</v>
-      </c>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="201"/>
+        <v>43895</v>
+      </c>
+      <c r="P2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="199"/>
     </row>
     <row r="3" spans="1:18" ht="18" customHeight="1">
-      <c r="A3" s="204" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="205"/>
-      <c r="C3" s="205"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="205"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="205"/>
-      <c r="I3" s="205"/>
-      <c r="J3" s="205"/>
-      <c r="K3" s="205"/>
-      <c r="L3" s="205"/>
-      <c r="M3" s="205"/>
-      <c r="N3" s="205"/>
-      <c r="O3" s="205"/>
-      <c r="P3" s="205"/>
-      <c r="Q3" s="205"/>
-      <c r="R3" s="205"/>
+      <c r="A3" s="202" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="203"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="203"/>
+      <c r="F3" s="203"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="203"/>
+      <c r="I3" s="203"/>
+      <c r="J3" s="203"/>
+      <c r="K3" s="203"/>
+      <c r="L3" s="203"/>
+      <c r="M3" s="203"/>
+      <c r="N3" s="203"/>
+      <c r="O3" s="203"/>
+      <c r="P3" s="203"/>
+      <c r="Q3" s="203"/>
+      <c r="R3" s="203"/>
     </row>
     <row r="4" spans="1:18" ht="18" customHeight="1">
-      <c r="A4" s="202" t="str">
+      <c r="A4" s="200" t="str">
         <f>お見積書!C5</f>
         <v>ご照会の件につき下記の通りお見積り申し上げます。</v>
       </c>
-      <c r="B4" s="202"/>
-      <c r="C4" s="202"/>
-      <c r="D4" s="202"/>
-      <c r="E4" s="202"/>
-      <c r="F4" s="202"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="202"/>
-      <c r="J4" s="202"/>
-      <c r="K4" s="202"/>
-      <c r="L4" s="202"/>
-      <c r="M4" s="202"/>
-      <c r="N4" s="202"/>
-      <c r="O4" s="202"/>
-      <c r="P4" s="202"/>
-      <c r="Q4" s="202"/>
-      <c r="R4" s="202"/>
+      <c r="B4" s="200"/>
+      <c r="C4" s="200"/>
+      <c r="D4" s="200"/>
+      <c r="E4" s="200"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="200"/>
+      <c r="H4" s="200"/>
+      <c r="I4" s="200"/>
+      <c r="J4" s="200"/>
+      <c r="K4" s="200"/>
+      <c r="L4" s="200"/>
+      <c r="M4" s="200"/>
+      <c r="N4" s="200"/>
+      <c r="O4" s="200"/>
+      <c r="P4" s="200"/>
+      <c r="Q4" s="200"/>
+      <c r="R4" s="200"/>
     </row>
     <row r="5" spans="1:18" ht="18" customHeight="1"/>
     <row r="6" spans="1:18" ht="18" customHeight="1">
-      <c r="I6" s="168" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" s="168"/>
-      <c r="K6" s="168"/>
-      <c r="L6" s="168"/>
-      <c r="M6" s="168"/>
-      <c r="N6" s="168"/>
-      <c r="O6" s="168"/>
-      <c r="P6" s="168"/>
-      <c r="Q6" s="168"/>
+      <c r="I6" s="166" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="166"/>
+      <c r="K6" s="166"/>
+      <c r="L6" s="166"/>
+      <c r="M6" s="166"/>
+      <c r="N6" s="166"/>
+      <c r="O6" s="166"/>
+      <c r="P6" s="166"/>
+      <c r="Q6" s="166"/>
     </row>
     <row r="7" spans="1:18" ht="18" customHeight="1">
-      <c r="I7" s="168"/>
-      <c r="J7" s="168"/>
-      <c r="K7" s="168"/>
-      <c r="L7" s="168"/>
-      <c r="M7" s="168"/>
-      <c r="N7" s="168"/>
-      <c r="O7" s="168"/>
-      <c r="P7" s="168"/>
-      <c r="Q7" s="168"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="166"/>
+      <c r="K7" s="166"/>
+      <c r="L7" s="166"/>
+      <c r="M7" s="166"/>
+      <c r="N7" s="166"/>
+      <c r="O7" s="166"/>
+      <c r="P7" s="166"/>
+      <c r="Q7" s="166"/>
     </row>
     <row r="8" spans="1:18" ht="18" customHeight="1">
-      <c r="I8" s="168"/>
-      <c r="J8" s="168"/>
-      <c r="K8" s="168"/>
-      <c r="L8" s="168"/>
-      <c r="M8" s="168"/>
-      <c r="N8" s="168"/>
-      <c r="O8" s="168"/>
-      <c r="P8" s="168"/>
-      <c r="Q8" s="168"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="166"/>
+      <c r="K8" s="166"/>
+      <c r="L8" s="166"/>
+      <c r="M8" s="166"/>
+      <c r="N8" s="166"/>
+      <c r="O8" s="166"/>
+      <c r="P8" s="166"/>
+      <c r="Q8" s="166"/>
     </row>
     <row r="9" spans="1:18" ht="18" customHeight="1">
       <c r="A9" s="63" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="18" customHeight="1">
-      <c r="B10" s="195" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="196"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="197"/>
-      <c r="F10" s="178" t="str">
+      <c r="B10" s="193" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="194"/>
+      <c r="D10" s="194"/>
+      <c r="E10" s="195"/>
+      <c r="F10" s="176" t="str">
         <f>お見積書!C9</f>
         <v>${qu.pjjapanese}</v>
       </c>
-      <c r="G10" s="141"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="141"/>
-      <c r="J10" s="141"/>
-      <c r="K10" s="141"/>
-      <c r="L10" s="141"/>
-      <c r="M10" s="141"/>
-      <c r="N10" s="141"/>
-      <c r="O10" s="141"/>
-      <c r="P10" s="141"/>
-      <c r="Q10" s="141"/>
-      <c r="R10" s="142"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="139"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="139"/>
+      <c r="K10" s="139"/>
+      <c r="L10" s="139"/>
+      <c r="M10" s="139"/>
+      <c r="N10" s="139"/>
+      <c r="O10" s="139"/>
+      <c r="P10" s="139"/>
+      <c r="Q10" s="139"/>
+      <c r="R10" s="140"/>
     </row>
     <row r="11" spans="1:18" ht="18" customHeight="1">
-      <c r="B11" s="195" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="196"/>
-      <c r="D11" s="196"/>
-      <c r="E11" s="197"/>
+      <c r="B11" s="193" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="194"/>
+      <c r="D11" s="194"/>
+      <c r="E11" s="195"/>
       <c r="F11" s="64" t="str">
         <f>お見積書!F13</f>
         <v>□請負</v>
@@ -6169,382 +6199,382 @@
       <c r="R11" s="65"/>
     </row>
     <row r="12" spans="1:18" ht="18" customHeight="1">
-      <c r="B12" s="195" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="196"/>
-      <c r="D12" s="196"/>
-      <c r="E12" s="197"/>
-      <c r="F12" s="198" t="str">
+      <c r="B12" s="193" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="194"/>
+      <c r="D12" s="194"/>
+      <c r="E12" s="195"/>
+      <c r="F12" s="196" t="str">
         <f>お見積書!F15</f>
         <v>${qu.startdate}</v>
       </c>
-      <c r="G12" s="193"/>
-      <c r="H12" s="193"/>
-      <c r="I12" s="193"/>
+      <c r="G12" s="191"/>
+      <c r="H12" s="191"/>
+      <c r="I12" s="191"/>
       <c r="J12" s="66"/>
       <c r="K12" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" s="192" t="str">
+        <v>79</v>
+      </c>
+      <c r="L12" s="190" t="str">
         <f>お見積書!F16</f>
         <v>${qu.enddate}</v>
       </c>
-      <c r="M12" s="193"/>
-      <c r="N12" s="193"/>
-      <c r="O12" s="193"/>
-      <c r="P12" s="193"/>
-      <c r="Q12" s="193"/>
-      <c r="R12" s="194"/>
+      <c r="M12" s="191"/>
+      <c r="N12" s="191"/>
+      <c r="O12" s="191"/>
+      <c r="P12" s="191"/>
+      <c r="Q12" s="191"/>
+      <c r="R12" s="192"/>
     </row>
     <row r="13" spans="1:18" ht="18" customHeight="1">
-      <c r="B13" s="195" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="196"/>
-      <c r="D13" s="196"/>
-      <c r="E13" s="197"/>
-      <c r="F13" s="198" t="str">
+      <c r="B13" s="193" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="194"/>
+      <c r="D13" s="194"/>
+      <c r="E13" s="195"/>
+      <c r="F13" s="196" t="str">
         <f>お見積書!F16</f>
         <v>${qu.enddate}</v>
       </c>
-      <c r="G13" s="193"/>
-      <c r="H13" s="193"/>
-      <c r="I13" s="193"/>
-      <c r="J13" s="193"/>
-      <c r="K13" s="193"/>
-      <c r="L13" s="193"/>
-      <c r="M13" s="193"/>
-      <c r="N13" s="193"/>
-      <c r="O13" s="193"/>
-      <c r="P13" s="193"/>
-      <c r="Q13" s="193"/>
-      <c r="R13" s="194"/>
+      <c r="G13" s="191"/>
+      <c r="H13" s="191"/>
+      <c r="I13" s="191"/>
+      <c r="J13" s="191"/>
+      <c r="K13" s="191"/>
+      <c r="L13" s="191"/>
+      <c r="M13" s="191"/>
+      <c r="N13" s="191"/>
+      <c r="O13" s="191"/>
+      <c r="P13" s="191"/>
+      <c r="Q13" s="191"/>
+      <c r="R13" s="192"/>
     </row>
     <row r="14" spans="1:18" ht="18" customHeight="1"/>
     <row r="15" spans="1:18" ht="18" customHeight="1">
       <c r="A15" s="63" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="18" customHeight="1">
-      <c r="B16" s="195" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="196"/>
-      <c r="D16" s="196"/>
-      <c r="E16" s="197"/>
-      <c r="F16" s="178" t="str">
+      <c r="B16" s="193" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="194"/>
+      <c r="D16" s="194"/>
+      <c r="E16" s="195"/>
+      <c r="F16" s="176" t="str">
         <f>記入!B24</f>
         <v>${qu.loadingjudge}</v>
       </c>
-      <c r="G16" s="141"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="141"/>
-      <c r="J16" s="141"/>
-      <c r="K16" s="141"/>
-      <c r="L16" s="141"/>
-      <c r="M16" s="141"/>
-      <c r="N16" s="141"/>
-      <c r="O16" s="141"/>
-      <c r="P16" s="141"/>
-      <c r="Q16" s="141"/>
-      <c r="R16" s="142"/>
+      <c r="G16" s="139"/>
+      <c r="H16" s="139"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="139"/>
+      <c r="K16" s="139"/>
+      <c r="L16" s="139"/>
+      <c r="M16" s="139"/>
+      <c r="N16" s="139"/>
+      <c r="O16" s="139"/>
+      <c r="P16" s="139"/>
+      <c r="Q16" s="139"/>
+      <c r="R16" s="140"/>
     </row>
     <row r="17" spans="1:19" ht="18" customHeight="1">
-      <c r="B17" s="195" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="196"/>
-      <c r="D17" s="196"/>
-      <c r="E17" s="197"/>
-      <c r="F17" s="178" t="str">
+      <c r="B17" s="193" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="194"/>
+      <c r="D17" s="194"/>
+      <c r="E17" s="195"/>
+      <c r="F17" s="176" t="str">
         <f>記入!B9</f>
         <v>${qu.deployment}</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="141"/>
-      <c r="I17" s="141"/>
-      <c r="J17" s="141"/>
-      <c r="K17" s="141"/>
-      <c r="L17" s="141"/>
-      <c r="M17" s="141"/>
-      <c r="N17" s="142"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="139"/>
+      <c r="J17" s="139"/>
+      <c r="K17" s="139"/>
+      <c r="L17" s="139"/>
+      <c r="M17" s="139"/>
+      <c r="N17" s="140"/>
       <c r="O17" s="68" t="s">
-        <v>87</v>
-      </c>
-      <c r="P17" s="141" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q17" s="141"/>
-      <c r="R17" s="142"/>
+        <v>83</v>
+      </c>
+      <c r="P17" s="139" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q17" s="139"/>
+      <c r="R17" s="140"/>
     </row>
     <row r="18" spans="1:19" ht="18" customHeight="1"/>
     <row r="19" spans="1:19" ht="18" customHeight="1">
-      <c r="B19" s="199" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="147"/>
-      <c r="D19" s="147"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="147"/>
-      <c r="I19" s="147"/>
-      <c r="J19" s="147"/>
-      <c r="K19" s="147"/>
-      <c r="L19" s="147"/>
-      <c r="M19" s="147"/>
-      <c r="N19" s="147"/>
-      <c r="O19" s="147"/>
-      <c r="P19" s="147"/>
-      <c r="Q19" s="147"/>
-      <c r="R19" s="148"/>
+      <c r="B19" s="197" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="145"/>
+      <c r="D19" s="145"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="145"/>
+      <c r="J19" s="145"/>
+      <c r="K19" s="145"/>
+      <c r="L19" s="145"/>
+      <c r="M19" s="145"/>
+      <c r="N19" s="145"/>
+      <c r="O19" s="145"/>
+      <c r="P19" s="145"/>
+      <c r="Q19" s="145"/>
+      <c r="R19" s="146"/>
     </row>
     <row r="20" spans="1:19" ht="18" customHeight="1">
-      <c r="B20" s="134"/>
-      <c r="C20" s="135"/>
-      <c r="D20" s="135"/>
-      <c r="E20" s="135"/>
-      <c r="F20" s="135"/>
-      <c r="G20" s="135"/>
-      <c r="H20" s="135"/>
-      <c r="I20" s="135"/>
-      <c r="J20" s="135"/>
-      <c r="K20" s="135"/>
-      <c r="L20" s="135"/>
-      <c r="M20" s="135"/>
-      <c r="N20" s="135"/>
-      <c r="O20" s="135"/>
-      <c r="P20" s="135"/>
-      <c r="Q20" s="135"/>
-      <c r="R20" s="136"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="133"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="133"/>
+      <c r="J20" s="133"/>
+      <c r="K20" s="133"/>
+      <c r="L20" s="133"/>
+      <c r="M20" s="133"/>
+      <c r="N20" s="133"/>
+      <c r="O20" s="133"/>
+      <c r="P20" s="133"/>
+      <c r="Q20" s="133"/>
+      <c r="R20" s="134"/>
     </row>
     <row r="21" spans="1:19" ht="18" customHeight="1">
-      <c r="B21" s="123"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="124"/>
-      <c r="H21" s="124"/>
-      <c r="I21" s="124"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="124"/>
-      <c r="L21" s="124"/>
-      <c r="M21" s="124"/>
-      <c r="N21" s="124"/>
-      <c r="O21" s="124"/>
-      <c r="P21" s="124"/>
-      <c r="Q21" s="124"/>
-      <c r="R21" s="125"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="122"/>
+      <c r="K21" s="122"/>
+      <c r="L21" s="122"/>
+      <c r="M21" s="122"/>
+      <c r="N21" s="122"/>
+      <c r="O21" s="122"/>
+      <c r="P21" s="122"/>
+      <c r="Q21" s="122"/>
+      <c r="R21" s="123"/>
     </row>
     <row r="22" spans="1:19" ht="18" customHeight="1"/>
     <row r="23" spans="1:19" ht="18" customHeight="1">
       <c r="A23" s="63" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="18" customHeight="1">
       <c r="A24" s="63"/>
       <c r="B24" s="44" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="18" customHeight="1">
       <c r="C25" s="44" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="18" customHeight="1">
       <c r="B26" s="44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="18" customHeight="1">
+      <c r="B27" s="176" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="139"/>
+      <c r="D27" s="139"/>
+      <c r="E27" s="139"/>
+      <c r="F27" s="139"/>
+      <c r="G27" s="139"/>
+      <c r="H27" s="139"/>
+      <c r="I27" s="140"/>
+      <c r="J27" s="176" t="s">
+        <v>91</v>
+      </c>
+      <c r="K27" s="139"/>
+      <c r="L27" s="139"/>
+      <c r="M27" s="139"/>
+      <c r="N27" s="139"/>
+      <c r="O27" s="139"/>
+      <c r="P27" s="139"/>
+      <c r="Q27" s="139"/>
+      <c r="R27" s="140"/>
+    </row>
+    <row r="28" spans="1:19" ht="18" customHeight="1">
+      <c r="B28" s="176" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="139"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="139"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="139"/>
+      <c r="I28" s="140"/>
+      <c r="J28" s="176" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" ht="18" customHeight="1">
-      <c r="B27" s="178" t="s">
+      <c r="K28" s="139"/>
+      <c r="L28" s="139"/>
+      <c r="M28" s="139"/>
+      <c r="N28" s="139"/>
+      <c r="O28" s="139"/>
+      <c r="P28" s="139"/>
+      <c r="Q28" s="139"/>
+      <c r="R28" s="140"/>
+      <c r="S28" s="69"/>
+    </row>
+    <row r="29" spans="1:19" ht="18" customHeight="1">
+      <c r="B29" s="176" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="141"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="141"/>
-      <c r="H27" s="141"/>
-      <c r="I27" s="142"/>
-      <c r="J27" s="178" t="s">
+      <c r="C29" s="139"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="139"/>
+      <c r="G29" s="139"/>
+      <c r="H29" s="139"/>
+      <c r="I29" s="140"/>
+      <c r="J29" s="176" t="s">
         <v>95</v>
       </c>
-      <c r="K27" s="141"/>
-      <c r="L27" s="141"/>
-      <c r="M27" s="141"/>
-      <c r="N27" s="141"/>
-      <c r="O27" s="141"/>
-      <c r="P27" s="141"/>
-      <c r="Q27" s="141"/>
-      <c r="R27" s="142"/>
-    </row>
-    <row r="28" spans="1:19" ht="18" customHeight="1">
-      <c r="B28" s="178" t="s">
+      <c r="K29" s="139"/>
+      <c r="L29" s="139"/>
+      <c r="M29" s="139"/>
+      <c r="N29" s="139"/>
+      <c r="O29" s="139"/>
+      <c r="P29" s="139"/>
+      <c r="Q29" s="139"/>
+      <c r="R29" s="140"/>
+    </row>
+    <row r="30" spans="1:19" ht="18" customHeight="1">
+      <c r="B30" s="176" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="141"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="141"/>
-      <c r="H28" s="141"/>
-      <c r="I28" s="142"/>
-      <c r="J28" s="178" t="s">
+      <c r="C30" s="139"/>
+      <c r="D30" s="139"/>
+      <c r="E30" s="139"/>
+      <c r="F30" s="139"/>
+      <c r="G30" s="139"/>
+      <c r="H30" s="139"/>
+      <c r="I30" s="140"/>
+      <c r="J30" s="176" t="s">
         <v>97</v>
       </c>
-      <c r="K28" s="141"/>
-      <c r="L28" s="141"/>
-      <c r="M28" s="141"/>
-      <c r="N28" s="141"/>
-      <c r="O28" s="141"/>
-      <c r="P28" s="141"/>
-      <c r="Q28" s="141"/>
-      <c r="R28" s="142"/>
-      <c r="S28" s="69"/>
-    </row>
-    <row r="29" spans="1:19" ht="18" customHeight="1">
-      <c r="B29" s="178" t="s">
+      <c r="K30" s="139"/>
+      <c r="L30" s="139"/>
+      <c r="M30" s="139"/>
+      <c r="N30" s="139"/>
+      <c r="O30" s="139"/>
+      <c r="P30" s="139"/>
+      <c r="Q30" s="139"/>
+      <c r="R30" s="140"/>
+    </row>
+    <row r="31" spans="1:19" ht="18" customHeight="1">
+      <c r="B31" s="176" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="141"/>
-      <c r="D29" s="141"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="141"/>
-      <c r="G29" s="141"/>
-      <c r="H29" s="141"/>
-      <c r="I29" s="142"/>
-      <c r="J29" s="178" t="s">
+      <c r="C31" s="139"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="139"/>
+      <c r="G31" s="139"/>
+      <c r="H31" s="139"/>
+      <c r="I31" s="140"/>
+      <c r="J31" s="176" t="s">
         <v>99</v>
       </c>
-      <c r="K29" s="141"/>
-      <c r="L29" s="141"/>
-      <c r="M29" s="141"/>
-      <c r="N29" s="141"/>
-      <c r="O29" s="141"/>
-      <c r="P29" s="141"/>
-      <c r="Q29" s="141"/>
-      <c r="R29" s="142"/>
-    </row>
-    <row r="30" spans="1:19" ht="18" customHeight="1">
-      <c r="B30" s="178" t="s">
+      <c r="K31" s="139"/>
+      <c r="L31" s="139"/>
+      <c r="M31" s="139"/>
+      <c r="N31" s="139"/>
+      <c r="O31" s="139"/>
+      <c r="P31" s="139"/>
+      <c r="Q31" s="139"/>
+      <c r="R31" s="140"/>
+    </row>
+    <row r="32" spans="1:19" ht="18" customHeight="1">
+      <c r="B32" s="176" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="141"/>
-      <c r="D30" s="141"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="141"/>
-      <c r="G30" s="141"/>
-      <c r="H30" s="141"/>
-      <c r="I30" s="142"/>
-      <c r="J30" s="178" t="s">
+      <c r="C32" s="139"/>
+      <c r="D32" s="139"/>
+      <c r="E32" s="139"/>
+      <c r="F32" s="139"/>
+      <c r="G32" s="139"/>
+      <c r="H32" s="139"/>
+      <c r="I32" s="140"/>
+      <c r="J32" s="176" t="s">
         <v>101</v>
       </c>
-      <c r="K30" s="141"/>
-      <c r="L30" s="141"/>
-      <c r="M30" s="141"/>
-      <c r="N30" s="141"/>
-      <c r="O30" s="141"/>
-      <c r="P30" s="141"/>
-      <c r="Q30" s="141"/>
-      <c r="R30" s="142"/>
-    </row>
-    <row r="31" spans="1:19" ht="18" customHeight="1">
-      <c r="B31" s="178" t="s">
+      <c r="K32" s="139"/>
+      <c r="L32" s="139"/>
+      <c r="M32" s="139"/>
+      <c r="N32" s="139"/>
+      <c r="O32" s="139"/>
+      <c r="P32" s="139"/>
+      <c r="Q32" s="139"/>
+      <c r="R32" s="140"/>
+    </row>
+    <row r="33" spans="1:20" ht="18" customHeight="1">
+      <c r="B33" s="176" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="141"/>
-      <c r="D31" s="141"/>
-      <c r="E31" s="141"/>
-      <c r="F31" s="141"/>
-      <c r="G31" s="141"/>
-      <c r="H31" s="141"/>
-      <c r="I31" s="142"/>
-      <c r="J31" s="178" t="s">
+      <c r="C33" s="139"/>
+      <c r="D33" s="139"/>
+      <c r="E33" s="139"/>
+      <c r="F33" s="139"/>
+      <c r="G33" s="139"/>
+      <c r="H33" s="139"/>
+      <c r="I33" s="140"/>
+      <c r="J33" s="176" t="s">
         <v>103</v>
       </c>
-      <c r="K31" s="141"/>
-      <c r="L31" s="141"/>
-      <c r="M31" s="141"/>
-      <c r="N31" s="141"/>
-      <c r="O31" s="141"/>
-      <c r="P31" s="141"/>
-      <c r="Q31" s="141"/>
-      <c r="R31" s="142"/>
-    </row>
-    <row r="32" spans="1:19" ht="18" customHeight="1">
-      <c r="B32" s="178" t="s">
+      <c r="K33" s="139"/>
+      <c r="L33" s="139"/>
+      <c r="M33" s="139"/>
+      <c r="N33" s="139"/>
+      <c r="O33" s="139"/>
+      <c r="P33" s="139"/>
+      <c r="Q33" s="139"/>
+      <c r="R33" s="140"/>
+    </row>
+    <row r="34" spans="1:20" ht="18" customHeight="1">
+      <c r="B34" s="176" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="141"/>
-      <c r="D32" s="141"/>
-      <c r="E32" s="141"/>
-      <c r="F32" s="141"/>
-      <c r="G32" s="141"/>
-      <c r="H32" s="141"/>
-      <c r="I32" s="142"/>
-      <c r="J32" s="178" t="s">
+      <c r="C34" s="139"/>
+      <c r="D34" s="139"/>
+      <c r="E34" s="139"/>
+      <c r="F34" s="139"/>
+      <c r="G34" s="139"/>
+      <c r="H34" s="139"/>
+      <c r="I34" s="140"/>
+      <c r="J34" s="176" t="s">
         <v>105</v>
       </c>
-      <c r="K32" s="141"/>
-      <c r="L32" s="141"/>
-      <c r="M32" s="141"/>
-      <c r="N32" s="141"/>
-      <c r="O32" s="141"/>
-      <c r="P32" s="141"/>
-      <c r="Q32" s="141"/>
-      <c r="R32" s="142"/>
-    </row>
-    <row r="33" spans="1:20" ht="18" customHeight="1">
-      <c r="B33" s="178" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="141"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="141"/>
-      <c r="H33" s="141"/>
-      <c r="I33" s="142"/>
-      <c r="J33" s="178" t="s">
-        <v>107</v>
-      </c>
-      <c r="K33" s="141"/>
-      <c r="L33" s="141"/>
-      <c r="M33" s="141"/>
-      <c r="N33" s="141"/>
-      <c r="O33" s="141"/>
-      <c r="P33" s="141"/>
-      <c r="Q33" s="141"/>
-      <c r="R33" s="142"/>
-    </row>
-    <row r="34" spans="1:20" ht="18" customHeight="1">
-      <c r="B34" s="178" t="s">
-        <v>108</v>
-      </c>
-      <c r="C34" s="141"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="141"/>
-      <c r="G34" s="141"/>
-      <c r="H34" s="141"/>
-      <c r="I34" s="142"/>
-      <c r="J34" s="178" t="s">
-        <v>109</v>
-      </c>
-      <c r="K34" s="141"/>
-      <c r="L34" s="141"/>
-      <c r="M34" s="141"/>
-      <c r="N34" s="141"/>
-      <c r="O34" s="141"/>
-      <c r="P34" s="141"/>
-      <c r="Q34" s="141"/>
-      <c r="R34" s="142"/>
+      <c r="K34" s="139"/>
+      <c r="L34" s="139"/>
+      <c r="M34" s="139"/>
+      <c r="N34" s="139"/>
+      <c r="O34" s="139"/>
+      <c r="P34" s="139"/>
+      <c r="Q34" s="139"/>
+      <c r="R34" s="140"/>
     </row>
     <row r="35" spans="1:20" ht="18" customHeight="1">
       <c r="B35" s="70"/>
@@ -6567,7 +6597,7 @@
     </row>
     <row r="36" spans="1:20" ht="18" customHeight="1">
       <c r="B36" s="71" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C36" s="71"/>
       <c r="D36" s="71"/>
@@ -6588,7 +6618,7 @@
     </row>
     <row r="37" spans="1:20" ht="18" customHeight="1">
       <c r="B37" s="72" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C37" s="73"/>
       <c r="D37" s="73"/>
@@ -6608,387 +6638,387 @@
       <c r="R37" s="74"/>
     </row>
     <row r="38" spans="1:20" ht="18" customHeight="1">
-      <c r="B38" s="189" t="s">
-        <v>127</v>
-      </c>
-      <c r="C38" s="190"/>
-      <c r="D38" s="190"/>
-      <c r="E38" s="190"/>
-      <c r="F38" s="190"/>
-      <c r="G38" s="190"/>
-      <c r="H38" s="203" t="str">
-        <f>記入!D36</f>
+      <c r="B38" s="187" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="188"/>
+      <c r="D38" s="188"/>
+      <c r="E38" s="188"/>
+      <c r="F38" s="188"/>
+      <c r="G38" s="188"/>
+      <c r="H38" s="201" t="str">
+        <f>記入!D33</f>
         <v>${qu.requestnumber}</v>
       </c>
-      <c r="I38" s="203"/>
-      <c r="J38" s="190"/>
-      <c r="K38" s="190"/>
-      <c r="L38" s="190"/>
-      <c r="M38" s="190"/>
-      <c r="N38" s="190"/>
-      <c r="O38" s="190"/>
-      <c r="P38" s="190"/>
-      <c r="Q38" s="190"/>
+      <c r="I38" s="201"/>
+      <c r="J38" s="188"/>
+      <c r="K38" s="188"/>
+      <c r="L38" s="188"/>
+      <c r="M38" s="188"/>
+      <c r="N38" s="188"/>
+      <c r="O38" s="188"/>
+      <c r="P38" s="188"/>
+      <c r="Q38" s="188"/>
       <c r="R38" s="75"/>
       <c r="S38" s="76"/>
       <c r="T38" s="76"/>
     </row>
     <row r="39" spans="1:20" ht="18" customHeight="1">
-      <c r="B39" s="189" t="s">
-        <v>137</v>
-      </c>
-      <c r="C39" s="190"/>
-      <c r="D39" s="190"/>
-      <c r="E39" s="190"/>
-      <c r="F39" s="190"/>
-      <c r="G39" s="190"/>
-      <c r="H39" s="190"/>
-      <c r="I39" s="190"/>
-      <c r="J39" s="190"/>
-      <c r="K39" s="190"/>
-      <c r="L39" s="190"/>
-      <c r="M39" s="190"/>
-      <c r="N39" s="190"/>
-      <c r="O39" s="190"/>
-      <c r="P39" s="190"/>
-      <c r="Q39" s="190"/>
-      <c r="R39" s="191"/>
+      <c r="B39" s="187" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="188"/>
+      <c r="D39" s="188"/>
+      <c r="E39" s="188"/>
+      <c r="F39" s="188"/>
+      <c r="G39" s="188"/>
+      <c r="H39" s="188"/>
+      <c r="I39" s="188"/>
+      <c r="J39" s="188"/>
+      <c r="K39" s="188"/>
+      <c r="L39" s="188"/>
+      <c r="M39" s="188"/>
+      <c r="N39" s="188"/>
+      <c r="O39" s="188"/>
+      <c r="P39" s="188"/>
+      <c r="Q39" s="188"/>
+      <c r="R39" s="189"/>
       <c r="S39" s="76"/>
       <c r="T39" s="76"/>
     </row>
     <row r="40" spans="1:20" ht="18" customHeight="1">
-      <c r="B40" s="186" t="s">
-        <v>135</v>
-      </c>
-      <c r="C40" s="187"/>
-      <c r="D40" s="187"/>
-      <c r="E40" s="187"/>
-      <c r="F40" s="187"/>
-      <c r="G40" s="187"/>
-      <c r="H40" s="187"/>
-      <c r="I40" s="187"/>
-      <c r="J40" s="187"/>
-      <c r="K40" s="187"/>
-      <c r="L40" s="187"/>
-      <c r="M40" s="187"/>
-      <c r="N40" s="187"/>
-      <c r="O40" s="187"/>
-      <c r="P40" s="187"/>
-      <c r="Q40" s="187"/>
-      <c r="R40" s="188"/>
+      <c r="B40" s="184" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" s="185"/>
+      <c r="D40" s="185"/>
+      <c r="E40" s="185"/>
+      <c r="F40" s="185"/>
+      <c r="G40" s="185"/>
+      <c r="H40" s="185"/>
+      <c r="I40" s="185"/>
+      <c r="J40" s="185"/>
+      <c r="K40" s="185"/>
+      <c r="L40" s="185"/>
+      <c r="M40" s="185"/>
+      <c r="N40" s="185"/>
+      <c r="O40" s="185"/>
+      <c r="P40" s="185"/>
+      <c r="Q40" s="185"/>
+      <c r="R40" s="186"/>
       <c r="S40" s="77"/>
       <c r="T40" s="77"/>
     </row>
     <row r="41" spans="1:20" ht="18" customHeight="1">
-      <c r="B41" s="186" t="s">
-        <v>136</v>
-      </c>
-      <c r="C41" s="187"/>
-      <c r="D41" s="187"/>
-      <c r="E41" s="187"/>
-      <c r="F41" s="187"/>
-      <c r="G41" s="187"/>
-      <c r="H41" s="187"/>
-      <c r="I41" s="187"/>
-      <c r="J41" s="187"/>
-      <c r="K41" s="187"/>
-      <c r="L41" s="187"/>
-      <c r="M41" s="187"/>
-      <c r="N41" s="187"/>
-      <c r="O41" s="187"/>
-      <c r="P41" s="187"/>
-      <c r="Q41" s="187"/>
-      <c r="R41" s="188"/>
+      <c r="B41" s="184" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="185"/>
+      <c r="D41" s="185"/>
+      <c r="E41" s="185"/>
+      <c r="F41" s="185"/>
+      <c r="G41" s="185"/>
+      <c r="H41" s="185"/>
+      <c r="I41" s="185"/>
+      <c r="J41" s="185"/>
+      <c r="K41" s="185"/>
+      <c r="L41" s="185"/>
+      <c r="M41" s="185"/>
+      <c r="N41" s="185"/>
+      <c r="O41" s="185"/>
+      <c r="P41" s="185"/>
+      <c r="Q41" s="185"/>
+      <c r="R41" s="186"/>
       <c r="S41" s="77"/>
       <c r="T41" s="77"/>
     </row>
     <row r="42" spans="1:20" ht="18" customHeight="1">
-      <c r="B42" s="123"/>
-      <c r="C42" s="124"/>
-      <c r="D42" s="124"/>
-      <c r="E42" s="124"/>
-      <c r="F42" s="124"/>
-      <c r="G42" s="124"/>
-      <c r="H42" s="124"/>
-      <c r="I42" s="124"/>
-      <c r="J42" s="124"/>
-      <c r="K42" s="124"/>
-      <c r="L42" s="124"/>
-      <c r="M42" s="124"/>
-      <c r="N42" s="124"/>
-      <c r="O42" s="124"/>
-      <c r="P42" s="124"/>
-      <c r="Q42" s="124"/>
-      <c r="R42" s="125"/>
+      <c r="B42" s="121"/>
+      <c r="C42" s="122"/>
+      <c r="D42" s="122"/>
+      <c r="E42" s="122"/>
+      <c r="F42" s="122"/>
+      <c r="G42" s="122"/>
+      <c r="H42" s="122"/>
+      <c r="I42" s="122"/>
+      <c r="J42" s="122"/>
+      <c r="K42" s="122"/>
+      <c r="L42" s="122"/>
+      <c r="M42" s="122"/>
+      <c r="N42" s="122"/>
+      <c r="O42" s="122"/>
+      <c r="P42" s="122"/>
+      <c r="Q42" s="122"/>
+      <c r="R42" s="123"/>
     </row>
     <row r="43" spans="1:20" ht="18" customHeight="1"/>
     <row r="44" spans="1:20" ht="18" customHeight="1">
       <c r="A44" s="63" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="18" customHeight="1">
       <c r="B45" s="44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="18" customHeight="1">
+      <c r="B46" s="175" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="175"/>
+      <c r="D46" s="175"/>
+      <c r="E46" s="175"/>
+      <c r="F46" s="175"/>
+      <c r="G46" s="175"/>
+      <c r="H46" s="175"/>
+      <c r="I46" s="175" t="s">
+        <v>111</v>
+      </c>
+      <c r="J46" s="175"/>
+      <c r="K46" s="175"/>
+      <c r="L46" s="175"/>
+      <c r="M46" s="175"/>
+      <c r="N46" s="175"/>
+      <c r="O46" s="175"/>
+      <c r="P46" s="175"/>
+      <c r="Q46" s="175"/>
+      <c r="R46" s="175"/>
+    </row>
+    <row r="47" spans="1:20" ht="18" customHeight="1">
+      <c r="B47" s="176" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="139"/>
+      <c r="D47" s="139"/>
+      <c r="E47" s="139"/>
+      <c r="F47" s="139"/>
+      <c r="G47" s="139"/>
+      <c r="H47" s="140"/>
+      <c r="I47" s="176" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" ht="18" customHeight="1">
-      <c r="B46" s="177" t="s">
-        <v>114</v>
-      </c>
-      <c r="C46" s="177"/>
-      <c r="D46" s="177"/>
-      <c r="E46" s="177"/>
-      <c r="F46" s="177"/>
-      <c r="G46" s="177"/>
-      <c r="H46" s="177"/>
-      <c r="I46" s="177" t="s">
-        <v>115</v>
-      </c>
-      <c r="J46" s="177"/>
-      <c r="K46" s="177"/>
-      <c r="L46" s="177"/>
-      <c r="M46" s="177"/>
-      <c r="N46" s="177"/>
-      <c r="O46" s="177"/>
-      <c r="P46" s="177"/>
-      <c r="Q46" s="177"/>
-      <c r="R46" s="177"/>
-    </row>
-    <row r="47" spans="1:20" ht="18" customHeight="1">
-      <c r="B47" s="178" t="s">
-        <v>116</v>
-      </c>
-      <c r="C47" s="141"/>
-      <c r="D47" s="141"/>
-      <c r="E47" s="141"/>
-      <c r="F47" s="141"/>
-      <c r="G47" s="141"/>
-      <c r="H47" s="142"/>
-      <c r="I47" s="178" t="s">
-        <v>117</v>
-      </c>
-      <c r="J47" s="141"/>
-      <c r="K47" s="141"/>
-      <c r="L47" s="141"/>
-      <c r="M47" s="141"/>
-      <c r="N47" s="141"/>
-      <c r="O47" s="141"/>
-      <c r="P47" s="141"/>
-      <c r="Q47" s="141"/>
-      <c r="R47" s="142"/>
+      <c r="J47" s="139"/>
+      <c r="K47" s="139"/>
+      <c r="L47" s="139"/>
+      <c r="M47" s="139"/>
+      <c r="N47" s="139"/>
+      <c r="O47" s="139"/>
+      <c r="P47" s="139"/>
+      <c r="Q47" s="139"/>
+      <c r="R47" s="140"/>
     </row>
     <row r="48" spans="1:20" ht="18" customHeight="1">
-      <c r="B48" s="178"/>
-      <c r="C48" s="141"/>
-      <c r="D48" s="141"/>
-      <c r="E48" s="141"/>
-      <c r="F48" s="141"/>
-      <c r="G48" s="141"/>
-      <c r="H48" s="142"/>
-      <c r="I48" s="178"/>
-      <c r="J48" s="141"/>
-      <c r="K48" s="141"/>
-      <c r="L48" s="141"/>
-      <c r="M48" s="141"/>
-      <c r="N48" s="141"/>
-      <c r="O48" s="141"/>
-      <c r="P48" s="141"/>
-      <c r="Q48" s="141"/>
-      <c r="R48" s="142"/>
+      <c r="B48" s="176"/>
+      <c r="C48" s="139"/>
+      <c r="D48" s="139"/>
+      <c r="E48" s="139"/>
+      <c r="F48" s="139"/>
+      <c r="G48" s="139"/>
+      <c r="H48" s="140"/>
+      <c r="I48" s="176"/>
+      <c r="J48" s="139"/>
+      <c r="K48" s="139"/>
+      <c r="L48" s="139"/>
+      <c r="M48" s="139"/>
+      <c r="N48" s="139"/>
+      <c r="O48" s="139"/>
+      <c r="P48" s="139"/>
+      <c r="Q48" s="139"/>
+      <c r="R48" s="140"/>
     </row>
     <row r="49" spans="1:18" ht="18" customHeight="1"/>
     <row r="50" spans="1:18" ht="18" customHeight="1">
       <c r="A50" s="63" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="18" customHeight="1"/>
     <row r="52" spans="1:18" ht="18.75" customHeight="1">
-      <c r="B52" s="185"/>
-      <c r="C52" s="185"/>
-      <c r="D52" s="174" t="s">
-        <v>119</v>
-      </c>
-      <c r="E52" s="174"/>
-      <c r="F52" s="174" t="s">
-        <v>120</v>
-      </c>
-      <c r="G52" s="174"/>
-      <c r="H52" s="174" t="s">
-        <v>121</v>
-      </c>
-      <c r="I52" s="174"/>
-      <c r="J52" s="174" t="s">
-        <v>122</v>
-      </c>
-      <c r="K52" s="174"/>
-      <c r="L52" s="174" t="str">
+      <c r="B52" s="183"/>
+      <c r="C52" s="183"/>
+      <c r="D52" s="172" t="s">
+        <v>115</v>
+      </c>
+      <c r="E52" s="172"/>
+      <c r="F52" s="172" t="s">
+        <v>116</v>
+      </c>
+      <c r="G52" s="172"/>
+      <c r="H52" s="172" t="s">
+        <v>117</v>
+      </c>
+      <c r="I52" s="172"/>
+      <c r="J52" s="172" t="s">
+        <v>118</v>
+      </c>
+      <c r="K52" s="172"/>
+      <c r="L52" s="172" t="str">
         <f>お見積書!M20</f>
         <v>金額(${qu.currencyposition})</v>
       </c>
-      <c r="M52" s="174"/>
-      <c r="N52" s="179" t="str">
+      <c r="M52" s="172"/>
+      <c r="N52" s="177" t="str">
         <f>"金額総計"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>金額総計(${qu.currencyposition})</v>
       </c>
-      <c r="O52" s="180"/>
-      <c r="P52" s="180"/>
-      <c r="Q52" s="180"/>
-      <c r="R52" s="181"/>
+      <c r="O52" s="178"/>
+      <c r="P52" s="178"/>
+      <c r="Q52" s="178"/>
+      <c r="R52" s="179"/>
     </row>
     <row r="53" spans="1:18" ht="28.5" customHeight="1">
-      <c r="B53" s="174" t="str">
+      <c r="B53" s="172" t="str">
         <f>IF(記入!A29="","",記入!A29)</f>
-        <v/>
-      </c>
-      <c r="C53" s="174"/>
-      <c r="D53" s="175" t="str">
+        <v>第一回</v>
+      </c>
+      <c r="C53" s="172"/>
+      <c r="D53" s="173" t="str">
         <f>IF(記入!B29="","",記入!B29)</f>
-        <v/>
-      </c>
-      <c r="E53" s="176"/>
-      <c r="F53" s="175" t="str">
+        <v>${r.deliverydate}</v>
+      </c>
+      <c r="E53" s="174"/>
+      <c r="F53" s="173" t="str">
         <f>IF(記入!C29="","",記入!C29)</f>
-        <v/>
-      </c>
-      <c r="G53" s="176"/>
-      <c r="H53" s="175" t="str">
+        <v>${r.completiondate}</v>
+      </c>
+      <c r="G53" s="174"/>
+      <c r="H53" s="173" t="str">
         <f>IF(記入!D29="","",記入!D29)</f>
-        <v/>
-      </c>
-      <c r="I53" s="176"/>
-      <c r="J53" s="175" t="str">
+        <v>${r.claimdate}</v>
+      </c>
+      <c r="I53" s="174"/>
+      <c r="J53" s="173" t="str">
         <f>IF(記入!E29="","",記入!E29)</f>
-        <v/>
-      </c>
-      <c r="K53" s="176"/>
-      <c r="L53" s="172" t="str">
+        <v>${r.supportdate}</v>
+      </c>
+      <c r="K53" s="174"/>
+      <c r="L53" s="170" t="str">
         <f>IF(記入!F29="","",記入!F29)</f>
-        <v/>
-      </c>
-      <c r="M53" s="173"/>
-      <c r="N53" s="182">
+        <v>${r.claimamount}</v>
+      </c>
+      <c r="M53" s="171"/>
+      <c r="N53" s="180" t="e">
         <f>SUM(L53:M56)</f>
-        <v>0</v>
-      </c>
-      <c r="O53" s="183"/>
-      <c r="P53" s="183"/>
-      <c r="Q53" s="183"/>
-      <c r="R53" s="184"/>
+        <v>#REF!</v>
+      </c>
+      <c r="O53" s="181"/>
+      <c r="P53" s="181"/>
+      <c r="Q53" s="181"/>
+      <c r="R53" s="182"/>
     </row>
     <row r="54" spans="1:18" ht="28.5" customHeight="1">
-      <c r="B54" s="174" t="str">
-        <f>IF(記入!A30="","",記入!A30)</f>
-        <v/>
-      </c>
-      <c r="C54" s="174"/>
-      <c r="D54" s="175" t="str">
-        <f>IF(記入!B30="","",記入!B30)</f>
-        <v/>
-      </c>
-      <c r="E54" s="176"/>
-      <c r="F54" s="175" t="str">
-        <f>IF(記入!C30="","",記入!C30)</f>
-        <v/>
-      </c>
-      <c r="G54" s="176"/>
-      <c r="H54" s="175" t="str">
-        <f>IF(記入!D30="","",記入!D30)</f>
-        <v/>
-      </c>
-      <c r="I54" s="176"/>
-      <c r="J54" s="175" t="str">
-        <f>IF(記入!E30="","",記入!E30)</f>
-        <v/>
-      </c>
-      <c r="K54" s="176"/>
-      <c r="L54" s="172"/>
-      <c r="M54" s="173"/>
-      <c r="N54" s="182"/>
-      <c r="O54" s="183"/>
-      <c r="P54" s="183"/>
-      <c r="Q54" s="183"/>
-      <c r="R54" s="184"/>
+      <c r="B54" s="172" t="e">
+        <f>IF(記入!#REF!="","",記入!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C54" s="172"/>
+      <c r="D54" s="173" t="e">
+        <f>IF(記入!#REF!="","",記入!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E54" s="174"/>
+      <c r="F54" s="173" t="e">
+        <f>IF(記入!#REF!="","",記入!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G54" s="174"/>
+      <c r="H54" s="173" t="e">
+        <f>IF(記入!#REF!="","",記入!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I54" s="174"/>
+      <c r="J54" s="173" t="e">
+        <f>IF(記入!#REF!="","",記入!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K54" s="174"/>
+      <c r="L54" s="170"/>
+      <c r="M54" s="171"/>
+      <c r="N54" s="180"/>
+      <c r="O54" s="181"/>
+      <c r="P54" s="181"/>
+      <c r="Q54" s="181"/>
+      <c r="R54" s="182"/>
     </row>
     <row r="55" spans="1:18" ht="28.5" customHeight="1">
-      <c r="B55" s="174" t="str">
-        <f>IF(記入!A31="","",記入!A31)</f>
-        <v/>
-      </c>
-      <c r="C55" s="174"/>
-      <c r="D55" s="175" t="str">
-        <f>IF(記入!B31="","",記入!B31)</f>
-        <v/>
-      </c>
-      <c r="E55" s="176"/>
-      <c r="F55" s="175" t="str">
-        <f>IF(記入!C31="","",記入!C31)</f>
-        <v/>
-      </c>
-      <c r="G55" s="176"/>
-      <c r="H55" s="175" t="str">
-        <f>IF(記入!D31="","",記入!D31)</f>
-        <v/>
-      </c>
-      <c r="I55" s="176"/>
-      <c r="J55" s="175" t="str">
-        <f>IF(記入!E31="","",記入!E31)</f>
-        <v/>
-      </c>
-      <c r="K55" s="176"/>
-      <c r="L55" s="172" t="str">
-        <f>IF(記入!F31="","",記入!F31)</f>
-        <v/>
-      </c>
-      <c r="M55" s="173"/>
-      <c r="N55" s="182"/>
-      <c r="O55" s="183"/>
-      <c r="P55" s="183"/>
-      <c r="Q55" s="183"/>
-      <c r="R55" s="184"/>
+      <c r="B55" s="172" t="e">
+        <f>IF(記入!#REF!="","",記入!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C55" s="172"/>
+      <c r="D55" s="173" t="e">
+        <f>IF(記入!#REF!="","",記入!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E55" s="174"/>
+      <c r="F55" s="173" t="e">
+        <f>IF(記入!#REF!="","",記入!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G55" s="174"/>
+      <c r="H55" s="173" t="e">
+        <f>IF(記入!#REF!="","",記入!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I55" s="174"/>
+      <c r="J55" s="173" t="e">
+        <f>IF(記入!#REF!="","",記入!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K55" s="174"/>
+      <c r="L55" s="170" t="e">
+        <f>IF(記入!#REF!="","",記入!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M55" s="171"/>
+      <c r="N55" s="180"/>
+      <c r="O55" s="181"/>
+      <c r="P55" s="181"/>
+      <c r="Q55" s="181"/>
+      <c r="R55" s="182"/>
     </row>
     <row r="56" spans="1:18" ht="31.5" customHeight="1">
-      <c r="B56" s="174" t="str">
-        <f>IF(記入!A32="","",記入!A32)</f>
-        <v/>
-      </c>
-      <c r="C56" s="174"/>
-      <c r="D56" s="175" t="str">
-        <f>IF(記入!B32="","",記入!B32)</f>
-        <v/>
-      </c>
-      <c r="E56" s="176"/>
-      <c r="F56" s="175" t="str">
-        <f>IF(記入!C32="","",記入!C32)</f>
-        <v/>
-      </c>
-      <c r="G56" s="176"/>
-      <c r="H56" s="175" t="str">
-        <f>IF(記入!D32="","",記入!D32)</f>
-        <v/>
-      </c>
-      <c r="I56" s="176"/>
-      <c r="J56" s="175" t="str">
-        <f>IF(記入!E32="","",記入!E32)</f>
-        <v/>
-      </c>
-      <c r="K56" s="176"/>
-      <c r="L56" s="172" t="str">
-        <f>IF(記入!F32="","",記入!F32)</f>
-        <v/>
-      </c>
-      <c r="M56" s="173"/>
-      <c r="N56" s="182"/>
-      <c r="O56" s="183"/>
-      <c r="P56" s="183"/>
-      <c r="Q56" s="183"/>
-      <c r="R56" s="184"/>
+      <c r="B56" s="172" t="e">
+        <f>IF(記入!#REF!="","",記入!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C56" s="172"/>
+      <c r="D56" s="173" t="e">
+        <f>IF(記入!#REF!="","",記入!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="174"/>
+      <c r="F56" s="173" t="e">
+        <f>IF(記入!#REF!="","",記入!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="174"/>
+      <c r="H56" s="173" t="e">
+        <f>IF(記入!#REF!="","",記入!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="174"/>
+      <c r="J56" s="173" t="e">
+        <f>IF(記入!#REF!="","",記入!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="174"/>
+      <c r="L56" s="170" t="e">
+        <f>IF(記入!#REF!="","",記入!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="171"/>
+      <c r="N56" s="180"/>
+      <c r="O56" s="181"/>
+      <c r="P56" s="181"/>
+      <c r="Q56" s="181"/>
+      <c r="R56" s="182"/>
     </row>
     <row r="57" spans="1:18" ht="18" customHeight="1"/>
     <row r="58" spans="1:18" ht="18" customHeight="1">
       <c r="A58" s="63" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:18" ht="18" customHeight="1">
@@ -7271,536 +7301,537 @@
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.17" right="0.17" top="0.78740157480314965" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="43" max="18" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.25" style="88" customWidth="1"/>
-    <col min="2" max="2" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="88" customWidth="1"/>
-    <col min="6" max="6" width="3.5" style="88" customWidth="1"/>
-    <col min="7" max="7" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" style="88" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="88" customWidth="1"/>
+    <col min="6" max="6" width="3.44140625" style="88" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="8" max="256" width="9" style="88"/>
-    <col min="257" max="257" width="19.25" style="88" customWidth="1"/>
-    <col min="258" max="258" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="15.25" style="88" customWidth="1"/>
-    <col min="262" max="262" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="19.21875" style="88" customWidth="1"/>
+    <col min="258" max="258" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="15.21875" style="88" customWidth="1"/>
+    <col min="262" max="262" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="264" max="512" width="9" style="88"/>
-    <col min="513" max="513" width="19.25" style="88" customWidth="1"/>
-    <col min="514" max="514" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="515" max="515" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="516" max="516" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="517" max="517" width="15.25" style="88" customWidth="1"/>
-    <col min="518" max="518" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="519" max="519" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="513" max="513" width="19.21875" style="88" customWidth="1"/>
+    <col min="514" max="514" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="516" max="516" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="15.21875" style="88" customWidth="1"/>
+    <col min="518" max="518" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="520" max="768" width="9" style="88"/>
-    <col min="769" max="769" width="19.25" style="88" customWidth="1"/>
-    <col min="770" max="770" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="771" max="771" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="772" max="772" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="773" max="773" width="15.25" style="88" customWidth="1"/>
-    <col min="774" max="774" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="775" max="775" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="769" max="769" width="19.21875" style="88" customWidth="1"/>
+    <col min="770" max="770" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="772" max="772" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="15.21875" style="88" customWidth="1"/>
+    <col min="774" max="774" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="776" max="1024" width="9" style="88"/>
-    <col min="1025" max="1025" width="19.25" style="88" customWidth="1"/>
-    <col min="1026" max="1026" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="1027" max="1027" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="1028" max="1028" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="1029" max="1029" width="15.25" style="88" customWidth="1"/>
-    <col min="1030" max="1030" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="1031" max="1031" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="1025" max="1025" width="19.21875" style="88" customWidth="1"/>
+    <col min="1026" max="1026" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="1028" max="1028" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="15.21875" style="88" customWidth="1"/>
+    <col min="1030" max="1030" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="1032" max="1280" width="9" style="88"/>
-    <col min="1281" max="1281" width="19.25" style="88" customWidth="1"/>
-    <col min="1282" max="1282" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="1283" max="1283" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="1284" max="1284" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="1285" max="1285" width="15.25" style="88" customWidth="1"/>
-    <col min="1286" max="1286" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="1287" max="1287" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="1281" max="1281" width="19.21875" style="88" customWidth="1"/>
+    <col min="1282" max="1282" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="1284" max="1284" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="15.21875" style="88" customWidth="1"/>
+    <col min="1286" max="1286" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="1288" max="1536" width="9" style="88"/>
-    <col min="1537" max="1537" width="19.25" style="88" customWidth="1"/>
-    <col min="1538" max="1538" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="1539" max="1539" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="1540" max="1540" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="1541" max="1541" width="15.25" style="88" customWidth="1"/>
-    <col min="1542" max="1542" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="1543" max="1543" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="1537" max="1537" width="19.21875" style="88" customWidth="1"/>
+    <col min="1538" max="1538" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="1540" max="1540" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="15.21875" style="88" customWidth="1"/>
+    <col min="1542" max="1542" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="1544" max="1792" width="9" style="88"/>
-    <col min="1793" max="1793" width="19.25" style="88" customWidth="1"/>
-    <col min="1794" max="1794" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="1795" max="1795" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="1796" max="1796" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="1797" max="1797" width="15.25" style="88" customWidth="1"/>
-    <col min="1798" max="1798" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="1799" max="1799" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="1793" max="1793" width="19.21875" style="88" customWidth="1"/>
+    <col min="1794" max="1794" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="1796" max="1796" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="15.21875" style="88" customWidth="1"/>
+    <col min="1798" max="1798" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="1800" max="2048" width="9" style="88"/>
-    <col min="2049" max="2049" width="19.25" style="88" customWidth="1"/>
-    <col min="2050" max="2050" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="2051" max="2051" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="2052" max="2052" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="2053" max="2053" width="15.25" style="88" customWidth="1"/>
-    <col min="2054" max="2054" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="2055" max="2055" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="2049" max="2049" width="19.21875" style="88" customWidth="1"/>
+    <col min="2050" max="2050" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="2052" max="2052" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="15.21875" style="88" customWidth="1"/>
+    <col min="2054" max="2054" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="2056" max="2304" width="9" style="88"/>
-    <col min="2305" max="2305" width="19.25" style="88" customWidth="1"/>
-    <col min="2306" max="2306" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="2307" max="2307" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="2308" max="2308" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="2309" max="2309" width="15.25" style="88" customWidth="1"/>
-    <col min="2310" max="2310" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="2311" max="2311" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="2305" max="2305" width="19.21875" style="88" customWidth="1"/>
+    <col min="2306" max="2306" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="2308" max="2308" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="15.21875" style="88" customWidth="1"/>
+    <col min="2310" max="2310" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="2312" max="2560" width="9" style="88"/>
-    <col min="2561" max="2561" width="19.25" style="88" customWidth="1"/>
-    <col min="2562" max="2562" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="2563" max="2563" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="2564" max="2564" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="2565" max="2565" width="15.25" style="88" customWidth="1"/>
-    <col min="2566" max="2566" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="2567" max="2567" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="2561" max="2561" width="19.21875" style="88" customWidth="1"/>
+    <col min="2562" max="2562" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="2564" max="2564" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="15.21875" style="88" customWidth="1"/>
+    <col min="2566" max="2566" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="2568" max="2816" width="9" style="88"/>
-    <col min="2817" max="2817" width="19.25" style="88" customWidth="1"/>
-    <col min="2818" max="2818" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="2819" max="2819" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="2820" max="2820" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="2821" max="2821" width="15.25" style="88" customWidth="1"/>
-    <col min="2822" max="2822" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="2823" max="2823" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="2817" max="2817" width="19.21875" style="88" customWidth="1"/>
+    <col min="2818" max="2818" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="2820" max="2820" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="15.21875" style="88" customWidth="1"/>
+    <col min="2822" max="2822" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="2824" max="3072" width="9" style="88"/>
-    <col min="3073" max="3073" width="19.25" style="88" customWidth="1"/>
-    <col min="3074" max="3074" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="3075" max="3075" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="3076" max="3076" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="3077" max="3077" width="15.25" style="88" customWidth="1"/>
-    <col min="3078" max="3078" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="3079" max="3079" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="3073" max="3073" width="19.21875" style="88" customWidth="1"/>
+    <col min="3074" max="3074" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="3076" max="3076" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="15.21875" style="88" customWidth="1"/>
+    <col min="3078" max="3078" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="3080" max="3328" width="9" style="88"/>
-    <col min="3329" max="3329" width="19.25" style="88" customWidth="1"/>
-    <col min="3330" max="3330" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="3331" max="3331" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="3332" max="3332" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="3333" max="3333" width="15.25" style="88" customWidth="1"/>
-    <col min="3334" max="3334" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="3335" max="3335" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="3329" max="3329" width="19.21875" style="88" customWidth="1"/>
+    <col min="3330" max="3330" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="3332" max="3332" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="15.21875" style="88" customWidth="1"/>
+    <col min="3334" max="3334" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="3336" max="3584" width="9" style="88"/>
-    <col min="3585" max="3585" width="19.25" style="88" customWidth="1"/>
-    <col min="3586" max="3586" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="3587" max="3587" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="3588" max="3588" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="3589" max="3589" width="15.25" style="88" customWidth="1"/>
-    <col min="3590" max="3590" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="3591" max="3591" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="3585" max="3585" width="19.21875" style="88" customWidth="1"/>
+    <col min="3586" max="3586" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="3588" max="3588" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="15.21875" style="88" customWidth="1"/>
+    <col min="3590" max="3590" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="3592" max="3840" width="9" style="88"/>
-    <col min="3841" max="3841" width="19.25" style="88" customWidth="1"/>
-    <col min="3842" max="3842" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="3843" max="3843" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="3844" max="3844" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="3845" max="3845" width="15.25" style="88" customWidth="1"/>
-    <col min="3846" max="3846" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="3847" max="3847" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="3841" max="3841" width="19.21875" style="88" customWidth="1"/>
+    <col min="3842" max="3842" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="3844" max="3844" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="15.21875" style="88" customWidth="1"/>
+    <col min="3846" max="3846" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="3848" max="4096" width="9" style="88"/>
-    <col min="4097" max="4097" width="19.25" style="88" customWidth="1"/>
-    <col min="4098" max="4098" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="4099" max="4099" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="4100" max="4100" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="4101" max="4101" width="15.25" style="88" customWidth="1"/>
-    <col min="4102" max="4102" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="4103" max="4103" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="4097" max="4097" width="19.21875" style="88" customWidth="1"/>
+    <col min="4098" max="4098" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="4100" max="4100" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="15.21875" style="88" customWidth="1"/>
+    <col min="4102" max="4102" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="4104" max="4352" width="9" style="88"/>
-    <col min="4353" max="4353" width="19.25" style="88" customWidth="1"/>
-    <col min="4354" max="4354" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="4355" max="4355" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="4356" max="4356" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="4357" max="4357" width="15.25" style="88" customWidth="1"/>
-    <col min="4358" max="4358" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="4359" max="4359" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="4353" max="4353" width="19.21875" style="88" customWidth="1"/>
+    <col min="4354" max="4354" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="4356" max="4356" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="15.21875" style="88" customWidth="1"/>
+    <col min="4358" max="4358" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="4360" max="4608" width="9" style="88"/>
-    <col min="4609" max="4609" width="19.25" style="88" customWidth="1"/>
-    <col min="4610" max="4610" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="4611" max="4611" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="4612" max="4612" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="4613" max="4613" width="15.25" style="88" customWidth="1"/>
-    <col min="4614" max="4614" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="4615" max="4615" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="4609" max="4609" width="19.21875" style="88" customWidth="1"/>
+    <col min="4610" max="4610" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="4612" max="4612" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="15.21875" style="88" customWidth="1"/>
+    <col min="4614" max="4614" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="4616" max="4864" width="9" style="88"/>
-    <col min="4865" max="4865" width="19.25" style="88" customWidth="1"/>
-    <col min="4866" max="4866" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="4867" max="4867" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="4868" max="4868" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="4869" max="4869" width="15.25" style="88" customWidth="1"/>
-    <col min="4870" max="4870" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="4871" max="4871" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="4865" max="4865" width="19.21875" style="88" customWidth="1"/>
+    <col min="4866" max="4866" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="4868" max="4868" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="15.21875" style="88" customWidth="1"/>
+    <col min="4870" max="4870" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="4872" max="5120" width="9" style="88"/>
-    <col min="5121" max="5121" width="19.25" style="88" customWidth="1"/>
-    <col min="5122" max="5122" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="5123" max="5123" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="5124" max="5124" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="5125" max="5125" width="15.25" style="88" customWidth="1"/>
-    <col min="5126" max="5126" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="5127" max="5127" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="5121" max="5121" width="19.21875" style="88" customWidth="1"/>
+    <col min="5122" max="5122" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="5124" max="5124" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="15.21875" style="88" customWidth="1"/>
+    <col min="5126" max="5126" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="5128" max="5376" width="9" style="88"/>
-    <col min="5377" max="5377" width="19.25" style="88" customWidth="1"/>
-    <col min="5378" max="5378" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="5379" max="5379" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="5380" max="5380" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="5381" max="5381" width="15.25" style="88" customWidth="1"/>
-    <col min="5382" max="5382" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="5383" max="5383" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="5377" max="5377" width="19.21875" style="88" customWidth="1"/>
+    <col min="5378" max="5378" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="5380" max="5380" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="15.21875" style="88" customWidth="1"/>
+    <col min="5382" max="5382" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="5384" max="5632" width="9" style="88"/>
-    <col min="5633" max="5633" width="19.25" style="88" customWidth="1"/>
-    <col min="5634" max="5634" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="5635" max="5635" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="5636" max="5636" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="5637" max="5637" width="15.25" style="88" customWidth="1"/>
-    <col min="5638" max="5638" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="5639" max="5639" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="5633" max="5633" width="19.21875" style="88" customWidth="1"/>
+    <col min="5634" max="5634" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="5636" max="5636" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="15.21875" style="88" customWidth="1"/>
+    <col min="5638" max="5638" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="5640" max="5888" width="9" style="88"/>
-    <col min="5889" max="5889" width="19.25" style="88" customWidth="1"/>
-    <col min="5890" max="5890" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="5891" max="5891" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="5892" max="5892" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="5893" max="5893" width="15.25" style="88" customWidth="1"/>
-    <col min="5894" max="5894" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="5895" max="5895" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="5889" max="5889" width="19.21875" style="88" customWidth="1"/>
+    <col min="5890" max="5890" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="5892" max="5892" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="15.21875" style="88" customWidth="1"/>
+    <col min="5894" max="5894" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="5896" max="6144" width="9" style="88"/>
-    <col min="6145" max="6145" width="19.25" style="88" customWidth="1"/>
-    <col min="6146" max="6146" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="6147" max="6147" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="6148" max="6148" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="6149" max="6149" width="15.25" style="88" customWidth="1"/>
-    <col min="6150" max="6150" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="6151" max="6151" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="6145" max="6145" width="19.21875" style="88" customWidth="1"/>
+    <col min="6146" max="6146" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="6148" max="6148" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="15.21875" style="88" customWidth="1"/>
+    <col min="6150" max="6150" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="6152" max="6400" width="9" style="88"/>
-    <col min="6401" max="6401" width="19.25" style="88" customWidth="1"/>
-    <col min="6402" max="6402" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="6403" max="6403" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="6404" max="6404" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="6405" max="6405" width="15.25" style="88" customWidth="1"/>
-    <col min="6406" max="6406" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="6407" max="6407" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="6401" max="6401" width="19.21875" style="88" customWidth="1"/>
+    <col min="6402" max="6402" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="6404" max="6404" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="15.21875" style="88" customWidth="1"/>
+    <col min="6406" max="6406" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="6408" max="6656" width="9" style="88"/>
-    <col min="6657" max="6657" width="19.25" style="88" customWidth="1"/>
-    <col min="6658" max="6658" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="6659" max="6659" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="6660" max="6660" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="6661" max="6661" width="15.25" style="88" customWidth="1"/>
-    <col min="6662" max="6662" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="6663" max="6663" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="6657" max="6657" width="19.21875" style="88" customWidth="1"/>
+    <col min="6658" max="6658" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="6660" max="6660" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="15.21875" style="88" customWidth="1"/>
+    <col min="6662" max="6662" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="6664" max="6912" width="9" style="88"/>
-    <col min="6913" max="6913" width="19.25" style="88" customWidth="1"/>
-    <col min="6914" max="6914" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="6915" max="6915" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="6916" max="6916" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="6917" max="6917" width="15.25" style="88" customWidth="1"/>
-    <col min="6918" max="6918" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="6919" max="6919" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="6913" max="6913" width="19.21875" style="88" customWidth="1"/>
+    <col min="6914" max="6914" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="6916" max="6916" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="15.21875" style="88" customWidth="1"/>
+    <col min="6918" max="6918" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="6920" max="7168" width="9" style="88"/>
-    <col min="7169" max="7169" width="19.25" style="88" customWidth="1"/>
-    <col min="7170" max="7170" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="7171" max="7171" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="7172" max="7172" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="7173" max="7173" width="15.25" style="88" customWidth="1"/>
-    <col min="7174" max="7174" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="7175" max="7175" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="7169" max="7169" width="19.21875" style="88" customWidth="1"/>
+    <col min="7170" max="7170" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="7172" max="7172" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="15.21875" style="88" customWidth="1"/>
+    <col min="7174" max="7174" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="7176" max="7424" width="9" style="88"/>
-    <col min="7425" max="7425" width="19.25" style="88" customWidth="1"/>
-    <col min="7426" max="7426" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="7427" max="7427" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="7428" max="7428" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="7429" max="7429" width="15.25" style="88" customWidth="1"/>
-    <col min="7430" max="7430" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="7431" max="7431" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="7425" max="7425" width="19.21875" style="88" customWidth="1"/>
+    <col min="7426" max="7426" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="7428" max="7428" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="15.21875" style="88" customWidth="1"/>
+    <col min="7430" max="7430" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="7432" max="7680" width="9" style="88"/>
-    <col min="7681" max="7681" width="19.25" style="88" customWidth="1"/>
-    <col min="7682" max="7682" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="7683" max="7683" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="7684" max="7684" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="7685" max="7685" width="15.25" style="88" customWidth="1"/>
-    <col min="7686" max="7686" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="7687" max="7687" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="7681" max="7681" width="19.21875" style="88" customWidth="1"/>
+    <col min="7682" max="7682" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="7684" max="7684" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="15.21875" style="88" customWidth="1"/>
+    <col min="7686" max="7686" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="7688" max="7936" width="9" style="88"/>
-    <col min="7937" max="7937" width="19.25" style="88" customWidth="1"/>
-    <col min="7938" max="7938" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="7939" max="7939" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="7940" max="7940" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="7941" max="7941" width="15.25" style="88" customWidth="1"/>
-    <col min="7942" max="7942" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="7943" max="7943" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="7937" max="7937" width="19.21875" style="88" customWidth="1"/>
+    <col min="7938" max="7938" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="7940" max="7940" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="15.21875" style="88" customWidth="1"/>
+    <col min="7942" max="7942" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="7944" max="8192" width="9" style="88"/>
-    <col min="8193" max="8193" width="19.25" style="88" customWidth="1"/>
-    <col min="8194" max="8194" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="8195" max="8195" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="8196" max="8196" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="8197" max="8197" width="15.25" style="88" customWidth="1"/>
-    <col min="8198" max="8198" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="8199" max="8199" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="8193" max="8193" width="19.21875" style="88" customWidth="1"/>
+    <col min="8194" max="8194" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="8196" max="8196" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="15.21875" style="88" customWidth="1"/>
+    <col min="8198" max="8198" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="8200" max="8448" width="9" style="88"/>
-    <col min="8449" max="8449" width="19.25" style="88" customWidth="1"/>
-    <col min="8450" max="8450" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="8451" max="8451" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="8452" max="8452" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="8453" max="8453" width="15.25" style="88" customWidth="1"/>
-    <col min="8454" max="8454" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="8455" max="8455" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="8449" max="8449" width="19.21875" style="88" customWidth="1"/>
+    <col min="8450" max="8450" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="8452" max="8452" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="15.21875" style="88" customWidth="1"/>
+    <col min="8454" max="8454" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="8456" max="8704" width="9" style="88"/>
-    <col min="8705" max="8705" width="19.25" style="88" customWidth="1"/>
-    <col min="8706" max="8706" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="8707" max="8707" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="8708" max="8708" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="8709" max="8709" width="15.25" style="88" customWidth="1"/>
-    <col min="8710" max="8710" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="8711" max="8711" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="8705" max="8705" width="19.21875" style="88" customWidth="1"/>
+    <col min="8706" max="8706" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="8708" max="8708" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="15.21875" style="88" customWidth="1"/>
+    <col min="8710" max="8710" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="8712" max="8960" width="9" style="88"/>
-    <col min="8961" max="8961" width="19.25" style="88" customWidth="1"/>
-    <col min="8962" max="8962" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="8963" max="8963" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="8964" max="8964" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="8965" max="8965" width="15.25" style="88" customWidth="1"/>
-    <col min="8966" max="8966" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="8967" max="8967" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="8961" max="8961" width="19.21875" style="88" customWidth="1"/>
+    <col min="8962" max="8962" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="8964" max="8964" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="15.21875" style="88" customWidth="1"/>
+    <col min="8966" max="8966" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="8968" max="9216" width="9" style="88"/>
-    <col min="9217" max="9217" width="19.25" style="88" customWidth="1"/>
-    <col min="9218" max="9218" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="9219" max="9219" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="9220" max="9220" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="9221" max="9221" width="15.25" style="88" customWidth="1"/>
-    <col min="9222" max="9222" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="9223" max="9223" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="9217" max="9217" width="19.21875" style="88" customWidth="1"/>
+    <col min="9218" max="9218" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="9220" max="9220" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="15.21875" style="88" customWidth="1"/>
+    <col min="9222" max="9222" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="9224" max="9472" width="9" style="88"/>
-    <col min="9473" max="9473" width="19.25" style="88" customWidth="1"/>
-    <col min="9474" max="9474" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="9475" max="9475" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="9476" max="9476" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="9477" max="9477" width="15.25" style="88" customWidth="1"/>
-    <col min="9478" max="9478" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="9479" max="9479" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="9473" max="9473" width="19.21875" style="88" customWidth="1"/>
+    <col min="9474" max="9474" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="9476" max="9476" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="15.21875" style="88" customWidth="1"/>
+    <col min="9478" max="9478" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="9480" max="9728" width="9" style="88"/>
-    <col min="9729" max="9729" width="19.25" style="88" customWidth="1"/>
-    <col min="9730" max="9730" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="9731" max="9731" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="9732" max="9732" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="9733" max="9733" width="15.25" style="88" customWidth="1"/>
-    <col min="9734" max="9734" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="9735" max="9735" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="9729" max="9729" width="19.21875" style="88" customWidth="1"/>
+    <col min="9730" max="9730" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="9732" max="9732" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="15.21875" style="88" customWidth="1"/>
+    <col min="9734" max="9734" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="9736" max="9984" width="9" style="88"/>
-    <col min="9985" max="9985" width="19.25" style="88" customWidth="1"/>
-    <col min="9986" max="9986" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="9987" max="9987" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="9988" max="9988" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="9989" max="9989" width="15.25" style="88" customWidth="1"/>
-    <col min="9990" max="9990" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="9991" max="9991" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="9985" max="9985" width="19.21875" style="88" customWidth="1"/>
+    <col min="9986" max="9986" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="9988" max="9988" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="15.21875" style="88" customWidth="1"/>
+    <col min="9990" max="9990" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="9992" max="10240" width="9" style="88"/>
-    <col min="10241" max="10241" width="19.25" style="88" customWidth="1"/>
-    <col min="10242" max="10242" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="10243" max="10243" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="10244" max="10244" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="10245" max="10245" width="15.25" style="88" customWidth="1"/>
-    <col min="10246" max="10246" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="10247" max="10247" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="10241" max="10241" width="19.21875" style="88" customWidth="1"/>
+    <col min="10242" max="10242" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="10244" max="10244" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="15.21875" style="88" customWidth="1"/>
+    <col min="10246" max="10246" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="10248" max="10496" width="9" style="88"/>
-    <col min="10497" max="10497" width="19.25" style="88" customWidth="1"/>
-    <col min="10498" max="10498" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="10499" max="10499" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="10500" max="10500" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="10501" max="10501" width="15.25" style="88" customWidth="1"/>
-    <col min="10502" max="10502" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="10503" max="10503" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="10497" max="10497" width="19.21875" style="88" customWidth="1"/>
+    <col min="10498" max="10498" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="10500" max="10500" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="15.21875" style="88" customWidth="1"/>
+    <col min="10502" max="10502" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="10504" max="10752" width="9" style="88"/>
-    <col min="10753" max="10753" width="19.25" style="88" customWidth="1"/>
-    <col min="10754" max="10754" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="10755" max="10755" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="10756" max="10756" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="10757" max="10757" width="15.25" style="88" customWidth="1"/>
-    <col min="10758" max="10758" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="10759" max="10759" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="10753" max="10753" width="19.21875" style="88" customWidth="1"/>
+    <col min="10754" max="10754" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="10756" max="10756" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="15.21875" style="88" customWidth="1"/>
+    <col min="10758" max="10758" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="10760" max="11008" width="9" style="88"/>
-    <col min="11009" max="11009" width="19.25" style="88" customWidth="1"/>
-    <col min="11010" max="11010" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="11011" max="11011" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="11012" max="11012" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="11013" max="11013" width="15.25" style="88" customWidth="1"/>
-    <col min="11014" max="11014" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="11015" max="11015" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="11009" max="11009" width="19.21875" style="88" customWidth="1"/>
+    <col min="11010" max="11010" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="11012" max="11012" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="15.21875" style="88" customWidth="1"/>
+    <col min="11014" max="11014" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="11016" max="11264" width="9" style="88"/>
-    <col min="11265" max="11265" width="19.25" style="88" customWidth="1"/>
-    <col min="11266" max="11266" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="11267" max="11267" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="11268" max="11268" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="11269" max="11269" width="15.25" style="88" customWidth="1"/>
-    <col min="11270" max="11270" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="11271" max="11271" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="11265" max="11265" width="19.21875" style="88" customWidth="1"/>
+    <col min="11266" max="11266" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="11268" max="11268" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="15.21875" style="88" customWidth="1"/>
+    <col min="11270" max="11270" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="11272" max="11520" width="9" style="88"/>
-    <col min="11521" max="11521" width="19.25" style="88" customWidth="1"/>
-    <col min="11522" max="11522" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="11523" max="11523" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="11524" max="11524" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="11525" max="11525" width="15.25" style="88" customWidth="1"/>
-    <col min="11526" max="11526" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="11527" max="11527" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="11521" max="11521" width="19.21875" style="88" customWidth="1"/>
+    <col min="11522" max="11522" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="11524" max="11524" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="15.21875" style="88" customWidth="1"/>
+    <col min="11526" max="11526" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="11528" max="11776" width="9" style="88"/>
-    <col min="11777" max="11777" width="19.25" style="88" customWidth="1"/>
-    <col min="11778" max="11778" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="11779" max="11779" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="11780" max="11780" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="11781" max="11781" width="15.25" style="88" customWidth="1"/>
-    <col min="11782" max="11782" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="11783" max="11783" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="11777" max="11777" width="19.21875" style="88" customWidth="1"/>
+    <col min="11778" max="11778" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="11780" max="11780" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="15.21875" style="88" customWidth="1"/>
+    <col min="11782" max="11782" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="11784" max="12032" width="9" style="88"/>
-    <col min="12033" max="12033" width="19.25" style="88" customWidth="1"/>
-    <col min="12034" max="12034" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="12035" max="12035" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="12036" max="12036" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="12037" max="12037" width="15.25" style="88" customWidth="1"/>
-    <col min="12038" max="12038" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="12039" max="12039" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="12033" max="12033" width="19.21875" style="88" customWidth="1"/>
+    <col min="12034" max="12034" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="12036" max="12036" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="15.21875" style="88" customWidth="1"/>
+    <col min="12038" max="12038" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="12040" max="12288" width="9" style="88"/>
-    <col min="12289" max="12289" width="19.25" style="88" customWidth="1"/>
-    <col min="12290" max="12290" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="12291" max="12291" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="12292" max="12292" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="12293" max="12293" width="15.25" style="88" customWidth="1"/>
-    <col min="12294" max="12294" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="12295" max="12295" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="12289" max="12289" width="19.21875" style="88" customWidth="1"/>
+    <col min="12290" max="12290" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="12292" max="12292" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="15.21875" style="88" customWidth="1"/>
+    <col min="12294" max="12294" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="12296" max="12544" width="9" style="88"/>
-    <col min="12545" max="12545" width="19.25" style="88" customWidth="1"/>
-    <col min="12546" max="12546" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="12547" max="12547" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="12548" max="12548" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="12549" max="12549" width="15.25" style="88" customWidth="1"/>
-    <col min="12550" max="12550" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="12551" max="12551" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="12545" max="12545" width="19.21875" style="88" customWidth="1"/>
+    <col min="12546" max="12546" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="12548" max="12548" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="15.21875" style="88" customWidth="1"/>
+    <col min="12550" max="12550" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="12552" max="12800" width="9" style="88"/>
-    <col min="12801" max="12801" width="19.25" style="88" customWidth="1"/>
-    <col min="12802" max="12802" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="12803" max="12803" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="12804" max="12804" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="12805" max="12805" width="15.25" style="88" customWidth="1"/>
-    <col min="12806" max="12806" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="12807" max="12807" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="12801" max="12801" width="19.21875" style="88" customWidth="1"/>
+    <col min="12802" max="12802" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="12804" max="12804" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="15.21875" style="88" customWidth="1"/>
+    <col min="12806" max="12806" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="12808" max="13056" width="9" style="88"/>
-    <col min="13057" max="13057" width="19.25" style="88" customWidth="1"/>
-    <col min="13058" max="13058" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="13059" max="13059" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="13060" max="13060" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="13061" max="13061" width="15.25" style="88" customWidth="1"/>
-    <col min="13062" max="13062" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="13063" max="13063" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="13057" max="13057" width="19.21875" style="88" customWidth="1"/>
+    <col min="13058" max="13058" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="13060" max="13060" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="15.21875" style="88" customWidth="1"/>
+    <col min="13062" max="13062" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="13064" max="13312" width="9" style="88"/>
-    <col min="13313" max="13313" width="19.25" style="88" customWidth="1"/>
-    <col min="13314" max="13314" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="13315" max="13315" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="13316" max="13316" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="13317" max="13317" width="15.25" style="88" customWidth="1"/>
-    <col min="13318" max="13318" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="13319" max="13319" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="13313" max="13313" width="19.21875" style="88" customWidth="1"/>
+    <col min="13314" max="13314" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="13316" max="13316" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="15.21875" style="88" customWidth="1"/>
+    <col min="13318" max="13318" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="13320" max="13568" width="9" style="88"/>
-    <col min="13569" max="13569" width="19.25" style="88" customWidth="1"/>
-    <col min="13570" max="13570" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="13571" max="13571" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="13572" max="13572" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="13573" max="13573" width="15.25" style="88" customWidth="1"/>
-    <col min="13574" max="13574" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="13575" max="13575" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="13569" max="13569" width="19.21875" style="88" customWidth="1"/>
+    <col min="13570" max="13570" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="13572" max="13572" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="15.21875" style="88" customWidth="1"/>
+    <col min="13574" max="13574" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="13576" max="13824" width="9" style="88"/>
-    <col min="13825" max="13825" width="19.25" style="88" customWidth="1"/>
-    <col min="13826" max="13826" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="13827" max="13827" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="13828" max="13828" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="13829" max="13829" width="15.25" style="88" customWidth="1"/>
-    <col min="13830" max="13830" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="13831" max="13831" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="13825" max="13825" width="19.21875" style="88" customWidth="1"/>
+    <col min="13826" max="13826" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="13828" max="13828" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="15.21875" style="88" customWidth="1"/>
+    <col min="13830" max="13830" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="13832" max="14080" width="9" style="88"/>
-    <col min="14081" max="14081" width="19.25" style="88" customWidth="1"/>
-    <col min="14082" max="14082" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="14083" max="14083" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="14084" max="14084" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="14085" max="14085" width="15.25" style="88" customWidth="1"/>
-    <col min="14086" max="14086" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="14087" max="14087" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="14081" max="14081" width="19.21875" style="88" customWidth="1"/>
+    <col min="14082" max="14082" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="14084" max="14084" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="15.21875" style="88" customWidth="1"/>
+    <col min="14086" max="14086" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="14088" max="14336" width="9" style="88"/>
-    <col min="14337" max="14337" width="19.25" style="88" customWidth="1"/>
-    <col min="14338" max="14338" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="14339" max="14339" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="14340" max="14340" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="14341" max="14341" width="15.25" style="88" customWidth="1"/>
-    <col min="14342" max="14342" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="14343" max="14343" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="14337" max="14337" width="19.21875" style="88" customWidth="1"/>
+    <col min="14338" max="14338" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="14340" max="14340" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="15.21875" style="88" customWidth="1"/>
+    <col min="14342" max="14342" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="14344" max="14592" width="9" style="88"/>
-    <col min="14593" max="14593" width="19.25" style="88" customWidth="1"/>
-    <col min="14594" max="14594" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="14595" max="14595" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="14596" max="14596" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="14597" max="14597" width="15.25" style="88" customWidth="1"/>
-    <col min="14598" max="14598" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="14599" max="14599" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="14593" max="14593" width="19.21875" style="88" customWidth="1"/>
+    <col min="14594" max="14594" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="14596" max="14596" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="15.21875" style="88" customWidth="1"/>
+    <col min="14598" max="14598" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="14600" max="14848" width="9" style="88"/>
-    <col min="14849" max="14849" width="19.25" style="88" customWidth="1"/>
-    <col min="14850" max="14850" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="14851" max="14851" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="14852" max="14852" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="14853" max="14853" width="15.25" style="88" customWidth="1"/>
-    <col min="14854" max="14854" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="14855" max="14855" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="14849" max="14849" width="19.21875" style="88" customWidth="1"/>
+    <col min="14850" max="14850" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="14852" max="14852" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="15.21875" style="88" customWidth="1"/>
+    <col min="14854" max="14854" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="14856" max="15104" width="9" style="88"/>
-    <col min="15105" max="15105" width="19.25" style="88" customWidth="1"/>
-    <col min="15106" max="15106" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="15107" max="15107" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="15108" max="15108" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="15109" max="15109" width="15.25" style="88" customWidth="1"/>
-    <col min="15110" max="15110" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="15111" max="15111" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="15105" max="15105" width="19.21875" style="88" customWidth="1"/>
+    <col min="15106" max="15106" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="15108" max="15108" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="15.21875" style="88" customWidth="1"/>
+    <col min="15110" max="15110" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="15112" max="15360" width="9" style="88"/>
-    <col min="15361" max="15361" width="19.25" style="88" customWidth="1"/>
-    <col min="15362" max="15362" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="15363" max="15363" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="15364" max="15364" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="15365" max="15365" width="15.25" style="88" customWidth="1"/>
-    <col min="15366" max="15366" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="15367" max="15367" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="15361" max="15361" width="19.21875" style="88" customWidth="1"/>
+    <col min="15362" max="15362" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="15364" max="15364" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="15.21875" style="88" customWidth="1"/>
+    <col min="15366" max="15366" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="15368" max="15616" width="9" style="88"/>
-    <col min="15617" max="15617" width="19.25" style="88" customWidth="1"/>
-    <col min="15618" max="15618" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="15619" max="15619" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="15620" max="15620" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="15621" max="15621" width="15.25" style="88" customWidth="1"/>
-    <col min="15622" max="15622" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="15623" max="15623" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="15617" max="15617" width="19.21875" style="88" customWidth="1"/>
+    <col min="15618" max="15618" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="15620" max="15620" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="15.21875" style="88" customWidth="1"/>
+    <col min="15622" max="15622" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="15624" max="15872" width="9" style="88"/>
-    <col min="15873" max="15873" width="19.25" style="88" customWidth="1"/>
-    <col min="15874" max="15874" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="15875" max="15875" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="15876" max="15876" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="15877" max="15877" width="15.25" style="88" customWidth="1"/>
-    <col min="15878" max="15878" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="15879" max="15879" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="15873" max="15873" width="19.21875" style="88" customWidth="1"/>
+    <col min="15874" max="15874" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="15876" max="15876" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="15.21875" style="88" customWidth="1"/>
+    <col min="15878" max="15878" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="15880" max="16128" width="9" style="88"/>
-    <col min="16129" max="16129" width="19.25" style="88" customWidth="1"/>
-    <col min="16130" max="16130" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="16131" max="16131" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="16132" max="16132" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="16133" max="16133" width="15.25" style="88" customWidth="1"/>
-    <col min="16134" max="16134" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="16135" max="16135" width="5.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="16129" max="16129" width="19.21875" style="88" customWidth="1"/>
+    <col min="16130" max="16130" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="16132" max="16132" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="15.21875" style="88" customWidth="1"/>
+    <col min="16134" max="16134" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="16136" max="16384" width="9" style="88"/>
   </cols>
   <sheetData>
@@ -7810,34 +7841,34 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="89" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
       <c r="E3" s="89"/>
     </row>
-    <row r="4" spans="1:6" ht="28.5">
-      <c r="A4" s="207" t="s">
+    <row r="4" spans="1:6" ht="28.8">
+      <c r="A4" s="205" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="206"/>
+      <c r="C4" s="90" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="90" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="90" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="211" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="208"/>
-      <c r="C4" s="90" t="s">
+      <c r="B5" s="91" t="s">
         <v>143</v>
-      </c>
-      <c r="D4" s="90" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4" s="90" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="213" t="s">
-        <v>146</v>
-      </c>
-      <c r="B5" s="91" t="s">
-        <v>147</v>
       </c>
       <c r="C5" s="92">
         <v>4200</v>
@@ -7852,9 +7883,9 @@
       <c r="F5" s="95"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="214"/>
+      <c r="A6" s="212"/>
       <c r="B6" s="91" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C6" s="92">
         <v>4200</v>
@@ -7869,9 +7900,9 @@
       <c r="F6" s="95"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="214"/>
+      <c r="A7" s="212"/>
       <c r="B7" s="91" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C7" s="92">
         <v>4200</v>
@@ -7886,9 +7917,9 @@
       <c r="F7" s="95"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="214"/>
+      <c r="A8" s="212"/>
       <c r="B8" s="91" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C8" s="92">
         <v>4200</v>
@@ -7903,9 +7934,9 @@
       <c r="F8" s="95"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="214"/>
+      <c r="A9" s="212"/>
       <c r="B9" s="91" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C9" s="92">
         <v>4200</v>
@@ -7920,9 +7951,9 @@
       <c r="F9" s="95"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="215"/>
+      <c r="A10" s="213"/>
       <c r="B10" s="91" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C10" s="92">
         <v>4200</v>
@@ -7937,11 +7968,11 @@
       <c r="F10" s="95"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A11" s="216" t="s">
-        <v>154</v>
+      <c r="A11" s="214" t="s">
+        <v>150</v>
       </c>
       <c r="B11" s="91" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C11" s="92">
         <v>4200</v>
@@ -7956,9 +7987,9 @@
       <c r="F11" s="95"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="217"/>
+      <c r="A12" s="215"/>
       <c r="B12" s="91" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C12" s="92">
         <v>4200</v>
@@ -7973,9 +8004,9 @@
       <c r="F12" s="95"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="217"/>
+      <c r="A13" s="215"/>
       <c r="B13" s="91" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C13" s="92">
         <v>4200</v>
@@ -7988,9 +8019,9 @@
       <c r="F13" s="95"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="217"/>
+      <c r="A14" s="215"/>
       <c r="B14" s="91" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C14" s="92">
         <v>4200</v>
@@ -8003,9 +8034,9 @@
       <c r="F14" s="95"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="217"/>
+      <c r="A15" s="215"/>
       <c r="B15" s="91" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C15" s="92">
         <v>4200</v>
@@ -8018,9 +8049,9 @@
       <c r="F15" s="95"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="217"/>
+      <c r="A16" s="215"/>
       <c r="B16" s="91" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C16" s="92">
         <v>4200</v>
@@ -8033,11 +8064,11 @@
       <c r="F16" s="95"/>
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A17" s="216" t="s">
-        <v>155</v>
+      <c r="A17" s="214" t="s">
+        <v>151</v>
       </c>
       <c r="B17" s="91" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C17" s="92">
         <v>4200</v>
@@ -8050,9 +8081,9 @@
       <c r="F17" s="95"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="217"/>
+      <c r="A18" s="215"/>
       <c r="B18" s="91" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C18" s="92">
         <v>4200</v>
@@ -8065,9 +8096,9 @@
       <c r="F18" s="95"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="217"/>
+      <c r="A19" s="215"/>
       <c r="B19" s="91" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C19" s="92">
         <v>4200</v>
@@ -8082,9 +8113,9 @@
       <c r="F19" s="95"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="217"/>
+      <c r="A20" s="215"/>
       <c r="B20" s="91" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C20" s="92">
         <v>4200</v>
@@ -8099,9 +8130,9 @@
       <c r="F20" s="95"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="217"/>
+      <c r="A21" s="215"/>
       <c r="B21" s="91" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C21" s="92">
         <v>4200</v>
@@ -8116,9 +8147,9 @@
       <c r="F21" s="95"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="217"/>
+      <c r="A22" s="215"/>
       <c r="B22" s="91" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C22" s="92">
         <v>4200</v>
@@ -8133,11 +8164,11 @@
       <c r="F22" s="95"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="218" t="s">
-        <v>156</v>
-      </c>
-      <c r="B23" s="219"/>
-      <c r="C23" s="219"/>
+      <c r="A23" s="216" t="s">
+        <v>152</v>
+      </c>
+      <c r="B23" s="217"/>
+      <c r="C23" s="217"/>
       <c r="D23" s="93">
         <f>SUM(D5:D22)</f>
         <v>26.3</v>
@@ -8162,45 +8193,45 @@
       <c r="E25" s="96"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="212" t="s">
-        <v>157</v>
-      </c>
-      <c r="B26" s="212"/>
-      <c r="C26" s="212"/>
+      <c r="A26" s="210" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" s="210"/>
+      <c r="C26" s="210"/>
       <c r="D26" s="89"/>
       <c r="E26" s="97"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="98"/>
-      <c r="B27" s="207" t="s">
-        <v>158</v>
-      </c>
-      <c r="C27" s="208"/>
+      <c r="B27" s="205" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" s="206"/>
       <c r="D27" s="99" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E27" s="100" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="18" customHeight="1">
       <c r="A28" s="101" t="s">
-        <v>161</v>
-      </c>
-      <c r="B28" s="209"/>
-      <c r="C28" s="210"/>
+        <v>157</v>
+      </c>
+      <c r="B28" s="207"/>
+      <c r="C28" s="208"/>
       <c r="D28" s="102"/>
       <c r="E28" s="94"/>
       <c r="F28" s="103"/>
       <c r="G28" s="103"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="206" t="s">
-        <v>156</v>
-      </c>
-      <c r="B29" s="206"/>
-      <c r="C29" s="206"/>
-      <c r="D29" s="206"/>
+      <c r="A29" s="204" t="s">
+        <v>152</v>
+      </c>
+      <c r="B29" s="204"/>
+      <c r="C29" s="204"/>
+      <c r="D29" s="204"/>
       <c r="E29" s="104">
         <f>SUM(E28:E28)</f>
         <v>0</v>
@@ -8221,47 +8252,47 @@
       <c r="E31" s="89"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="211" t="s">
-        <v>162</v>
-      </c>
-      <c r="B32" s="211"/>
-      <c r="C32" s="211"/>
-      <c r="D32" s="211"/>
+      <c r="A32" s="209" t="s">
+        <v>158</v>
+      </c>
+      <c r="B32" s="209"/>
+      <c r="C32" s="209"/>
+      <c r="D32" s="209"/>
       <c r="E32" s="100" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A33" s="206" t="s">
-        <v>164</v>
-      </c>
-      <c r="B33" s="206"/>
-      <c r="C33" s="206"/>
-      <c r="D33" s="206"/>
+      <c r="A33" s="204" t="s">
+        <v>160</v>
+      </c>
+      <c r="B33" s="204"/>
+      <c r="C33" s="204"/>
+      <c r="D33" s="204"/>
       <c r="E33" s="104">
         <f>E23</f>
         <v>110000</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="206" t="s">
-        <v>157</v>
-      </c>
-      <c r="B34" s="206"/>
-      <c r="C34" s="206"/>
-      <c r="D34" s="206"/>
+      <c r="A34" s="204" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" s="204"/>
+      <c r="C34" s="204"/>
+      <c r="D34" s="204"/>
       <c r="E34" s="104">
         <f>E29</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="206" t="s">
-        <v>156</v>
-      </c>
-      <c r="B35" s="206"/>
-      <c r="C35" s="206"/>
-      <c r="D35" s="206"/>
+      <c r="A35" s="204" t="s">
+        <v>152</v>
+      </c>
+      <c r="B35" s="204"/>
+      <c r="C35" s="204"/>
+      <c r="D35" s="204"/>
       <c r="E35" s="104">
         <f>E33+E34</f>
         <v>110000</v>
@@ -8286,5 +8317,6 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/controller/src/main/resources/jxls_templates/jianjishu_shoutuo.xlsx
+++ b/controller/src/main/resources/jxls_templates/jianjishu_shoutuo.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work_Code\newparkcloud\controller\src\main\resources\jxls_templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12756" yWindow="48" windowWidth="15900" windowHeight="12420" tabRatio="570"/>
+    <workbookView xWindow="12750" yWindow="45" windowWidth="15900" windowHeight="12420" tabRatio="570"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -19,10 +14,11 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">お見積書!$A$1:$T$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">見積詳細!$A$1:$F$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">見積条件書!$A$1:$S$69</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">見積詳細!$A$1:$F$38</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -32,7 +28,7 @@
     <author>DONG</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A29" authorId="0" shapeId="0">
+    <comment ref="A29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +68,7 @@
     <author>DONG</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +93,7 @@
     <author>DONG</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +118,7 @@
     <author>DONG</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1603,10 +1599,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${qu.trusteejapanese}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>${qu.trusteechinese}</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1676,6 +1668,10 @@
   </si>
   <si>
     <t>${r.claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${qu.trusteejapanese}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1701,14 +1697,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1716,7 +1712,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1724,7 +1720,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1759,7 +1755,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1767,7 +1763,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1785,7 +1781,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -3031,22 +3027,19 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
     <cellStyle name="標準 3" xfId="2"/>
     <cellStyle name="標準 4" xfId="3"/>
     <cellStyle name="標準 5" xfId="4"/>
     <cellStyle name="標準 6" xfId="5"/>
     <cellStyle name="標準_作業内容および見積もり" xfId="6"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3179,7 +3172,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3221,7 +3214,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3256,7 +3249,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3469,22 +3462,22 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="E24" sqref="E23:E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="10.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="10.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.8">
+    <row r="1" spans="1:8" ht="14.25">
       <c r="A1" s="111" t="s">
         <v>120</v>
       </c>
@@ -3499,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>15</v>
@@ -3524,7 +3517,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>15</v>
@@ -3548,7 +3541,7 @@
         <v>44</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>15</v>
@@ -3561,7 +3554,7 @@
         <v>45</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>15</v>
@@ -3580,12 +3573,12 @@
       <c r="G8" s="119"/>
       <c r="H8" s="120"/>
     </row>
-    <row r="9" spans="1:8" s="7" customFormat="1" ht="14.4">
+    <row r="9" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A9" s="34" t="s">
         <v>161</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>15</v>
@@ -3598,7 +3591,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>15</v>
@@ -3611,7 +3604,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>15</v>
@@ -3624,7 +3617,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>15</v>
@@ -3648,7 +3641,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>15</v>
@@ -3661,7 +3654,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>15</v>
@@ -3707,7 +3700,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>15</v>
@@ -3715,12 +3708,12 @@
       <c r="G19" s="119"/>
       <c r="H19" s="120"/>
     </row>
-    <row r="20" spans="1:8" s="7" customFormat="1" ht="14.4">
+    <row r="20" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A20" s="33" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>15</v>
@@ -3750,7 +3743,7 @@
       <c r="G22" s="119"/>
       <c r="H22" s="120"/>
     </row>
-    <row r="23" spans="1:8" s="7" customFormat="1" ht="14.4">
+    <row r="23" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A23" s="34" t="s">
         <v>43</v>
       </c>
@@ -3761,12 +3754,12 @@
       <c r="G23" s="119"/>
       <c r="H23" s="120"/>
     </row>
-    <row r="24" spans="1:8" s="7" customFormat="1" ht="14.4">
+    <row r="24" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A24" s="34" t="s">
         <v>162</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>15</v>
@@ -3774,7 +3767,7 @@
       <c r="G24" s="119"/>
       <c r="H24" s="120"/>
     </row>
-    <row r="25" spans="1:8" s="7" customFormat="1" ht="14.4">
+    <row r="25" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A25" s="34" t="s">
         <v>12</v>
       </c>
@@ -3830,19 +3823,19 @@
         <v>第一回</v>
       </c>
       <c r="B29" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C29" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="D29" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="E29" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="F29" s="32" t="s">
         <v>181</v>
-      </c>
-      <c r="F29" s="32" t="s">
-        <v>182</v>
       </c>
       <c r="G29" s="119"/>
       <c r="H29" s="120"/>
@@ -3850,7 +3843,7 @@
     <row r="30" spans="1:8" ht="6.75" customHeight="1">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:8" ht="13.8">
+    <row r="31" spans="1:8" ht="14.25">
       <c r="A31" s="21" t="s">
         <v>18</v>
       </c>
@@ -3868,14 +3861,14 @@
     <row r="33" spans="1:9">
       <c r="B33" s="1"/>
       <c r="D33" s="115" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E33" s="115"/>
       <c r="F33" s="115"/>
       <c r="G33" s="115"/>
       <c r="H33" s="115"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" ht="13.5">
       <c r="A34" s="41" t="s">
         <v>136</v>
       </c>
@@ -3896,7 +3889,7 @@
       <c r="H34" s="30"/>
       <c r="I34" s="25"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" ht="13.5">
       <c r="B35" s="1"/>
       <c r="D35" s="114" t="s">
         <v>56</v>
@@ -3939,7 +3932,7 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:9" s="3" customFormat="1" ht="15.6">
+    <row r="39" spans="1:9" s="3" customFormat="1" ht="14.25">
       <c r="A39" s="110" t="s">
         <v>21</v>
       </c>
@@ -3959,7 +3952,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.6">
+    <row r="40" spans="1:9" ht="14.25">
       <c r="A40" s="110"/>
       <c r="B40" s="110"/>
       <c r="C40" s="13" t="s">
@@ -3977,7 +3970,7 @@
       <c r="G40" s="110"/>
       <c r="H40" s="110"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6">
+    <row r="41" spans="1:9" ht="14.25">
       <c r="A41" s="12"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -3993,7 +3986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.6">
+    <row r="42" spans="1:9" ht="14.25">
       <c r="A42" s="12"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -4009,7 +4002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15.6">
+    <row r="43" spans="1:9" ht="14.25">
       <c r="A43" s="12"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -4025,7 +4018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15.6">
+    <row r="44" spans="1:9" ht="14.25">
       <c r="A44" s="19"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -4041,7 +4034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15.6">
+    <row r="45" spans="1:9" ht="14.25">
       <c r="A45" s="12" t="s">
         <v>46</v>
       </c>
@@ -4065,7 +4058,7 @@
       </c>
       <c r="H45" s="23"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="105" t="s">
         <v>29</v>
       </c>
@@ -4134,520 +4127,520 @@
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="5.6640625" style="43" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" style="44" customWidth="1"/>
-    <col min="4" max="4" width="7.21875" style="44" customWidth="1"/>
-    <col min="5" max="18" width="5.6640625" style="44" customWidth="1"/>
-    <col min="19" max="19" width="9.33203125" style="44" customWidth="1"/>
-    <col min="20" max="20" width="2.6640625" style="44" customWidth="1"/>
-    <col min="21" max="21" width="20.88671875" style="44" customWidth="1"/>
-    <col min="22" max="22" width="5.6640625" style="44" customWidth="1"/>
+    <col min="1" max="2" width="5.625" style="43" customWidth="1"/>
+    <col min="3" max="3" width="5.625" style="44" customWidth="1"/>
+    <col min="4" max="4" width="7.25" style="44" customWidth="1"/>
+    <col min="5" max="18" width="5.625" style="44" customWidth="1"/>
+    <col min="19" max="19" width="9.375" style="44" customWidth="1"/>
+    <col min="20" max="20" width="2.625" style="44" customWidth="1"/>
+    <col min="21" max="21" width="20.875" style="44" customWidth="1"/>
+    <col min="22" max="22" width="5.625" style="44" customWidth="1"/>
     <col min="23" max="256" width="9" style="44"/>
-    <col min="257" max="259" width="5.6640625" style="44" customWidth="1"/>
-    <col min="260" max="260" width="7.21875" style="44" customWidth="1"/>
-    <col min="261" max="274" width="5.6640625" style="44" customWidth="1"/>
-    <col min="275" max="275" width="9.33203125" style="44" customWidth="1"/>
-    <col min="276" max="276" width="2.6640625" style="44" customWidth="1"/>
-    <col min="277" max="277" width="20.88671875" style="44" customWidth="1"/>
-    <col min="278" max="278" width="5.6640625" style="44" customWidth="1"/>
+    <col min="257" max="259" width="5.625" style="44" customWidth="1"/>
+    <col min="260" max="260" width="7.25" style="44" customWidth="1"/>
+    <col min="261" max="274" width="5.625" style="44" customWidth="1"/>
+    <col min="275" max="275" width="9.375" style="44" customWidth="1"/>
+    <col min="276" max="276" width="2.625" style="44" customWidth="1"/>
+    <col min="277" max="277" width="20.875" style="44" customWidth="1"/>
+    <col min="278" max="278" width="5.625" style="44" customWidth="1"/>
     <col min="279" max="512" width="9" style="44"/>
-    <col min="513" max="515" width="5.6640625" style="44" customWidth="1"/>
-    <col min="516" max="516" width="7.21875" style="44" customWidth="1"/>
-    <col min="517" max="530" width="5.6640625" style="44" customWidth="1"/>
-    <col min="531" max="531" width="9.33203125" style="44" customWidth="1"/>
-    <col min="532" max="532" width="2.6640625" style="44" customWidth="1"/>
-    <col min="533" max="533" width="20.88671875" style="44" customWidth="1"/>
-    <col min="534" max="534" width="5.6640625" style="44" customWidth="1"/>
+    <col min="513" max="515" width="5.625" style="44" customWidth="1"/>
+    <col min="516" max="516" width="7.25" style="44" customWidth="1"/>
+    <col min="517" max="530" width="5.625" style="44" customWidth="1"/>
+    <col min="531" max="531" width="9.375" style="44" customWidth="1"/>
+    <col min="532" max="532" width="2.625" style="44" customWidth="1"/>
+    <col min="533" max="533" width="20.875" style="44" customWidth="1"/>
+    <col min="534" max="534" width="5.625" style="44" customWidth="1"/>
     <col min="535" max="768" width="9" style="44"/>
-    <col min="769" max="771" width="5.6640625" style="44" customWidth="1"/>
-    <col min="772" max="772" width="7.21875" style="44" customWidth="1"/>
-    <col min="773" max="786" width="5.6640625" style="44" customWidth="1"/>
-    <col min="787" max="787" width="9.33203125" style="44" customWidth="1"/>
-    <col min="788" max="788" width="2.6640625" style="44" customWidth="1"/>
-    <col min="789" max="789" width="20.88671875" style="44" customWidth="1"/>
-    <col min="790" max="790" width="5.6640625" style="44" customWidth="1"/>
+    <col min="769" max="771" width="5.625" style="44" customWidth="1"/>
+    <col min="772" max="772" width="7.25" style="44" customWidth="1"/>
+    <col min="773" max="786" width="5.625" style="44" customWidth="1"/>
+    <col min="787" max="787" width="9.375" style="44" customWidth="1"/>
+    <col min="788" max="788" width="2.625" style="44" customWidth="1"/>
+    <col min="789" max="789" width="20.875" style="44" customWidth="1"/>
+    <col min="790" max="790" width="5.625" style="44" customWidth="1"/>
     <col min="791" max="1024" width="9" style="44"/>
-    <col min="1025" max="1027" width="5.6640625" style="44" customWidth="1"/>
-    <col min="1028" max="1028" width="7.21875" style="44" customWidth="1"/>
-    <col min="1029" max="1042" width="5.6640625" style="44" customWidth="1"/>
-    <col min="1043" max="1043" width="9.33203125" style="44" customWidth="1"/>
-    <col min="1044" max="1044" width="2.6640625" style="44" customWidth="1"/>
-    <col min="1045" max="1045" width="20.88671875" style="44" customWidth="1"/>
-    <col min="1046" max="1046" width="5.6640625" style="44" customWidth="1"/>
+    <col min="1025" max="1027" width="5.625" style="44" customWidth="1"/>
+    <col min="1028" max="1028" width="7.25" style="44" customWidth="1"/>
+    <col min="1029" max="1042" width="5.625" style="44" customWidth="1"/>
+    <col min="1043" max="1043" width="9.375" style="44" customWidth="1"/>
+    <col min="1044" max="1044" width="2.625" style="44" customWidth="1"/>
+    <col min="1045" max="1045" width="20.875" style="44" customWidth="1"/>
+    <col min="1046" max="1046" width="5.625" style="44" customWidth="1"/>
     <col min="1047" max="1280" width="9" style="44"/>
-    <col min="1281" max="1283" width="5.6640625" style="44" customWidth="1"/>
-    <col min="1284" max="1284" width="7.21875" style="44" customWidth="1"/>
-    <col min="1285" max="1298" width="5.6640625" style="44" customWidth="1"/>
-    <col min="1299" max="1299" width="9.33203125" style="44" customWidth="1"/>
-    <col min="1300" max="1300" width="2.6640625" style="44" customWidth="1"/>
-    <col min="1301" max="1301" width="20.88671875" style="44" customWidth="1"/>
-    <col min="1302" max="1302" width="5.6640625" style="44" customWidth="1"/>
+    <col min="1281" max="1283" width="5.625" style="44" customWidth="1"/>
+    <col min="1284" max="1284" width="7.25" style="44" customWidth="1"/>
+    <col min="1285" max="1298" width="5.625" style="44" customWidth="1"/>
+    <col min="1299" max="1299" width="9.375" style="44" customWidth="1"/>
+    <col min="1300" max="1300" width="2.625" style="44" customWidth="1"/>
+    <col min="1301" max="1301" width="20.875" style="44" customWidth="1"/>
+    <col min="1302" max="1302" width="5.625" style="44" customWidth="1"/>
     <col min="1303" max="1536" width="9" style="44"/>
-    <col min="1537" max="1539" width="5.6640625" style="44" customWidth="1"/>
-    <col min="1540" max="1540" width="7.21875" style="44" customWidth="1"/>
-    <col min="1541" max="1554" width="5.6640625" style="44" customWidth="1"/>
-    <col min="1555" max="1555" width="9.33203125" style="44" customWidth="1"/>
-    <col min="1556" max="1556" width="2.6640625" style="44" customWidth="1"/>
-    <col min="1557" max="1557" width="20.88671875" style="44" customWidth="1"/>
-    <col min="1558" max="1558" width="5.6640625" style="44" customWidth="1"/>
+    <col min="1537" max="1539" width="5.625" style="44" customWidth="1"/>
+    <col min="1540" max="1540" width="7.25" style="44" customWidth="1"/>
+    <col min="1541" max="1554" width="5.625" style="44" customWidth="1"/>
+    <col min="1555" max="1555" width="9.375" style="44" customWidth="1"/>
+    <col min="1556" max="1556" width="2.625" style="44" customWidth="1"/>
+    <col min="1557" max="1557" width="20.875" style="44" customWidth="1"/>
+    <col min="1558" max="1558" width="5.625" style="44" customWidth="1"/>
     <col min="1559" max="1792" width="9" style="44"/>
-    <col min="1793" max="1795" width="5.6640625" style="44" customWidth="1"/>
-    <col min="1796" max="1796" width="7.21875" style="44" customWidth="1"/>
-    <col min="1797" max="1810" width="5.6640625" style="44" customWidth="1"/>
-    <col min="1811" max="1811" width="9.33203125" style="44" customWidth="1"/>
-    <col min="1812" max="1812" width="2.6640625" style="44" customWidth="1"/>
-    <col min="1813" max="1813" width="20.88671875" style="44" customWidth="1"/>
-    <col min="1814" max="1814" width="5.6640625" style="44" customWidth="1"/>
+    <col min="1793" max="1795" width="5.625" style="44" customWidth="1"/>
+    <col min="1796" max="1796" width="7.25" style="44" customWidth="1"/>
+    <col min="1797" max="1810" width="5.625" style="44" customWidth="1"/>
+    <col min="1811" max="1811" width="9.375" style="44" customWidth="1"/>
+    <col min="1812" max="1812" width="2.625" style="44" customWidth="1"/>
+    <col min="1813" max="1813" width="20.875" style="44" customWidth="1"/>
+    <col min="1814" max="1814" width="5.625" style="44" customWidth="1"/>
     <col min="1815" max="2048" width="9" style="44"/>
-    <col min="2049" max="2051" width="5.6640625" style="44" customWidth="1"/>
-    <col min="2052" max="2052" width="7.21875" style="44" customWidth="1"/>
-    <col min="2053" max="2066" width="5.6640625" style="44" customWidth="1"/>
-    <col min="2067" max="2067" width="9.33203125" style="44" customWidth="1"/>
-    <col min="2068" max="2068" width="2.6640625" style="44" customWidth="1"/>
-    <col min="2069" max="2069" width="20.88671875" style="44" customWidth="1"/>
-    <col min="2070" max="2070" width="5.6640625" style="44" customWidth="1"/>
+    <col min="2049" max="2051" width="5.625" style="44" customWidth="1"/>
+    <col min="2052" max="2052" width="7.25" style="44" customWidth="1"/>
+    <col min="2053" max="2066" width="5.625" style="44" customWidth="1"/>
+    <col min="2067" max="2067" width="9.375" style="44" customWidth="1"/>
+    <col min="2068" max="2068" width="2.625" style="44" customWidth="1"/>
+    <col min="2069" max="2069" width="20.875" style="44" customWidth="1"/>
+    <col min="2070" max="2070" width="5.625" style="44" customWidth="1"/>
     <col min="2071" max="2304" width="9" style="44"/>
-    <col min="2305" max="2307" width="5.6640625" style="44" customWidth="1"/>
-    <col min="2308" max="2308" width="7.21875" style="44" customWidth="1"/>
-    <col min="2309" max="2322" width="5.6640625" style="44" customWidth="1"/>
-    <col min="2323" max="2323" width="9.33203125" style="44" customWidth="1"/>
-    <col min="2324" max="2324" width="2.6640625" style="44" customWidth="1"/>
-    <col min="2325" max="2325" width="20.88671875" style="44" customWidth="1"/>
-    <col min="2326" max="2326" width="5.6640625" style="44" customWidth="1"/>
+    <col min="2305" max="2307" width="5.625" style="44" customWidth="1"/>
+    <col min="2308" max="2308" width="7.25" style="44" customWidth="1"/>
+    <col min="2309" max="2322" width="5.625" style="44" customWidth="1"/>
+    <col min="2323" max="2323" width="9.375" style="44" customWidth="1"/>
+    <col min="2324" max="2324" width="2.625" style="44" customWidth="1"/>
+    <col min="2325" max="2325" width="20.875" style="44" customWidth="1"/>
+    <col min="2326" max="2326" width="5.625" style="44" customWidth="1"/>
     <col min="2327" max="2560" width="9" style="44"/>
-    <col min="2561" max="2563" width="5.6640625" style="44" customWidth="1"/>
-    <col min="2564" max="2564" width="7.21875" style="44" customWidth="1"/>
-    <col min="2565" max="2578" width="5.6640625" style="44" customWidth="1"/>
-    <col min="2579" max="2579" width="9.33203125" style="44" customWidth="1"/>
-    <col min="2580" max="2580" width="2.6640625" style="44" customWidth="1"/>
-    <col min="2581" max="2581" width="20.88671875" style="44" customWidth="1"/>
-    <col min="2582" max="2582" width="5.6640625" style="44" customWidth="1"/>
+    <col min="2561" max="2563" width="5.625" style="44" customWidth="1"/>
+    <col min="2564" max="2564" width="7.25" style="44" customWidth="1"/>
+    <col min="2565" max="2578" width="5.625" style="44" customWidth="1"/>
+    <col min="2579" max="2579" width="9.375" style="44" customWidth="1"/>
+    <col min="2580" max="2580" width="2.625" style="44" customWidth="1"/>
+    <col min="2581" max="2581" width="20.875" style="44" customWidth="1"/>
+    <col min="2582" max="2582" width="5.625" style="44" customWidth="1"/>
     <col min="2583" max="2816" width="9" style="44"/>
-    <col min="2817" max="2819" width="5.6640625" style="44" customWidth="1"/>
-    <col min="2820" max="2820" width="7.21875" style="44" customWidth="1"/>
-    <col min="2821" max="2834" width="5.6640625" style="44" customWidth="1"/>
-    <col min="2835" max="2835" width="9.33203125" style="44" customWidth="1"/>
-    <col min="2836" max="2836" width="2.6640625" style="44" customWidth="1"/>
-    <col min="2837" max="2837" width="20.88671875" style="44" customWidth="1"/>
-    <col min="2838" max="2838" width="5.6640625" style="44" customWidth="1"/>
+    <col min="2817" max="2819" width="5.625" style="44" customWidth="1"/>
+    <col min="2820" max="2820" width="7.25" style="44" customWidth="1"/>
+    <col min="2821" max="2834" width="5.625" style="44" customWidth="1"/>
+    <col min="2835" max="2835" width="9.375" style="44" customWidth="1"/>
+    <col min="2836" max="2836" width="2.625" style="44" customWidth="1"/>
+    <col min="2837" max="2837" width="20.875" style="44" customWidth="1"/>
+    <col min="2838" max="2838" width="5.625" style="44" customWidth="1"/>
     <col min="2839" max="3072" width="9" style="44"/>
-    <col min="3073" max="3075" width="5.6640625" style="44" customWidth="1"/>
-    <col min="3076" max="3076" width="7.21875" style="44" customWidth="1"/>
-    <col min="3077" max="3090" width="5.6640625" style="44" customWidth="1"/>
-    <col min="3091" max="3091" width="9.33203125" style="44" customWidth="1"/>
-    <col min="3092" max="3092" width="2.6640625" style="44" customWidth="1"/>
-    <col min="3093" max="3093" width="20.88671875" style="44" customWidth="1"/>
-    <col min="3094" max="3094" width="5.6640625" style="44" customWidth="1"/>
+    <col min="3073" max="3075" width="5.625" style="44" customWidth="1"/>
+    <col min="3076" max="3076" width="7.25" style="44" customWidth="1"/>
+    <col min="3077" max="3090" width="5.625" style="44" customWidth="1"/>
+    <col min="3091" max="3091" width="9.375" style="44" customWidth="1"/>
+    <col min="3092" max="3092" width="2.625" style="44" customWidth="1"/>
+    <col min="3093" max="3093" width="20.875" style="44" customWidth="1"/>
+    <col min="3094" max="3094" width="5.625" style="44" customWidth="1"/>
     <col min="3095" max="3328" width="9" style="44"/>
-    <col min="3329" max="3331" width="5.6640625" style="44" customWidth="1"/>
-    <col min="3332" max="3332" width="7.21875" style="44" customWidth="1"/>
-    <col min="3333" max="3346" width="5.6640625" style="44" customWidth="1"/>
-    <col min="3347" max="3347" width="9.33203125" style="44" customWidth="1"/>
-    <col min="3348" max="3348" width="2.6640625" style="44" customWidth="1"/>
-    <col min="3349" max="3349" width="20.88671875" style="44" customWidth="1"/>
-    <col min="3350" max="3350" width="5.6640625" style="44" customWidth="1"/>
+    <col min="3329" max="3331" width="5.625" style="44" customWidth="1"/>
+    <col min="3332" max="3332" width="7.25" style="44" customWidth="1"/>
+    <col min="3333" max="3346" width="5.625" style="44" customWidth="1"/>
+    <col min="3347" max="3347" width="9.375" style="44" customWidth="1"/>
+    <col min="3348" max="3348" width="2.625" style="44" customWidth="1"/>
+    <col min="3349" max="3349" width="20.875" style="44" customWidth="1"/>
+    <col min="3350" max="3350" width="5.625" style="44" customWidth="1"/>
     <col min="3351" max="3584" width="9" style="44"/>
-    <col min="3585" max="3587" width="5.6640625" style="44" customWidth="1"/>
-    <col min="3588" max="3588" width="7.21875" style="44" customWidth="1"/>
-    <col min="3589" max="3602" width="5.6640625" style="44" customWidth="1"/>
-    <col min="3603" max="3603" width="9.33203125" style="44" customWidth="1"/>
-    <col min="3604" max="3604" width="2.6640625" style="44" customWidth="1"/>
-    <col min="3605" max="3605" width="20.88671875" style="44" customWidth="1"/>
-    <col min="3606" max="3606" width="5.6640625" style="44" customWidth="1"/>
+    <col min="3585" max="3587" width="5.625" style="44" customWidth="1"/>
+    <col min="3588" max="3588" width="7.25" style="44" customWidth="1"/>
+    <col min="3589" max="3602" width="5.625" style="44" customWidth="1"/>
+    <col min="3603" max="3603" width="9.375" style="44" customWidth="1"/>
+    <col min="3604" max="3604" width="2.625" style="44" customWidth="1"/>
+    <col min="3605" max="3605" width="20.875" style="44" customWidth="1"/>
+    <col min="3606" max="3606" width="5.625" style="44" customWidth="1"/>
     <col min="3607" max="3840" width="9" style="44"/>
-    <col min="3841" max="3843" width="5.6640625" style="44" customWidth="1"/>
-    <col min="3844" max="3844" width="7.21875" style="44" customWidth="1"/>
-    <col min="3845" max="3858" width="5.6640625" style="44" customWidth="1"/>
-    <col min="3859" max="3859" width="9.33203125" style="44" customWidth="1"/>
-    <col min="3860" max="3860" width="2.6640625" style="44" customWidth="1"/>
-    <col min="3861" max="3861" width="20.88671875" style="44" customWidth="1"/>
-    <col min="3862" max="3862" width="5.6640625" style="44" customWidth="1"/>
+    <col min="3841" max="3843" width="5.625" style="44" customWidth="1"/>
+    <col min="3844" max="3844" width="7.25" style="44" customWidth="1"/>
+    <col min="3845" max="3858" width="5.625" style="44" customWidth="1"/>
+    <col min="3859" max="3859" width="9.375" style="44" customWidth="1"/>
+    <col min="3860" max="3860" width="2.625" style="44" customWidth="1"/>
+    <col min="3861" max="3861" width="20.875" style="44" customWidth="1"/>
+    <col min="3862" max="3862" width="5.625" style="44" customWidth="1"/>
     <col min="3863" max="4096" width="9" style="44"/>
-    <col min="4097" max="4099" width="5.6640625" style="44" customWidth="1"/>
-    <col min="4100" max="4100" width="7.21875" style="44" customWidth="1"/>
-    <col min="4101" max="4114" width="5.6640625" style="44" customWidth="1"/>
-    <col min="4115" max="4115" width="9.33203125" style="44" customWidth="1"/>
-    <col min="4116" max="4116" width="2.6640625" style="44" customWidth="1"/>
-    <col min="4117" max="4117" width="20.88671875" style="44" customWidth="1"/>
-    <col min="4118" max="4118" width="5.6640625" style="44" customWidth="1"/>
+    <col min="4097" max="4099" width="5.625" style="44" customWidth="1"/>
+    <col min="4100" max="4100" width="7.25" style="44" customWidth="1"/>
+    <col min="4101" max="4114" width="5.625" style="44" customWidth="1"/>
+    <col min="4115" max="4115" width="9.375" style="44" customWidth="1"/>
+    <col min="4116" max="4116" width="2.625" style="44" customWidth="1"/>
+    <col min="4117" max="4117" width="20.875" style="44" customWidth="1"/>
+    <col min="4118" max="4118" width="5.625" style="44" customWidth="1"/>
     <col min="4119" max="4352" width="9" style="44"/>
-    <col min="4353" max="4355" width="5.6640625" style="44" customWidth="1"/>
-    <col min="4356" max="4356" width="7.21875" style="44" customWidth="1"/>
-    <col min="4357" max="4370" width="5.6640625" style="44" customWidth="1"/>
-    <col min="4371" max="4371" width="9.33203125" style="44" customWidth="1"/>
-    <col min="4372" max="4372" width="2.6640625" style="44" customWidth="1"/>
-    <col min="4373" max="4373" width="20.88671875" style="44" customWidth="1"/>
-    <col min="4374" max="4374" width="5.6640625" style="44" customWidth="1"/>
+    <col min="4353" max="4355" width="5.625" style="44" customWidth="1"/>
+    <col min="4356" max="4356" width="7.25" style="44" customWidth="1"/>
+    <col min="4357" max="4370" width="5.625" style="44" customWidth="1"/>
+    <col min="4371" max="4371" width="9.375" style="44" customWidth="1"/>
+    <col min="4372" max="4372" width="2.625" style="44" customWidth="1"/>
+    <col min="4373" max="4373" width="20.875" style="44" customWidth="1"/>
+    <col min="4374" max="4374" width="5.625" style="44" customWidth="1"/>
     <col min="4375" max="4608" width="9" style="44"/>
-    <col min="4609" max="4611" width="5.6640625" style="44" customWidth="1"/>
-    <col min="4612" max="4612" width="7.21875" style="44" customWidth="1"/>
-    <col min="4613" max="4626" width="5.6640625" style="44" customWidth="1"/>
-    <col min="4627" max="4627" width="9.33203125" style="44" customWidth="1"/>
-    <col min="4628" max="4628" width="2.6640625" style="44" customWidth="1"/>
-    <col min="4629" max="4629" width="20.88671875" style="44" customWidth="1"/>
-    <col min="4630" max="4630" width="5.6640625" style="44" customWidth="1"/>
+    <col min="4609" max="4611" width="5.625" style="44" customWidth="1"/>
+    <col min="4612" max="4612" width="7.25" style="44" customWidth="1"/>
+    <col min="4613" max="4626" width="5.625" style="44" customWidth="1"/>
+    <col min="4627" max="4627" width="9.375" style="44" customWidth="1"/>
+    <col min="4628" max="4628" width="2.625" style="44" customWidth="1"/>
+    <col min="4629" max="4629" width="20.875" style="44" customWidth="1"/>
+    <col min="4630" max="4630" width="5.625" style="44" customWidth="1"/>
     <col min="4631" max="4864" width="9" style="44"/>
-    <col min="4865" max="4867" width="5.6640625" style="44" customWidth="1"/>
-    <col min="4868" max="4868" width="7.21875" style="44" customWidth="1"/>
-    <col min="4869" max="4882" width="5.6640625" style="44" customWidth="1"/>
-    <col min="4883" max="4883" width="9.33203125" style="44" customWidth="1"/>
-    <col min="4884" max="4884" width="2.6640625" style="44" customWidth="1"/>
-    <col min="4885" max="4885" width="20.88671875" style="44" customWidth="1"/>
-    <col min="4886" max="4886" width="5.6640625" style="44" customWidth="1"/>
+    <col min="4865" max="4867" width="5.625" style="44" customWidth="1"/>
+    <col min="4868" max="4868" width="7.25" style="44" customWidth="1"/>
+    <col min="4869" max="4882" width="5.625" style="44" customWidth="1"/>
+    <col min="4883" max="4883" width="9.375" style="44" customWidth="1"/>
+    <col min="4884" max="4884" width="2.625" style="44" customWidth="1"/>
+    <col min="4885" max="4885" width="20.875" style="44" customWidth="1"/>
+    <col min="4886" max="4886" width="5.625" style="44" customWidth="1"/>
     <col min="4887" max="5120" width="9" style="44"/>
-    <col min="5121" max="5123" width="5.6640625" style="44" customWidth="1"/>
-    <col min="5124" max="5124" width="7.21875" style="44" customWidth="1"/>
-    <col min="5125" max="5138" width="5.6640625" style="44" customWidth="1"/>
-    <col min="5139" max="5139" width="9.33203125" style="44" customWidth="1"/>
-    <col min="5140" max="5140" width="2.6640625" style="44" customWidth="1"/>
-    <col min="5141" max="5141" width="20.88671875" style="44" customWidth="1"/>
-    <col min="5142" max="5142" width="5.6640625" style="44" customWidth="1"/>
+    <col min="5121" max="5123" width="5.625" style="44" customWidth="1"/>
+    <col min="5124" max="5124" width="7.25" style="44" customWidth="1"/>
+    <col min="5125" max="5138" width="5.625" style="44" customWidth="1"/>
+    <col min="5139" max="5139" width="9.375" style="44" customWidth="1"/>
+    <col min="5140" max="5140" width="2.625" style="44" customWidth="1"/>
+    <col min="5141" max="5141" width="20.875" style="44" customWidth="1"/>
+    <col min="5142" max="5142" width="5.625" style="44" customWidth="1"/>
     <col min="5143" max="5376" width="9" style="44"/>
-    <col min="5377" max="5379" width="5.6640625" style="44" customWidth="1"/>
-    <col min="5380" max="5380" width="7.21875" style="44" customWidth="1"/>
-    <col min="5381" max="5394" width="5.6640625" style="44" customWidth="1"/>
-    <col min="5395" max="5395" width="9.33203125" style="44" customWidth="1"/>
-    <col min="5396" max="5396" width="2.6640625" style="44" customWidth="1"/>
-    <col min="5397" max="5397" width="20.88671875" style="44" customWidth="1"/>
-    <col min="5398" max="5398" width="5.6640625" style="44" customWidth="1"/>
+    <col min="5377" max="5379" width="5.625" style="44" customWidth="1"/>
+    <col min="5380" max="5380" width="7.25" style="44" customWidth="1"/>
+    <col min="5381" max="5394" width="5.625" style="44" customWidth="1"/>
+    <col min="5395" max="5395" width="9.375" style="44" customWidth="1"/>
+    <col min="5396" max="5396" width="2.625" style="44" customWidth="1"/>
+    <col min="5397" max="5397" width="20.875" style="44" customWidth="1"/>
+    <col min="5398" max="5398" width="5.625" style="44" customWidth="1"/>
     <col min="5399" max="5632" width="9" style="44"/>
-    <col min="5633" max="5635" width="5.6640625" style="44" customWidth="1"/>
-    <col min="5636" max="5636" width="7.21875" style="44" customWidth="1"/>
-    <col min="5637" max="5650" width="5.6640625" style="44" customWidth="1"/>
-    <col min="5651" max="5651" width="9.33203125" style="44" customWidth="1"/>
-    <col min="5652" max="5652" width="2.6640625" style="44" customWidth="1"/>
-    <col min="5653" max="5653" width="20.88671875" style="44" customWidth="1"/>
-    <col min="5654" max="5654" width="5.6640625" style="44" customWidth="1"/>
+    <col min="5633" max="5635" width="5.625" style="44" customWidth="1"/>
+    <col min="5636" max="5636" width="7.25" style="44" customWidth="1"/>
+    <col min="5637" max="5650" width="5.625" style="44" customWidth="1"/>
+    <col min="5651" max="5651" width="9.375" style="44" customWidth="1"/>
+    <col min="5652" max="5652" width="2.625" style="44" customWidth="1"/>
+    <col min="5653" max="5653" width="20.875" style="44" customWidth="1"/>
+    <col min="5654" max="5654" width="5.625" style="44" customWidth="1"/>
     <col min="5655" max="5888" width="9" style="44"/>
-    <col min="5889" max="5891" width="5.6640625" style="44" customWidth="1"/>
-    <col min="5892" max="5892" width="7.21875" style="44" customWidth="1"/>
-    <col min="5893" max="5906" width="5.6640625" style="44" customWidth="1"/>
-    <col min="5907" max="5907" width="9.33203125" style="44" customWidth="1"/>
-    <col min="5908" max="5908" width="2.6640625" style="44" customWidth="1"/>
-    <col min="5909" max="5909" width="20.88671875" style="44" customWidth="1"/>
-    <col min="5910" max="5910" width="5.6640625" style="44" customWidth="1"/>
+    <col min="5889" max="5891" width="5.625" style="44" customWidth="1"/>
+    <col min="5892" max="5892" width="7.25" style="44" customWidth="1"/>
+    <col min="5893" max="5906" width="5.625" style="44" customWidth="1"/>
+    <col min="5907" max="5907" width="9.375" style="44" customWidth="1"/>
+    <col min="5908" max="5908" width="2.625" style="44" customWidth="1"/>
+    <col min="5909" max="5909" width="20.875" style="44" customWidth="1"/>
+    <col min="5910" max="5910" width="5.625" style="44" customWidth="1"/>
     <col min="5911" max="6144" width="9" style="44"/>
-    <col min="6145" max="6147" width="5.6640625" style="44" customWidth="1"/>
-    <col min="6148" max="6148" width="7.21875" style="44" customWidth="1"/>
-    <col min="6149" max="6162" width="5.6640625" style="44" customWidth="1"/>
-    <col min="6163" max="6163" width="9.33203125" style="44" customWidth="1"/>
-    <col min="6164" max="6164" width="2.6640625" style="44" customWidth="1"/>
-    <col min="6165" max="6165" width="20.88671875" style="44" customWidth="1"/>
-    <col min="6166" max="6166" width="5.6640625" style="44" customWidth="1"/>
+    <col min="6145" max="6147" width="5.625" style="44" customWidth="1"/>
+    <col min="6148" max="6148" width="7.25" style="44" customWidth="1"/>
+    <col min="6149" max="6162" width="5.625" style="44" customWidth="1"/>
+    <col min="6163" max="6163" width="9.375" style="44" customWidth="1"/>
+    <col min="6164" max="6164" width="2.625" style="44" customWidth="1"/>
+    <col min="6165" max="6165" width="20.875" style="44" customWidth="1"/>
+    <col min="6166" max="6166" width="5.625" style="44" customWidth="1"/>
     <col min="6167" max="6400" width="9" style="44"/>
-    <col min="6401" max="6403" width="5.6640625" style="44" customWidth="1"/>
-    <col min="6404" max="6404" width="7.21875" style="44" customWidth="1"/>
-    <col min="6405" max="6418" width="5.6640625" style="44" customWidth="1"/>
-    <col min="6419" max="6419" width="9.33203125" style="44" customWidth="1"/>
-    <col min="6420" max="6420" width="2.6640625" style="44" customWidth="1"/>
-    <col min="6421" max="6421" width="20.88671875" style="44" customWidth="1"/>
-    <col min="6422" max="6422" width="5.6640625" style="44" customWidth="1"/>
+    <col min="6401" max="6403" width="5.625" style="44" customWidth="1"/>
+    <col min="6404" max="6404" width="7.25" style="44" customWidth="1"/>
+    <col min="6405" max="6418" width="5.625" style="44" customWidth="1"/>
+    <col min="6419" max="6419" width="9.375" style="44" customWidth="1"/>
+    <col min="6420" max="6420" width="2.625" style="44" customWidth="1"/>
+    <col min="6421" max="6421" width="20.875" style="44" customWidth="1"/>
+    <col min="6422" max="6422" width="5.625" style="44" customWidth="1"/>
     <col min="6423" max="6656" width="9" style="44"/>
-    <col min="6657" max="6659" width="5.6640625" style="44" customWidth="1"/>
-    <col min="6660" max="6660" width="7.21875" style="44" customWidth="1"/>
-    <col min="6661" max="6674" width="5.6640625" style="44" customWidth="1"/>
-    <col min="6675" max="6675" width="9.33203125" style="44" customWidth="1"/>
-    <col min="6676" max="6676" width="2.6640625" style="44" customWidth="1"/>
-    <col min="6677" max="6677" width="20.88671875" style="44" customWidth="1"/>
-    <col min="6678" max="6678" width="5.6640625" style="44" customWidth="1"/>
+    <col min="6657" max="6659" width="5.625" style="44" customWidth="1"/>
+    <col min="6660" max="6660" width="7.25" style="44" customWidth="1"/>
+    <col min="6661" max="6674" width="5.625" style="44" customWidth="1"/>
+    <col min="6675" max="6675" width="9.375" style="44" customWidth="1"/>
+    <col min="6676" max="6676" width="2.625" style="44" customWidth="1"/>
+    <col min="6677" max="6677" width="20.875" style="44" customWidth="1"/>
+    <col min="6678" max="6678" width="5.625" style="44" customWidth="1"/>
     <col min="6679" max="6912" width="9" style="44"/>
-    <col min="6913" max="6915" width="5.6640625" style="44" customWidth="1"/>
-    <col min="6916" max="6916" width="7.21875" style="44" customWidth="1"/>
-    <col min="6917" max="6930" width="5.6640625" style="44" customWidth="1"/>
-    <col min="6931" max="6931" width="9.33203125" style="44" customWidth="1"/>
-    <col min="6932" max="6932" width="2.6640625" style="44" customWidth="1"/>
-    <col min="6933" max="6933" width="20.88671875" style="44" customWidth="1"/>
-    <col min="6934" max="6934" width="5.6640625" style="44" customWidth="1"/>
+    <col min="6913" max="6915" width="5.625" style="44" customWidth="1"/>
+    <col min="6916" max="6916" width="7.25" style="44" customWidth="1"/>
+    <col min="6917" max="6930" width="5.625" style="44" customWidth="1"/>
+    <col min="6931" max="6931" width="9.375" style="44" customWidth="1"/>
+    <col min="6932" max="6932" width="2.625" style="44" customWidth="1"/>
+    <col min="6933" max="6933" width="20.875" style="44" customWidth="1"/>
+    <col min="6934" max="6934" width="5.625" style="44" customWidth="1"/>
     <col min="6935" max="7168" width="9" style="44"/>
-    <col min="7169" max="7171" width="5.6640625" style="44" customWidth="1"/>
-    <col min="7172" max="7172" width="7.21875" style="44" customWidth="1"/>
-    <col min="7173" max="7186" width="5.6640625" style="44" customWidth="1"/>
-    <col min="7187" max="7187" width="9.33203125" style="44" customWidth="1"/>
-    <col min="7188" max="7188" width="2.6640625" style="44" customWidth="1"/>
-    <col min="7189" max="7189" width="20.88671875" style="44" customWidth="1"/>
-    <col min="7190" max="7190" width="5.6640625" style="44" customWidth="1"/>
+    <col min="7169" max="7171" width="5.625" style="44" customWidth="1"/>
+    <col min="7172" max="7172" width="7.25" style="44" customWidth="1"/>
+    <col min="7173" max="7186" width="5.625" style="44" customWidth="1"/>
+    <col min="7187" max="7187" width="9.375" style="44" customWidth="1"/>
+    <col min="7188" max="7188" width="2.625" style="44" customWidth="1"/>
+    <col min="7189" max="7189" width="20.875" style="44" customWidth="1"/>
+    <col min="7190" max="7190" width="5.625" style="44" customWidth="1"/>
     <col min="7191" max="7424" width="9" style="44"/>
-    <col min="7425" max="7427" width="5.6640625" style="44" customWidth="1"/>
-    <col min="7428" max="7428" width="7.21875" style="44" customWidth="1"/>
-    <col min="7429" max="7442" width="5.6640625" style="44" customWidth="1"/>
-    <col min="7443" max="7443" width="9.33203125" style="44" customWidth="1"/>
-    <col min="7444" max="7444" width="2.6640625" style="44" customWidth="1"/>
-    <col min="7445" max="7445" width="20.88671875" style="44" customWidth="1"/>
-    <col min="7446" max="7446" width="5.6640625" style="44" customWidth="1"/>
+    <col min="7425" max="7427" width="5.625" style="44" customWidth="1"/>
+    <col min="7428" max="7428" width="7.25" style="44" customWidth="1"/>
+    <col min="7429" max="7442" width="5.625" style="44" customWidth="1"/>
+    <col min="7443" max="7443" width="9.375" style="44" customWidth="1"/>
+    <col min="7444" max="7444" width="2.625" style="44" customWidth="1"/>
+    <col min="7445" max="7445" width="20.875" style="44" customWidth="1"/>
+    <col min="7446" max="7446" width="5.625" style="44" customWidth="1"/>
     <col min="7447" max="7680" width="9" style="44"/>
-    <col min="7681" max="7683" width="5.6640625" style="44" customWidth="1"/>
-    <col min="7684" max="7684" width="7.21875" style="44" customWidth="1"/>
-    <col min="7685" max="7698" width="5.6640625" style="44" customWidth="1"/>
-    <col min="7699" max="7699" width="9.33203125" style="44" customWidth="1"/>
-    <col min="7700" max="7700" width="2.6640625" style="44" customWidth="1"/>
-    <col min="7701" max="7701" width="20.88671875" style="44" customWidth="1"/>
-    <col min="7702" max="7702" width="5.6640625" style="44" customWidth="1"/>
+    <col min="7681" max="7683" width="5.625" style="44" customWidth="1"/>
+    <col min="7684" max="7684" width="7.25" style="44" customWidth="1"/>
+    <col min="7685" max="7698" width="5.625" style="44" customWidth="1"/>
+    <col min="7699" max="7699" width="9.375" style="44" customWidth="1"/>
+    <col min="7700" max="7700" width="2.625" style="44" customWidth="1"/>
+    <col min="7701" max="7701" width="20.875" style="44" customWidth="1"/>
+    <col min="7702" max="7702" width="5.625" style="44" customWidth="1"/>
     <col min="7703" max="7936" width="9" style="44"/>
-    <col min="7937" max="7939" width="5.6640625" style="44" customWidth="1"/>
-    <col min="7940" max="7940" width="7.21875" style="44" customWidth="1"/>
-    <col min="7941" max="7954" width="5.6640625" style="44" customWidth="1"/>
-    <col min="7955" max="7955" width="9.33203125" style="44" customWidth="1"/>
-    <col min="7956" max="7956" width="2.6640625" style="44" customWidth="1"/>
-    <col min="7957" max="7957" width="20.88671875" style="44" customWidth="1"/>
-    <col min="7958" max="7958" width="5.6640625" style="44" customWidth="1"/>
+    <col min="7937" max="7939" width="5.625" style="44" customWidth="1"/>
+    <col min="7940" max="7940" width="7.25" style="44" customWidth="1"/>
+    <col min="7941" max="7954" width="5.625" style="44" customWidth="1"/>
+    <col min="7955" max="7955" width="9.375" style="44" customWidth="1"/>
+    <col min="7956" max="7956" width="2.625" style="44" customWidth="1"/>
+    <col min="7957" max="7957" width="20.875" style="44" customWidth="1"/>
+    <col min="7958" max="7958" width="5.625" style="44" customWidth="1"/>
     <col min="7959" max="8192" width="9" style="44"/>
-    <col min="8193" max="8195" width="5.6640625" style="44" customWidth="1"/>
-    <col min="8196" max="8196" width="7.21875" style="44" customWidth="1"/>
-    <col min="8197" max="8210" width="5.6640625" style="44" customWidth="1"/>
-    <col min="8211" max="8211" width="9.33203125" style="44" customWidth="1"/>
-    <col min="8212" max="8212" width="2.6640625" style="44" customWidth="1"/>
-    <col min="8213" max="8213" width="20.88671875" style="44" customWidth="1"/>
-    <col min="8214" max="8214" width="5.6640625" style="44" customWidth="1"/>
+    <col min="8193" max="8195" width="5.625" style="44" customWidth="1"/>
+    <col min="8196" max="8196" width="7.25" style="44" customWidth="1"/>
+    <col min="8197" max="8210" width="5.625" style="44" customWidth="1"/>
+    <col min="8211" max="8211" width="9.375" style="44" customWidth="1"/>
+    <col min="8212" max="8212" width="2.625" style="44" customWidth="1"/>
+    <col min="8213" max="8213" width="20.875" style="44" customWidth="1"/>
+    <col min="8214" max="8214" width="5.625" style="44" customWidth="1"/>
     <col min="8215" max="8448" width="9" style="44"/>
-    <col min="8449" max="8451" width="5.6640625" style="44" customWidth="1"/>
-    <col min="8452" max="8452" width="7.21875" style="44" customWidth="1"/>
-    <col min="8453" max="8466" width="5.6640625" style="44" customWidth="1"/>
-    <col min="8467" max="8467" width="9.33203125" style="44" customWidth="1"/>
-    <col min="8468" max="8468" width="2.6640625" style="44" customWidth="1"/>
-    <col min="8469" max="8469" width="20.88671875" style="44" customWidth="1"/>
-    <col min="8470" max="8470" width="5.6640625" style="44" customWidth="1"/>
+    <col min="8449" max="8451" width="5.625" style="44" customWidth="1"/>
+    <col min="8452" max="8452" width="7.25" style="44" customWidth="1"/>
+    <col min="8453" max="8466" width="5.625" style="44" customWidth="1"/>
+    <col min="8467" max="8467" width="9.375" style="44" customWidth="1"/>
+    <col min="8468" max="8468" width="2.625" style="44" customWidth="1"/>
+    <col min="8469" max="8469" width="20.875" style="44" customWidth="1"/>
+    <col min="8470" max="8470" width="5.625" style="44" customWidth="1"/>
     <col min="8471" max="8704" width="9" style="44"/>
-    <col min="8705" max="8707" width="5.6640625" style="44" customWidth="1"/>
-    <col min="8708" max="8708" width="7.21875" style="44" customWidth="1"/>
-    <col min="8709" max="8722" width="5.6640625" style="44" customWidth="1"/>
-    <col min="8723" max="8723" width="9.33203125" style="44" customWidth="1"/>
-    <col min="8724" max="8724" width="2.6640625" style="44" customWidth="1"/>
-    <col min="8725" max="8725" width="20.88671875" style="44" customWidth="1"/>
-    <col min="8726" max="8726" width="5.6640625" style="44" customWidth="1"/>
+    <col min="8705" max="8707" width="5.625" style="44" customWidth="1"/>
+    <col min="8708" max="8708" width="7.25" style="44" customWidth="1"/>
+    <col min="8709" max="8722" width="5.625" style="44" customWidth="1"/>
+    <col min="8723" max="8723" width="9.375" style="44" customWidth="1"/>
+    <col min="8724" max="8724" width="2.625" style="44" customWidth="1"/>
+    <col min="8725" max="8725" width="20.875" style="44" customWidth="1"/>
+    <col min="8726" max="8726" width="5.625" style="44" customWidth="1"/>
     <col min="8727" max="8960" width="9" style="44"/>
-    <col min="8961" max="8963" width="5.6640625" style="44" customWidth="1"/>
-    <col min="8964" max="8964" width="7.21875" style="44" customWidth="1"/>
-    <col min="8965" max="8978" width="5.6640625" style="44" customWidth="1"/>
-    <col min="8979" max="8979" width="9.33203125" style="44" customWidth="1"/>
-    <col min="8980" max="8980" width="2.6640625" style="44" customWidth="1"/>
-    <col min="8981" max="8981" width="20.88671875" style="44" customWidth="1"/>
-    <col min="8982" max="8982" width="5.6640625" style="44" customWidth="1"/>
+    <col min="8961" max="8963" width="5.625" style="44" customWidth="1"/>
+    <col min="8964" max="8964" width="7.25" style="44" customWidth="1"/>
+    <col min="8965" max="8978" width="5.625" style="44" customWidth="1"/>
+    <col min="8979" max="8979" width="9.375" style="44" customWidth="1"/>
+    <col min="8980" max="8980" width="2.625" style="44" customWidth="1"/>
+    <col min="8981" max="8981" width="20.875" style="44" customWidth="1"/>
+    <col min="8982" max="8982" width="5.625" style="44" customWidth="1"/>
     <col min="8983" max="9216" width="9" style="44"/>
-    <col min="9217" max="9219" width="5.6640625" style="44" customWidth="1"/>
-    <col min="9220" max="9220" width="7.21875" style="44" customWidth="1"/>
-    <col min="9221" max="9234" width="5.6640625" style="44" customWidth="1"/>
-    <col min="9235" max="9235" width="9.33203125" style="44" customWidth="1"/>
-    <col min="9236" max="9236" width="2.6640625" style="44" customWidth="1"/>
-    <col min="9237" max="9237" width="20.88671875" style="44" customWidth="1"/>
-    <col min="9238" max="9238" width="5.6640625" style="44" customWidth="1"/>
+    <col min="9217" max="9219" width="5.625" style="44" customWidth="1"/>
+    <col min="9220" max="9220" width="7.25" style="44" customWidth="1"/>
+    <col min="9221" max="9234" width="5.625" style="44" customWidth="1"/>
+    <col min="9235" max="9235" width="9.375" style="44" customWidth="1"/>
+    <col min="9236" max="9236" width="2.625" style="44" customWidth="1"/>
+    <col min="9237" max="9237" width="20.875" style="44" customWidth="1"/>
+    <col min="9238" max="9238" width="5.625" style="44" customWidth="1"/>
     <col min="9239" max="9472" width="9" style="44"/>
-    <col min="9473" max="9475" width="5.6640625" style="44" customWidth="1"/>
-    <col min="9476" max="9476" width="7.21875" style="44" customWidth="1"/>
-    <col min="9477" max="9490" width="5.6640625" style="44" customWidth="1"/>
-    <col min="9491" max="9491" width="9.33203125" style="44" customWidth="1"/>
-    <col min="9492" max="9492" width="2.6640625" style="44" customWidth="1"/>
-    <col min="9493" max="9493" width="20.88671875" style="44" customWidth="1"/>
-    <col min="9494" max="9494" width="5.6640625" style="44" customWidth="1"/>
+    <col min="9473" max="9475" width="5.625" style="44" customWidth="1"/>
+    <col min="9476" max="9476" width="7.25" style="44" customWidth="1"/>
+    <col min="9477" max="9490" width="5.625" style="44" customWidth="1"/>
+    <col min="9491" max="9491" width="9.375" style="44" customWidth="1"/>
+    <col min="9492" max="9492" width="2.625" style="44" customWidth="1"/>
+    <col min="9493" max="9493" width="20.875" style="44" customWidth="1"/>
+    <col min="9494" max="9494" width="5.625" style="44" customWidth="1"/>
     <col min="9495" max="9728" width="9" style="44"/>
-    <col min="9729" max="9731" width="5.6640625" style="44" customWidth="1"/>
-    <col min="9732" max="9732" width="7.21875" style="44" customWidth="1"/>
-    <col min="9733" max="9746" width="5.6640625" style="44" customWidth="1"/>
-    <col min="9747" max="9747" width="9.33203125" style="44" customWidth="1"/>
-    <col min="9748" max="9748" width="2.6640625" style="44" customWidth="1"/>
-    <col min="9749" max="9749" width="20.88671875" style="44" customWidth="1"/>
-    <col min="9750" max="9750" width="5.6640625" style="44" customWidth="1"/>
+    <col min="9729" max="9731" width="5.625" style="44" customWidth="1"/>
+    <col min="9732" max="9732" width="7.25" style="44" customWidth="1"/>
+    <col min="9733" max="9746" width="5.625" style="44" customWidth="1"/>
+    <col min="9747" max="9747" width="9.375" style="44" customWidth="1"/>
+    <col min="9748" max="9748" width="2.625" style="44" customWidth="1"/>
+    <col min="9749" max="9749" width="20.875" style="44" customWidth="1"/>
+    <col min="9750" max="9750" width="5.625" style="44" customWidth="1"/>
     <col min="9751" max="9984" width="9" style="44"/>
-    <col min="9985" max="9987" width="5.6640625" style="44" customWidth="1"/>
-    <col min="9988" max="9988" width="7.21875" style="44" customWidth="1"/>
-    <col min="9989" max="10002" width="5.6640625" style="44" customWidth="1"/>
-    <col min="10003" max="10003" width="9.33203125" style="44" customWidth="1"/>
-    <col min="10004" max="10004" width="2.6640625" style="44" customWidth="1"/>
-    <col min="10005" max="10005" width="20.88671875" style="44" customWidth="1"/>
-    <col min="10006" max="10006" width="5.6640625" style="44" customWidth="1"/>
+    <col min="9985" max="9987" width="5.625" style="44" customWidth="1"/>
+    <col min="9988" max="9988" width="7.25" style="44" customWidth="1"/>
+    <col min="9989" max="10002" width="5.625" style="44" customWidth="1"/>
+    <col min="10003" max="10003" width="9.375" style="44" customWidth="1"/>
+    <col min="10004" max="10004" width="2.625" style="44" customWidth="1"/>
+    <col min="10005" max="10005" width="20.875" style="44" customWidth="1"/>
+    <col min="10006" max="10006" width="5.625" style="44" customWidth="1"/>
     <col min="10007" max="10240" width="9" style="44"/>
-    <col min="10241" max="10243" width="5.6640625" style="44" customWidth="1"/>
-    <col min="10244" max="10244" width="7.21875" style="44" customWidth="1"/>
-    <col min="10245" max="10258" width="5.6640625" style="44" customWidth="1"/>
-    <col min="10259" max="10259" width="9.33203125" style="44" customWidth="1"/>
-    <col min="10260" max="10260" width="2.6640625" style="44" customWidth="1"/>
-    <col min="10261" max="10261" width="20.88671875" style="44" customWidth="1"/>
-    <col min="10262" max="10262" width="5.6640625" style="44" customWidth="1"/>
+    <col min="10241" max="10243" width="5.625" style="44" customWidth="1"/>
+    <col min="10244" max="10244" width="7.25" style="44" customWidth="1"/>
+    <col min="10245" max="10258" width="5.625" style="44" customWidth="1"/>
+    <col min="10259" max="10259" width="9.375" style="44" customWidth="1"/>
+    <col min="10260" max="10260" width="2.625" style="44" customWidth="1"/>
+    <col min="10261" max="10261" width="20.875" style="44" customWidth="1"/>
+    <col min="10262" max="10262" width="5.625" style="44" customWidth="1"/>
     <col min="10263" max="10496" width="9" style="44"/>
-    <col min="10497" max="10499" width="5.6640625" style="44" customWidth="1"/>
-    <col min="10500" max="10500" width="7.21875" style="44" customWidth="1"/>
-    <col min="10501" max="10514" width="5.6640625" style="44" customWidth="1"/>
-    <col min="10515" max="10515" width="9.33203125" style="44" customWidth="1"/>
-    <col min="10516" max="10516" width="2.6640625" style="44" customWidth="1"/>
-    <col min="10517" max="10517" width="20.88671875" style="44" customWidth="1"/>
-    <col min="10518" max="10518" width="5.6640625" style="44" customWidth="1"/>
+    <col min="10497" max="10499" width="5.625" style="44" customWidth="1"/>
+    <col min="10500" max="10500" width="7.25" style="44" customWidth="1"/>
+    <col min="10501" max="10514" width="5.625" style="44" customWidth="1"/>
+    <col min="10515" max="10515" width="9.375" style="44" customWidth="1"/>
+    <col min="10516" max="10516" width="2.625" style="44" customWidth="1"/>
+    <col min="10517" max="10517" width="20.875" style="44" customWidth="1"/>
+    <col min="10518" max="10518" width="5.625" style="44" customWidth="1"/>
     <col min="10519" max="10752" width="9" style="44"/>
-    <col min="10753" max="10755" width="5.6640625" style="44" customWidth="1"/>
-    <col min="10756" max="10756" width="7.21875" style="44" customWidth="1"/>
-    <col min="10757" max="10770" width="5.6640625" style="44" customWidth="1"/>
-    <col min="10771" max="10771" width="9.33203125" style="44" customWidth="1"/>
-    <col min="10772" max="10772" width="2.6640625" style="44" customWidth="1"/>
-    <col min="10773" max="10773" width="20.88671875" style="44" customWidth="1"/>
-    <col min="10774" max="10774" width="5.6640625" style="44" customWidth="1"/>
+    <col min="10753" max="10755" width="5.625" style="44" customWidth="1"/>
+    <col min="10756" max="10756" width="7.25" style="44" customWidth="1"/>
+    <col min="10757" max="10770" width="5.625" style="44" customWidth="1"/>
+    <col min="10771" max="10771" width="9.375" style="44" customWidth="1"/>
+    <col min="10772" max="10772" width="2.625" style="44" customWidth="1"/>
+    <col min="10773" max="10773" width="20.875" style="44" customWidth="1"/>
+    <col min="10774" max="10774" width="5.625" style="44" customWidth="1"/>
     <col min="10775" max="11008" width="9" style="44"/>
-    <col min="11009" max="11011" width="5.6640625" style="44" customWidth="1"/>
-    <col min="11012" max="11012" width="7.21875" style="44" customWidth="1"/>
-    <col min="11013" max="11026" width="5.6640625" style="44" customWidth="1"/>
-    <col min="11027" max="11027" width="9.33203125" style="44" customWidth="1"/>
-    <col min="11028" max="11028" width="2.6640625" style="44" customWidth="1"/>
-    <col min="11029" max="11029" width="20.88671875" style="44" customWidth="1"/>
-    <col min="11030" max="11030" width="5.6640625" style="44" customWidth="1"/>
+    <col min="11009" max="11011" width="5.625" style="44" customWidth="1"/>
+    <col min="11012" max="11012" width="7.25" style="44" customWidth="1"/>
+    <col min="11013" max="11026" width="5.625" style="44" customWidth="1"/>
+    <col min="11027" max="11027" width="9.375" style="44" customWidth="1"/>
+    <col min="11028" max="11028" width="2.625" style="44" customWidth="1"/>
+    <col min="11029" max="11029" width="20.875" style="44" customWidth="1"/>
+    <col min="11030" max="11030" width="5.625" style="44" customWidth="1"/>
     <col min="11031" max="11264" width="9" style="44"/>
-    <col min="11265" max="11267" width="5.6640625" style="44" customWidth="1"/>
-    <col min="11268" max="11268" width="7.21875" style="44" customWidth="1"/>
-    <col min="11269" max="11282" width="5.6640625" style="44" customWidth="1"/>
-    <col min="11283" max="11283" width="9.33203125" style="44" customWidth="1"/>
-    <col min="11284" max="11284" width="2.6640625" style="44" customWidth="1"/>
-    <col min="11285" max="11285" width="20.88671875" style="44" customWidth="1"/>
-    <col min="11286" max="11286" width="5.6640625" style="44" customWidth="1"/>
+    <col min="11265" max="11267" width="5.625" style="44" customWidth="1"/>
+    <col min="11268" max="11268" width="7.25" style="44" customWidth="1"/>
+    <col min="11269" max="11282" width="5.625" style="44" customWidth="1"/>
+    <col min="11283" max="11283" width="9.375" style="44" customWidth="1"/>
+    <col min="11284" max="11284" width="2.625" style="44" customWidth="1"/>
+    <col min="11285" max="11285" width="20.875" style="44" customWidth="1"/>
+    <col min="11286" max="11286" width="5.625" style="44" customWidth="1"/>
     <col min="11287" max="11520" width="9" style="44"/>
-    <col min="11521" max="11523" width="5.6640625" style="44" customWidth="1"/>
-    <col min="11524" max="11524" width="7.21875" style="44" customWidth="1"/>
-    <col min="11525" max="11538" width="5.6640625" style="44" customWidth="1"/>
-    <col min="11539" max="11539" width="9.33203125" style="44" customWidth="1"/>
-    <col min="11540" max="11540" width="2.6640625" style="44" customWidth="1"/>
-    <col min="11541" max="11541" width="20.88671875" style="44" customWidth="1"/>
-    <col min="11542" max="11542" width="5.6640625" style="44" customWidth="1"/>
+    <col min="11521" max="11523" width="5.625" style="44" customWidth="1"/>
+    <col min="11524" max="11524" width="7.25" style="44" customWidth="1"/>
+    <col min="11525" max="11538" width="5.625" style="44" customWidth="1"/>
+    <col min="11539" max="11539" width="9.375" style="44" customWidth="1"/>
+    <col min="11540" max="11540" width="2.625" style="44" customWidth="1"/>
+    <col min="11541" max="11541" width="20.875" style="44" customWidth="1"/>
+    <col min="11542" max="11542" width="5.625" style="44" customWidth="1"/>
     <col min="11543" max="11776" width="9" style="44"/>
-    <col min="11777" max="11779" width="5.6640625" style="44" customWidth="1"/>
-    <col min="11780" max="11780" width="7.21875" style="44" customWidth="1"/>
-    <col min="11781" max="11794" width="5.6640625" style="44" customWidth="1"/>
-    <col min="11795" max="11795" width="9.33203125" style="44" customWidth="1"/>
-    <col min="11796" max="11796" width="2.6640625" style="44" customWidth="1"/>
-    <col min="11797" max="11797" width="20.88671875" style="44" customWidth="1"/>
-    <col min="11798" max="11798" width="5.6640625" style="44" customWidth="1"/>
+    <col min="11777" max="11779" width="5.625" style="44" customWidth="1"/>
+    <col min="11780" max="11780" width="7.25" style="44" customWidth="1"/>
+    <col min="11781" max="11794" width="5.625" style="44" customWidth="1"/>
+    <col min="11795" max="11795" width="9.375" style="44" customWidth="1"/>
+    <col min="11796" max="11796" width="2.625" style="44" customWidth="1"/>
+    <col min="11797" max="11797" width="20.875" style="44" customWidth="1"/>
+    <col min="11798" max="11798" width="5.625" style="44" customWidth="1"/>
     <col min="11799" max="12032" width="9" style="44"/>
-    <col min="12033" max="12035" width="5.6640625" style="44" customWidth="1"/>
-    <col min="12036" max="12036" width="7.21875" style="44" customWidth="1"/>
-    <col min="12037" max="12050" width="5.6640625" style="44" customWidth="1"/>
-    <col min="12051" max="12051" width="9.33203125" style="44" customWidth="1"/>
-    <col min="12052" max="12052" width="2.6640625" style="44" customWidth="1"/>
-    <col min="12053" max="12053" width="20.88671875" style="44" customWidth="1"/>
-    <col min="12054" max="12054" width="5.6640625" style="44" customWidth="1"/>
+    <col min="12033" max="12035" width="5.625" style="44" customWidth="1"/>
+    <col min="12036" max="12036" width="7.25" style="44" customWidth="1"/>
+    <col min="12037" max="12050" width="5.625" style="44" customWidth="1"/>
+    <col min="12051" max="12051" width="9.375" style="44" customWidth="1"/>
+    <col min="12052" max="12052" width="2.625" style="44" customWidth="1"/>
+    <col min="12053" max="12053" width="20.875" style="44" customWidth="1"/>
+    <col min="12054" max="12054" width="5.625" style="44" customWidth="1"/>
     <col min="12055" max="12288" width="9" style="44"/>
-    <col min="12289" max="12291" width="5.6640625" style="44" customWidth="1"/>
-    <col min="12292" max="12292" width="7.21875" style="44" customWidth="1"/>
-    <col min="12293" max="12306" width="5.6640625" style="44" customWidth="1"/>
-    <col min="12307" max="12307" width="9.33203125" style="44" customWidth="1"/>
-    <col min="12308" max="12308" width="2.6640625" style="44" customWidth="1"/>
-    <col min="12309" max="12309" width="20.88671875" style="44" customWidth="1"/>
-    <col min="12310" max="12310" width="5.6640625" style="44" customWidth="1"/>
+    <col min="12289" max="12291" width="5.625" style="44" customWidth="1"/>
+    <col min="12292" max="12292" width="7.25" style="44" customWidth="1"/>
+    <col min="12293" max="12306" width="5.625" style="44" customWidth="1"/>
+    <col min="12307" max="12307" width="9.375" style="44" customWidth="1"/>
+    <col min="12308" max="12308" width="2.625" style="44" customWidth="1"/>
+    <col min="12309" max="12309" width="20.875" style="44" customWidth="1"/>
+    <col min="12310" max="12310" width="5.625" style="44" customWidth="1"/>
     <col min="12311" max="12544" width="9" style="44"/>
-    <col min="12545" max="12547" width="5.6640625" style="44" customWidth="1"/>
-    <col min="12548" max="12548" width="7.21875" style="44" customWidth="1"/>
-    <col min="12549" max="12562" width="5.6640625" style="44" customWidth="1"/>
-    <col min="12563" max="12563" width="9.33203125" style="44" customWidth="1"/>
-    <col min="12564" max="12564" width="2.6640625" style="44" customWidth="1"/>
-    <col min="12565" max="12565" width="20.88671875" style="44" customWidth="1"/>
-    <col min="12566" max="12566" width="5.6640625" style="44" customWidth="1"/>
+    <col min="12545" max="12547" width="5.625" style="44" customWidth="1"/>
+    <col min="12548" max="12548" width="7.25" style="44" customWidth="1"/>
+    <col min="12549" max="12562" width="5.625" style="44" customWidth="1"/>
+    <col min="12563" max="12563" width="9.375" style="44" customWidth="1"/>
+    <col min="12564" max="12564" width="2.625" style="44" customWidth="1"/>
+    <col min="12565" max="12565" width="20.875" style="44" customWidth="1"/>
+    <col min="12566" max="12566" width="5.625" style="44" customWidth="1"/>
     <col min="12567" max="12800" width="9" style="44"/>
-    <col min="12801" max="12803" width="5.6640625" style="44" customWidth="1"/>
-    <col min="12804" max="12804" width="7.21875" style="44" customWidth="1"/>
-    <col min="12805" max="12818" width="5.6640625" style="44" customWidth="1"/>
-    <col min="12819" max="12819" width="9.33203125" style="44" customWidth="1"/>
-    <col min="12820" max="12820" width="2.6640625" style="44" customWidth="1"/>
-    <col min="12821" max="12821" width="20.88671875" style="44" customWidth="1"/>
-    <col min="12822" max="12822" width="5.6640625" style="44" customWidth="1"/>
+    <col min="12801" max="12803" width="5.625" style="44" customWidth="1"/>
+    <col min="12804" max="12804" width="7.25" style="44" customWidth="1"/>
+    <col min="12805" max="12818" width="5.625" style="44" customWidth="1"/>
+    <col min="12819" max="12819" width="9.375" style="44" customWidth="1"/>
+    <col min="12820" max="12820" width="2.625" style="44" customWidth="1"/>
+    <col min="12821" max="12821" width="20.875" style="44" customWidth="1"/>
+    <col min="12822" max="12822" width="5.625" style="44" customWidth="1"/>
     <col min="12823" max="13056" width="9" style="44"/>
-    <col min="13057" max="13059" width="5.6640625" style="44" customWidth="1"/>
-    <col min="13060" max="13060" width="7.21875" style="44" customWidth="1"/>
-    <col min="13061" max="13074" width="5.6640625" style="44" customWidth="1"/>
-    <col min="13075" max="13075" width="9.33203125" style="44" customWidth="1"/>
-    <col min="13076" max="13076" width="2.6640625" style="44" customWidth="1"/>
-    <col min="13077" max="13077" width="20.88671875" style="44" customWidth="1"/>
-    <col min="13078" max="13078" width="5.6640625" style="44" customWidth="1"/>
+    <col min="13057" max="13059" width="5.625" style="44" customWidth="1"/>
+    <col min="13060" max="13060" width="7.25" style="44" customWidth="1"/>
+    <col min="13061" max="13074" width="5.625" style="44" customWidth="1"/>
+    <col min="13075" max="13075" width="9.375" style="44" customWidth="1"/>
+    <col min="13076" max="13076" width="2.625" style="44" customWidth="1"/>
+    <col min="13077" max="13077" width="20.875" style="44" customWidth="1"/>
+    <col min="13078" max="13078" width="5.625" style="44" customWidth="1"/>
     <col min="13079" max="13312" width="9" style="44"/>
-    <col min="13313" max="13315" width="5.6640625" style="44" customWidth="1"/>
-    <col min="13316" max="13316" width="7.21875" style="44" customWidth="1"/>
-    <col min="13317" max="13330" width="5.6640625" style="44" customWidth="1"/>
-    <col min="13331" max="13331" width="9.33203125" style="44" customWidth="1"/>
-    <col min="13332" max="13332" width="2.6640625" style="44" customWidth="1"/>
-    <col min="13333" max="13333" width="20.88671875" style="44" customWidth="1"/>
-    <col min="13334" max="13334" width="5.6640625" style="44" customWidth="1"/>
+    <col min="13313" max="13315" width="5.625" style="44" customWidth="1"/>
+    <col min="13316" max="13316" width="7.25" style="44" customWidth="1"/>
+    <col min="13317" max="13330" width="5.625" style="44" customWidth="1"/>
+    <col min="13331" max="13331" width="9.375" style="44" customWidth="1"/>
+    <col min="13332" max="13332" width="2.625" style="44" customWidth="1"/>
+    <col min="13333" max="13333" width="20.875" style="44" customWidth="1"/>
+    <col min="13334" max="13334" width="5.625" style="44" customWidth="1"/>
     <col min="13335" max="13568" width="9" style="44"/>
-    <col min="13569" max="13571" width="5.6640625" style="44" customWidth="1"/>
-    <col min="13572" max="13572" width="7.21875" style="44" customWidth="1"/>
-    <col min="13573" max="13586" width="5.6640625" style="44" customWidth="1"/>
-    <col min="13587" max="13587" width="9.33203125" style="44" customWidth="1"/>
-    <col min="13588" max="13588" width="2.6640625" style="44" customWidth="1"/>
-    <col min="13589" max="13589" width="20.88671875" style="44" customWidth="1"/>
-    <col min="13590" max="13590" width="5.6640625" style="44" customWidth="1"/>
+    <col min="13569" max="13571" width="5.625" style="44" customWidth="1"/>
+    <col min="13572" max="13572" width="7.25" style="44" customWidth="1"/>
+    <col min="13573" max="13586" width="5.625" style="44" customWidth="1"/>
+    <col min="13587" max="13587" width="9.375" style="44" customWidth="1"/>
+    <col min="13588" max="13588" width="2.625" style="44" customWidth="1"/>
+    <col min="13589" max="13589" width="20.875" style="44" customWidth="1"/>
+    <col min="13590" max="13590" width="5.625" style="44" customWidth="1"/>
     <col min="13591" max="13824" width="9" style="44"/>
-    <col min="13825" max="13827" width="5.6640625" style="44" customWidth="1"/>
-    <col min="13828" max="13828" width="7.21875" style="44" customWidth="1"/>
-    <col min="13829" max="13842" width="5.6640625" style="44" customWidth="1"/>
-    <col min="13843" max="13843" width="9.33203125" style="44" customWidth="1"/>
-    <col min="13844" max="13844" width="2.6640625" style="44" customWidth="1"/>
-    <col min="13845" max="13845" width="20.88671875" style="44" customWidth="1"/>
-    <col min="13846" max="13846" width="5.6640625" style="44" customWidth="1"/>
+    <col min="13825" max="13827" width="5.625" style="44" customWidth="1"/>
+    <col min="13828" max="13828" width="7.25" style="44" customWidth="1"/>
+    <col min="13829" max="13842" width="5.625" style="44" customWidth="1"/>
+    <col min="13843" max="13843" width="9.375" style="44" customWidth="1"/>
+    <col min="13844" max="13844" width="2.625" style="44" customWidth="1"/>
+    <col min="13845" max="13845" width="20.875" style="44" customWidth="1"/>
+    <col min="13846" max="13846" width="5.625" style="44" customWidth="1"/>
     <col min="13847" max="14080" width="9" style="44"/>
-    <col min="14081" max="14083" width="5.6640625" style="44" customWidth="1"/>
-    <col min="14084" max="14084" width="7.21875" style="44" customWidth="1"/>
-    <col min="14085" max="14098" width="5.6640625" style="44" customWidth="1"/>
-    <col min="14099" max="14099" width="9.33203125" style="44" customWidth="1"/>
-    <col min="14100" max="14100" width="2.6640625" style="44" customWidth="1"/>
-    <col min="14101" max="14101" width="20.88671875" style="44" customWidth="1"/>
-    <col min="14102" max="14102" width="5.6640625" style="44" customWidth="1"/>
+    <col min="14081" max="14083" width="5.625" style="44" customWidth="1"/>
+    <col min="14084" max="14084" width="7.25" style="44" customWidth="1"/>
+    <col min="14085" max="14098" width="5.625" style="44" customWidth="1"/>
+    <col min="14099" max="14099" width="9.375" style="44" customWidth="1"/>
+    <col min="14100" max="14100" width="2.625" style="44" customWidth="1"/>
+    <col min="14101" max="14101" width="20.875" style="44" customWidth="1"/>
+    <col min="14102" max="14102" width="5.625" style="44" customWidth="1"/>
     <col min="14103" max="14336" width="9" style="44"/>
-    <col min="14337" max="14339" width="5.6640625" style="44" customWidth="1"/>
-    <col min="14340" max="14340" width="7.21875" style="44" customWidth="1"/>
-    <col min="14341" max="14354" width="5.6640625" style="44" customWidth="1"/>
-    <col min="14355" max="14355" width="9.33203125" style="44" customWidth="1"/>
-    <col min="14356" max="14356" width="2.6640625" style="44" customWidth="1"/>
-    <col min="14357" max="14357" width="20.88671875" style="44" customWidth="1"/>
-    <col min="14358" max="14358" width="5.6640625" style="44" customWidth="1"/>
+    <col min="14337" max="14339" width="5.625" style="44" customWidth="1"/>
+    <col min="14340" max="14340" width="7.25" style="44" customWidth="1"/>
+    <col min="14341" max="14354" width="5.625" style="44" customWidth="1"/>
+    <col min="14355" max="14355" width="9.375" style="44" customWidth="1"/>
+    <col min="14356" max="14356" width="2.625" style="44" customWidth="1"/>
+    <col min="14357" max="14357" width="20.875" style="44" customWidth="1"/>
+    <col min="14358" max="14358" width="5.625" style="44" customWidth="1"/>
     <col min="14359" max="14592" width="9" style="44"/>
-    <col min="14593" max="14595" width="5.6640625" style="44" customWidth="1"/>
-    <col min="14596" max="14596" width="7.21875" style="44" customWidth="1"/>
-    <col min="14597" max="14610" width="5.6640625" style="44" customWidth="1"/>
-    <col min="14611" max="14611" width="9.33203125" style="44" customWidth="1"/>
-    <col min="14612" max="14612" width="2.6640625" style="44" customWidth="1"/>
-    <col min="14613" max="14613" width="20.88671875" style="44" customWidth="1"/>
-    <col min="14614" max="14614" width="5.6640625" style="44" customWidth="1"/>
+    <col min="14593" max="14595" width="5.625" style="44" customWidth="1"/>
+    <col min="14596" max="14596" width="7.25" style="44" customWidth="1"/>
+    <col min="14597" max="14610" width="5.625" style="44" customWidth="1"/>
+    <col min="14611" max="14611" width="9.375" style="44" customWidth="1"/>
+    <col min="14612" max="14612" width="2.625" style="44" customWidth="1"/>
+    <col min="14613" max="14613" width="20.875" style="44" customWidth="1"/>
+    <col min="14614" max="14614" width="5.625" style="44" customWidth="1"/>
     <col min="14615" max="14848" width="9" style="44"/>
-    <col min="14849" max="14851" width="5.6640625" style="44" customWidth="1"/>
-    <col min="14852" max="14852" width="7.21875" style="44" customWidth="1"/>
-    <col min="14853" max="14866" width="5.6640625" style="44" customWidth="1"/>
-    <col min="14867" max="14867" width="9.33203125" style="44" customWidth="1"/>
-    <col min="14868" max="14868" width="2.6640625" style="44" customWidth="1"/>
-    <col min="14869" max="14869" width="20.88671875" style="44" customWidth="1"/>
-    <col min="14870" max="14870" width="5.6640625" style="44" customWidth="1"/>
+    <col min="14849" max="14851" width="5.625" style="44" customWidth="1"/>
+    <col min="14852" max="14852" width="7.25" style="44" customWidth="1"/>
+    <col min="14853" max="14866" width="5.625" style="44" customWidth="1"/>
+    <col min="14867" max="14867" width="9.375" style="44" customWidth="1"/>
+    <col min="14868" max="14868" width="2.625" style="44" customWidth="1"/>
+    <col min="14869" max="14869" width="20.875" style="44" customWidth="1"/>
+    <col min="14870" max="14870" width="5.625" style="44" customWidth="1"/>
     <col min="14871" max="15104" width="9" style="44"/>
-    <col min="15105" max="15107" width="5.6640625" style="44" customWidth="1"/>
-    <col min="15108" max="15108" width="7.21875" style="44" customWidth="1"/>
-    <col min="15109" max="15122" width="5.6640625" style="44" customWidth="1"/>
-    <col min="15123" max="15123" width="9.33203125" style="44" customWidth="1"/>
-    <col min="15124" max="15124" width="2.6640625" style="44" customWidth="1"/>
-    <col min="15125" max="15125" width="20.88671875" style="44" customWidth="1"/>
-    <col min="15126" max="15126" width="5.6640625" style="44" customWidth="1"/>
+    <col min="15105" max="15107" width="5.625" style="44" customWidth="1"/>
+    <col min="15108" max="15108" width="7.25" style="44" customWidth="1"/>
+    <col min="15109" max="15122" width="5.625" style="44" customWidth="1"/>
+    <col min="15123" max="15123" width="9.375" style="44" customWidth="1"/>
+    <col min="15124" max="15124" width="2.625" style="44" customWidth="1"/>
+    <col min="15125" max="15125" width="20.875" style="44" customWidth="1"/>
+    <col min="15126" max="15126" width="5.625" style="44" customWidth="1"/>
     <col min="15127" max="15360" width="9" style="44"/>
-    <col min="15361" max="15363" width="5.6640625" style="44" customWidth="1"/>
-    <col min="15364" max="15364" width="7.21875" style="44" customWidth="1"/>
-    <col min="15365" max="15378" width="5.6640625" style="44" customWidth="1"/>
-    <col min="15379" max="15379" width="9.33203125" style="44" customWidth="1"/>
-    <col min="15380" max="15380" width="2.6640625" style="44" customWidth="1"/>
-    <col min="15381" max="15381" width="20.88671875" style="44" customWidth="1"/>
-    <col min="15382" max="15382" width="5.6640625" style="44" customWidth="1"/>
+    <col min="15361" max="15363" width="5.625" style="44" customWidth="1"/>
+    <col min="15364" max="15364" width="7.25" style="44" customWidth="1"/>
+    <col min="15365" max="15378" width="5.625" style="44" customWidth="1"/>
+    <col min="15379" max="15379" width="9.375" style="44" customWidth="1"/>
+    <col min="15380" max="15380" width="2.625" style="44" customWidth="1"/>
+    <col min="15381" max="15381" width="20.875" style="44" customWidth="1"/>
+    <col min="15382" max="15382" width="5.625" style="44" customWidth="1"/>
     <col min="15383" max="15616" width="9" style="44"/>
-    <col min="15617" max="15619" width="5.6640625" style="44" customWidth="1"/>
-    <col min="15620" max="15620" width="7.21875" style="44" customWidth="1"/>
-    <col min="15621" max="15634" width="5.6640625" style="44" customWidth="1"/>
-    <col min="15635" max="15635" width="9.33203125" style="44" customWidth="1"/>
-    <col min="15636" max="15636" width="2.6640625" style="44" customWidth="1"/>
-    <col min="15637" max="15637" width="20.88671875" style="44" customWidth="1"/>
-    <col min="15638" max="15638" width="5.6640625" style="44" customWidth="1"/>
+    <col min="15617" max="15619" width="5.625" style="44" customWidth="1"/>
+    <col min="15620" max="15620" width="7.25" style="44" customWidth="1"/>
+    <col min="15621" max="15634" width="5.625" style="44" customWidth="1"/>
+    <col min="15635" max="15635" width="9.375" style="44" customWidth="1"/>
+    <col min="15636" max="15636" width="2.625" style="44" customWidth="1"/>
+    <col min="15637" max="15637" width="20.875" style="44" customWidth="1"/>
+    <col min="15638" max="15638" width="5.625" style="44" customWidth="1"/>
     <col min="15639" max="15872" width="9" style="44"/>
-    <col min="15873" max="15875" width="5.6640625" style="44" customWidth="1"/>
-    <col min="15876" max="15876" width="7.21875" style="44" customWidth="1"/>
-    <col min="15877" max="15890" width="5.6640625" style="44" customWidth="1"/>
-    <col min="15891" max="15891" width="9.33203125" style="44" customWidth="1"/>
-    <col min="15892" max="15892" width="2.6640625" style="44" customWidth="1"/>
-    <col min="15893" max="15893" width="20.88671875" style="44" customWidth="1"/>
-    <col min="15894" max="15894" width="5.6640625" style="44" customWidth="1"/>
+    <col min="15873" max="15875" width="5.625" style="44" customWidth="1"/>
+    <col min="15876" max="15876" width="7.25" style="44" customWidth="1"/>
+    <col min="15877" max="15890" width="5.625" style="44" customWidth="1"/>
+    <col min="15891" max="15891" width="9.375" style="44" customWidth="1"/>
+    <col min="15892" max="15892" width="2.625" style="44" customWidth="1"/>
+    <col min="15893" max="15893" width="20.875" style="44" customWidth="1"/>
+    <col min="15894" max="15894" width="5.625" style="44" customWidth="1"/>
     <col min="15895" max="16128" width="9" style="44"/>
-    <col min="16129" max="16131" width="5.6640625" style="44" customWidth="1"/>
-    <col min="16132" max="16132" width="7.21875" style="44" customWidth="1"/>
-    <col min="16133" max="16146" width="5.6640625" style="44" customWidth="1"/>
-    <col min="16147" max="16147" width="9.33203125" style="44" customWidth="1"/>
-    <col min="16148" max="16148" width="2.6640625" style="44" customWidth="1"/>
-    <col min="16149" max="16149" width="20.88671875" style="44" customWidth="1"/>
-    <col min="16150" max="16150" width="5.6640625" style="44" customWidth="1"/>
+    <col min="16129" max="16131" width="5.625" style="44" customWidth="1"/>
+    <col min="16132" max="16132" width="7.25" style="44" customWidth="1"/>
+    <col min="16133" max="16146" width="5.625" style="44" customWidth="1"/>
+    <col min="16147" max="16147" width="9.375" style="44" customWidth="1"/>
+    <col min="16148" max="16148" width="2.625" style="44" customWidth="1"/>
+    <col min="16149" max="16149" width="20.875" style="44" customWidth="1"/>
+    <col min="16150" max="16150" width="5.625" style="44" customWidth="1"/>
     <col min="16151" max="16384" width="9" style="44"/>
   </cols>
   <sheetData>
@@ -5189,15 +5182,15 @@
       <c r="R30" s="122"/>
       <c r="S30" s="123"/>
     </row>
-    <row r="31" spans="1:21" ht="21.9" customHeight="1"/>
-    <row r="32" spans="1:21" ht="21.9" customHeight="1"/>
-    <row r="33" ht="21.9" customHeight="1"/>
-    <row r="34" ht="21.9" customHeight="1"/>
-    <row r="35" ht="21.9" customHeight="1"/>
-    <row r="36" ht="21.9" customHeight="1"/>
-    <row r="37" ht="21.9" customHeight="1"/>
-    <row r="38" ht="21.9" customHeight="1"/>
-    <row r="39" ht="21.9" customHeight="1"/>
+    <row r="31" spans="1:21" ht="21.95" customHeight="1"/>
+    <row r="32" spans="1:21" ht="21.95" customHeight="1"/>
+    <row r="33" ht="21.95" customHeight="1"/>
+    <row r="34" ht="21.95" customHeight="1"/>
+    <row r="35" ht="21.95" customHeight="1"/>
+    <row r="36" ht="21.95" customHeight="1"/>
+    <row r="37" ht="21.95" customHeight="1"/>
+    <row r="38" ht="21.95" customHeight="1"/>
+    <row r="39" ht="21.95" customHeight="1"/>
     <row r="40" ht="20.100000000000001" customHeight="1"/>
     <row r="41" ht="20.100000000000001" customHeight="1"/>
     <row r="42" ht="20.100000000000001" customHeight="1"/>
@@ -5245,7 +5238,7 @@
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.51181102362204722" right="0.47244094488188981" top="0.51181102362204722" bottom="0.55118110236220474" header="0.39370078740157483" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="81" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="82" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -5264,776 +5257,776 @@
       <selection activeCell="F17" sqref="F17:N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="44" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="44" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="44" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="44" customWidth="1"/>
     <col min="3" max="4" width="6" style="44" customWidth="1"/>
-    <col min="5" max="6" width="8.44140625" style="44" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="44" customWidth="1"/>
-    <col min="8" max="9" width="7.77734375" style="44" customWidth="1"/>
-    <col min="10" max="11" width="7.6640625" style="44" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" style="44" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" style="44" customWidth="1"/>
-    <col min="14" max="17" width="5.109375" style="44" customWidth="1"/>
-    <col min="18" max="18" width="2.6640625" style="44" customWidth="1"/>
+    <col min="5" max="6" width="8.5" style="44" customWidth="1"/>
+    <col min="7" max="7" width="7.375" style="44" customWidth="1"/>
+    <col min="8" max="9" width="7.75" style="44" customWidth="1"/>
+    <col min="10" max="11" width="7.625" style="44" customWidth="1"/>
+    <col min="12" max="12" width="5.625" style="44" customWidth="1"/>
+    <col min="13" max="13" width="9.625" style="44" customWidth="1"/>
+    <col min="14" max="17" width="5.125" style="44" customWidth="1"/>
+    <col min="18" max="18" width="2.625" style="44" customWidth="1"/>
     <col min="19" max="19" width="3" style="44" customWidth="1"/>
     <col min="20" max="256" width="9" style="44"/>
-    <col min="257" max="257" width="3.44140625" style="44" customWidth="1"/>
-    <col min="258" max="258" width="5.6640625" style="44" customWidth="1"/>
+    <col min="257" max="257" width="3.5" style="44" customWidth="1"/>
+    <col min="258" max="258" width="5.625" style="44" customWidth="1"/>
     <col min="259" max="260" width="6" style="44" customWidth="1"/>
-    <col min="261" max="262" width="8.44140625" style="44" customWidth="1"/>
-    <col min="263" max="263" width="7.33203125" style="44" customWidth="1"/>
-    <col min="264" max="265" width="7.77734375" style="44" customWidth="1"/>
-    <col min="266" max="267" width="7.6640625" style="44" customWidth="1"/>
-    <col min="268" max="268" width="5.6640625" style="44" customWidth="1"/>
-    <col min="269" max="269" width="9.6640625" style="44" customWidth="1"/>
-    <col min="270" max="273" width="5.109375" style="44" customWidth="1"/>
-    <col min="274" max="274" width="2.6640625" style="44" customWidth="1"/>
+    <col min="261" max="262" width="8.5" style="44" customWidth="1"/>
+    <col min="263" max="263" width="7.375" style="44" customWidth="1"/>
+    <col min="264" max="265" width="7.75" style="44" customWidth="1"/>
+    <col min="266" max="267" width="7.625" style="44" customWidth="1"/>
+    <col min="268" max="268" width="5.625" style="44" customWidth="1"/>
+    <col min="269" max="269" width="9.625" style="44" customWidth="1"/>
+    <col min="270" max="273" width="5.125" style="44" customWidth="1"/>
+    <col min="274" max="274" width="2.625" style="44" customWidth="1"/>
     <col min="275" max="512" width="9" style="44"/>
-    <col min="513" max="513" width="3.44140625" style="44" customWidth="1"/>
-    <col min="514" max="514" width="5.6640625" style="44" customWidth="1"/>
+    <col min="513" max="513" width="3.5" style="44" customWidth="1"/>
+    <col min="514" max="514" width="5.625" style="44" customWidth="1"/>
     <col min="515" max="516" width="6" style="44" customWidth="1"/>
-    <col min="517" max="518" width="8.44140625" style="44" customWidth="1"/>
-    <col min="519" max="519" width="7.33203125" style="44" customWidth="1"/>
-    <col min="520" max="521" width="7.77734375" style="44" customWidth="1"/>
-    <col min="522" max="523" width="7.6640625" style="44" customWidth="1"/>
-    <col min="524" max="524" width="5.6640625" style="44" customWidth="1"/>
-    <col min="525" max="525" width="9.6640625" style="44" customWidth="1"/>
-    <col min="526" max="529" width="5.109375" style="44" customWidth="1"/>
-    <col min="530" max="530" width="2.6640625" style="44" customWidth="1"/>
+    <col min="517" max="518" width="8.5" style="44" customWidth="1"/>
+    <col min="519" max="519" width="7.375" style="44" customWidth="1"/>
+    <col min="520" max="521" width="7.75" style="44" customWidth="1"/>
+    <col min="522" max="523" width="7.625" style="44" customWidth="1"/>
+    <col min="524" max="524" width="5.625" style="44" customWidth="1"/>
+    <col min="525" max="525" width="9.625" style="44" customWidth="1"/>
+    <col min="526" max="529" width="5.125" style="44" customWidth="1"/>
+    <col min="530" max="530" width="2.625" style="44" customWidth="1"/>
     <col min="531" max="768" width="9" style="44"/>
-    <col min="769" max="769" width="3.44140625" style="44" customWidth="1"/>
-    <col min="770" max="770" width="5.6640625" style="44" customWidth="1"/>
+    <col min="769" max="769" width="3.5" style="44" customWidth="1"/>
+    <col min="770" max="770" width="5.625" style="44" customWidth="1"/>
     <col min="771" max="772" width="6" style="44" customWidth="1"/>
-    <col min="773" max="774" width="8.44140625" style="44" customWidth="1"/>
-    <col min="775" max="775" width="7.33203125" style="44" customWidth="1"/>
-    <col min="776" max="777" width="7.77734375" style="44" customWidth="1"/>
-    <col min="778" max="779" width="7.6640625" style="44" customWidth="1"/>
-    <col min="780" max="780" width="5.6640625" style="44" customWidth="1"/>
-    <col min="781" max="781" width="9.6640625" style="44" customWidth="1"/>
-    <col min="782" max="785" width="5.109375" style="44" customWidth="1"/>
-    <col min="786" max="786" width="2.6640625" style="44" customWidth="1"/>
+    <col min="773" max="774" width="8.5" style="44" customWidth="1"/>
+    <col min="775" max="775" width="7.375" style="44" customWidth="1"/>
+    <col min="776" max="777" width="7.75" style="44" customWidth="1"/>
+    <col min="778" max="779" width="7.625" style="44" customWidth="1"/>
+    <col min="780" max="780" width="5.625" style="44" customWidth="1"/>
+    <col min="781" max="781" width="9.625" style="44" customWidth="1"/>
+    <col min="782" max="785" width="5.125" style="44" customWidth="1"/>
+    <col min="786" max="786" width="2.625" style="44" customWidth="1"/>
     <col min="787" max="1024" width="9" style="44"/>
-    <col min="1025" max="1025" width="3.44140625" style="44" customWidth="1"/>
-    <col min="1026" max="1026" width="5.6640625" style="44" customWidth="1"/>
+    <col min="1025" max="1025" width="3.5" style="44" customWidth="1"/>
+    <col min="1026" max="1026" width="5.625" style="44" customWidth="1"/>
     <col min="1027" max="1028" width="6" style="44" customWidth="1"/>
-    <col min="1029" max="1030" width="8.44140625" style="44" customWidth="1"/>
-    <col min="1031" max="1031" width="7.33203125" style="44" customWidth="1"/>
-    <col min="1032" max="1033" width="7.77734375" style="44" customWidth="1"/>
-    <col min="1034" max="1035" width="7.6640625" style="44" customWidth="1"/>
-    <col min="1036" max="1036" width="5.6640625" style="44" customWidth="1"/>
-    <col min="1037" max="1037" width="9.6640625" style="44" customWidth="1"/>
-    <col min="1038" max="1041" width="5.109375" style="44" customWidth="1"/>
-    <col min="1042" max="1042" width="2.6640625" style="44" customWidth="1"/>
+    <col min="1029" max="1030" width="8.5" style="44" customWidth="1"/>
+    <col min="1031" max="1031" width="7.375" style="44" customWidth="1"/>
+    <col min="1032" max="1033" width="7.75" style="44" customWidth="1"/>
+    <col min="1034" max="1035" width="7.625" style="44" customWidth="1"/>
+    <col min="1036" max="1036" width="5.625" style="44" customWidth="1"/>
+    <col min="1037" max="1037" width="9.625" style="44" customWidth="1"/>
+    <col min="1038" max="1041" width="5.125" style="44" customWidth="1"/>
+    <col min="1042" max="1042" width="2.625" style="44" customWidth="1"/>
     <col min="1043" max="1280" width="9" style="44"/>
-    <col min="1281" max="1281" width="3.44140625" style="44" customWidth="1"/>
-    <col min="1282" max="1282" width="5.6640625" style="44" customWidth="1"/>
+    <col min="1281" max="1281" width="3.5" style="44" customWidth="1"/>
+    <col min="1282" max="1282" width="5.625" style="44" customWidth="1"/>
     <col min="1283" max="1284" width="6" style="44" customWidth="1"/>
-    <col min="1285" max="1286" width="8.44140625" style="44" customWidth="1"/>
-    <col min="1287" max="1287" width="7.33203125" style="44" customWidth="1"/>
-    <col min="1288" max="1289" width="7.77734375" style="44" customWidth="1"/>
-    <col min="1290" max="1291" width="7.6640625" style="44" customWidth="1"/>
-    <col min="1292" max="1292" width="5.6640625" style="44" customWidth="1"/>
-    <col min="1293" max="1293" width="9.6640625" style="44" customWidth="1"/>
-    <col min="1294" max="1297" width="5.109375" style="44" customWidth="1"/>
-    <col min="1298" max="1298" width="2.6640625" style="44" customWidth="1"/>
+    <col min="1285" max="1286" width="8.5" style="44" customWidth="1"/>
+    <col min="1287" max="1287" width="7.375" style="44" customWidth="1"/>
+    <col min="1288" max="1289" width="7.75" style="44" customWidth="1"/>
+    <col min="1290" max="1291" width="7.625" style="44" customWidth="1"/>
+    <col min="1292" max="1292" width="5.625" style="44" customWidth="1"/>
+    <col min="1293" max="1293" width="9.625" style="44" customWidth="1"/>
+    <col min="1294" max="1297" width="5.125" style="44" customWidth="1"/>
+    <col min="1298" max="1298" width="2.625" style="44" customWidth="1"/>
     <col min="1299" max="1536" width="9" style="44"/>
-    <col min="1537" max="1537" width="3.44140625" style="44" customWidth="1"/>
-    <col min="1538" max="1538" width="5.6640625" style="44" customWidth="1"/>
+    <col min="1537" max="1537" width="3.5" style="44" customWidth="1"/>
+    <col min="1538" max="1538" width="5.625" style="44" customWidth="1"/>
     <col min="1539" max="1540" width="6" style="44" customWidth="1"/>
-    <col min="1541" max="1542" width="8.44140625" style="44" customWidth="1"/>
-    <col min="1543" max="1543" width="7.33203125" style="44" customWidth="1"/>
-    <col min="1544" max="1545" width="7.77734375" style="44" customWidth="1"/>
-    <col min="1546" max="1547" width="7.6640625" style="44" customWidth="1"/>
-    <col min="1548" max="1548" width="5.6640625" style="44" customWidth="1"/>
-    <col min="1549" max="1549" width="9.6640625" style="44" customWidth="1"/>
-    <col min="1550" max="1553" width="5.109375" style="44" customWidth="1"/>
-    <col min="1554" max="1554" width="2.6640625" style="44" customWidth="1"/>
+    <col min="1541" max="1542" width="8.5" style="44" customWidth="1"/>
+    <col min="1543" max="1543" width="7.375" style="44" customWidth="1"/>
+    <col min="1544" max="1545" width="7.75" style="44" customWidth="1"/>
+    <col min="1546" max="1547" width="7.625" style="44" customWidth="1"/>
+    <col min="1548" max="1548" width="5.625" style="44" customWidth="1"/>
+    <col min="1549" max="1549" width="9.625" style="44" customWidth="1"/>
+    <col min="1550" max="1553" width="5.125" style="44" customWidth="1"/>
+    <col min="1554" max="1554" width="2.625" style="44" customWidth="1"/>
     <col min="1555" max="1792" width="9" style="44"/>
-    <col min="1793" max="1793" width="3.44140625" style="44" customWidth="1"/>
-    <col min="1794" max="1794" width="5.6640625" style="44" customWidth="1"/>
+    <col min="1793" max="1793" width="3.5" style="44" customWidth="1"/>
+    <col min="1794" max="1794" width="5.625" style="44" customWidth="1"/>
     <col min="1795" max="1796" width="6" style="44" customWidth="1"/>
-    <col min="1797" max="1798" width="8.44140625" style="44" customWidth="1"/>
-    <col min="1799" max="1799" width="7.33203125" style="44" customWidth="1"/>
-    <col min="1800" max="1801" width="7.77734375" style="44" customWidth="1"/>
-    <col min="1802" max="1803" width="7.6640625" style="44" customWidth="1"/>
-    <col min="1804" max="1804" width="5.6640625" style="44" customWidth="1"/>
-    <col min="1805" max="1805" width="9.6640625" style="44" customWidth="1"/>
-    <col min="1806" max="1809" width="5.109375" style="44" customWidth="1"/>
-    <col min="1810" max="1810" width="2.6640625" style="44" customWidth="1"/>
+    <col min="1797" max="1798" width="8.5" style="44" customWidth="1"/>
+    <col min="1799" max="1799" width="7.375" style="44" customWidth="1"/>
+    <col min="1800" max="1801" width="7.75" style="44" customWidth="1"/>
+    <col min="1802" max="1803" width="7.625" style="44" customWidth="1"/>
+    <col min="1804" max="1804" width="5.625" style="44" customWidth="1"/>
+    <col min="1805" max="1805" width="9.625" style="44" customWidth="1"/>
+    <col min="1806" max="1809" width="5.125" style="44" customWidth="1"/>
+    <col min="1810" max="1810" width="2.625" style="44" customWidth="1"/>
     <col min="1811" max="2048" width="9" style="44"/>
-    <col min="2049" max="2049" width="3.44140625" style="44" customWidth="1"/>
-    <col min="2050" max="2050" width="5.6640625" style="44" customWidth="1"/>
+    <col min="2049" max="2049" width="3.5" style="44" customWidth="1"/>
+    <col min="2050" max="2050" width="5.625" style="44" customWidth="1"/>
     <col min="2051" max="2052" width="6" style="44" customWidth="1"/>
-    <col min="2053" max="2054" width="8.44140625" style="44" customWidth="1"/>
-    <col min="2055" max="2055" width="7.33203125" style="44" customWidth="1"/>
-    <col min="2056" max="2057" width="7.77734375" style="44" customWidth="1"/>
-    <col min="2058" max="2059" width="7.6640625" style="44" customWidth="1"/>
-    <col min="2060" max="2060" width="5.6640625" style="44" customWidth="1"/>
-    <col min="2061" max="2061" width="9.6640625" style="44" customWidth="1"/>
-    <col min="2062" max="2065" width="5.109375" style="44" customWidth="1"/>
-    <col min="2066" max="2066" width="2.6640625" style="44" customWidth="1"/>
+    <col min="2053" max="2054" width="8.5" style="44" customWidth="1"/>
+    <col min="2055" max="2055" width="7.375" style="44" customWidth="1"/>
+    <col min="2056" max="2057" width="7.75" style="44" customWidth="1"/>
+    <col min="2058" max="2059" width="7.625" style="44" customWidth="1"/>
+    <col min="2060" max="2060" width="5.625" style="44" customWidth="1"/>
+    <col min="2061" max="2061" width="9.625" style="44" customWidth="1"/>
+    <col min="2062" max="2065" width="5.125" style="44" customWidth="1"/>
+    <col min="2066" max="2066" width="2.625" style="44" customWidth="1"/>
     <col min="2067" max="2304" width="9" style="44"/>
-    <col min="2305" max="2305" width="3.44140625" style="44" customWidth="1"/>
-    <col min="2306" max="2306" width="5.6640625" style="44" customWidth="1"/>
+    <col min="2305" max="2305" width="3.5" style="44" customWidth="1"/>
+    <col min="2306" max="2306" width="5.625" style="44" customWidth="1"/>
     <col min="2307" max="2308" width="6" style="44" customWidth="1"/>
-    <col min="2309" max="2310" width="8.44140625" style="44" customWidth="1"/>
-    <col min="2311" max="2311" width="7.33203125" style="44" customWidth="1"/>
-    <col min="2312" max="2313" width="7.77734375" style="44" customWidth="1"/>
-    <col min="2314" max="2315" width="7.6640625" style="44" customWidth="1"/>
-    <col min="2316" max="2316" width="5.6640625" style="44" customWidth="1"/>
-    <col min="2317" max="2317" width="9.6640625" style="44" customWidth="1"/>
-    <col min="2318" max="2321" width="5.109375" style="44" customWidth="1"/>
-    <col min="2322" max="2322" width="2.6640625" style="44" customWidth="1"/>
+    <col min="2309" max="2310" width="8.5" style="44" customWidth="1"/>
+    <col min="2311" max="2311" width="7.375" style="44" customWidth="1"/>
+    <col min="2312" max="2313" width="7.75" style="44" customWidth="1"/>
+    <col min="2314" max="2315" width="7.625" style="44" customWidth="1"/>
+    <col min="2316" max="2316" width="5.625" style="44" customWidth="1"/>
+    <col min="2317" max="2317" width="9.625" style="44" customWidth="1"/>
+    <col min="2318" max="2321" width="5.125" style="44" customWidth="1"/>
+    <col min="2322" max="2322" width="2.625" style="44" customWidth="1"/>
     <col min="2323" max="2560" width="9" style="44"/>
-    <col min="2561" max="2561" width="3.44140625" style="44" customWidth="1"/>
-    <col min="2562" max="2562" width="5.6640625" style="44" customWidth="1"/>
+    <col min="2561" max="2561" width="3.5" style="44" customWidth="1"/>
+    <col min="2562" max="2562" width="5.625" style="44" customWidth="1"/>
     <col min="2563" max="2564" width="6" style="44" customWidth="1"/>
-    <col min="2565" max="2566" width="8.44140625" style="44" customWidth="1"/>
-    <col min="2567" max="2567" width="7.33203125" style="44" customWidth="1"/>
-    <col min="2568" max="2569" width="7.77734375" style="44" customWidth="1"/>
-    <col min="2570" max="2571" width="7.6640625" style="44" customWidth="1"/>
-    <col min="2572" max="2572" width="5.6640625" style="44" customWidth="1"/>
-    <col min="2573" max="2573" width="9.6640625" style="44" customWidth="1"/>
-    <col min="2574" max="2577" width="5.109375" style="44" customWidth="1"/>
-    <col min="2578" max="2578" width="2.6640625" style="44" customWidth="1"/>
+    <col min="2565" max="2566" width="8.5" style="44" customWidth="1"/>
+    <col min="2567" max="2567" width="7.375" style="44" customWidth="1"/>
+    <col min="2568" max="2569" width="7.75" style="44" customWidth="1"/>
+    <col min="2570" max="2571" width="7.625" style="44" customWidth="1"/>
+    <col min="2572" max="2572" width="5.625" style="44" customWidth="1"/>
+    <col min="2573" max="2573" width="9.625" style="44" customWidth="1"/>
+    <col min="2574" max="2577" width="5.125" style="44" customWidth="1"/>
+    <col min="2578" max="2578" width="2.625" style="44" customWidth="1"/>
     <col min="2579" max="2816" width="9" style="44"/>
-    <col min="2817" max="2817" width="3.44140625" style="44" customWidth="1"/>
-    <col min="2818" max="2818" width="5.6640625" style="44" customWidth="1"/>
+    <col min="2817" max="2817" width="3.5" style="44" customWidth="1"/>
+    <col min="2818" max="2818" width="5.625" style="44" customWidth="1"/>
     <col min="2819" max="2820" width="6" style="44" customWidth="1"/>
-    <col min="2821" max="2822" width="8.44140625" style="44" customWidth="1"/>
-    <col min="2823" max="2823" width="7.33203125" style="44" customWidth="1"/>
-    <col min="2824" max="2825" width="7.77734375" style="44" customWidth="1"/>
-    <col min="2826" max="2827" width="7.6640625" style="44" customWidth="1"/>
-    <col min="2828" max="2828" width="5.6640625" style="44" customWidth="1"/>
-    <col min="2829" max="2829" width="9.6640625" style="44" customWidth="1"/>
-    <col min="2830" max="2833" width="5.109375" style="44" customWidth="1"/>
-    <col min="2834" max="2834" width="2.6640625" style="44" customWidth="1"/>
+    <col min="2821" max="2822" width="8.5" style="44" customWidth="1"/>
+    <col min="2823" max="2823" width="7.375" style="44" customWidth="1"/>
+    <col min="2824" max="2825" width="7.75" style="44" customWidth="1"/>
+    <col min="2826" max="2827" width="7.625" style="44" customWidth="1"/>
+    <col min="2828" max="2828" width="5.625" style="44" customWidth="1"/>
+    <col min="2829" max="2829" width="9.625" style="44" customWidth="1"/>
+    <col min="2830" max="2833" width="5.125" style="44" customWidth="1"/>
+    <col min="2834" max="2834" width="2.625" style="44" customWidth="1"/>
     <col min="2835" max="3072" width="9" style="44"/>
-    <col min="3073" max="3073" width="3.44140625" style="44" customWidth="1"/>
-    <col min="3074" max="3074" width="5.6640625" style="44" customWidth="1"/>
+    <col min="3073" max="3073" width="3.5" style="44" customWidth="1"/>
+    <col min="3074" max="3074" width="5.625" style="44" customWidth="1"/>
     <col min="3075" max="3076" width="6" style="44" customWidth="1"/>
-    <col min="3077" max="3078" width="8.44140625" style="44" customWidth="1"/>
-    <col min="3079" max="3079" width="7.33203125" style="44" customWidth="1"/>
-    <col min="3080" max="3081" width="7.77734375" style="44" customWidth="1"/>
-    <col min="3082" max="3083" width="7.6640625" style="44" customWidth="1"/>
-    <col min="3084" max="3084" width="5.6640625" style="44" customWidth="1"/>
-    <col min="3085" max="3085" width="9.6640625" style="44" customWidth="1"/>
-    <col min="3086" max="3089" width="5.109375" style="44" customWidth="1"/>
-    <col min="3090" max="3090" width="2.6640625" style="44" customWidth="1"/>
+    <col min="3077" max="3078" width="8.5" style="44" customWidth="1"/>
+    <col min="3079" max="3079" width="7.375" style="44" customWidth="1"/>
+    <col min="3080" max="3081" width="7.75" style="44" customWidth="1"/>
+    <col min="3082" max="3083" width="7.625" style="44" customWidth="1"/>
+    <col min="3084" max="3084" width="5.625" style="44" customWidth="1"/>
+    <col min="3085" max="3085" width="9.625" style="44" customWidth="1"/>
+    <col min="3086" max="3089" width="5.125" style="44" customWidth="1"/>
+    <col min="3090" max="3090" width="2.625" style="44" customWidth="1"/>
     <col min="3091" max="3328" width="9" style="44"/>
-    <col min="3329" max="3329" width="3.44140625" style="44" customWidth="1"/>
-    <col min="3330" max="3330" width="5.6640625" style="44" customWidth="1"/>
+    <col min="3329" max="3329" width="3.5" style="44" customWidth="1"/>
+    <col min="3330" max="3330" width="5.625" style="44" customWidth="1"/>
     <col min="3331" max="3332" width="6" style="44" customWidth="1"/>
-    <col min="3333" max="3334" width="8.44140625" style="44" customWidth="1"/>
-    <col min="3335" max="3335" width="7.33203125" style="44" customWidth="1"/>
-    <col min="3336" max="3337" width="7.77734375" style="44" customWidth="1"/>
-    <col min="3338" max="3339" width="7.6640625" style="44" customWidth="1"/>
-    <col min="3340" max="3340" width="5.6640625" style="44" customWidth="1"/>
-    <col min="3341" max="3341" width="9.6640625" style="44" customWidth="1"/>
-    <col min="3342" max="3345" width="5.109375" style="44" customWidth="1"/>
-    <col min="3346" max="3346" width="2.6640625" style="44" customWidth="1"/>
+    <col min="3333" max="3334" width="8.5" style="44" customWidth="1"/>
+    <col min="3335" max="3335" width="7.375" style="44" customWidth="1"/>
+    <col min="3336" max="3337" width="7.75" style="44" customWidth="1"/>
+    <col min="3338" max="3339" width="7.625" style="44" customWidth="1"/>
+    <col min="3340" max="3340" width="5.625" style="44" customWidth="1"/>
+    <col min="3341" max="3341" width="9.625" style="44" customWidth="1"/>
+    <col min="3342" max="3345" width="5.125" style="44" customWidth="1"/>
+    <col min="3346" max="3346" width="2.625" style="44" customWidth="1"/>
     <col min="3347" max="3584" width="9" style="44"/>
-    <col min="3585" max="3585" width="3.44140625" style="44" customWidth="1"/>
-    <col min="3586" max="3586" width="5.6640625" style="44" customWidth="1"/>
+    <col min="3585" max="3585" width="3.5" style="44" customWidth="1"/>
+    <col min="3586" max="3586" width="5.625" style="44" customWidth="1"/>
     <col min="3587" max="3588" width="6" style="44" customWidth="1"/>
-    <col min="3589" max="3590" width="8.44140625" style="44" customWidth="1"/>
-    <col min="3591" max="3591" width="7.33203125" style="44" customWidth="1"/>
-    <col min="3592" max="3593" width="7.77734375" style="44" customWidth="1"/>
-    <col min="3594" max="3595" width="7.6640625" style="44" customWidth="1"/>
-    <col min="3596" max="3596" width="5.6640625" style="44" customWidth="1"/>
-    <col min="3597" max="3597" width="9.6640625" style="44" customWidth="1"/>
-    <col min="3598" max="3601" width="5.109375" style="44" customWidth="1"/>
-    <col min="3602" max="3602" width="2.6640625" style="44" customWidth="1"/>
+    <col min="3589" max="3590" width="8.5" style="44" customWidth="1"/>
+    <col min="3591" max="3591" width="7.375" style="44" customWidth="1"/>
+    <col min="3592" max="3593" width="7.75" style="44" customWidth="1"/>
+    <col min="3594" max="3595" width="7.625" style="44" customWidth="1"/>
+    <col min="3596" max="3596" width="5.625" style="44" customWidth="1"/>
+    <col min="3597" max="3597" width="9.625" style="44" customWidth="1"/>
+    <col min="3598" max="3601" width="5.125" style="44" customWidth="1"/>
+    <col min="3602" max="3602" width="2.625" style="44" customWidth="1"/>
     <col min="3603" max="3840" width="9" style="44"/>
-    <col min="3841" max="3841" width="3.44140625" style="44" customWidth="1"/>
-    <col min="3842" max="3842" width="5.6640625" style="44" customWidth="1"/>
+    <col min="3841" max="3841" width="3.5" style="44" customWidth="1"/>
+    <col min="3842" max="3842" width="5.625" style="44" customWidth="1"/>
     <col min="3843" max="3844" width="6" style="44" customWidth="1"/>
-    <col min="3845" max="3846" width="8.44140625" style="44" customWidth="1"/>
-    <col min="3847" max="3847" width="7.33203125" style="44" customWidth="1"/>
-    <col min="3848" max="3849" width="7.77734375" style="44" customWidth="1"/>
-    <col min="3850" max="3851" width="7.6640625" style="44" customWidth="1"/>
-    <col min="3852" max="3852" width="5.6640625" style="44" customWidth="1"/>
-    <col min="3853" max="3853" width="9.6640625" style="44" customWidth="1"/>
-    <col min="3854" max="3857" width="5.109375" style="44" customWidth="1"/>
-    <col min="3858" max="3858" width="2.6640625" style="44" customWidth="1"/>
+    <col min="3845" max="3846" width="8.5" style="44" customWidth="1"/>
+    <col min="3847" max="3847" width="7.375" style="44" customWidth="1"/>
+    <col min="3848" max="3849" width="7.75" style="44" customWidth="1"/>
+    <col min="3850" max="3851" width="7.625" style="44" customWidth="1"/>
+    <col min="3852" max="3852" width="5.625" style="44" customWidth="1"/>
+    <col min="3853" max="3853" width="9.625" style="44" customWidth="1"/>
+    <col min="3854" max="3857" width="5.125" style="44" customWidth="1"/>
+    <col min="3858" max="3858" width="2.625" style="44" customWidth="1"/>
     <col min="3859" max="4096" width="9" style="44"/>
-    <col min="4097" max="4097" width="3.44140625" style="44" customWidth="1"/>
-    <col min="4098" max="4098" width="5.6640625" style="44" customWidth="1"/>
+    <col min="4097" max="4097" width="3.5" style="44" customWidth="1"/>
+    <col min="4098" max="4098" width="5.625" style="44" customWidth="1"/>
     <col min="4099" max="4100" width="6" style="44" customWidth="1"/>
-    <col min="4101" max="4102" width="8.44140625" style="44" customWidth="1"/>
-    <col min="4103" max="4103" width="7.33203125" style="44" customWidth="1"/>
-    <col min="4104" max="4105" width="7.77734375" style="44" customWidth="1"/>
-    <col min="4106" max="4107" width="7.6640625" style="44" customWidth="1"/>
-    <col min="4108" max="4108" width="5.6640625" style="44" customWidth="1"/>
-    <col min="4109" max="4109" width="9.6640625" style="44" customWidth="1"/>
-    <col min="4110" max="4113" width="5.109375" style="44" customWidth="1"/>
-    <col min="4114" max="4114" width="2.6640625" style="44" customWidth="1"/>
+    <col min="4101" max="4102" width="8.5" style="44" customWidth="1"/>
+    <col min="4103" max="4103" width="7.375" style="44" customWidth="1"/>
+    <col min="4104" max="4105" width="7.75" style="44" customWidth="1"/>
+    <col min="4106" max="4107" width="7.625" style="44" customWidth="1"/>
+    <col min="4108" max="4108" width="5.625" style="44" customWidth="1"/>
+    <col min="4109" max="4109" width="9.625" style="44" customWidth="1"/>
+    <col min="4110" max="4113" width="5.125" style="44" customWidth="1"/>
+    <col min="4114" max="4114" width="2.625" style="44" customWidth="1"/>
     <col min="4115" max="4352" width="9" style="44"/>
-    <col min="4353" max="4353" width="3.44140625" style="44" customWidth="1"/>
-    <col min="4354" max="4354" width="5.6640625" style="44" customWidth="1"/>
+    <col min="4353" max="4353" width="3.5" style="44" customWidth="1"/>
+    <col min="4354" max="4354" width="5.625" style="44" customWidth="1"/>
     <col min="4355" max="4356" width="6" style="44" customWidth="1"/>
-    <col min="4357" max="4358" width="8.44140625" style="44" customWidth="1"/>
-    <col min="4359" max="4359" width="7.33203125" style="44" customWidth="1"/>
-    <col min="4360" max="4361" width="7.77734375" style="44" customWidth="1"/>
-    <col min="4362" max="4363" width="7.6640625" style="44" customWidth="1"/>
-    <col min="4364" max="4364" width="5.6640625" style="44" customWidth="1"/>
-    <col min="4365" max="4365" width="9.6640625" style="44" customWidth="1"/>
-    <col min="4366" max="4369" width="5.109375" style="44" customWidth="1"/>
-    <col min="4370" max="4370" width="2.6640625" style="44" customWidth="1"/>
+    <col min="4357" max="4358" width="8.5" style="44" customWidth="1"/>
+    <col min="4359" max="4359" width="7.375" style="44" customWidth="1"/>
+    <col min="4360" max="4361" width="7.75" style="44" customWidth="1"/>
+    <col min="4362" max="4363" width="7.625" style="44" customWidth="1"/>
+    <col min="4364" max="4364" width="5.625" style="44" customWidth="1"/>
+    <col min="4365" max="4365" width="9.625" style="44" customWidth="1"/>
+    <col min="4366" max="4369" width="5.125" style="44" customWidth="1"/>
+    <col min="4370" max="4370" width="2.625" style="44" customWidth="1"/>
     <col min="4371" max="4608" width="9" style="44"/>
-    <col min="4609" max="4609" width="3.44140625" style="44" customWidth="1"/>
-    <col min="4610" max="4610" width="5.6640625" style="44" customWidth="1"/>
+    <col min="4609" max="4609" width="3.5" style="44" customWidth="1"/>
+    <col min="4610" max="4610" width="5.625" style="44" customWidth="1"/>
     <col min="4611" max="4612" width="6" style="44" customWidth="1"/>
-    <col min="4613" max="4614" width="8.44140625" style="44" customWidth="1"/>
-    <col min="4615" max="4615" width="7.33203125" style="44" customWidth="1"/>
-    <col min="4616" max="4617" width="7.77734375" style="44" customWidth="1"/>
-    <col min="4618" max="4619" width="7.6640625" style="44" customWidth="1"/>
-    <col min="4620" max="4620" width="5.6640625" style="44" customWidth="1"/>
-    <col min="4621" max="4621" width="9.6640625" style="44" customWidth="1"/>
-    <col min="4622" max="4625" width="5.109375" style="44" customWidth="1"/>
-    <col min="4626" max="4626" width="2.6640625" style="44" customWidth="1"/>
+    <col min="4613" max="4614" width="8.5" style="44" customWidth="1"/>
+    <col min="4615" max="4615" width="7.375" style="44" customWidth="1"/>
+    <col min="4616" max="4617" width="7.75" style="44" customWidth="1"/>
+    <col min="4618" max="4619" width="7.625" style="44" customWidth="1"/>
+    <col min="4620" max="4620" width="5.625" style="44" customWidth="1"/>
+    <col min="4621" max="4621" width="9.625" style="44" customWidth="1"/>
+    <col min="4622" max="4625" width="5.125" style="44" customWidth="1"/>
+    <col min="4626" max="4626" width="2.625" style="44" customWidth="1"/>
     <col min="4627" max="4864" width="9" style="44"/>
-    <col min="4865" max="4865" width="3.44140625" style="44" customWidth="1"/>
-    <col min="4866" max="4866" width="5.6640625" style="44" customWidth="1"/>
+    <col min="4865" max="4865" width="3.5" style="44" customWidth="1"/>
+    <col min="4866" max="4866" width="5.625" style="44" customWidth="1"/>
     <col min="4867" max="4868" width="6" style="44" customWidth="1"/>
-    <col min="4869" max="4870" width="8.44140625" style="44" customWidth="1"/>
-    <col min="4871" max="4871" width="7.33203125" style="44" customWidth="1"/>
-    <col min="4872" max="4873" width="7.77734375" style="44" customWidth="1"/>
-    <col min="4874" max="4875" width="7.6640625" style="44" customWidth="1"/>
-    <col min="4876" max="4876" width="5.6640625" style="44" customWidth="1"/>
-    <col min="4877" max="4877" width="9.6640625" style="44" customWidth="1"/>
-    <col min="4878" max="4881" width="5.109375" style="44" customWidth="1"/>
-    <col min="4882" max="4882" width="2.6640625" style="44" customWidth="1"/>
+    <col min="4869" max="4870" width="8.5" style="44" customWidth="1"/>
+    <col min="4871" max="4871" width="7.375" style="44" customWidth="1"/>
+    <col min="4872" max="4873" width="7.75" style="44" customWidth="1"/>
+    <col min="4874" max="4875" width="7.625" style="44" customWidth="1"/>
+    <col min="4876" max="4876" width="5.625" style="44" customWidth="1"/>
+    <col min="4877" max="4877" width="9.625" style="44" customWidth="1"/>
+    <col min="4878" max="4881" width="5.125" style="44" customWidth="1"/>
+    <col min="4882" max="4882" width="2.625" style="44" customWidth="1"/>
     <col min="4883" max="5120" width="9" style="44"/>
-    <col min="5121" max="5121" width="3.44140625" style="44" customWidth="1"/>
-    <col min="5122" max="5122" width="5.6640625" style="44" customWidth="1"/>
+    <col min="5121" max="5121" width="3.5" style="44" customWidth="1"/>
+    <col min="5122" max="5122" width="5.625" style="44" customWidth="1"/>
     <col min="5123" max="5124" width="6" style="44" customWidth="1"/>
-    <col min="5125" max="5126" width="8.44140625" style="44" customWidth="1"/>
-    <col min="5127" max="5127" width="7.33203125" style="44" customWidth="1"/>
-    <col min="5128" max="5129" width="7.77734375" style="44" customWidth="1"/>
-    <col min="5130" max="5131" width="7.6640625" style="44" customWidth="1"/>
-    <col min="5132" max="5132" width="5.6640625" style="44" customWidth="1"/>
-    <col min="5133" max="5133" width="9.6640625" style="44" customWidth="1"/>
-    <col min="5134" max="5137" width="5.109375" style="44" customWidth="1"/>
-    <col min="5138" max="5138" width="2.6640625" style="44" customWidth="1"/>
+    <col min="5125" max="5126" width="8.5" style="44" customWidth="1"/>
+    <col min="5127" max="5127" width="7.375" style="44" customWidth="1"/>
+    <col min="5128" max="5129" width="7.75" style="44" customWidth="1"/>
+    <col min="5130" max="5131" width="7.625" style="44" customWidth="1"/>
+    <col min="5132" max="5132" width="5.625" style="44" customWidth="1"/>
+    <col min="5133" max="5133" width="9.625" style="44" customWidth="1"/>
+    <col min="5134" max="5137" width="5.125" style="44" customWidth="1"/>
+    <col min="5138" max="5138" width="2.625" style="44" customWidth="1"/>
     <col min="5139" max="5376" width="9" style="44"/>
-    <col min="5377" max="5377" width="3.44140625" style="44" customWidth="1"/>
-    <col min="5378" max="5378" width="5.6640625" style="44" customWidth="1"/>
+    <col min="5377" max="5377" width="3.5" style="44" customWidth="1"/>
+    <col min="5378" max="5378" width="5.625" style="44" customWidth="1"/>
     <col min="5379" max="5380" width="6" style="44" customWidth="1"/>
-    <col min="5381" max="5382" width="8.44140625" style="44" customWidth="1"/>
-    <col min="5383" max="5383" width="7.33203125" style="44" customWidth="1"/>
-    <col min="5384" max="5385" width="7.77734375" style="44" customWidth="1"/>
-    <col min="5386" max="5387" width="7.6640625" style="44" customWidth="1"/>
-    <col min="5388" max="5388" width="5.6640625" style="44" customWidth="1"/>
-    <col min="5389" max="5389" width="9.6640625" style="44" customWidth="1"/>
-    <col min="5390" max="5393" width="5.109375" style="44" customWidth="1"/>
-    <col min="5394" max="5394" width="2.6640625" style="44" customWidth="1"/>
+    <col min="5381" max="5382" width="8.5" style="44" customWidth="1"/>
+    <col min="5383" max="5383" width="7.375" style="44" customWidth="1"/>
+    <col min="5384" max="5385" width="7.75" style="44" customWidth="1"/>
+    <col min="5386" max="5387" width="7.625" style="44" customWidth="1"/>
+    <col min="5388" max="5388" width="5.625" style="44" customWidth="1"/>
+    <col min="5389" max="5389" width="9.625" style="44" customWidth="1"/>
+    <col min="5390" max="5393" width="5.125" style="44" customWidth="1"/>
+    <col min="5394" max="5394" width="2.625" style="44" customWidth="1"/>
     <col min="5395" max="5632" width="9" style="44"/>
-    <col min="5633" max="5633" width="3.44140625" style="44" customWidth="1"/>
-    <col min="5634" max="5634" width="5.6640625" style="44" customWidth="1"/>
+    <col min="5633" max="5633" width="3.5" style="44" customWidth="1"/>
+    <col min="5634" max="5634" width="5.625" style="44" customWidth="1"/>
     <col min="5635" max="5636" width="6" style="44" customWidth="1"/>
-    <col min="5637" max="5638" width="8.44140625" style="44" customWidth="1"/>
-    <col min="5639" max="5639" width="7.33203125" style="44" customWidth="1"/>
-    <col min="5640" max="5641" width="7.77734375" style="44" customWidth="1"/>
-    <col min="5642" max="5643" width="7.6640625" style="44" customWidth="1"/>
-    <col min="5644" max="5644" width="5.6640625" style="44" customWidth="1"/>
-    <col min="5645" max="5645" width="9.6640625" style="44" customWidth="1"/>
-    <col min="5646" max="5649" width="5.109375" style="44" customWidth="1"/>
-    <col min="5650" max="5650" width="2.6640625" style="44" customWidth="1"/>
+    <col min="5637" max="5638" width="8.5" style="44" customWidth="1"/>
+    <col min="5639" max="5639" width="7.375" style="44" customWidth="1"/>
+    <col min="5640" max="5641" width="7.75" style="44" customWidth="1"/>
+    <col min="5642" max="5643" width="7.625" style="44" customWidth="1"/>
+    <col min="5644" max="5644" width="5.625" style="44" customWidth="1"/>
+    <col min="5645" max="5645" width="9.625" style="44" customWidth="1"/>
+    <col min="5646" max="5649" width="5.125" style="44" customWidth="1"/>
+    <col min="5650" max="5650" width="2.625" style="44" customWidth="1"/>
     <col min="5651" max="5888" width="9" style="44"/>
-    <col min="5889" max="5889" width="3.44140625" style="44" customWidth="1"/>
-    <col min="5890" max="5890" width="5.6640625" style="44" customWidth="1"/>
+    <col min="5889" max="5889" width="3.5" style="44" customWidth="1"/>
+    <col min="5890" max="5890" width="5.625" style="44" customWidth="1"/>
     <col min="5891" max="5892" width="6" style="44" customWidth="1"/>
-    <col min="5893" max="5894" width="8.44140625" style="44" customWidth="1"/>
-    <col min="5895" max="5895" width="7.33203125" style="44" customWidth="1"/>
-    <col min="5896" max="5897" width="7.77734375" style="44" customWidth="1"/>
-    <col min="5898" max="5899" width="7.6640625" style="44" customWidth="1"/>
-    <col min="5900" max="5900" width="5.6640625" style="44" customWidth="1"/>
-    <col min="5901" max="5901" width="9.6640625" style="44" customWidth="1"/>
-    <col min="5902" max="5905" width="5.109375" style="44" customWidth="1"/>
-    <col min="5906" max="5906" width="2.6640625" style="44" customWidth="1"/>
+    <col min="5893" max="5894" width="8.5" style="44" customWidth="1"/>
+    <col min="5895" max="5895" width="7.375" style="44" customWidth="1"/>
+    <col min="5896" max="5897" width="7.75" style="44" customWidth="1"/>
+    <col min="5898" max="5899" width="7.625" style="44" customWidth="1"/>
+    <col min="5900" max="5900" width="5.625" style="44" customWidth="1"/>
+    <col min="5901" max="5901" width="9.625" style="44" customWidth="1"/>
+    <col min="5902" max="5905" width="5.125" style="44" customWidth="1"/>
+    <col min="5906" max="5906" width="2.625" style="44" customWidth="1"/>
     <col min="5907" max="6144" width="9" style="44"/>
-    <col min="6145" max="6145" width="3.44140625" style="44" customWidth="1"/>
-    <col min="6146" max="6146" width="5.6640625" style="44" customWidth="1"/>
+    <col min="6145" max="6145" width="3.5" style="44" customWidth="1"/>
+    <col min="6146" max="6146" width="5.625" style="44" customWidth="1"/>
     <col min="6147" max="6148" width="6" style="44" customWidth="1"/>
-    <col min="6149" max="6150" width="8.44140625" style="44" customWidth="1"/>
-    <col min="6151" max="6151" width="7.33203125" style="44" customWidth="1"/>
-    <col min="6152" max="6153" width="7.77734375" style="44" customWidth="1"/>
-    <col min="6154" max="6155" width="7.6640625" style="44" customWidth="1"/>
-    <col min="6156" max="6156" width="5.6640625" style="44" customWidth="1"/>
-    <col min="6157" max="6157" width="9.6640625" style="44" customWidth="1"/>
-    <col min="6158" max="6161" width="5.109375" style="44" customWidth="1"/>
-    <col min="6162" max="6162" width="2.6640625" style="44" customWidth="1"/>
+    <col min="6149" max="6150" width="8.5" style="44" customWidth="1"/>
+    <col min="6151" max="6151" width="7.375" style="44" customWidth="1"/>
+    <col min="6152" max="6153" width="7.75" style="44" customWidth="1"/>
+    <col min="6154" max="6155" width="7.625" style="44" customWidth="1"/>
+    <col min="6156" max="6156" width="5.625" style="44" customWidth="1"/>
+    <col min="6157" max="6157" width="9.625" style="44" customWidth="1"/>
+    <col min="6158" max="6161" width="5.125" style="44" customWidth="1"/>
+    <col min="6162" max="6162" width="2.625" style="44" customWidth="1"/>
     <col min="6163" max="6400" width="9" style="44"/>
-    <col min="6401" max="6401" width="3.44140625" style="44" customWidth="1"/>
-    <col min="6402" max="6402" width="5.6640625" style="44" customWidth="1"/>
+    <col min="6401" max="6401" width="3.5" style="44" customWidth="1"/>
+    <col min="6402" max="6402" width="5.625" style="44" customWidth="1"/>
     <col min="6403" max="6404" width="6" style="44" customWidth="1"/>
-    <col min="6405" max="6406" width="8.44140625" style="44" customWidth="1"/>
-    <col min="6407" max="6407" width="7.33203125" style="44" customWidth="1"/>
-    <col min="6408" max="6409" width="7.77734375" style="44" customWidth="1"/>
-    <col min="6410" max="6411" width="7.6640625" style="44" customWidth="1"/>
-    <col min="6412" max="6412" width="5.6640625" style="44" customWidth="1"/>
-    <col min="6413" max="6413" width="9.6640625" style="44" customWidth="1"/>
-    <col min="6414" max="6417" width="5.109375" style="44" customWidth="1"/>
-    <col min="6418" max="6418" width="2.6640625" style="44" customWidth="1"/>
+    <col min="6405" max="6406" width="8.5" style="44" customWidth="1"/>
+    <col min="6407" max="6407" width="7.375" style="44" customWidth="1"/>
+    <col min="6408" max="6409" width="7.75" style="44" customWidth="1"/>
+    <col min="6410" max="6411" width="7.625" style="44" customWidth="1"/>
+    <col min="6412" max="6412" width="5.625" style="44" customWidth="1"/>
+    <col min="6413" max="6413" width="9.625" style="44" customWidth="1"/>
+    <col min="6414" max="6417" width="5.125" style="44" customWidth="1"/>
+    <col min="6418" max="6418" width="2.625" style="44" customWidth="1"/>
     <col min="6419" max="6656" width="9" style="44"/>
-    <col min="6657" max="6657" width="3.44140625" style="44" customWidth="1"/>
-    <col min="6658" max="6658" width="5.6640625" style="44" customWidth="1"/>
+    <col min="6657" max="6657" width="3.5" style="44" customWidth="1"/>
+    <col min="6658" max="6658" width="5.625" style="44" customWidth="1"/>
     <col min="6659" max="6660" width="6" style="44" customWidth="1"/>
-    <col min="6661" max="6662" width="8.44140625" style="44" customWidth="1"/>
-    <col min="6663" max="6663" width="7.33203125" style="44" customWidth="1"/>
-    <col min="6664" max="6665" width="7.77734375" style="44" customWidth="1"/>
-    <col min="6666" max="6667" width="7.6640625" style="44" customWidth="1"/>
-    <col min="6668" max="6668" width="5.6640625" style="44" customWidth="1"/>
-    <col min="6669" max="6669" width="9.6640625" style="44" customWidth="1"/>
-    <col min="6670" max="6673" width="5.109375" style="44" customWidth="1"/>
-    <col min="6674" max="6674" width="2.6640625" style="44" customWidth="1"/>
+    <col min="6661" max="6662" width="8.5" style="44" customWidth="1"/>
+    <col min="6663" max="6663" width="7.375" style="44" customWidth="1"/>
+    <col min="6664" max="6665" width="7.75" style="44" customWidth="1"/>
+    <col min="6666" max="6667" width="7.625" style="44" customWidth="1"/>
+    <col min="6668" max="6668" width="5.625" style="44" customWidth="1"/>
+    <col min="6669" max="6669" width="9.625" style="44" customWidth="1"/>
+    <col min="6670" max="6673" width="5.125" style="44" customWidth="1"/>
+    <col min="6674" max="6674" width="2.625" style="44" customWidth="1"/>
     <col min="6675" max="6912" width="9" style="44"/>
-    <col min="6913" max="6913" width="3.44140625" style="44" customWidth="1"/>
-    <col min="6914" max="6914" width="5.6640625" style="44" customWidth="1"/>
+    <col min="6913" max="6913" width="3.5" style="44" customWidth="1"/>
+    <col min="6914" max="6914" width="5.625" style="44" customWidth="1"/>
     <col min="6915" max="6916" width="6" style="44" customWidth="1"/>
-    <col min="6917" max="6918" width="8.44140625" style="44" customWidth="1"/>
-    <col min="6919" max="6919" width="7.33203125" style="44" customWidth="1"/>
-    <col min="6920" max="6921" width="7.77734375" style="44" customWidth="1"/>
-    <col min="6922" max="6923" width="7.6640625" style="44" customWidth="1"/>
-    <col min="6924" max="6924" width="5.6640625" style="44" customWidth="1"/>
-    <col min="6925" max="6925" width="9.6640625" style="44" customWidth="1"/>
-    <col min="6926" max="6929" width="5.109375" style="44" customWidth="1"/>
-    <col min="6930" max="6930" width="2.6640625" style="44" customWidth="1"/>
+    <col min="6917" max="6918" width="8.5" style="44" customWidth="1"/>
+    <col min="6919" max="6919" width="7.375" style="44" customWidth="1"/>
+    <col min="6920" max="6921" width="7.75" style="44" customWidth="1"/>
+    <col min="6922" max="6923" width="7.625" style="44" customWidth="1"/>
+    <col min="6924" max="6924" width="5.625" style="44" customWidth="1"/>
+    <col min="6925" max="6925" width="9.625" style="44" customWidth="1"/>
+    <col min="6926" max="6929" width="5.125" style="44" customWidth="1"/>
+    <col min="6930" max="6930" width="2.625" style="44" customWidth="1"/>
     <col min="6931" max="7168" width="9" style="44"/>
-    <col min="7169" max="7169" width="3.44140625" style="44" customWidth="1"/>
-    <col min="7170" max="7170" width="5.6640625" style="44" customWidth="1"/>
+    <col min="7169" max="7169" width="3.5" style="44" customWidth="1"/>
+    <col min="7170" max="7170" width="5.625" style="44" customWidth="1"/>
     <col min="7171" max="7172" width="6" style="44" customWidth="1"/>
-    <col min="7173" max="7174" width="8.44140625" style="44" customWidth="1"/>
-    <col min="7175" max="7175" width="7.33203125" style="44" customWidth="1"/>
-    <col min="7176" max="7177" width="7.77734375" style="44" customWidth="1"/>
-    <col min="7178" max="7179" width="7.6640625" style="44" customWidth="1"/>
-    <col min="7180" max="7180" width="5.6640625" style="44" customWidth="1"/>
-    <col min="7181" max="7181" width="9.6640625" style="44" customWidth="1"/>
-    <col min="7182" max="7185" width="5.109375" style="44" customWidth="1"/>
-    <col min="7186" max="7186" width="2.6640625" style="44" customWidth="1"/>
+    <col min="7173" max="7174" width="8.5" style="44" customWidth="1"/>
+    <col min="7175" max="7175" width="7.375" style="44" customWidth="1"/>
+    <col min="7176" max="7177" width="7.75" style="44" customWidth="1"/>
+    <col min="7178" max="7179" width="7.625" style="44" customWidth="1"/>
+    <col min="7180" max="7180" width="5.625" style="44" customWidth="1"/>
+    <col min="7181" max="7181" width="9.625" style="44" customWidth="1"/>
+    <col min="7182" max="7185" width="5.125" style="44" customWidth="1"/>
+    <col min="7186" max="7186" width="2.625" style="44" customWidth="1"/>
     <col min="7187" max="7424" width="9" style="44"/>
-    <col min="7425" max="7425" width="3.44140625" style="44" customWidth="1"/>
-    <col min="7426" max="7426" width="5.6640625" style="44" customWidth="1"/>
+    <col min="7425" max="7425" width="3.5" style="44" customWidth="1"/>
+    <col min="7426" max="7426" width="5.625" style="44" customWidth="1"/>
     <col min="7427" max="7428" width="6" style="44" customWidth="1"/>
-    <col min="7429" max="7430" width="8.44140625" style="44" customWidth="1"/>
-    <col min="7431" max="7431" width="7.33203125" style="44" customWidth="1"/>
-    <col min="7432" max="7433" width="7.77734375" style="44" customWidth="1"/>
-    <col min="7434" max="7435" width="7.6640625" style="44" customWidth="1"/>
-    <col min="7436" max="7436" width="5.6640625" style="44" customWidth="1"/>
-    <col min="7437" max="7437" width="9.6640625" style="44" customWidth="1"/>
-    <col min="7438" max="7441" width="5.109375" style="44" customWidth="1"/>
-    <col min="7442" max="7442" width="2.6640625" style="44" customWidth="1"/>
+    <col min="7429" max="7430" width="8.5" style="44" customWidth="1"/>
+    <col min="7431" max="7431" width="7.375" style="44" customWidth="1"/>
+    <col min="7432" max="7433" width="7.75" style="44" customWidth="1"/>
+    <col min="7434" max="7435" width="7.625" style="44" customWidth="1"/>
+    <col min="7436" max="7436" width="5.625" style="44" customWidth="1"/>
+    <col min="7437" max="7437" width="9.625" style="44" customWidth="1"/>
+    <col min="7438" max="7441" width="5.125" style="44" customWidth="1"/>
+    <col min="7442" max="7442" width="2.625" style="44" customWidth="1"/>
     <col min="7443" max="7680" width="9" style="44"/>
-    <col min="7681" max="7681" width="3.44140625" style="44" customWidth="1"/>
-    <col min="7682" max="7682" width="5.6640625" style="44" customWidth="1"/>
+    <col min="7681" max="7681" width="3.5" style="44" customWidth="1"/>
+    <col min="7682" max="7682" width="5.625" style="44" customWidth="1"/>
     <col min="7683" max="7684" width="6" style="44" customWidth="1"/>
-    <col min="7685" max="7686" width="8.44140625" style="44" customWidth="1"/>
-    <col min="7687" max="7687" width="7.33203125" style="44" customWidth="1"/>
-    <col min="7688" max="7689" width="7.77734375" style="44" customWidth="1"/>
-    <col min="7690" max="7691" width="7.6640625" style="44" customWidth="1"/>
-    <col min="7692" max="7692" width="5.6640625" style="44" customWidth="1"/>
-    <col min="7693" max="7693" width="9.6640625" style="44" customWidth="1"/>
-    <col min="7694" max="7697" width="5.109375" style="44" customWidth="1"/>
-    <col min="7698" max="7698" width="2.6640625" style="44" customWidth="1"/>
+    <col min="7685" max="7686" width="8.5" style="44" customWidth="1"/>
+    <col min="7687" max="7687" width="7.375" style="44" customWidth="1"/>
+    <col min="7688" max="7689" width="7.75" style="44" customWidth="1"/>
+    <col min="7690" max="7691" width="7.625" style="44" customWidth="1"/>
+    <col min="7692" max="7692" width="5.625" style="44" customWidth="1"/>
+    <col min="7693" max="7693" width="9.625" style="44" customWidth="1"/>
+    <col min="7694" max="7697" width="5.125" style="44" customWidth="1"/>
+    <col min="7698" max="7698" width="2.625" style="44" customWidth="1"/>
     <col min="7699" max="7936" width="9" style="44"/>
-    <col min="7937" max="7937" width="3.44140625" style="44" customWidth="1"/>
-    <col min="7938" max="7938" width="5.6640625" style="44" customWidth="1"/>
+    <col min="7937" max="7937" width="3.5" style="44" customWidth="1"/>
+    <col min="7938" max="7938" width="5.625" style="44" customWidth="1"/>
     <col min="7939" max="7940" width="6" style="44" customWidth="1"/>
-    <col min="7941" max="7942" width="8.44140625" style="44" customWidth="1"/>
-    <col min="7943" max="7943" width="7.33203125" style="44" customWidth="1"/>
-    <col min="7944" max="7945" width="7.77734375" style="44" customWidth="1"/>
-    <col min="7946" max="7947" width="7.6640625" style="44" customWidth="1"/>
-    <col min="7948" max="7948" width="5.6640625" style="44" customWidth="1"/>
-    <col min="7949" max="7949" width="9.6640625" style="44" customWidth="1"/>
-    <col min="7950" max="7953" width="5.109375" style="44" customWidth="1"/>
-    <col min="7954" max="7954" width="2.6640625" style="44" customWidth="1"/>
+    <col min="7941" max="7942" width="8.5" style="44" customWidth="1"/>
+    <col min="7943" max="7943" width="7.375" style="44" customWidth="1"/>
+    <col min="7944" max="7945" width="7.75" style="44" customWidth="1"/>
+    <col min="7946" max="7947" width="7.625" style="44" customWidth="1"/>
+    <col min="7948" max="7948" width="5.625" style="44" customWidth="1"/>
+    <col min="7949" max="7949" width="9.625" style="44" customWidth="1"/>
+    <col min="7950" max="7953" width="5.125" style="44" customWidth="1"/>
+    <col min="7954" max="7954" width="2.625" style="44" customWidth="1"/>
     <col min="7955" max="8192" width="9" style="44"/>
-    <col min="8193" max="8193" width="3.44140625" style="44" customWidth="1"/>
-    <col min="8194" max="8194" width="5.6640625" style="44" customWidth="1"/>
+    <col min="8193" max="8193" width="3.5" style="44" customWidth="1"/>
+    <col min="8194" max="8194" width="5.625" style="44" customWidth="1"/>
     <col min="8195" max="8196" width="6" style="44" customWidth="1"/>
-    <col min="8197" max="8198" width="8.44140625" style="44" customWidth="1"/>
-    <col min="8199" max="8199" width="7.33203125" style="44" customWidth="1"/>
-    <col min="8200" max="8201" width="7.77734375" style="44" customWidth="1"/>
-    <col min="8202" max="8203" width="7.6640625" style="44" customWidth="1"/>
-    <col min="8204" max="8204" width="5.6640625" style="44" customWidth="1"/>
-    <col min="8205" max="8205" width="9.6640625" style="44" customWidth="1"/>
-    <col min="8206" max="8209" width="5.109375" style="44" customWidth="1"/>
-    <col min="8210" max="8210" width="2.6640625" style="44" customWidth="1"/>
+    <col min="8197" max="8198" width="8.5" style="44" customWidth="1"/>
+    <col min="8199" max="8199" width="7.375" style="44" customWidth="1"/>
+    <col min="8200" max="8201" width="7.75" style="44" customWidth="1"/>
+    <col min="8202" max="8203" width="7.625" style="44" customWidth="1"/>
+    <col min="8204" max="8204" width="5.625" style="44" customWidth="1"/>
+    <col min="8205" max="8205" width="9.625" style="44" customWidth="1"/>
+    <col min="8206" max="8209" width="5.125" style="44" customWidth="1"/>
+    <col min="8210" max="8210" width="2.625" style="44" customWidth="1"/>
     <col min="8211" max="8448" width="9" style="44"/>
-    <col min="8449" max="8449" width="3.44140625" style="44" customWidth="1"/>
-    <col min="8450" max="8450" width="5.6640625" style="44" customWidth="1"/>
+    <col min="8449" max="8449" width="3.5" style="44" customWidth="1"/>
+    <col min="8450" max="8450" width="5.625" style="44" customWidth="1"/>
     <col min="8451" max="8452" width="6" style="44" customWidth="1"/>
-    <col min="8453" max="8454" width="8.44140625" style="44" customWidth="1"/>
-    <col min="8455" max="8455" width="7.33203125" style="44" customWidth="1"/>
-    <col min="8456" max="8457" width="7.77734375" style="44" customWidth="1"/>
-    <col min="8458" max="8459" width="7.6640625" style="44" customWidth="1"/>
-    <col min="8460" max="8460" width="5.6640625" style="44" customWidth="1"/>
-    <col min="8461" max="8461" width="9.6640625" style="44" customWidth="1"/>
-    <col min="8462" max="8465" width="5.109375" style="44" customWidth="1"/>
-    <col min="8466" max="8466" width="2.6640625" style="44" customWidth="1"/>
+    <col min="8453" max="8454" width="8.5" style="44" customWidth="1"/>
+    <col min="8455" max="8455" width="7.375" style="44" customWidth="1"/>
+    <col min="8456" max="8457" width="7.75" style="44" customWidth="1"/>
+    <col min="8458" max="8459" width="7.625" style="44" customWidth="1"/>
+    <col min="8460" max="8460" width="5.625" style="44" customWidth="1"/>
+    <col min="8461" max="8461" width="9.625" style="44" customWidth="1"/>
+    <col min="8462" max="8465" width="5.125" style="44" customWidth="1"/>
+    <col min="8466" max="8466" width="2.625" style="44" customWidth="1"/>
     <col min="8467" max="8704" width="9" style="44"/>
-    <col min="8705" max="8705" width="3.44140625" style="44" customWidth="1"/>
-    <col min="8706" max="8706" width="5.6640625" style="44" customWidth="1"/>
+    <col min="8705" max="8705" width="3.5" style="44" customWidth="1"/>
+    <col min="8706" max="8706" width="5.625" style="44" customWidth="1"/>
     <col min="8707" max="8708" width="6" style="44" customWidth="1"/>
-    <col min="8709" max="8710" width="8.44140625" style="44" customWidth="1"/>
-    <col min="8711" max="8711" width="7.33203125" style="44" customWidth="1"/>
-    <col min="8712" max="8713" width="7.77734375" style="44" customWidth="1"/>
-    <col min="8714" max="8715" width="7.6640625" style="44" customWidth="1"/>
-    <col min="8716" max="8716" width="5.6640625" style="44" customWidth="1"/>
-    <col min="8717" max="8717" width="9.6640625" style="44" customWidth="1"/>
-    <col min="8718" max="8721" width="5.109375" style="44" customWidth="1"/>
-    <col min="8722" max="8722" width="2.6640625" style="44" customWidth="1"/>
+    <col min="8709" max="8710" width="8.5" style="44" customWidth="1"/>
+    <col min="8711" max="8711" width="7.375" style="44" customWidth="1"/>
+    <col min="8712" max="8713" width="7.75" style="44" customWidth="1"/>
+    <col min="8714" max="8715" width="7.625" style="44" customWidth="1"/>
+    <col min="8716" max="8716" width="5.625" style="44" customWidth="1"/>
+    <col min="8717" max="8717" width="9.625" style="44" customWidth="1"/>
+    <col min="8718" max="8721" width="5.125" style="44" customWidth="1"/>
+    <col min="8722" max="8722" width="2.625" style="44" customWidth="1"/>
     <col min="8723" max="8960" width="9" style="44"/>
-    <col min="8961" max="8961" width="3.44140625" style="44" customWidth="1"/>
-    <col min="8962" max="8962" width="5.6640625" style="44" customWidth="1"/>
+    <col min="8961" max="8961" width="3.5" style="44" customWidth="1"/>
+    <col min="8962" max="8962" width="5.625" style="44" customWidth="1"/>
     <col min="8963" max="8964" width="6" style="44" customWidth="1"/>
-    <col min="8965" max="8966" width="8.44140625" style="44" customWidth="1"/>
-    <col min="8967" max="8967" width="7.33203125" style="44" customWidth="1"/>
-    <col min="8968" max="8969" width="7.77734375" style="44" customWidth="1"/>
-    <col min="8970" max="8971" width="7.6640625" style="44" customWidth="1"/>
-    <col min="8972" max="8972" width="5.6640625" style="44" customWidth="1"/>
-    <col min="8973" max="8973" width="9.6640625" style="44" customWidth="1"/>
-    <col min="8974" max="8977" width="5.109375" style="44" customWidth="1"/>
-    <col min="8978" max="8978" width="2.6640625" style="44" customWidth="1"/>
+    <col min="8965" max="8966" width="8.5" style="44" customWidth="1"/>
+    <col min="8967" max="8967" width="7.375" style="44" customWidth="1"/>
+    <col min="8968" max="8969" width="7.75" style="44" customWidth="1"/>
+    <col min="8970" max="8971" width="7.625" style="44" customWidth="1"/>
+    <col min="8972" max="8972" width="5.625" style="44" customWidth="1"/>
+    <col min="8973" max="8973" width="9.625" style="44" customWidth="1"/>
+    <col min="8974" max="8977" width="5.125" style="44" customWidth="1"/>
+    <col min="8978" max="8978" width="2.625" style="44" customWidth="1"/>
     <col min="8979" max="9216" width="9" style="44"/>
-    <col min="9217" max="9217" width="3.44140625" style="44" customWidth="1"/>
-    <col min="9218" max="9218" width="5.6640625" style="44" customWidth="1"/>
+    <col min="9217" max="9217" width="3.5" style="44" customWidth="1"/>
+    <col min="9218" max="9218" width="5.625" style="44" customWidth="1"/>
     <col min="9219" max="9220" width="6" style="44" customWidth="1"/>
-    <col min="9221" max="9222" width="8.44140625" style="44" customWidth="1"/>
-    <col min="9223" max="9223" width="7.33203125" style="44" customWidth="1"/>
-    <col min="9224" max="9225" width="7.77734375" style="44" customWidth="1"/>
-    <col min="9226" max="9227" width="7.6640625" style="44" customWidth="1"/>
-    <col min="9228" max="9228" width="5.6640625" style="44" customWidth="1"/>
-    <col min="9229" max="9229" width="9.6640625" style="44" customWidth="1"/>
-    <col min="9230" max="9233" width="5.109375" style="44" customWidth="1"/>
-    <col min="9234" max="9234" width="2.6640625" style="44" customWidth="1"/>
+    <col min="9221" max="9222" width="8.5" style="44" customWidth="1"/>
+    <col min="9223" max="9223" width="7.375" style="44" customWidth="1"/>
+    <col min="9224" max="9225" width="7.75" style="44" customWidth="1"/>
+    <col min="9226" max="9227" width="7.625" style="44" customWidth="1"/>
+    <col min="9228" max="9228" width="5.625" style="44" customWidth="1"/>
+    <col min="9229" max="9229" width="9.625" style="44" customWidth="1"/>
+    <col min="9230" max="9233" width="5.125" style="44" customWidth="1"/>
+    <col min="9234" max="9234" width="2.625" style="44" customWidth="1"/>
     <col min="9235" max="9472" width="9" style="44"/>
-    <col min="9473" max="9473" width="3.44140625" style="44" customWidth="1"/>
-    <col min="9474" max="9474" width="5.6640625" style="44" customWidth="1"/>
+    <col min="9473" max="9473" width="3.5" style="44" customWidth="1"/>
+    <col min="9474" max="9474" width="5.625" style="44" customWidth="1"/>
     <col min="9475" max="9476" width="6" style="44" customWidth="1"/>
-    <col min="9477" max="9478" width="8.44140625" style="44" customWidth="1"/>
-    <col min="9479" max="9479" width="7.33203125" style="44" customWidth="1"/>
-    <col min="9480" max="9481" width="7.77734375" style="44" customWidth="1"/>
-    <col min="9482" max="9483" width="7.6640625" style="44" customWidth="1"/>
-    <col min="9484" max="9484" width="5.6640625" style="44" customWidth="1"/>
-    <col min="9485" max="9485" width="9.6640625" style="44" customWidth="1"/>
-    <col min="9486" max="9489" width="5.109375" style="44" customWidth="1"/>
-    <col min="9490" max="9490" width="2.6640625" style="44" customWidth="1"/>
+    <col min="9477" max="9478" width="8.5" style="44" customWidth="1"/>
+    <col min="9479" max="9479" width="7.375" style="44" customWidth="1"/>
+    <col min="9480" max="9481" width="7.75" style="44" customWidth="1"/>
+    <col min="9482" max="9483" width="7.625" style="44" customWidth="1"/>
+    <col min="9484" max="9484" width="5.625" style="44" customWidth="1"/>
+    <col min="9485" max="9485" width="9.625" style="44" customWidth="1"/>
+    <col min="9486" max="9489" width="5.125" style="44" customWidth="1"/>
+    <col min="9490" max="9490" width="2.625" style="44" customWidth="1"/>
     <col min="9491" max="9728" width="9" style="44"/>
-    <col min="9729" max="9729" width="3.44140625" style="44" customWidth="1"/>
-    <col min="9730" max="9730" width="5.6640625" style="44" customWidth="1"/>
+    <col min="9729" max="9729" width="3.5" style="44" customWidth="1"/>
+    <col min="9730" max="9730" width="5.625" style="44" customWidth="1"/>
     <col min="9731" max="9732" width="6" style="44" customWidth="1"/>
-    <col min="9733" max="9734" width="8.44140625" style="44" customWidth="1"/>
-    <col min="9735" max="9735" width="7.33203125" style="44" customWidth="1"/>
-    <col min="9736" max="9737" width="7.77734375" style="44" customWidth="1"/>
-    <col min="9738" max="9739" width="7.6640625" style="44" customWidth="1"/>
-    <col min="9740" max="9740" width="5.6640625" style="44" customWidth="1"/>
-    <col min="9741" max="9741" width="9.6640625" style="44" customWidth="1"/>
-    <col min="9742" max="9745" width="5.109375" style="44" customWidth="1"/>
-    <col min="9746" max="9746" width="2.6640625" style="44" customWidth="1"/>
+    <col min="9733" max="9734" width="8.5" style="44" customWidth="1"/>
+    <col min="9735" max="9735" width="7.375" style="44" customWidth="1"/>
+    <col min="9736" max="9737" width="7.75" style="44" customWidth="1"/>
+    <col min="9738" max="9739" width="7.625" style="44" customWidth="1"/>
+    <col min="9740" max="9740" width="5.625" style="44" customWidth="1"/>
+    <col min="9741" max="9741" width="9.625" style="44" customWidth="1"/>
+    <col min="9742" max="9745" width="5.125" style="44" customWidth="1"/>
+    <col min="9746" max="9746" width="2.625" style="44" customWidth="1"/>
     <col min="9747" max="9984" width="9" style="44"/>
-    <col min="9985" max="9985" width="3.44140625" style="44" customWidth="1"/>
-    <col min="9986" max="9986" width="5.6640625" style="44" customWidth="1"/>
+    <col min="9985" max="9985" width="3.5" style="44" customWidth="1"/>
+    <col min="9986" max="9986" width="5.625" style="44" customWidth="1"/>
     <col min="9987" max="9988" width="6" style="44" customWidth="1"/>
-    <col min="9989" max="9990" width="8.44140625" style="44" customWidth="1"/>
-    <col min="9991" max="9991" width="7.33203125" style="44" customWidth="1"/>
-    <col min="9992" max="9993" width="7.77734375" style="44" customWidth="1"/>
-    <col min="9994" max="9995" width="7.6640625" style="44" customWidth="1"/>
-    <col min="9996" max="9996" width="5.6640625" style="44" customWidth="1"/>
-    <col min="9997" max="9997" width="9.6640625" style="44" customWidth="1"/>
-    <col min="9998" max="10001" width="5.109375" style="44" customWidth="1"/>
-    <col min="10002" max="10002" width="2.6640625" style="44" customWidth="1"/>
+    <col min="9989" max="9990" width="8.5" style="44" customWidth="1"/>
+    <col min="9991" max="9991" width="7.375" style="44" customWidth="1"/>
+    <col min="9992" max="9993" width="7.75" style="44" customWidth="1"/>
+    <col min="9994" max="9995" width="7.625" style="44" customWidth="1"/>
+    <col min="9996" max="9996" width="5.625" style="44" customWidth="1"/>
+    <col min="9997" max="9997" width="9.625" style="44" customWidth="1"/>
+    <col min="9998" max="10001" width="5.125" style="44" customWidth="1"/>
+    <col min="10002" max="10002" width="2.625" style="44" customWidth="1"/>
     <col min="10003" max="10240" width="9" style="44"/>
-    <col min="10241" max="10241" width="3.44140625" style="44" customWidth="1"/>
-    <col min="10242" max="10242" width="5.6640625" style="44" customWidth="1"/>
+    <col min="10241" max="10241" width="3.5" style="44" customWidth="1"/>
+    <col min="10242" max="10242" width="5.625" style="44" customWidth="1"/>
     <col min="10243" max="10244" width="6" style="44" customWidth="1"/>
-    <col min="10245" max="10246" width="8.44140625" style="44" customWidth="1"/>
-    <col min="10247" max="10247" width="7.33203125" style="44" customWidth="1"/>
-    <col min="10248" max="10249" width="7.77734375" style="44" customWidth="1"/>
-    <col min="10250" max="10251" width="7.6640625" style="44" customWidth="1"/>
-    <col min="10252" max="10252" width="5.6640625" style="44" customWidth="1"/>
-    <col min="10253" max="10253" width="9.6640625" style="44" customWidth="1"/>
-    <col min="10254" max="10257" width="5.109375" style="44" customWidth="1"/>
-    <col min="10258" max="10258" width="2.6640625" style="44" customWidth="1"/>
+    <col min="10245" max="10246" width="8.5" style="44" customWidth="1"/>
+    <col min="10247" max="10247" width="7.375" style="44" customWidth="1"/>
+    <col min="10248" max="10249" width="7.75" style="44" customWidth="1"/>
+    <col min="10250" max="10251" width="7.625" style="44" customWidth="1"/>
+    <col min="10252" max="10252" width="5.625" style="44" customWidth="1"/>
+    <col min="10253" max="10253" width="9.625" style="44" customWidth="1"/>
+    <col min="10254" max="10257" width="5.125" style="44" customWidth="1"/>
+    <col min="10258" max="10258" width="2.625" style="44" customWidth="1"/>
     <col min="10259" max="10496" width="9" style="44"/>
-    <col min="10497" max="10497" width="3.44140625" style="44" customWidth="1"/>
-    <col min="10498" max="10498" width="5.6640625" style="44" customWidth="1"/>
+    <col min="10497" max="10497" width="3.5" style="44" customWidth="1"/>
+    <col min="10498" max="10498" width="5.625" style="44" customWidth="1"/>
     <col min="10499" max="10500" width="6" style="44" customWidth="1"/>
-    <col min="10501" max="10502" width="8.44140625" style="44" customWidth="1"/>
-    <col min="10503" max="10503" width="7.33203125" style="44" customWidth="1"/>
-    <col min="10504" max="10505" width="7.77734375" style="44" customWidth="1"/>
-    <col min="10506" max="10507" width="7.6640625" style="44" customWidth="1"/>
-    <col min="10508" max="10508" width="5.6640625" style="44" customWidth="1"/>
-    <col min="10509" max="10509" width="9.6640625" style="44" customWidth="1"/>
-    <col min="10510" max="10513" width="5.109375" style="44" customWidth="1"/>
-    <col min="10514" max="10514" width="2.6640625" style="44" customWidth="1"/>
+    <col min="10501" max="10502" width="8.5" style="44" customWidth="1"/>
+    <col min="10503" max="10503" width="7.375" style="44" customWidth="1"/>
+    <col min="10504" max="10505" width="7.75" style="44" customWidth="1"/>
+    <col min="10506" max="10507" width="7.625" style="44" customWidth="1"/>
+    <col min="10508" max="10508" width="5.625" style="44" customWidth="1"/>
+    <col min="10509" max="10509" width="9.625" style="44" customWidth="1"/>
+    <col min="10510" max="10513" width="5.125" style="44" customWidth="1"/>
+    <col min="10514" max="10514" width="2.625" style="44" customWidth="1"/>
     <col min="10515" max="10752" width="9" style="44"/>
-    <col min="10753" max="10753" width="3.44140625" style="44" customWidth="1"/>
-    <col min="10754" max="10754" width="5.6640625" style="44" customWidth="1"/>
+    <col min="10753" max="10753" width="3.5" style="44" customWidth="1"/>
+    <col min="10754" max="10754" width="5.625" style="44" customWidth="1"/>
     <col min="10755" max="10756" width="6" style="44" customWidth="1"/>
-    <col min="10757" max="10758" width="8.44140625" style="44" customWidth="1"/>
-    <col min="10759" max="10759" width="7.33203125" style="44" customWidth="1"/>
-    <col min="10760" max="10761" width="7.77734375" style="44" customWidth="1"/>
-    <col min="10762" max="10763" width="7.6640625" style="44" customWidth="1"/>
-    <col min="10764" max="10764" width="5.6640625" style="44" customWidth="1"/>
-    <col min="10765" max="10765" width="9.6640625" style="44" customWidth="1"/>
-    <col min="10766" max="10769" width="5.109375" style="44" customWidth="1"/>
-    <col min="10770" max="10770" width="2.6640625" style="44" customWidth="1"/>
+    <col min="10757" max="10758" width="8.5" style="44" customWidth="1"/>
+    <col min="10759" max="10759" width="7.375" style="44" customWidth="1"/>
+    <col min="10760" max="10761" width="7.75" style="44" customWidth="1"/>
+    <col min="10762" max="10763" width="7.625" style="44" customWidth="1"/>
+    <col min="10764" max="10764" width="5.625" style="44" customWidth="1"/>
+    <col min="10765" max="10765" width="9.625" style="44" customWidth="1"/>
+    <col min="10766" max="10769" width="5.125" style="44" customWidth="1"/>
+    <col min="10770" max="10770" width="2.625" style="44" customWidth="1"/>
     <col min="10771" max="11008" width="9" style="44"/>
-    <col min="11009" max="11009" width="3.44140625" style="44" customWidth="1"/>
-    <col min="11010" max="11010" width="5.6640625" style="44" customWidth="1"/>
+    <col min="11009" max="11009" width="3.5" style="44" customWidth="1"/>
+    <col min="11010" max="11010" width="5.625" style="44" customWidth="1"/>
     <col min="11011" max="11012" width="6" style="44" customWidth="1"/>
-    <col min="11013" max="11014" width="8.44140625" style="44" customWidth="1"/>
-    <col min="11015" max="11015" width="7.33203125" style="44" customWidth="1"/>
-    <col min="11016" max="11017" width="7.77734375" style="44" customWidth="1"/>
-    <col min="11018" max="11019" width="7.6640625" style="44" customWidth="1"/>
-    <col min="11020" max="11020" width="5.6640625" style="44" customWidth="1"/>
-    <col min="11021" max="11021" width="9.6640625" style="44" customWidth="1"/>
-    <col min="11022" max="11025" width="5.109375" style="44" customWidth="1"/>
-    <col min="11026" max="11026" width="2.6640625" style="44" customWidth="1"/>
+    <col min="11013" max="11014" width="8.5" style="44" customWidth="1"/>
+    <col min="11015" max="11015" width="7.375" style="44" customWidth="1"/>
+    <col min="11016" max="11017" width="7.75" style="44" customWidth="1"/>
+    <col min="11018" max="11019" width="7.625" style="44" customWidth="1"/>
+    <col min="11020" max="11020" width="5.625" style="44" customWidth="1"/>
+    <col min="11021" max="11021" width="9.625" style="44" customWidth="1"/>
+    <col min="11022" max="11025" width="5.125" style="44" customWidth="1"/>
+    <col min="11026" max="11026" width="2.625" style="44" customWidth="1"/>
     <col min="11027" max="11264" width="9" style="44"/>
-    <col min="11265" max="11265" width="3.44140625" style="44" customWidth="1"/>
-    <col min="11266" max="11266" width="5.6640625" style="44" customWidth="1"/>
+    <col min="11265" max="11265" width="3.5" style="44" customWidth="1"/>
+    <col min="11266" max="11266" width="5.625" style="44" customWidth="1"/>
     <col min="11267" max="11268" width="6" style="44" customWidth="1"/>
-    <col min="11269" max="11270" width="8.44140625" style="44" customWidth="1"/>
-    <col min="11271" max="11271" width="7.33203125" style="44" customWidth="1"/>
-    <col min="11272" max="11273" width="7.77734375" style="44" customWidth="1"/>
-    <col min="11274" max="11275" width="7.6640625" style="44" customWidth="1"/>
-    <col min="11276" max="11276" width="5.6640625" style="44" customWidth="1"/>
-    <col min="11277" max="11277" width="9.6640625" style="44" customWidth="1"/>
-    <col min="11278" max="11281" width="5.109375" style="44" customWidth="1"/>
-    <col min="11282" max="11282" width="2.6640625" style="44" customWidth="1"/>
+    <col min="11269" max="11270" width="8.5" style="44" customWidth="1"/>
+    <col min="11271" max="11271" width="7.375" style="44" customWidth="1"/>
+    <col min="11272" max="11273" width="7.75" style="44" customWidth="1"/>
+    <col min="11274" max="11275" width="7.625" style="44" customWidth="1"/>
+    <col min="11276" max="11276" width="5.625" style="44" customWidth="1"/>
+    <col min="11277" max="11277" width="9.625" style="44" customWidth="1"/>
+    <col min="11278" max="11281" width="5.125" style="44" customWidth="1"/>
+    <col min="11282" max="11282" width="2.625" style="44" customWidth="1"/>
     <col min="11283" max="11520" width="9" style="44"/>
-    <col min="11521" max="11521" width="3.44140625" style="44" customWidth="1"/>
-    <col min="11522" max="11522" width="5.6640625" style="44" customWidth="1"/>
+    <col min="11521" max="11521" width="3.5" style="44" customWidth="1"/>
+    <col min="11522" max="11522" width="5.625" style="44" customWidth="1"/>
     <col min="11523" max="11524" width="6" style="44" customWidth="1"/>
-    <col min="11525" max="11526" width="8.44140625" style="44" customWidth="1"/>
-    <col min="11527" max="11527" width="7.33203125" style="44" customWidth="1"/>
-    <col min="11528" max="11529" width="7.77734375" style="44" customWidth="1"/>
-    <col min="11530" max="11531" width="7.6640625" style="44" customWidth="1"/>
-    <col min="11532" max="11532" width="5.6640625" style="44" customWidth="1"/>
-    <col min="11533" max="11533" width="9.6640625" style="44" customWidth="1"/>
-    <col min="11534" max="11537" width="5.109375" style="44" customWidth="1"/>
-    <col min="11538" max="11538" width="2.6640625" style="44" customWidth="1"/>
+    <col min="11525" max="11526" width="8.5" style="44" customWidth="1"/>
+    <col min="11527" max="11527" width="7.375" style="44" customWidth="1"/>
+    <col min="11528" max="11529" width="7.75" style="44" customWidth="1"/>
+    <col min="11530" max="11531" width="7.625" style="44" customWidth="1"/>
+    <col min="11532" max="11532" width="5.625" style="44" customWidth="1"/>
+    <col min="11533" max="11533" width="9.625" style="44" customWidth="1"/>
+    <col min="11534" max="11537" width="5.125" style="44" customWidth="1"/>
+    <col min="11538" max="11538" width="2.625" style="44" customWidth="1"/>
     <col min="11539" max="11776" width="9" style="44"/>
-    <col min="11777" max="11777" width="3.44140625" style="44" customWidth="1"/>
-    <col min="11778" max="11778" width="5.6640625" style="44" customWidth="1"/>
+    <col min="11777" max="11777" width="3.5" style="44" customWidth="1"/>
+    <col min="11778" max="11778" width="5.625" style="44" customWidth="1"/>
     <col min="11779" max="11780" width="6" style="44" customWidth="1"/>
-    <col min="11781" max="11782" width="8.44140625" style="44" customWidth="1"/>
-    <col min="11783" max="11783" width="7.33203125" style="44" customWidth="1"/>
-    <col min="11784" max="11785" width="7.77734375" style="44" customWidth="1"/>
-    <col min="11786" max="11787" width="7.6640625" style="44" customWidth="1"/>
-    <col min="11788" max="11788" width="5.6640625" style="44" customWidth="1"/>
-    <col min="11789" max="11789" width="9.6640625" style="44" customWidth="1"/>
-    <col min="11790" max="11793" width="5.109375" style="44" customWidth="1"/>
-    <col min="11794" max="11794" width="2.6640625" style="44" customWidth="1"/>
+    <col min="11781" max="11782" width="8.5" style="44" customWidth="1"/>
+    <col min="11783" max="11783" width="7.375" style="44" customWidth="1"/>
+    <col min="11784" max="11785" width="7.75" style="44" customWidth="1"/>
+    <col min="11786" max="11787" width="7.625" style="44" customWidth="1"/>
+    <col min="11788" max="11788" width="5.625" style="44" customWidth="1"/>
+    <col min="11789" max="11789" width="9.625" style="44" customWidth="1"/>
+    <col min="11790" max="11793" width="5.125" style="44" customWidth="1"/>
+    <col min="11794" max="11794" width="2.625" style="44" customWidth="1"/>
     <col min="11795" max="12032" width="9" style="44"/>
-    <col min="12033" max="12033" width="3.44140625" style="44" customWidth="1"/>
-    <col min="12034" max="12034" width="5.6640625" style="44" customWidth="1"/>
+    <col min="12033" max="12033" width="3.5" style="44" customWidth="1"/>
+    <col min="12034" max="12034" width="5.625" style="44" customWidth="1"/>
     <col min="12035" max="12036" width="6" style="44" customWidth="1"/>
-    <col min="12037" max="12038" width="8.44140625" style="44" customWidth="1"/>
-    <col min="12039" max="12039" width="7.33203125" style="44" customWidth="1"/>
-    <col min="12040" max="12041" width="7.77734375" style="44" customWidth="1"/>
-    <col min="12042" max="12043" width="7.6640625" style="44" customWidth="1"/>
-    <col min="12044" max="12044" width="5.6640625" style="44" customWidth="1"/>
-    <col min="12045" max="12045" width="9.6640625" style="44" customWidth="1"/>
-    <col min="12046" max="12049" width="5.109375" style="44" customWidth="1"/>
-    <col min="12050" max="12050" width="2.6640625" style="44" customWidth="1"/>
+    <col min="12037" max="12038" width="8.5" style="44" customWidth="1"/>
+    <col min="12039" max="12039" width="7.375" style="44" customWidth="1"/>
+    <col min="12040" max="12041" width="7.75" style="44" customWidth="1"/>
+    <col min="12042" max="12043" width="7.625" style="44" customWidth="1"/>
+    <col min="12044" max="12044" width="5.625" style="44" customWidth="1"/>
+    <col min="12045" max="12045" width="9.625" style="44" customWidth="1"/>
+    <col min="12046" max="12049" width="5.125" style="44" customWidth="1"/>
+    <col min="12050" max="12050" width="2.625" style="44" customWidth="1"/>
     <col min="12051" max="12288" width="9" style="44"/>
-    <col min="12289" max="12289" width="3.44140625" style="44" customWidth="1"/>
-    <col min="12290" max="12290" width="5.6640625" style="44" customWidth="1"/>
+    <col min="12289" max="12289" width="3.5" style="44" customWidth="1"/>
+    <col min="12290" max="12290" width="5.625" style="44" customWidth="1"/>
     <col min="12291" max="12292" width="6" style="44" customWidth="1"/>
-    <col min="12293" max="12294" width="8.44140625" style="44" customWidth="1"/>
-    <col min="12295" max="12295" width="7.33203125" style="44" customWidth="1"/>
-    <col min="12296" max="12297" width="7.77734375" style="44" customWidth="1"/>
-    <col min="12298" max="12299" width="7.6640625" style="44" customWidth="1"/>
-    <col min="12300" max="12300" width="5.6640625" style="44" customWidth="1"/>
-    <col min="12301" max="12301" width="9.6640625" style="44" customWidth="1"/>
-    <col min="12302" max="12305" width="5.109375" style="44" customWidth="1"/>
-    <col min="12306" max="12306" width="2.6640625" style="44" customWidth="1"/>
+    <col min="12293" max="12294" width="8.5" style="44" customWidth="1"/>
+    <col min="12295" max="12295" width="7.375" style="44" customWidth="1"/>
+    <col min="12296" max="12297" width="7.75" style="44" customWidth="1"/>
+    <col min="12298" max="12299" width="7.625" style="44" customWidth="1"/>
+    <col min="12300" max="12300" width="5.625" style="44" customWidth="1"/>
+    <col min="12301" max="12301" width="9.625" style="44" customWidth="1"/>
+    <col min="12302" max="12305" width="5.125" style="44" customWidth="1"/>
+    <col min="12306" max="12306" width="2.625" style="44" customWidth="1"/>
     <col min="12307" max="12544" width="9" style="44"/>
-    <col min="12545" max="12545" width="3.44140625" style="44" customWidth="1"/>
-    <col min="12546" max="12546" width="5.6640625" style="44" customWidth="1"/>
+    <col min="12545" max="12545" width="3.5" style="44" customWidth="1"/>
+    <col min="12546" max="12546" width="5.625" style="44" customWidth="1"/>
     <col min="12547" max="12548" width="6" style="44" customWidth="1"/>
-    <col min="12549" max="12550" width="8.44140625" style="44" customWidth="1"/>
-    <col min="12551" max="12551" width="7.33203125" style="44" customWidth="1"/>
-    <col min="12552" max="12553" width="7.77734375" style="44" customWidth="1"/>
-    <col min="12554" max="12555" width="7.6640625" style="44" customWidth="1"/>
-    <col min="12556" max="12556" width="5.6640625" style="44" customWidth="1"/>
-    <col min="12557" max="12557" width="9.6640625" style="44" customWidth="1"/>
-    <col min="12558" max="12561" width="5.109375" style="44" customWidth="1"/>
-    <col min="12562" max="12562" width="2.6640625" style="44" customWidth="1"/>
+    <col min="12549" max="12550" width="8.5" style="44" customWidth="1"/>
+    <col min="12551" max="12551" width="7.375" style="44" customWidth="1"/>
+    <col min="12552" max="12553" width="7.75" style="44" customWidth="1"/>
+    <col min="12554" max="12555" width="7.625" style="44" customWidth="1"/>
+    <col min="12556" max="12556" width="5.625" style="44" customWidth="1"/>
+    <col min="12557" max="12557" width="9.625" style="44" customWidth="1"/>
+    <col min="12558" max="12561" width="5.125" style="44" customWidth="1"/>
+    <col min="12562" max="12562" width="2.625" style="44" customWidth="1"/>
     <col min="12563" max="12800" width="9" style="44"/>
-    <col min="12801" max="12801" width="3.44140625" style="44" customWidth="1"/>
-    <col min="12802" max="12802" width="5.6640625" style="44" customWidth="1"/>
+    <col min="12801" max="12801" width="3.5" style="44" customWidth="1"/>
+    <col min="12802" max="12802" width="5.625" style="44" customWidth="1"/>
     <col min="12803" max="12804" width="6" style="44" customWidth="1"/>
-    <col min="12805" max="12806" width="8.44140625" style="44" customWidth="1"/>
-    <col min="12807" max="12807" width="7.33203125" style="44" customWidth="1"/>
-    <col min="12808" max="12809" width="7.77734375" style="44" customWidth="1"/>
-    <col min="12810" max="12811" width="7.6640625" style="44" customWidth="1"/>
-    <col min="12812" max="12812" width="5.6640625" style="44" customWidth="1"/>
-    <col min="12813" max="12813" width="9.6640625" style="44" customWidth="1"/>
-    <col min="12814" max="12817" width="5.109375" style="44" customWidth="1"/>
-    <col min="12818" max="12818" width="2.6640625" style="44" customWidth="1"/>
+    <col min="12805" max="12806" width="8.5" style="44" customWidth="1"/>
+    <col min="12807" max="12807" width="7.375" style="44" customWidth="1"/>
+    <col min="12808" max="12809" width="7.75" style="44" customWidth="1"/>
+    <col min="12810" max="12811" width="7.625" style="44" customWidth="1"/>
+    <col min="12812" max="12812" width="5.625" style="44" customWidth="1"/>
+    <col min="12813" max="12813" width="9.625" style="44" customWidth="1"/>
+    <col min="12814" max="12817" width="5.125" style="44" customWidth="1"/>
+    <col min="12818" max="12818" width="2.625" style="44" customWidth="1"/>
     <col min="12819" max="13056" width="9" style="44"/>
-    <col min="13057" max="13057" width="3.44140625" style="44" customWidth="1"/>
-    <col min="13058" max="13058" width="5.6640625" style="44" customWidth="1"/>
+    <col min="13057" max="13057" width="3.5" style="44" customWidth="1"/>
+    <col min="13058" max="13058" width="5.625" style="44" customWidth="1"/>
     <col min="13059" max="13060" width="6" style="44" customWidth="1"/>
-    <col min="13061" max="13062" width="8.44140625" style="44" customWidth="1"/>
-    <col min="13063" max="13063" width="7.33203125" style="44" customWidth="1"/>
-    <col min="13064" max="13065" width="7.77734375" style="44" customWidth="1"/>
-    <col min="13066" max="13067" width="7.6640625" style="44" customWidth="1"/>
-    <col min="13068" max="13068" width="5.6640625" style="44" customWidth="1"/>
-    <col min="13069" max="13069" width="9.6640625" style="44" customWidth="1"/>
-    <col min="13070" max="13073" width="5.109375" style="44" customWidth="1"/>
-    <col min="13074" max="13074" width="2.6640625" style="44" customWidth="1"/>
+    <col min="13061" max="13062" width="8.5" style="44" customWidth="1"/>
+    <col min="13063" max="13063" width="7.375" style="44" customWidth="1"/>
+    <col min="13064" max="13065" width="7.75" style="44" customWidth="1"/>
+    <col min="13066" max="13067" width="7.625" style="44" customWidth="1"/>
+    <col min="13068" max="13068" width="5.625" style="44" customWidth="1"/>
+    <col min="13069" max="13069" width="9.625" style="44" customWidth="1"/>
+    <col min="13070" max="13073" width="5.125" style="44" customWidth="1"/>
+    <col min="13074" max="13074" width="2.625" style="44" customWidth="1"/>
     <col min="13075" max="13312" width="9" style="44"/>
-    <col min="13313" max="13313" width="3.44140625" style="44" customWidth="1"/>
-    <col min="13314" max="13314" width="5.6640625" style="44" customWidth="1"/>
+    <col min="13313" max="13313" width="3.5" style="44" customWidth="1"/>
+    <col min="13314" max="13314" width="5.625" style="44" customWidth="1"/>
     <col min="13315" max="13316" width="6" style="44" customWidth="1"/>
-    <col min="13317" max="13318" width="8.44140625" style="44" customWidth="1"/>
-    <col min="13319" max="13319" width="7.33203125" style="44" customWidth="1"/>
-    <col min="13320" max="13321" width="7.77734375" style="44" customWidth="1"/>
-    <col min="13322" max="13323" width="7.6640625" style="44" customWidth="1"/>
-    <col min="13324" max="13324" width="5.6640625" style="44" customWidth="1"/>
-    <col min="13325" max="13325" width="9.6640625" style="44" customWidth="1"/>
-    <col min="13326" max="13329" width="5.109375" style="44" customWidth="1"/>
-    <col min="13330" max="13330" width="2.6640625" style="44" customWidth="1"/>
+    <col min="13317" max="13318" width="8.5" style="44" customWidth="1"/>
+    <col min="13319" max="13319" width="7.375" style="44" customWidth="1"/>
+    <col min="13320" max="13321" width="7.75" style="44" customWidth="1"/>
+    <col min="13322" max="13323" width="7.625" style="44" customWidth="1"/>
+    <col min="13324" max="13324" width="5.625" style="44" customWidth="1"/>
+    <col min="13325" max="13325" width="9.625" style="44" customWidth="1"/>
+    <col min="13326" max="13329" width="5.125" style="44" customWidth="1"/>
+    <col min="13330" max="13330" width="2.625" style="44" customWidth="1"/>
     <col min="13331" max="13568" width="9" style="44"/>
-    <col min="13569" max="13569" width="3.44140625" style="44" customWidth="1"/>
-    <col min="13570" max="13570" width="5.6640625" style="44" customWidth="1"/>
+    <col min="13569" max="13569" width="3.5" style="44" customWidth="1"/>
+    <col min="13570" max="13570" width="5.625" style="44" customWidth="1"/>
     <col min="13571" max="13572" width="6" style="44" customWidth="1"/>
-    <col min="13573" max="13574" width="8.44140625" style="44" customWidth="1"/>
-    <col min="13575" max="13575" width="7.33203125" style="44" customWidth="1"/>
-    <col min="13576" max="13577" width="7.77734375" style="44" customWidth="1"/>
-    <col min="13578" max="13579" width="7.6640625" style="44" customWidth="1"/>
-    <col min="13580" max="13580" width="5.6640625" style="44" customWidth="1"/>
-    <col min="13581" max="13581" width="9.6640625" style="44" customWidth="1"/>
-    <col min="13582" max="13585" width="5.109375" style="44" customWidth="1"/>
-    <col min="13586" max="13586" width="2.6640625" style="44" customWidth="1"/>
+    <col min="13573" max="13574" width="8.5" style="44" customWidth="1"/>
+    <col min="13575" max="13575" width="7.375" style="44" customWidth="1"/>
+    <col min="13576" max="13577" width="7.75" style="44" customWidth="1"/>
+    <col min="13578" max="13579" width="7.625" style="44" customWidth="1"/>
+    <col min="13580" max="13580" width="5.625" style="44" customWidth="1"/>
+    <col min="13581" max="13581" width="9.625" style="44" customWidth="1"/>
+    <col min="13582" max="13585" width="5.125" style="44" customWidth="1"/>
+    <col min="13586" max="13586" width="2.625" style="44" customWidth="1"/>
     <col min="13587" max="13824" width="9" style="44"/>
-    <col min="13825" max="13825" width="3.44140625" style="44" customWidth="1"/>
-    <col min="13826" max="13826" width="5.6640625" style="44" customWidth="1"/>
+    <col min="13825" max="13825" width="3.5" style="44" customWidth="1"/>
+    <col min="13826" max="13826" width="5.625" style="44" customWidth="1"/>
     <col min="13827" max="13828" width="6" style="44" customWidth="1"/>
-    <col min="13829" max="13830" width="8.44140625" style="44" customWidth="1"/>
-    <col min="13831" max="13831" width="7.33203125" style="44" customWidth="1"/>
-    <col min="13832" max="13833" width="7.77734375" style="44" customWidth="1"/>
-    <col min="13834" max="13835" width="7.6640625" style="44" customWidth="1"/>
-    <col min="13836" max="13836" width="5.6640625" style="44" customWidth="1"/>
-    <col min="13837" max="13837" width="9.6640625" style="44" customWidth="1"/>
-    <col min="13838" max="13841" width="5.109375" style="44" customWidth="1"/>
-    <col min="13842" max="13842" width="2.6640625" style="44" customWidth="1"/>
+    <col min="13829" max="13830" width="8.5" style="44" customWidth="1"/>
+    <col min="13831" max="13831" width="7.375" style="44" customWidth="1"/>
+    <col min="13832" max="13833" width="7.75" style="44" customWidth="1"/>
+    <col min="13834" max="13835" width="7.625" style="44" customWidth="1"/>
+    <col min="13836" max="13836" width="5.625" style="44" customWidth="1"/>
+    <col min="13837" max="13837" width="9.625" style="44" customWidth="1"/>
+    <col min="13838" max="13841" width="5.125" style="44" customWidth="1"/>
+    <col min="13842" max="13842" width="2.625" style="44" customWidth="1"/>
     <col min="13843" max="14080" width="9" style="44"/>
-    <col min="14081" max="14081" width="3.44140625" style="44" customWidth="1"/>
-    <col min="14082" max="14082" width="5.6640625" style="44" customWidth="1"/>
+    <col min="14081" max="14081" width="3.5" style="44" customWidth="1"/>
+    <col min="14082" max="14082" width="5.625" style="44" customWidth="1"/>
     <col min="14083" max="14084" width="6" style="44" customWidth="1"/>
-    <col min="14085" max="14086" width="8.44140625" style="44" customWidth="1"/>
-    <col min="14087" max="14087" width="7.33203125" style="44" customWidth="1"/>
-    <col min="14088" max="14089" width="7.77734375" style="44" customWidth="1"/>
-    <col min="14090" max="14091" width="7.6640625" style="44" customWidth="1"/>
-    <col min="14092" max="14092" width="5.6640625" style="44" customWidth="1"/>
-    <col min="14093" max="14093" width="9.6640625" style="44" customWidth="1"/>
-    <col min="14094" max="14097" width="5.109375" style="44" customWidth="1"/>
-    <col min="14098" max="14098" width="2.6640625" style="44" customWidth="1"/>
+    <col min="14085" max="14086" width="8.5" style="44" customWidth="1"/>
+    <col min="14087" max="14087" width="7.375" style="44" customWidth="1"/>
+    <col min="14088" max="14089" width="7.75" style="44" customWidth="1"/>
+    <col min="14090" max="14091" width="7.625" style="44" customWidth="1"/>
+    <col min="14092" max="14092" width="5.625" style="44" customWidth="1"/>
+    <col min="14093" max="14093" width="9.625" style="44" customWidth="1"/>
+    <col min="14094" max="14097" width="5.125" style="44" customWidth="1"/>
+    <col min="14098" max="14098" width="2.625" style="44" customWidth="1"/>
     <col min="14099" max="14336" width="9" style="44"/>
-    <col min="14337" max="14337" width="3.44140625" style="44" customWidth="1"/>
-    <col min="14338" max="14338" width="5.6640625" style="44" customWidth="1"/>
+    <col min="14337" max="14337" width="3.5" style="44" customWidth="1"/>
+    <col min="14338" max="14338" width="5.625" style="44" customWidth="1"/>
     <col min="14339" max="14340" width="6" style="44" customWidth="1"/>
-    <col min="14341" max="14342" width="8.44140625" style="44" customWidth="1"/>
-    <col min="14343" max="14343" width="7.33203125" style="44" customWidth="1"/>
-    <col min="14344" max="14345" width="7.77734375" style="44" customWidth="1"/>
-    <col min="14346" max="14347" width="7.6640625" style="44" customWidth="1"/>
-    <col min="14348" max="14348" width="5.6640625" style="44" customWidth="1"/>
-    <col min="14349" max="14349" width="9.6640625" style="44" customWidth="1"/>
-    <col min="14350" max="14353" width="5.109375" style="44" customWidth="1"/>
-    <col min="14354" max="14354" width="2.6640625" style="44" customWidth="1"/>
+    <col min="14341" max="14342" width="8.5" style="44" customWidth="1"/>
+    <col min="14343" max="14343" width="7.375" style="44" customWidth="1"/>
+    <col min="14344" max="14345" width="7.75" style="44" customWidth="1"/>
+    <col min="14346" max="14347" width="7.625" style="44" customWidth="1"/>
+    <col min="14348" max="14348" width="5.625" style="44" customWidth="1"/>
+    <col min="14349" max="14349" width="9.625" style="44" customWidth="1"/>
+    <col min="14350" max="14353" width="5.125" style="44" customWidth="1"/>
+    <col min="14354" max="14354" width="2.625" style="44" customWidth="1"/>
     <col min="14355" max="14592" width="9" style="44"/>
-    <col min="14593" max="14593" width="3.44140625" style="44" customWidth="1"/>
-    <col min="14594" max="14594" width="5.6640625" style="44" customWidth="1"/>
+    <col min="14593" max="14593" width="3.5" style="44" customWidth="1"/>
+    <col min="14594" max="14594" width="5.625" style="44" customWidth="1"/>
     <col min="14595" max="14596" width="6" style="44" customWidth="1"/>
-    <col min="14597" max="14598" width="8.44140625" style="44" customWidth="1"/>
-    <col min="14599" max="14599" width="7.33203125" style="44" customWidth="1"/>
-    <col min="14600" max="14601" width="7.77734375" style="44" customWidth="1"/>
-    <col min="14602" max="14603" width="7.6640625" style="44" customWidth="1"/>
-    <col min="14604" max="14604" width="5.6640625" style="44" customWidth="1"/>
-    <col min="14605" max="14605" width="9.6640625" style="44" customWidth="1"/>
-    <col min="14606" max="14609" width="5.109375" style="44" customWidth="1"/>
-    <col min="14610" max="14610" width="2.6640625" style="44" customWidth="1"/>
+    <col min="14597" max="14598" width="8.5" style="44" customWidth="1"/>
+    <col min="14599" max="14599" width="7.375" style="44" customWidth="1"/>
+    <col min="14600" max="14601" width="7.75" style="44" customWidth="1"/>
+    <col min="14602" max="14603" width="7.625" style="44" customWidth="1"/>
+    <col min="14604" max="14604" width="5.625" style="44" customWidth="1"/>
+    <col min="14605" max="14605" width="9.625" style="44" customWidth="1"/>
+    <col min="14606" max="14609" width="5.125" style="44" customWidth="1"/>
+    <col min="14610" max="14610" width="2.625" style="44" customWidth="1"/>
     <col min="14611" max="14848" width="9" style="44"/>
-    <col min="14849" max="14849" width="3.44140625" style="44" customWidth="1"/>
-    <col min="14850" max="14850" width="5.6640625" style="44" customWidth="1"/>
+    <col min="14849" max="14849" width="3.5" style="44" customWidth="1"/>
+    <col min="14850" max="14850" width="5.625" style="44" customWidth="1"/>
     <col min="14851" max="14852" width="6" style="44" customWidth="1"/>
-    <col min="14853" max="14854" width="8.44140625" style="44" customWidth="1"/>
-    <col min="14855" max="14855" width="7.33203125" style="44" customWidth="1"/>
-    <col min="14856" max="14857" width="7.77734375" style="44" customWidth="1"/>
-    <col min="14858" max="14859" width="7.6640625" style="44" customWidth="1"/>
-    <col min="14860" max="14860" width="5.6640625" style="44" customWidth="1"/>
-    <col min="14861" max="14861" width="9.6640625" style="44" customWidth="1"/>
-    <col min="14862" max="14865" width="5.109375" style="44" customWidth="1"/>
-    <col min="14866" max="14866" width="2.6640625" style="44" customWidth="1"/>
+    <col min="14853" max="14854" width="8.5" style="44" customWidth="1"/>
+    <col min="14855" max="14855" width="7.375" style="44" customWidth="1"/>
+    <col min="14856" max="14857" width="7.75" style="44" customWidth="1"/>
+    <col min="14858" max="14859" width="7.625" style="44" customWidth="1"/>
+    <col min="14860" max="14860" width="5.625" style="44" customWidth="1"/>
+    <col min="14861" max="14861" width="9.625" style="44" customWidth="1"/>
+    <col min="14862" max="14865" width="5.125" style="44" customWidth="1"/>
+    <col min="14866" max="14866" width="2.625" style="44" customWidth="1"/>
     <col min="14867" max="15104" width="9" style="44"/>
-    <col min="15105" max="15105" width="3.44140625" style="44" customWidth="1"/>
-    <col min="15106" max="15106" width="5.6640625" style="44" customWidth="1"/>
+    <col min="15105" max="15105" width="3.5" style="44" customWidth="1"/>
+    <col min="15106" max="15106" width="5.625" style="44" customWidth="1"/>
     <col min="15107" max="15108" width="6" style="44" customWidth="1"/>
-    <col min="15109" max="15110" width="8.44140625" style="44" customWidth="1"/>
-    <col min="15111" max="15111" width="7.33203125" style="44" customWidth="1"/>
-    <col min="15112" max="15113" width="7.77734375" style="44" customWidth="1"/>
-    <col min="15114" max="15115" width="7.6640625" style="44" customWidth="1"/>
-    <col min="15116" max="15116" width="5.6640625" style="44" customWidth="1"/>
-    <col min="15117" max="15117" width="9.6640625" style="44" customWidth="1"/>
-    <col min="15118" max="15121" width="5.109375" style="44" customWidth="1"/>
-    <col min="15122" max="15122" width="2.6640625" style="44" customWidth="1"/>
+    <col min="15109" max="15110" width="8.5" style="44" customWidth="1"/>
+    <col min="15111" max="15111" width="7.375" style="44" customWidth="1"/>
+    <col min="15112" max="15113" width="7.75" style="44" customWidth="1"/>
+    <col min="15114" max="15115" width="7.625" style="44" customWidth="1"/>
+    <col min="15116" max="15116" width="5.625" style="44" customWidth="1"/>
+    <col min="15117" max="15117" width="9.625" style="44" customWidth="1"/>
+    <col min="15118" max="15121" width="5.125" style="44" customWidth="1"/>
+    <col min="15122" max="15122" width="2.625" style="44" customWidth="1"/>
     <col min="15123" max="15360" width="9" style="44"/>
-    <col min="15361" max="15361" width="3.44140625" style="44" customWidth="1"/>
-    <col min="15362" max="15362" width="5.6640625" style="44" customWidth="1"/>
+    <col min="15361" max="15361" width="3.5" style="44" customWidth="1"/>
+    <col min="15362" max="15362" width="5.625" style="44" customWidth="1"/>
     <col min="15363" max="15364" width="6" style="44" customWidth="1"/>
-    <col min="15365" max="15366" width="8.44140625" style="44" customWidth="1"/>
-    <col min="15367" max="15367" width="7.33203125" style="44" customWidth="1"/>
-    <col min="15368" max="15369" width="7.77734375" style="44" customWidth="1"/>
-    <col min="15370" max="15371" width="7.6640625" style="44" customWidth="1"/>
-    <col min="15372" max="15372" width="5.6640625" style="44" customWidth="1"/>
-    <col min="15373" max="15373" width="9.6640625" style="44" customWidth="1"/>
-    <col min="15374" max="15377" width="5.109375" style="44" customWidth="1"/>
-    <col min="15378" max="15378" width="2.6640625" style="44" customWidth="1"/>
+    <col min="15365" max="15366" width="8.5" style="44" customWidth="1"/>
+    <col min="15367" max="15367" width="7.375" style="44" customWidth="1"/>
+    <col min="15368" max="15369" width="7.75" style="44" customWidth="1"/>
+    <col min="15370" max="15371" width="7.625" style="44" customWidth="1"/>
+    <col min="15372" max="15372" width="5.625" style="44" customWidth="1"/>
+    <col min="15373" max="15373" width="9.625" style="44" customWidth="1"/>
+    <col min="15374" max="15377" width="5.125" style="44" customWidth="1"/>
+    <col min="15378" max="15378" width="2.625" style="44" customWidth="1"/>
     <col min="15379" max="15616" width="9" style="44"/>
-    <col min="15617" max="15617" width="3.44140625" style="44" customWidth="1"/>
-    <col min="15618" max="15618" width="5.6640625" style="44" customWidth="1"/>
+    <col min="15617" max="15617" width="3.5" style="44" customWidth="1"/>
+    <col min="15618" max="15618" width="5.625" style="44" customWidth="1"/>
     <col min="15619" max="15620" width="6" style="44" customWidth="1"/>
-    <col min="15621" max="15622" width="8.44140625" style="44" customWidth="1"/>
-    <col min="15623" max="15623" width="7.33203125" style="44" customWidth="1"/>
-    <col min="15624" max="15625" width="7.77734375" style="44" customWidth="1"/>
-    <col min="15626" max="15627" width="7.6640625" style="44" customWidth="1"/>
-    <col min="15628" max="15628" width="5.6640625" style="44" customWidth="1"/>
-    <col min="15629" max="15629" width="9.6640625" style="44" customWidth="1"/>
-    <col min="15630" max="15633" width="5.109375" style="44" customWidth="1"/>
-    <col min="15634" max="15634" width="2.6640625" style="44" customWidth="1"/>
+    <col min="15621" max="15622" width="8.5" style="44" customWidth="1"/>
+    <col min="15623" max="15623" width="7.375" style="44" customWidth="1"/>
+    <col min="15624" max="15625" width="7.75" style="44" customWidth="1"/>
+    <col min="15626" max="15627" width="7.625" style="44" customWidth="1"/>
+    <col min="15628" max="15628" width="5.625" style="44" customWidth="1"/>
+    <col min="15629" max="15629" width="9.625" style="44" customWidth="1"/>
+    <col min="15630" max="15633" width="5.125" style="44" customWidth="1"/>
+    <col min="15634" max="15634" width="2.625" style="44" customWidth="1"/>
     <col min="15635" max="15872" width="9" style="44"/>
-    <col min="15873" max="15873" width="3.44140625" style="44" customWidth="1"/>
-    <col min="15874" max="15874" width="5.6640625" style="44" customWidth="1"/>
+    <col min="15873" max="15873" width="3.5" style="44" customWidth="1"/>
+    <col min="15874" max="15874" width="5.625" style="44" customWidth="1"/>
     <col min="15875" max="15876" width="6" style="44" customWidth="1"/>
-    <col min="15877" max="15878" width="8.44140625" style="44" customWidth="1"/>
-    <col min="15879" max="15879" width="7.33203125" style="44" customWidth="1"/>
-    <col min="15880" max="15881" width="7.77734375" style="44" customWidth="1"/>
-    <col min="15882" max="15883" width="7.6640625" style="44" customWidth="1"/>
-    <col min="15884" max="15884" width="5.6640625" style="44" customWidth="1"/>
-    <col min="15885" max="15885" width="9.6640625" style="44" customWidth="1"/>
-    <col min="15886" max="15889" width="5.109375" style="44" customWidth="1"/>
-    <col min="15890" max="15890" width="2.6640625" style="44" customWidth="1"/>
+    <col min="15877" max="15878" width="8.5" style="44" customWidth="1"/>
+    <col min="15879" max="15879" width="7.375" style="44" customWidth="1"/>
+    <col min="15880" max="15881" width="7.75" style="44" customWidth="1"/>
+    <col min="15882" max="15883" width="7.625" style="44" customWidth="1"/>
+    <col min="15884" max="15884" width="5.625" style="44" customWidth="1"/>
+    <col min="15885" max="15885" width="9.625" style="44" customWidth="1"/>
+    <col min="15886" max="15889" width="5.125" style="44" customWidth="1"/>
+    <col min="15890" max="15890" width="2.625" style="44" customWidth="1"/>
     <col min="15891" max="16128" width="9" style="44"/>
-    <col min="16129" max="16129" width="3.44140625" style="44" customWidth="1"/>
-    <col min="16130" max="16130" width="5.6640625" style="44" customWidth="1"/>
+    <col min="16129" max="16129" width="3.5" style="44" customWidth="1"/>
+    <col min="16130" max="16130" width="5.625" style="44" customWidth="1"/>
     <col min="16131" max="16132" width="6" style="44" customWidth="1"/>
-    <col min="16133" max="16134" width="8.44140625" style="44" customWidth="1"/>
-    <col min="16135" max="16135" width="7.33203125" style="44" customWidth="1"/>
-    <col min="16136" max="16137" width="7.77734375" style="44" customWidth="1"/>
-    <col min="16138" max="16139" width="7.6640625" style="44" customWidth="1"/>
-    <col min="16140" max="16140" width="5.6640625" style="44" customWidth="1"/>
-    <col min="16141" max="16141" width="9.6640625" style="44" customWidth="1"/>
-    <col min="16142" max="16145" width="5.109375" style="44" customWidth="1"/>
-    <col min="16146" max="16146" width="2.6640625" style="44" customWidth="1"/>
+    <col min="16133" max="16134" width="8.5" style="44" customWidth="1"/>
+    <col min="16135" max="16135" width="7.375" style="44" customWidth="1"/>
+    <col min="16136" max="16137" width="7.75" style="44" customWidth="1"/>
+    <col min="16138" max="16139" width="7.625" style="44" customWidth="1"/>
+    <col min="16140" max="16140" width="5.625" style="44" customWidth="1"/>
+    <col min="16141" max="16141" width="9.625" style="44" customWidth="1"/>
+    <col min="16142" max="16145" width="5.125" style="44" customWidth="1"/>
+    <col min="16146" max="16146" width="2.625" style="44" customWidth="1"/>
     <col min="16147" max="16384" width="9" style="44"/>
   </cols>
   <sheetData>
@@ -7301,7 +7294,7 @@
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.17" right="0.17" top="0.78740157480314965" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="43" max="18" man="1"/>
@@ -7319,519 +7312,519 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19.21875" style="88" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="88" customWidth="1"/>
-    <col min="6" max="6" width="3.44140625" style="88" customWidth="1"/>
-    <col min="7" max="7" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.25" style="88" customWidth="1"/>
+    <col min="2" max="2" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="88" customWidth="1"/>
+    <col min="6" max="6" width="3.5" style="88" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="8" max="256" width="9" style="88"/>
-    <col min="257" max="257" width="19.21875" style="88" customWidth="1"/>
-    <col min="258" max="258" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="15.21875" style="88" customWidth="1"/>
-    <col min="262" max="262" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="19.25" style="88" customWidth="1"/>
+    <col min="258" max="258" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="15.25" style="88" customWidth="1"/>
+    <col min="262" max="262" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="264" max="512" width="9" style="88"/>
-    <col min="513" max="513" width="19.21875" style="88" customWidth="1"/>
-    <col min="514" max="514" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="515" max="515" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="516" max="516" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="517" max="517" width="15.21875" style="88" customWidth="1"/>
-    <col min="518" max="518" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="519" max="519" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="513" max="513" width="19.25" style="88" customWidth="1"/>
+    <col min="514" max="514" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="516" max="516" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="15.25" style="88" customWidth="1"/>
+    <col min="518" max="518" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="520" max="768" width="9" style="88"/>
-    <col min="769" max="769" width="19.21875" style="88" customWidth="1"/>
-    <col min="770" max="770" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="771" max="771" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="772" max="772" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="773" max="773" width="15.21875" style="88" customWidth="1"/>
-    <col min="774" max="774" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="775" max="775" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="769" max="769" width="19.25" style="88" customWidth="1"/>
+    <col min="770" max="770" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="772" max="772" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="15.25" style="88" customWidth="1"/>
+    <col min="774" max="774" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="776" max="1024" width="9" style="88"/>
-    <col min="1025" max="1025" width="19.21875" style="88" customWidth="1"/>
-    <col min="1026" max="1026" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="1027" max="1027" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="1028" max="1028" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="1029" max="1029" width="15.21875" style="88" customWidth="1"/>
-    <col min="1030" max="1030" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="1031" max="1031" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="1025" max="1025" width="19.25" style="88" customWidth="1"/>
+    <col min="1026" max="1026" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="1028" max="1028" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="15.25" style="88" customWidth="1"/>
+    <col min="1030" max="1030" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="1032" max="1280" width="9" style="88"/>
-    <col min="1281" max="1281" width="19.21875" style="88" customWidth="1"/>
-    <col min="1282" max="1282" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="1283" max="1283" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="1284" max="1284" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="1285" max="1285" width="15.21875" style="88" customWidth="1"/>
-    <col min="1286" max="1286" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="1287" max="1287" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="1281" max="1281" width="19.25" style="88" customWidth="1"/>
+    <col min="1282" max="1282" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="1284" max="1284" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="15.25" style="88" customWidth="1"/>
+    <col min="1286" max="1286" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="1288" max="1536" width="9" style="88"/>
-    <col min="1537" max="1537" width="19.21875" style="88" customWidth="1"/>
-    <col min="1538" max="1538" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="1539" max="1539" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="1540" max="1540" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="1541" max="1541" width="15.21875" style="88" customWidth="1"/>
-    <col min="1542" max="1542" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="1543" max="1543" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="1537" max="1537" width="19.25" style="88" customWidth="1"/>
+    <col min="1538" max="1538" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="1540" max="1540" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="15.25" style="88" customWidth="1"/>
+    <col min="1542" max="1542" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="1544" max="1792" width="9" style="88"/>
-    <col min="1793" max="1793" width="19.21875" style="88" customWidth="1"/>
-    <col min="1794" max="1794" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="1795" max="1795" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="1796" max="1796" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="1797" max="1797" width="15.21875" style="88" customWidth="1"/>
-    <col min="1798" max="1798" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="1799" max="1799" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="1793" max="1793" width="19.25" style="88" customWidth="1"/>
+    <col min="1794" max="1794" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="1796" max="1796" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="15.25" style="88" customWidth="1"/>
+    <col min="1798" max="1798" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="1800" max="2048" width="9" style="88"/>
-    <col min="2049" max="2049" width="19.21875" style="88" customWidth="1"/>
-    <col min="2050" max="2050" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="2051" max="2051" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="2052" max="2052" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="2053" max="2053" width="15.21875" style="88" customWidth="1"/>
-    <col min="2054" max="2054" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="2055" max="2055" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="2049" max="2049" width="19.25" style="88" customWidth="1"/>
+    <col min="2050" max="2050" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="2052" max="2052" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="15.25" style="88" customWidth="1"/>
+    <col min="2054" max="2054" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="2056" max="2304" width="9" style="88"/>
-    <col min="2305" max="2305" width="19.21875" style="88" customWidth="1"/>
-    <col min="2306" max="2306" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="2307" max="2307" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="2308" max="2308" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="2309" max="2309" width="15.21875" style="88" customWidth="1"/>
-    <col min="2310" max="2310" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="2311" max="2311" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="2305" max="2305" width="19.25" style="88" customWidth="1"/>
+    <col min="2306" max="2306" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="2308" max="2308" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="15.25" style="88" customWidth="1"/>
+    <col min="2310" max="2310" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="2312" max="2560" width="9" style="88"/>
-    <col min="2561" max="2561" width="19.21875" style="88" customWidth="1"/>
-    <col min="2562" max="2562" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="2563" max="2563" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="2564" max="2564" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="2565" max="2565" width="15.21875" style="88" customWidth="1"/>
-    <col min="2566" max="2566" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="2567" max="2567" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="2561" max="2561" width="19.25" style="88" customWidth="1"/>
+    <col min="2562" max="2562" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="2564" max="2564" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="15.25" style="88" customWidth="1"/>
+    <col min="2566" max="2566" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="2568" max="2816" width="9" style="88"/>
-    <col min="2817" max="2817" width="19.21875" style="88" customWidth="1"/>
-    <col min="2818" max="2818" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="2819" max="2819" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="2820" max="2820" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="2821" max="2821" width="15.21875" style="88" customWidth="1"/>
-    <col min="2822" max="2822" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="2823" max="2823" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="2817" max="2817" width="19.25" style="88" customWidth="1"/>
+    <col min="2818" max="2818" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="2820" max="2820" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="15.25" style="88" customWidth="1"/>
+    <col min="2822" max="2822" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="2824" max="3072" width="9" style="88"/>
-    <col min="3073" max="3073" width="19.21875" style="88" customWidth="1"/>
-    <col min="3074" max="3074" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="3075" max="3075" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="3076" max="3076" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="3077" max="3077" width="15.21875" style="88" customWidth="1"/>
-    <col min="3078" max="3078" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="3079" max="3079" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="3073" max="3073" width="19.25" style="88" customWidth="1"/>
+    <col min="3074" max="3074" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="3076" max="3076" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="15.25" style="88" customWidth="1"/>
+    <col min="3078" max="3078" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="3080" max="3328" width="9" style="88"/>
-    <col min="3329" max="3329" width="19.21875" style="88" customWidth="1"/>
-    <col min="3330" max="3330" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="3331" max="3331" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="3332" max="3332" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="3333" max="3333" width="15.21875" style="88" customWidth="1"/>
-    <col min="3334" max="3334" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="3335" max="3335" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="3329" max="3329" width="19.25" style="88" customWidth="1"/>
+    <col min="3330" max="3330" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="3332" max="3332" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="15.25" style="88" customWidth="1"/>
+    <col min="3334" max="3334" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="3336" max="3584" width="9" style="88"/>
-    <col min="3585" max="3585" width="19.21875" style="88" customWidth="1"/>
-    <col min="3586" max="3586" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="3587" max="3587" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="3588" max="3588" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="3589" max="3589" width="15.21875" style="88" customWidth="1"/>
-    <col min="3590" max="3590" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="3591" max="3591" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="3585" max="3585" width="19.25" style="88" customWidth="1"/>
+    <col min="3586" max="3586" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="3588" max="3588" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="15.25" style="88" customWidth="1"/>
+    <col min="3590" max="3590" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="3592" max="3840" width="9" style="88"/>
-    <col min="3841" max="3841" width="19.21875" style="88" customWidth="1"/>
-    <col min="3842" max="3842" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="3843" max="3843" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="3844" max="3844" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="3845" max="3845" width="15.21875" style="88" customWidth="1"/>
-    <col min="3846" max="3846" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="3847" max="3847" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="3841" max="3841" width="19.25" style="88" customWidth="1"/>
+    <col min="3842" max="3842" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="3844" max="3844" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="15.25" style="88" customWidth="1"/>
+    <col min="3846" max="3846" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="3848" max="4096" width="9" style="88"/>
-    <col min="4097" max="4097" width="19.21875" style="88" customWidth="1"/>
-    <col min="4098" max="4098" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="4099" max="4099" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="4100" max="4100" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="4101" max="4101" width="15.21875" style="88" customWidth="1"/>
-    <col min="4102" max="4102" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="4103" max="4103" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="4097" max="4097" width="19.25" style="88" customWidth="1"/>
+    <col min="4098" max="4098" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="4100" max="4100" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="15.25" style="88" customWidth="1"/>
+    <col min="4102" max="4102" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="4104" max="4352" width="9" style="88"/>
-    <col min="4353" max="4353" width="19.21875" style="88" customWidth="1"/>
-    <col min="4354" max="4354" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="4355" max="4355" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="4356" max="4356" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="4357" max="4357" width="15.21875" style="88" customWidth="1"/>
-    <col min="4358" max="4358" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="4359" max="4359" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="4353" max="4353" width="19.25" style="88" customWidth="1"/>
+    <col min="4354" max="4354" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="4356" max="4356" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="15.25" style="88" customWidth="1"/>
+    <col min="4358" max="4358" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="4360" max="4608" width="9" style="88"/>
-    <col min="4609" max="4609" width="19.21875" style="88" customWidth="1"/>
-    <col min="4610" max="4610" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="4611" max="4611" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="4612" max="4612" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="4613" max="4613" width="15.21875" style="88" customWidth="1"/>
-    <col min="4614" max="4614" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="4615" max="4615" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="4609" max="4609" width="19.25" style="88" customWidth="1"/>
+    <col min="4610" max="4610" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="4612" max="4612" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="15.25" style="88" customWidth="1"/>
+    <col min="4614" max="4614" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="4616" max="4864" width="9" style="88"/>
-    <col min="4865" max="4865" width="19.21875" style="88" customWidth="1"/>
-    <col min="4866" max="4866" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="4867" max="4867" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="4868" max="4868" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="4869" max="4869" width="15.21875" style="88" customWidth="1"/>
-    <col min="4870" max="4870" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="4871" max="4871" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="4865" max="4865" width="19.25" style="88" customWidth="1"/>
+    <col min="4866" max="4866" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="4868" max="4868" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="15.25" style="88" customWidth="1"/>
+    <col min="4870" max="4870" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="4872" max="5120" width="9" style="88"/>
-    <col min="5121" max="5121" width="19.21875" style="88" customWidth="1"/>
-    <col min="5122" max="5122" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="5123" max="5123" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="5124" max="5124" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="5125" max="5125" width="15.21875" style="88" customWidth="1"/>
-    <col min="5126" max="5126" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="5127" max="5127" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="5121" max="5121" width="19.25" style="88" customWidth="1"/>
+    <col min="5122" max="5122" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="5124" max="5124" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="15.25" style="88" customWidth="1"/>
+    <col min="5126" max="5126" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="5128" max="5376" width="9" style="88"/>
-    <col min="5377" max="5377" width="19.21875" style="88" customWidth="1"/>
-    <col min="5378" max="5378" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="5379" max="5379" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="5380" max="5380" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="5381" max="5381" width="15.21875" style="88" customWidth="1"/>
-    <col min="5382" max="5382" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="5383" max="5383" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="5377" max="5377" width="19.25" style="88" customWidth="1"/>
+    <col min="5378" max="5378" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="5380" max="5380" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="15.25" style="88" customWidth="1"/>
+    <col min="5382" max="5382" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="5384" max="5632" width="9" style="88"/>
-    <col min="5633" max="5633" width="19.21875" style="88" customWidth="1"/>
-    <col min="5634" max="5634" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="5635" max="5635" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="5636" max="5636" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="5637" max="5637" width="15.21875" style="88" customWidth="1"/>
-    <col min="5638" max="5638" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="5639" max="5639" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="5633" max="5633" width="19.25" style="88" customWidth="1"/>
+    <col min="5634" max="5634" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="5636" max="5636" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="15.25" style="88" customWidth="1"/>
+    <col min="5638" max="5638" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="5640" max="5888" width="9" style="88"/>
-    <col min="5889" max="5889" width="19.21875" style="88" customWidth="1"/>
-    <col min="5890" max="5890" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="5891" max="5891" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="5892" max="5892" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="5893" max="5893" width="15.21875" style="88" customWidth="1"/>
-    <col min="5894" max="5894" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="5895" max="5895" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="5889" max="5889" width="19.25" style="88" customWidth="1"/>
+    <col min="5890" max="5890" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="5892" max="5892" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="15.25" style="88" customWidth="1"/>
+    <col min="5894" max="5894" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="5896" max="6144" width="9" style="88"/>
-    <col min="6145" max="6145" width="19.21875" style="88" customWidth="1"/>
-    <col min="6146" max="6146" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="6147" max="6147" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="6148" max="6148" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="6149" max="6149" width="15.21875" style="88" customWidth="1"/>
-    <col min="6150" max="6150" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="6151" max="6151" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="6145" max="6145" width="19.25" style="88" customWidth="1"/>
+    <col min="6146" max="6146" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="6148" max="6148" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="15.25" style="88" customWidth="1"/>
+    <col min="6150" max="6150" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="6152" max="6400" width="9" style="88"/>
-    <col min="6401" max="6401" width="19.21875" style="88" customWidth="1"/>
-    <col min="6402" max="6402" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="6403" max="6403" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="6404" max="6404" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="6405" max="6405" width="15.21875" style="88" customWidth="1"/>
-    <col min="6406" max="6406" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="6407" max="6407" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="6401" max="6401" width="19.25" style="88" customWidth="1"/>
+    <col min="6402" max="6402" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="6404" max="6404" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="15.25" style="88" customWidth="1"/>
+    <col min="6406" max="6406" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="6408" max="6656" width="9" style="88"/>
-    <col min="6657" max="6657" width="19.21875" style="88" customWidth="1"/>
-    <col min="6658" max="6658" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="6659" max="6659" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="6660" max="6660" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="6661" max="6661" width="15.21875" style="88" customWidth="1"/>
-    <col min="6662" max="6662" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="6663" max="6663" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="6657" max="6657" width="19.25" style="88" customWidth="1"/>
+    <col min="6658" max="6658" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="6660" max="6660" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="15.25" style="88" customWidth="1"/>
+    <col min="6662" max="6662" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="6664" max="6912" width="9" style="88"/>
-    <col min="6913" max="6913" width="19.21875" style="88" customWidth="1"/>
-    <col min="6914" max="6914" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="6915" max="6915" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="6916" max="6916" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="6917" max="6917" width="15.21875" style="88" customWidth="1"/>
-    <col min="6918" max="6918" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="6919" max="6919" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="6913" max="6913" width="19.25" style="88" customWidth="1"/>
+    <col min="6914" max="6914" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="6916" max="6916" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="15.25" style="88" customWidth="1"/>
+    <col min="6918" max="6918" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="6920" max="7168" width="9" style="88"/>
-    <col min="7169" max="7169" width="19.21875" style="88" customWidth="1"/>
-    <col min="7170" max="7170" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="7171" max="7171" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="7172" max="7172" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="7173" max="7173" width="15.21875" style="88" customWidth="1"/>
-    <col min="7174" max="7174" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="7175" max="7175" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="7169" max="7169" width="19.25" style="88" customWidth="1"/>
+    <col min="7170" max="7170" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="7172" max="7172" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="15.25" style="88" customWidth="1"/>
+    <col min="7174" max="7174" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="7176" max="7424" width="9" style="88"/>
-    <col min="7425" max="7425" width="19.21875" style="88" customWidth="1"/>
-    <col min="7426" max="7426" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="7427" max="7427" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="7428" max="7428" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="7429" max="7429" width="15.21875" style="88" customWidth="1"/>
-    <col min="7430" max="7430" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="7431" max="7431" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="7425" max="7425" width="19.25" style="88" customWidth="1"/>
+    <col min="7426" max="7426" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="7428" max="7428" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="15.25" style="88" customWidth="1"/>
+    <col min="7430" max="7430" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="7432" max="7680" width="9" style="88"/>
-    <col min="7681" max="7681" width="19.21875" style="88" customWidth="1"/>
-    <col min="7682" max="7682" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="7683" max="7683" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="7684" max="7684" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="7685" max="7685" width="15.21875" style="88" customWidth="1"/>
-    <col min="7686" max="7686" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="7687" max="7687" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="7681" max="7681" width="19.25" style="88" customWidth="1"/>
+    <col min="7682" max="7682" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="7684" max="7684" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="15.25" style="88" customWidth="1"/>
+    <col min="7686" max="7686" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="7688" max="7936" width="9" style="88"/>
-    <col min="7937" max="7937" width="19.21875" style="88" customWidth="1"/>
-    <col min="7938" max="7938" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="7939" max="7939" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="7940" max="7940" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="7941" max="7941" width="15.21875" style="88" customWidth="1"/>
-    <col min="7942" max="7942" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="7943" max="7943" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="7937" max="7937" width="19.25" style="88" customWidth="1"/>
+    <col min="7938" max="7938" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="7940" max="7940" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="15.25" style="88" customWidth="1"/>
+    <col min="7942" max="7942" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="7944" max="8192" width="9" style="88"/>
-    <col min="8193" max="8193" width="19.21875" style="88" customWidth="1"/>
-    <col min="8194" max="8194" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="8195" max="8195" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="8196" max="8196" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="8197" max="8197" width="15.21875" style="88" customWidth="1"/>
-    <col min="8198" max="8198" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="8199" max="8199" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="8193" max="8193" width="19.25" style="88" customWidth="1"/>
+    <col min="8194" max="8194" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="8196" max="8196" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="15.25" style="88" customWidth="1"/>
+    <col min="8198" max="8198" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="8200" max="8448" width="9" style="88"/>
-    <col min="8449" max="8449" width="19.21875" style="88" customWidth="1"/>
-    <col min="8450" max="8450" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="8451" max="8451" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="8452" max="8452" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="8453" max="8453" width="15.21875" style="88" customWidth="1"/>
-    <col min="8454" max="8454" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="8455" max="8455" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="8449" max="8449" width="19.25" style="88" customWidth="1"/>
+    <col min="8450" max="8450" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="8452" max="8452" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="15.25" style="88" customWidth="1"/>
+    <col min="8454" max="8454" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="8456" max="8704" width="9" style="88"/>
-    <col min="8705" max="8705" width="19.21875" style="88" customWidth="1"/>
-    <col min="8706" max="8706" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="8707" max="8707" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="8708" max="8708" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="8709" max="8709" width="15.21875" style="88" customWidth="1"/>
-    <col min="8710" max="8710" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="8711" max="8711" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="8705" max="8705" width="19.25" style="88" customWidth="1"/>
+    <col min="8706" max="8706" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="8708" max="8708" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="15.25" style="88" customWidth="1"/>
+    <col min="8710" max="8710" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="8712" max="8960" width="9" style="88"/>
-    <col min="8961" max="8961" width="19.21875" style="88" customWidth="1"/>
-    <col min="8962" max="8962" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="8963" max="8963" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="8964" max="8964" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="8965" max="8965" width="15.21875" style="88" customWidth="1"/>
-    <col min="8966" max="8966" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="8967" max="8967" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="8961" max="8961" width="19.25" style="88" customWidth="1"/>
+    <col min="8962" max="8962" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="8964" max="8964" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="15.25" style="88" customWidth="1"/>
+    <col min="8966" max="8966" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="8968" max="9216" width="9" style="88"/>
-    <col min="9217" max="9217" width="19.21875" style="88" customWidth="1"/>
-    <col min="9218" max="9218" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="9219" max="9219" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="9220" max="9220" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="9221" max="9221" width="15.21875" style="88" customWidth="1"/>
-    <col min="9222" max="9222" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="9223" max="9223" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="9217" max="9217" width="19.25" style="88" customWidth="1"/>
+    <col min="9218" max="9218" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="9220" max="9220" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="15.25" style="88" customWidth="1"/>
+    <col min="9222" max="9222" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="9224" max="9472" width="9" style="88"/>
-    <col min="9473" max="9473" width="19.21875" style="88" customWidth="1"/>
-    <col min="9474" max="9474" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="9475" max="9475" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="9476" max="9476" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="9477" max="9477" width="15.21875" style="88" customWidth="1"/>
-    <col min="9478" max="9478" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="9479" max="9479" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="9473" max="9473" width="19.25" style="88" customWidth="1"/>
+    <col min="9474" max="9474" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="9476" max="9476" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="15.25" style="88" customWidth="1"/>
+    <col min="9478" max="9478" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="9480" max="9728" width="9" style="88"/>
-    <col min="9729" max="9729" width="19.21875" style="88" customWidth="1"/>
-    <col min="9730" max="9730" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="9731" max="9731" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="9732" max="9732" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="9733" max="9733" width="15.21875" style="88" customWidth="1"/>
-    <col min="9734" max="9734" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="9735" max="9735" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="9729" max="9729" width="19.25" style="88" customWidth="1"/>
+    <col min="9730" max="9730" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="9732" max="9732" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="15.25" style="88" customWidth="1"/>
+    <col min="9734" max="9734" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="9736" max="9984" width="9" style="88"/>
-    <col min="9985" max="9985" width="19.21875" style="88" customWidth="1"/>
-    <col min="9986" max="9986" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="9987" max="9987" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="9988" max="9988" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="9989" max="9989" width="15.21875" style="88" customWidth="1"/>
-    <col min="9990" max="9990" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="9991" max="9991" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="9985" max="9985" width="19.25" style="88" customWidth="1"/>
+    <col min="9986" max="9986" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="9988" max="9988" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="15.25" style="88" customWidth="1"/>
+    <col min="9990" max="9990" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="9992" max="10240" width="9" style="88"/>
-    <col min="10241" max="10241" width="19.21875" style="88" customWidth="1"/>
-    <col min="10242" max="10242" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="10243" max="10243" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="10244" max="10244" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="10245" max="10245" width="15.21875" style="88" customWidth="1"/>
-    <col min="10246" max="10246" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="10247" max="10247" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="10241" max="10241" width="19.25" style="88" customWidth="1"/>
+    <col min="10242" max="10242" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="10244" max="10244" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="15.25" style="88" customWidth="1"/>
+    <col min="10246" max="10246" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="10248" max="10496" width="9" style="88"/>
-    <col min="10497" max="10497" width="19.21875" style="88" customWidth="1"/>
-    <col min="10498" max="10498" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="10499" max="10499" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="10500" max="10500" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="10501" max="10501" width="15.21875" style="88" customWidth="1"/>
-    <col min="10502" max="10502" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="10503" max="10503" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="10497" max="10497" width="19.25" style="88" customWidth="1"/>
+    <col min="10498" max="10498" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="10500" max="10500" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="15.25" style="88" customWidth="1"/>
+    <col min="10502" max="10502" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="10504" max="10752" width="9" style="88"/>
-    <col min="10753" max="10753" width="19.21875" style="88" customWidth="1"/>
-    <col min="10754" max="10754" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="10755" max="10755" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="10756" max="10756" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="10757" max="10757" width="15.21875" style="88" customWidth="1"/>
-    <col min="10758" max="10758" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="10759" max="10759" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="10753" max="10753" width="19.25" style="88" customWidth="1"/>
+    <col min="10754" max="10754" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="10756" max="10756" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="15.25" style="88" customWidth="1"/>
+    <col min="10758" max="10758" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="10760" max="11008" width="9" style="88"/>
-    <col min="11009" max="11009" width="19.21875" style="88" customWidth="1"/>
-    <col min="11010" max="11010" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="11011" max="11011" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="11012" max="11012" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="11013" max="11013" width="15.21875" style="88" customWidth="1"/>
-    <col min="11014" max="11014" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="11015" max="11015" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="11009" max="11009" width="19.25" style="88" customWidth="1"/>
+    <col min="11010" max="11010" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="11012" max="11012" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="15.25" style="88" customWidth="1"/>
+    <col min="11014" max="11014" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="11016" max="11264" width="9" style="88"/>
-    <col min="11265" max="11265" width="19.21875" style="88" customWidth="1"/>
-    <col min="11266" max="11266" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="11267" max="11267" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="11268" max="11268" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="11269" max="11269" width="15.21875" style="88" customWidth="1"/>
-    <col min="11270" max="11270" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="11271" max="11271" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="11265" max="11265" width="19.25" style="88" customWidth="1"/>
+    <col min="11266" max="11266" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="11268" max="11268" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="15.25" style="88" customWidth="1"/>
+    <col min="11270" max="11270" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="11272" max="11520" width="9" style="88"/>
-    <col min="11521" max="11521" width="19.21875" style="88" customWidth="1"/>
-    <col min="11522" max="11522" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="11523" max="11523" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="11524" max="11524" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="11525" max="11525" width="15.21875" style="88" customWidth="1"/>
-    <col min="11526" max="11526" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="11527" max="11527" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="11521" max="11521" width="19.25" style="88" customWidth="1"/>
+    <col min="11522" max="11522" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="11524" max="11524" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="15.25" style="88" customWidth="1"/>
+    <col min="11526" max="11526" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="11528" max="11776" width="9" style="88"/>
-    <col min="11777" max="11777" width="19.21875" style="88" customWidth="1"/>
-    <col min="11778" max="11778" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="11779" max="11779" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="11780" max="11780" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="11781" max="11781" width="15.21875" style="88" customWidth="1"/>
-    <col min="11782" max="11782" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="11783" max="11783" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="11777" max="11777" width="19.25" style="88" customWidth="1"/>
+    <col min="11778" max="11778" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="11780" max="11780" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="15.25" style="88" customWidth="1"/>
+    <col min="11782" max="11782" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="11784" max="12032" width="9" style="88"/>
-    <col min="12033" max="12033" width="19.21875" style="88" customWidth="1"/>
-    <col min="12034" max="12034" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="12035" max="12035" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="12036" max="12036" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="12037" max="12037" width="15.21875" style="88" customWidth="1"/>
-    <col min="12038" max="12038" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="12039" max="12039" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="12033" max="12033" width="19.25" style="88" customWidth="1"/>
+    <col min="12034" max="12034" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="12036" max="12036" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="15.25" style="88" customWidth="1"/>
+    <col min="12038" max="12038" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="12040" max="12288" width="9" style="88"/>
-    <col min="12289" max="12289" width="19.21875" style="88" customWidth="1"/>
-    <col min="12290" max="12290" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="12291" max="12291" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="12292" max="12292" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="12293" max="12293" width="15.21875" style="88" customWidth="1"/>
-    <col min="12294" max="12294" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="12295" max="12295" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="12289" max="12289" width="19.25" style="88" customWidth="1"/>
+    <col min="12290" max="12290" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="12292" max="12292" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="15.25" style="88" customWidth="1"/>
+    <col min="12294" max="12294" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="12296" max="12544" width="9" style="88"/>
-    <col min="12545" max="12545" width="19.21875" style="88" customWidth="1"/>
-    <col min="12546" max="12546" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="12547" max="12547" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="12548" max="12548" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="12549" max="12549" width="15.21875" style="88" customWidth="1"/>
-    <col min="12550" max="12550" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="12551" max="12551" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="12545" max="12545" width="19.25" style="88" customWidth="1"/>
+    <col min="12546" max="12546" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="12548" max="12548" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="15.25" style="88" customWidth="1"/>
+    <col min="12550" max="12550" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="12552" max="12800" width="9" style="88"/>
-    <col min="12801" max="12801" width="19.21875" style="88" customWidth="1"/>
-    <col min="12802" max="12802" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="12803" max="12803" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="12804" max="12804" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="12805" max="12805" width="15.21875" style="88" customWidth="1"/>
-    <col min="12806" max="12806" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="12807" max="12807" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="12801" max="12801" width="19.25" style="88" customWidth="1"/>
+    <col min="12802" max="12802" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="12804" max="12804" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="15.25" style="88" customWidth="1"/>
+    <col min="12806" max="12806" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="12808" max="13056" width="9" style="88"/>
-    <col min="13057" max="13057" width="19.21875" style="88" customWidth="1"/>
-    <col min="13058" max="13058" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="13059" max="13059" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="13060" max="13060" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="13061" max="13061" width="15.21875" style="88" customWidth="1"/>
-    <col min="13062" max="13062" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="13063" max="13063" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="13057" max="13057" width="19.25" style="88" customWidth="1"/>
+    <col min="13058" max="13058" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="13060" max="13060" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="15.25" style="88" customWidth="1"/>
+    <col min="13062" max="13062" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="13064" max="13312" width="9" style="88"/>
-    <col min="13313" max="13313" width="19.21875" style="88" customWidth="1"/>
-    <col min="13314" max="13314" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="13315" max="13315" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="13316" max="13316" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="13317" max="13317" width="15.21875" style="88" customWidth="1"/>
-    <col min="13318" max="13318" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="13319" max="13319" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="13313" max="13313" width="19.25" style="88" customWidth="1"/>
+    <col min="13314" max="13314" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="13316" max="13316" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="15.25" style="88" customWidth="1"/>
+    <col min="13318" max="13318" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="13320" max="13568" width="9" style="88"/>
-    <col min="13569" max="13569" width="19.21875" style="88" customWidth="1"/>
-    <col min="13570" max="13570" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="13571" max="13571" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="13572" max="13572" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="13573" max="13573" width="15.21875" style="88" customWidth="1"/>
-    <col min="13574" max="13574" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="13575" max="13575" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="13569" max="13569" width="19.25" style="88" customWidth="1"/>
+    <col min="13570" max="13570" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="13572" max="13572" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="15.25" style="88" customWidth="1"/>
+    <col min="13574" max="13574" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="13576" max="13824" width="9" style="88"/>
-    <col min="13825" max="13825" width="19.21875" style="88" customWidth="1"/>
-    <col min="13826" max="13826" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="13827" max="13827" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="13828" max="13828" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="13829" max="13829" width="15.21875" style="88" customWidth="1"/>
-    <col min="13830" max="13830" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="13831" max="13831" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="13825" max="13825" width="19.25" style="88" customWidth="1"/>
+    <col min="13826" max="13826" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="13828" max="13828" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="15.25" style="88" customWidth="1"/>
+    <col min="13830" max="13830" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="13832" max="14080" width="9" style="88"/>
-    <col min="14081" max="14081" width="19.21875" style="88" customWidth="1"/>
-    <col min="14082" max="14082" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="14083" max="14083" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="14084" max="14084" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="14085" max="14085" width="15.21875" style="88" customWidth="1"/>
-    <col min="14086" max="14086" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="14087" max="14087" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="14081" max="14081" width="19.25" style="88" customWidth="1"/>
+    <col min="14082" max="14082" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="14084" max="14084" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="15.25" style="88" customWidth="1"/>
+    <col min="14086" max="14086" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="14088" max="14336" width="9" style="88"/>
-    <col min="14337" max="14337" width="19.21875" style="88" customWidth="1"/>
-    <col min="14338" max="14338" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="14339" max="14339" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="14340" max="14340" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="14341" max="14341" width="15.21875" style="88" customWidth="1"/>
-    <col min="14342" max="14342" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="14343" max="14343" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="14337" max="14337" width="19.25" style="88" customWidth="1"/>
+    <col min="14338" max="14338" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="14340" max="14340" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="15.25" style="88" customWidth="1"/>
+    <col min="14342" max="14342" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="14344" max="14592" width="9" style="88"/>
-    <col min="14593" max="14593" width="19.21875" style="88" customWidth="1"/>
-    <col min="14594" max="14594" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="14595" max="14595" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="14596" max="14596" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="14597" max="14597" width="15.21875" style="88" customWidth="1"/>
-    <col min="14598" max="14598" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="14599" max="14599" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="14593" max="14593" width="19.25" style="88" customWidth="1"/>
+    <col min="14594" max="14594" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="14596" max="14596" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="15.25" style="88" customWidth="1"/>
+    <col min="14598" max="14598" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="14600" max="14848" width="9" style="88"/>
-    <col min="14849" max="14849" width="19.21875" style="88" customWidth="1"/>
-    <col min="14850" max="14850" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="14851" max="14851" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="14852" max="14852" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="14853" max="14853" width="15.21875" style="88" customWidth="1"/>
-    <col min="14854" max="14854" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="14855" max="14855" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="14849" max="14849" width="19.25" style="88" customWidth="1"/>
+    <col min="14850" max="14850" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="14852" max="14852" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="15.25" style="88" customWidth="1"/>
+    <col min="14854" max="14854" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="14856" max="15104" width="9" style="88"/>
-    <col min="15105" max="15105" width="19.21875" style="88" customWidth="1"/>
-    <col min="15106" max="15106" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="15107" max="15107" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="15108" max="15108" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="15109" max="15109" width="15.21875" style="88" customWidth="1"/>
-    <col min="15110" max="15110" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="15111" max="15111" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="15105" max="15105" width="19.25" style="88" customWidth="1"/>
+    <col min="15106" max="15106" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="15108" max="15108" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="15.25" style="88" customWidth="1"/>
+    <col min="15110" max="15110" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="15112" max="15360" width="9" style="88"/>
-    <col min="15361" max="15361" width="19.21875" style="88" customWidth="1"/>
-    <col min="15362" max="15362" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="15363" max="15363" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="15364" max="15364" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="15365" max="15365" width="15.21875" style="88" customWidth="1"/>
-    <col min="15366" max="15366" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="15367" max="15367" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="15361" max="15361" width="19.25" style="88" customWidth="1"/>
+    <col min="15362" max="15362" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="15364" max="15364" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="15.25" style="88" customWidth="1"/>
+    <col min="15366" max="15366" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="15368" max="15616" width="9" style="88"/>
-    <col min="15617" max="15617" width="19.21875" style="88" customWidth="1"/>
-    <col min="15618" max="15618" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="15619" max="15619" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="15620" max="15620" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="15621" max="15621" width="15.21875" style="88" customWidth="1"/>
-    <col min="15622" max="15622" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="15623" max="15623" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="15617" max="15617" width="19.25" style="88" customWidth="1"/>
+    <col min="15618" max="15618" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="15620" max="15620" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="15.25" style="88" customWidth="1"/>
+    <col min="15622" max="15622" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="15624" max="15872" width="9" style="88"/>
-    <col min="15873" max="15873" width="19.21875" style="88" customWidth="1"/>
-    <col min="15874" max="15874" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="15875" max="15875" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="15876" max="15876" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="15877" max="15877" width="15.21875" style="88" customWidth="1"/>
-    <col min="15878" max="15878" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="15879" max="15879" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="15873" max="15873" width="19.25" style="88" customWidth="1"/>
+    <col min="15874" max="15874" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="15876" max="15876" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="15.25" style="88" customWidth="1"/>
+    <col min="15878" max="15878" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="15880" max="16128" width="9" style="88"/>
-    <col min="16129" max="16129" width="19.21875" style="88" customWidth="1"/>
-    <col min="16130" max="16130" width="35.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="16131" max="16131" width="14.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="16132" max="16132" width="9.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="16133" max="16133" width="15.21875" style="88" customWidth="1"/>
-    <col min="16134" max="16134" width="7.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="16135" max="16135" width="5.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="16129" max="16129" width="19.25" style="88" customWidth="1"/>
+    <col min="16130" max="16130" width="35.625" style="88" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="14.875" style="88" bestFit="1" customWidth="1"/>
+    <col min="16132" max="16132" width="9.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="15.25" style="88" customWidth="1"/>
+    <col min="16134" max="16134" width="7.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="16136" max="16384" width="9" style="88"/>
   </cols>
   <sheetData>
@@ -7848,7 +7841,7 @@
       <c r="D3" s="89"/>
       <c r="E3" s="89"/>
     </row>
-    <row r="4" spans="1:6" ht="28.8">
+    <row r="4" spans="1:6" ht="28.5">
       <c r="A4" s="205" t="s">
         <v>138</v>
       </c>

--- a/controller/src/main/resources/jxls_templates/jianjishu_shoutuo.xlsx
+++ b/controller/src/main/resources/jxls_templates/jianjishu_shoutuo.xlsx
@@ -18,7 +18,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">見積条件書!$A$1:$S$69</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -40,21 +39,6 @@
             <charset val="134"/>
           </rPr>
           <t>jx:area(lastCell="H49")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A29" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>jx:each(items="ba1", var="r", lastCell="F29")</t>
         </r>
       </text>
     </comment>
@@ -138,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="198">
   <si>
     <t>委託元（和文）</t>
     <rPh sb="4" eb="6">
@@ -1651,27 +1635,87 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${r.deliverydate}</t>
+    <t>${qu.trusteejapanese}</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${r.completiondate}</t>
+    <t>${num[0].deliverydate}</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${r.claimdate}</t>
+    <t>${num[0].completiondate}</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${r.supportdate}</t>
+    <t>${num[0].claimdate}</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${r.claimamount}</t>
+    <t>${num[0].supportdate}</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${qu.trusteejapanese}</t>
+    <t>${num[0].claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].claimamount}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1693,7 +1737,7 @@
     <numFmt numFmtId="184" formatCode="&quot;¥&quot;#,##0"/>
     <numFmt numFmtId="185" formatCode="#,##0.00;[Red]#,##0.00"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1819,11 +1863,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="20"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="18"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1918,7 +1957,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -2336,46 +2375,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -2402,7 +2401,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2505,9 +2504,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2524,10 +2520,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
@@ -2539,10 +2535,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2569,7 +2565,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2578,7 +2574,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2596,7 +2592,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2722,17 +2718,101 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="37" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="20" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -2785,101 +2865,77 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="21" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2897,10 +2953,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2911,87 +2967,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3001,29 +3009,27 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3459,10 +3465,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E23:E24"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -3477,29 +3483,29 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
-      <c r="A1" s="111" t="s">
+    <row r="1" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A1" s="110" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="G1" s="117" t="s">
+      <c r="B1" s="110"/>
+      <c r="G1" s="214" t="s">
         <v>134</v>
       </c>
-      <c r="H1" s="118"/>
+      <c r="H1" s="215"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="10"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="120"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="217"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="34" t="s">
@@ -3509,8 +3515,8 @@
       <c r="C3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="119"/>
-      <c r="H3" s="120"/>
+      <c r="G3" s="216"/>
+      <c r="H3" s="217"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="33" t="s">
@@ -3522,8 +3528,8 @@
       <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="119"/>
-      <c r="H4" s="120"/>
+      <c r="G4" s="216"/>
+      <c r="H4" s="217"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="33" t="s">
@@ -3533,8 +3539,8 @@
       <c r="C5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="119"/>
-      <c r="H5" s="120"/>
+      <c r="G5" s="216"/>
+      <c r="H5" s="217"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="35" t="s">
@@ -3546,8 +3552,8 @@
       <c r="C6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="119"/>
-      <c r="H6" s="120"/>
+      <c r="G6" s="216"/>
+      <c r="H6" s="217"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="35" t="s">
@@ -3559,8 +3565,8 @@
       <c r="C7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="119"/>
-      <c r="H7" s="120"/>
+      <c r="G7" s="216"/>
+      <c r="H7" s="217"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="33" t="s">
@@ -3570,8 +3576,8 @@
       <c r="C8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="119"/>
-      <c r="H8" s="120"/>
+      <c r="G8" s="216"/>
+      <c r="H8" s="217"/>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A9" s="34" t="s">
@@ -3583,8 +3589,8 @@
       <c r="C9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="119"/>
-      <c r="H9" s="120"/>
+      <c r="G9" s="216"/>
+      <c r="H9" s="217"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="33" t="s">
@@ -3596,8 +3602,8 @@
       <c r="C10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="119"/>
-      <c r="H10" s="120"/>
+      <c r="G10" s="216"/>
+      <c r="H10" s="217"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="33" t="s">
@@ -3609,8 +3615,8 @@
       <c r="C11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="119"/>
-      <c r="H11" s="120"/>
+      <c r="G11" s="216"/>
+      <c r="H11" s="217"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="33" t="s">
@@ -3622,8 +3628,8 @@
       <c r="C12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="119"/>
-      <c r="H12" s="120"/>
+      <c r="G12" s="216"/>
+      <c r="H12" s="217"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="33" t="s">
@@ -3633,8 +3639,8 @@
       <c r="C13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="119"/>
-      <c r="H13" s="120"/>
+      <c r="G13" s="216"/>
+      <c r="H13" s="217"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="33" t="s">
@@ -3646,8 +3652,8 @@
       <c r="C14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="119"/>
-      <c r="H14" s="120"/>
+      <c r="G14" s="216"/>
+      <c r="H14" s="217"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="33" t="s">
@@ -3659,8 +3665,8 @@
       <c r="C15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="119"/>
-      <c r="H15" s="120"/>
+      <c r="G15" s="216"/>
+      <c r="H15" s="217"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="33" t="s">
@@ -3670,8 +3676,8 @@
       <c r="C16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="119"/>
-      <c r="H16" s="120"/>
+      <c r="G16" s="216"/>
+      <c r="H16" s="217"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="33" t="s">
@@ -3681,8 +3687,8 @@
       <c r="C17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="119"/>
-      <c r="H17" s="120"/>
+      <c r="G17" s="216"/>
+      <c r="H17" s="217"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="33" t="s">
@@ -3692,8 +3698,8 @@
       <c r="C18" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="119"/>
-      <c r="H18" s="120"/>
+      <c r="G18" s="216"/>
+      <c r="H18" s="217"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="33" t="s">
@@ -3705,8 +3711,8 @@
       <c r="C19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="119"/>
-      <c r="H19" s="120"/>
+      <c r="G19" s="216"/>
+      <c r="H19" s="217"/>
     </row>
     <row r="20" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A20" s="33" t="s">
@@ -3718,8 +3724,8 @@
       <c r="C20" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="119"/>
-      <c r="H20" s="120"/>
+      <c r="G20" s="216"/>
+      <c r="H20" s="217"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="33" t="s">
@@ -3729,8 +3735,8 @@
       <c r="C21" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="119"/>
-      <c r="H21" s="120"/>
+      <c r="G21" s="216"/>
+      <c r="H21" s="217"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="33" t="s">
@@ -3740,8 +3746,8 @@
       <c r="C22" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="119"/>
-      <c r="H22" s="120"/>
+      <c r="G22" s="216"/>
+      <c r="H22" s="217"/>
     </row>
     <row r="23" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A23" s="34" t="s">
@@ -3751,8 +3757,8 @@
       <c r="C23" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="119"/>
-      <c r="H23" s="120"/>
+      <c r="G23" s="216"/>
+      <c r="H23" s="217"/>
     </row>
     <row r="24" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A24" s="34" t="s">
@@ -3764,8 +3770,8 @@
       <c r="C24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="119"/>
-      <c r="H24" s="120"/>
+      <c r="G24" s="216"/>
+      <c r="H24" s="217"/>
     </row>
     <row r="25" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A25" s="34" t="s">
@@ -3775,8 +3781,8 @@
       <c r="C25" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="119"/>
-      <c r="H25" s="120"/>
+      <c r="G25" s="216"/>
+      <c r="H25" s="217"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="34" t="s">
@@ -3786,14 +3792,14 @@
       <c r="C26" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="119"/>
-      <c r="H26" s="120"/>
+      <c r="G26" s="216"/>
+      <c r="H26" s="217"/>
     </row>
     <row r="27" spans="1:8" ht="1.5" hidden="1" customHeight="1">
       <c r="A27" s="36"/>
       <c r="B27" s="1"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="120"/>
+      <c r="G27" s="216"/>
+      <c r="H27" s="217"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="37" t="s">
@@ -3802,224 +3808,245 @@
       <c r="B28" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="39" t="s">
+      <c r="E28" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="40" t="s">
+      <c r="F28" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="G28" s="119"/>
-      <c r="H28" s="120"/>
+      <c r="G28" s="216"/>
+      <c r="H28" s="217"/>
     </row>
     <row r="29" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A29" s="38" t="str">
+      <c r="A29" s="213" t="str">
         <f>IF(B29="","","第一回")</f>
         <v>第一回</v>
       </c>
-      <c r="B29" s="27" t="s">
-        <v>177</v>
+      <c r="B29" s="28" t="s">
+        <v>178</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F29" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="G29" s="119"/>
-      <c r="H29" s="120"/>
-    </row>
-    <row r="30" spans="1:8" ht="6.75" customHeight="1">
-      <c r="A30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" ht="14.25">
-      <c r="A31" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="G29" s="216"/>
+      <c r="H29" s="217"/>
+    </row>
+    <row r="30" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A30" s="213" t="str">
+        <f>IF(B30="","","第二回")</f>
+        <v>第二回</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="F30" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="G30" s="216"/>
+      <c r="H30" s="217"/>
+    </row>
+    <row r="31" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A31" s="213" t="str">
+        <f>IF(B31="","","第三回")</f>
+        <v>第三回</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="F31" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="G31" s="216"/>
+      <c r="H31" s="217"/>
+    </row>
+    <row r="32" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A32" s="213" t="str">
+        <f>IF(B32="","","第四回")</f>
+        <v>第四回</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="G32" s="218"/>
+      <c r="H32" s="219"/>
+    </row>
+    <row r="33" spans="1:9" ht="12" customHeight="1">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" ht="14.25">
+      <c r="A34" s="21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="B32" s="1"/>
-      <c r="D32" s="114" t="s">
+    <row r="35" spans="1:9">
+      <c r="B35" s="1"/>
+      <c r="D35" s="113" t="s">
         <v>163</v>
       </c>
-      <c r="E32" s="114"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="114"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="B33" s="1"/>
-      <c r="D33" s="115" t="s">
+      <c r="E35" s="113"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="113"/>
+      <c r="H35" s="113"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="B36" s="1"/>
+      <c r="D36" s="114" t="s">
         <v>176</v>
       </c>
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="115"/>
-    </row>
-    <row r="34" spans="1:9" ht="13.5">
-      <c r="A34" s="41" t="s">
+      <c r="E36" s="114"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="114"/>
+      <c r="H36" s="114"/>
+    </row>
+    <row r="37" spans="1:9" ht="13.5">
+      <c r="A37" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="B34" s="42">
+      <c r="B37" s="41">
         <f ca="1">TODAY()</f>
-        <v>43895</v>
-      </c>
-      <c r="D34" s="113" t="s">
+        <v>43908</v>
+      </c>
+      <c r="D37" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="113"/>
-      <c r="F34" s="29" t="s">
+      <c r="E37" s="112"/>
+      <c r="F37" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="G34" s="29" t="s">
+      <c r="G37" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="H34" s="30"/>
-      <c r="I34" s="25"/>
-    </row>
-    <row r="35" spans="1:9" ht="13.5">
-      <c r="B35" s="1"/>
-      <c r="D35" s="114" t="s">
+      <c r="H37" s="30"/>
+      <c r="I37" s="25"/>
+    </row>
+    <row r="38" spans="1:9" ht="13.5">
+      <c r="B38" s="1"/>
+      <c r="D38" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="114"/>
-      <c r="F35" s="31" t="s">
+      <c r="E38" s="113"/>
+      <c r="F38" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="G35" s="29" t="s">
+      <c r="G38" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="H35" s="29" t="s">
+      <c r="H38" s="29" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="D36" s="113" t="s">
+    <row r="39" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="D39" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="E36" s="113"/>
-      <c r="F36" s="116" t="s">
+      <c r="E39" s="112"/>
+      <c r="F39" s="115" t="s">
         <v>124</v>
       </c>
-      <c r="G36" s="116"/>
-      <c r="H36" s="29" t="s">
+      <c r="G39" s="115"/>
+      <c r="H39" s="29" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="3" customFormat="1">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:9" s="3" customFormat="1">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:9" s="3" customFormat="1" ht="14.25">
-      <c r="A39" s="110" t="s">
+    <row r="40" spans="1:9" s="3" customFormat="1">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" s="3" customFormat="1">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" s="3" customFormat="1" ht="14.25">
+      <c r="A42" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="110" t="s">
+      <c r="B42" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="107" t="s">
+      <c r="C42" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="108"/>
-      <c r="E39" s="108"/>
-      <c r="F39" s="109"/>
-      <c r="G39" s="112" t="s">
+      <c r="D42" s="107"/>
+      <c r="E42" s="107"/>
+      <c r="F42" s="108"/>
+      <c r="G42" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="110" t="s">
+      <c r="H42" s="109" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="14.25">
-      <c r="A40" s="110"/>
-      <c r="B40" s="110"/>
-      <c r="C40" s="13" t="s">
+    <row r="43" spans="1:9" ht="14.25">
+      <c r="A43" s="109"/>
+      <c r="B43" s="109"/>
+      <c r="C43" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D43" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E43" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F40" s="18" t="s">
+      <c r="F43" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="110"/>
-      <c r="H40" s="110"/>
-    </row>
-    <row r="41" spans="1:9" ht="14.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="15">
-        <f>C41+E41</f>
-        <v>0</v>
-      </c>
-      <c r="H41" s="22">
-        <f>C41*D41+E41*F41</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="14.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="15">
-        <f>C42+E42</f>
-        <v>0</v>
-      </c>
-      <c r="H42" s="22">
-        <f>C42*D42+E42*F42</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="14.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="15">
-        <f>C43+E43</f>
-        <v>0</v>
-      </c>
-      <c r="H43" s="22">
-        <f>C43*D43+E43*F43</f>
-        <v>0</v>
-      </c>
+      <c r="G43" s="109"/>
+      <c r="H43" s="109"/>
     </row>
     <row r="44" spans="1:9" ht="14.25">
-      <c r="A44" s="19"/>
+      <c r="A44" s="12"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
@@ -4035,77 +4062,125 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="14.25">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="12"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="15">
+        <f>C45+E45</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="22">
+        <f>C45*D45+E45*F45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="14.25">
+      <c r="A46" s="12"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="15">
+        <f>C46+E46</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="22">
+        <f>C46*D46+E46*F46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="14.25">
+      <c r="A47" s="19"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="15">
+        <f>C47+E47</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="22">
+        <f>C47*D47+E47*F47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="14.25">
+      <c r="A48" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B48" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C48" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D48" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E48" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F45" s="14" t="s">
+      <c r="F48" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G45" s="15" t="s">
+      <c r="G48" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H45" s="23"/>
-    </row>
-    <row r="46" spans="1:9" ht="15">
-      <c r="A46" s="105" t="s">
+      <c r="H48" s="23"/>
+    </row>
+    <row r="49" spans="1:8" ht="15">
+      <c r="A49" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="106"/>
-      <c r="C46" s="20">
-        <f>SUM(C41:C45)</f>
+      <c r="B49" s="105"/>
+      <c r="C49" s="20">
+        <f>SUM(C44:C48)</f>
         <v>0</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D49" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E46" s="20">
-        <f>SUM(E41:E45)</f>
+      <c r="E49" s="20">
+        <f>SUM(E44:E48)</f>
         <v>0</v>
       </c>
-      <c r="F46" s="20" t="s">
+      <c r="F49" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G46" s="20">
-        <f>SUM(G41:G45)</f>
+      <c r="G49" s="20">
+        <f>SUM(G44:G48)</f>
         <v>0</v>
       </c>
-      <c r="H46" s="24">
-        <f>SUM(H41:H45)</f>
+      <c r="H49" s="24">
+        <f>SUM(H44:H48)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A41:F44" name="範囲3"/>
-    <protectedRange sqref="H45" name="範囲4"/>
+    <protectedRange sqref="A44:F47" name="範囲3"/>
+    <protectedRange sqref="H48" name="範囲4"/>
   </protectedRanges>
   <mergeCells count="14">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:H43"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="G1:H29"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="G1:H32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4129,757 +4204,757 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="5.625" style="43" customWidth="1"/>
-    <col min="3" max="3" width="5.625" style="44" customWidth="1"/>
-    <col min="4" max="4" width="7.25" style="44" customWidth="1"/>
-    <col min="5" max="18" width="5.625" style="44" customWidth="1"/>
-    <col min="19" max="19" width="9.375" style="44" customWidth="1"/>
-    <col min="20" max="20" width="2.625" style="44" customWidth="1"/>
-    <col min="21" max="21" width="20.875" style="44" customWidth="1"/>
-    <col min="22" max="22" width="5.625" style="44" customWidth="1"/>
-    <col min="23" max="256" width="9" style="44"/>
-    <col min="257" max="259" width="5.625" style="44" customWidth="1"/>
-    <col min="260" max="260" width="7.25" style="44" customWidth="1"/>
-    <col min="261" max="274" width="5.625" style="44" customWidth="1"/>
-    <col min="275" max="275" width="9.375" style="44" customWidth="1"/>
-    <col min="276" max="276" width="2.625" style="44" customWidth="1"/>
-    <col min="277" max="277" width="20.875" style="44" customWidth="1"/>
-    <col min="278" max="278" width="5.625" style="44" customWidth="1"/>
-    <col min="279" max="512" width="9" style="44"/>
-    <col min="513" max="515" width="5.625" style="44" customWidth="1"/>
-    <col min="516" max="516" width="7.25" style="44" customWidth="1"/>
-    <col min="517" max="530" width="5.625" style="44" customWidth="1"/>
-    <col min="531" max="531" width="9.375" style="44" customWidth="1"/>
-    <col min="532" max="532" width="2.625" style="44" customWidth="1"/>
-    <col min="533" max="533" width="20.875" style="44" customWidth="1"/>
-    <col min="534" max="534" width="5.625" style="44" customWidth="1"/>
-    <col min="535" max="768" width="9" style="44"/>
-    <col min="769" max="771" width="5.625" style="44" customWidth="1"/>
-    <col min="772" max="772" width="7.25" style="44" customWidth="1"/>
-    <col min="773" max="786" width="5.625" style="44" customWidth="1"/>
-    <col min="787" max="787" width="9.375" style="44" customWidth="1"/>
-    <col min="788" max="788" width="2.625" style="44" customWidth="1"/>
-    <col min="789" max="789" width="20.875" style="44" customWidth="1"/>
-    <col min="790" max="790" width="5.625" style="44" customWidth="1"/>
-    <col min="791" max="1024" width="9" style="44"/>
-    <col min="1025" max="1027" width="5.625" style="44" customWidth="1"/>
-    <col min="1028" max="1028" width="7.25" style="44" customWidth="1"/>
-    <col min="1029" max="1042" width="5.625" style="44" customWidth="1"/>
-    <col min="1043" max="1043" width="9.375" style="44" customWidth="1"/>
-    <col min="1044" max="1044" width="2.625" style="44" customWidth="1"/>
-    <col min="1045" max="1045" width="20.875" style="44" customWidth="1"/>
-    <col min="1046" max="1046" width="5.625" style="44" customWidth="1"/>
-    <col min="1047" max="1280" width="9" style="44"/>
-    <col min="1281" max="1283" width="5.625" style="44" customWidth="1"/>
-    <col min="1284" max="1284" width="7.25" style="44" customWidth="1"/>
-    <col min="1285" max="1298" width="5.625" style="44" customWidth="1"/>
-    <col min="1299" max="1299" width="9.375" style="44" customWidth="1"/>
-    <col min="1300" max="1300" width="2.625" style="44" customWidth="1"/>
-    <col min="1301" max="1301" width="20.875" style="44" customWidth="1"/>
-    <col min="1302" max="1302" width="5.625" style="44" customWidth="1"/>
-    <col min="1303" max="1536" width="9" style="44"/>
-    <col min="1537" max="1539" width="5.625" style="44" customWidth="1"/>
-    <col min="1540" max="1540" width="7.25" style="44" customWidth="1"/>
-    <col min="1541" max="1554" width="5.625" style="44" customWidth="1"/>
-    <col min="1555" max="1555" width="9.375" style="44" customWidth="1"/>
-    <col min="1556" max="1556" width="2.625" style="44" customWidth="1"/>
-    <col min="1557" max="1557" width="20.875" style="44" customWidth="1"/>
-    <col min="1558" max="1558" width="5.625" style="44" customWidth="1"/>
-    <col min="1559" max="1792" width="9" style="44"/>
-    <col min="1793" max="1795" width="5.625" style="44" customWidth="1"/>
-    <col min="1796" max="1796" width="7.25" style="44" customWidth="1"/>
-    <col min="1797" max="1810" width="5.625" style="44" customWidth="1"/>
-    <col min="1811" max="1811" width="9.375" style="44" customWidth="1"/>
-    <col min="1812" max="1812" width="2.625" style="44" customWidth="1"/>
-    <col min="1813" max="1813" width="20.875" style="44" customWidth="1"/>
-    <col min="1814" max="1814" width="5.625" style="44" customWidth="1"/>
-    <col min="1815" max="2048" width="9" style="44"/>
-    <col min="2049" max="2051" width="5.625" style="44" customWidth="1"/>
-    <col min="2052" max="2052" width="7.25" style="44" customWidth="1"/>
-    <col min="2053" max="2066" width="5.625" style="44" customWidth="1"/>
-    <col min="2067" max="2067" width="9.375" style="44" customWidth="1"/>
-    <col min="2068" max="2068" width="2.625" style="44" customWidth="1"/>
-    <col min="2069" max="2069" width="20.875" style="44" customWidth="1"/>
-    <col min="2070" max="2070" width="5.625" style="44" customWidth="1"/>
-    <col min="2071" max="2304" width="9" style="44"/>
-    <col min="2305" max="2307" width="5.625" style="44" customWidth="1"/>
-    <col min="2308" max="2308" width="7.25" style="44" customWidth="1"/>
-    <col min="2309" max="2322" width="5.625" style="44" customWidth="1"/>
-    <col min="2323" max="2323" width="9.375" style="44" customWidth="1"/>
-    <col min="2324" max="2324" width="2.625" style="44" customWidth="1"/>
-    <col min="2325" max="2325" width="20.875" style="44" customWidth="1"/>
-    <col min="2326" max="2326" width="5.625" style="44" customWidth="1"/>
-    <col min="2327" max="2560" width="9" style="44"/>
-    <col min="2561" max="2563" width="5.625" style="44" customWidth="1"/>
-    <col min="2564" max="2564" width="7.25" style="44" customWidth="1"/>
-    <col min="2565" max="2578" width="5.625" style="44" customWidth="1"/>
-    <col min="2579" max="2579" width="9.375" style="44" customWidth="1"/>
-    <col min="2580" max="2580" width="2.625" style="44" customWidth="1"/>
-    <col min="2581" max="2581" width="20.875" style="44" customWidth="1"/>
-    <col min="2582" max="2582" width="5.625" style="44" customWidth="1"/>
-    <col min="2583" max="2816" width="9" style="44"/>
-    <col min="2817" max="2819" width="5.625" style="44" customWidth="1"/>
-    <col min="2820" max="2820" width="7.25" style="44" customWidth="1"/>
-    <col min="2821" max="2834" width="5.625" style="44" customWidth="1"/>
-    <col min="2835" max="2835" width="9.375" style="44" customWidth="1"/>
-    <col min="2836" max="2836" width="2.625" style="44" customWidth="1"/>
-    <col min="2837" max="2837" width="20.875" style="44" customWidth="1"/>
-    <col min="2838" max="2838" width="5.625" style="44" customWidth="1"/>
-    <col min="2839" max="3072" width="9" style="44"/>
-    <col min="3073" max="3075" width="5.625" style="44" customWidth="1"/>
-    <col min="3076" max="3076" width="7.25" style="44" customWidth="1"/>
-    <col min="3077" max="3090" width="5.625" style="44" customWidth="1"/>
-    <col min="3091" max="3091" width="9.375" style="44" customWidth="1"/>
-    <col min="3092" max="3092" width="2.625" style="44" customWidth="1"/>
-    <col min="3093" max="3093" width="20.875" style="44" customWidth="1"/>
-    <col min="3094" max="3094" width="5.625" style="44" customWidth="1"/>
-    <col min="3095" max="3328" width="9" style="44"/>
-    <col min="3329" max="3331" width="5.625" style="44" customWidth="1"/>
-    <col min="3332" max="3332" width="7.25" style="44" customWidth="1"/>
-    <col min="3333" max="3346" width="5.625" style="44" customWidth="1"/>
-    <col min="3347" max="3347" width="9.375" style="44" customWidth="1"/>
-    <col min="3348" max="3348" width="2.625" style="44" customWidth="1"/>
-    <col min="3349" max="3349" width="20.875" style="44" customWidth="1"/>
-    <col min="3350" max="3350" width="5.625" style="44" customWidth="1"/>
-    <col min="3351" max="3584" width="9" style="44"/>
-    <col min="3585" max="3587" width="5.625" style="44" customWidth="1"/>
-    <col min="3588" max="3588" width="7.25" style="44" customWidth="1"/>
-    <col min="3589" max="3602" width="5.625" style="44" customWidth="1"/>
-    <col min="3603" max="3603" width="9.375" style="44" customWidth="1"/>
-    <col min="3604" max="3604" width="2.625" style="44" customWidth="1"/>
-    <col min="3605" max="3605" width="20.875" style="44" customWidth="1"/>
-    <col min="3606" max="3606" width="5.625" style="44" customWidth="1"/>
-    <col min="3607" max="3840" width="9" style="44"/>
-    <col min="3841" max="3843" width="5.625" style="44" customWidth="1"/>
-    <col min="3844" max="3844" width="7.25" style="44" customWidth="1"/>
-    <col min="3845" max="3858" width="5.625" style="44" customWidth="1"/>
-    <col min="3859" max="3859" width="9.375" style="44" customWidth="1"/>
-    <col min="3860" max="3860" width="2.625" style="44" customWidth="1"/>
-    <col min="3861" max="3861" width="20.875" style="44" customWidth="1"/>
-    <col min="3862" max="3862" width="5.625" style="44" customWidth="1"/>
-    <col min="3863" max="4096" width="9" style="44"/>
-    <col min="4097" max="4099" width="5.625" style="44" customWidth="1"/>
-    <col min="4100" max="4100" width="7.25" style="44" customWidth="1"/>
-    <col min="4101" max="4114" width="5.625" style="44" customWidth="1"/>
-    <col min="4115" max="4115" width="9.375" style="44" customWidth="1"/>
-    <col min="4116" max="4116" width="2.625" style="44" customWidth="1"/>
-    <col min="4117" max="4117" width="20.875" style="44" customWidth="1"/>
-    <col min="4118" max="4118" width="5.625" style="44" customWidth="1"/>
-    <col min="4119" max="4352" width="9" style="44"/>
-    <col min="4353" max="4355" width="5.625" style="44" customWidth="1"/>
-    <col min="4356" max="4356" width="7.25" style="44" customWidth="1"/>
-    <col min="4357" max="4370" width="5.625" style="44" customWidth="1"/>
-    <col min="4371" max="4371" width="9.375" style="44" customWidth="1"/>
-    <col min="4372" max="4372" width="2.625" style="44" customWidth="1"/>
-    <col min="4373" max="4373" width="20.875" style="44" customWidth="1"/>
-    <col min="4374" max="4374" width="5.625" style="44" customWidth="1"/>
-    <col min="4375" max="4608" width="9" style="44"/>
-    <col min="4609" max="4611" width="5.625" style="44" customWidth="1"/>
-    <col min="4612" max="4612" width="7.25" style="44" customWidth="1"/>
-    <col min="4613" max="4626" width="5.625" style="44" customWidth="1"/>
-    <col min="4627" max="4627" width="9.375" style="44" customWidth="1"/>
-    <col min="4628" max="4628" width="2.625" style="44" customWidth="1"/>
-    <col min="4629" max="4629" width="20.875" style="44" customWidth="1"/>
-    <col min="4630" max="4630" width="5.625" style="44" customWidth="1"/>
-    <col min="4631" max="4864" width="9" style="44"/>
-    <col min="4865" max="4867" width="5.625" style="44" customWidth="1"/>
-    <col min="4868" max="4868" width="7.25" style="44" customWidth="1"/>
-    <col min="4869" max="4882" width="5.625" style="44" customWidth="1"/>
-    <col min="4883" max="4883" width="9.375" style="44" customWidth="1"/>
-    <col min="4884" max="4884" width="2.625" style="44" customWidth="1"/>
-    <col min="4885" max="4885" width="20.875" style="44" customWidth="1"/>
-    <col min="4886" max="4886" width="5.625" style="44" customWidth="1"/>
-    <col min="4887" max="5120" width="9" style="44"/>
-    <col min="5121" max="5123" width="5.625" style="44" customWidth="1"/>
-    <col min="5124" max="5124" width="7.25" style="44" customWidth="1"/>
-    <col min="5125" max="5138" width="5.625" style="44" customWidth="1"/>
-    <col min="5139" max="5139" width="9.375" style="44" customWidth="1"/>
-    <col min="5140" max="5140" width="2.625" style="44" customWidth="1"/>
-    <col min="5141" max="5141" width="20.875" style="44" customWidth="1"/>
-    <col min="5142" max="5142" width="5.625" style="44" customWidth="1"/>
-    <col min="5143" max="5376" width="9" style="44"/>
-    <col min="5377" max="5379" width="5.625" style="44" customWidth="1"/>
-    <col min="5380" max="5380" width="7.25" style="44" customWidth="1"/>
-    <col min="5381" max="5394" width="5.625" style="44" customWidth="1"/>
-    <col min="5395" max="5395" width="9.375" style="44" customWidth="1"/>
-    <col min="5396" max="5396" width="2.625" style="44" customWidth="1"/>
-    <col min="5397" max="5397" width="20.875" style="44" customWidth="1"/>
-    <col min="5398" max="5398" width="5.625" style="44" customWidth="1"/>
-    <col min="5399" max="5632" width="9" style="44"/>
-    <col min="5633" max="5635" width="5.625" style="44" customWidth="1"/>
-    <col min="5636" max="5636" width="7.25" style="44" customWidth="1"/>
-    <col min="5637" max="5650" width="5.625" style="44" customWidth="1"/>
-    <col min="5651" max="5651" width="9.375" style="44" customWidth="1"/>
-    <col min="5652" max="5652" width="2.625" style="44" customWidth="1"/>
-    <col min="5653" max="5653" width="20.875" style="44" customWidth="1"/>
-    <col min="5654" max="5654" width="5.625" style="44" customWidth="1"/>
-    <col min="5655" max="5888" width="9" style="44"/>
-    <col min="5889" max="5891" width="5.625" style="44" customWidth="1"/>
-    <col min="5892" max="5892" width="7.25" style="44" customWidth="1"/>
-    <col min="5893" max="5906" width="5.625" style="44" customWidth="1"/>
-    <col min="5907" max="5907" width="9.375" style="44" customWidth="1"/>
-    <col min="5908" max="5908" width="2.625" style="44" customWidth="1"/>
-    <col min="5909" max="5909" width="20.875" style="44" customWidth="1"/>
-    <col min="5910" max="5910" width="5.625" style="44" customWidth="1"/>
-    <col min="5911" max="6144" width="9" style="44"/>
-    <col min="6145" max="6147" width="5.625" style="44" customWidth="1"/>
-    <col min="6148" max="6148" width="7.25" style="44" customWidth="1"/>
-    <col min="6149" max="6162" width="5.625" style="44" customWidth="1"/>
-    <col min="6163" max="6163" width="9.375" style="44" customWidth="1"/>
-    <col min="6164" max="6164" width="2.625" style="44" customWidth="1"/>
-    <col min="6165" max="6165" width="20.875" style="44" customWidth="1"/>
-    <col min="6166" max="6166" width="5.625" style="44" customWidth="1"/>
-    <col min="6167" max="6400" width="9" style="44"/>
-    <col min="6401" max="6403" width="5.625" style="44" customWidth="1"/>
-    <col min="6404" max="6404" width="7.25" style="44" customWidth="1"/>
-    <col min="6405" max="6418" width="5.625" style="44" customWidth="1"/>
-    <col min="6419" max="6419" width="9.375" style="44" customWidth="1"/>
-    <col min="6420" max="6420" width="2.625" style="44" customWidth="1"/>
-    <col min="6421" max="6421" width="20.875" style="44" customWidth="1"/>
-    <col min="6422" max="6422" width="5.625" style="44" customWidth="1"/>
-    <col min="6423" max="6656" width="9" style="44"/>
-    <col min="6657" max="6659" width="5.625" style="44" customWidth="1"/>
-    <col min="6660" max="6660" width="7.25" style="44" customWidth="1"/>
-    <col min="6661" max="6674" width="5.625" style="44" customWidth="1"/>
-    <col min="6675" max="6675" width="9.375" style="44" customWidth="1"/>
-    <col min="6676" max="6676" width="2.625" style="44" customWidth="1"/>
-    <col min="6677" max="6677" width="20.875" style="44" customWidth="1"/>
-    <col min="6678" max="6678" width="5.625" style="44" customWidth="1"/>
-    <col min="6679" max="6912" width="9" style="44"/>
-    <col min="6913" max="6915" width="5.625" style="44" customWidth="1"/>
-    <col min="6916" max="6916" width="7.25" style="44" customWidth="1"/>
-    <col min="6917" max="6930" width="5.625" style="44" customWidth="1"/>
-    <col min="6931" max="6931" width="9.375" style="44" customWidth="1"/>
-    <col min="6932" max="6932" width="2.625" style="44" customWidth="1"/>
-    <col min="6933" max="6933" width="20.875" style="44" customWidth="1"/>
-    <col min="6934" max="6934" width="5.625" style="44" customWidth="1"/>
-    <col min="6935" max="7168" width="9" style="44"/>
-    <col min="7169" max="7171" width="5.625" style="44" customWidth="1"/>
-    <col min="7172" max="7172" width="7.25" style="44" customWidth="1"/>
-    <col min="7173" max="7186" width="5.625" style="44" customWidth="1"/>
-    <col min="7187" max="7187" width="9.375" style="44" customWidth="1"/>
-    <col min="7188" max="7188" width="2.625" style="44" customWidth="1"/>
-    <col min="7189" max="7189" width="20.875" style="44" customWidth="1"/>
-    <col min="7190" max="7190" width="5.625" style="44" customWidth="1"/>
-    <col min="7191" max="7424" width="9" style="44"/>
-    <col min="7425" max="7427" width="5.625" style="44" customWidth="1"/>
-    <col min="7428" max="7428" width="7.25" style="44" customWidth="1"/>
-    <col min="7429" max="7442" width="5.625" style="44" customWidth="1"/>
-    <col min="7443" max="7443" width="9.375" style="44" customWidth="1"/>
-    <col min="7444" max="7444" width="2.625" style="44" customWidth="1"/>
-    <col min="7445" max="7445" width="20.875" style="44" customWidth="1"/>
-    <col min="7446" max="7446" width="5.625" style="44" customWidth="1"/>
-    <col min="7447" max="7680" width="9" style="44"/>
-    <col min="7681" max="7683" width="5.625" style="44" customWidth="1"/>
-    <col min="7684" max="7684" width="7.25" style="44" customWidth="1"/>
-    <col min="7685" max="7698" width="5.625" style="44" customWidth="1"/>
-    <col min="7699" max="7699" width="9.375" style="44" customWidth="1"/>
-    <col min="7700" max="7700" width="2.625" style="44" customWidth="1"/>
-    <col min="7701" max="7701" width="20.875" style="44" customWidth="1"/>
-    <col min="7702" max="7702" width="5.625" style="44" customWidth="1"/>
-    <col min="7703" max="7936" width="9" style="44"/>
-    <col min="7937" max="7939" width="5.625" style="44" customWidth="1"/>
-    <col min="7940" max="7940" width="7.25" style="44" customWidth="1"/>
-    <col min="7941" max="7954" width="5.625" style="44" customWidth="1"/>
-    <col min="7955" max="7955" width="9.375" style="44" customWidth="1"/>
-    <col min="7956" max="7956" width="2.625" style="44" customWidth="1"/>
-    <col min="7957" max="7957" width="20.875" style="44" customWidth="1"/>
-    <col min="7958" max="7958" width="5.625" style="44" customWidth="1"/>
-    <col min="7959" max="8192" width="9" style="44"/>
-    <col min="8193" max="8195" width="5.625" style="44" customWidth="1"/>
-    <col min="8196" max="8196" width="7.25" style="44" customWidth="1"/>
-    <col min="8197" max="8210" width="5.625" style="44" customWidth="1"/>
-    <col min="8211" max="8211" width="9.375" style="44" customWidth="1"/>
-    <col min="8212" max="8212" width="2.625" style="44" customWidth="1"/>
-    <col min="8213" max="8213" width="20.875" style="44" customWidth="1"/>
-    <col min="8214" max="8214" width="5.625" style="44" customWidth="1"/>
-    <col min="8215" max="8448" width="9" style="44"/>
-    <col min="8449" max="8451" width="5.625" style="44" customWidth="1"/>
-    <col min="8452" max="8452" width="7.25" style="44" customWidth="1"/>
-    <col min="8453" max="8466" width="5.625" style="44" customWidth="1"/>
-    <col min="8467" max="8467" width="9.375" style="44" customWidth="1"/>
-    <col min="8468" max="8468" width="2.625" style="44" customWidth="1"/>
-    <col min="8469" max="8469" width="20.875" style="44" customWidth="1"/>
-    <col min="8470" max="8470" width="5.625" style="44" customWidth="1"/>
-    <col min="8471" max="8704" width="9" style="44"/>
-    <col min="8705" max="8707" width="5.625" style="44" customWidth="1"/>
-    <col min="8708" max="8708" width="7.25" style="44" customWidth="1"/>
-    <col min="8709" max="8722" width="5.625" style="44" customWidth="1"/>
-    <col min="8723" max="8723" width="9.375" style="44" customWidth="1"/>
-    <col min="8724" max="8724" width="2.625" style="44" customWidth="1"/>
-    <col min="8725" max="8725" width="20.875" style="44" customWidth="1"/>
-    <col min="8726" max="8726" width="5.625" style="44" customWidth="1"/>
-    <col min="8727" max="8960" width="9" style="44"/>
-    <col min="8961" max="8963" width="5.625" style="44" customWidth="1"/>
-    <col min="8964" max="8964" width="7.25" style="44" customWidth="1"/>
-    <col min="8965" max="8978" width="5.625" style="44" customWidth="1"/>
-    <col min="8979" max="8979" width="9.375" style="44" customWidth="1"/>
-    <col min="8980" max="8980" width="2.625" style="44" customWidth="1"/>
-    <col min="8981" max="8981" width="20.875" style="44" customWidth="1"/>
-    <col min="8982" max="8982" width="5.625" style="44" customWidth="1"/>
-    <col min="8983" max="9216" width="9" style="44"/>
-    <col min="9217" max="9219" width="5.625" style="44" customWidth="1"/>
-    <col min="9220" max="9220" width="7.25" style="44" customWidth="1"/>
-    <col min="9221" max="9234" width="5.625" style="44" customWidth="1"/>
-    <col min="9235" max="9235" width="9.375" style="44" customWidth="1"/>
-    <col min="9236" max="9236" width="2.625" style="44" customWidth="1"/>
-    <col min="9237" max="9237" width="20.875" style="44" customWidth="1"/>
-    <col min="9238" max="9238" width="5.625" style="44" customWidth="1"/>
-    <col min="9239" max="9472" width="9" style="44"/>
-    <col min="9473" max="9475" width="5.625" style="44" customWidth="1"/>
-    <col min="9476" max="9476" width="7.25" style="44" customWidth="1"/>
-    <col min="9477" max="9490" width="5.625" style="44" customWidth="1"/>
-    <col min="9491" max="9491" width="9.375" style="44" customWidth="1"/>
-    <col min="9492" max="9492" width="2.625" style="44" customWidth="1"/>
-    <col min="9493" max="9493" width="20.875" style="44" customWidth="1"/>
-    <col min="9494" max="9494" width="5.625" style="44" customWidth="1"/>
-    <col min="9495" max="9728" width="9" style="44"/>
-    <col min="9729" max="9731" width="5.625" style="44" customWidth="1"/>
-    <col min="9732" max="9732" width="7.25" style="44" customWidth="1"/>
-    <col min="9733" max="9746" width="5.625" style="44" customWidth="1"/>
-    <col min="9747" max="9747" width="9.375" style="44" customWidth="1"/>
-    <col min="9748" max="9748" width="2.625" style="44" customWidth="1"/>
-    <col min="9749" max="9749" width="20.875" style="44" customWidth="1"/>
-    <col min="9750" max="9750" width="5.625" style="44" customWidth="1"/>
-    <col min="9751" max="9984" width="9" style="44"/>
-    <col min="9985" max="9987" width="5.625" style="44" customWidth="1"/>
-    <col min="9988" max="9988" width="7.25" style="44" customWidth="1"/>
-    <col min="9989" max="10002" width="5.625" style="44" customWidth="1"/>
-    <col min="10003" max="10003" width="9.375" style="44" customWidth="1"/>
-    <col min="10004" max="10004" width="2.625" style="44" customWidth="1"/>
-    <col min="10005" max="10005" width="20.875" style="44" customWidth="1"/>
-    <col min="10006" max="10006" width="5.625" style="44" customWidth="1"/>
-    <col min="10007" max="10240" width="9" style="44"/>
-    <col min="10241" max="10243" width="5.625" style="44" customWidth="1"/>
-    <col min="10244" max="10244" width="7.25" style="44" customWidth="1"/>
-    <col min="10245" max="10258" width="5.625" style="44" customWidth="1"/>
-    <col min="10259" max="10259" width="9.375" style="44" customWidth="1"/>
-    <col min="10260" max="10260" width="2.625" style="44" customWidth="1"/>
-    <col min="10261" max="10261" width="20.875" style="44" customWidth="1"/>
-    <col min="10262" max="10262" width="5.625" style="44" customWidth="1"/>
-    <col min="10263" max="10496" width="9" style="44"/>
-    <col min="10497" max="10499" width="5.625" style="44" customWidth="1"/>
-    <col min="10500" max="10500" width="7.25" style="44" customWidth="1"/>
-    <col min="10501" max="10514" width="5.625" style="44" customWidth="1"/>
-    <col min="10515" max="10515" width="9.375" style="44" customWidth="1"/>
-    <col min="10516" max="10516" width="2.625" style="44" customWidth="1"/>
-    <col min="10517" max="10517" width="20.875" style="44" customWidth="1"/>
-    <col min="10518" max="10518" width="5.625" style="44" customWidth="1"/>
-    <col min="10519" max="10752" width="9" style="44"/>
-    <col min="10753" max="10755" width="5.625" style="44" customWidth="1"/>
-    <col min="10756" max="10756" width="7.25" style="44" customWidth="1"/>
-    <col min="10757" max="10770" width="5.625" style="44" customWidth="1"/>
-    <col min="10771" max="10771" width="9.375" style="44" customWidth="1"/>
-    <col min="10772" max="10772" width="2.625" style="44" customWidth="1"/>
-    <col min="10773" max="10773" width="20.875" style="44" customWidth="1"/>
-    <col min="10774" max="10774" width="5.625" style="44" customWidth="1"/>
-    <col min="10775" max="11008" width="9" style="44"/>
-    <col min="11009" max="11011" width="5.625" style="44" customWidth="1"/>
-    <col min="11012" max="11012" width="7.25" style="44" customWidth="1"/>
-    <col min="11013" max="11026" width="5.625" style="44" customWidth="1"/>
-    <col min="11027" max="11027" width="9.375" style="44" customWidth="1"/>
-    <col min="11028" max="11028" width="2.625" style="44" customWidth="1"/>
-    <col min="11029" max="11029" width="20.875" style="44" customWidth="1"/>
-    <col min="11030" max="11030" width="5.625" style="44" customWidth="1"/>
-    <col min="11031" max="11264" width="9" style="44"/>
-    <col min="11265" max="11267" width="5.625" style="44" customWidth="1"/>
-    <col min="11268" max="11268" width="7.25" style="44" customWidth="1"/>
-    <col min="11269" max="11282" width="5.625" style="44" customWidth="1"/>
-    <col min="11283" max="11283" width="9.375" style="44" customWidth="1"/>
-    <col min="11284" max="11284" width="2.625" style="44" customWidth="1"/>
-    <col min="11285" max="11285" width="20.875" style="44" customWidth="1"/>
-    <col min="11286" max="11286" width="5.625" style="44" customWidth="1"/>
-    <col min="11287" max="11520" width="9" style="44"/>
-    <col min="11521" max="11523" width="5.625" style="44" customWidth="1"/>
-    <col min="11524" max="11524" width="7.25" style="44" customWidth="1"/>
-    <col min="11525" max="11538" width="5.625" style="44" customWidth="1"/>
-    <col min="11539" max="11539" width="9.375" style="44" customWidth="1"/>
-    <col min="11540" max="11540" width="2.625" style="44" customWidth="1"/>
-    <col min="11541" max="11541" width="20.875" style="44" customWidth="1"/>
-    <col min="11542" max="11542" width="5.625" style="44" customWidth="1"/>
-    <col min="11543" max="11776" width="9" style="44"/>
-    <col min="11777" max="11779" width="5.625" style="44" customWidth="1"/>
-    <col min="11780" max="11780" width="7.25" style="44" customWidth="1"/>
-    <col min="11781" max="11794" width="5.625" style="44" customWidth="1"/>
-    <col min="11795" max="11795" width="9.375" style="44" customWidth="1"/>
-    <col min="11796" max="11796" width="2.625" style="44" customWidth="1"/>
-    <col min="11797" max="11797" width="20.875" style="44" customWidth="1"/>
-    <col min="11798" max="11798" width="5.625" style="44" customWidth="1"/>
-    <col min="11799" max="12032" width="9" style="44"/>
-    <col min="12033" max="12035" width="5.625" style="44" customWidth="1"/>
-    <col min="12036" max="12036" width="7.25" style="44" customWidth="1"/>
-    <col min="12037" max="12050" width="5.625" style="44" customWidth="1"/>
-    <col min="12051" max="12051" width="9.375" style="44" customWidth="1"/>
-    <col min="12052" max="12052" width="2.625" style="44" customWidth="1"/>
-    <col min="12053" max="12053" width="20.875" style="44" customWidth="1"/>
-    <col min="12054" max="12054" width="5.625" style="44" customWidth="1"/>
-    <col min="12055" max="12288" width="9" style="44"/>
-    <col min="12289" max="12291" width="5.625" style="44" customWidth="1"/>
-    <col min="12292" max="12292" width="7.25" style="44" customWidth="1"/>
-    <col min="12293" max="12306" width="5.625" style="44" customWidth="1"/>
-    <col min="12307" max="12307" width="9.375" style="44" customWidth="1"/>
-    <col min="12308" max="12308" width="2.625" style="44" customWidth="1"/>
-    <col min="12309" max="12309" width="20.875" style="44" customWidth="1"/>
-    <col min="12310" max="12310" width="5.625" style="44" customWidth="1"/>
-    <col min="12311" max="12544" width="9" style="44"/>
-    <col min="12545" max="12547" width="5.625" style="44" customWidth="1"/>
-    <col min="12548" max="12548" width="7.25" style="44" customWidth="1"/>
-    <col min="12549" max="12562" width="5.625" style="44" customWidth="1"/>
-    <col min="12563" max="12563" width="9.375" style="44" customWidth="1"/>
-    <col min="12564" max="12564" width="2.625" style="44" customWidth="1"/>
-    <col min="12565" max="12565" width="20.875" style="44" customWidth="1"/>
-    <col min="12566" max="12566" width="5.625" style="44" customWidth="1"/>
-    <col min="12567" max="12800" width="9" style="44"/>
-    <col min="12801" max="12803" width="5.625" style="44" customWidth="1"/>
-    <col min="12804" max="12804" width="7.25" style="44" customWidth="1"/>
-    <col min="12805" max="12818" width="5.625" style="44" customWidth="1"/>
-    <col min="12819" max="12819" width="9.375" style="44" customWidth="1"/>
-    <col min="12820" max="12820" width="2.625" style="44" customWidth="1"/>
-    <col min="12821" max="12821" width="20.875" style="44" customWidth="1"/>
-    <col min="12822" max="12822" width="5.625" style="44" customWidth="1"/>
-    <col min="12823" max="13056" width="9" style="44"/>
-    <col min="13057" max="13059" width="5.625" style="44" customWidth="1"/>
-    <col min="13060" max="13060" width="7.25" style="44" customWidth="1"/>
-    <col min="13061" max="13074" width="5.625" style="44" customWidth="1"/>
-    <col min="13075" max="13075" width="9.375" style="44" customWidth="1"/>
-    <col min="13076" max="13076" width="2.625" style="44" customWidth="1"/>
-    <col min="13077" max="13077" width="20.875" style="44" customWidth="1"/>
-    <col min="13078" max="13078" width="5.625" style="44" customWidth="1"/>
-    <col min="13079" max="13312" width="9" style="44"/>
-    <col min="13313" max="13315" width="5.625" style="44" customWidth="1"/>
-    <col min="13316" max="13316" width="7.25" style="44" customWidth="1"/>
-    <col min="13317" max="13330" width="5.625" style="44" customWidth="1"/>
-    <col min="13331" max="13331" width="9.375" style="44" customWidth="1"/>
-    <col min="13332" max="13332" width="2.625" style="44" customWidth="1"/>
-    <col min="13333" max="13333" width="20.875" style="44" customWidth="1"/>
-    <col min="13334" max="13334" width="5.625" style="44" customWidth="1"/>
-    <col min="13335" max="13568" width="9" style="44"/>
-    <col min="13569" max="13571" width="5.625" style="44" customWidth="1"/>
-    <col min="13572" max="13572" width="7.25" style="44" customWidth="1"/>
-    <col min="13573" max="13586" width="5.625" style="44" customWidth="1"/>
-    <col min="13587" max="13587" width="9.375" style="44" customWidth="1"/>
-    <col min="13588" max="13588" width="2.625" style="44" customWidth="1"/>
-    <col min="13589" max="13589" width="20.875" style="44" customWidth="1"/>
-    <col min="13590" max="13590" width="5.625" style="44" customWidth="1"/>
-    <col min="13591" max="13824" width="9" style="44"/>
-    <col min="13825" max="13827" width="5.625" style="44" customWidth="1"/>
-    <col min="13828" max="13828" width="7.25" style="44" customWidth="1"/>
-    <col min="13829" max="13842" width="5.625" style="44" customWidth="1"/>
-    <col min="13843" max="13843" width="9.375" style="44" customWidth="1"/>
-    <col min="13844" max="13844" width="2.625" style="44" customWidth="1"/>
-    <col min="13845" max="13845" width="20.875" style="44" customWidth="1"/>
-    <col min="13846" max="13846" width="5.625" style="44" customWidth="1"/>
-    <col min="13847" max="14080" width="9" style="44"/>
-    <col min="14081" max="14083" width="5.625" style="44" customWidth="1"/>
-    <col min="14084" max="14084" width="7.25" style="44" customWidth="1"/>
-    <col min="14085" max="14098" width="5.625" style="44" customWidth="1"/>
-    <col min="14099" max="14099" width="9.375" style="44" customWidth="1"/>
-    <col min="14100" max="14100" width="2.625" style="44" customWidth="1"/>
-    <col min="14101" max="14101" width="20.875" style="44" customWidth="1"/>
-    <col min="14102" max="14102" width="5.625" style="44" customWidth="1"/>
-    <col min="14103" max="14336" width="9" style="44"/>
-    <col min="14337" max="14339" width="5.625" style="44" customWidth="1"/>
-    <col min="14340" max="14340" width="7.25" style="44" customWidth="1"/>
-    <col min="14341" max="14354" width="5.625" style="44" customWidth="1"/>
-    <col min="14355" max="14355" width="9.375" style="44" customWidth="1"/>
-    <col min="14356" max="14356" width="2.625" style="44" customWidth="1"/>
-    <col min="14357" max="14357" width="20.875" style="44" customWidth="1"/>
-    <col min="14358" max="14358" width="5.625" style="44" customWidth="1"/>
-    <col min="14359" max="14592" width="9" style="44"/>
-    <col min="14593" max="14595" width="5.625" style="44" customWidth="1"/>
-    <col min="14596" max="14596" width="7.25" style="44" customWidth="1"/>
-    <col min="14597" max="14610" width="5.625" style="44" customWidth="1"/>
-    <col min="14611" max="14611" width="9.375" style="44" customWidth="1"/>
-    <col min="14612" max="14612" width="2.625" style="44" customWidth="1"/>
-    <col min="14613" max="14613" width="20.875" style="44" customWidth="1"/>
-    <col min="14614" max="14614" width="5.625" style="44" customWidth="1"/>
-    <col min="14615" max="14848" width="9" style="44"/>
-    <col min="14849" max="14851" width="5.625" style="44" customWidth="1"/>
-    <col min="14852" max="14852" width="7.25" style="44" customWidth="1"/>
-    <col min="14853" max="14866" width="5.625" style="44" customWidth="1"/>
-    <col min="14867" max="14867" width="9.375" style="44" customWidth="1"/>
-    <col min="14868" max="14868" width="2.625" style="44" customWidth="1"/>
-    <col min="14869" max="14869" width="20.875" style="44" customWidth="1"/>
-    <col min="14870" max="14870" width="5.625" style="44" customWidth="1"/>
-    <col min="14871" max="15104" width="9" style="44"/>
-    <col min="15105" max="15107" width="5.625" style="44" customWidth="1"/>
-    <col min="15108" max="15108" width="7.25" style="44" customWidth="1"/>
-    <col min="15109" max="15122" width="5.625" style="44" customWidth="1"/>
-    <col min="15123" max="15123" width="9.375" style="44" customWidth="1"/>
-    <col min="15124" max="15124" width="2.625" style="44" customWidth="1"/>
-    <col min="15125" max="15125" width="20.875" style="44" customWidth="1"/>
-    <col min="15126" max="15126" width="5.625" style="44" customWidth="1"/>
-    <col min="15127" max="15360" width="9" style="44"/>
-    <col min="15361" max="15363" width="5.625" style="44" customWidth="1"/>
-    <col min="15364" max="15364" width="7.25" style="44" customWidth="1"/>
-    <col min="15365" max="15378" width="5.625" style="44" customWidth="1"/>
-    <col min="15379" max="15379" width="9.375" style="44" customWidth="1"/>
-    <col min="15380" max="15380" width="2.625" style="44" customWidth="1"/>
-    <col min="15381" max="15381" width="20.875" style="44" customWidth="1"/>
-    <col min="15382" max="15382" width="5.625" style="44" customWidth="1"/>
-    <col min="15383" max="15616" width="9" style="44"/>
-    <col min="15617" max="15619" width="5.625" style="44" customWidth="1"/>
-    <col min="15620" max="15620" width="7.25" style="44" customWidth="1"/>
-    <col min="15621" max="15634" width="5.625" style="44" customWidth="1"/>
-    <col min="15635" max="15635" width="9.375" style="44" customWidth="1"/>
-    <col min="15636" max="15636" width="2.625" style="44" customWidth="1"/>
-    <col min="15637" max="15637" width="20.875" style="44" customWidth="1"/>
-    <col min="15638" max="15638" width="5.625" style="44" customWidth="1"/>
-    <col min="15639" max="15872" width="9" style="44"/>
-    <col min="15873" max="15875" width="5.625" style="44" customWidth="1"/>
-    <col min="15876" max="15876" width="7.25" style="44" customWidth="1"/>
-    <col min="15877" max="15890" width="5.625" style="44" customWidth="1"/>
-    <col min="15891" max="15891" width="9.375" style="44" customWidth="1"/>
-    <col min="15892" max="15892" width="2.625" style="44" customWidth="1"/>
-    <col min="15893" max="15893" width="20.875" style="44" customWidth="1"/>
-    <col min="15894" max="15894" width="5.625" style="44" customWidth="1"/>
-    <col min="15895" max="16128" width="9" style="44"/>
-    <col min="16129" max="16131" width="5.625" style="44" customWidth="1"/>
-    <col min="16132" max="16132" width="7.25" style="44" customWidth="1"/>
-    <col min="16133" max="16146" width="5.625" style="44" customWidth="1"/>
-    <col min="16147" max="16147" width="9.375" style="44" customWidth="1"/>
-    <col min="16148" max="16148" width="2.625" style="44" customWidth="1"/>
-    <col min="16149" max="16149" width="20.875" style="44" customWidth="1"/>
-    <col min="16150" max="16150" width="5.625" style="44" customWidth="1"/>
-    <col min="16151" max="16384" width="9" style="44"/>
+    <col min="1" max="2" width="5.625" style="42" customWidth="1"/>
+    <col min="3" max="3" width="5.625" style="43" customWidth="1"/>
+    <col min="4" max="4" width="7.25" style="43" customWidth="1"/>
+    <col min="5" max="18" width="5.625" style="43" customWidth="1"/>
+    <col min="19" max="19" width="9.375" style="43" customWidth="1"/>
+    <col min="20" max="20" width="2.625" style="43" customWidth="1"/>
+    <col min="21" max="21" width="20.875" style="43" customWidth="1"/>
+    <col min="22" max="22" width="5.625" style="43" customWidth="1"/>
+    <col min="23" max="256" width="9" style="43"/>
+    <col min="257" max="259" width="5.625" style="43" customWidth="1"/>
+    <col min="260" max="260" width="7.25" style="43" customWidth="1"/>
+    <col min="261" max="274" width="5.625" style="43" customWidth="1"/>
+    <col min="275" max="275" width="9.375" style="43" customWidth="1"/>
+    <col min="276" max="276" width="2.625" style="43" customWidth="1"/>
+    <col min="277" max="277" width="20.875" style="43" customWidth="1"/>
+    <col min="278" max="278" width="5.625" style="43" customWidth="1"/>
+    <col min="279" max="512" width="9" style="43"/>
+    <col min="513" max="515" width="5.625" style="43" customWidth="1"/>
+    <col min="516" max="516" width="7.25" style="43" customWidth="1"/>
+    <col min="517" max="530" width="5.625" style="43" customWidth="1"/>
+    <col min="531" max="531" width="9.375" style="43" customWidth="1"/>
+    <col min="532" max="532" width="2.625" style="43" customWidth="1"/>
+    <col min="533" max="533" width="20.875" style="43" customWidth="1"/>
+    <col min="534" max="534" width="5.625" style="43" customWidth="1"/>
+    <col min="535" max="768" width="9" style="43"/>
+    <col min="769" max="771" width="5.625" style="43" customWidth="1"/>
+    <col min="772" max="772" width="7.25" style="43" customWidth="1"/>
+    <col min="773" max="786" width="5.625" style="43" customWidth="1"/>
+    <col min="787" max="787" width="9.375" style="43" customWidth="1"/>
+    <col min="788" max="788" width="2.625" style="43" customWidth="1"/>
+    <col min="789" max="789" width="20.875" style="43" customWidth="1"/>
+    <col min="790" max="790" width="5.625" style="43" customWidth="1"/>
+    <col min="791" max="1024" width="9" style="43"/>
+    <col min="1025" max="1027" width="5.625" style="43" customWidth="1"/>
+    <col min="1028" max="1028" width="7.25" style="43" customWidth="1"/>
+    <col min="1029" max="1042" width="5.625" style="43" customWidth="1"/>
+    <col min="1043" max="1043" width="9.375" style="43" customWidth="1"/>
+    <col min="1044" max="1044" width="2.625" style="43" customWidth="1"/>
+    <col min="1045" max="1045" width="20.875" style="43" customWidth="1"/>
+    <col min="1046" max="1046" width="5.625" style="43" customWidth="1"/>
+    <col min="1047" max="1280" width="9" style="43"/>
+    <col min="1281" max="1283" width="5.625" style="43" customWidth="1"/>
+    <col min="1284" max="1284" width="7.25" style="43" customWidth="1"/>
+    <col min="1285" max="1298" width="5.625" style="43" customWidth="1"/>
+    <col min="1299" max="1299" width="9.375" style="43" customWidth="1"/>
+    <col min="1300" max="1300" width="2.625" style="43" customWidth="1"/>
+    <col min="1301" max="1301" width="20.875" style="43" customWidth="1"/>
+    <col min="1302" max="1302" width="5.625" style="43" customWidth="1"/>
+    <col min="1303" max="1536" width="9" style="43"/>
+    <col min="1537" max="1539" width="5.625" style="43" customWidth="1"/>
+    <col min="1540" max="1540" width="7.25" style="43" customWidth="1"/>
+    <col min="1541" max="1554" width="5.625" style="43" customWidth="1"/>
+    <col min="1555" max="1555" width="9.375" style="43" customWidth="1"/>
+    <col min="1556" max="1556" width="2.625" style="43" customWidth="1"/>
+    <col min="1557" max="1557" width="20.875" style="43" customWidth="1"/>
+    <col min="1558" max="1558" width="5.625" style="43" customWidth="1"/>
+    <col min="1559" max="1792" width="9" style="43"/>
+    <col min="1793" max="1795" width="5.625" style="43" customWidth="1"/>
+    <col min="1796" max="1796" width="7.25" style="43" customWidth="1"/>
+    <col min="1797" max="1810" width="5.625" style="43" customWidth="1"/>
+    <col min="1811" max="1811" width="9.375" style="43" customWidth="1"/>
+    <col min="1812" max="1812" width="2.625" style="43" customWidth="1"/>
+    <col min="1813" max="1813" width="20.875" style="43" customWidth="1"/>
+    <col min="1814" max="1814" width="5.625" style="43" customWidth="1"/>
+    <col min="1815" max="2048" width="9" style="43"/>
+    <col min="2049" max="2051" width="5.625" style="43" customWidth="1"/>
+    <col min="2052" max="2052" width="7.25" style="43" customWidth="1"/>
+    <col min="2053" max="2066" width="5.625" style="43" customWidth="1"/>
+    <col min="2067" max="2067" width="9.375" style="43" customWidth="1"/>
+    <col min="2068" max="2068" width="2.625" style="43" customWidth="1"/>
+    <col min="2069" max="2069" width="20.875" style="43" customWidth="1"/>
+    <col min="2070" max="2070" width="5.625" style="43" customWidth="1"/>
+    <col min="2071" max="2304" width="9" style="43"/>
+    <col min="2305" max="2307" width="5.625" style="43" customWidth="1"/>
+    <col min="2308" max="2308" width="7.25" style="43" customWidth="1"/>
+    <col min="2309" max="2322" width="5.625" style="43" customWidth="1"/>
+    <col min="2323" max="2323" width="9.375" style="43" customWidth="1"/>
+    <col min="2324" max="2324" width="2.625" style="43" customWidth="1"/>
+    <col min="2325" max="2325" width="20.875" style="43" customWidth="1"/>
+    <col min="2326" max="2326" width="5.625" style="43" customWidth="1"/>
+    <col min="2327" max="2560" width="9" style="43"/>
+    <col min="2561" max="2563" width="5.625" style="43" customWidth="1"/>
+    <col min="2564" max="2564" width="7.25" style="43" customWidth="1"/>
+    <col min="2565" max="2578" width="5.625" style="43" customWidth="1"/>
+    <col min="2579" max="2579" width="9.375" style="43" customWidth="1"/>
+    <col min="2580" max="2580" width="2.625" style="43" customWidth="1"/>
+    <col min="2581" max="2581" width="20.875" style="43" customWidth="1"/>
+    <col min="2582" max="2582" width="5.625" style="43" customWidth="1"/>
+    <col min="2583" max="2816" width="9" style="43"/>
+    <col min="2817" max="2819" width="5.625" style="43" customWidth="1"/>
+    <col min="2820" max="2820" width="7.25" style="43" customWidth="1"/>
+    <col min="2821" max="2834" width="5.625" style="43" customWidth="1"/>
+    <col min="2835" max="2835" width="9.375" style="43" customWidth="1"/>
+    <col min="2836" max="2836" width="2.625" style="43" customWidth="1"/>
+    <col min="2837" max="2837" width="20.875" style="43" customWidth="1"/>
+    <col min="2838" max="2838" width="5.625" style="43" customWidth="1"/>
+    <col min="2839" max="3072" width="9" style="43"/>
+    <col min="3073" max="3075" width="5.625" style="43" customWidth="1"/>
+    <col min="3076" max="3076" width="7.25" style="43" customWidth="1"/>
+    <col min="3077" max="3090" width="5.625" style="43" customWidth="1"/>
+    <col min="3091" max="3091" width="9.375" style="43" customWidth="1"/>
+    <col min="3092" max="3092" width="2.625" style="43" customWidth="1"/>
+    <col min="3093" max="3093" width="20.875" style="43" customWidth="1"/>
+    <col min="3094" max="3094" width="5.625" style="43" customWidth="1"/>
+    <col min="3095" max="3328" width="9" style="43"/>
+    <col min="3329" max="3331" width="5.625" style="43" customWidth="1"/>
+    <col min="3332" max="3332" width="7.25" style="43" customWidth="1"/>
+    <col min="3333" max="3346" width="5.625" style="43" customWidth="1"/>
+    <col min="3347" max="3347" width="9.375" style="43" customWidth="1"/>
+    <col min="3348" max="3348" width="2.625" style="43" customWidth="1"/>
+    <col min="3349" max="3349" width="20.875" style="43" customWidth="1"/>
+    <col min="3350" max="3350" width="5.625" style="43" customWidth="1"/>
+    <col min="3351" max="3584" width="9" style="43"/>
+    <col min="3585" max="3587" width="5.625" style="43" customWidth="1"/>
+    <col min="3588" max="3588" width="7.25" style="43" customWidth="1"/>
+    <col min="3589" max="3602" width="5.625" style="43" customWidth="1"/>
+    <col min="3603" max="3603" width="9.375" style="43" customWidth="1"/>
+    <col min="3604" max="3604" width="2.625" style="43" customWidth="1"/>
+    <col min="3605" max="3605" width="20.875" style="43" customWidth="1"/>
+    <col min="3606" max="3606" width="5.625" style="43" customWidth="1"/>
+    <col min="3607" max="3840" width="9" style="43"/>
+    <col min="3841" max="3843" width="5.625" style="43" customWidth="1"/>
+    <col min="3844" max="3844" width="7.25" style="43" customWidth="1"/>
+    <col min="3845" max="3858" width="5.625" style="43" customWidth="1"/>
+    <col min="3859" max="3859" width="9.375" style="43" customWidth="1"/>
+    <col min="3860" max="3860" width="2.625" style="43" customWidth="1"/>
+    <col min="3861" max="3861" width="20.875" style="43" customWidth="1"/>
+    <col min="3862" max="3862" width="5.625" style="43" customWidth="1"/>
+    <col min="3863" max="4096" width="9" style="43"/>
+    <col min="4097" max="4099" width="5.625" style="43" customWidth="1"/>
+    <col min="4100" max="4100" width="7.25" style="43" customWidth="1"/>
+    <col min="4101" max="4114" width="5.625" style="43" customWidth="1"/>
+    <col min="4115" max="4115" width="9.375" style="43" customWidth="1"/>
+    <col min="4116" max="4116" width="2.625" style="43" customWidth="1"/>
+    <col min="4117" max="4117" width="20.875" style="43" customWidth="1"/>
+    <col min="4118" max="4118" width="5.625" style="43" customWidth="1"/>
+    <col min="4119" max="4352" width="9" style="43"/>
+    <col min="4353" max="4355" width="5.625" style="43" customWidth="1"/>
+    <col min="4356" max="4356" width="7.25" style="43" customWidth="1"/>
+    <col min="4357" max="4370" width="5.625" style="43" customWidth="1"/>
+    <col min="4371" max="4371" width="9.375" style="43" customWidth="1"/>
+    <col min="4372" max="4372" width="2.625" style="43" customWidth="1"/>
+    <col min="4373" max="4373" width="20.875" style="43" customWidth="1"/>
+    <col min="4374" max="4374" width="5.625" style="43" customWidth="1"/>
+    <col min="4375" max="4608" width="9" style="43"/>
+    <col min="4609" max="4611" width="5.625" style="43" customWidth="1"/>
+    <col min="4612" max="4612" width="7.25" style="43" customWidth="1"/>
+    <col min="4613" max="4626" width="5.625" style="43" customWidth="1"/>
+    <col min="4627" max="4627" width="9.375" style="43" customWidth="1"/>
+    <col min="4628" max="4628" width="2.625" style="43" customWidth="1"/>
+    <col min="4629" max="4629" width="20.875" style="43" customWidth="1"/>
+    <col min="4630" max="4630" width="5.625" style="43" customWidth="1"/>
+    <col min="4631" max="4864" width="9" style="43"/>
+    <col min="4865" max="4867" width="5.625" style="43" customWidth="1"/>
+    <col min="4868" max="4868" width="7.25" style="43" customWidth="1"/>
+    <col min="4869" max="4882" width="5.625" style="43" customWidth="1"/>
+    <col min="4883" max="4883" width="9.375" style="43" customWidth="1"/>
+    <col min="4884" max="4884" width="2.625" style="43" customWidth="1"/>
+    <col min="4885" max="4885" width="20.875" style="43" customWidth="1"/>
+    <col min="4886" max="4886" width="5.625" style="43" customWidth="1"/>
+    <col min="4887" max="5120" width="9" style="43"/>
+    <col min="5121" max="5123" width="5.625" style="43" customWidth="1"/>
+    <col min="5124" max="5124" width="7.25" style="43" customWidth="1"/>
+    <col min="5125" max="5138" width="5.625" style="43" customWidth="1"/>
+    <col min="5139" max="5139" width="9.375" style="43" customWidth="1"/>
+    <col min="5140" max="5140" width="2.625" style="43" customWidth="1"/>
+    <col min="5141" max="5141" width="20.875" style="43" customWidth="1"/>
+    <col min="5142" max="5142" width="5.625" style="43" customWidth="1"/>
+    <col min="5143" max="5376" width="9" style="43"/>
+    <col min="5377" max="5379" width="5.625" style="43" customWidth="1"/>
+    <col min="5380" max="5380" width="7.25" style="43" customWidth="1"/>
+    <col min="5381" max="5394" width="5.625" style="43" customWidth="1"/>
+    <col min="5395" max="5395" width="9.375" style="43" customWidth="1"/>
+    <col min="5396" max="5396" width="2.625" style="43" customWidth="1"/>
+    <col min="5397" max="5397" width="20.875" style="43" customWidth="1"/>
+    <col min="5398" max="5398" width="5.625" style="43" customWidth="1"/>
+    <col min="5399" max="5632" width="9" style="43"/>
+    <col min="5633" max="5635" width="5.625" style="43" customWidth="1"/>
+    <col min="5636" max="5636" width="7.25" style="43" customWidth="1"/>
+    <col min="5637" max="5650" width="5.625" style="43" customWidth="1"/>
+    <col min="5651" max="5651" width="9.375" style="43" customWidth="1"/>
+    <col min="5652" max="5652" width="2.625" style="43" customWidth="1"/>
+    <col min="5653" max="5653" width="20.875" style="43" customWidth="1"/>
+    <col min="5654" max="5654" width="5.625" style="43" customWidth="1"/>
+    <col min="5655" max="5888" width="9" style="43"/>
+    <col min="5889" max="5891" width="5.625" style="43" customWidth="1"/>
+    <col min="5892" max="5892" width="7.25" style="43" customWidth="1"/>
+    <col min="5893" max="5906" width="5.625" style="43" customWidth="1"/>
+    <col min="5907" max="5907" width="9.375" style="43" customWidth="1"/>
+    <col min="5908" max="5908" width="2.625" style="43" customWidth="1"/>
+    <col min="5909" max="5909" width="20.875" style="43" customWidth="1"/>
+    <col min="5910" max="5910" width="5.625" style="43" customWidth="1"/>
+    <col min="5911" max="6144" width="9" style="43"/>
+    <col min="6145" max="6147" width="5.625" style="43" customWidth="1"/>
+    <col min="6148" max="6148" width="7.25" style="43" customWidth="1"/>
+    <col min="6149" max="6162" width="5.625" style="43" customWidth="1"/>
+    <col min="6163" max="6163" width="9.375" style="43" customWidth="1"/>
+    <col min="6164" max="6164" width="2.625" style="43" customWidth="1"/>
+    <col min="6165" max="6165" width="20.875" style="43" customWidth="1"/>
+    <col min="6166" max="6166" width="5.625" style="43" customWidth="1"/>
+    <col min="6167" max="6400" width="9" style="43"/>
+    <col min="6401" max="6403" width="5.625" style="43" customWidth="1"/>
+    <col min="6404" max="6404" width="7.25" style="43" customWidth="1"/>
+    <col min="6405" max="6418" width="5.625" style="43" customWidth="1"/>
+    <col min="6419" max="6419" width="9.375" style="43" customWidth="1"/>
+    <col min="6420" max="6420" width="2.625" style="43" customWidth="1"/>
+    <col min="6421" max="6421" width="20.875" style="43" customWidth="1"/>
+    <col min="6422" max="6422" width="5.625" style="43" customWidth="1"/>
+    <col min="6423" max="6656" width="9" style="43"/>
+    <col min="6657" max="6659" width="5.625" style="43" customWidth="1"/>
+    <col min="6660" max="6660" width="7.25" style="43" customWidth="1"/>
+    <col min="6661" max="6674" width="5.625" style="43" customWidth="1"/>
+    <col min="6675" max="6675" width="9.375" style="43" customWidth="1"/>
+    <col min="6676" max="6676" width="2.625" style="43" customWidth="1"/>
+    <col min="6677" max="6677" width="20.875" style="43" customWidth="1"/>
+    <col min="6678" max="6678" width="5.625" style="43" customWidth="1"/>
+    <col min="6679" max="6912" width="9" style="43"/>
+    <col min="6913" max="6915" width="5.625" style="43" customWidth="1"/>
+    <col min="6916" max="6916" width="7.25" style="43" customWidth="1"/>
+    <col min="6917" max="6930" width="5.625" style="43" customWidth="1"/>
+    <col min="6931" max="6931" width="9.375" style="43" customWidth="1"/>
+    <col min="6932" max="6932" width="2.625" style="43" customWidth="1"/>
+    <col min="6933" max="6933" width="20.875" style="43" customWidth="1"/>
+    <col min="6934" max="6934" width="5.625" style="43" customWidth="1"/>
+    <col min="6935" max="7168" width="9" style="43"/>
+    <col min="7169" max="7171" width="5.625" style="43" customWidth="1"/>
+    <col min="7172" max="7172" width="7.25" style="43" customWidth="1"/>
+    <col min="7173" max="7186" width="5.625" style="43" customWidth="1"/>
+    <col min="7187" max="7187" width="9.375" style="43" customWidth="1"/>
+    <col min="7188" max="7188" width="2.625" style="43" customWidth="1"/>
+    <col min="7189" max="7189" width="20.875" style="43" customWidth="1"/>
+    <col min="7190" max="7190" width="5.625" style="43" customWidth="1"/>
+    <col min="7191" max="7424" width="9" style="43"/>
+    <col min="7425" max="7427" width="5.625" style="43" customWidth="1"/>
+    <col min="7428" max="7428" width="7.25" style="43" customWidth="1"/>
+    <col min="7429" max="7442" width="5.625" style="43" customWidth="1"/>
+    <col min="7443" max="7443" width="9.375" style="43" customWidth="1"/>
+    <col min="7444" max="7444" width="2.625" style="43" customWidth="1"/>
+    <col min="7445" max="7445" width="20.875" style="43" customWidth="1"/>
+    <col min="7446" max="7446" width="5.625" style="43" customWidth="1"/>
+    <col min="7447" max="7680" width="9" style="43"/>
+    <col min="7681" max="7683" width="5.625" style="43" customWidth="1"/>
+    <col min="7684" max="7684" width="7.25" style="43" customWidth="1"/>
+    <col min="7685" max="7698" width="5.625" style="43" customWidth="1"/>
+    <col min="7699" max="7699" width="9.375" style="43" customWidth="1"/>
+    <col min="7700" max="7700" width="2.625" style="43" customWidth="1"/>
+    <col min="7701" max="7701" width="20.875" style="43" customWidth="1"/>
+    <col min="7702" max="7702" width="5.625" style="43" customWidth="1"/>
+    <col min="7703" max="7936" width="9" style="43"/>
+    <col min="7937" max="7939" width="5.625" style="43" customWidth="1"/>
+    <col min="7940" max="7940" width="7.25" style="43" customWidth="1"/>
+    <col min="7941" max="7954" width="5.625" style="43" customWidth="1"/>
+    <col min="7955" max="7955" width="9.375" style="43" customWidth="1"/>
+    <col min="7956" max="7956" width="2.625" style="43" customWidth="1"/>
+    <col min="7957" max="7957" width="20.875" style="43" customWidth="1"/>
+    <col min="7958" max="7958" width="5.625" style="43" customWidth="1"/>
+    <col min="7959" max="8192" width="9" style="43"/>
+    <col min="8193" max="8195" width="5.625" style="43" customWidth="1"/>
+    <col min="8196" max="8196" width="7.25" style="43" customWidth="1"/>
+    <col min="8197" max="8210" width="5.625" style="43" customWidth="1"/>
+    <col min="8211" max="8211" width="9.375" style="43" customWidth="1"/>
+    <col min="8212" max="8212" width="2.625" style="43" customWidth="1"/>
+    <col min="8213" max="8213" width="20.875" style="43" customWidth="1"/>
+    <col min="8214" max="8214" width="5.625" style="43" customWidth="1"/>
+    <col min="8215" max="8448" width="9" style="43"/>
+    <col min="8449" max="8451" width="5.625" style="43" customWidth="1"/>
+    <col min="8452" max="8452" width="7.25" style="43" customWidth="1"/>
+    <col min="8453" max="8466" width="5.625" style="43" customWidth="1"/>
+    <col min="8467" max="8467" width="9.375" style="43" customWidth="1"/>
+    <col min="8468" max="8468" width="2.625" style="43" customWidth="1"/>
+    <col min="8469" max="8469" width="20.875" style="43" customWidth="1"/>
+    <col min="8470" max="8470" width="5.625" style="43" customWidth="1"/>
+    <col min="8471" max="8704" width="9" style="43"/>
+    <col min="8705" max="8707" width="5.625" style="43" customWidth="1"/>
+    <col min="8708" max="8708" width="7.25" style="43" customWidth="1"/>
+    <col min="8709" max="8722" width="5.625" style="43" customWidth="1"/>
+    <col min="8723" max="8723" width="9.375" style="43" customWidth="1"/>
+    <col min="8724" max="8724" width="2.625" style="43" customWidth="1"/>
+    <col min="8725" max="8725" width="20.875" style="43" customWidth="1"/>
+    <col min="8726" max="8726" width="5.625" style="43" customWidth="1"/>
+    <col min="8727" max="8960" width="9" style="43"/>
+    <col min="8961" max="8963" width="5.625" style="43" customWidth="1"/>
+    <col min="8964" max="8964" width="7.25" style="43" customWidth="1"/>
+    <col min="8965" max="8978" width="5.625" style="43" customWidth="1"/>
+    <col min="8979" max="8979" width="9.375" style="43" customWidth="1"/>
+    <col min="8980" max="8980" width="2.625" style="43" customWidth="1"/>
+    <col min="8981" max="8981" width="20.875" style="43" customWidth="1"/>
+    <col min="8982" max="8982" width="5.625" style="43" customWidth="1"/>
+    <col min="8983" max="9216" width="9" style="43"/>
+    <col min="9217" max="9219" width="5.625" style="43" customWidth="1"/>
+    <col min="9220" max="9220" width="7.25" style="43" customWidth="1"/>
+    <col min="9221" max="9234" width="5.625" style="43" customWidth="1"/>
+    <col min="9235" max="9235" width="9.375" style="43" customWidth="1"/>
+    <col min="9236" max="9236" width="2.625" style="43" customWidth="1"/>
+    <col min="9237" max="9237" width="20.875" style="43" customWidth="1"/>
+    <col min="9238" max="9238" width="5.625" style="43" customWidth="1"/>
+    <col min="9239" max="9472" width="9" style="43"/>
+    <col min="9473" max="9475" width="5.625" style="43" customWidth="1"/>
+    <col min="9476" max="9476" width="7.25" style="43" customWidth="1"/>
+    <col min="9477" max="9490" width="5.625" style="43" customWidth="1"/>
+    <col min="9491" max="9491" width="9.375" style="43" customWidth="1"/>
+    <col min="9492" max="9492" width="2.625" style="43" customWidth="1"/>
+    <col min="9493" max="9493" width="20.875" style="43" customWidth="1"/>
+    <col min="9494" max="9494" width="5.625" style="43" customWidth="1"/>
+    <col min="9495" max="9728" width="9" style="43"/>
+    <col min="9729" max="9731" width="5.625" style="43" customWidth="1"/>
+    <col min="9732" max="9732" width="7.25" style="43" customWidth="1"/>
+    <col min="9733" max="9746" width="5.625" style="43" customWidth="1"/>
+    <col min="9747" max="9747" width="9.375" style="43" customWidth="1"/>
+    <col min="9748" max="9748" width="2.625" style="43" customWidth="1"/>
+    <col min="9749" max="9749" width="20.875" style="43" customWidth="1"/>
+    <col min="9750" max="9750" width="5.625" style="43" customWidth="1"/>
+    <col min="9751" max="9984" width="9" style="43"/>
+    <col min="9985" max="9987" width="5.625" style="43" customWidth="1"/>
+    <col min="9988" max="9988" width="7.25" style="43" customWidth="1"/>
+    <col min="9989" max="10002" width="5.625" style="43" customWidth="1"/>
+    <col min="10003" max="10003" width="9.375" style="43" customWidth="1"/>
+    <col min="10004" max="10004" width="2.625" style="43" customWidth="1"/>
+    <col min="10005" max="10005" width="20.875" style="43" customWidth="1"/>
+    <col min="10006" max="10006" width="5.625" style="43" customWidth="1"/>
+    <col min="10007" max="10240" width="9" style="43"/>
+    <col min="10241" max="10243" width="5.625" style="43" customWidth="1"/>
+    <col min="10244" max="10244" width="7.25" style="43" customWidth="1"/>
+    <col min="10245" max="10258" width="5.625" style="43" customWidth="1"/>
+    <col min="10259" max="10259" width="9.375" style="43" customWidth="1"/>
+    <col min="10260" max="10260" width="2.625" style="43" customWidth="1"/>
+    <col min="10261" max="10261" width="20.875" style="43" customWidth="1"/>
+    <col min="10262" max="10262" width="5.625" style="43" customWidth="1"/>
+    <col min="10263" max="10496" width="9" style="43"/>
+    <col min="10497" max="10499" width="5.625" style="43" customWidth="1"/>
+    <col min="10500" max="10500" width="7.25" style="43" customWidth="1"/>
+    <col min="10501" max="10514" width="5.625" style="43" customWidth="1"/>
+    <col min="10515" max="10515" width="9.375" style="43" customWidth="1"/>
+    <col min="10516" max="10516" width="2.625" style="43" customWidth="1"/>
+    <col min="10517" max="10517" width="20.875" style="43" customWidth="1"/>
+    <col min="10518" max="10518" width="5.625" style="43" customWidth="1"/>
+    <col min="10519" max="10752" width="9" style="43"/>
+    <col min="10753" max="10755" width="5.625" style="43" customWidth="1"/>
+    <col min="10756" max="10756" width="7.25" style="43" customWidth="1"/>
+    <col min="10757" max="10770" width="5.625" style="43" customWidth="1"/>
+    <col min="10771" max="10771" width="9.375" style="43" customWidth="1"/>
+    <col min="10772" max="10772" width="2.625" style="43" customWidth="1"/>
+    <col min="10773" max="10773" width="20.875" style="43" customWidth="1"/>
+    <col min="10774" max="10774" width="5.625" style="43" customWidth="1"/>
+    <col min="10775" max="11008" width="9" style="43"/>
+    <col min="11009" max="11011" width="5.625" style="43" customWidth="1"/>
+    <col min="11012" max="11012" width="7.25" style="43" customWidth="1"/>
+    <col min="11013" max="11026" width="5.625" style="43" customWidth="1"/>
+    <col min="11027" max="11027" width="9.375" style="43" customWidth="1"/>
+    <col min="11028" max="11028" width="2.625" style="43" customWidth="1"/>
+    <col min="11029" max="11029" width="20.875" style="43" customWidth="1"/>
+    <col min="11030" max="11030" width="5.625" style="43" customWidth="1"/>
+    <col min="11031" max="11264" width="9" style="43"/>
+    <col min="11265" max="11267" width="5.625" style="43" customWidth="1"/>
+    <col min="11268" max="11268" width="7.25" style="43" customWidth="1"/>
+    <col min="11269" max="11282" width="5.625" style="43" customWidth="1"/>
+    <col min="11283" max="11283" width="9.375" style="43" customWidth="1"/>
+    <col min="11284" max="11284" width="2.625" style="43" customWidth="1"/>
+    <col min="11285" max="11285" width="20.875" style="43" customWidth="1"/>
+    <col min="11286" max="11286" width="5.625" style="43" customWidth="1"/>
+    <col min="11287" max="11520" width="9" style="43"/>
+    <col min="11521" max="11523" width="5.625" style="43" customWidth="1"/>
+    <col min="11524" max="11524" width="7.25" style="43" customWidth="1"/>
+    <col min="11525" max="11538" width="5.625" style="43" customWidth="1"/>
+    <col min="11539" max="11539" width="9.375" style="43" customWidth="1"/>
+    <col min="11540" max="11540" width="2.625" style="43" customWidth="1"/>
+    <col min="11541" max="11541" width="20.875" style="43" customWidth="1"/>
+    <col min="11542" max="11542" width="5.625" style="43" customWidth="1"/>
+    <col min="11543" max="11776" width="9" style="43"/>
+    <col min="11777" max="11779" width="5.625" style="43" customWidth="1"/>
+    <col min="11780" max="11780" width="7.25" style="43" customWidth="1"/>
+    <col min="11781" max="11794" width="5.625" style="43" customWidth="1"/>
+    <col min="11795" max="11795" width="9.375" style="43" customWidth="1"/>
+    <col min="11796" max="11796" width="2.625" style="43" customWidth="1"/>
+    <col min="11797" max="11797" width="20.875" style="43" customWidth="1"/>
+    <col min="11798" max="11798" width="5.625" style="43" customWidth="1"/>
+    <col min="11799" max="12032" width="9" style="43"/>
+    <col min="12033" max="12035" width="5.625" style="43" customWidth="1"/>
+    <col min="12036" max="12036" width="7.25" style="43" customWidth="1"/>
+    <col min="12037" max="12050" width="5.625" style="43" customWidth="1"/>
+    <col min="12051" max="12051" width="9.375" style="43" customWidth="1"/>
+    <col min="12052" max="12052" width="2.625" style="43" customWidth="1"/>
+    <col min="12053" max="12053" width="20.875" style="43" customWidth="1"/>
+    <col min="12054" max="12054" width="5.625" style="43" customWidth="1"/>
+    <col min="12055" max="12288" width="9" style="43"/>
+    <col min="12289" max="12291" width="5.625" style="43" customWidth="1"/>
+    <col min="12292" max="12292" width="7.25" style="43" customWidth="1"/>
+    <col min="12293" max="12306" width="5.625" style="43" customWidth="1"/>
+    <col min="12307" max="12307" width="9.375" style="43" customWidth="1"/>
+    <col min="12308" max="12308" width="2.625" style="43" customWidth="1"/>
+    <col min="12309" max="12309" width="20.875" style="43" customWidth="1"/>
+    <col min="12310" max="12310" width="5.625" style="43" customWidth="1"/>
+    <col min="12311" max="12544" width="9" style="43"/>
+    <col min="12545" max="12547" width="5.625" style="43" customWidth="1"/>
+    <col min="12548" max="12548" width="7.25" style="43" customWidth="1"/>
+    <col min="12549" max="12562" width="5.625" style="43" customWidth="1"/>
+    <col min="12563" max="12563" width="9.375" style="43" customWidth="1"/>
+    <col min="12564" max="12564" width="2.625" style="43" customWidth="1"/>
+    <col min="12565" max="12565" width="20.875" style="43" customWidth="1"/>
+    <col min="12566" max="12566" width="5.625" style="43" customWidth="1"/>
+    <col min="12567" max="12800" width="9" style="43"/>
+    <col min="12801" max="12803" width="5.625" style="43" customWidth="1"/>
+    <col min="12804" max="12804" width="7.25" style="43" customWidth="1"/>
+    <col min="12805" max="12818" width="5.625" style="43" customWidth="1"/>
+    <col min="12819" max="12819" width="9.375" style="43" customWidth="1"/>
+    <col min="12820" max="12820" width="2.625" style="43" customWidth="1"/>
+    <col min="12821" max="12821" width="20.875" style="43" customWidth="1"/>
+    <col min="12822" max="12822" width="5.625" style="43" customWidth="1"/>
+    <col min="12823" max="13056" width="9" style="43"/>
+    <col min="13057" max="13059" width="5.625" style="43" customWidth="1"/>
+    <col min="13060" max="13060" width="7.25" style="43" customWidth="1"/>
+    <col min="13061" max="13074" width="5.625" style="43" customWidth="1"/>
+    <col min="13075" max="13075" width="9.375" style="43" customWidth="1"/>
+    <col min="13076" max="13076" width="2.625" style="43" customWidth="1"/>
+    <col min="13077" max="13077" width="20.875" style="43" customWidth="1"/>
+    <col min="13078" max="13078" width="5.625" style="43" customWidth="1"/>
+    <col min="13079" max="13312" width="9" style="43"/>
+    <col min="13313" max="13315" width="5.625" style="43" customWidth="1"/>
+    <col min="13316" max="13316" width="7.25" style="43" customWidth="1"/>
+    <col min="13317" max="13330" width="5.625" style="43" customWidth="1"/>
+    <col min="13331" max="13331" width="9.375" style="43" customWidth="1"/>
+    <col min="13332" max="13332" width="2.625" style="43" customWidth="1"/>
+    <col min="13333" max="13333" width="20.875" style="43" customWidth="1"/>
+    <col min="13334" max="13334" width="5.625" style="43" customWidth="1"/>
+    <col min="13335" max="13568" width="9" style="43"/>
+    <col min="13569" max="13571" width="5.625" style="43" customWidth="1"/>
+    <col min="13572" max="13572" width="7.25" style="43" customWidth="1"/>
+    <col min="13573" max="13586" width="5.625" style="43" customWidth="1"/>
+    <col min="13587" max="13587" width="9.375" style="43" customWidth="1"/>
+    <col min="13588" max="13588" width="2.625" style="43" customWidth="1"/>
+    <col min="13589" max="13589" width="20.875" style="43" customWidth="1"/>
+    <col min="13590" max="13590" width="5.625" style="43" customWidth="1"/>
+    <col min="13591" max="13824" width="9" style="43"/>
+    <col min="13825" max="13827" width="5.625" style="43" customWidth="1"/>
+    <col min="13828" max="13828" width="7.25" style="43" customWidth="1"/>
+    <col min="13829" max="13842" width="5.625" style="43" customWidth="1"/>
+    <col min="13843" max="13843" width="9.375" style="43" customWidth="1"/>
+    <col min="13844" max="13844" width="2.625" style="43" customWidth="1"/>
+    <col min="13845" max="13845" width="20.875" style="43" customWidth="1"/>
+    <col min="13846" max="13846" width="5.625" style="43" customWidth="1"/>
+    <col min="13847" max="14080" width="9" style="43"/>
+    <col min="14081" max="14083" width="5.625" style="43" customWidth="1"/>
+    <col min="14084" max="14084" width="7.25" style="43" customWidth="1"/>
+    <col min="14085" max="14098" width="5.625" style="43" customWidth="1"/>
+    <col min="14099" max="14099" width="9.375" style="43" customWidth="1"/>
+    <col min="14100" max="14100" width="2.625" style="43" customWidth="1"/>
+    <col min="14101" max="14101" width="20.875" style="43" customWidth="1"/>
+    <col min="14102" max="14102" width="5.625" style="43" customWidth="1"/>
+    <col min="14103" max="14336" width="9" style="43"/>
+    <col min="14337" max="14339" width="5.625" style="43" customWidth="1"/>
+    <col min="14340" max="14340" width="7.25" style="43" customWidth="1"/>
+    <col min="14341" max="14354" width="5.625" style="43" customWidth="1"/>
+    <col min="14355" max="14355" width="9.375" style="43" customWidth="1"/>
+    <col min="14356" max="14356" width="2.625" style="43" customWidth="1"/>
+    <col min="14357" max="14357" width="20.875" style="43" customWidth="1"/>
+    <col min="14358" max="14358" width="5.625" style="43" customWidth="1"/>
+    <col min="14359" max="14592" width="9" style="43"/>
+    <col min="14593" max="14595" width="5.625" style="43" customWidth="1"/>
+    <col min="14596" max="14596" width="7.25" style="43" customWidth="1"/>
+    <col min="14597" max="14610" width="5.625" style="43" customWidth="1"/>
+    <col min="14611" max="14611" width="9.375" style="43" customWidth="1"/>
+    <col min="14612" max="14612" width="2.625" style="43" customWidth="1"/>
+    <col min="14613" max="14613" width="20.875" style="43" customWidth="1"/>
+    <col min="14614" max="14614" width="5.625" style="43" customWidth="1"/>
+    <col min="14615" max="14848" width="9" style="43"/>
+    <col min="14849" max="14851" width="5.625" style="43" customWidth="1"/>
+    <col min="14852" max="14852" width="7.25" style="43" customWidth="1"/>
+    <col min="14853" max="14866" width="5.625" style="43" customWidth="1"/>
+    <col min="14867" max="14867" width="9.375" style="43" customWidth="1"/>
+    <col min="14868" max="14868" width="2.625" style="43" customWidth="1"/>
+    <col min="14869" max="14869" width="20.875" style="43" customWidth="1"/>
+    <col min="14870" max="14870" width="5.625" style="43" customWidth="1"/>
+    <col min="14871" max="15104" width="9" style="43"/>
+    <col min="15105" max="15107" width="5.625" style="43" customWidth="1"/>
+    <col min="15108" max="15108" width="7.25" style="43" customWidth="1"/>
+    <col min="15109" max="15122" width="5.625" style="43" customWidth="1"/>
+    <col min="15123" max="15123" width="9.375" style="43" customWidth="1"/>
+    <col min="15124" max="15124" width="2.625" style="43" customWidth="1"/>
+    <col min="15125" max="15125" width="20.875" style="43" customWidth="1"/>
+    <col min="15126" max="15126" width="5.625" style="43" customWidth="1"/>
+    <col min="15127" max="15360" width="9" style="43"/>
+    <col min="15361" max="15363" width="5.625" style="43" customWidth="1"/>
+    <col min="15364" max="15364" width="7.25" style="43" customWidth="1"/>
+    <col min="15365" max="15378" width="5.625" style="43" customWidth="1"/>
+    <col min="15379" max="15379" width="9.375" style="43" customWidth="1"/>
+    <col min="15380" max="15380" width="2.625" style="43" customWidth="1"/>
+    <col min="15381" max="15381" width="20.875" style="43" customWidth="1"/>
+    <col min="15382" max="15382" width="5.625" style="43" customWidth="1"/>
+    <col min="15383" max="15616" width="9" style="43"/>
+    <col min="15617" max="15619" width="5.625" style="43" customWidth="1"/>
+    <col min="15620" max="15620" width="7.25" style="43" customWidth="1"/>
+    <col min="15621" max="15634" width="5.625" style="43" customWidth="1"/>
+    <col min="15635" max="15635" width="9.375" style="43" customWidth="1"/>
+    <col min="15636" max="15636" width="2.625" style="43" customWidth="1"/>
+    <col min="15637" max="15637" width="20.875" style="43" customWidth="1"/>
+    <col min="15638" max="15638" width="5.625" style="43" customWidth="1"/>
+    <col min="15639" max="15872" width="9" style="43"/>
+    <col min="15873" max="15875" width="5.625" style="43" customWidth="1"/>
+    <col min="15876" max="15876" width="7.25" style="43" customWidth="1"/>
+    <col min="15877" max="15890" width="5.625" style="43" customWidth="1"/>
+    <col min="15891" max="15891" width="9.375" style="43" customWidth="1"/>
+    <col min="15892" max="15892" width="2.625" style="43" customWidth="1"/>
+    <col min="15893" max="15893" width="20.875" style="43" customWidth="1"/>
+    <col min="15894" max="15894" width="5.625" style="43" customWidth="1"/>
+    <col min="15895" max="16128" width="9" style="43"/>
+    <col min="16129" max="16131" width="5.625" style="43" customWidth="1"/>
+    <col min="16132" max="16132" width="7.25" style="43" customWidth="1"/>
+    <col min="16133" max="16146" width="5.625" style="43" customWidth="1"/>
+    <col min="16147" max="16147" width="9.375" style="43" customWidth="1"/>
+    <col min="16148" max="16148" width="2.625" style="43" customWidth="1"/>
+    <col min="16149" max="16149" width="20.875" style="43" customWidth="1"/>
+    <col min="16150" max="16150" width="5.625" style="43" customWidth="1"/>
+    <col min="16151" max="16384" width="9" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="23.1" customHeight="1">
-      <c r="C1" s="162" t="s">
+      <c r="C1" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="162"/>
-      <c r="O1" s="162"/>
-      <c r="P1" s="162"/>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="162"/>
-      <c r="S1" s="162"/>
-      <c r="T1" s="162"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="118"/>
     </row>
     <row r="2" spans="1:20" ht="23.1" customHeight="1">
-      <c r="P2" s="165" t="s">
+      <c r="P2" s="121" t="s">
         <v>122</v>
       </c>
-      <c r="Q2" s="165"/>
-      <c r="R2" s="165" t="str">
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121" t="str">
         <f>記入!B12</f>
         <v>${qu.contractnumber}</v>
       </c>
-      <c r="S2" s="165"/>
+      <c r="S2" s="121"/>
     </row>
     <row r="3" spans="1:20" ht="23.1" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="46" t="str">
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45" t="str">
         <f>記入!B2</f>
         <v>${qu.trusteejapanese}</v>
       </c>
-      <c r="R3" s="168">
-        <f ca="1">記入!B34</f>
-        <v>43895</v>
-      </c>
-      <c r="S3" s="168"/>
+      <c r="R3" s="124">
+        <f ca="1">記入!B37</f>
+        <v>43908</v>
+      </c>
+      <c r="S3" s="124"/>
     </row>
     <row r="4" spans="1:20" ht="23.1" customHeight="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="46" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="45" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="23.1" customHeight="1">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="47" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="49" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="49" t="str">
-        <f>"(件名番号："&amp;記入!D33&amp;")"</f>
+    <row r="6" spans="1:20" s="48" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="48" t="str">
+        <f>"(件名番号："&amp;記入!D36&amp;")"</f>
         <v>(件名番号：${qu.requestnumber})</v>
       </c>
-      <c r="K6" s="163" t="s">
+      <c r="K6" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="163"/>
-      <c r="M6" s="163"/>
-      <c r="N6" s="163"/>
-      <c r="O6" s="163"/>
-      <c r="P6" s="163"/>
-      <c r="Q6" s="163"/>
-      <c r="R6" s="163"/>
-      <c r="S6" s="163"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
     </row>
     <row r="7" spans="1:20" ht="23.1" customHeight="1">
-      <c r="K7" s="163"/>
-      <c r="L7" s="163"/>
-      <c r="M7" s="163"/>
-      <c r="N7" s="163"/>
-      <c r="O7" s="163"/>
-      <c r="P7" s="163"/>
-      <c r="Q7" s="163"/>
-      <c r="R7" s="163"/>
-      <c r="S7" s="163"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="119"/>
     </row>
     <row r="8" spans="1:20" ht="23.1" customHeight="1">
-      <c r="A8" s="50"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="44" t="s">
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="163"/>
-      <c r="L8" s="163"/>
-      <c r="M8" s="163"/>
-      <c r="N8" s="163"/>
-      <c r="O8" s="163"/>
-      <c r="P8" s="163"/>
-      <c r="Q8" s="163"/>
-      <c r="R8" s="163"/>
-      <c r="S8" s="163"/>
+      <c r="K8" s="119"/>
+      <c r="L8" s="119"/>
+      <c r="M8" s="119"/>
+      <c r="N8" s="119"/>
+      <c r="O8" s="119"/>
+      <c r="P8" s="119"/>
+      <c r="Q8" s="119"/>
+      <c r="R8" s="119"/>
+      <c r="S8" s="119"/>
     </row>
     <row r="9" spans="1:20" ht="23.1" customHeight="1">
-      <c r="C9" s="164" t="str">
+      <c r="C9" s="120" t="str">
         <f>記入!B10</f>
         <v>${qu.pjjapanese}</v>
       </c>
-      <c r="D9" s="164"/>
-      <c r="E9" s="164"/>
-      <c r="F9" s="164"/>
-      <c r="G9" s="164"/>
-      <c r="H9" s="164"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="164"/>
-      <c r="K9" s="164"/>
-      <c r="L9" s="164"/>
-      <c r="M9" s="164"/>
-      <c r="N9" s="164"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="120"/>
     </row>
     <row r="10" spans="1:20" ht="23.1" customHeight="1">
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
     </row>
     <row r="11" spans="1:20" ht="23.1" customHeight="1">
-      <c r="A11" s="52"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="47" t="s">
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="160" t="str">
+      <c r="E11" s="116" t="str">
         <f>記入!B19</f>
         <v>${qu.currencyposition}</v>
       </c>
-      <c r="F11" s="160"/>
-      <c r="G11" s="169">
+      <c r="F11" s="116"/>
+      <c r="G11" s="125">
         <f>M26</f>
         <v>0</v>
       </c>
-      <c r="H11" s="169"/>
-      <c r="I11" s="169"/>
-      <c r="J11" s="169"/>
-      <c r="R11" s="53" t="s">
+      <c r="H11" s="125"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="125"/>
+      <c r="R11" s="52" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="23.1" customHeight="1">
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="44" t="str">
-        <f>記入!F34</f>
+      <c r="F12" s="43" t="str">
+        <f>記入!F37</f>
         <v>■一括</v>
       </c>
-      <c r="H12" s="44" t="str">
-        <f>記入!G34</f>
+      <c r="H12" s="43" t="str">
+        <f>記入!G37</f>
         <v>□実績精算</v>
       </c>
-      <c r="N12" s="44" t="s">
+      <c r="N12" s="43" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="23.1" customHeight="1">
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="44" t="str">
-        <f>記入!F35</f>
+      <c r="F13" s="43" t="str">
+        <f>記入!F38</f>
         <v>□請負</v>
       </c>
-      <c r="H13" s="44" t="str">
-        <f>記入!G35</f>
+      <c r="H13" s="43" t="str">
+        <f>記入!G38</f>
         <v>■委任</v>
       </c>
-      <c r="J13" s="44" t="str">
-        <f>記入!H35</f>
+      <c r="J13" s="43" t="str">
+        <f>記入!H38</f>
         <v>□保守</v>
       </c>
-      <c r="N13" s="44" t="s">
+      <c r="N13" s="43" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="24.75" customHeight="1">
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="166" t="str">
-        <f>記入!F36</f>
+      <c r="F14" s="122" t="str">
+        <f>記入!F39</f>
         <v>□あり(12ヵ月）</v>
       </c>
-      <c r="G14" s="166"/>
-      <c r="H14" s="166"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="44" t="str">
-        <f>記入!H36</f>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="43" t="str">
+        <f>記入!H39</f>
         <v>■なし</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="23.1" customHeight="1">
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="167" t="str">
+      <c r="F15" s="123" t="str">
         <f>記入!B14</f>
         <v>${qu.startdate}</v>
       </c>
-      <c r="G15" s="167"/>
-      <c r="H15" s="167"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
     </row>
     <row r="16" spans="1:20" ht="23.1" customHeight="1">
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="167" t="str">
+      <c r="F16" s="123" t="str">
         <f>記入!B15</f>
         <v>${qu.enddate}</v>
       </c>
-      <c r="G16" s="167"/>
-      <c r="H16" s="167"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="123"/>
     </row>
     <row r="17" spans="1:21" ht="23.1" customHeight="1">
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="55" t="s">
+      <c r="F17" s="54" t="s">
         <v>61</v>
       </c>
       <c r="M17" s="26"/>
@@ -4888,10 +4963,10 @@
       <c r="R17" s="26"/>
     </row>
     <row r="18" spans="1:21" ht="23.1" customHeight="1">
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="55" t="s">
+      <c r="F18" s="54" t="s">
         <v>63</v>
       </c>
       <c r="M18" s="26"/>
@@ -4900,78 +4975,78 @@
       <c r="R18" s="26"/>
     </row>
     <row r="19" spans="1:21" ht="23.1" customHeight="1" thickBot="1">
-      <c r="C19" s="161" t="s">
+      <c r="C19" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="161"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161" t="s">
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="161"/>
-      <c r="H19" s="161"/>
-      <c r="I19" s="161"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="117"/>
     </row>
     <row r="20" spans="1:21" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="148" t="s">
+      <c r="C20" s="126" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="148"/>
-      <c r="E20" s="148"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="148"/>
-      <c r="K20" s="148"/>
-      <c r="L20" s="149"/>
-      <c r="M20" s="150" t="str">
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="126"/>
+      <c r="I20" s="126"/>
+      <c r="J20" s="126"/>
+      <c r="K20" s="126"/>
+      <c r="L20" s="127"/>
+      <c r="M20" s="128" t="str">
         <f>"金額"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>金額(${qu.currencyposition})</v>
       </c>
-      <c r="N20" s="150"/>
-      <c r="O20" s="150"/>
-      <c r="P20" s="150" t="s">
+      <c r="N20" s="128"/>
+      <c r="O20" s="128"/>
+      <c r="P20" s="128" t="s">
         <v>68</v>
       </c>
-      <c r="Q20" s="150"/>
-      <c r="R20" s="150"/>
-      <c r="S20" s="151"/>
+      <c r="Q20" s="128"/>
+      <c r="R20" s="128"/>
+      <c r="S20" s="129"/>
     </row>
     <row r="21" spans="1:21" ht="33" customHeight="1">
-      <c r="B21" s="57">
+      <c r="B21" s="56">
         <v>1</v>
       </c>
-      <c r="C21" s="152" t="str">
+      <c r="C21" s="130" t="str">
         <f>記入!B10</f>
         <v>${qu.pjjapanese}</v>
       </c>
-      <c r="D21" s="153"/>
-      <c r="E21" s="153"/>
-      <c r="F21" s="153"/>
-      <c r="G21" s="153"/>
-      <c r="H21" s="153"/>
-      <c r="I21" s="153"/>
-      <c r="J21" s="153"/>
-      <c r="K21" s="153"/>
-      <c r="L21" s="154"/>
-      <c r="M21" s="155" t="str">
+      <c r="D21" s="131"/>
+      <c r="E21" s="131"/>
+      <c r="F21" s="131"/>
+      <c r="G21" s="131"/>
+      <c r="H21" s="131"/>
+      <c r="I21" s="131"/>
+      <c r="J21" s="131"/>
+      <c r="K21" s="131"/>
+      <c r="L21" s="132"/>
+      <c r="M21" s="133" t="str">
         <f>記入!B20</f>
         <v>${qu.claimamount}</v>
       </c>
-      <c r="N21" s="156"/>
-      <c r="O21" s="157"/>
-      <c r="P21" s="158"/>
-      <c r="Q21" s="158"/>
-      <c r="R21" s="158"/>
-      <c r="S21" s="159"/>
-      <c r="U21" s="58"/>
+      <c r="N21" s="134"/>
+      <c r="O21" s="135"/>
+      <c r="P21" s="136"/>
+      <c r="Q21" s="136"/>
+      <c r="R21" s="136"/>
+      <c r="S21" s="137"/>
+      <c r="U21" s="57"/>
     </row>
     <row r="22" spans="1:21" ht="23.1" customHeight="1">
-      <c r="B22" s="59">
+      <c r="B22" s="58">
         <v>2</v>
       </c>
       <c r="C22" s="138" t="s">
@@ -4995,10 +5070,10 @@
       <c r="Q22" s="142"/>
       <c r="R22" s="142"/>
       <c r="S22" s="143"/>
-      <c r="U22" s="60"/>
+      <c r="U22" s="59"/>
     </row>
     <row r="23" spans="1:21" ht="23.1" customHeight="1">
-      <c r="B23" s="59">
+      <c r="B23" s="58">
         <v>3</v>
       </c>
       <c r="C23" s="138" t="s">
@@ -5024,7 +5099,7 @@
       <c r="S23" s="143"/>
     </row>
     <row r="24" spans="1:21" ht="23.1" customHeight="1">
-      <c r="B24" s="59">
+      <c r="B24" s="58">
         <v>4</v>
       </c>
       <c r="C24" s="138"/>
@@ -5048,7 +5123,7 @@
       <c r="S24" s="143"/>
     </row>
     <row r="25" spans="1:21" ht="23.1" customHeight="1">
-      <c r="B25" s="61">
+      <c r="B25" s="60">
         <v>5</v>
       </c>
       <c r="C25" s="144"/>
@@ -5072,115 +5147,115 @@
       <c r="S25" s="143"/>
     </row>
     <row r="26" spans="1:21" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B26" s="124" t="s">
+      <c r="B26" s="151" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="125"/>
-      <c r="D26" s="125"/>
-      <c r="E26" s="125"/>
-      <c r="F26" s="125"/>
-      <c r="G26" s="125"/>
-      <c r="H26" s="125"/>
-      <c r="I26" s="125"/>
-      <c r="J26" s="125"/>
-      <c r="K26" s="125"/>
-      <c r="L26" s="126"/>
-      <c r="M26" s="127">
+      <c r="C26" s="152"/>
+      <c r="D26" s="152"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="152"/>
+      <c r="G26" s="152"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="152"/>
+      <c r="J26" s="152"/>
+      <c r="K26" s="152"/>
+      <c r="L26" s="153"/>
+      <c r="M26" s="154">
         <f>SUM(M21:O25)</f>
         <v>0</v>
       </c>
-      <c r="N26" s="128"/>
-      <c r="O26" s="129"/>
-      <c r="P26" s="130"/>
-      <c r="Q26" s="130"/>
-      <c r="R26" s="130"/>
-      <c r="S26" s="131"/>
+      <c r="N26" s="155"/>
+      <c r="O26" s="156"/>
+      <c r="P26" s="157"/>
+      <c r="Q26" s="157"/>
+      <c r="R26" s="157"/>
+      <c r="S26" s="158"/>
     </row>
     <row r="27" spans="1:21" ht="23.1" customHeight="1">
-      <c r="C27" s="132" t="s">
+      <c r="C27" s="159" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="133"/>
-      <c r="E27" s="133"/>
-      <c r="F27" s="133"/>
-      <c r="G27" s="133"/>
-      <c r="H27" s="133"/>
-      <c r="I27" s="133"/>
-      <c r="J27" s="133"/>
-      <c r="K27" s="133"/>
-      <c r="L27" s="133"/>
-      <c r="M27" s="133"/>
-      <c r="N27" s="133"/>
-      <c r="O27" s="133"/>
-      <c r="P27" s="133"/>
-      <c r="Q27" s="133"/>
-      <c r="R27" s="133"/>
-      <c r="S27" s="134"/>
+      <c r="D27" s="160"/>
+      <c r="E27" s="160"/>
+      <c r="F27" s="160"/>
+      <c r="G27" s="160"/>
+      <c r="H27" s="160"/>
+      <c r="I27" s="160"/>
+      <c r="J27" s="160"/>
+      <c r="K27" s="160"/>
+      <c r="L27" s="160"/>
+      <c r="M27" s="160"/>
+      <c r="N27" s="160"/>
+      <c r="O27" s="160"/>
+      <c r="P27" s="160"/>
+      <c r="Q27" s="160"/>
+      <c r="R27" s="160"/>
+      <c r="S27" s="161"/>
     </row>
     <row r="28" spans="1:21" ht="18" customHeight="1">
-      <c r="A28" s="62"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="135" t="s">
+      <c r="A28" s="61"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="162" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="136"/>
-      <c r="E28" s="136"/>
-      <c r="F28" s="136"/>
-      <c r="G28" s="136"/>
-      <c r="H28" s="136"/>
-      <c r="I28" s="136"/>
-      <c r="J28" s="136"/>
-      <c r="K28" s="136"/>
-      <c r="L28" s="136"/>
-      <c r="M28" s="136"/>
-      <c r="N28" s="136"/>
-      <c r="O28" s="136"/>
-      <c r="P28" s="136"/>
-      <c r="Q28" s="136"/>
-      <c r="R28" s="136"/>
-      <c r="S28" s="137"/>
+      <c r="D28" s="163"/>
+      <c r="E28" s="163"/>
+      <c r="F28" s="163"/>
+      <c r="G28" s="163"/>
+      <c r="H28" s="163"/>
+      <c r="I28" s="163"/>
+      <c r="J28" s="163"/>
+      <c r="K28" s="163"/>
+      <c r="L28" s="163"/>
+      <c r="M28" s="163"/>
+      <c r="N28" s="163"/>
+      <c r="O28" s="163"/>
+      <c r="P28" s="163"/>
+      <c r="Q28" s="163"/>
+      <c r="R28" s="163"/>
+      <c r="S28" s="164"/>
     </row>
     <row r="29" spans="1:21" ht="18" customHeight="1">
-      <c r="A29" s="62"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="132"/>
-      <c r="D29" s="133"/>
-      <c r="E29" s="133"/>
-      <c r="F29" s="133"/>
-      <c r="G29" s="133"/>
-      <c r="H29" s="133"/>
-      <c r="I29" s="133"/>
-      <c r="J29" s="133"/>
-      <c r="K29" s="133"/>
-      <c r="L29" s="133"/>
-      <c r="M29" s="133"/>
-      <c r="N29" s="133"/>
-      <c r="O29" s="133"/>
-      <c r="P29" s="133"/>
-      <c r="Q29" s="133"/>
-      <c r="R29" s="133"/>
-      <c r="S29" s="134"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="159"/>
+      <c r="D29" s="160"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="160"/>
+      <c r="G29" s="160"/>
+      <c r="H29" s="160"/>
+      <c r="I29" s="160"/>
+      <c r="J29" s="160"/>
+      <c r="K29" s="160"/>
+      <c r="L29" s="160"/>
+      <c r="M29" s="160"/>
+      <c r="N29" s="160"/>
+      <c r="O29" s="160"/>
+      <c r="P29" s="160"/>
+      <c r="Q29" s="160"/>
+      <c r="R29" s="160"/>
+      <c r="S29" s="161"/>
     </row>
     <row r="30" spans="1:21" ht="18" customHeight="1">
-      <c r="A30" s="62"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="121"/>
-      <c r="D30" s="122"/>
-      <c r="E30" s="122"/>
-      <c r="F30" s="122"/>
-      <c r="G30" s="122"/>
-      <c r="H30" s="122"/>
-      <c r="I30" s="122"/>
-      <c r="J30" s="122"/>
-      <c r="K30" s="122"/>
-      <c r="L30" s="122"/>
-      <c r="M30" s="122"/>
-      <c r="N30" s="122"/>
-      <c r="O30" s="122"/>
-      <c r="P30" s="122"/>
-      <c r="Q30" s="122"/>
-      <c r="R30" s="122"/>
-      <c r="S30" s="123"/>
+      <c r="A30" s="61"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="148"/>
+      <c r="D30" s="149"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
+      <c r="N30" s="149"/>
+      <c r="O30" s="149"/>
+      <c r="P30" s="149"/>
+      <c r="Q30" s="149"/>
+      <c r="R30" s="149"/>
+      <c r="S30" s="150"/>
     </row>
     <row r="31" spans="1:21" ht="21.95" customHeight="1"/>
     <row r="32" spans="1:21" ht="21.95" customHeight="1"/>
@@ -5196,6 +5271,31 @@
     <row r="42" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="C30:S30"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="C27:S27"/>
+    <mergeCell ref="C28:S28"/>
+    <mergeCell ref="C29:S29"/>
+    <mergeCell ref="C24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="C25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="P25:S25"/>
+    <mergeCell ref="C22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="C23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="C21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:S21"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="F19:I19"/>
@@ -5209,31 +5309,6 @@
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="G11:J11"/>
-    <mergeCell ref="C20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="C21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="C22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="C23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="C24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="C25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="P25:S25"/>
-    <mergeCell ref="C30:S30"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="C27:S27"/>
-    <mergeCell ref="C28:S28"/>
-    <mergeCell ref="C29:S29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -5259,892 +5334,892 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="44" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="44" customWidth="1"/>
-    <col min="3" max="4" width="6" style="44" customWidth="1"/>
-    <col min="5" max="6" width="8.5" style="44" customWidth="1"/>
-    <col min="7" max="7" width="7.375" style="44" customWidth="1"/>
-    <col min="8" max="9" width="7.75" style="44" customWidth="1"/>
-    <col min="10" max="11" width="7.625" style="44" customWidth="1"/>
-    <col min="12" max="12" width="5.625" style="44" customWidth="1"/>
-    <col min="13" max="13" width="9.625" style="44" customWidth="1"/>
-    <col min="14" max="17" width="5.125" style="44" customWidth="1"/>
-    <col min="18" max="18" width="2.625" style="44" customWidth="1"/>
-    <col min="19" max="19" width="3" style="44" customWidth="1"/>
-    <col min="20" max="256" width="9" style="44"/>
-    <col min="257" max="257" width="3.5" style="44" customWidth="1"/>
-    <col min="258" max="258" width="5.625" style="44" customWidth="1"/>
-    <col min="259" max="260" width="6" style="44" customWidth="1"/>
-    <col min="261" max="262" width="8.5" style="44" customWidth="1"/>
-    <col min="263" max="263" width="7.375" style="44" customWidth="1"/>
-    <col min="264" max="265" width="7.75" style="44" customWidth="1"/>
-    <col min="266" max="267" width="7.625" style="44" customWidth="1"/>
-    <col min="268" max="268" width="5.625" style="44" customWidth="1"/>
-    <col min="269" max="269" width="9.625" style="44" customWidth="1"/>
-    <col min="270" max="273" width="5.125" style="44" customWidth="1"/>
-    <col min="274" max="274" width="2.625" style="44" customWidth="1"/>
-    <col min="275" max="512" width="9" style="44"/>
-    <col min="513" max="513" width="3.5" style="44" customWidth="1"/>
-    <col min="514" max="514" width="5.625" style="44" customWidth="1"/>
-    <col min="515" max="516" width="6" style="44" customWidth="1"/>
-    <col min="517" max="518" width="8.5" style="44" customWidth="1"/>
-    <col min="519" max="519" width="7.375" style="44" customWidth="1"/>
-    <col min="520" max="521" width="7.75" style="44" customWidth="1"/>
-    <col min="522" max="523" width="7.625" style="44" customWidth="1"/>
-    <col min="524" max="524" width="5.625" style="44" customWidth="1"/>
-    <col min="525" max="525" width="9.625" style="44" customWidth="1"/>
-    <col min="526" max="529" width="5.125" style="44" customWidth="1"/>
-    <col min="530" max="530" width="2.625" style="44" customWidth="1"/>
-    <col min="531" max="768" width="9" style="44"/>
-    <col min="769" max="769" width="3.5" style="44" customWidth="1"/>
-    <col min="770" max="770" width="5.625" style="44" customWidth="1"/>
-    <col min="771" max="772" width="6" style="44" customWidth="1"/>
-    <col min="773" max="774" width="8.5" style="44" customWidth="1"/>
-    <col min="775" max="775" width="7.375" style="44" customWidth="1"/>
-    <col min="776" max="777" width="7.75" style="44" customWidth="1"/>
-    <col min="778" max="779" width="7.625" style="44" customWidth="1"/>
-    <col min="780" max="780" width="5.625" style="44" customWidth="1"/>
-    <col min="781" max="781" width="9.625" style="44" customWidth="1"/>
-    <col min="782" max="785" width="5.125" style="44" customWidth="1"/>
-    <col min="786" max="786" width="2.625" style="44" customWidth="1"/>
-    <col min="787" max="1024" width="9" style="44"/>
-    <col min="1025" max="1025" width="3.5" style="44" customWidth="1"/>
-    <col min="1026" max="1026" width="5.625" style="44" customWidth="1"/>
-    <col min="1027" max="1028" width="6" style="44" customWidth="1"/>
-    <col min="1029" max="1030" width="8.5" style="44" customWidth="1"/>
-    <col min="1031" max="1031" width="7.375" style="44" customWidth="1"/>
-    <col min="1032" max="1033" width="7.75" style="44" customWidth="1"/>
-    <col min="1034" max="1035" width="7.625" style="44" customWidth="1"/>
-    <col min="1036" max="1036" width="5.625" style="44" customWidth="1"/>
-    <col min="1037" max="1037" width="9.625" style="44" customWidth="1"/>
-    <col min="1038" max="1041" width="5.125" style="44" customWidth="1"/>
-    <col min="1042" max="1042" width="2.625" style="44" customWidth="1"/>
-    <col min="1043" max="1280" width="9" style="44"/>
-    <col min="1281" max="1281" width="3.5" style="44" customWidth="1"/>
-    <col min="1282" max="1282" width="5.625" style="44" customWidth="1"/>
-    <col min="1283" max="1284" width="6" style="44" customWidth="1"/>
-    <col min="1285" max="1286" width="8.5" style="44" customWidth="1"/>
-    <col min="1287" max="1287" width="7.375" style="44" customWidth="1"/>
-    <col min="1288" max="1289" width="7.75" style="44" customWidth="1"/>
-    <col min="1290" max="1291" width="7.625" style="44" customWidth="1"/>
-    <col min="1292" max="1292" width="5.625" style="44" customWidth="1"/>
-    <col min="1293" max="1293" width="9.625" style="44" customWidth="1"/>
-    <col min="1294" max="1297" width="5.125" style="44" customWidth="1"/>
-    <col min="1298" max="1298" width="2.625" style="44" customWidth="1"/>
-    <col min="1299" max="1536" width="9" style="44"/>
-    <col min="1537" max="1537" width="3.5" style="44" customWidth="1"/>
-    <col min="1538" max="1538" width="5.625" style="44" customWidth="1"/>
-    <col min="1539" max="1540" width="6" style="44" customWidth="1"/>
-    <col min="1541" max="1542" width="8.5" style="44" customWidth="1"/>
-    <col min="1543" max="1543" width="7.375" style="44" customWidth="1"/>
-    <col min="1544" max="1545" width="7.75" style="44" customWidth="1"/>
-    <col min="1546" max="1547" width="7.625" style="44" customWidth="1"/>
-    <col min="1548" max="1548" width="5.625" style="44" customWidth="1"/>
-    <col min="1549" max="1549" width="9.625" style="44" customWidth="1"/>
-    <col min="1550" max="1553" width="5.125" style="44" customWidth="1"/>
-    <col min="1554" max="1554" width="2.625" style="44" customWidth="1"/>
-    <col min="1555" max="1792" width="9" style="44"/>
-    <col min="1793" max="1793" width="3.5" style="44" customWidth="1"/>
-    <col min="1794" max="1794" width="5.625" style="44" customWidth="1"/>
-    <col min="1795" max="1796" width="6" style="44" customWidth="1"/>
-    <col min="1797" max="1798" width="8.5" style="44" customWidth="1"/>
-    <col min="1799" max="1799" width="7.375" style="44" customWidth="1"/>
-    <col min="1800" max="1801" width="7.75" style="44" customWidth="1"/>
-    <col min="1802" max="1803" width="7.625" style="44" customWidth="1"/>
-    <col min="1804" max="1804" width="5.625" style="44" customWidth="1"/>
-    <col min="1805" max="1805" width="9.625" style="44" customWidth="1"/>
-    <col min="1806" max="1809" width="5.125" style="44" customWidth="1"/>
-    <col min="1810" max="1810" width="2.625" style="44" customWidth="1"/>
-    <col min="1811" max="2048" width="9" style="44"/>
-    <col min="2049" max="2049" width="3.5" style="44" customWidth="1"/>
-    <col min="2050" max="2050" width="5.625" style="44" customWidth="1"/>
-    <col min="2051" max="2052" width="6" style="44" customWidth="1"/>
-    <col min="2053" max="2054" width="8.5" style="44" customWidth="1"/>
-    <col min="2055" max="2055" width="7.375" style="44" customWidth="1"/>
-    <col min="2056" max="2057" width="7.75" style="44" customWidth="1"/>
-    <col min="2058" max="2059" width="7.625" style="44" customWidth="1"/>
-    <col min="2060" max="2060" width="5.625" style="44" customWidth="1"/>
-    <col min="2061" max="2061" width="9.625" style="44" customWidth="1"/>
-    <col min="2062" max="2065" width="5.125" style="44" customWidth="1"/>
-    <col min="2066" max="2066" width="2.625" style="44" customWidth="1"/>
-    <col min="2067" max="2304" width="9" style="44"/>
-    <col min="2305" max="2305" width="3.5" style="44" customWidth="1"/>
-    <col min="2306" max="2306" width="5.625" style="44" customWidth="1"/>
-    <col min="2307" max="2308" width="6" style="44" customWidth="1"/>
-    <col min="2309" max="2310" width="8.5" style="44" customWidth="1"/>
-    <col min="2311" max="2311" width="7.375" style="44" customWidth="1"/>
-    <col min="2312" max="2313" width="7.75" style="44" customWidth="1"/>
-    <col min="2314" max="2315" width="7.625" style="44" customWidth="1"/>
-    <col min="2316" max="2316" width="5.625" style="44" customWidth="1"/>
-    <col min="2317" max="2317" width="9.625" style="44" customWidth="1"/>
-    <col min="2318" max="2321" width="5.125" style="44" customWidth="1"/>
-    <col min="2322" max="2322" width="2.625" style="44" customWidth="1"/>
-    <col min="2323" max="2560" width="9" style="44"/>
-    <col min="2561" max="2561" width="3.5" style="44" customWidth="1"/>
-    <col min="2562" max="2562" width="5.625" style="44" customWidth="1"/>
-    <col min="2563" max="2564" width="6" style="44" customWidth="1"/>
-    <col min="2565" max="2566" width="8.5" style="44" customWidth="1"/>
-    <col min="2567" max="2567" width="7.375" style="44" customWidth="1"/>
-    <col min="2568" max="2569" width="7.75" style="44" customWidth="1"/>
-    <col min="2570" max="2571" width="7.625" style="44" customWidth="1"/>
-    <col min="2572" max="2572" width="5.625" style="44" customWidth="1"/>
-    <col min="2573" max="2573" width="9.625" style="44" customWidth="1"/>
-    <col min="2574" max="2577" width="5.125" style="44" customWidth="1"/>
-    <col min="2578" max="2578" width="2.625" style="44" customWidth="1"/>
-    <col min="2579" max="2816" width="9" style="44"/>
-    <col min="2817" max="2817" width="3.5" style="44" customWidth="1"/>
-    <col min="2818" max="2818" width="5.625" style="44" customWidth="1"/>
-    <col min="2819" max="2820" width="6" style="44" customWidth="1"/>
-    <col min="2821" max="2822" width="8.5" style="44" customWidth="1"/>
-    <col min="2823" max="2823" width="7.375" style="44" customWidth="1"/>
-    <col min="2824" max="2825" width="7.75" style="44" customWidth="1"/>
-    <col min="2826" max="2827" width="7.625" style="44" customWidth="1"/>
-    <col min="2828" max="2828" width="5.625" style="44" customWidth="1"/>
-    <col min="2829" max="2829" width="9.625" style="44" customWidth="1"/>
-    <col min="2830" max="2833" width="5.125" style="44" customWidth="1"/>
-    <col min="2834" max="2834" width="2.625" style="44" customWidth="1"/>
-    <col min="2835" max="3072" width="9" style="44"/>
-    <col min="3073" max="3073" width="3.5" style="44" customWidth="1"/>
-    <col min="3074" max="3074" width="5.625" style="44" customWidth="1"/>
-    <col min="3075" max="3076" width="6" style="44" customWidth="1"/>
-    <col min="3077" max="3078" width="8.5" style="44" customWidth="1"/>
-    <col min="3079" max="3079" width="7.375" style="44" customWidth="1"/>
-    <col min="3080" max="3081" width="7.75" style="44" customWidth="1"/>
-    <col min="3082" max="3083" width="7.625" style="44" customWidth="1"/>
-    <col min="3084" max="3084" width="5.625" style="44" customWidth="1"/>
-    <col min="3085" max="3085" width="9.625" style="44" customWidth="1"/>
-    <col min="3086" max="3089" width="5.125" style="44" customWidth="1"/>
-    <col min="3090" max="3090" width="2.625" style="44" customWidth="1"/>
-    <col min="3091" max="3328" width="9" style="44"/>
-    <col min="3329" max="3329" width="3.5" style="44" customWidth="1"/>
-    <col min="3330" max="3330" width="5.625" style="44" customWidth="1"/>
-    <col min="3331" max="3332" width="6" style="44" customWidth="1"/>
-    <col min="3333" max="3334" width="8.5" style="44" customWidth="1"/>
-    <col min="3335" max="3335" width="7.375" style="44" customWidth="1"/>
-    <col min="3336" max="3337" width="7.75" style="44" customWidth="1"/>
-    <col min="3338" max="3339" width="7.625" style="44" customWidth="1"/>
-    <col min="3340" max="3340" width="5.625" style="44" customWidth="1"/>
-    <col min="3341" max="3341" width="9.625" style="44" customWidth="1"/>
-    <col min="3342" max="3345" width="5.125" style="44" customWidth="1"/>
-    <col min="3346" max="3346" width="2.625" style="44" customWidth="1"/>
-    <col min="3347" max="3584" width="9" style="44"/>
-    <col min="3585" max="3585" width="3.5" style="44" customWidth="1"/>
-    <col min="3586" max="3586" width="5.625" style="44" customWidth="1"/>
-    <col min="3587" max="3588" width="6" style="44" customWidth="1"/>
-    <col min="3589" max="3590" width="8.5" style="44" customWidth="1"/>
-    <col min="3591" max="3591" width="7.375" style="44" customWidth="1"/>
-    <col min="3592" max="3593" width="7.75" style="44" customWidth="1"/>
-    <col min="3594" max="3595" width="7.625" style="44" customWidth="1"/>
-    <col min="3596" max="3596" width="5.625" style="44" customWidth="1"/>
-    <col min="3597" max="3597" width="9.625" style="44" customWidth="1"/>
-    <col min="3598" max="3601" width="5.125" style="44" customWidth="1"/>
-    <col min="3602" max="3602" width="2.625" style="44" customWidth="1"/>
-    <col min="3603" max="3840" width="9" style="44"/>
-    <col min="3841" max="3841" width="3.5" style="44" customWidth="1"/>
-    <col min="3842" max="3842" width="5.625" style="44" customWidth="1"/>
-    <col min="3843" max="3844" width="6" style="44" customWidth="1"/>
-    <col min="3845" max="3846" width="8.5" style="44" customWidth="1"/>
-    <col min="3847" max="3847" width="7.375" style="44" customWidth="1"/>
-    <col min="3848" max="3849" width="7.75" style="44" customWidth="1"/>
-    <col min="3850" max="3851" width="7.625" style="44" customWidth="1"/>
-    <col min="3852" max="3852" width="5.625" style="44" customWidth="1"/>
-    <col min="3853" max="3853" width="9.625" style="44" customWidth="1"/>
-    <col min="3854" max="3857" width="5.125" style="44" customWidth="1"/>
-    <col min="3858" max="3858" width="2.625" style="44" customWidth="1"/>
-    <col min="3859" max="4096" width="9" style="44"/>
-    <col min="4097" max="4097" width="3.5" style="44" customWidth="1"/>
-    <col min="4098" max="4098" width="5.625" style="44" customWidth="1"/>
-    <col min="4099" max="4100" width="6" style="44" customWidth="1"/>
-    <col min="4101" max="4102" width="8.5" style="44" customWidth="1"/>
-    <col min="4103" max="4103" width="7.375" style="44" customWidth="1"/>
-    <col min="4104" max="4105" width="7.75" style="44" customWidth="1"/>
-    <col min="4106" max="4107" width="7.625" style="44" customWidth="1"/>
-    <col min="4108" max="4108" width="5.625" style="44" customWidth="1"/>
-    <col min="4109" max="4109" width="9.625" style="44" customWidth="1"/>
-    <col min="4110" max="4113" width="5.125" style="44" customWidth="1"/>
-    <col min="4114" max="4114" width="2.625" style="44" customWidth="1"/>
-    <col min="4115" max="4352" width="9" style="44"/>
-    <col min="4353" max="4353" width="3.5" style="44" customWidth="1"/>
-    <col min="4354" max="4354" width="5.625" style="44" customWidth="1"/>
-    <col min="4355" max="4356" width="6" style="44" customWidth="1"/>
-    <col min="4357" max="4358" width="8.5" style="44" customWidth="1"/>
-    <col min="4359" max="4359" width="7.375" style="44" customWidth="1"/>
-    <col min="4360" max="4361" width="7.75" style="44" customWidth="1"/>
-    <col min="4362" max="4363" width="7.625" style="44" customWidth="1"/>
-    <col min="4364" max="4364" width="5.625" style="44" customWidth="1"/>
-    <col min="4365" max="4365" width="9.625" style="44" customWidth="1"/>
-    <col min="4366" max="4369" width="5.125" style="44" customWidth="1"/>
-    <col min="4370" max="4370" width="2.625" style="44" customWidth="1"/>
-    <col min="4371" max="4608" width="9" style="44"/>
-    <col min="4609" max="4609" width="3.5" style="44" customWidth="1"/>
-    <col min="4610" max="4610" width="5.625" style="44" customWidth="1"/>
-    <col min="4611" max="4612" width="6" style="44" customWidth="1"/>
-    <col min="4613" max="4614" width="8.5" style="44" customWidth="1"/>
-    <col min="4615" max="4615" width="7.375" style="44" customWidth="1"/>
-    <col min="4616" max="4617" width="7.75" style="44" customWidth="1"/>
-    <col min="4618" max="4619" width="7.625" style="44" customWidth="1"/>
-    <col min="4620" max="4620" width="5.625" style="44" customWidth="1"/>
-    <col min="4621" max="4621" width="9.625" style="44" customWidth="1"/>
-    <col min="4622" max="4625" width="5.125" style="44" customWidth="1"/>
-    <col min="4626" max="4626" width="2.625" style="44" customWidth="1"/>
-    <col min="4627" max="4864" width="9" style="44"/>
-    <col min="4865" max="4865" width="3.5" style="44" customWidth="1"/>
-    <col min="4866" max="4866" width="5.625" style="44" customWidth="1"/>
-    <col min="4867" max="4868" width="6" style="44" customWidth="1"/>
-    <col min="4869" max="4870" width="8.5" style="44" customWidth="1"/>
-    <col min="4871" max="4871" width="7.375" style="44" customWidth="1"/>
-    <col min="4872" max="4873" width="7.75" style="44" customWidth="1"/>
-    <col min="4874" max="4875" width="7.625" style="44" customWidth="1"/>
-    <col min="4876" max="4876" width="5.625" style="44" customWidth="1"/>
-    <col min="4877" max="4877" width="9.625" style="44" customWidth="1"/>
-    <col min="4878" max="4881" width="5.125" style="44" customWidth="1"/>
-    <col min="4882" max="4882" width="2.625" style="44" customWidth="1"/>
-    <col min="4883" max="5120" width="9" style="44"/>
-    <col min="5121" max="5121" width="3.5" style="44" customWidth="1"/>
-    <col min="5122" max="5122" width="5.625" style="44" customWidth="1"/>
-    <col min="5123" max="5124" width="6" style="44" customWidth="1"/>
-    <col min="5125" max="5126" width="8.5" style="44" customWidth="1"/>
-    <col min="5127" max="5127" width="7.375" style="44" customWidth="1"/>
-    <col min="5128" max="5129" width="7.75" style="44" customWidth="1"/>
-    <col min="5130" max="5131" width="7.625" style="44" customWidth="1"/>
-    <col min="5132" max="5132" width="5.625" style="44" customWidth="1"/>
-    <col min="5133" max="5133" width="9.625" style="44" customWidth="1"/>
-    <col min="5134" max="5137" width="5.125" style="44" customWidth="1"/>
-    <col min="5138" max="5138" width="2.625" style="44" customWidth="1"/>
-    <col min="5139" max="5376" width="9" style="44"/>
-    <col min="5377" max="5377" width="3.5" style="44" customWidth="1"/>
-    <col min="5378" max="5378" width="5.625" style="44" customWidth="1"/>
-    <col min="5379" max="5380" width="6" style="44" customWidth="1"/>
-    <col min="5381" max="5382" width="8.5" style="44" customWidth="1"/>
-    <col min="5383" max="5383" width="7.375" style="44" customWidth="1"/>
-    <col min="5384" max="5385" width="7.75" style="44" customWidth="1"/>
-    <col min="5386" max="5387" width="7.625" style="44" customWidth="1"/>
-    <col min="5388" max="5388" width="5.625" style="44" customWidth="1"/>
-    <col min="5389" max="5389" width="9.625" style="44" customWidth="1"/>
-    <col min="5390" max="5393" width="5.125" style="44" customWidth="1"/>
-    <col min="5394" max="5394" width="2.625" style="44" customWidth="1"/>
-    <col min="5395" max="5632" width="9" style="44"/>
-    <col min="5633" max="5633" width="3.5" style="44" customWidth="1"/>
-    <col min="5634" max="5634" width="5.625" style="44" customWidth="1"/>
-    <col min="5635" max="5636" width="6" style="44" customWidth="1"/>
-    <col min="5637" max="5638" width="8.5" style="44" customWidth="1"/>
-    <col min="5639" max="5639" width="7.375" style="44" customWidth="1"/>
-    <col min="5640" max="5641" width="7.75" style="44" customWidth="1"/>
-    <col min="5642" max="5643" width="7.625" style="44" customWidth="1"/>
-    <col min="5644" max="5644" width="5.625" style="44" customWidth="1"/>
-    <col min="5645" max="5645" width="9.625" style="44" customWidth="1"/>
-    <col min="5646" max="5649" width="5.125" style="44" customWidth="1"/>
-    <col min="5650" max="5650" width="2.625" style="44" customWidth="1"/>
-    <col min="5651" max="5888" width="9" style="44"/>
-    <col min="5889" max="5889" width="3.5" style="44" customWidth="1"/>
-    <col min="5890" max="5890" width="5.625" style="44" customWidth="1"/>
-    <col min="5891" max="5892" width="6" style="44" customWidth="1"/>
-    <col min="5893" max="5894" width="8.5" style="44" customWidth="1"/>
-    <col min="5895" max="5895" width="7.375" style="44" customWidth="1"/>
-    <col min="5896" max="5897" width="7.75" style="44" customWidth="1"/>
-    <col min="5898" max="5899" width="7.625" style="44" customWidth="1"/>
-    <col min="5900" max="5900" width="5.625" style="44" customWidth="1"/>
-    <col min="5901" max="5901" width="9.625" style="44" customWidth="1"/>
-    <col min="5902" max="5905" width="5.125" style="44" customWidth="1"/>
-    <col min="5906" max="5906" width="2.625" style="44" customWidth="1"/>
-    <col min="5907" max="6144" width="9" style="44"/>
-    <col min="6145" max="6145" width="3.5" style="44" customWidth="1"/>
-    <col min="6146" max="6146" width="5.625" style="44" customWidth="1"/>
-    <col min="6147" max="6148" width="6" style="44" customWidth="1"/>
-    <col min="6149" max="6150" width="8.5" style="44" customWidth="1"/>
-    <col min="6151" max="6151" width="7.375" style="44" customWidth="1"/>
-    <col min="6152" max="6153" width="7.75" style="44" customWidth="1"/>
-    <col min="6154" max="6155" width="7.625" style="44" customWidth="1"/>
-    <col min="6156" max="6156" width="5.625" style="44" customWidth="1"/>
-    <col min="6157" max="6157" width="9.625" style="44" customWidth="1"/>
-    <col min="6158" max="6161" width="5.125" style="44" customWidth="1"/>
-    <col min="6162" max="6162" width="2.625" style="44" customWidth="1"/>
-    <col min="6163" max="6400" width="9" style="44"/>
-    <col min="6401" max="6401" width="3.5" style="44" customWidth="1"/>
-    <col min="6402" max="6402" width="5.625" style="44" customWidth="1"/>
-    <col min="6403" max="6404" width="6" style="44" customWidth="1"/>
-    <col min="6405" max="6406" width="8.5" style="44" customWidth="1"/>
-    <col min="6407" max="6407" width="7.375" style="44" customWidth="1"/>
-    <col min="6408" max="6409" width="7.75" style="44" customWidth="1"/>
-    <col min="6410" max="6411" width="7.625" style="44" customWidth="1"/>
-    <col min="6412" max="6412" width="5.625" style="44" customWidth="1"/>
-    <col min="6413" max="6413" width="9.625" style="44" customWidth="1"/>
-    <col min="6414" max="6417" width="5.125" style="44" customWidth="1"/>
-    <col min="6418" max="6418" width="2.625" style="44" customWidth="1"/>
-    <col min="6419" max="6656" width="9" style="44"/>
-    <col min="6657" max="6657" width="3.5" style="44" customWidth="1"/>
-    <col min="6658" max="6658" width="5.625" style="44" customWidth="1"/>
-    <col min="6659" max="6660" width="6" style="44" customWidth="1"/>
-    <col min="6661" max="6662" width="8.5" style="44" customWidth="1"/>
-    <col min="6663" max="6663" width="7.375" style="44" customWidth="1"/>
-    <col min="6664" max="6665" width="7.75" style="44" customWidth="1"/>
-    <col min="6666" max="6667" width="7.625" style="44" customWidth="1"/>
-    <col min="6668" max="6668" width="5.625" style="44" customWidth="1"/>
-    <col min="6669" max="6669" width="9.625" style="44" customWidth="1"/>
-    <col min="6670" max="6673" width="5.125" style="44" customWidth="1"/>
-    <col min="6674" max="6674" width="2.625" style="44" customWidth="1"/>
-    <col min="6675" max="6912" width="9" style="44"/>
-    <col min="6913" max="6913" width="3.5" style="44" customWidth="1"/>
-    <col min="6914" max="6914" width="5.625" style="44" customWidth="1"/>
-    <col min="6915" max="6916" width="6" style="44" customWidth="1"/>
-    <col min="6917" max="6918" width="8.5" style="44" customWidth="1"/>
-    <col min="6919" max="6919" width="7.375" style="44" customWidth="1"/>
-    <col min="6920" max="6921" width="7.75" style="44" customWidth="1"/>
-    <col min="6922" max="6923" width="7.625" style="44" customWidth="1"/>
-    <col min="6924" max="6924" width="5.625" style="44" customWidth="1"/>
-    <col min="6925" max="6925" width="9.625" style="44" customWidth="1"/>
-    <col min="6926" max="6929" width="5.125" style="44" customWidth="1"/>
-    <col min="6930" max="6930" width="2.625" style="44" customWidth="1"/>
-    <col min="6931" max="7168" width="9" style="44"/>
-    <col min="7169" max="7169" width="3.5" style="44" customWidth="1"/>
-    <col min="7170" max="7170" width="5.625" style="44" customWidth="1"/>
-    <col min="7171" max="7172" width="6" style="44" customWidth="1"/>
-    <col min="7173" max="7174" width="8.5" style="44" customWidth="1"/>
-    <col min="7175" max="7175" width="7.375" style="44" customWidth="1"/>
-    <col min="7176" max="7177" width="7.75" style="44" customWidth="1"/>
-    <col min="7178" max="7179" width="7.625" style="44" customWidth="1"/>
-    <col min="7180" max="7180" width="5.625" style="44" customWidth="1"/>
-    <col min="7181" max="7181" width="9.625" style="44" customWidth="1"/>
-    <col min="7182" max="7185" width="5.125" style="44" customWidth="1"/>
-    <col min="7186" max="7186" width="2.625" style="44" customWidth="1"/>
-    <col min="7187" max="7424" width="9" style="44"/>
-    <col min="7425" max="7425" width="3.5" style="44" customWidth="1"/>
-    <col min="7426" max="7426" width="5.625" style="44" customWidth="1"/>
-    <col min="7427" max="7428" width="6" style="44" customWidth="1"/>
-    <col min="7429" max="7430" width="8.5" style="44" customWidth="1"/>
-    <col min="7431" max="7431" width="7.375" style="44" customWidth="1"/>
-    <col min="7432" max="7433" width="7.75" style="44" customWidth="1"/>
-    <col min="7434" max="7435" width="7.625" style="44" customWidth="1"/>
-    <col min="7436" max="7436" width="5.625" style="44" customWidth="1"/>
-    <col min="7437" max="7437" width="9.625" style="44" customWidth="1"/>
-    <col min="7438" max="7441" width="5.125" style="44" customWidth="1"/>
-    <col min="7442" max="7442" width="2.625" style="44" customWidth="1"/>
-    <col min="7443" max="7680" width="9" style="44"/>
-    <col min="7681" max="7681" width="3.5" style="44" customWidth="1"/>
-    <col min="7682" max="7682" width="5.625" style="44" customWidth="1"/>
-    <col min="7683" max="7684" width="6" style="44" customWidth="1"/>
-    <col min="7685" max="7686" width="8.5" style="44" customWidth="1"/>
-    <col min="7687" max="7687" width="7.375" style="44" customWidth="1"/>
-    <col min="7688" max="7689" width="7.75" style="44" customWidth="1"/>
-    <col min="7690" max="7691" width="7.625" style="44" customWidth="1"/>
-    <col min="7692" max="7692" width="5.625" style="44" customWidth="1"/>
-    <col min="7693" max="7693" width="9.625" style="44" customWidth="1"/>
-    <col min="7694" max="7697" width="5.125" style="44" customWidth="1"/>
-    <col min="7698" max="7698" width="2.625" style="44" customWidth="1"/>
-    <col min="7699" max="7936" width="9" style="44"/>
-    <col min="7937" max="7937" width="3.5" style="44" customWidth="1"/>
-    <col min="7938" max="7938" width="5.625" style="44" customWidth="1"/>
-    <col min="7939" max="7940" width="6" style="44" customWidth="1"/>
-    <col min="7941" max="7942" width="8.5" style="44" customWidth="1"/>
-    <col min="7943" max="7943" width="7.375" style="44" customWidth="1"/>
-    <col min="7944" max="7945" width="7.75" style="44" customWidth="1"/>
-    <col min="7946" max="7947" width="7.625" style="44" customWidth="1"/>
-    <col min="7948" max="7948" width="5.625" style="44" customWidth="1"/>
-    <col min="7949" max="7949" width="9.625" style="44" customWidth="1"/>
-    <col min="7950" max="7953" width="5.125" style="44" customWidth="1"/>
-    <col min="7954" max="7954" width="2.625" style="44" customWidth="1"/>
-    <col min="7955" max="8192" width="9" style="44"/>
-    <col min="8193" max="8193" width="3.5" style="44" customWidth="1"/>
-    <col min="8194" max="8194" width="5.625" style="44" customWidth="1"/>
-    <col min="8195" max="8196" width="6" style="44" customWidth="1"/>
-    <col min="8197" max="8198" width="8.5" style="44" customWidth="1"/>
-    <col min="8199" max="8199" width="7.375" style="44" customWidth="1"/>
-    <col min="8200" max="8201" width="7.75" style="44" customWidth="1"/>
-    <col min="8202" max="8203" width="7.625" style="44" customWidth="1"/>
-    <col min="8204" max="8204" width="5.625" style="44" customWidth="1"/>
-    <col min="8205" max="8205" width="9.625" style="44" customWidth="1"/>
-    <col min="8206" max="8209" width="5.125" style="44" customWidth="1"/>
-    <col min="8210" max="8210" width="2.625" style="44" customWidth="1"/>
-    <col min="8211" max="8448" width="9" style="44"/>
-    <col min="8449" max="8449" width="3.5" style="44" customWidth="1"/>
-    <col min="8450" max="8450" width="5.625" style="44" customWidth="1"/>
-    <col min="8451" max="8452" width="6" style="44" customWidth="1"/>
-    <col min="8453" max="8454" width="8.5" style="44" customWidth="1"/>
-    <col min="8455" max="8455" width="7.375" style="44" customWidth="1"/>
-    <col min="8456" max="8457" width="7.75" style="44" customWidth="1"/>
-    <col min="8458" max="8459" width="7.625" style="44" customWidth="1"/>
-    <col min="8460" max="8460" width="5.625" style="44" customWidth="1"/>
-    <col min="8461" max="8461" width="9.625" style="44" customWidth="1"/>
-    <col min="8462" max="8465" width="5.125" style="44" customWidth="1"/>
-    <col min="8466" max="8466" width="2.625" style="44" customWidth="1"/>
-    <col min="8467" max="8704" width="9" style="44"/>
-    <col min="8705" max="8705" width="3.5" style="44" customWidth="1"/>
-    <col min="8706" max="8706" width="5.625" style="44" customWidth="1"/>
-    <col min="8707" max="8708" width="6" style="44" customWidth="1"/>
-    <col min="8709" max="8710" width="8.5" style="44" customWidth="1"/>
-    <col min="8711" max="8711" width="7.375" style="44" customWidth="1"/>
-    <col min="8712" max="8713" width="7.75" style="44" customWidth="1"/>
-    <col min="8714" max="8715" width="7.625" style="44" customWidth="1"/>
-    <col min="8716" max="8716" width="5.625" style="44" customWidth="1"/>
-    <col min="8717" max="8717" width="9.625" style="44" customWidth="1"/>
-    <col min="8718" max="8721" width="5.125" style="44" customWidth="1"/>
-    <col min="8722" max="8722" width="2.625" style="44" customWidth="1"/>
-    <col min="8723" max="8960" width="9" style="44"/>
-    <col min="8961" max="8961" width="3.5" style="44" customWidth="1"/>
-    <col min="8962" max="8962" width="5.625" style="44" customWidth="1"/>
-    <col min="8963" max="8964" width="6" style="44" customWidth="1"/>
-    <col min="8965" max="8966" width="8.5" style="44" customWidth="1"/>
-    <col min="8967" max="8967" width="7.375" style="44" customWidth="1"/>
-    <col min="8968" max="8969" width="7.75" style="44" customWidth="1"/>
-    <col min="8970" max="8971" width="7.625" style="44" customWidth="1"/>
-    <col min="8972" max="8972" width="5.625" style="44" customWidth="1"/>
-    <col min="8973" max="8973" width="9.625" style="44" customWidth="1"/>
-    <col min="8974" max="8977" width="5.125" style="44" customWidth="1"/>
-    <col min="8978" max="8978" width="2.625" style="44" customWidth="1"/>
-    <col min="8979" max="9216" width="9" style="44"/>
-    <col min="9217" max="9217" width="3.5" style="44" customWidth="1"/>
-    <col min="9218" max="9218" width="5.625" style="44" customWidth="1"/>
-    <col min="9219" max="9220" width="6" style="44" customWidth="1"/>
-    <col min="9221" max="9222" width="8.5" style="44" customWidth="1"/>
-    <col min="9223" max="9223" width="7.375" style="44" customWidth="1"/>
-    <col min="9224" max="9225" width="7.75" style="44" customWidth="1"/>
-    <col min="9226" max="9227" width="7.625" style="44" customWidth="1"/>
-    <col min="9228" max="9228" width="5.625" style="44" customWidth="1"/>
-    <col min="9229" max="9229" width="9.625" style="44" customWidth="1"/>
-    <col min="9230" max="9233" width="5.125" style="44" customWidth="1"/>
-    <col min="9234" max="9234" width="2.625" style="44" customWidth="1"/>
-    <col min="9235" max="9472" width="9" style="44"/>
-    <col min="9473" max="9473" width="3.5" style="44" customWidth="1"/>
-    <col min="9474" max="9474" width="5.625" style="44" customWidth="1"/>
-    <col min="9475" max="9476" width="6" style="44" customWidth="1"/>
-    <col min="9477" max="9478" width="8.5" style="44" customWidth="1"/>
-    <col min="9479" max="9479" width="7.375" style="44" customWidth="1"/>
-    <col min="9480" max="9481" width="7.75" style="44" customWidth="1"/>
-    <col min="9482" max="9483" width="7.625" style="44" customWidth="1"/>
-    <col min="9484" max="9484" width="5.625" style="44" customWidth="1"/>
-    <col min="9485" max="9485" width="9.625" style="44" customWidth="1"/>
-    <col min="9486" max="9489" width="5.125" style="44" customWidth="1"/>
-    <col min="9490" max="9490" width="2.625" style="44" customWidth="1"/>
-    <col min="9491" max="9728" width="9" style="44"/>
-    <col min="9729" max="9729" width="3.5" style="44" customWidth="1"/>
-    <col min="9730" max="9730" width="5.625" style="44" customWidth="1"/>
-    <col min="9731" max="9732" width="6" style="44" customWidth="1"/>
-    <col min="9733" max="9734" width="8.5" style="44" customWidth="1"/>
-    <col min="9735" max="9735" width="7.375" style="44" customWidth="1"/>
-    <col min="9736" max="9737" width="7.75" style="44" customWidth="1"/>
-    <col min="9738" max="9739" width="7.625" style="44" customWidth="1"/>
-    <col min="9740" max="9740" width="5.625" style="44" customWidth="1"/>
-    <col min="9741" max="9741" width="9.625" style="44" customWidth="1"/>
-    <col min="9742" max="9745" width="5.125" style="44" customWidth="1"/>
-    <col min="9746" max="9746" width="2.625" style="44" customWidth="1"/>
-    <col min="9747" max="9984" width="9" style="44"/>
-    <col min="9985" max="9985" width="3.5" style="44" customWidth="1"/>
-    <col min="9986" max="9986" width="5.625" style="44" customWidth="1"/>
-    <col min="9987" max="9988" width="6" style="44" customWidth="1"/>
-    <col min="9989" max="9990" width="8.5" style="44" customWidth="1"/>
-    <col min="9991" max="9991" width="7.375" style="44" customWidth="1"/>
-    <col min="9992" max="9993" width="7.75" style="44" customWidth="1"/>
-    <col min="9994" max="9995" width="7.625" style="44" customWidth="1"/>
-    <col min="9996" max="9996" width="5.625" style="44" customWidth="1"/>
-    <col min="9997" max="9997" width="9.625" style="44" customWidth="1"/>
-    <col min="9998" max="10001" width="5.125" style="44" customWidth="1"/>
-    <col min="10002" max="10002" width="2.625" style="44" customWidth="1"/>
-    <col min="10003" max="10240" width="9" style="44"/>
-    <col min="10241" max="10241" width="3.5" style="44" customWidth="1"/>
-    <col min="10242" max="10242" width="5.625" style="44" customWidth="1"/>
-    <col min="10243" max="10244" width="6" style="44" customWidth="1"/>
-    <col min="10245" max="10246" width="8.5" style="44" customWidth="1"/>
-    <col min="10247" max="10247" width="7.375" style="44" customWidth="1"/>
-    <col min="10248" max="10249" width="7.75" style="44" customWidth="1"/>
-    <col min="10250" max="10251" width="7.625" style="44" customWidth="1"/>
-    <col min="10252" max="10252" width="5.625" style="44" customWidth="1"/>
-    <col min="10253" max="10253" width="9.625" style="44" customWidth="1"/>
-    <col min="10254" max="10257" width="5.125" style="44" customWidth="1"/>
-    <col min="10258" max="10258" width="2.625" style="44" customWidth="1"/>
-    <col min="10259" max="10496" width="9" style="44"/>
-    <col min="10497" max="10497" width="3.5" style="44" customWidth="1"/>
-    <col min="10498" max="10498" width="5.625" style="44" customWidth="1"/>
-    <col min="10499" max="10500" width="6" style="44" customWidth="1"/>
-    <col min="10501" max="10502" width="8.5" style="44" customWidth="1"/>
-    <col min="10503" max="10503" width="7.375" style="44" customWidth="1"/>
-    <col min="10504" max="10505" width="7.75" style="44" customWidth="1"/>
-    <col min="10506" max="10507" width="7.625" style="44" customWidth="1"/>
-    <col min="10508" max="10508" width="5.625" style="44" customWidth="1"/>
-    <col min="10509" max="10509" width="9.625" style="44" customWidth="1"/>
-    <col min="10510" max="10513" width="5.125" style="44" customWidth="1"/>
-    <col min="10514" max="10514" width="2.625" style="44" customWidth="1"/>
-    <col min="10515" max="10752" width="9" style="44"/>
-    <col min="10753" max="10753" width="3.5" style="44" customWidth="1"/>
-    <col min="10754" max="10754" width="5.625" style="44" customWidth="1"/>
-    <col min="10755" max="10756" width="6" style="44" customWidth="1"/>
-    <col min="10757" max="10758" width="8.5" style="44" customWidth="1"/>
-    <col min="10759" max="10759" width="7.375" style="44" customWidth="1"/>
-    <col min="10760" max="10761" width="7.75" style="44" customWidth="1"/>
-    <col min="10762" max="10763" width="7.625" style="44" customWidth="1"/>
-    <col min="10764" max="10764" width="5.625" style="44" customWidth="1"/>
-    <col min="10765" max="10765" width="9.625" style="44" customWidth="1"/>
-    <col min="10766" max="10769" width="5.125" style="44" customWidth="1"/>
-    <col min="10770" max="10770" width="2.625" style="44" customWidth="1"/>
-    <col min="10771" max="11008" width="9" style="44"/>
-    <col min="11009" max="11009" width="3.5" style="44" customWidth="1"/>
-    <col min="11010" max="11010" width="5.625" style="44" customWidth="1"/>
-    <col min="11011" max="11012" width="6" style="44" customWidth="1"/>
-    <col min="11013" max="11014" width="8.5" style="44" customWidth="1"/>
-    <col min="11015" max="11015" width="7.375" style="44" customWidth="1"/>
-    <col min="11016" max="11017" width="7.75" style="44" customWidth="1"/>
-    <col min="11018" max="11019" width="7.625" style="44" customWidth="1"/>
-    <col min="11020" max="11020" width="5.625" style="44" customWidth="1"/>
-    <col min="11021" max="11021" width="9.625" style="44" customWidth="1"/>
-    <col min="11022" max="11025" width="5.125" style="44" customWidth="1"/>
-    <col min="11026" max="11026" width="2.625" style="44" customWidth="1"/>
-    <col min="11027" max="11264" width="9" style="44"/>
-    <col min="11265" max="11265" width="3.5" style="44" customWidth="1"/>
-    <col min="11266" max="11266" width="5.625" style="44" customWidth="1"/>
-    <col min="11267" max="11268" width="6" style="44" customWidth="1"/>
-    <col min="11269" max="11270" width="8.5" style="44" customWidth="1"/>
-    <col min="11271" max="11271" width="7.375" style="44" customWidth="1"/>
-    <col min="11272" max="11273" width="7.75" style="44" customWidth="1"/>
-    <col min="11274" max="11275" width="7.625" style="44" customWidth="1"/>
-    <col min="11276" max="11276" width="5.625" style="44" customWidth="1"/>
-    <col min="11277" max="11277" width="9.625" style="44" customWidth="1"/>
-    <col min="11278" max="11281" width="5.125" style="44" customWidth="1"/>
-    <col min="11282" max="11282" width="2.625" style="44" customWidth="1"/>
-    <col min="11283" max="11520" width="9" style="44"/>
-    <col min="11521" max="11521" width="3.5" style="44" customWidth="1"/>
-    <col min="11522" max="11522" width="5.625" style="44" customWidth="1"/>
-    <col min="11523" max="11524" width="6" style="44" customWidth="1"/>
-    <col min="11525" max="11526" width="8.5" style="44" customWidth="1"/>
-    <col min="11527" max="11527" width="7.375" style="44" customWidth="1"/>
-    <col min="11528" max="11529" width="7.75" style="44" customWidth="1"/>
-    <col min="11530" max="11531" width="7.625" style="44" customWidth="1"/>
-    <col min="11532" max="11532" width="5.625" style="44" customWidth="1"/>
-    <col min="11533" max="11533" width="9.625" style="44" customWidth="1"/>
-    <col min="11534" max="11537" width="5.125" style="44" customWidth="1"/>
-    <col min="11538" max="11538" width="2.625" style="44" customWidth="1"/>
-    <col min="11539" max="11776" width="9" style="44"/>
-    <col min="11777" max="11777" width="3.5" style="44" customWidth="1"/>
-    <col min="11778" max="11778" width="5.625" style="44" customWidth="1"/>
-    <col min="11779" max="11780" width="6" style="44" customWidth="1"/>
-    <col min="11781" max="11782" width="8.5" style="44" customWidth="1"/>
-    <col min="11783" max="11783" width="7.375" style="44" customWidth="1"/>
-    <col min="11784" max="11785" width="7.75" style="44" customWidth="1"/>
-    <col min="11786" max="11787" width="7.625" style="44" customWidth="1"/>
-    <col min="11788" max="11788" width="5.625" style="44" customWidth="1"/>
-    <col min="11789" max="11789" width="9.625" style="44" customWidth="1"/>
-    <col min="11790" max="11793" width="5.125" style="44" customWidth="1"/>
-    <col min="11794" max="11794" width="2.625" style="44" customWidth="1"/>
-    <col min="11795" max="12032" width="9" style="44"/>
-    <col min="12033" max="12033" width="3.5" style="44" customWidth="1"/>
-    <col min="12034" max="12034" width="5.625" style="44" customWidth="1"/>
-    <col min="12035" max="12036" width="6" style="44" customWidth="1"/>
-    <col min="12037" max="12038" width="8.5" style="44" customWidth="1"/>
-    <col min="12039" max="12039" width="7.375" style="44" customWidth="1"/>
-    <col min="12040" max="12041" width="7.75" style="44" customWidth="1"/>
-    <col min="12042" max="12043" width="7.625" style="44" customWidth="1"/>
-    <col min="12044" max="12044" width="5.625" style="44" customWidth="1"/>
-    <col min="12045" max="12045" width="9.625" style="44" customWidth="1"/>
-    <col min="12046" max="12049" width="5.125" style="44" customWidth="1"/>
-    <col min="12050" max="12050" width="2.625" style="44" customWidth="1"/>
-    <col min="12051" max="12288" width="9" style="44"/>
-    <col min="12289" max="12289" width="3.5" style="44" customWidth="1"/>
-    <col min="12290" max="12290" width="5.625" style="44" customWidth="1"/>
-    <col min="12291" max="12292" width="6" style="44" customWidth="1"/>
-    <col min="12293" max="12294" width="8.5" style="44" customWidth="1"/>
-    <col min="12295" max="12295" width="7.375" style="44" customWidth="1"/>
-    <col min="12296" max="12297" width="7.75" style="44" customWidth="1"/>
-    <col min="12298" max="12299" width="7.625" style="44" customWidth="1"/>
-    <col min="12300" max="12300" width="5.625" style="44" customWidth="1"/>
-    <col min="12301" max="12301" width="9.625" style="44" customWidth="1"/>
-    <col min="12302" max="12305" width="5.125" style="44" customWidth="1"/>
-    <col min="12306" max="12306" width="2.625" style="44" customWidth="1"/>
-    <col min="12307" max="12544" width="9" style="44"/>
-    <col min="12545" max="12545" width="3.5" style="44" customWidth="1"/>
-    <col min="12546" max="12546" width="5.625" style="44" customWidth="1"/>
-    <col min="12547" max="12548" width="6" style="44" customWidth="1"/>
-    <col min="12549" max="12550" width="8.5" style="44" customWidth="1"/>
-    <col min="12551" max="12551" width="7.375" style="44" customWidth="1"/>
-    <col min="12552" max="12553" width="7.75" style="44" customWidth="1"/>
-    <col min="12554" max="12555" width="7.625" style="44" customWidth="1"/>
-    <col min="12556" max="12556" width="5.625" style="44" customWidth="1"/>
-    <col min="12557" max="12557" width="9.625" style="44" customWidth="1"/>
-    <col min="12558" max="12561" width="5.125" style="44" customWidth="1"/>
-    <col min="12562" max="12562" width="2.625" style="44" customWidth="1"/>
-    <col min="12563" max="12800" width="9" style="44"/>
-    <col min="12801" max="12801" width="3.5" style="44" customWidth="1"/>
-    <col min="12802" max="12802" width="5.625" style="44" customWidth="1"/>
-    <col min="12803" max="12804" width="6" style="44" customWidth="1"/>
-    <col min="12805" max="12806" width="8.5" style="44" customWidth="1"/>
-    <col min="12807" max="12807" width="7.375" style="44" customWidth="1"/>
-    <col min="12808" max="12809" width="7.75" style="44" customWidth="1"/>
-    <col min="12810" max="12811" width="7.625" style="44" customWidth="1"/>
-    <col min="12812" max="12812" width="5.625" style="44" customWidth="1"/>
-    <col min="12813" max="12813" width="9.625" style="44" customWidth="1"/>
-    <col min="12814" max="12817" width="5.125" style="44" customWidth="1"/>
-    <col min="12818" max="12818" width="2.625" style="44" customWidth="1"/>
-    <col min="12819" max="13056" width="9" style="44"/>
-    <col min="13057" max="13057" width="3.5" style="44" customWidth="1"/>
-    <col min="13058" max="13058" width="5.625" style="44" customWidth="1"/>
-    <col min="13059" max="13060" width="6" style="44" customWidth="1"/>
-    <col min="13061" max="13062" width="8.5" style="44" customWidth="1"/>
-    <col min="13063" max="13063" width="7.375" style="44" customWidth="1"/>
-    <col min="13064" max="13065" width="7.75" style="44" customWidth="1"/>
-    <col min="13066" max="13067" width="7.625" style="44" customWidth="1"/>
-    <col min="13068" max="13068" width="5.625" style="44" customWidth="1"/>
-    <col min="13069" max="13069" width="9.625" style="44" customWidth="1"/>
-    <col min="13070" max="13073" width="5.125" style="44" customWidth="1"/>
-    <col min="13074" max="13074" width="2.625" style="44" customWidth="1"/>
-    <col min="13075" max="13312" width="9" style="44"/>
-    <col min="13313" max="13313" width="3.5" style="44" customWidth="1"/>
-    <col min="13314" max="13314" width="5.625" style="44" customWidth="1"/>
-    <col min="13315" max="13316" width="6" style="44" customWidth="1"/>
-    <col min="13317" max="13318" width="8.5" style="44" customWidth="1"/>
-    <col min="13319" max="13319" width="7.375" style="44" customWidth="1"/>
-    <col min="13320" max="13321" width="7.75" style="44" customWidth="1"/>
-    <col min="13322" max="13323" width="7.625" style="44" customWidth="1"/>
-    <col min="13324" max="13324" width="5.625" style="44" customWidth="1"/>
-    <col min="13325" max="13325" width="9.625" style="44" customWidth="1"/>
-    <col min="13326" max="13329" width="5.125" style="44" customWidth="1"/>
-    <col min="13330" max="13330" width="2.625" style="44" customWidth="1"/>
-    <col min="13331" max="13568" width="9" style="44"/>
-    <col min="13569" max="13569" width="3.5" style="44" customWidth="1"/>
-    <col min="13570" max="13570" width="5.625" style="44" customWidth="1"/>
-    <col min="13571" max="13572" width="6" style="44" customWidth="1"/>
-    <col min="13573" max="13574" width="8.5" style="44" customWidth="1"/>
-    <col min="13575" max="13575" width="7.375" style="44" customWidth="1"/>
-    <col min="13576" max="13577" width="7.75" style="44" customWidth="1"/>
-    <col min="13578" max="13579" width="7.625" style="44" customWidth="1"/>
-    <col min="13580" max="13580" width="5.625" style="44" customWidth="1"/>
-    <col min="13581" max="13581" width="9.625" style="44" customWidth="1"/>
-    <col min="13582" max="13585" width="5.125" style="44" customWidth="1"/>
-    <col min="13586" max="13586" width="2.625" style="44" customWidth="1"/>
-    <col min="13587" max="13824" width="9" style="44"/>
-    <col min="13825" max="13825" width="3.5" style="44" customWidth="1"/>
-    <col min="13826" max="13826" width="5.625" style="44" customWidth="1"/>
-    <col min="13827" max="13828" width="6" style="44" customWidth="1"/>
-    <col min="13829" max="13830" width="8.5" style="44" customWidth="1"/>
-    <col min="13831" max="13831" width="7.375" style="44" customWidth="1"/>
-    <col min="13832" max="13833" width="7.75" style="44" customWidth="1"/>
-    <col min="13834" max="13835" width="7.625" style="44" customWidth="1"/>
-    <col min="13836" max="13836" width="5.625" style="44" customWidth="1"/>
-    <col min="13837" max="13837" width="9.625" style="44" customWidth="1"/>
-    <col min="13838" max="13841" width="5.125" style="44" customWidth="1"/>
-    <col min="13842" max="13842" width="2.625" style="44" customWidth="1"/>
-    <col min="13843" max="14080" width="9" style="44"/>
-    <col min="14081" max="14081" width="3.5" style="44" customWidth="1"/>
-    <col min="14082" max="14082" width="5.625" style="44" customWidth="1"/>
-    <col min="14083" max="14084" width="6" style="44" customWidth="1"/>
-    <col min="14085" max="14086" width="8.5" style="44" customWidth="1"/>
-    <col min="14087" max="14087" width="7.375" style="44" customWidth="1"/>
-    <col min="14088" max="14089" width="7.75" style="44" customWidth="1"/>
-    <col min="14090" max="14091" width="7.625" style="44" customWidth="1"/>
-    <col min="14092" max="14092" width="5.625" style="44" customWidth="1"/>
-    <col min="14093" max="14093" width="9.625" style="44" customWidth="1"/>
-    <col min="14094" max="14097" width="5.125" style="44" customWidth="1"/>
-    <col min="14098" max="14098" width="2.625" style="44" customWidth="1"/>
-    <col min="14099" max="14336" width="9" style="44"/>
-    <col min="14337" max="14337" width="3.5" style="44" customWidth="1"/>
-    <col min="14338" max="14338" width="5.625" style="44" customWidth="1"/>
-    <col min="14339" max="14340" width="6" style="44" customWidth="1"/>
-    <col min="14341" max="14342" width="8.5" style="44" customWidth="1"/>
-    <col min="14343" max="14343" width="7.375" style="44" customWidth="1"/>
-    <col min="14344" max="14345" width="7.75" style="44" customWidth="1"/>
-    <col min="14346" max="14347" width="7.625" style="44" customWidth="1"/>
-    <col min="14348" max="14348" width="5.625" style="44" customWidth="1"/>
-    <col min="14349" max="14349" width="9.625" style="44" customWidth="1"/>
-    <col min="14350" max="14353" width="5.125" style="44" customWidth="1"/>
-    <col min="14354" max="14354" width="2.625" style="44" customWidth="1"/>
-    <col min="14355" max="14592" width="9" style="44"/>
-    <col min="14593" max="14593" width="3.5" style="44" customWidth="1"/>
-    <col min="14594" max="14594" width="5.625" style="44" customWidth="1"/>
-    <col min="14595" max="14596" width="6" style="44" customWidth="1"/>
-    <col min="14597" max="14598" width="8.5" style="44" customWidth="1"/>
-    <col min="14599" max="14599" width="7.375" style="44" customWidth="1"/>
-    <col min="14600" max="14601" width="7.75" style="44" customWidth="1"/>
-    <col min="14602" max="14603" width="7.625" style="44" customWidth="1"/>
-    <col min="14604" max="14604" width="5.625" style="44" customWidth="1"/>
-    <col min="14605" max="14605" width="9.625" style="44" customWidth="1"/>
-    <col min="14606" max="14609" width="5.125" style="44" customWidth="1"/>
-    <col min="14610" max="14610" width="2.625" style="44" customWidth="1"/>
-    <col min="14611" max="14848" width="9" style="44"/>
-    <col min="14849" max="14849" width="3.5" style="44" customWidth="1"/>
-    <col min="14850" max="14850" width="5.625" style="44" customWidth="1"/>
-    <col min="14851" max="14852" width="6" style="44" customWidth="1"/>
-    <col min="14853" max="14854" width="8.5" style="44" customWidth="1"/>
-    <col min="14855" max="14855" width="7.375" style="44" customWidth="1"/>
-    <col min="14856" max="14857" width="7.75" style="44" customWidth="1"/>
-    <col min="14858" max="14859" width="7.625" style="44" customWidth="1"/>
-    <col min="14860" max="14860" width="5.625" style="44" customWidth="1"/>
-    <col min="14861" max="14861" width="9.625" style="44" customWidth="1"/>
-    <col min="14862" max="14865" width="5.125" style="44" customWidth="1"/>
-    <col min="14866" max="14866" width="2.625" style="44" customWidth="1"/>
-    <col min="14867" max="15104" width="9" style="44"/>
-    <col min="15105" max="15105" width="3.5" style="44" customWidth="1"/>
-    <col min="15106" max="15106" width="5.625" style="44" customWidth="1"/>
-    <col min="15107" max="15108" width="6" style="44" customWidth="1"/>
-    <col min="15109" max="15110" width="8.5" style="44" customWidth="1"/>
-    <col min="15111" max="15111" width="7.375" style="44" customWidth="1"/>
-    <col min="15112" max="15113" width="7.75" style="44" customWidth="1"/>
-    <col min="15114" max="15115" width="7.625" style="44" customWidth="1"/>
-    <col min="15116" max="15116" width="5.625" style="44" customWidth="1"/>
-    <col min="15117" max="15117" width="9.625" style="44" customWidth="1"/>
-    <col min="15118" max="15121" width="5.125" style="44" customWidth="1"/>
-    <col min="15122" max="15122" width="2.625" style="44" customWidth="1"/>
-    <col min="15123" max="15360" width="9" style="44"/>
-    <col min="15361" max="15361" width="3.5" style="44" customWidth="1"/>
-    <col min="15362" max="15362" width="5.625" style="44" customWidth="1"/>
-    <col min="15363" max="15364" width="6" style="44" customWidth="1"/>
-    <col min="15365" max="15366" width="8.5" style="44" customWidth="1"/>
-    <col min="15367" max="15367" width="7.375" style="44" customWidth="1"/>
-    <col min="15368" max="15369" width="7.75" style="44" customWidth="1"/>
-    <col min="15370" max="15371" width="7.625" style="44" customWidth="1"/>
-    <col min="15372" max="15372" width="5.625" style="44" customWidth="1"/>
-    <col min="15373" max="15373" width="9.625" style="44" customWidth="1"/>
-    <col min="15374" max="15377" width="5.125" style="44" customWidth="1"/>
-    <col min="15378" max="15378" width="2.625" style="44" customWidth="1"/>
-    <col min="15379" max="15616" width="9" style="44"/>
-    <col min="15617" max="15617" width="3.5" style="44" customWidth="1"/>
-    <col min="15618" max="15618" width="5.625" style="44" customWidth="1"/>
-    <col min="15619" max="15620" width="6" style="44" customWidth="1"/>
-    <col min="15621" max="15622" width="8.5" style="44" customWidth="1"/>
-    <col min="15623" max="15623" width="7.375" style="44" customWidth="1"/>
-    <col min="15624" max="15625" width="7.75" style="44" customWidth="1"/>
-    <col min="15626" max="15627" width="7.625" style="44" customWidth="1"/>
-    <col min="15628" max="15628" width="5.625" style="44" customWidth="1"/>
-    <col min="15629" max="15629" width="9.625" style="44" customWidth="1"/>
-    <col min="15630" max="15633" width="5.125" style="44" customWidth="1"/>
-    <col min="15634" max="15634" width="2.625" style="44" customWidth="1"/>
-    <col min="15635" max="15872" width="9" style="44"/>
-    <col min="15873" max="15873" width="3.5" style="44" customWidth="1"/>
-    <col min="15874" max="15874" width="5.625" style="44" customWidth="1"/>
-    <col min="15875" max="15876" width="6" style="44" customWidth="1"/>
-    <col min="15877" max="15878" width="8.5" style="44" customWidth="1"/>
-    <col min="15879" max="15879" width="7.375" style="44" customWidth="1"/>
-    <col min="15880" max="15881" width="7.75" style="44" customWidth="1"/>
-    <col min="15882" max="15883" width="7.625" style="44" customWidth="1"/>
-    <col min="15884" max="15884" width="5.625" style="44" customWidth="1"/>
-    <col min="15885" max="15885" width="9.625" style="44" customWidth="1"/>
-    <col min="15886" max="15889" width="5.125" style="44" customWidth="1"/>
-    <col min="15890" max="15890" width="2.625" style="44" customWidth="1"/>
-    <col min="15891" max="16128" width="9" style="44"/>
-    <col min="16129" max="16129" width="3.5" style="44" customWidth="1"/>
-    <col min="16130" max="16130" width="5.625" style="44" customWidth="1"/>
-    <col min="16131" max="16132" width="6" style="44" customWidth="1"/>
-    <col min="16133" max="16134" width="8.5" style="44" customWidth="1"/>
-    <col min="16135" max="16135" width="7.375" style="44" customWidth="1"/>
-    <col min="16136" max="16137" width="7.75" style="44" customWidth="1"/>
-    <col min="16138" max="16139" width="7.625" style="44" customWidth="1"/>
-    <col min="16140" max="16140" width="5.625" style="44" customWidth="1"/>
-    <col min="16141" max="16141" width="9.625" style="44" customWidth="1"/>
-    <col min="16142" max="16145" width="5.125" style="44" customWidth="1"/>
-    <col min="16146" max="16146" width="2.625" style="44" customWidth="1"/>
-    <col min="16147" max="16384" width="9" style="44"/>
+    <col min="1" max="1" width="3.5" style="43" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="43" customWidth="1"/>
+    <col min="3" max="4" width="6" style="43" customWidth="1"/>
+    <col min="5" max="6" width="8.5" style="43" customWidth="1"/>
+    <col min="7" max="7" width="7.375" style="43" customWidth="1"/>
+    <col min="8" max="9" width="7.75" style="43" customWidth="1"/>
+    <col min="10" max="11" width="7.625" style="43" customWidth="1"/>
+    <col min="12" max="12" width="5.625" style="43" customWidth="1"/>
+    <col min="13" max="13" width="9.625" style="43" customWidth="1"/>
+    <col min="14" max="17" width="5.125" style="43" customWidth="1"/>
+    <col min="18" max="18" width="2.625" style="43" customWidth="1"/>
+    <col min="19" max="19" width="3" style="43" customWidth="1"/>
+    <col min="20" max="256" width="9" style="43"/>
+    <col min="257" max="257" width="3.5" style="43" customWidth="1"/>
+    <col min="258" max="258" width="5.625" style="43" customWidth="1"/>
+    <col min="259" max="260" width="6" style="43" customWidth="1"/>
+    <col min="261" max="262" width="8.5" style="43" customWidth="1"/>
+    <col min="263" max="263" width="7.375" style="43" customWidth="1"/>
+    <col min="264" max="265" width="7.75" style="43" customWidth="1"/>
+    <col min="266" max="267" width="7.625" style="43" customWidth="1"/>
+    <col min="268" max="268" width="5.625" style="43" customWidth="1"/>
+    <col min="269" max="269" width="9.625" style="43" customWidth="1"/>
+    <col min="270" max="273" width="5.125" style="43" customWidth="1"/>
+    <col min="274" max="274" width="2.625" style="43" customWidth="1"/>
+    <col min="275" max="512" width="9" style="43"/>
+    <col min="513" max="513" width="3.5" style="43" customWidth="1"/>
+    <col min="514" max="514" width="5.625" style="43" customWidth="1"/>
+    <col min="515" max="516" width="6" style="43" customWidth="1"/>
+    <col min="517" max="518" width="8.5" style="43" customWidth="1"/>
+    <col min="519" max="519" width="7.375" style="43" customWidth="1"/>
+    <col min="520" max="521" width="7.75" style="43" customWidth="1"/>
+    <col min="522" max="523" width="7.625" style="43" customWidth="1"/>
+    <col min="524" max="524" width="5.625" style="43" customWidth="1"/>
+    <col min="525" max="525" width="9.625" style="43" customWidth="1"/>
+    <col min="526" max="529" width="5.125" style="43" customWidth="1"/>
+    <col min="530" max="530" width="2.625" style="43" customWidth="1"/>
+    <col min="531" max="768" width="9" style="43"/>
+    <col min="769" max="769" width="3.5" style="43" customWidth="1"/>
+    <col min="770" max="770" width="5.625" style="43" customWidth="1"/>
+    <col min="771" max="772" width="6" style="43" customWidth="1"/>
+    <col min="773" max="774" width="8.5" style="43" customWidth="1"/>
+    <col min="775" max="775" width="7.375" style="43" customWidth="1"/>
+    <col min="776" max="777" width="7.75" style="43" customWidth="1"/>
+    <col min="778" max="779" width="7.625" style="43" customWidth="1"/>
+    <col min="780" max="780" width="5.625" style="43" customWidth="1"/>
+    <col min="781" max="781" width="9.625" style="43" customWidth="1"/>
+    <col min="782" max="785" width="5.125" style="43" customWidth="1"/>
+    <col min="786" max="786" width="2.625" style="43" customWidth="1"/>
+    <col min="787" max="1024" width="9" style="43"/>
+    <col min="1025" max="1025" width="3.5" style="43" customWidth="1"/>
+    <col min="1026" max="1026" width="5.625" style="43" customWidth="1"/>
+    <col min="1027" max="1028" width="6" style="43" customWidth="1"/>
+    <col min="1029" max="1030" width="8.5" style="43" customWidth="1"/>
+    <col min="1031" max="1031" width="7.375" style="43" customWidth="1"/>
+    <col min="1032" max="1033" width="7.75" style="43" customWidth="1"/>
+    <col min="1034" max="1035" width="7.625" style="43" customWidth="1"/>
+    <col min="1036" max="1036" width="5.625" style="43" customWidth="1"/>
+    <col min="1037" max="1037" width="9.625" style="43" customWidth="1"/>
+    <col min="1038" max="1041" width="5.125" style="43" customWidth="1"/>
+    <col min="1042" max="1042" width="2.625" style="43" customWidth="1"/>
+    <col min="1043" max="1280" width="9" style="43"/>
+    <col min="1281" max="1281" width="3.5" style="43" customWidth="1"/>
+    <col min="1282" max="1282" width="5.625" style="43" customWidth="1"/>
+    <col min="1283" max="1284" width="6" style="43" customWidth="1"/>
+    <col min="1285" max="1286" width="8.5" style="43" customWidth="1"/>
+    <col min="1287" max="1287" width="7.375" style="43" customWidth="1"/>
+    <col min="1288" max="1289" width="7.75" style="43" customWidth="1"/>
+    <col min="1290" max="1291" width="7.625" style="43" customWidth="1"/>
+    <col min="1292" max="1292" width="5.625" style="43" customWidth="1"/>
+    <col min="1293" max="1293" width="9.625" style="43" customWidth="1"/>
+    <col min="1294" max="1297" width="5.125" style="43" customWidth="1"/>
+    <col min="1298" max="1298" width="2.625" style="43" customWidth="1"/>
+    <col min="1299" max="1536" width="9" style="43"/>
+    <col min="1537" max="1537" width="3.5" style="43" customWidth="1"/>
+    <col min="1538" max="1538" width="5.625" style="43" customWidth="1"/>
+    <col min="1539" max="1540" width="6" style="43" customWidth="1"/>
+    <col min="1541" max="1542" width="8.5" style="43" customWidth="1"/>
+    <col min="1543" max="1543" width="7.375" style="43" customWidth="1"/>
+    <col min="1544" max="1545" width="7.75" style="43" customWidth="1"/>
+    <col min="1546" max="1547" width="7.625" style="43" customWidth="1"/>
+    <col min="1548" max="1548" width="5.625" style="43" customWidth="1"/>
+    <col min="1549" max="1549" width="9.625" style="43" customWidth="1"/>
+    <col min="1550" max="1553" width="5.125" style="43" customWidth="1"/>
+    <col min="1554" max="1554" width="2.625" style="43" customWidth="1"/>
+    <col min="1555" max="1792" width="9" style="43"/>
+    <col min="1793" max="1793" width="3.5" style="43" customWidth="1"/>
+    <col min="1794" max="1794" width="5.625" style="43" customWidth="1"/>
+    <col min="1795" max="1796" width="6" style="43" customWidth="1"/>
+    <col min="1797" max="1798" width="8.5" style="43" customWidth="1"/>
+    <col min="1799" max="1799" width="7.375" style="43" customWidth="1"/>
+    <col min="1800" max="1801" width="7.75" style="43" customWidth="1"/>
+    <col min="1802" max="1803" width="7.625" style="43" customWidth="1"/>
+    <col min="1804" max="1804" width="5.625" style="43" customWidth="1"/>
+    <col min="1805" max="1805" width="9.625" style="43" customWidth="1"/>
+    <col min="1806" max="1809" width="5.125" style="43" customWidth="1"/>
+    <col min="1810" max="1810" width="2.625" style="43" customWidth="1"/>
+    <col min="1811" max="2048" width="9" style="43"/>
+    <col min="2049" max="2049" width="3.5" style="43" customWidth="1"/>
+    <col min="2050" max="2050" width="5.625" style="43" customWidth="1"/>
+    <col min="2051" max="2052" width="6" style="43" customWidth="1"/>
+    <col min="2053" max="2054" width="8.5" style="43" customWidth="1"/>
+    <col min="2055" max="2055" width="7.375" style="43" customWidth="1"/>
+    <col min="2056" max="2057" width="7.75" style="43" customWidth="1"/>
+    <col min="2058" max="2059" width="7.625" style="43" customWidth="1"/>
+    <col min="2060" max="2060" width="5.625" style="43" customWidth="1"/>
+    <col min="2061" max="2061" width="9.625" style="43" customWidth="1"/>
+    <col min="2062" max="2065" width="5.125" style="43" customWidth="1"/>
+    <col min="2066" max="2066" width="2.625" style="43" customWidth="1"/>
+    <col min="2067" max="2304" width="9" style="43"/>
+    <col min="2305" max="2305" width="3.5" style="43" customWidth="1"/>
+    <col min="2306" max="2306" width="5.625" style="43" customWidth="1"/>
+    <col min="2307" max="2308" width="6" style="43" customWidth="1"/>
+    <col min="2309" max="2310" width="8.5" style="43" customWidth="1"/>
+    <col min="2311" max="2311" width="7.375" style="43" customWidth="1"/>
+    <col min="2312" max="2313" width="7.75" style="43" customWidth="1"/>
+    <col min="2314" max="2315" width="7.625" style="43" customWidth="1"/>
+    <col min="2316" max="2316" width="5.625" style="43" customWidth="1"/>
+    <col min="2317" max="2317" width="9.625" style="43" customWidth="1"/>
+    <col min="2318" max="2321" width="5.125" style="43" customWidth="1"/>
+    <col min="2322" max="2322" width="2.625" style="43" customWidth="1"/>
+    <col min="2323" max="2560" width="9" style="43"/>
+    <col min="2561" max="2561" width="3.5" style="43" customWidth="1"/>
+    <col min="2562" max="2562" width="5.625" style="43" customWidth="1"/>
+    <col min="2563" max="2564" width="6" style="43" customWidth="1"/>
+    <col min="2565" max="2566" width="8.5" style="43" customWidth="1"/>
+    <col min="2567" max="2567" width="7.375" style="43" customWidth="1"/>
+    <col min="2568" max="2569" width="7.75" style="43" customWidth="1"/>
+    <col min="2570" max="2571" width="7.625" style="43" customWidth="1"/>
+    <col min="2572" max="2572" width="5.625" style="43" customWidth="1"/>
+    <col min="2573" max="2573" width="9.625" style="43" customWidth="1"/>
+    <col min="2574" max="2577" width="5.125" style="43" customWidth="1"/>
+    <col min="2578" max="2578" width="2.625" style="43" customWidth="1"/>
+    <col min="2579" max="2816" width="9" style="43"/>
+    <col min="2817" max="2817" width="3.5" style="43" customWidth="1"/>
+    <col min="2818" max="2818" width="5.625" style="43" customWidth="1"/>
+    <col min="2819" max="2820" width="6" style="43" customWidth="1"/>
+    <col min="2821" max="2822" width="8.5" style="43" customWidth="1"/>
+    <col min="2823" max="2823" width="7.375" style="43" customWidth="1"/>
+    <col min="2824" max="2825" width="7.75" style="43" customWidth="1"/>
+    <col min="2826" max="2827" width="7.625" style="43" customWidth="1"/>
+    <col min="2828" max="2828" width="5.625" style="43" customWidth="1"/>
+    <col min="2829" max="2829" width="9.625" style="43" customWidth="1"/>
+    <col min="2830" max="2833" width="5.125" style="43" customWidth="1"/>
+    <col min="2834" max="2834" width="2.625" style="43" customWidth="1"/>
+    <col min="2835" max="3072" width="9" style="43"/>
+    <col min="3073" max="3073" width="3.5" style="43" customWidth="1"/>
+    <col min="3074" max="3074" width="5.625" style="43" customWidth="1"/>
+    <col min="3075" max="3076" width="6" style="43" customWidth="1"/>
+    <col min="3077" max="3078" width="8.5" style="43" customWidth="1"/>
+    <col min="3079" max="3079" width="7.375" style="43" customWidth="1"/>
+    <col min="3080" max="3081" width="7.75" style="43" customWidth="1"/>
+    <col min="3082" max="3083" width="7.625" style="43" customWidth="1"/>
+    <col min="3084" max="3084" width="5.625" style="43" customWidth="1"/>
+    <col min="3085" max="3085" width="9.625" style="43" customWidth="1"/>
+    <col min="3086" max="3089" width="5.125" style="43" customWidth="1"/>
+    <col min="3090" max="3090" width="2.625" style="43" customWidth="1"/>
+    <col min="3091" max="3328" width="9" style="43"/>
+    <col min="3329" max="3329" width="3.5" style="43" customWidth="1"/>
+    <col min="3330" max="3330" width="5.625" style="43" customWidth="1"/>
+    <col min="3331" max="3332" width="6" style="43" customWidth="1"/>
+    <col min="3333" max="3334" width="8.5" style="43" customWidth="1"/>
+    <col min="3335" max="3335" width="7.375" style="43" customWidth="1"/>
+    <col min="3336" max="3337" width="7.75" style="43" customWidth="1"/>
+    <col min="3338" max="3339" width="7.625" style="43" customWidth="1"/>
+    <col min="3340" max="3340" width="5.625" style="43" customWidth="1"/>
+    <col min="3341" max="3341" width="9.625" style="43" customWidth="1"/>
+    <col min="3342" max="3345" width="5.125" style="43" customWidth="1"/>
+    <col min="3346" max="3346" width="2.625" style="43" customWidth="1"/>
+    <col min="3347" max="3584" width="9" style="43"/>
+    <col min="3585" max="3585" width="3.5" style="43" customWidth="1"/>
+    <col min="3586" max="3586" width="5.625" style="43" customWidth="1"/>
+    <col min="3587" max="3588" width="6" style="43" customWidth="1"/>
+    <col min="3589" max="3590" width="8.5" style="43" customWidth="1"/>
+    <col min="3591" max="3591" width="7.375" style="43" customWidth="1"/>
+    <col min="3592" max="3593" width="7.75" style="43" customWidth="1"/>
+    <col min="3594" max="3595" width="7.625" style="43" customWidth="1"/>
+    <col min="3596" max="3596" width="5.625" style="43" customWidth="1"/>
+    <col min="3597" max="3597" width="9.625" style="43" customWidth="1"/>
+    <col min="3598" max="3601" width="5.125" style="43" customWidth="1"/>
+    <col min="3602" max="3602" width="2.625" style="43" customWidth="1"/>
+    <col min="3603" max="3840" width="9" style="43"/>
+    <col min="3841" max="3841" width="3.5" style="43" customWidth="1"/>
+    <col min="3842" max="3842" width="5.625" style="43" customWidth="1"/>
+    <col min="3843" max="3844" width="6" style="43" customWidth="1"/>
+    <col min="3845" max="3846" width="8.5" style="43" customWidth="1"/>
+    <col min="3847" max="3847" width="7.375" style="43" customWidth="1"/>
+    <col min="3848" max="3849" width="7.75" style="43" customWidth="1"/>
+    <col min="3850" max="3851" width="7.625" style="43" customWidth="1"/>
+    <col min="3852" max="3852" width="5.625" style="43" customWidth="1"/>
+    <col min="3853" max="3853" width="9.625" style="43" customWidth="1"/>
+    <col min="3854" max="3857" width="5.125" style="43" customWidth="1"/>
+    <col min="3858" max="3858" width="2.625" style="43" customWidth="1"/>
+    <col min="3859" max="4096" width="9" style="43"/>
+    <col min="4097" max="4097" width="3.5" style="43" customWidth="1"/>
+    <col min="4098" max="4098" width="5.625" style="43" customWidth="1"/>
+    <col min="4099" max="4100" width="6" style="43" customWidth="1"/>
+    <col min="4101" max="4102" width="8.5" style="43" customWidth="1"/>
+    <col min="4103" max="4103" width="7.375" style="43" customWidth="1"/>
+    <col min="4104" max="4105" width="7.75" style="43" customWidth="1"/>
+    <col min="4106" max="4107" width="7.625" style="43" customWidth="1"/>
+    <col min="4108" max="4108" width="5.625" style="43" customWidth="1"/>
+    <col min="4109" max="4109" width="9.625" style="43" customWidth="1"/>
+    <col min="4110" max="4113" width="5.125" style="43" customWidth="1"/>
+    <col min="4114" max="4114" width="2.625" style="43" customWidth="1"/>
+    <col min="4115" max="4352" width="9" style="43"/>
+    <col min="4353" max="4353" width="3.5" style="43" customWidth="1"/>
+    <col min="4354" max="4354" width="5.625" style="43" customWidth="1"/>
+    <col min="4355" max="4356" width="6" style="43" customWidth="1"/>
+    <col min="4357" max="4358" width="8.5" style="43" customWidth="1"/>
+    <col min="4359" max="4359" width="7.375" style="43" customWidth="1"/>
+    <col min="4360" max="4361" width="7.75" style="43" customWidth="1"/>
+    <col min="4362" max="4363" width="7.625" style="43" customWidth="1"/>
+    <col min="4364" max="4364" width="5.625" style="43" customWidth="1"/>
+    <col min="4365" max="4365" width="9.625" style="43" customWidth="1"/>
+    <col min="4366" max="4369" width="5.125" style="43" customWidth="1"/>
+    <col min="4370" max="4370" width="2.625" style="43" customWidth="1"/>
+    <col min="4371" max="4608" width="9" style="43"/>
+    <col min="4609" max="4609" width="3.5" style="43" customWidth="1"/>
+    <col min="4610" max="4610" width="5.625" style="43" customWidth="1"/>
+    <col min="4611" max="4612" width="6" style="43" customWidth="1"/>
+    <col min="4613" max="4614" width="8.5" style="43" customWidth="1"/>
+    <col min="4615" max="4615" width="7.375" style="43" customWidth="1"/>
+    <col min="4616" max="4617" width="7.75" style="43" customWidth="1"/>
+    <col min="4618" max="4619" width="7.625" style="43" customWidth="1"/>
+    <col min="4620" max="4620" width="5.625" style="43" customWidth="1"/>
+    <col min="4621" max="4621" width="9.625" style="43" customWidth="1"/>
+    <col min="4622" max="4625" width="5.125" style="43" customWidth="1"/>
+    <col min="4626" max="4626" width="2.625" style="43" customWidth="1"/>
+    <col min="4627" max="4864" width="9" style="43"/>
+    <col min="4865" max="4865" width="3.5" style="43" customWidth="1"/>
+    <col min="4866" max="4866" width="5.625" style="43" customWidth="1"/>
+    <col min="4867" max="4868" width="6" style="43" customWidth="1"/>
+    <col min="4869" max="4870" width="8.5" style="43" customWidth="1"/>
+    <col min="4871" max="4871" width="7.375" style="43" customWidth="1"/>
+    <col min="4872" max="4873" width="7.75" style="43" customWidth="1"/>
+    <col min="4874" max="4875" width="7.625" style="43" customWidth="1"/>
+    <col min="4876" max="4876" width="5.625" style="43" customWidth="1"/>
+    <col min="4877" max="4877" width="9.625" style="43" customWidth="1"/>
+    <col min="4878" max="4881" width="5.125" style="43" customWidth="1"/>
+    <col min="4882" max="4882" width="2.625" style="43" customWidth="1"/>
+    <col min="4883" max="5120" width="9" style="43"/>
+    <col min="5121" max="5121" width="3.5" style="43" customWidth="1"/>
+    <col min="5122" max="5122" width="5.625" style="43" customWidth="1"/>
+    <col min="5123" max="5124" width="6" style="43" customWidth="1"/>
+    <col min="5125" max="5126" width="8.5" style="43" customWidth="1"/>
+    <col min="5127" max="5127" width="7.375" style="43" customWidth="1"/>
+    <col min="5128" max="5129" width="7.75" style="43" customWidth="1"/>
+    <col min="5130" max="5131" width="7.625" style="43" customWidth="1"/>
+    <col min="5132" max="5132" width="5.625" style="43" customWidth="1"/>
+    <col min="5133" max="5133" width="9.625" style="43" customWidth="1"/>
+    <col min="5134" max="5137" width="5.125" style="43" customWidth="1"/>
+    <col min="5138" max="5138" width="2.625" style="43" customWidth="1"/>
+    <col min="5139" max="5376" width="9" style="43"/>
+    <col min="5377" max="5377" width="3.5" style="43" customWidth="1"/>
+    <col min="5378" max="5378" width="5.625" style="43" customWidth="1"/>
+    <col min="5379" max="5380" width="6" style="43" customWidth="1"/>
+    <col min="5381" max="5382" width="8.5" style="43" customWidth="1"/>
+    <col min="5383" max="5383" width="7.375" style="43" customWidth="1"/>
+    <col min="5384" max="5385" width="7.75" style="43" customWidth="1"/>
+    <col min="5386" max="5387" width="7.625" style="43" customWidth="1"/>
+    <col min="5388" max="5388" width="5.625" style="43" customWidth="1"/>
+    <col min="5389" max="5389" width="9.625" style="43" customWidth="1"/>
+    <col min="5390" max="5393" width="5.125" style="43" customWidth="1"/>
+    <col min="5394" max="5394" width="2.625" style="43" customWidth="1"/>
+    <col min="5395" max="5632" width="9" style="43"/>
+    <col min="5633" max="5633" width="3.5" style="43" customWidth="1"/>
+    <col min="5634" max="5634" width="5.625" style="43" customWidth="1"/>
+    <col min="5635" max="5636" width="6" style="43" customWidth="1"/>
+    <col min="5637" max="5638" width="8.5" style="43" customWidth="1"/>
+    <col min="5639" max="5639" width="7.375" style="43" customWidth="1"/>
+    <col min="5640" max="5641" width="7.75" style="43" customWidth="1"/>
+    <col min="5642" max="5643" width="7.625" style="43" customWidth="1"/>
+    <col min="5644" max="5644" width="5.625" style="43" customWidth="1"/>
+    <col min="5645" max="5645" width="9.625" style="43" customWidth="1"/>
+    <col min="5646" max="5649" width="5.125" style="43" customWidth="1"/>
+    <col min="5650" max="5650" width="2.625" style="43" customWidth="1"/>
+    <col min="5651" max="5888" width="9" style="43"/>
+    <col min="5889" max="5889" width="3.5" style="43" customWidth="1"/>
+    <col min="5890" max="5890" width="5.625" style="43" customWidth="1"/>
+    <col min="5891" max="5892" width="6" style="43" customWidth="1"/>
+    <col min="5893" max="5894" width="8.5" style="43" customWidth="1"/>
+    <col min="5895" max="5895" width="7.375" style="43" customWidth="1"/>
+    <col min="5896" max="5897" width="7.75" style="43" customWidth="1"/>
+    <col min="5898" max="5899" width="7.625" style="43" customWidth="1"/>
+    <col min="5900" max="5900" width="5.625" style="43" customWidth="1"/>
+    <col min="5901" max="5901" width="9.625" style="43" customWidth="1"/>
+    <col min="5902" max="5905" width="5.125" style="43" customWidth="1"/>
+    <col min="5906" max="5906" width="2.625" style="43" customWidth="1"/>
+    <col min="5907" max="6144" width="9" style="43"/>
+    <col min="6145" max="6145" width="3.5" style="43" customWidth="1"/>
+    <col min="6146" max="6146" width="5.625" style="43" customWidth="1"/>
+    <col min="6147" max="6148" width="6" style="43" customWidth="1"/>
+    <col min="6149" max="6150" width="8.5" style="43" customWidth="1"/>
+    <col min="6151" max="6151" width="7.375" style="43" customWidth="1"/>
+    <col min="6152" max="6153" width="7.75" style="43" customWidth="1"/>
+    <col min="6154" max="6155" width="7.625" style="43" customWidth="1"/>
+    <col min="6156" max="6156" width="5.625" style="43" customWidth="1"/>
+    <col min="6157" max="6157" width="9.625" style="43" customWidth="1"/>
+    <col min="6158" max="6161" width="5.125" style="43" customWidth="1"/>
+    <col min="6162" max="6162" width="2.625" style="43" customWidth="1"/>
+    <col min="6163" max="6400" width="9" style="43"/>
+    <col min="6401" max="6401" width="3.5" style="43" customWidth="1"/>
+    <col min="6402" max="6402" width="5.625" style="43" customWidth="1"/>
+    <col min="6403" max="6404" width="6" style="43" customWidth="1"/>
+    <col min="6405" max="6406" width="8.5" style="43" customWidth="1"/>
+    <col min="6407" max="6407" width="7.375" style="43" customWidth="1"/>
+    <col min="6408" max="6409" width="7.75" style="43" customWidth="1"/>
+    <col min="6410" max="6411" width="7.625" style="43" customWidth="1"/>
+    <col min="6412" max="6412" width="5.625" style="43" customWidth="1"/>
+    <col min="6413" max="6413" width="9.625" style="43" customWidth="1"/>
+    <col min="6414" max="6417" width="5.125" style="43" customWidth="1"/>
+    <col min="6418" max="6418" width="2.625" style="43" customWidth="1"/>
+    <col min="6419" max="6656" width="9" style="43"/>
+    <col min="6657" max="6657" width="3.5" style="43" customWidth="1"/>
+    <col min="6658" max="6658" width="5.625" style="43" customWidth="1"/>
+    <col min="6659" max="6660" width="6" style="43" customWidth="1"/>
+    <col min="6661" max="6662" width="8.5" style="43" customWidth="1"/>
+    <col min="6663" max="6663" width="7.375" style="43" customWidth="1"/>
+    <col min="6664" max="6665" width="7.75" style="43" customWidth="1"/>
+    <col min="6666" max="6667" width="7.625" style="43" customWidth="1"/>
+    <col min="6668" max="6668" width="5.625" style="43" customWidth="1"/>
+    <col min="6669" max="6669" width="9.625" style="43" customWidth="1"/>
+    <col min="6670" max="6673" width="5.125" style="43" customWidth="1"/>
+    <col min="6674" max="6674" width="2.625" style="43" customWidth="1"/>
+    <col min="6675" max="6912" width="9" style="43"/>
+    <col min="6913" max="6913" width="3.5" style="43" customWidth="1"/>
+    <col min="6914" max="6914" width="5.625" style="43" customWidth="1"/>
+    <col min="6915" max="6916" width="6" style="43" customWidth="1"/>
+    <col min="6917" max="6918" width="8.5" style="43" customWidth="1"/>
+    <col min="6919" max="6919" width="7.375" style="43" customWidth="1"/>
+    <col min="6920" max="6921" width="7.75" style="43" customWidth="1"/>
+    <col min="6922" max="6923" width="7.625" style="43" customWidth="1"/>
+    <col min="6924" max="6924" width="5.625" style="43" customWidth="1"/>
+    <col min="6925" max="6925" width="9.625" style="43" customWidth="1"/>
+    <col min="6926" max="6929" width="5.125" style="43" customWidth="1"/>
+    <col min="6930" max="6930" width="2.625" style="43" customWidth="1"/>
+    <col min="6931" max="7168" width="9" style="43"/>
+    <col min="7169" max="7169" width="3.5" style="43" customWidth="1"/>
+    <col min="7170" max="7170" width="5.625" style="43" customWidth="1"/>
+    <col min="7171" max="7172" width="6" style="43" customWidth="1"/>
+    <col min="7173" max="7174" width="8.5" style="43" customWidth="1"/>
+    <col min="7175" max="7175" width="7.375" style="43" customWidth="1"/>
+    <col min="7176" max="7177" width="7.75" style="43" customWidth="1"/>
+    <col min="7178" max="7179" width="7.625" style="43" customWidth="1"/>
+    <col min="7180" max="7180" width="5.625" style="43" customWidth="1"/>
+    <col min="7181" max="7181" width="9.625" style="43" customWidth="1"/>
+    <col min="7182" max="7185" width="5.125" style="43" customWidth="1"/>
+    <col min="7186" max="7186" width="2.625" style="43" customWidth="1"/>
+    <col min="7187" max="7424" width="9" style="43"/>
+    <col min="7425" max="7425" width="3.5" style="43" customWidth="1"/>
+    <col min="7426" max="7426" width="5.625" style="43" customWidth="1"/>
+    <col min="7427" max="7428" width="6" style="43" customWidth="1"/>
+    <col min="7429" max="7430" width="8.5" style="43" customWidth="1"/>
+    <col min="7431" max="7431" width="7.375" style="43" customWidth="1"/>
+    <col min="7432" max="7433" width="7.75" style="43" customWidth="1"/>
+    <col min="7434" max="7435" width="7.625" style="43" customWidth="1"/>
+    <col min="7436" max="7436" width="5.625" style="43" customWidth="1"/>
+    <col min="7437" max="7437" width="9.625" style="43" customWidth="1"/>
+    <col min="7438" max="7441" width="5.125" style="43" customWidth="1"/>
+    <col min="7442" max="7442" width="2.625" style="43" customWidth="1"/>
+    <col min="7443" max="7680" width="9" style="43"/>
+    <col min="7681" max="7681" width="3.5" style="43" customWidth="1"/>
+    <col min="7682" max="7682" width="5.625" style="43" customWidth="1"/>
+    <col min="7683" max="7684" width="6" style="43" customWidth="1"/>
+    <col min="7685" max="7686" width="8.5" style="43" customWidth="1"/>
+    <col min="7687" max="7687" width="7.375" style="43" customWidth="1"/>
+    <col min="7688" max="7689" width="7.75" style="43" customWidth="1"/>
+    <col min="7690" max="7691" width="7.625" style="43" customWidth="1"/>
+    <col min="7692" max="7692" width="5.625" style="43" customWidth="1"/>
+    <col min="7693" max="7693" width="9.625" style="43" customWidth="1"/>
+    <col min="7694" max="7697" width="5.125" style="43" customWidth="1"/>
+    <col min="7698" max="7698" width="2.625" style="43" customWidth="1"/>
+    <col min="7699" max="7936" width="9" style="43"/>
+    <col min="7937" max="7937" width="3.5" style="43" customWidth="1"/>
+    <col min="7938" max="7938" width="5.625" style="43" customWidth="1"/>
+    <col min="7939" max="7940" width="6" style="43" customWidth="1"/>
+    <col min="7941" max="7942" width="8.5" style="43" customWidth="1"/>
+    <col min="7943" max="7943" width="7.375" style="43" customWidth="1"/>
+    <col min="7944" max="7945" width="7.75" style="43" customWidth="1"/>
+    <col min="7946" max="7947" width="7.625" style="43" customWidth="1"/>
+    <col min="7948" max="7948" width="5.625" style="43" customWidth="1"/>
+    <col min="7949" max="7949" width="9.625" style="43" customWidth="1"/>
+    <col min="7950" max="7953" width="5.125" style="43" customWidth="1"/>
+    <col min="7954" max="7954" width="2.625" style="43" customWidth="1"/>
+    <col min="7955" max="8192" width="9" style="43"/>
+    <col min="8193" max="8193" width="3.5" style="43" customWidth="1"/>
+    <col min="8194" max="8194" width="5.625" style="43" customWidth="1"/>
+    <col min="8195" max="8196" width="6" style="43" customWidth="1"/>
+    <col min="8197" max="8198" width="8.5" style="43" customWidth="1"/>
+    <col min="8199" max="8199" width="7.375" style="43" customWidth="1"/>
+    <col min="8200" max="8201" width="7.75" style="43" customWidth="1"/>
+    <col min="8202" max="8203" width="7.625" style="43" customWidth="1"/>
+    <col min="8204" max="8204" width="5.625" style="43" customWidth="1"/>
+    <col min="8205" max="8205" width="9.625" style="43" customWidth="1"/>
+    <col min="8206" max="8209" width="5.125" style="43" customWidth="1"/>
+    <col min="8210" max="8210" width="2.625" style="43" customWidth="1"/>
+    <col min="8211" max="8448" width="9" style="43"/>
+    <col min="8449" max="8449" width="3.5" style="43" customWidth="1"/>
+    <col min="8450" max="8450" width="5.625" style="43" customWidth="1"/>
+    <col min="8451" max="8452" width="6" style="43" customWidth="1"/>
+    <col min="8453" max="8454" width="8.5" style="43" customWidth="1"/>
+    <col min="8455" max="8455" width="7.375" style="43" customWidth="1"/>
+    <col min="8456" max="8457" width="7.75" style="43" customWidth="1"/>
+    <col min="8458" max="8459" width="7.625" style="43" customWidth="1"/>
+    <col min="8460" max="8460" width="5.625" style="43" customWidth="1"/>
+    <col min="8461" max="8461" width="9.625" style="43" customWidth="1"/>
+    <col min="8462" max="8465" width="5.125" style="43" customWidth="1"/>
+    <col min="8466" max="8466" width="2.625" style="43" customWidth="1"/>
+    <col min="8467" max="8704" width="9" style="43"/>
+    <col min="8705" max="8705" width="3.5" style="43" customWidth="1"/>
+    <col min="8706" max="8706" width="5.625" style="43" customWidth="1"/>
+    <col min="8707" max="8708" width="6" style="43" customWidth="1"/>
+    <col min="8709" max="8710" width="8.5" style="43" customWidth="1"/>
+    <col min="8711" max="8711" width="7.375" style="43" customWidth="1"/>
+    <col min="8712" max="8713" width="7.75" style="43" customWidth="1"/>
+    <col min="8714" max="8715" width="7.625" style="43" customWidth="1"/>
+    <col min="8716" max="8716" width="5.625" style="43" customWidth="1"/>
+    <col min="8717" max="8717" width="9.625" style="43" customWidth="1"/>
+    <col min="8718" max="8721" width="5.125" style="43" customWidth="1"/>
+    <col min="8722" max="8722" width="2.625" style="43" customWidth="1"/>
+    <col min="8723" max="8960" width="9" style="43"/>
+    <col min="8961" max="8961" width="3.5" style="43" customWidth="1"/>
+    <col min="8962" max="8962" width="5.625" style="43" customWidth="1"/>
+    <col min="8963" max="8964" width="6" style="43" customWidth="1"/>
+    <col min="8965" max="8966" width="8.5" style="43" customWidth="1"/>
+    <col min="8967" max="8967" width="7.375" style="43" customWidth="1"/>
+    <col min="8968" max="8969" width="7.75" style="43" customWidth="1"/>
+    <col min="8970" max="8971" width="7.625" style="43" customWidth="1"/>
+    <col min="8972" max="8972" width="5.625" style="43" customWidth="1"/>
+    <col min="8973" max="8973" width="9.625" style="43" customWidth="1"/>
+    <col min="8974" max="8977" width="5.125" style="43" customWidth="1"/>
+    <col min="8978" max="8978" width="2.625" style="43" customWidth="1"/>
+    <col min="8979" max="9216" width="9" style="43"/>
+    <col min="9217" max="9217" width="3.5" style="43" customWidth="1"/>
+    <col min="9218" max="9218" width="5.625" style="43" customWidth="1"/>
+    <col min="9219" max="9220" width="6" style="43" customWidth="1"/>
+    <col min="9221" max="9222" width="8.5" style="43" customWidth="1"/>
+    <col min="9223" max="9223" width="7.375" style="43" customWidth="1"/>
+    <col min="9224" max="9225" width="7.75" style="43" customWidth="1"/>
+    <col min="9226" max="9227" width="7.625" style="43" customWidth="1"/>
+    <col min="9228" max="9228" width="5.625" style="43" customWidth="1"/>
+    <col min="9229" max="9229" width="9.625" style="43" customWidth="1"/>
+    <col min="9230" max="9233" width="5.125" style="43" customWidth="1"/>
+    <col min="9234" max="9234" width="2.625" style="43" customWidth="1"/>
+    <col min="9235" max="9472" width="9" style="43"/>
+    <col min="9473" max="9473" width="3.5" style="43" customWidth="1"/>
+    <col min="9474" max="9474" width="5.625" style="43" customWidth="1"/>
+    <col min="9475" max="9476" width="6" style="43" customWidth="1"/>
+    <col min="9477" max="9478" width="8.5" style="43" customWidth="1"/>
+    <col min="9479" max="9479" width="7.375" style="43" customWidth="1"/>
+    <col min="9480" max="9481" width="7.75" style="43" customWidth="1"/>
+    <col min="9482" max="9483" width="7.625" style="43" customWidth="1"/>
+    <col min="9484" max="9484" width="5.625" style="43" customWidth="1"/>
+    <col min="9485" max="9485" width="9.625" style="43" customWidth="1"/>
+    <col min="9486" max="9489" width="5.125" style="43" customWidth="1"/>
+    <col min="9490" max="9490" width="2.625" style="43" customWidth="1"/>
+    <col min="9491" max="9728" width="9" style="43"/>
+    <col min="9729" max="9729" width="3.5" style="43" customWidth="1"/>
+    <col min="9730" max="9730" width="5.625" style="43" customWidth="1"/>
+    <col min="9731" max="9732" width="6" style="43" customWidth="1"/>
+    <col min="9733" max="9734" width="8.5" style="43" customWidth="1"/>
+    <col min="9735" max="9735" width="7.375" style="43" customWidth="1"/>
+    <col min="9736" max="9737" width="7.75" style="43" customWidth="1"/>
+    <col min="9738" max="9739" width="7.625" style="43" customWidth="1"/>
+    <col min="9740" max="9740" width="5.625" style="43" customWidth="1"/>
+    <col min="9741" max="9741" width="9.625" style="43" customWidth="1"/>
+    <col min="9742" max="9745" width="5.125" style="43" customWidth="1"/>
+    <col min="9746" max="9746" width="2.625" style="43" customWidth="1"/>
+    <col min="9747" max="9984" width="9" style="43"/>
+    <col min="9985" max="9985" width="3.5" style="43" customWidth="1"/>
+    <col min="9986" max="9986" width="5.625" style="43" customWidth="1"/>
+    <col min="9987" max="9988" width="6" style="43" customWidth="1"/>
+    <col min="9989" max="9990" width="8.5" style="43" customWidth="1"/>
+    <col min="9991" max="9991" width="7.375" style="43" customWidth="1"/>
+    <col min="9992" max="9993" width="7.75" style="43" customWidth="1"/>
+    <col min="9994" max="9995" width="7.625" style="43" customWidth="1"/>
+    <col min="9996" max="9996" width="5.625" style="43" customWidth="1"/>
+    <col min="9997" max="9997" width="9.625" style="43" customWidth="1"/>
+    <col min="9998" max="10001" width="5.125" style="43" customWidth="1"/>
+    <col min="10002" max="10002" width="2.625" style="43" customWidth="1"/>
+    <col min="10003" max="10240" width="9" style="43"/>
+    <col min="10241" max="10241" width="3.5" style="43" customWidth="1"/>
+    <col min="10242" max="10242" width="5.625" style="43" customWidth="1"/>
+    <col min="10243" max="10244" width="6" style="43" customWidth="1"/>
+    <col min="10245" max="10246" width="8.5" style="43" customWidth="1"/>
+    <col min="10247" max="10247" width="7.375" style="43" customWidth="1"/>
+    <col min="10248" max="10249" width="7.75" style="43" customWidth="1"/>
+    <col min="10250" max="10251" width="7.625" style="43" customWidth="1"/>
+    <col min="10252" max="10252" width="5.625" style="43" customWidth="1"/>
+    <col min="10253" max="10253" width="9.625" style="43" customWidth="1"/>
+    <col min="10254" max="10257" width="5.125" style="43" customWidth="1"/>
+    <col min="10258" max="10258" width="2.625" style="43" customWidth="1"/>
+    <col min="10259" max="10496" width="9" style="43"/>
+    <col min="10497" max="10497" width="3.5" style="43" customWidth="1"/>
+    <col min="10498" max="10498" width="5.625" style="43" customWidth="1"/>
+    <col min="10499" max="10500" width="6" style="43" customWidth="1"/>
+    <col min="10501" max="10502" width="8.5" style="43" customWidth="1"/>
+    <col min="10503" max="10503" width="7.375" style="43" customWidth="1"/>
+    <col min="10504" max="10505" width="7.75" style="43" customWidth="1"/>
+    <col min="10506" max="10507" width="7.625" style="43" customWidth="1"/>
+    <col min="10508" max="10508" width="5.625" style="43" customWidth="1"/>
+    <col min="10509" max="10509" width="9.625" style="43" customWidth="1"/>
+    <col min="10510" max="10513" width="5.125" style="43" customWidth="1"/>
+    <col min="10514" max="10514" width="2.625" style="43" customWidth="1"/>
+    <col min="10515" max="10752" width="9" style="43"/>
+    <col min="10753" max="10753" width="3.5" style="43" customWidth="1"/>
+    <col min="10754" max="10754" width="5.625" style="43" customWidth="1"/>
+    <col min="10755" max="10756" width="6" style="43" customWidth="1"/>
+    <col min="10757" max="10758" width="8.5" style="43" customWidth="1"/>
+    <col min="10759" max="10759" width="7.375" style="43" customWidth="1"/>
+    <col min="10760" max="10761" width="7.75" style="43" customWidth="1"/>
+    <col min="10762" max="10763" width="7.625" style="43" customWidth="1"/>
+    <col min="10764" max="10764" width="5.625" style="43" customWidth="1"/>
+    <col min="10765" max="10765" width="9.625" style="43" customWidth="1"/>
+    <col min="10766" max="10769" width="5.125" style="43" customWidth="1"/>
+    <col min="10770" max="10770" width="2.625" style="43" customWidth="1"/>
+    <col min="10771" max="11008" width="9" style="43"/>
+    <col min="11009" max="11009" width="3.5" style="43" customWidth="1"/>
+    <col min="11010" max="11010" width="5.625" style="43" customWidth="1"/>
+    <col min="11011" max="11012" width="6" style="43" customWidth="1"/>
+    <col min="11013" max="11014" width="8.5" style="43" customWidth="1"/>
+    <col min="11015" max="11015" width="7.375" style="43" customWidth="1"/>
+    <col min="11016" max="11017" width="7.75" style="43" customWidth="1"/>
+    <col min="11018" max="11019" width="7.625" style="43" customWidth="1"/>
+    <col min="11020" max="11020" width="5.625" style="43" customWidth="1"/>
+    <col min="11021" max="11021" width="9.625" style="43" customWidth="1"/>
+    <col min="11022" max="11025" width="5.125" style="43" customWidth="1"/>
+    <col min="11026" max="11026" width="2.625" style="43" customWidth="1"/>
+    <col min="11027" max="11264" width="9" style="43"/>
+    <col min="11265" max="11265" width="3.5" style="43" customWidth="1"/>
+    <col min="11266" max="11266" width="5.625" style="43" customWidth="1"/>
+    <col min="11267" max="11268" width="6" style="43" customWidth="1"/>
+    <col min="11269" max="11270" width="8.5" style="43" customWidth="1"/>
+    <col min="11271" max="11271" width="7.375" style="43" customWidth="1"/>
+    <col min="11272" max="11273" width="7.75" style="43" customWidth="1"/>
+    <col min="11274" max="11275" width="7.625" style="43" customWidth="1"/>
+    <col min="11276" max="11276" width="5.625" style="43" customWidth="1"/>
+    <col min="11277" max="11277" width="9.625" style="43" customWidth="1"/>
+    <col min="11278" max="11281" width="5.125" style="43" customWidth="1"/>
+    <col min="11282" max="11282" width="2.625" style="43" customWidth="1"/>
+    <col min="11283" max="11520" width="9" style="43"/>
+    <col min="11521" max="11521" width="3.5" style="43" customWidth="1"/>
+    <col min="11522" max="11522" width="5.625" style="43" customWidth="1"/>
+    <col min="11523" max="11524" width="6" style="43" customWidth="1"/>
+    <col min="11525" max="11526" width="8.5" style="43" customWidth="1"/>
+    <col min="11527" max="11527" width="7.375" style="43" customWidth="1"/>
+    <col min="11528" max="11529" width="7.75" style="43" customWidth="1"/>
+    <col min="11530" max="11531" width="7.625" style="43" customWidth="1"/>
+    <col min="11532" max="11532" width="5.625" style="43" customWidth="1"/>
+    <col min="11533" max="11533" width="9.625" style="43" customWidth="1"/>
+    <col min="11534" max="11537" width="5.125" style="43" customWidth="1"/>
+    <col min="11538" max="11538" width="2.625" style="43" customWidth="1"/>
+    <col min="11539" max="11776" width="9" style="43"/>
+    <col min="11777" max="11777" width="3.5" style="43" customWidth="1"/>
+    <col min="11778" max="11778" width="5.625" style="43" customWidth="1"/>
+    <col min="11779" max="11780" width="6" style="43" customWidth="1"/>
+    <col min="11781" max="11782" width="8.5" style="43" customWidth="1"/>
+    <col min="11783" max="11783" width="7.375" style="43" customWidth="1"/>
+    <col min="11784" max="11785" width="7.75" style="43" customWidth="1"/>
+    <col min="11786" max="11787" width="7.625" style="43" customWidth="1"/>
+    <col min="11788" max="11788" width="5.625" style="43" customWidth="1"/>
+    <col min="11789" max="11789" width="9.625" style="43" customWidth="1"/>
+    <col min="11790" max="11793" width="5.125" style="43" customWidth="1"/>
+    <col min="11794" max="11794" width="2.625" style="43" customWidth="1"/>
+    <col min="11795" max="12032" width="9" style="43"/>
+    <col min="12033" max="12033" width="3.5" style="43" customWidth="1"/>
+    <col min="12034" max="12034" width="5.625" style="43" customWidth="1"/>
+    <col min="12035" max="12036" width="6" style="43" customWidth="1"/>
+    <col min="12037" max="12038" width="8.5" style="43" customWidth="1"/>
+    <col min="12039" max="12039" width="7.375" style="43" customWidth="1"/>
+    <col min="12040" max="12041" width="7.75" style="43" customWidth="1"/>
+    <col min="12042" max="12043" width="7.625" style="43" customWidth="1"/>
+    <col min="12044" max="12044" width="5.625" style="43" customWidth="1"/>
+    <col min="12045" max="12045" width="9.625" style="43" customWidth="1"/>
+    <col min="12046" max="12049" width="5.125" style="43" customWidth="1"/>
+    <col min="12050" max="12050" width="2.625" style="43" customWidth="1"/>
+    <col min="12051" max="12288" width="9" style="43"/>
+    <col min="12289" max="12289" width="3.5" style="43" customWidth="1"/>
+    <col min="12290" max="12290" width="5.625" style="43" customWidth="1"/>
+    <col min="12291" max="12292" width="6" style="43" customWidth="1"/>
+    <col min="12293" max="12294" width="8.5" style="43" customWidth="1"/>
+    <col min="12295" max="12295" width="7.375" style="43" customWidth="1"/>
+    <col min="12296" max="12297" width="7.75" style="43" customWidth="1"/>
+    <col min="12298" max="12299" width="7.625" style="43" customWidth="1"/>
+    <col min="12300" max="12300" width="5.625" style="43" customWidth="1"/>
+    <col min="12301" max="12301" width="9.625" style="43" customWidth="1"/>
+    <col min="12302" max="12305" width="5.125" style="43" customWidth="1"/>
+    <col min="12306" max="12306" width="2.625" style="43" customWidth="1"/>
+    <col min="12307" max="12544" width="9" style="43"/>
+    <col min="12545" max="12545" width="3.5" style="43" customWidth="1"/>
+    <col min="12546" max="12546" width="5.625" style="43" customWidth="1"/>
+    <col min="12547" max="12548" width="6" style="43" customWidth="1"/>
+    <col min="12549" max="12550" width="8.5" style="43" customWidth="1"/>
+    <col min="12551" max="12551" width="7.375" style="43" customWidth="1"/>
+    <col min="12552" max="12553" width="7.75" style="43" customWidth="1"/>
+    <col min="12554" max="12555" width="7.625" style="43" customWidth="1"/>
+    <col min="12556" max="12556" width="5.625" style="43" customWidth="1"/>
+    <col min="12557" max="12557" width="9.625" style="43" customWidth="1"/>
+    <col min="12558" max="12561" width="5.125" style="43" customWidth="1"/>
+    <col min="12562" max="12562" width="2.625" style="43" customWidth="1"/>
+    <col min="12563" max="12800" width="9" style="43"/>
+    <col min="12801" max="12801" width="3.5" style="43" customWidth="1"/>
+    <col min="12802" max="12802" width="5.625" style="43" customWidth="1"/>
+    <col min="12803" max="12804" width="6" style="43" customWidth="1"/>
+    <col min="12805" max="12806" width="8.5" style="43" customWidth="1"/>
+    <col min="12807" max="12807" width="7.375" style="43" customWidth="1"/>
+    <col min="12808" max="12809" width="7.75" style="43" customWidth="1"/>
+    <col min="12810" max="12811" width="7.625" style="43" customWidth="1"/>
+    <col min="12812" max="12812" width="5.625" style="43" customWidth="1"/>
+    <col min="12813" max="12813" width="9.625" style="43" customWidth="1"/>
+    <col min="12814" max="12817" width="5.125" style="43" customWidth="1"/>
+    <col min="12818" max="12818" width="2.625" style="43" customWidth="1"/>
+    <col min="12819" max="13056" width="9" style="43"/>
+    <col min="13057" max="13057" width="3.5" style="43" customWidth="1"/>
+    <col min="13058" max="13058" width="5.625" style="43" customWidth="1"/>
+    <col min="13059" max="13060" width="6" style="43" customWidth="1"/>
+    <col min="13061" max="13062" width="8.5" style="43" customWidth="1"/>
+    <col min="13063" max="13063" width="7.375" style="43" customWidth="1"/>
+    <col min="13064" max="13065" width="7.75" style="43" customWidth="1"/>
+    <col min="13066" max="13067" width="7.625" style="43" customWidth="1"/>
+    <col min="13068" max="13068" width="5.625" style="43" customWidth="1"/>
+    <col min="13069" max="13069" width="9.625" style="43" customWidth="1"/>
+    <col min="13070" max="13073" width="5.125" style="43" customWidth="1"/>
+    <col min="13074" max="13074" width="2.625" style="43" customWidth="1"/>
+    <col min="13075" max="13312" width="9" style="43"/>
+    <col min="13313" max="13313" width="3.5" style="43" customWidth="1"/>
+    <col min="13314" max="13314" width="5.625" style="43" customWidth="1"/>
+    <col min="13315" max="13316" width="6" style="43" customWidth="1"/>
+    <col min="13317" max="13318" width="8.5" style="43" customWidth="1"/>
+    <col min="13319" max="13319" width="7.375" style="43" customWidth="1"/>
+    <col min="13320" max="13321" width="7.75" style="43" customWidth="1"/>
+    <col min="13322" max="13323" width="7.625" style="43" customWidth="1"/>
+    <col min="13324" max="13324" width="5.625" style="43" customWidth="1"/>
+    <col min="13325" max="13325" width="9.625" style="43" customWidth="1"/>
+    <col min="13326" max="13329" width="5.125" style="43" customWidth="1"/>
+    <col min="13330" max="13330" width="2.625" style="43" customWidth="1"/>
+    <col min="13331" max="13568" width="9" style="43"/>
+    <col min="13569" max="13569" width="3.5" style="43" customWidth="1"/>
+    <col min="13570" max="13570" width="5.625" style="43" customWidth="1"/>
+    <col min="13571" max="13572" width="6" style="43" customWidth="1"/>
+    <col min="13573" max="13574" width="8.5" style="43" customWidth="1"/>
+    <col min="13575" max="13575" width="7.375" style="43" customWidth="1"/>
+    <col min="13576" max="13577" width="7.75" style="43" customWidth="1"/>
+    <col min="13578" max="13579" width="7.625" style="43" customWidth="1"/>
+    <col min="13580" max="13580" width="5.625" style="43" customWidth="1"/>
+    <col min="13581" max="13581" width="9.625" style="43" customWidth="1"/>
+    <col min="13582" max="13585" width="5.125" style="43" customWidth="1"/>
+    <col min="13586" max="13586" width="2.625" style="43" customWidth="1"/>
+    <col min="13587" max="13824" width="9" style="43"/>
+    <col min="13825" max="13825" width="3.5" style="43" customWidth="1"/>
+    <col min="13826" max="13826" width="5.625" style="43" customWidth="1"/>
+    <col min="13827" max="13828" width="6" style="43" customWidth="1"/>
+    <col min="13829" max="13830" width="8.5" style="43" customWidth="1"/>
+    <col min="13831" max="13831" width="7.375" style="43" customWidth="1"/>
+    <col min="13832" max="13833" width="7.75" style="43" customWidth="1"/>
+    <col min="13834" max="13835" width="7.625" style="43" customWidth="1"/>
+    <col min="13836" max="13836" width="5.625" style="43" customWidth="1"/>
+    <col min="13837" max="13837" width="9.625" style="43" customWidth="1"/>
+    <col min="13838" max="13841" width="5.125" style="43" customWidth="1"/>
+    <col min="13842" max="13842" width="2.625" style="43" customWidth="1"/>
+    <col min="13843" max="14080" width="9" style="43"/>
+    <col min="14081" max="14081" width="3.5" style="43" customWidth="1"/>
+    <col min="14082" max="14082" width="5.625" style="43" customWidth="1"/>
+    <col min="14083" max="14084" width="6" style="43" customWidth="1"/>
+    <col min="14085" max="14086" width="8.5" style="43" customWidth="1"/>
+    <col min="14087" max="14087" width="7.375" style="43" customWidth="1"/>
+    <col min="14088" max="14089" width="7.75" style="43" customWidth="1"/>
+    <col min="14090" max="14091" width="7.625" style="43" customWidth="1"/>
+    <col min="14092" max="14092" width="5.625" style="43" customWidth="1"/>
+    <col min="14093" max="14093" width="9.625" style="43" customWidth="1"/>
+    <col min="14094" max="14097" width="5.125" style="43" customWidth="1"/>
+    <col min="14098" max="14098" width="2.625" style="43" customWidth="1"/>
+    <col min="14099" max="14336" width="9" style="43"/>
+    <col min="14337" max="14337" width="3.5" style="43" customWidth="1"/>
+    <col min="14338" max="14338" width="5.625" style="43" customWidth="1"/>
+    <col min="14339" max="14340" width="6" style="43" customWidth="1"/>
+    <col min="14341" max="14342" width="8.5" style="43" customWidth="1"/>
+    <col min="14343" max="14343" width="7.375" style="43" customWidth="1"/>
+    <col min="14344" max="14345" width="7.75" style="43" customWidth="1"/>
+    <col min="14346" max="14347" width="7.625" style="43" customWidth="1"/>
+    <col min="14348" max="14348" width="5.625" style="43" customWidth="1"/>
+    <col min="14349" max="14349" width="9.625" style="43" customWidth="1"/>
+    <col min="14350" max="14353" width="5.125" style="43" customWidth="1"/>
+    <col min="14354" max="14354" width="2.625" style="43" customWidth="1"/>
+    <col min="14355" max="14592" width="9" style="43"/>
+    <col min="14593" max="14593" width="3.5" style="43" customWidth="1"/>
+    <col min="14594" max="14594" width="5.625" style="43" customWidth="1"/>
+    <col min="14595" max="14596" width="6" style="43" customWidth="1"/>
+    <col min="14597" max="14598" width="8.5" style="43" customWidth="1"/>
+    <col min="14599" max="14599" width="7.375" style="43" customWidth="1"/>
+    <col min="14600" max="14601" width="7.75" style="43" customWidth="1"/>
+    <col min="14602" max="14603" width="7.625" style="43" customWidth="1"/>
+    <col min="14604" max="14604" width="5.625" style="43" customWidth="1"/>
+    <col min="14605" max="14605" width="9.625" style="43" customWidth="1"/>
+    <col min="14606" max="14609" width="5.125" style="43" customWidth="1"/>
+    <col min="14610" max="14610" width="2.625" style="43" customWidth="1"/>
+    <col min="14611" max="14848" width="9" style="43"/>
+    <col min="14849" max="14849" width="3.5" style="43" customWidth="1"/>
+    <col min="14850" max="14850" width="5.625" style="43" customWidth="1"/>
+    <col min="14851" max="14852" width="6" style="43" customWidth="1"/>
+    <col min="14853" max="14854" width="8.5" style="43" customWidth="1"/>
+    <col min="14855" max="14855" width="7.375" style="43" customWidth="1"/>
+    <col min="14856" max="14857" width="7.75" style="43" customWidth="1"/>
+    <col min="14858" max="14859" width="7.625" style="43" customWidth="1"/>
+    <col min="14860" max="14860" width="5.625" style="43" customWidth="1"/>
+    <col min="14861" max="14861" width="9.625" style="43" customWidth="1"/>
+    <col min="14862" max="14865" width="5.125" style="43" customWidth="1"/>
+    <col min="14866" max="14866" width="2.625" style="43" customWidth="1"/>
+    <col min="14867" max="15104" width="9" style="43"/>
+    <col min="15105" max="15105" width="3.5" style="43" customWidth="1"/>
+    <col min="15106" max="15106" width="5.625" style="43" customWidth="1"/>
+    <col min="15107" max="15108" width="6" style="43" customWidth="1"/>
+    <col min="15109" max="15110" width="8.5" style="43" customWidth="1"/>
+    <col min="15111" max="15111" width="7.375" style="43" customWidth="1"/>
+    <col min="15112" max="15113" width="7.75" style="43" customWidth="1"/>
+    <col min="15114" max="15115" width="7.625" style="43" customWidth="1"/>
+    <col min="15116" max="15116" width="5.625" style="43" customWidth="1"/>
+    <col min="15117" max="15117" width="9.625" style="43" customWidth="1"/>
+    <col min="15118" max="15121" width="5.125" style="43" customWidth="1"/>
+    <col min="15122" max="15122" width="2.625" style="43" customWidth="1"/>
+    <col min="15123" max="15360" width="9" style="43"/>
+    <col min="15361" max="15361" width="3.5" style="43" customWidth="1"/>
+    <col min="15362" max="15362" width="5.625" style="43" customWidth="1"/>
+    <col min="15363" max="15364" width="6" style="43" customWidth="1"/>
+    <col min="15365" max="15366" width="8.5" style="43" customWidth="1"/>
+    <col min="15367" max="15367" width="7.375" style="43" customWidth="1"/>
+    <col min="15368" max="15369" width="7.75" style="43" customWidth="1"/>
+    <col min="15370" max="15371" width="7.625" style="43" customWidth="1"/>
+    <col min="15372" max="15372" width="5.625" style="43" customWidth="1"/>
+    <col min="15373" max="15373" width="9.625" style="43" customWidth="1"/>
+    <col min="15374" max="15377" width="5.125" style="43" customWidth="1"/>
+    <col min="15378" max="15378" width="2.625" style="43" customWidth="1"/>
+    <col min="15379" max="15616" width="9" style="43"/>
+    <col min="15617" max="15617" width="3.5" style="43" customWidth="1"/>
+    <col min="15618" max="15618" width="5.625" style="43" customWidth="1"/>
+    <col min="15619" max="15620" width="6" style="43" customWidth="1"/>
+    <col min="15621" max="15622" width="8.5" style="43" customWidth="1"/>
+    <col min="15623" max="15623" width="7.375" style="43" customWidth="1"/>
+    <col min="15624" max="15625" width="7.75" style="43" customWidth="1"/>
+    <col min="15626" max="15627" width="7.625" style="43" customWidth="1"/>
+    <col min="15628" max="15628" width="5.625" style="43" customWidth="1"/>
+    <col min="15629" max="15629" width="9.625" style="43" customWidth="1"/>
+    <col min="15630" max="15633" width="5.125" style="43" customWidth="1"/>
+    <col min="15634" max="15634" width="2.625" style="43" customWidth="1"/>
+    <col min="15635" max="15872" width="9" style="43"/>
+    <col min="15873" max="15873" width="3.5" style="43" customWidth="1"/>
+    <col min="15874" max="15874" width="5.625" style="43" customWidth="1"/>
+    <col min="15875" max="15876" width="6" style="43" customWidth="1"/>
+    <col min="15877" max="15878" width="8.5" style="43" customWidth="1"/>
+    <col min="15879" max="15879" width="7.375" style="43" customWidth="1"/>
+    <col min="15880" max="15881" width="7.75" style="43" customWidth="1"/>
+    <col min="15882" max="15883" width="7.625" style="43" customWidth="1"/>
+    <col min="15884" max="15884" width="5.625" style="43" customWidth="1"/>
+    <col min="15885" max="15885" width="9.625" style="43" customWidth="1"/>
+    <col min="15886" max="15889" width="5.125" style="43" customWidth="1"/>
+    <col min="15890" max="15890" width="2.625" style="43" customWidth="1"/>
+    <col min="15891" max="16128" width="9" style="43"/>
+    <col min="16129" max="16129" width="3.5" style="43" customWidth="1"/>
+    <col min="16130" max="16130" width="5.625" style="43" customWidth="1"/>
+    <col min="16131" max="16132" width="6" style="43" customWidth="1"/>
+    <col min="16133" max="16134" width="8.5" style="43" customWidth="1"/>
+    <col min="16135" max="16135" width="7.375" style="43" customWidth="1"/>
+    <col min="16136" max="16137" width="7.75" style="43" customWidth="1"/>
+    <col min="16138" max="16139" width="7.625" style="43" customWidth="1"/>
+    <col min="16140" max="16140" width="5.625" style="43" customWidth="1"/>
+    <col min="16141" max="16141" width="9.625" style="43" customWidth="1"/>
+    <col min="16142" max="16145" width="5.125" style="43" customWidth="1"/>
+    <col min="16146" max="16146" width="2.625" style="43" customWidth="1"/>
+    <col min="16147" max="16384" width="9" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1">
-      <c r="N1" s="165" t="s">
+      <c r="N1" s="121" t="s">
         <v>122</v>
       </c>
-      <c r="O1" s="165"/>
-      <c r="P1" s="200" t="str">
+      <c r="O1" s="121"/>
+      <c r="P1" s="167" t="str">
         <f>お見積書!R2</f>
         <v>${qu.contractnumber}</v>
       </c>
-      <c r="Q1" s="200"/>
-      <c r="R1" s="200"/>
+      <c r="Q1" s="167"/>
+      <c r="R1" s="167"/>
     </row>
     <row r="2" spans="1:18" ht="18" customHeight="1">
-      <c r="O2" s="198">
+      <c r="O2" s="165">
         <f ca="1">お見積書!R3</f>
-        <v>43895</v>
-      </c>
-      <c r="P2" s="199"/>
-      <c r="Q2" s="199"/>
-      <c r="R2" s="199"/>
+        <v>43908</v>
+      </c>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="166"/>
     </row>
     <row r="3" spans="1:18" ht="18" customHeight="1">
-      <c r="A3" s="202" t="s">
+      <c r="A3" s="175" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="203"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="203"/>
-      <c r="F3" s="203"/>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
-      <c r="I3" s="203"/>
-      <c r="J3" s="203"/>
-      <c r="K3" s="203"/>
-      <c r="L3" s="203"/>
-      <c r="M3" s="203"/>
-      <c r="N3" s="203"/>
-      <c r="O3" s="203"/>
-      <c r="P3" s="203"/>
-      <c r="Q3" s="203"/>
-      <c r="R3" s="203"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="176"/>
+      <c r="K3" s="176"/>
+      <c r="L3" s="176"/>
+      <c r="M3" s="176"/>
+      <c r="N3" s="176"/>
+      <c r="O3" s="176"/>
+      <c r="P3" s="176"/>
+      <c r="Q3" s="176"/>
+      <c r="R3" s="176"/>
     </row>
     <row r="4" spans="1:18" ht="18" customHeight="1">
-      <c r="A4" s="200" t="str">
+      <c r="A4" s="167" t="str">
         <f>お見積書!C5</f>
         <v>ご照会の件につき下記の通りお見積り申し上げます。</v>
       </c>
-      <c r="B4" s="200"/>
-      <c r="C4" s="200"/>
-      <c r="D4" s="200"/>
-      <c r="E4" s="200"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="200"/>
-      <c r="H4" s="200"/>
-      <c r="I4" s="200"/>
-      <c r="J4" s="200"/>
-      <c r="K4" s="200"/>
-      <c r="L4" s="200"/>
-      <c r="M4" s="200"/>
-      <c r="N4" s="200"/>
-      <c r="O4" s="200"/>
-      <c r="P4" s="200"/>
-      <c r="Q4" s="200"/>
-      <c r="R4" s="200"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="167"/>
+      <c r="L4" s="167"/>
+      <c r="M4" s="167"/>
+      <c r="N4" s="167"/>
+      <c r="O4" s="167"/>
+      <c r="P4" s="167"/>
+      <c r="Q4" s="167"/>
+      <c r="R4" s="167"/>
     </row>
     <row r="5" spans="1:18" ht="18" customHeight="1"/>
     <row r="6" spans="1:18" ht="18" customHeight="1">
-      <c r="I6" s="166" t="s">
+      <c r="I6" s="122" t="s">
         <v>75</v>
       </c>
-      <c r="J6" s="166"/>
-      <c r="K6" s="166"/>
-      <c r="L6" s="166"/>
-      <c r="M6" s="166"/>
-      <c r="N6" s="166"/>
-      <c r="O6" s="166"/>
-      <c r="P6" s="166"/>
-      <c r="Q6" s="166"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="122"/>
+      <c r="M6" s="122"/>
+      <c r="N6" s="122"/>
+      <c r="O6" s="122"/>
+      <c r="P6" s="122"/>
+      <c r="Q6" s="122"/>
     </row>
     <row r="7" spans="1:18" ht="18" customHeight="1">
-      <c r="I7" s="166"/>
-      <c r="J7" s="166"/>
-      <c r="K7" s="166"/>
-      <c r="L7" s="166"/>
-      <c r="M7" s="166"/>
-      <c r="N7" s="166"/>
-      <c r="O7" s="166"/>
-      <c r="P7" s="166"/>
-      <c r="Q7" s="166"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="122"/>
+      <c r="M7" s="122"/>
+      <c r="N7" s="122"/>
+      <c r="O7" s="122"/>
+      <c r="P7" s="122"/>
+      <c r="Q7" s="122"/>
     </row>
     <row r="8" spans="1:18" ht="18" customHeight="1">
-      <c r="I8" s="166"/>
-      <c r="J8" s="166"/>
-      <c r="K8" s="166"/>
-      <c r="L8" s="166"/>
-      <c r="M8" s="166"/>
-      <c r="N8" s="166"/>
-      <c r="O8" s="166"/>
-      <c r="P8" s="166"/>
-      <c r="Q8" s="166"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="122"/>
+      <c r="L8" s="122"/>
+      <c r="M8" s="122"/>
+      <c r="N8" s="122"/>
+      <c r="O8" s="122"/>
+      <c r="P8" s="122"/>
+      <c r="Q8" s="122"/>
     </row>
     <row r="9" spans="1:18" ht="18" customHeight="1">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="62" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="18" customHeight="1">
-      <c r="B10" s="193" t="s">
+      <c r="B10" s="171" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="194"/>
-      <c r="D10" s="194"/>
-      <c r="E10" s="195"/>
-      <c r="F10" s="176" t="str">
+      <c r="C10" s="172"/>
+      <c r="D10" s="172"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="174" t="str">
         <f>お見積書!C9</f>
         <v>${qu.pjjapanese}</v>
       </c>
@@ -6162,102 +6237,102 @@
       <c r="R10" s="140"/>
     </row>
     <row r="11" spans="1:18" ht="18" customHeight="1">
-      <c r="B11" s="193" t="s">
+      <c r="B11" s="171" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="194"/>
-      <c r="D11" s="194"/>
-      <c r="E11" s="195"/>
-      <c r="F11" s="64" t="str">
+      <c r="C11" s="172"/>
+      <c r="D11" s="172"/>
+      <c r="E11" s="173"/>
+      <c r="F11" s="63" t="str">
         <f>お見積書!F13</f>
         <v>□請負</v>
       </c>
-      <c r="G11" s="64" t="str">
+      <c r="G11" s="63" t="str">
         <f>お見積書!H13</f>
         <v>■委任</v>
       </c>
-      <c r="H11" s="64" t="str">
+      <c r="H11" s="63" t="str">
         <f>お見積書!J13</f>
         <v>□保守</v>
       </c>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="65"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="64"/>
     </row>
     <row r="12" spans="1:18" ht="18" customHeight="1">
-      <c r="B12" s="193" t="s">
+      <c r="B12" s="171" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="194"/>
-      <c r="D12" s="194"/>
-      <c r="E12" s="195"/>
-      <c r="F12" s="196" t="str">
+      <c r="C12" s="172"/>
+      <c r="D12" s="172"/>
+      <c r="E12" s="173"/>
+      <c r="F12" s="177" t="str">
         <f>お見積書!F15</f>
         <v>${qu.startdate}</v>
       </c>
-      <c r="G12" s="191"/>
-      <c r="H12" s="191"/>
-      <c r="I12" s="191"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="67" t="s">
+      <c r="G12" s="178"/>
+      <c r="H12" s="178"/>
+      <c r="I12" s="178"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="L12" s="190" t="str">
+      <c r="L12" s="179" t="str">
         <f>お見積書!F16</f>
         <v>${qu.enddate}</v>
       </c>
-      <c r="M12" s="191"/>
-      <c r="N12" s="191"/>
-      <c r="O12" s="191"/>
-      <c r="P12" s="191"/>
-      <c r="Q12" s="191"/>
-      <c r="R12" s="192"/>
+      <c r="M12" s="178"/>
+      <c r="N12" s="178"/>
+      <c r="O12" s="178"/>
+      <c r="P12" s="178"/>
+      <c r="Q12" s="178"/>
+      <c r="R12" s="180"/>
     </row>
     <row r="13" spans="1:18" ht="18" customHeight="1">
-      <c r="B13" s="193" t="s">
+      <c r="B13" s="171" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="194"/>
-      <c r="D13" s="194"/>
-      <c r="E13" s="195"/>
-      <c r="F13" s="196" t="str">
+      <c r="C13" s="172"/>
+      <c r="D13" s="172"/>
+      <c r="E13" s="173"/>
+      <c r="F13" s="177" t="str">
         <f>お見積書!F16</f>
         <v>${qu.enddate}</v>
       </c>
-      <c r="G13" s="191"/>
-      <c r="H13" s="191"/>
-      <c r="I13" s="191"/>
-      <c r="J13" s="191"/>
-      <c r="K13" s="191"/>
-      <c r="L13" s="191"/>
-      <c r="M13" s="191"/>
-      <c r="N13" s="191"/>
-      <c r="O13" s="191"/>
-      <c r="P13" s="191"/>
-      <c r="Q13" s="191"/>
-      <c r="R13" s="192"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="178"/>
+      <c r="I13" s="178"/>
+      <c r="J13" s="178"/>
+      <c r="K13" s="178"/>
+      <c r="L13" s="178"/>
+      <c r="M13" s="178"/>
+      <c r="N13" s="178"/>
+      <c r="O13" s="178"/>
+      <c r="P13" s="178"/>
+      <c r="Q13" s="178"/>
+      <c r="R13" s="180"/>
     </row>
     <row r="14" spans="1:18" ht="18" customHeight="1"/>
     <row r="15" spans="1:18" ht="18" customHeight="1">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="62" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="18" customHeight="1">
-      <c r="B16" s="193" t="s">
+      <c r="B16" s="171" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="194"/>
-      <c r="D16" s="194"/>
-      <c r="E16" s="195"/>
-      <c r="F16" s="176" t="str">
+      <c r="C16" s="172"/>
+      <c r="D16" s="172"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="174" t="str">
         <f>記入!B24</f>
         <v>${qu.loadingjudge}</v>
       </c>
@@ -6275,13 +6350,13 @@
       <c r="R16" s="140"/>
     </row>
     <row r="17" spans="1:19" ht="18" customHeight="1">
-      <c r="B17" s="193" t="s">
+      <c r="B17" s="171" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="194"/>
-      <c r="D17" s="194"/>
-      <c r="E17" s="195"/>
-      <c r="F17" s="176" t="str">
+      <c r="C17" s="172"/>
+      <c r="D17" s="172"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="174" t="str">
         <f>記入!B9</f>
         <v>${qu.deployment}</v>
       </c>
@@ -6293,7 +6368,7 @@
       <c r="L17" s="139"/>
       <c r="M17" s="139"/>
       <c r="N17" s="140"/>
-      <c r="O17" s="68" t="s">
+      <c r="O17" s="67" t="s">
         <v>83</v>
       </c>
       <c r="P17" s="139" t="s">
@@ -6304,7 +6379,7 @@
     </row>
     <row r="18" spans="1:19" ht="18" customHeight="1"/>
     <row r="19" spans="1:19" ht="18" customHeight="1">
-      <c r="B19" s="197" t="s">
+      <c r="B19" s="181" t="s">
         <v>85</v>
       </c>
       <c r="C19" s="145"/>
@@ -6325,67 +6400,67 @@
       <c r="R19" s="146"/>
     </row>
     <row r="20" spans="1:19" ht="18" customHeight="1">
-      <c r="B20" s="132"/>
-      <c r="C20" s="133"/>
-      <c r="D20" s="133"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="133"/>
-      <c r="G20" s="133"/>
-      <c r="H20" s="133"/>
-      <c r="I20" s="133"/>
-      <c r="J20" s="133"/>
-      <c r="K20" s="133"/>
-      <c r="L20" s="133"/>
-      <c r="M20" s="133"/>
-      <c r="N20" s="133"/>
-      <c r="O20" s="133"/>
-      <c r="P20" s="133"/>
-      <c r="Q20" s="133"/>
-      <c r="R20" s="134"/>
+      <c r="B20" s="159"/>
+      <c r="C20" s="160"/>
+      <c r="D20" s="160"/>
+      <c r="E20" s="160"/>
+      <c r="F20" s="160"/>
+      <c r="G20" s="160"/>
+      <c r="H20" s="160"/>
+      <c r="I20" s="160"/>
+      <c r="J20" s="160"/>
+      <c r="K20" s="160"/>
+      <c r="L20" s="160"/>
+      <c r="M20" s="160"/>
+      <c r="N20" s="160"/>
+      <c r="O20" s="160"/>
+      <c r="P20" s="160"/>
+      <c r="Q20" s="160"/>
+      <c r="R20" s="161"/>
     </row>
     <row r="21" spans="1:19" ht="18" customHeight="1">
-      <c r="B21" s="121"/>
-      <c r="C21" s="122"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="122"/>
-      <c r="J21" s="122"/>
-      <c r="K21" s="122"/>
-      <c r="L21" s="122"/>
-      <c r="M21" s="122"/>
-      <c r="N21" s="122"/>
-      <c r="O21" s="122"/>
-      <c r="P21" s="122"/>
-      <c r="Q21" s="122"/>
-      <c r="R21" s="123"/>
+      <c r="B21" s="148"/>
+      <c r="C21" s="149"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="149"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="149"/>
+      <c r="J21" s="149"/>
+      <c r="K21" s="149"/>
+      <c r="L21" s="149"/>
+      <c r="M21" s="149"/>
+      <c r="N21" s="149"/>
+      <c r="O21" s="149"/>
+      <c r="P21" s="149"/>
+      <c r="Q21" s="149"/>
+      <c r="R21" s="150"/>
     </row>
     <row r="22" spans="1:19" ht="18" customHeight="1"/>
     <row r="23" spans="1:19" ht="18" customHeight="1">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="62" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="18" customHeight="1">
-      <c r="A24" s="63"/>
-      <c r="B24" s="44" t="s">
+      <c r="A24" s="62"/>
+      <c r="B24" s="43" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="18" customHeight="1">
-      <c r="C25" s="44" t="s">
+      <c r="C25" s="43" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="18" customHeight="1">
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="43" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="18" customHeight="1">
-      <c r="B27" s="176" t="s">
+      <c r="B27" s="174" t="s">
         <v>90</v>
       </c>
       <c r="C27" s="139"/>
@@ -6395,7 +6470,7 @@
       <c r="G27" s="139"/>
       <c r="H27" s="139"/>
       <c r="I27" s="140"/>
-      <c r="J27" s="176" t="s">
+      <c r="J27" s="174" t="s">
         <v>91</v>
       </c>
       <c r="K27" s="139"/>
@@ -6408,7 +6483,7 @@
       <c r="R27" s="140"/>
     </row>
     <row r="28" spans="1:19" ht="18" customHeight="1">
-      <c r="B28" s="176" t="s">
+      <c r="B28" s="174" t="s">
         <v>92</v>
       </c>
       <c r="C28" s="139"/>
@@ -6418,7 +6493,7 @@
       <c r="G28" s="139"/>
       <c r="H28" s="139"/>
       <c r="I28" s="140"/>
-      <c r="J28" s="176" t="s">
+      <c r="J28" s="174" t="s">
         <v>93</v>
       </c>
       <c r="K28" s="139"/>
@@ -6429,10 +6504,10 @@
       <c r="P28" s="139"/>
       <c r="Q28" s="139"/>
       <c r="R28" s="140"/>
-      <c r="S28" s="69"/>
+      <c r="S28" s="68"/>
     </row>
     <row r="29" spans="1:19" ht="18" customHeight="1">
-      <c r="B29" s="176" t="s">
+      <c r="B29" s="174" t="s">
         <v>94</v>
       </c>
       <c r="C29" s="139"/>
@@ -6442,7 +6517,7 @@
       <c r="G29" s="139"/>
       <c r="H29" s="139"/>
       <c r="I29" s="140"/>
-      <c r="J29" s="176" t="s">
+      <c r="J29" s="174" t="s">
         <v>95</v>
       </c>
       <c r="K29" s="139"/>
@@ -6455,7 +6530,7 @@
       <c r="R29" s="140"/>
     </row>
     <row r="30" spans="1:19" ht="18" customHeight="1">
-      <c r="B30" s="176" t="s">
+      <c r="B30" s="174" t="s">
         <v>96</v>
       </c>
       <c r="C30" s="139"/>
@@ -6465,7 +6540,7 @@
       <c r="G30" s="139"/>
       <c r="H30" s="139"/>
       <c r="I30" s="140"/>
-      <c r="J30" s="176" t="s">
+      <c r="J30" s="174" t="s">
         <v>97</v>
       </c>
       <c r="K30" s="139"/>
@@ -6478,7 +6553,7 @@
       <c r="R30" s="140"/>
     </row>
     <row r="31" spans="1:19" ht="18" customHeight="1">
-      <c r="B31" s="176" t="s">
+      <c r="B31" s="174" t="s">
         <v>98</v>
       </c>
       <c r="C31" s="139"/>
@@ -6488,7 +6563,7 @@
       <c r="G31" s="139"/>
       <c r="H31" s="139"/>
       <c r="I31" s="140"/>
-      <c r="J31" s="176" t="s">
+      <c r="J31" s="174" t="s">
         <v>99</v>
       </c>
       <c r="K31" s="139"/>
@@ -6501,7 +6576,7 @@
       <c r="R31" s="140"/>
     </row>
     <row r="32" spans="1:19" ht="18" customHeight="1">
-      <c r="B32" s="176" t="s">
+      <c r="B32" s="174" t="s">
         <v>100</v>
       </c>
       <c r="C32" s="139"/>
@@ -6511,7 +6586,7 @@
       <c r="G32" s="139"/>
       <c r="H32" s="139"/>
       <c r="I32" s="140"/>
-      <c r="J32" s="176" t="s">
+      <c r="J32" s="174" t="s">
         <v>101</v>
       </c>
       <c r="K32" s="139"/>
@@ -6524,7 +6599,7 @@
       <c r="R32" s="140"/>
     </row>
     <row r="33" spans="1:20" ht="18" customHeight="1">
-      <c r="B33" s="176" t="s">
+      <c r="B33" s="174" t="s">
         <v>102</v>
       </c>
       <c r="C33" s="139"/>
@@ -6534,7 +6609,7 @@
       <c r="G33" s="139"/>
       <c r="H33" s="139"/>
       <c r="I33" s="140"/>
-      <c r="J33" s="176" t="s">
+      <c r="J33" s="174" t="s">
         <v>103</v>
       </c>
       <c r="K33" s="139"/>
@@ -6547,7 +6622,7 @@
       <c r="R33" s="140"/>
     </row>
     <row r="34" spans="1:20" ht="18" customHeight="1">
-      <c r="B34" s="176" t="s">
+      <c r="B34" s="174" t="s">
         <v>104</v>
       </c>
       <c r="C34" s="139"/>
@@ -6557,7 +6632,7 @@
       <c r="G34" s="139"/>
       <c r="H34" s="139"/>
       <c r="I34" s="140"/>
-      <c r="J34" s="176" t="s">
+      <c r="J34" s="174" t="s">
         <v>105</v>
       </c>
       <c r="K34" s="139"/>
@@ -6570,216 +6645,216 @@
       <c r="R34" s="140"/>
     </row>
     <row r="35" spans="1:20" ht="18" customHeight="1">
-      <c r="B35" s="70"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="70"/>
-      <c r="K35" s="70"/>
-      <c r="L35" s="70"/>
-      <c r="M35" s="70"/>
-      <c r="N35" s="70"/>
-      <c r="O35" s="70"/>
-      <c r="P35" s="70"/>
-      <c r="Q35" s="70"/>
-      <c r="R35" s="70"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="69"/>
+      <c r="N35" s="69"/>
+      <c r="O35" s="69"/>
+      <c r="P35" s="69"/>
+      <c r="Q35" s="69"/>
+      <c r="R35" s="69"/>
     </row>
     <row r="36" spans="1:20" ht="18" customHeight="1">
-      <c r="B36" s="71" t="s">
+      <c r="B36" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="71"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="71"/>
-      <c r="N36" s="71"/>
-      <c r="O36" s="71"/>
-      <c r="P36" s="71"/>
-      <c r="Q36" s="71"/>
-      <c r="R36" s="71"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="70"/>
+      <c r="L36" s="70"/>
+      <c r="M36" s="70"/>
+      <c r="N36" s="70"/>
+      <c r="O36" s="70"/>
+      <c r="P36" s="70"/>
+      <c r="Q36" s="70"/>
+      <c r="R36" s="70"/>
     </row>
     <row r="37" spans="1:20" ht="18" customHeight="1">
-      <c r="B37" s="72" t="s">
+      <c r="B37" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="73"/>
-      <c r="K37" s="73"/>
-      <c r="L37" s="73"/>
-      <c r="M37" s="73"/>
-      <c r="N37" s="73"/>
-      <c r="O37" s="73"/>
-      <c r="P37" s="73"/>
-      <c r="Q37" s="73"/>
-      <c r="R37" s="74"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="72"/>
+      <c r="N37" s="72"/>
+      <c r="O37" s="72"/>
+      <c r="P37" s="72"/>
+      <c r="Q37" s="72"/>
+      <c r="R37" s="73"/>
     </row>
     <row r="38" spans="1:20" ht="18" customHeight="1">
-      <c r="B38" s="187" t="s">
+      <c r="B38" s="168" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="188"/>
-      <c r="D38" s="188"/>
-      <c r="E38" s="188"/>
-      <c r="F38" s="188"/>
-      <c r="G38" s="188"/>
-      <c r="H38" s="201" t="str">
-        <f>記入!D33</f>
+      <c r="C38" s="169"/>
+      <c r="D38" s="169"/>
+      <c r="E38" s="169"/>
+      <c r="F38" s="169"/>
+      <c r="G38" s="169"/>
+      <c r="H38" s="170" t="str">
+        <f>記入!D36</f>
         <v>${qu.requestnumber}</v>
       </c>
-      <c r="I38" s="201"/>
-      <c r="J38" s="188"/>
-      <c r="K38" s="188"/>
-      <c r="L38" s="188"/>
-      <c r="M38" s="188"/>
-      <c r="N38" s="188"/>
-      <c r="O38" s="188"/>
-      <c r="P38" s="188"/>
-      <c r="Q38" s="188"/>
-      <c r="R38" s="75"/>
-      <c r="S38" s="76"/>
-      <c r="T38" s="76"/>
+      <c r="I38" s="170"/>
+      <c r="J38" s="169"/>
+      <c r="K38" s="169"/>
+      <c r="L38" s="169"/>
+      <c r="M38" s="169"/>
+      <c r="N38" s="169"/>
+      <c r="O38" s="169"/>
+      <c r="P38" s="169"/>
+      <c r="Q38" s="169"/>
+      <c r="R38" s="74"/>
+      <c r="S38" s="75"/>
+      <c r="T38" s="75"/>
     </row>
     <row r="39" spans="1:20" ht="18" customHeight="1">
-      <c r="B39" s="187" t="s">
+      <c r="B39" s="168" t="s">
         <v>133</v>
       </c>
-      <c r="C39" s="188"/>
-      <c r="D39" s="188"/>
-      <c r="E39" s="188"/>
-      <c r="F39" s="188"/>
-      <c r="G39" s="188"/>
-      <c r="H39" s="188"/>
-      <c r="I39" s="188"/>
-      <c r="J39" s="188"/>
-      <c r="K39" s="188"/>
-      <c r="L39" s="188"/>
-      <c r="M39" s="188"/>
-      <c r="N39" s="188"/>
-      <c r="O39" s="188"/>
-      <c r="P39" s="188"/>
-      <c r="Q39" s="188"/>
-      <c r="R39" s="189"/>
-      <c r="S39" s="76"/>
-      <c r="T39" s="76"/>
+      <c r="C39" s="169"/>
+      <c r="D39" s="169"/>
+      <c r="E39" s="169"/>
+      <c r="F39" s="169"/>
+      <c r="G39" s="169"/>
+      <c r="H39" s="169"/>
+      <c r="I39" s="169"/>
+      <c r="J39" s="169"/>
+      <c r="K39" s="169"/>
+      <c r="L39" s="169"/>
+      <c r="M39" s="169"/>
+      <c r="N39" s="169"/>
+      <c r="O39" s="169"/>
+      <c r="P39" s="169"/>
+      <c r="Q39" s="169"/>
+      <c r="R39" s="185"/>
+      <c r="S39" s="75"/>
+      <c r="T39" s="75"/>
     </row>
     <row r="40" spans="1:20" ht="18" customHeight="1">
-      <c r="B40" s="184" t="s">
+      <c r="B40" s="182" t="s">
         <v>131</v>
       </c>
-      <c r="C40" s="185"/>
-      <c r="D40" s="185"/>
-      <c r="E40" s="185"/>
-      <c r="F40" s="185"/>
-      <c r="G40" s="185"/>
-      <c r="H40" s="185"/>
-      <c r="I40" s="185"/>
-      <c r="J40" s="185"/>
-      <c r="K40" s="185"/>
-      <c r="L40" s="185"/>
-      <c r="M40" s="185"/>
-      <c r="N40" s="185"/>
-      <c r="O40" s="185"/>
-      <c r="P40" s="185"/>
-      <c r="Q40" s="185"/>
-      <c r="R40" s="186"/>
-      <c r="S40" s="77"/>
-      <c r="T40" s="77"/>
+      <c r="C40" s="183"/>
+      <c r="D40" s="183"/>
+      <c r="E40" s="183"/>
+      <c r="F40" s="183"/>
+      <c r="G40" s="183"/>
+      <c r="H40" s="183"/>
+      <c r="I40" s="183"/>
+      <c r="J40" s="183"/>
+      <c r="K40" s="183"/>
+      <c r="L40" s="183"/>
+      <c r="M40" s="183"/>
+      <c r="N40" s="183"/>
+      <c r="O40" s="183"/>
+      <c r="P40" s="183"/>
+      <c r="Q40" s="183"/>
+      <c r="R40" s="184"/>
+      <c r="S40" s="76"/>
+      <c r="T40" s="76"/>
     </row>
     <row r="41" spans="1:20" ht="18" customHeight="1">
-      <c r="B41" s="184" t="s">
+      <c r="B41" s="182" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="185"/>
-      <c r="D41" s="185"/>
-      <c r="E41" s="185"/>
-      <c r="F41" s="185"/>
-      <c r="G41" s="185"/>
-      <c r="H41" s="185"/>
-      <c r="I41" s="185"/>
-      <c r="J41" s="185"/>
-      <c r="K41" s="185"/>
-      <c r="L41" s="185"/>
-      <c r="M41" s="185"/>
-      <c r="N41" s="185"/>
-      <c r="O41" s="185"/>
-      <c r="P41" s="185"/>
-      <c r="Q41" s="185"/>
-      <c r="R41" s="186"/>
-      <c r="S41" s="77"/>
-      <c r="T41" s="77"/>
+      <c r="C41" s="183"/>
+      <c r="D41" s="183"/>
+      <c r="E41" s="183"/>
+      <c r="F41" s="183"/>
+      <c r="G41" s="183"/>
+      <c r="H41" s="183"/>
+      <c r="I41" s="183"/>
+      <c r="J41" s="183"/>
+      <c r="K41" s="183"/>
+      <c r="L41" s="183"/>
+      <c r="M41" s="183"/>
+      <c r="N41" s="183"/>
+      <c r="O41" s="183"/>
+      <c r="P41" s="183"/>
+      <c r="Q41" s="183"/>
+      <c r="R41" s="184"/>
+      <c r="S41" s="76"/>
+      <c r="T41" s="76"/>
     </row>
     <row r="42" spans="1:20" ht="18" customHeight="1">
-      <c r="B42" s="121"/>
-      <c r="C42" s="122"/>
-      <c r="D42" s="122"/>
-      <c r="E42" s="122"/>
-      <c r="F42" s="122"/>
-      <c r="G42" s="122"/>
-      <c r="H42" s="122"/>
-      <c r="I42" s="122"/>
-      <c r="J42" s="122"/>
-      <c r="K42" s="122"/>
-      <c r="L42" s="122"/>
-      <c r="M42" s="122"/>
-      <c r="N42" s="122"/>
-      <c r="O42" s="122"/>
-      <c r="P42" s="122"/>
-      <c r="Q42" s="122"/>
-      <c r="R42" s="123"/>
+      <c r="B42" s="148"/>
+      <c r="C42" s="149"/>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
+      <c r="N42" s="149"/>
+      <c r="O42" s="149"/>
+      <c r="P42" s="149"/>
+      <c r="Q42" s="149"/>
+      <c r="R42" s="150"/>
     </row>
     <row r="43" spans="1:20" ht="18" customHeight="1"/>
     <row r="44" spans="1:20" ht="18" customHeight="1">
-      <c r="A44" s="63" t="s">
+      <c r="A44" s="62" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="18" customHeight="1">
-      <c r="B45" s="44" t="s">
+      <c r="B45" s="43" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="18" customHeight="1">
-      <c r="B46" s="175" t="s">
+      <c r="B46" s="195" t="s">
         <v>110</v>
       </c>
-      <c r="C46" s="175"/>
-      <c r="D46" s="175"/>
-      <c r="E46" s="175"/>
-      <c r="F46" s="175"/>
-      <c r="G46" s="175"/>
-      <c r="H46" s="175"/>
-      <c r="I46" s="175" t="s">
+      <c r="C46" s="195"/>
+      <c r="D46" s="195"/>
+      <c r="E46" s="195"/>
+      <c r="F46" s="195"/>
+      <c r="G46" s="195"/>
+      <c r="H46" s="195"/>
+      <c r="I46" s="195" t="s">
         <v>111</v>
       </c>
-      <c r="J46" s="175"/>
-      <c r="K46" s="175"/>
-      <c r="L46" s="175"/>
-      <c r="M46" s="175"/>
-      <c r="N46" s="175"/>
-      <c r="O46" s="175"/>
-      <c r="P46" s="175"/>
-      <c r="Q46" s="175"/>
-      <c r="R46" s="175"/>
+      <c r="J46" s="195"/>
+      <c r="K46" s="195"/>
+      <c r="L46" s="195"/>
+      <c r="M46" s="195"/>
+      <c r="N46" s="195"/>
+      <c r="O46" s="195"/>
+      <c r="P46" s="195"/>
+      <c r="Q46" s="195"/>
+      <c r="R46" s="195"/>
     </row>
     <row r="47" spans="1:20" ht="18" customHeight="1">
-      <c r="B47" s="176" t="s">
+      <c r="B47" s="174" t="s">
         <v>112</v>
       </c>
       <c r="C47" s="139"/>
@@ -6788,7 +6863,7 @@
       <c r="F47" s="139"/>
       <c r="G47" s="139"/>
       <c r="H47" s="140"/>
-      <c r="I47" s="176" t="s">
+      <c r="I47" s="174" t="s">
         <v>113</v>
       </c>
       <c r="J47" s="139"/>
@@ -6802,14 +6877,14 @@
       <c r="R47" s="140"/>
     </row>
     <row r="48" spans="1:20" ht="18" customHeight="1">
-      <c r="B48" s="176"/>
+      <c r="B48" s="174"/>
       <c r="C48" s="139"/>
       <c r="D48" s="139"/>
       <c r="E48" s="139"/>
       <c r="F48" s="139"/>
       <c r="G48" s="139"/>
       <c r="H48" s="140"/>
-      <c r="I48" s="176"/>
+      <c r="I48" s="174"/>
       <c r="J48" s="139"/>
       <c r="K48" s="139"/>
       <c r="L48" s="139"/>
@@ -6822,391 +6897,458 @@
     </row>
     <row r="49" spans="1:18" ht="18" customHeight="1"/>
     <row r="50" spans="1:18" ht="18" customHeight="1">
-      <c r="A50" s="63" t="s">
+      <c r="A50" s="62" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="18" customHeight="1"/>
     <row r="52" spans="1:18" ht="18.75" customHeight="1">
-      <c r="B52" s="183"/>
-      <c r="C52" s="183"/>
-      <c r="D52" s="172" t="s">
+      <c r="B52" s="194"/>
+      <c r="C52" s="194"/>
+      <c r="D52" s="191" t="s">
         <v>115</v>
       </c>
-      <c r="E52" s="172"/>
-      <c r="F52" s="172" t="s">
+      <c r="E52" s="191"/>
+      <c r="F52" s="191" t="s">
         <v>116</v>
       </c>
-      <c r="G52" s="172"/>
-      <c r="H52" s="172" t="s">
+      <c r="G52" s="191"/>
+      <c r="H52" s="191" t="s">
         <v>117</v>
       </c>
-      <c r="I52" s="172"/>
-      <c r="J52" s="172" t="s">
+      <c r="I52" s="191"/>
+      <c r="J52" s="191" t="s">
         <v>118</v>
       </c>
-      <c r="K52" s="172"/>
-      <c r="L52" s="172" t="str">
+      <c r="K52" s="191"/>
+      <c r="L52" s="191" t="str">
         <f>お見積書!M20</f>
         <v>金額(${qu.currencyposition})</v>
       </c>
-      <c r="M52" s="172"/>
-      <c r="N52" s="177" t="str">
+      <c r="M52" s="191"/>
+      <c r="N52" s="196" t="str">
         <f>"金額総計"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>金額総計(${qu.currencyposition})</v>
       </c>
-      <c r="O52" s="178"/>
-      <c r="P52" s="178"/>
-      <c r="Q52" s="178"/>
-      <c r="R52" s="179"/>
+      <c r="O52" s="197"/>
+      <c r="P52" s="197"/>
+      <c r="Q52" s="197"/>
+      <c r="R52" s="198"/>
     </row>
     <row r="53" spans="1:18" ht="28.5" customHeight="1">
-      <c r="B53" s="172" t="str">
+      <c r="B53" s="191" t="str">
         <f>IF(記入!A29="","",記入!A29)</f>
         <v>第一回</v>
       </c>
-      <c r="C53" s="172"/>
-      <c r="D53" s="173" t="str">
+      <c r="C53" s="191"/>
+      <c r="D53" s="192" t="str">
         <f>IF(記入!B29="","",記入!B29)</f>
-        <v>${r.deliverydate}</v>
-      </c>
-      <c r="E53" s="174"/>
-      <c r="F53" s="173" t="str">
+        <v>${num[0].deliverydate}</v>
+      </c>
+      <c r="E53" s="193"/>
+      <c r="F53" s="192" t="str">
         <f>IF(記入!C29="","",記入!C29)</f>
-        <v>${r.completiondate}</v>
-      </c>
-      <c r="G53" s="174"/>
-      <c r="H53" s="173" t="str">
+        <v>${num[0].completiondate}</v>
+      </c>
+      <c r="G53" s="193"/>
+      <c r="H53" s="192" t="str">
         <f>IF(記入!D29="","",記入!D29)</f>
-        <v>${r.claimdate}</v>
-      </c>
-      <c r="I53" s="174"/>
-      <c r="J53" s="173" t="str">
+        <v>${num[0].claimdate}</v>
+      </c>
+      <c r="I53" s="193"/>
+      <c r="J53" s="192" t="str">
         <f>IF(記入!E29="","",記入!E29)</f>
-        <v>${r.supportdate}</v>
-      </c>
-      <c r="K53" s="174"/>
-      <c r="L53" s="170" t="str">
+        <v>${num[0].supportdate}</v>
+      </c>
+      <c r="K53" s="193"/>
+      <c r="L53" s="189" t="str">
         <f>IF(記入!F29="","",記入!F29)</f>
-        <v>${r.claimamount}</v>
-      </c>
-      <c r="M53" s="171"/>
-      <c r="N53" s="180" t="e">
+        <v>${num[0].claimamount}</v>
+      </c>
+      <c r="M53" s="190"/>
+      <c r="N53" s="186" t="e">
         <f>SUM(L53:M56)</f>
         <v>#REF!</v>
       </c>
-      <c r="O53" s="181"/>
-      <c r="P53" s="181"/>
-      <c r="Q53" s="181"/>
-      <c r="R53" s="182"/>
+      <c r="O53" s="187"/>
+      <c r="P53" s="187"/>
+      <c r="Q53" s="187"/>
+      <c r="R53" s="188"/>
     </row>
     <row r="54" spans="1:18" ht="28.5" customHeight="1">
-      <c r="B54" s="172" t="e">
+      <c r="B54" s="191" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="C54" s="172"/>
-      <c r="D54" s="173" t="e">
+      <c r="C54" s="191"/>
+      <c r="D54" s="192" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="E54" s="174"/>
-      <c r="F54" s="173" t="e">
+      <c r="E54" s="193"/>
+      <c r="F54" s="192" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G54" s="174"/>
-      <c r="H54" s="173" t="e">
+      <c r="G54" s="193"/>
+      <c r="H54" s="192" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="I54" s="174"/>
-      <c r="J54" s="173" t="e">
+      <c r="I54" s="193"/>
+      <c r="J54" s="192" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="K54" s="174"/>
-      <c r="L54" s="170"/>
-      <c r="M54" s="171"/>
-      <c r="N54" s="180"/>
-      <c r="O54" s="181"/>
-      <c r="P54" s="181"/>
-      <c r="Q54" s="181"/>
-      <c r="R54" s="182"/>
+      <c r="K54" s="193"/>
+      <c r="L54" s="189"/>
+      <c r="M54" s="190"/>
+      <c r="N54" s="186"/>
+      <c r="O54" s="187"/>
+      <c r="P54" s="187"/>
+      <c r="Q54" s="187"/>
+      <c r="R54" s="188"/>
     </row>
     <row r="55" spans="1:18" ht="28.5" customHeight="1">
-      <c r="B55" s="172" t="e">
+      <c r="B55" s="191" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="C55" s="172"/>
-      <c r="D55" s="173" t="e">
+      <c r="C55" s="191"/>
+      <c r="D55" s="192" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="E55" s="174"/>
-      <c r="F55" s="173" t="e">
+      <c r="E55" s="193"/>
+      <c r="F55" s="192" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G55" s="174"/>
-      <c r="H55" s="173" t="e">
+      <c r="G55" s="193"/>
+      <c r="H55" s="192" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="I55" s="174"/>
-      <c r="J55" s="173" t="e">
+      <c r="I55" s="193"/>
+      <c r="J55" s="192" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="K55" s="174"/>
-      <c r="L55" s="170" t="e">
+      <c r="K55" s="193"/>
+      <c r="L55" s="189" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="M55" s="171"/>
-      <c r="N55" s="180"/>
-      <c r="O55" s="181"/>
-      <c r="P55" s="181"/>
-      <c r="Q55" s="181"/>
-      <c r="R55" s="182"/>
+      <c r="M55" s="190"/>
+      <c r="N55" s="186"/>
+      <c r="O55" s="187"/>
+      <c r="P55" s="187"/>
+      <c r="Q55" s="187"/>
+      <c r="R55" s="188"/>
     </row>
     <row r="56" spans="1:18" ht="31.5" customHeight="1">
-      <c r="B56" s="172" t="e">
+      <c r="B56" s="191" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="C56" s="172"/>
-      <c r="D56" s="173" t="e">
+      <c r="C56" s="191"/>
+      <c r="D56" s="192" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="174"/>
-      <c r="F56" s="173" t="e">
+      <c r="E56" s="193"/>
+      <c r="F56" s="192" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="174"/>
-      <c r="H56" s="173" t="e">
+      <c r="G56" s="193"/>
+      <c r="H56" s="192" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="174"/>
-      <c r="J56" s="173" t="e">
+      <c r="I56" s="193"/>
+      <c r="J56" s="192" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="174"/>
-      <c r="L56" s="170" t="e">
+      <c r="K56" s="193"/>
+      <c r="L56" s="189" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="171"/>
-      <c r="N56" s="180"/>
-      <c r="O56" s="181"/>
-      <c r="P56" s="181"/>
-      <c r="Q56" s="181"/>
-      <c r="R56" s="182"/>
+      <c r="M56" s="190"/>
+      <c r="N56" s="186"/>
+      <c r="O56" s="187"/>
+      <c r="P56" s="187"/>
+      <c r="Q56" s="187"/>
+      <c r="R56" s="188"/>
     </row>
     <row r="57" spans="1:18" ht="18" customHeight="1"/>
     <row r="58" spans="1:18" ht="18" customHeight="1">
-      <c r="A58" s="63" t="s">
+      <c r="A58" s="62" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:18" ht="18" customHeight="1">
-      <c r="B59" s="78"/>
-      <c r="C59" s="79"/>
-      <c r="D59" s="79"/>
-      <c r="E59" s="79"/>
-      <c r="F59" s="79"/>
-      <c r="G59" s="79"/>
-      <c r="H59" s="79"/>
-      <c r="I59" s="79"/>
-      <c r="J59" s="79"/>
-      <c r="K59" s="79"/>
-      <c r="L59" s="79"/>
-      <c r="M59" s="79"/>
-      <c r="N59" s="79"/>
-      <c r="O59" s="79"/>
-      <c r="P59" s="79"/>
-      <c r="Q59" s="79"/>
-      <c r="R59" s="80"/>
+      <c r="B59" s="77"/>
+      <c r="C59" s="78"/>
+      <c r="D59" s="78"/>
+      <c r="E59" s="78"/>
+      <c r="F59" s="78"/>
+      <c r="G59" s="78"/>
+      <c r="H59" s="78"/>
+      <c r="I59" s="78"/>
+      <c r="J59" s="78"/>
+      <c r="K59" s="78"/>
+      <c r="L59" s="78"/>
+      <c r="M59" s="78"/>
+      <c r="N59" s="78"/>
+      <c r="O59" s="78"/>
+      <c r="P59" s="78"/>
+      <c r="Q59" s="78"/>
+      <c r="R59" s="79"/>
     </row>
     <row r="60" spans="1:18" ht="18" customHeight="1">
-      <c r="B60" s="81"/>
-      <c r="C60" s="82"/>
-      <c r="D60" s="82"/>
-      <c r="E60" s="82"/>
-      <c r="F60" s="82"/>
-      <c r="G60" s="82"/>
-      <c r="H60" s="82"/>
-      <c r="I60" s="82"/>
-      <c r="J60" s="82"/>
-      <c r="K60" s="82"/>
-      <c r="L60" s="82"/>
-      <c r="M60" s="82"/>
-      <c r="N60" s="82"/>
-      <c r="O60" s="82"/>
-      <c r="P60" s="82"/>
-      <c r="Q60" s="82"/>
-      <c r="R60" s="83"/>
+      <c r="B60" s="80"/>
+      <c r="C60" s="81"/>
+      <c r="D60" s="81"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81"/>
+      <c r="G60" s="81"/>
+      <c r="H60" s="81"/>
+      <c r="I60" s="81"/>
+      <c r="J60" s="81"/>
+      <c r="K60" s="81"/>
+      <c r="L60" s="81"/>
+      <c r="M60" s="81"/>
+      <c r="N60" s="81"/>
+      <c r="O60" s="81"/>
+      <c r="P60" s="81"/>
+      <c r="Q60" s="81"/>
+      <c r="R60" s="82"/>
     </row>
     <row r="61" spans="1:18" ht="18" customHeight="1">
-      <c r="B61" s="81"/>
-      <c r="C61" s="82"/>
-      <c r="D61" s="82"/>
-      <c r="E61" s="82"/>
-      <c r="F61" s="82"/>
-      <c r="G61" s="82"/>
-      <c r="H61" s="82"/>
-      <c r="I61" s="82"/>
-      <c r="J61" s="82"/>
-      <c r="K61" s="82"/>
-      <c r="L61" s="82"/>
-      <c r="M61" s="82"/>
-      <c r="N61" s="82"/>
-      <c r="O61" s="82"/>
-      <c r="P61" s="82"/>
-      <c r="Q61" s="82"/>
-      <c r="R61" s="83"/>
+      <c r="B61" s="80"/>
+      <c r="C61" s="81"/>
+      <c r="D61" s="81"/>
+      <c r="E61" s="81"/>
+      <c r="F61" s="81"/>
+      <c r="G61" s="81"/>
+      <c r="H61" s="81"/>
+      <c r="I61" s="81"/>
+      <c r="J61" s="81"/>
+      <c r="K61" s="81"/>
+      <c r="L61" s="81"/>
+      <c r="M61" s="81"/>
+      <c r="N61" s="81"/>
+      <c r="O61" s="81"/>
+      <c r="P61" s="81"/>
+      <c r="Q61" s="81"/>
+      <c r="R61" s="82"/>
     </row>
     <row r="62" spans="1:18" ht="18" customHeight="1">
-      <c r="B62" s="81"/>
-      <c r="C62" s="82"/>
-      <c r="D62" s="82"/>
-      <c r="E62" s="82"/>
-      <c r="F62" s="82"/>
-      <c r="G62" s="82"/>
-      <c r="H62" s="82"/>
-      <c r="I62" s="82"/>
-      <c r="J62" s="82"/>
-      <c r="K62" s="82"/>
-      <c r="L62" s="82"/>
-      <c r="M62" s="82"/>
-      <c r="N62" s="82"/>
-      <c r="O62" s="82"/>
-      <c r="P62" s="82"/>
-      <c r="Q62" s="82"/>
-      <c r="R62" s="83"/>
+      <c r="B62" s="80"/>
+      <c r="C62" s="81"/>
+      <c r="D62" s="81"/>
+      <c r="E62" s="81"/>
+      <c r="F62" s="81"/>
+      <c r="G62" s="81"/>
+      <c r="H62" s="81"/>
+      <c r="I62" s="81"/>
+      <c r="J62" s="81"/>
+      <c r="K62" s="81"/>
+      <c r="L62" s="81"/>
+      <c r="M62" s="81"/>
+      <c r="N62" s="81"/>
+      <c r="O62" s="81"/>
+      <c r="P62" s="81"/>
+      <c r="Q62" s="81"/>
+      <c r="R62" s="82"/>
     </row>
     <row r="63" spans="1:18" ht="18" customHeight="1">
-      <c r="B63" s="81"/>
-      <c r="C63" s="82"/>
-      <c r="D63" s="82"/>
-      <c r="E63" s="82"/>
-      <c r="F63" s="82"/>
-      <c r="G63" s="82"/>
-      <c r="H63" s="82"/>
-      <c r="I63" s="82"/>
-      <c r="J63" s="82"/>
-      <c r="K63" s="82"/>
-      <c r="L63" s="82"/>
-      <c r="M63" s="82"/>
-      <c r="N63" s="82"/>
-      <c r="O63" s="82"/>
-      <c r="P63" s="82"/>
-      <c r="Q63" s="82"/>
-      <c r="R63" s="83"/>
+      <c r="B63" s="80"/>
+      <c r="C63" s="81"/>
+      <c r="D63" s="81"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="81"/>
+      <c r="G63" s="81"/>
+      <c r="H63" s="81"/>
+      <c r="I63" s="81"/>
+      <c r="J63" s="81"/>
+      <c r="K63" s="81"/>
+      <c r="L63" s="81"/>
+      <c r="M63" s="81"/>
+      <c r="N63" s="81"/>
+      <c r="O63" s="81"/>
+      <c r="P63" s="81"/>
+      <c r="Q63" s="81"/>
+      <c r="R63" s="82"/>
     </row>
     <row r="64" spans="1:18" ht="18" customHeight="1">
-      <c r="B64" s="81"/>
-      <c r="C64" s="82"/>
-      <c r="D64" s="82"/>
-      <c r="E64" s="82"/>
-      <c r="F64" s="82"/>
-      <c r="G64" s="82"/>
-      <c r="H64" s="82"/>
-      <c r="I64" s="82"/>
-      <c r="J64" s="82"/>
-      <c r="K64" s="82"/>
-      <c r="L64" s="82"/>
-      <c r="M64" s="82"/>
-      <c r="N64" s="82"/>
-      <c r="O64" s="82"/>
-      <c r="P64" s="82"/>
-      <c r="Q64" s="82"/>
-      <c r="R64" s="83"/>
+      <c r="B64" s="80"/>
+      <c r="C64" s="81"/>
+      <c r="D64" s="81"/>
+      <c r="E64" s="81"/>
+      <c r="F64" s="81"/>
+      <c r="G64" s="81"/>
+      <c r="H64" s="81"/>
+      <c r="I64" s="81"/>
+      <c r="J64" s="81"/>
+      <c r="K64" s="81"/>
+      <c r="L64" s="81"/>
+      <c r="M64" s="81"/>
+      <c r="N64" s="81"/>
+      <c r="O64" s="81"/>
+      <c r="P64" s="81"/>
+      <c r="Q64" s="81"/>
+      <c r="R64" s="82"/>
     </row>
     <row r="65" spans="2:18" ht="18" customHeight="1">
-      <c r="B65" s="81"/>
-      <c r="C65" s="82"/>
-      <c r="D65" s="82"/>
-      <c r="E65" s="82"/>
-      <c r="F65" s="82"/>
-      <c r="G65" s="82"/>
-      <c r="H65" s="82"/>
-      <c r="I65" s="82"/>
-      <c r="J65" s="82"/>
-      <c r="K65" s="82"/>
-      <c r="L65" s="82"/>
-      <c r="M65" s="82"/>
-      <c r="N65" s="82"/>
-      <c r="O65" s="82"/>
-      <c r="P65" s="82"/>
-      <c r="Q65" s="82"/>
-      <c r="R65" s="83"/>
+      <c r="B65" s="80"/>
+      <c r="C65" s="81"/>
+      <c r="D65" s="81"/>
+      <c r="E65" s="81"/>
+      <c r="F65" s="81"/>
+      <c r="G65" s="81"/>
+      <c r="H65" s="81"/>
+      <c r="I65" s="81"/>
+      <c r="J65" s="81"/>
+      <c r="K65" s="81"/>
+      <c r="L65" s="81"/>
+      <c r="M65" s="81"/>
+      <c r="N65" s="81"/>
+      <c r="O65" s="81"/>
+      <c r="P65" s="81"/>
+      <c r="Q65" s="81"/>
+      <c r="R65" s="82"/>
     </row>
     <row r="66" spans="2:18" ht="18" customHeight="1">
-      <c r="B66" s="81"/>
-      <c r="C66" s="82"/>
-      <c r="D66" s="82"/>
-      <c r="E66" s="82"/>
-      <c r="F66" s="82"/>
-      <c r="G66" s="82"/>
-      <c r="H66" s="82"/>
-      <c r="I66" s="82"/>
-      <c r="J66" s="82"/>
-      <c r="K66" s="82"/>
-      <c r="L66" s="82"/>
-      <c r="M66" s="82"/>
-      <c r="N66" s="82"/>
-      <c r="O66" s="82"/>
-      <c r="P66" s="82"/>
-      <c r="Q66" s="82"/>
-      <c r="R66" s="83"/>
+      <c r="B66" s="80"/>
+      <c r="C66" s="81"/>
+      <c r="D66" s="81"/>
+      <c r="E66" s="81"/>
+      <c r="F66" s="81"/>
+      <c r="G66" s="81"/>
+      <c r="H66" s="81"/>
+      <c r="I66" s="81"/>
+      <c r="J66" s="81"/>
+      <c r="K66" s="81"/>
+      <c r="L66" s="81"/>
+      <c r="M66" s="81"/>
+      <c r="N66" s="81"/>
+      <c r="O66" s="81"/>
+      <c r="P66" s="81"/>
+      <c r="Q66" s="81"/>
+      <c r="R66" s="82"/>
     </row>
     <row r="67" spans="2:18" ht="18" customHeight="1">
-      <c r="B67" s="81"/>
-      <c r="C67" s="82"/>
-      <c r="D67" s="82"/>
-      <c r="E67" s="82"/>
-      <c r="F67" s="82"/>
-      <c r="G67" s="82"/>
-      <c r="H67" s="82"/>
-      <c r="I67" s="82"/>
-      <c r="J67" s="82"/>
-      <c r="K67" s="82"/>
-      <c r="L67" s="82"/>
-      <c r="M67" s="82"/>
-      <c r="N67" s="82"/>
-      <c r="O67" s="82"/>
-      <c r="P67" s="82"/>
-      <c r="Q67" s="82"/>
-      <c r="R67" s="83"/>
+      <c r="B67" s="80"/>
+      <c r="C67" s="81"/>
+      <c r="D67" s="81"/>
+      <c r="E67" s="81"/>
+      <c r="F67" s="81"/>
+      <c r="G67" s="81"/>
+      <c r="H67" s="81"/>
+      <c r="I67" s="81"/>
+      <c r="J67" s="81"/>
+      <c r="K67" s="81"/>
+      <c r="L67" s="81"/>
+      <c r="M67" s="81"/>
+      <c r="N67" s="81"/>
+      <c r="O67" s="81"/>
+      <c r="P67" s="81"/>
+      <c r="Q67" s="81"/>
+      <c r="R67" s="82"/>
     </row>
     <row r="68" spans="2:18" ht="18" customHeight="1">
-      <c r="B68" s="84"/>
-      <c r="C68" s="85"/>
-      <c r="D68" s="85"/>
-      <c r="E68" s="85"/>
-      <c r="F68" s="85"/>
-      <c r="G68" s="85"/>
-      <c r="H68" s="85"/>
-      <c r="I68" s="85"/>
-      <c r="J68" s="85"/>
-      <c r="K68" s="85"/>
-      <c r="L68" s="85"/>
-      <c r="M68" s="85"/>
-      <c r="N68" s="85"/>
-      <c r="O68" s="85"/>
-      <c r="P68" s="85"/>
-      <c r="Q68" s="85"/>
-      <c r="R68" s="86"/>
+      <c r="B68" s="83"/>
+      <c r="C68" s="84"/>
+      <c r="D68" s="84"/>
+      <c r="E68" s="84"/>
+      <c r="F68" s="84"/>
+      <c r="G68" s="84"/>
+      <c r="H68" s="84"/>
+      <c r="I68" s="84"/>
+      <c r="J68" s="84"/>
+      <c r="K68" s="84"/>
+      <c r="L68" s="84"/>
+      <c r="M68" s="84"/>
+      <c r="N68" s="84"/>
+      <c r="O68" s="84"/>
+      <c r="P68" s="84"/>
+      <c r="Q68" s="84"/>
+      <c r="R68" s="85"/>
     </row>
     <row r="69" spans="2:18" ht="10.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="83">
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="B42:R42"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="I46:R46"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="I47:R47"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="I48:R48"/>
+    <mergeCell ref="N52:R52"/>
+    <mergeCell ref="N53:R56"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="B41:R41"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="J31:R31"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="J32:R32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="J33:R33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="J34:R34"/>
+    <mergeCell ref="B39:R39"/>
+    <mergeCell ref="B40:R40"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="J28:R28"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="J29:R29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="J30:R30"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:R13"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="J27:R27"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:N17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:R1"/>
@@ -7223,73 +7365,6 @@
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="F12:I12"/>
-    <mergeCell ref="L12:R12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:R13"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="J27:R27"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:N17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="J28:R28"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="J29:R29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="J30:R30"/>
-    <mergeCell ref="B41:R41"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="J31:R31"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="J32:R32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="J33:R33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="J34:R34"/>
-    <mergeCell ref="B39:R39"/>
-    <mergeCell ref="B40:R40"/>
-    <mergeCell ref="N53:R56"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="B42:R42"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="I46:R46"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="I47:R47"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="I48:R48"/>
-    <mergeCell ref="N52:R52"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J54:K54"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -7309,996 +7384,990 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19.25" style="88" customWidth="1"/>
-    <col min="2" max="2" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="88" customWidth="1"/>
-    <col min="6" max="6" width="3.5" style="88" customWidth="1"/>
-    <col min="7" max="7" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="8" max="256" width="9" style="88"/>
-    <col min="257" max="257" width="19.25" style="88" customWidth="1"/>
-    <col min="258" max="258" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="15.25" style="88" customWidth="1"/>
-    <col min="262" max="262" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="264" max="512" width="9" style="88"/>
-    <col min="513" max="513" width="19.25" style="88" customWidth="1"/>
-    <col min="514" max="514" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="515" max="515" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="516" max="516" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="517" max="517" width="15.25" style="88" customWidth="1"/>
-    <col min="518" max="518" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="519" max="519" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="520" max="768" width="9" style="88"/>
-    <col min="769" max="769" width="19.25" style="88" customWidth="1"/>
-    <col min="770" max="770" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="771" max="771" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="772" max="772" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="773" max="773" width="15.25" style="88" customWidth="1"/>
-    <col min="774" max="774" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="775" max="775" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="776" max="1024" width="9" style="88"/>
-    <col min="1025" max="1025" width="19.25" style="88" customWidth="1"/>
-    <col min="1026" max="1026" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="1027" max="1027" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="1028" max="1028" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="1029" max="1029" width="15.25" style="88" customWidth="1"/>
-    <col min="1030" max="1030" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="1031" max="1031" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1280" width="9" style="88"/>
-    <col min="1281" max="1281" width="19.25" style="88" customWidth="1"/>
-    <col min="1282" max="1282" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="1283" max="1283" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="1284" max="1284" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="1285" max="1285" width="15.25" style="88" customWidth="1"/>
-    <col min="1286" max="1286" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="1287" max="1287" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1536" width="9" style="88"/>
-    <col min="1537" max="1537" width="19.25" style="88" customWidth="1"/>
-    <col min="1538" max="1538" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="1539" max="1539" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="1540" max="1540" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="1541" max="1541" width="15.25" style="88" customWidth="1"/>
-    <col min="1542" max="1542" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="1543" max="1543" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1792" width="9" style="88"/>
-    <col min="1793" max="1793" width="19.25" style="88" customWidth="1"/>
-    <col min="1794" max="1794" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="1795" max="1795" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="1796" max="1796" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="1797" max="1797" width="15.25" style="88" customWidth="1"/>
-    <col min="1798" max="1798" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="1799" max="1799" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="1800" max="2048" width="9" style="88"/>
-    <col min="2049" max="2049" width="19.25" style="88" customWidth="1"/>
-    <col min="2050" max="2050" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="2051" max="2051" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="2052" max="2052" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="2053" max="2053" width="15.25" style="88" customWidth="1"/>
-    <col min="2054" max="2054" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="2055" max="2055" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2304" width="9" style="88"/>
-    <col min="2305" max="2305" width="19.25" style="88" customWidth="1"/>
-    <col min="2306" max="2306" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="2307" max="2307" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="2308" max="2308" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="2309" max="2309" width="15.25" style="88" customWidth="1"/>
-    <col min="2310" max="2310" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="2311" max="2311" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2560" width="9" style="88"/>
-    <col min="2561" max="2561" width="19.25" style="88" customWidth="1"/>
-    <col min="2562" max="2562" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="2563" max="2563" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="2564" max="2564" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="2565" max="2565" width="15.25" style="88" customWidth="1"/>
-    <col min="2566" max="2566" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="2567" max="2567" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2816" width="9" style="88"/>
-    <col min="2817" max="2817" width="19.25" style="88" customWidth="1"/>
-    <col min="2818" max="2818" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="2819" max="2819" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="2820" max="2820" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="2821" max="2821" width="15.25" style="88" customWidth="1"/>
-    <col min="2822" max="2822" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="2823" max="2823" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="2824" max="3072" width="9" style="88"/>
-    <col min="3073" max="3073" width="19.25" style="88" customWidth="1"/>
-    <col min="3074" max="3074" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="3075" max="3075" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="3076" max="3076" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="3077" max="3077" width="15.25" style="88" customWidth="1"/>
-    <col min="3078" max="3078" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="3079" max="3079" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3328" width="9" style="88"/>
-    <col min="3329" max="3329" width="19.25" style="88" customWidth="1"/>
-    <col min="3330" max="3330" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="3331" max="3331" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="3332" max="3332" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="3333" max="3333" width="15.25" style="88" customWidth="1"/>
-    <col min="3334" max="3334" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="3335" max="3335" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3584" width="9" style="88"/>
-    <col min="3585" max="3585" width="19.25" style="88" customWidth="1"/>
-    <col min="3586" max="3586" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="3587" max="3587" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="3588" max="3588" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="3589" max="3589" width="15.25" style="88" customWidth="1"/>
-    <col min="3590" max="3590" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="3591" max="3591" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3840" width="9" style="88"/>
-    <col min="3841" max="3841" width="19.25" style="88" customWidth="1"/>
-    <col min="3842" max="3842" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="3843" max="3843" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="3844" max="3844" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="3845" max="3845" width="15.25" style="88" customWidth="1"/>
-    <col min="3846" max="3846" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="3847" max="3847" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="3848" max="4096" width="9" style="88"/>
-    <col min="4097" max="4097" width="19.25" style="88" customWidth="1"/>
-    <col min="4098" max="4098" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="4099" max="4099" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="4100" max="4100" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="4101" max="4101" width="15.25" style="88" customWidth="1"/>
-    <col min="4102" max="4102" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="4103" max="4103" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4352" width="9" style="88"/>
-    <col min="4353" max="4353" width="19.25" style="88" customWidth="1"/>
-    <col min="4354" max="4354" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="4355" max="4355" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="4356" max="4356" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="4357" max="4357" width="15.25" style="88" customWidth="1"/>
-    <col min="4358" max="4358" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="4359" max="4359" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4608" width="9" style="88"/>
-    <col min="4609" max="4609" width="19.25" style="88" customWidth="1"/>
-    <col min="4610" max="4610" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="4611" max="4611" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="4612" max="4612" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="4613" max="4613" width="15.25" style="88" customWidth="1"/>
-    <col min="4614" max="4614" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="4615" max="4615" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4864" width="9" style="88"/>
-    <col min="4865" max="4865" width="19.25" style="88" customWidth="1"/>
-    <col min="4866" max="4866" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="4867" max="4867" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="4868" max="4868" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="4869" max="4869" width="15.25" style="88" customWidth="1"/>
-    <col min="4870" max="4870" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="4871" max="4871" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="4872" max="5120" width="9" style="88"/>
-    <col min="5121" max="5121" width="19.25" style="88" customWidth="1"/>
-    <col min="5122" max="5122" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="5123" max="5123" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="5124" max="5124" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="5125" max="5125" width="15.25" style="88" customWidth="1"/>
-    <col min="5126" max="5126" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="5127" max="5127" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5376" width="9" style="88"/>
-    <col min="5377" max="5377" width="19.25" style="88" customWidth="1"/>
-    <col min="5378" max="5378" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="5379" max="5379" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="5380" max="5380" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="5381" max="5381" width="15.25" style="88" customWidth="1"/>
-    <col min="5382" max="5382" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="5383" max="5383" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5632" width="9" style="88"/>
-    <col min="5633" max="5633" width="19.25" style="88" customWidth="1"/>
-    <col min="5634" max="5634" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="5635" max="5635" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="5636" max="5636" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="5637" max="5637" width="15.25" style="88" customWidth="1"/>
-    <col min="5638" max="5638" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="5639" max="5639" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5888" width="9" style="88"/>
-    <col min="5889" max="5889" width="19.25" style="88" customWidth="1"/>
-    <col min="5890" max="5890" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="5891" max="5891" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="5892" max="5892" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="5893" max="5893" width="15.25" style="88" customWidth="1"/>
-    <col min="5894" max="5894" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="5895" max="5895" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="5896" max="6144" width="9" style="88"/>
-    <col min="6145" max="6145" width="19.25" style="88" customWidth="1"/>
-    <col min="6146" max="6146" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="6147" max="6147" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="6148" max="6148" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="6149" max="6149" width="15.25" style="88" customWidth="1"/>
-    <col min="6150" max="6150" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="6151" max="6151" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6400" width="9" style="88"/>
-    <col min="6401" max="6401" width="19.25" style="88" customWidth="1"/>
-    <col min="6402" max="6402" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="6403" max="6403" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="6404" max="6404" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="6405" max="6405" width="15.25" style="88" customWidth="1"/>
-    <col min="6406" max="6406" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="6407" max="6407" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6656" width="9" style="88"/>
-    <col min="6657" max="6657" width="19.25" style="88" customWidth="1"/>
-    <col min="6658" max="6658" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="6659" max="6659" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="6660" max="6660" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="6661" max="6661" width="15.25" style="88" customWidth="1"/>
-    <col min="6662" max="6662" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="6663" max="6663" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6912" width="9" style="88"/>
-    <col min="6913" max="6913" width="19.25" style="88" customWidth="1"/>
-    <col min="6914" max="6914" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="6915" max="6915" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="6916" max="6916" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="6917" max="6917" width="15.25" style="88" customWidth="1"/>
-    <col min="6918" max="6918" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="6919" max="6919" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="6920" max="7168" width="9" style="88"/>
-    <col min="7169" max="7169" width="19.25" style="88" customWidth="1"/>
-    <col min="7170" max="7170" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="7171" max="7171" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="7172" max="7172" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="7173" max="7173" width="15.25" style="88" customWidth="1"/>
-    <col min="7174" max="7174" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="7175" max="7175" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7424" width="9" style="88"/>
-    <col min="7425" max="7425" width="19.25" style="88" customWidth="1"/>
-    <col min="7426" max="7426" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="7427" max="7427" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="7428" max="7428" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="7429" max="7429" width="15.25" style="88" customWidth="1"/>
-    <col min="7430" max="7430" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="7431" max="7431" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7680" width="9" style="88"/>
-    <col min="7681" max="7681" width="19.25" style="88" customWidth="1"/>
-    <col min="7682" max="7682" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="7683" max="7683" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="7684" max="7684" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="7685" max="7685" width="15.25" style="88" customWidth="1"/>
-    <col min="7686" max="7686" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="7687" max="7687" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7936" width="9" style="88"/>
-    <col min="7937" max="7937" width="19.25" style="88" customWidth="1"/>
-    <col min="7938" max="7938" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="7939" max="7939" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="7940" max="7940" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="7941" max="7941" width="15.25" style="88" customWidth="1"/>
-    <col min="7942" max="7942" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="7943" max="7943" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="7944" max="8192" width="9" style="88"/>
-    <col min="8193" max="8193" width="19.25" style="88" customWidth="1"/>
-    <col min="8194" max="8194" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="8195" max="8195" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="8196" max="8196" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="8197" max="8197" width="15.25" style="88" customWidth="1"/>
-    <col min="8198" max="8198" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="8199" max="8199" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8448" width="9" style="88"/>
-    <col min="8449" max="8449" width="19.25" style="88" customWidth="1"/>
-    <col min="8450" max="8450" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="8451" max="8451" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="8452" max="8452" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="8453" max="8453" width="15.25" style="88" customWidth="1"/>
-    <col min="8454" max="8454" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="8455" max="8455" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8704" width="9" style="88"/>
-    <col min="8705" max="8705" width="19.25" style="88" customWidth="1"/>
-    <col min="8706" max="8706" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="8707" max="8707" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="8708" max="8708" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="8709" max="8709" width="15.25" style="88" customWidth="1"/>
-    <col min="8710" max="8710" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="8711" max="8711" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8960" width="9" style="88"/>
-    <col min="8961" max="8961" width="19.25" style="88" customWidth="1"/>
-    <col min="8962" max="8962" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="8963" max="8963" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="8964" max="8964" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="8965" max="8965" width="15.25" style="88" customWidth="1"/>
-    <col min="8966" max="8966" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="8967" max="8967" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="8968" max="9216" width="9" style="88"/>
-    <col min="9217" max="9217" width="19.25" style="88" customWidth="1"/>
-    <col min="9218" max="9218" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="9219" max="9219" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="9220" max="9220" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="9221" max="9221" width="15.25" style="88" customWidth="1"/>
-    <col min="9222" max="9222" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="9223" max="9223" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9472" width="9" style="88"/>
-    <col min="9473" max="9473" width="19.25" style="88" customWidth="1"/>
-    <col min="9474" max="9474" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="9475" max="9475" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="9476" max="9476" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="9477" max="9477" width="15.25" style="88" customWidth="1"/>
-    <col min="9478" max="9478" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="9479" max="9479" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9728" width="9" style="88"/>
-    <col min="9729" max="9729" width="19.25" style="88" customWidth="1"/>
-    <col min="9730" max="9730" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="9731" max="9731" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="9732" max="9732" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="9733" max="9733" width="15.25" style="88" customWidth="1"/>
-    <col min="9734" max="9734" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="9735" max="9735" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9984" width="9" style="88"/>
-    <col min="9985" max="9985" width="19.25" style="88" customWidth="1"/>
-    <col min="9986" max="9986" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="9987" max="9987" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="9988" max="9988" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="9989" max="9989" width="15.25" style="88" customWidth="1"/>
-    <col min="9990" max="9990" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="9991" max="9991" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="9992" max="10240" width="9" style="88"/>
-    <col min="10241" max="10241" width="19.25" style="88" customWidth="1"/>
-    <col min="10242" max="10242" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="10243" max="10243" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="10244" max="10244" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="10245" max="10245" width="15.25" style="88" customWidth="1"/>
-    <col min="10246" max="10246" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="10247" max="10247" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10496" width="9" style="88"/>
-    <col min="10497" max="10497" width="19.25" style="88" customWidth="1"/>
-    <col min="10498" max="10498" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="10499" max="10499" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="10500" max="10500" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="10501" max="10501" width="15.25" style="88" customWidth="1"/>
-    <col min="10502" max="10502" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="10503" max="10503" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10752" width="9" style="88"/>
-    <col min="10753" max="10753" width="19.25" style="88" customWidth="1"/>
-    <col min="10754" max="10754" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="10755" max="10755" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="10756" max="10756" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="10757" max="10757" width="15.25" style="88" customWidth="1"/>
-    <col min="10758" max="10758" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="10759" max="10759" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="10760" max="11008" width="9" style="88"/>
-    <col min="11009" max="11009" width="19.25" style="88" customWidth="1"/>
-    <col min="11010" max="11010" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="11011" max="11011" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="11012" max="11012" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="11013" max="11013" width="15.25" style="88" customWidth="1"/>
-    <col min="11014" max="11014" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="11015" max="11015" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11264" width="9" style="88"/>
-    <col min="11265" max="11265" width="19.25" style="88" customWidth="1"/>
-    <col min="11266" max="11266" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="11267" max="11267" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="11268" max="11268" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="11269" max="11269" width="15.25" style="88" customWidth="1"/>
-    <col min="11270" max="11270" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="11271" max="11271" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11520" width="9" style="88"/>
-    <col min="11521" max="11521" width="19.25" style="88" customWidth="1"/>
-    <col min="11522" max="11522" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="11523" max="11523" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="11524" max="11524" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="11525" max="11525" width="15.25" style="88" customWidth="1"/>
-    <col min="11526" max="11526" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="11527" max="11527" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11776" width="9" style="88"/>
-    <col min="11777" max="11777" width="19.25" style="88" customWidth="1"/>
-    <col min="11778" max="11778" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="11779" max="11779" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="11780" max="11780" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="11781" max="11781" width="15.25" style="88" customWidth="1"/>
-    <col min="11782" max="11782" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="11783" max="11783" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="11784" max="12032" width="9" style="88"/>
-    <col min="12033" max="12033" width="19.25" style="88" customWidth="1"/>
-    <col min="12034" max="12034" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="12035" max="12035" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="12036" max="12036" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="12037" max="12037" width="15.25" style="88" customWidth="1"/>
-    <col min="12038" max="12038" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="12039" max="12039" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12288" width="9" style="88"/>
-    <col min="12289" max="12289" width="19.25" style="88" customWidth="1"/>
-    <col min="12290" max="12290" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="12291" max="12291" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="12292" max="12292" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="12293" max="12293" width="15.25" style="88" customWidth="1"/>
-    <col min="12294" max="12294" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="12295" max="12295" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12544" width="9" style="88"/>
-    <col min="12545" max="12545" width="19.25" style="88" customWidth="1"/>
-    <col min="12546" max="12546" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="12547" max="12547" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="12548" max="12548" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="12549" max="12549" width="15.25" style="88" customWidth="1"/>
-    <col min="12550" max="12550" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="12551" max="12551" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12800" width="9" style="88"/>
-    <col min="12801" max="12801" width="19.25" style="88" customWidth="1"/>
-    <col min="12802" max="12802" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="12803" max="12803" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="12804" max="12804" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="12805" max="12805" width="15.25" style="88" customWidth="1"/>
-    <col min="12806" max="12806" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="12807" max="12807" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="12808" max="13056" width="9" style="88"/>
-    <col min="13057" max="13057" width="19.25" style="88" customWidth="1"/>
-    <col min="13058" max="13058" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="13059" max="13059" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="13060" max="13060" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="13061" max="13061" width="15.25" style="88" customWidth="1"/>
-    <col min="13062" max="13062" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="13063" max="13063" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13312" width="9" style="88"/>
-    <col min="13313" max="13313" width="19.25" style="88" customWidth="1"/>
-    <col min="13314" max="13314" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="13315" max="13315" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="13316" max="13316" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="13317" max="13317" width="15.25" style="88" customWidth="1"/>
-    <col min="13318" max="13318" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="13319" max="13319" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13568" width="9" style="88"/>
-    <col min="13569" max="13569" width="19.25" style="88" customWidth="1"/>
-    <col min="13570" max="13570" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="13571" max="13571" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="13572" max="13572" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="13573" max="13573" width="15.25" style="88" customWidth="1"/>
-    <col min="13574" max="13574" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="13575" max="13575" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13824" width="9" style="88"/>
-    <col min="13825" max="13825" width="19.25" style="88" customWidth="1"/>
-    <col min="13826" max="13826" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="13827" max="13827" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="13828" max="13828" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="13829" max="13829" width="15.25" style="88" customWidth="1"/>
-    <col min="13830" max="13830" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="13831" max="13831" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="13832" max="14080" width="9" style="88"/>
-    <col min="14081" max="14081" width="19.25" style="88" customWidth="1"/>
-    <col min="14082" max="14082" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="14083" max="14083" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="14084" max="14084" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="14085" max="14085" width="15.25" style="88" customWidth="1"/>
-    <col min="14086" max="14086" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="14087" max="14087" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14336" width="9" style="88"/>
-    <col min="14337" max="14337" width="19.25" style="88" customWidth="1"/>
-    <col min="14338" max="14338" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="14339" max="14339" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="14340" max="14340" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="14341" max="14341" width="15.25" style="88" customWidth="1"/>
-    <col min="14342" max="14342" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="14343" max="14343" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14592" width="9" style="88"/>
-    <col min="14593" max="14593" width="19.25" style="88" customWidth="1"/>
-    <col min="14594" max="14594" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="14595" max="14595" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="14596" max="14596" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="14597" max="14597" width="15.25" style="88" customWidth="1"/>
-    <col min="14598" max="14598" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="14599" max="14599" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14848" width="9" style="88"/>
-    <col min="14849" max="14849" width="19.25" style="88" customWidth="1"/>
-    <col min="14850" max="14850" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="14851" max="14851" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="14852" max="14852" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="14853" max="14853" width="15.25" style="88" customWidth="1"/>
-    <col min="14854" max="14854" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="14855" max="14855" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="14856" max="15104" width="9" style="88"/>
-    <col min="15105" max="15105" width="19.25" style="88" customWidth="1"/>
-    <col min="15106" max="15106" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="15107" max="15107" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="15108" max="15108" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="15109" max="15109" width="15.25" style="88" customWidth="1"/>
-    <col min="15110" max="15110" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="15111" max="15111" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15360" width="9" style="88"/>
-    <col min="15361" max="15361" width="19.25" style="88" customWidth="1"/>
-    <col min="15362" max="15362" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="15363" max="15363" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="15364" max="15364" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="15365" max="15365" width="15.25" style="88" customWidth="1"/>
-    <col min="15366" max="15366" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="15367" max="15367" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15616" width="9" style="88"/>
-    <col min="15617" max="15617" width="19.25" style="88" customWidth="1"/>
-    <col min="15618" max="15618" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="15619" max="15619" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="15620" max="15620" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="15621" max="15621" width="15.25" style="88" customWidth="1"/>
-    <col min="15622" max="15622" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="15623" max="15623" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15872" width="9" style="88"/>
-    <col min="15873" max="15873" width="19.25" style="88" customWidth="1"/>
-    <col min="15874" max="15874" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="15875" max="15875" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="15876" max="15876" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="15877" max="15877" width="15.25" style="88" customWidth="1"/>
-    <col min="15878" max="15878" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="15879" max="15879" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="15880" max="16128" width="9" style="88"/>
-    <col min="16129" max="16129" width="19.25" style="88" customWidth="1"/>
-    <col min="16130" max="16130" width="35.625" style="88" bestFit="1" customWidth="1"/>
-    <col min="16131" max="16131" width="14.875" style="88" bestFit="1" customWidth="1"/>
-    <col min="16132" max="16132" width="9.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="16133" max="16133" width="15.25" style="88" customWidth="1"/>
-    <col min="16134" max="16134" width="7.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="16135" max="16135" width="5.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16384" width="9" style="88"/>
+    <col min="1" max="1" width="19.25" style="87" customWidth="1"/>
+    <col min="2" max="2" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="87" customWidth="1"/>
+    <col min="6" max="6" width="3.5" style="87" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="8" max="256" width="9" style="87"/>
+    <col min="257" max="257" width="19.25" style="87" customWidth="1"/>
+    <col min="258" max="258" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="15.25" style="87" customWidth="1"/>
+    <col min="262" max="262" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="264" max="512" width="9" style="87"/>
+    <col min="513" max="513" width="19.25" style="87" customWidth="1"/>
+    <col min="514" max="514" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="516" max="516" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="15.25" style="87" customWidth="1"/>
+    <col min="518" max="518" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="520" max="768" width="9" style="87"/>
+    <col min="769" max="769" width="19.25" style="87" customWidth="1"/>
+    <col min="770" max="770" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="772" max="772" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="15.25" style="87" customWidth="1"/>
+    <col min="774" max="774" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="776" max="1024" width="9" style="87"/>
+    <col min="1025" max="1025" width="19.25" style="87" customWidth="1"/>
+    <col min="1026" max="1026" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="1028" max="1028" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="15.25" style="87" customWidth="1"/>
+    <col min="1030" max="1030" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1280" width="9" style="87"/>
+    <col min="1281" max="1281" width="19.25" style="87" customWidth="1"/>
+    <col min="1282" max="1282" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="1284" max="1284" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="15.25" style="87" customWidth="1"/>
+    <col min="1286" max="1286" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1536" width="9" style="87"/>
+    <col min="1537" max="1537" width="19.25" style="87" customWidth="1"/>
+    <col min="1538" max="1538" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="1540" max="1540" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="15.25" style="87" customWidth="1"/>
+    <col min="1542" max="1542" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1792" width="9" style="87"/>
+    <col min="1793" max="1793" width="19.25" style="87" customWidth="1"/>
+    <col min="1794" max="1794" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="1796" max="1796" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="15.25" style="87" customWidth="1"/>
+    <col min="1798" max="1798" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="1800" max="2048" width="9" style="87"/>
+    <col min="2049" max="2049" width="19.25" style="87" customWidth="1"/>
+    <col min="2050" max="2050" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="2052" max="2052" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="15.25" style="87" customWidth="1"/>
+    <col min="2054" max="2054" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2304" width="9" style="87"/>
+    <col min="2305" max="2305" width="19.25" style="87" customWidth="1"/>
+    <col min="2306" max="2306" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="2308" max="2308" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="15.25" style="87" customWidth="1"/>
+    <col min="2310" max="2310" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2560" width="9" style="87"/>
+    <col min="2561" max="2561" width="19.25" style="87" customWidth="1"/>
+    <col min="2562" max="2562" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="2564" max="2564" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="15.25" style="87" customWidth="1"/>
+    <col min="2566" max="2566" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2816" width="9" style="87"/>
+    <col min="2817" max="2817" width="19.25" style="87" customWidth="1"/>
+    <col min="2818" max="2818" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="2820" max="2820" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="15.25" style="87" customWidth="1"/>
+    <col min="2822" max="2822" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="2824" max="3072" width="9" style="87"/>
+    <col min="3073" max="3073" width="19.25" style="87" customWidth="1"/>
+    <col min="3074" max="3074" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="3076" max="3076" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="15.25" style="87" customWidth="1"/>
+    <col min="3078" max="3078" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3328" width="9" style="87"/>
+    <col min="3329" max="3329" width="19.25" style="87" customWidth="1"/>
+    <col min="3330" max="3330" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="3332" max="3332" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="15.25" style="87" customWidth="1"/>
+    <col min="3334" max="3334" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3584" width="9" style="87"/>
+    <col min="3585" max="3585" width="19.25" style="87" customWidth="1"/>
+    <col min="3586" max="3586" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="3588" max="3588" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="15.25" style="87" customWidth="1"/>
+    <col min="3590" max="3590" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3840" width="9" style="87"/>
+    <col min="3841" max="3841" width="19.25" style="87" customWidth="1"/>
+    <col min="3842" max="3842" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="3844" max="3844" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="15.25" style="87" customWidth="1"/>
+    <col min="3846" max="3846" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="3848" max="4096" width="9" style="87"/>
+    <col min="4097" max="4097" width="19.25" style="87" customWidth="1"/>
+    <col min="4098" max="4098" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="4100" max="4100" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="15.25" style="87" customWidth="1"/>
+    <col min="4102" max="4102" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4352" width="9" style="87"/>
+    <col min="4353" max="4353" width="19.25" style="87" customWidth="1"/>
+    <col min="4354" max="4354" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="4356" max="4356" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="15.25" style="87" customWidth="1"/>
+    <col min="4358" max="4358" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4608" width="9" style="87"/>
+    <col min="4609" max="4609" width="19.25" style="87" customWidth="1"/>
+    <col min="4610" max="4610" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="4612" max="4612" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="15.25" style="87" customWidth="1"/>
+    <col min="4614" max="4614" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4864" width="9" style="87"/>
+    <col min="4865" max="4865" width="19.25" style="87" customWidth="1"/>
+    <col min="4866" max="4866" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="4868" max="4868" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="15.25" style="87" customWidth="1"/>
+    <col min="4870" max="4870" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="4872" max="5120" width="9" style="87"/>
+    <col min="5121" max="5121" width="19.25" style="87" customWidth="1"/>
+    <col min="5122" max="5122" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="5124" max="5124" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="15.25" style="87" customWidth="1"/>
+    <col min="5126" max="5126" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5376" width="9" style="87"/>
+    <col min="5377" max="5377" width="19.25" style="87" customWidth="1"/>
+    <col min="5378" max="5378" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="5380" max="5380" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="15.25" style="87" customWidth="1"/>
+    <col min="5382" max="5382" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5632" width="9" style="87"/>
+    <col min="5633" max="5633" width="19.25" style="87" customWidth="1"/>
+    <col min="5634" max="5634" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="5636" max="5636" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="15.25" style="87" customWidth="1"/>
+    <col min="5638" max="5638" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5888" width="9" style="87"/>
+    <col min="5889" max="5889" width="19.25" style="87" customWidth="1"/>
+    <col min="5890" max="5890" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="5892" max="5892" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="15.25" style="87" customWidth="1"/>
+    <col min="5894" max="5894" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="5896" max="6144" width="9" style="87"/>
+    <col min="6145" max="6145" width="19.25" style="87" customWidth="1"/>
+    <col min="6146" max="6146" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="6148" max="6148" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="15.25" style="87" customWidth="1"/>
+    <col min="6150" max="6150" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6400" width="9" style="87"/>
+    <col min="6401" max="6401" width="19.25" style="87" customWidth="1"/>
+    <col min="6402" max="6402" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="6404" max="6404" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="15.25" style="87" customWidth="1"/>
+    <col min="6406" max="6406" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6656" width="9" style="87"/>
+    <col min="6657" max="6657" width="19.25" style="87" customWidth="1"/>
+    <col min="6658" max="6658" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="6660" max="6660" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="15.25" style="87" customWidth="1"/>
+    <col min="6662" max="6662" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6912" width="9" style="87"/>
+    <col min="6913" max="6913" width="19.25" style="87" customWidth="1"/>
+    <col min="6914" max="6914" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="6916" max="6916" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="15.25" style="87" customWidth="1"/>
+    <col min="6918" max="6918" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="6920" max="7168" width="9" style="87"/>
+    <col min="7169" max="7169" width="19.25" style="87" customWidth="1"/>
+    <col min="7170" max="7170" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="7172" max="7172" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="15.25" style="87" customWidth="1"/>
+    <col min="7174" max="7174" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7424" width="9" style="87"/>
+    <col min="7425" max="7425" width="19.25" style="87" customWidth="1"/>
+    <col min="7426" max="7426" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="7428" max="7428" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="15.25" style="87" customWidth="1"/>
+    <col min="7430" max="7430" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7680" width="9" style="87"/>
+    <col min="7681" max="7681" width="19.25" style="87" customWidth="1"/>
+    <col min="7682" max="7682" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="7684" max="7684" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="15.25" style="87" customWidth="1"/>
+    <col min="7686" max="7686" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7936" width="9" style="87"/>
+    <col min="7937" max="7937" width="19.25" style="87" customWidth="1"/>
+    <col min="7938" max="7938" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="7940" max="7940" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="15.25" style="87" customWidth="1"/>
+    <col min="7942" max="7942" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="7944" max="8192" width="9" style="87"/>
+    <col min="8193" max="8193" width="19.25" style="87" customWidth="1"/>
+    <col min="8194" max="8194" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="8196" max="8196" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="15.25" style="87" customWidth="1"/>
+    <col min="8198" max="8198" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8448" width="9" style="87"/>
+    <col min="8449" max="8449" width="19.25" style="87" customWidth="1"/>
+    <col min="8450" max="8450" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="8452" max="8452" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="15.25" style="87" customWidth="1"/>
+    <col min="8454" max="8454" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8704" width="9" style="87"/>
+    <col min="8705" max="8705" width="19.25" style="87" customWidth="1"/>
+    <col min="8706" max="8706" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="8708" max="8708" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="15.25" style="87" customWidth="1"/>
+    <col min="8710" max="8710" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8960" width="9" style="87"/>
+    <col min="8961" max="8961" width="19.25" style="87" customWidth="1"/>
+    <col min="8962" max="8962" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="8964" max="8964" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="15.25" style="87" customWidth="1"/>
+    <col min="8966" max="8966" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="8968" max="9216" width="9" style="87"/>
+    <col min="9217" max="9217" width="19.25" style="87" customWidth="1"/>
+    <col min="9218" max="9218" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="9220" max="9220" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="15.25" style="87" customWidth="1"/>
+    <col min="9222" max="9222" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9472" width="9" style="87"/>
+    <col min="9473" max="9473" width="19.25" style="87" customWidth="1"/>
+    <col min="9474" max="9474" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="9476" max="9476" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="15.25" style="87" customWidth="1"/>
+    <col min="9478" max="9478" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9728" width="9" style="87"/>
+    <col min="9729" max="9729" width="19.25" style="87" customWidth="1"/>
+    <col min="9730" max="9730" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="9732" max="9732" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="15.25" style="87" customWidth="1"/>
+    <col min="9734" max="9734" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9984" width="9" style="87"/>
+    <col min="9985" max="9985" width="19.25" style="87" customWidth="1"/>
+    <col min="9986" max="9986" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="9988" max="9988" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="15.25" style="87" customWidth="1"/>
+    <col min="9990" max="9990" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="9992" max="10240" width="9" style="87"/>
+    <col min="10241" max="10241" width="19.25" style="87" customWidth="1"/>
+    <col min="10242" max="10242" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="10244" max="10244" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="15.25" style="87" customWidth="1"/>
+    <col min="10246" max="10246" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10496" width="9" style="87"/>
+    <col min="10497" max="10497" width="19.25" style="87" customWidth="1"/>
+    <col min="10498" max="10498" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="10500" max="10500" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="15.25" style="87" customWidth="1"/>
+    <col min="10502" max="10502" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10752" width="9" style="87"/>
+    <col min="10753" max="10753" width="19.25" style="87" customWidth="1"/>
+    <col min="10754" max="10754" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="10756" max="10756" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="15.25" style="87" customWidth="1"/>
+    <col min="10758" max="10758" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="10760" max="11008" width="9" style="87"/>
+    <col min="11009" max="11009" width="19.25" style="87" customWidth="1"/>
+    <col min="11010" max="11010" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="11012" max="11012" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="15.25" style="87" customWidth="1"/>
+    <col min="11014" max="11014" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11264" width="9" style="87"/>
+    <col min="11265" max="11265" width="19.25" style="87" customWidth="1"/>
+    <col min="11266" max="11266" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="11268" max="11268" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="15.25" style="87" customWidth="1"/>
+    <col min="11270" max="11270" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11520" width="9" style="87"/>
+    <col min="11521" max="11521" width="19.25" style="87" customWidth="1"/>
+    <col min="11522" max="11522" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="11524" max="11524" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="15.25" style="87" customWidth="1"/>
+    <col min="11526" max="11526" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11776" width="9" style="87"/>
+    <col min="11777" max="11777" width="19.25" style="87" customWidth="1"/>
+    <col min="11778" max="11778" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="11780" max="11780" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="15.25" style="87" customWidth="1"/>
+    <col min="11782" max="11782" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="11784" max="12032" width="9" style="87"/>
+    <col min="12033" max="12033" width="19.25" style="87" customWidth="1"/>
+    <col min="12034" max="12034" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="12036" max="12036" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="15.25" style="87" customWidth="1"/>
+    <col min="12038" max="12038" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12288" width="9" style="87"/>
+    <col min="12289" max="12289" width="19.25" style="87" customWidth="1"/>
+    <col min="12290" max="12290" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="12292" max="12292" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="15.25" style="87" customWidth="1"/>
+    <col min="12294" max="12294" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12544" width="9" style="87"/>
+    <col min="12545" max="12545" width="19.25" style="87" customWidth="1"/>
+    <col min="12546" max="12546" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="12548" max="12548" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="15.25" style="87" customWidth="1"/>
+    <col min="12550" max="12550" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12800" width="9" style="87"/>
+    <col min="12801" max="12801" width="19.25" style="87" customWidth="1"/>
+    <col min="12802" max="12802" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="12804" max="12804" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="15.25" style="87" customWidth="1"/>
+    <col min="12806" max="12806" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="12808" max="13056" width="9" style="87"/>
+    <col min="13057" max="13057" width="19.25" style="87" customWidth="1"/>
+    <col min="13058" max="13058" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="13060" max="13060" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="15.25" style="87" customWidth="1"/>
+    <col min="13062" max="13062" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13312" width="9" style="87"/>
+    <col min="13313" max="13313" width="19.25" style="87" customWidth="1"/>
+    <col min="13314" max="13314" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="13316" max="13316" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="15.25" style="87" customWidth="1"/>
+    <col min="13318" max="13318" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13568" width="9" style="87"/>
+    <col min="13569" max="13569" width="19.25" style="87" customWidth="1"/>
+    <col min="13570" max="13570" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="13572" max="13572" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="15.25" style="87" customWidth="1"/>
+    <col min="13574" max="13574" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13824" width="9" style="87"/>
+    <col min="13825" max="13825" width="19.25" style="87" customWidth="1"/>
+    <col min="13826" max="13826" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="13828" max="13828" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="15.25" style="87" customWidth="1"/>
+    <col min="13830" max="13830" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="13832" max="14080" width="9" style="87"/>
+    <col min="14081" max="14081" width="19.25" style="87" customWidth="1"/>
+    <col min="14082" max="14082" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="14084" max="14084" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="15.25" style="87" customWidth="1"/>
+    <col min="14086" max="14086" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14336" width="9" style="87"/>
+    <col min="14337" max="14337" width="19.25" style="87" customWidth="1"/>
+    <col min="14338" max="14338" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="14340" max="14340" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="15.25" style="87" customWidth="1"/>
+    <col min="14342" max="14342" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14592" width="9" style="87"/>
+    <col min="14593" max="14593" width="19.25" style="87" customWidth="1"/>
+    <col min="14594" max="14594" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="14596" max="14596" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="15.25" style="87" customWidth="1"/>
+    <col min="14598" max="14598" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14848" width="9" style="87"/>
+    <col min="14849" max="14849" width="19.25" style="87" customWidth="1"/>
+    <col min="14850" max="14850" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="14852" max="14852" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="15.25" style="87" customWidth="1"/>
+    <col min="14854" max="14854" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="14856" max="15104" width="9" style="87"/>
+    <col min="15105" max="15105" width="19.25" style="87" customWidth="1"/>
+    <col min="15106" max="15106" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="15108" max="15108" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="15.25" style="87" customWidth="1"/>
+    <col min="15110" max="15110" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15360" width="9" style="87"/>
+    <col min="15361" max="15361" width="19.25" style="87" customWidth="1"/>
+    <col min="15362" max="15362" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="15364" max="15364" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="15.25" style="87" customWidth="1"/>
+    <col min="15366" max="15366" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15616" width="9" style="87"/>
+    <col min="15617" max="15617" width="19.25" style="87" customWidth="1"/>
+    <col min="15618" max="15618" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="15620" max="15620" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="15.25" style="87" customWidth="1"/>
+    <col min="15622" max="15622" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15872" width="9" style="87"/>
+    <col min="15873" max="15873" width="19.25" style="87" customWidth="1"/>
+    <col min="15874" max="15874" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="15876" max="15876" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="15.25" style="87" customWidth="1"/>
+    <col min="15878" max="15878" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="15880" max="16128" width="9" style="87"/>
+    <col min="16129" max="16129" width="19.25" style="87" customWidth="1"/>
+    <col min="16130" max="16130" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="14.875" style="87" bestFit="1" customWidth="1"/>
+    <col min="16132" max="16132" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="15.25" style="87" customWidth="1"/>
+    <col min="16134" max="16134" width="7.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="5.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16384" width="9" style="87"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
+      <c r="A1" s="86"/>
+      <c r="B1" s="86"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="88" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
     </row>
     <row r="4" spans="1:6" ht="28.5">
-      <c r="A4" s="205" t="s">
+      <c r="A4" s="200" t="s">
         <v>138</v>
       </c>
-      <c r="B4" s="206"/>
-      <c r="C4" s="90" t="s">
+      <c r="B4" s="201"/>
+      <c r="C4" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="90" t="s">
+      <c r="D4" s="89" t="s">
         <v>140</v>
       </c>
-      <c r="E4" s="90" t="s">
+      <c r="E4" s="89" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="211" t="s">
+      <c r="A5" s="202" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="90" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="92">
+      <c r="C5" s="91">
         <v>4200</v>
       </c>
-      <c r="D5" s="93">
+      <c r="D5" s="92">
         <v>2</v>
       </c>
-      <c r="E5" s="94">
+      <c r="E5" s="93">
         <f t="shared" ref="E5:E21" si="0">C5*D5</f>
         <v>8400</v>
       </c>
-      <c r="F5" s="95"/>
+      <c r="F5" s="94"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="212"/>
-      <c r="B6" s="91" t="s">
+      <c r="A6" s="203"/>
+      <c r="B6" s="90" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="92">
+      <c r="C6" s="91">
         <v>4200</v>
       </c>
-      <c r="D6" s="93">
+      <c r="D6" s="92">
         <v>2</v>
       </c>
-      <c r="E6" s="94">
+      <c r="E6" s="93">
         <f t="shared" si="0"/>
         <v>8400</v>
       </c>
-      <c r="F6" s="95"/>
+      <c r="F6" s="94"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="212"/>
-      <c r="B7" s="91" t="s">
+      <c r="A7" s="203"/>
+      <c r="B7" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <v>4200</v>
       </c>
-      <c r="D7" s="93">
+      <c r="D7" s="92">
         <v>2</v>
       </c>
-      <c r="E7" s="94">
+      <c r="E7" s="93">
         <f t="shared" si="0"/>
         <v>8400</v>
       </c>
-      <c r="F7" s="95"/>
+      <c r="F7" s="94"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="212"/>
-      <c r="B8" s="91" t="s">
+      <c r="A8" s="203"/>
+      <c r="B8" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="C8" s="92">
+      <c r="C8" s="91">
         <v>4200</v>
       </c>
-      <c r="D8" s="93">
+      <c r="D8" s="92">
         <v>1</v>
       </c>
-      <c r="E8" s="94">
+      <c r="E8" s="93">
         <f t="shared" si="0"/>
         <v>4200</v>
       </c>
-      <c r="F8" s="95"/>
+      <c r="F8" s="94"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="212"/>
-      <c r="B9" s="91" t="s">
+      <c r="A9" s="203"/>
+      <c r="B9" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="92">
+      <c r="C9" s="91">
         <v>4200</v>
       </c>
-      <c r="D9" s="93">
+      <c r="D9" s="92">
         <v>4</v>
       </c>
-      <c r="E9" s="94">
+      <c r="E9" s="93">
         <f t="shared" si="0"/>
         <v>16800</v>
       </c>
-      <c r="F9" s="95"/>
+      <c r="F9" s="94"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="213"/>
-      <c r="B10" s="91" t="s">
+      <c r="A10" s="204"/>
+      <c r="B10" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="92">
+      <c r="C10" s="91">
         <v>4200</v>
       </c>
-      <c r="D10" s="93">
+      <c r="D10" s="92">
         <v>2</v>
       </c>
-      <c r="E10" s="94">
+      <c r="E10" s="93">
         <f t="shared" si="0"/>
         <v>8400</v>
       </c>
-      <c r="F10" s="95"/>
+      <c r="F10" s="94"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A11" s="214" t="s">
+      <c r="A11" s="205" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="90" t="s">
         <v>143</v>
       </c>
-      <c r="C11" s="92">
+      <c r="C11" s="91">
         <v>4200</v>
       </c>
-      <c r="D11" s="93">
+      <c r="D11" s="92">
         <v>2</v>
       </c>
-      <c r="E11" s="94">
+      <c r="E11" s="93">
         <f t="shared" si="0"/>
         <v>8400</v>
       </c>
-      <c r="F11" s="95"/>
+      <c r="F11" s="94"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="215"/>
-      <c r="B12" s="91" t="s">
+      <c r="A12" s="206"/>
+      <c r="B12" s="90" t="s">
         <v>144</v>
       </c>
-      <c r="C12" s="92">
+      <c r="C12" s="91">
         <v>4200</v>
       </c>
-      <c r="D12" s="93">
+      <c r="D12" s="92">
         <v>3</v>
       </c>
-      <c r="E12" s="94">
+      <c r="E12" s="93">
         <f t="shared" si="0"/>
         <v>12600</v>
       </c>
-      <c r="F12" s="95"/>
+      <c r="F12" s="94"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="215"/>
-      <c r="B13" s="91" t="s">
+      <c r="A13" s="206"/>
+      <c r="B13" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="C13" s="92">
+      <c r="C13" s="91">
         <v>4200</v>
       </c>
-      <c r="D13" s="93"/>
-      <c r="E13" s="94">
+      <c r="D13" s="92"/>
+      <c r="E13" s="93">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="95"/>
+      <c r="F13" s="94"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="215"/>
-      <c r="B14" s="91" t="s">
+      <c r="A14" s="206"/>
+      <c r="B14" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="92">
+      <c r="C14" s="91">
         <v>4200</v>
       </c>
-      <c r="D14" s="93"/>
-      <c r="E14" s="94">
+      <c r="D14" s="92"/>
+      <c r="E14" s="93">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="95"/>
+      <c r="F14" s="94"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="215"/>
-      <c r="B15" s="91" t="s">
+      <c r="A15" s="206"/>
+      <c r="B15" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="92">
+      <c r="C15" s="91">
         <v>4200</v>
       </c>
-      <c r="D15" s="93"/>
-      <c r="E15" s="94">
+      <c r="D15" s="92"/>
+      <c r="E15" s="93">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="95"/>
+      <c r="F15" s="94"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="215"/>
-      <c r="B16" s="91" t="s">
+      <c r="A16" s="206"/>
+      <c r="B16" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="C16" s="92">
+      <c r="C16" s="91">
         <v>4200</v>
       </c>
-      <c r="D16" s="93"/>
-      <c r="E16" s="94">
+      <c r="D16" s="92"/>
+      <c r="E16" s="93">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="95"/>
+      <c r="F16" s="94"/>
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A17" s="214" t="s">
+      <c r="A17" s="205" t="s">
         <v>151</v>
       </c>
-      <c r="B17" s="91" t="s">
+      <c r="B17" s="90" t="s">
         <v>143</v>
       </c>
-      <c r="C17" s="92">
+      <c r="C17" s="91">
         <v>4200</v>
       </c>
-      <c r="D17" s="93"/>
-      <c r="E17" s="94">
+      <c r="D17" s="92"/>
+      <c r="E17" s="93">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="95"/>
+      <c r="F17" s="94"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="215"/>
-      <c r="B18" s="91" t="s">
+      <c r="A18" s="206"/>
+      <c r="B18" s="90" t="s">
         <v>144</v>
       </c>
-      <c r="C18" s="92">
+      <c r="C18" s="91">
         <v>4200</v>
       </c>
-      <c r="D18" s="93"/>
-      <c r="E18" s="94">
+      <c r="D18" s="92"/>
+      <c r="E18" s="93">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="95"/>
+      <c r="F18" s="94"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="215"/>
-      <c r="B19" s="91" t="s">
+      <c r="A19" s="206"/>
+      <c r="B19" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="C19" s="92">
+      <c r="C19" s="91">
         <v>4200</v>
       </c>
-      <c r="D19" s="93">
+      <c r="D19" s="92">
         <v>2</v>
       </c>
-      <c r="E19" s="94">
+      <c r="E19" s="93">
         <f t="shared" si="0"/>
         <v>8400</v>
       </c>
-      <c r="F19" s="95"/>
+      <c r="F19" s="94"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="215"/>
-      <c r="B20" s="91" t="s">
+      <c r="A20" s="206"/>
+      <c r="B20" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="C20" s="92">
+      <c r="C20" s="91">
         <v>4200</v>
       </c>
-      <c r="D20" s="93">
+      <c r="D20" s="92">
         <v>2</v>
       </c>
-      <c r="E20" s="94">
+      <c r="E20" s="93">
         <f t="shared" si="0"/>
         <v>8400</v>
       </c>
-      <c r="F20" s="95"/>
+      <c r="F20" s="94"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="215"/>
-      <c r="B21" s="91" t="s">
+      <c r="A21" s="206"/>
+      <c r="B21" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="C21" s="92">
+      <c r="C21" s="91">
         <v>4200</v>
       </c>
-      <c r="D21" s="93">
+      <c r="D21" s="92">
         <v>3</v>
       </c>
-      <c r="E21" s="94">
+      <c r="E21" s="93">
         <f t="shared" si="0"/>
         <v>12600</v>
       </c>
-      <c r="F21" s="95"/>
+      <c r="F21" s="94"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="215"/>
-      <c r="B22" s="91" t="s">
+      <c r="A22" s="206"/>
+      <c r="B22" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="C22" s="92">
+      <c r="C22" s="91">
         <v>4200</v>
       </c>
-      <c r="D22" s="93">
+      <c r="D22" s="92">
         <v>1.3</v>
       </c>
-      <c r="E22" s="94">
+      <c r="E22" s="93">
         <f>C22*D22-460</f>
         <v>5000</v>
       </c>
-      <c r="F22" s="95"/>
+      <c r="F22" s="94"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="216" t="s">
+      <c r="A23" s="207" t="s">
         <v>152</v>
       </c>
-      <c r="B23" s="217"/>
-      <c r="C23" s="217"/>
-      <c r="D23" s="93">
+      <c r="B23" s="208"/>
+      <c r="C23" s="208"/>
+      <c r="D23" s="92">
         <f>SUM(D5:D22)</f>
         <v>26.3</v>
       </c>
-      <c r="E23" s="94">
+      <c r="E23" s="93">
         <f>SUM(E5:E22)</f>
         <v>110000</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="89"/>
-      <c r="B24" s="89"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
+      <c r="A24" s="88"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="89"/>
-      <c r="B25" s="89"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="96"/>
+      <c r="A25" s="88"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="95"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="210" t="s">
+      <c r="A26" s="199" t="s">
         <v>153</v>
       </c>
-      <c r="B26" s="210"/>
-      <c r="C26" s="210"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="97"/>
+      <c r="B26" s="199"/>
+      <c r="C26" s="199"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="96"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="98"/>
-      <c r="B27" s="205" t="s">
+      <c r="A27" s="97"/>
+      <c r="B27" s="200" t="s">
         <v>154</v>
       </c>
-      <c r="C27" s="206"/>
-      <c r="D27" s="99" t="s">
+      <c r="C27" s="201"/>
+      <c r="D27" s="98" t="s">
         <v>155</v>
       </c>
-      <c r="E27" s="100" t="s">
+      <c r="E27" s="99" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="18" customHeight="1">
-      <c r="A28" s="101" t="s">
+      <c r="A28" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="B28" s="207"/>
-      <c r="C28" s="208"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="103"/>
-      <c r="G28" s="103"/>
+      <c r="B28" s="210"/>
+      <c r="C28" s="211"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="102"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="204" t="s">
+      <c r="A29" s="209" t="s">
         <v>152</v>
       </c>
-      <c r="B29" s="204"/>
-      <c r="C29" s="204"/>
-      <c r="D29" s="204"/>
-      <c r="E29" s="104">
+      <c r="B29" s="209"/>
+      <c r="C29" s="209"/>
+      <c r="D29" s="209"/>
+      <c r="E29" s="103">
         <f>SUM(E28:E28)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="89"/>
-      <c r="B30" s="89"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
+      <c r="A30" s="88"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="89"/>
-      <c r="B31" s="89"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
+      <c r="A31" s="88"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="209" t="s">
+      <c r="A32" s="212" t="s">
         <v>158</v>
       </c>
-      <c r="B32" s="209"/>
-      <c r="C32" s="209"/>
-      <c r="D32" s="209"/>
-      <c r="E32" s="100" t="s">
+      <c r="B32" s="212"/>
+      <c r="C32" s="212"/>
+      <c r="D32" s="212"/>
+      <c r="E32" s="99" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A33" s="204" t="s">
+      <c r="A33" s="209" t="s">
         <v>160</v>
       </c>
-      <c r="B33" s="204"/>
-      <c r="C33" s="204"/>
-      <c r="D33" s="204"/>
-      <c r="E33" s="104">
+      <c r="B33" s="209"/>
+      <c r="C33" s="209"/>
+      <c r="D33" s="209"/>
+      <c r="E33" s="103">
         <f>E23</f>
         <v>110000</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="204" t="s">
+      <c r="A34" s="209" t="s">
         <v>153</v>
       </c>
-      <c r="B34" s="204"/>
-      <c r="C34" s="204"/>
-      <c r="D34" s="204"/>
-      <c r="E34" s="104">
+      <c r="B34" s="209"/>
+      <c r="C34" s="209"/>
+      <c r="D34" s="209"/>
+      <c r="E34" s="103">
         <f>E29</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="204" t="s">
+      <c r="A35" s="209" t="s">
         <v>152</v>
       </c>
-      <c r="B35" s="204"/>
-      <c r="C35" s="204"/>
-      <c r="D35" s="204"/>
-      <c r="E35" s="104">
+      <c r="B35" s="209"/>
+      <c r="C35" s="209"/>
+      <c r="D35" s="209"/>
+      <c r="E35" s="103">
         <f>E33+E34</f>
         <v>110000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
@@ -8306,6 +8375,12 @@
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A23:C23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/controller/src/main/resources/jxls_templates/jianjishu_shoutuo.xlsx
+++ b/controller/src/main/resources/jxls_templates/jianjishu_shoutuo.xlsx
@@ -1603,10 +1603,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${qu.pjchinese}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>${qu.contractnumber}</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1631,91 +1627,95 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>${qu.trusteejapanese}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[0].deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[0].completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[0].claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[0].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[0].claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>${qu.requestnumber}</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${qu.trusteejapanese}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[0].deliverydate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[0].completiondate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[0].claimdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[0].supportdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[0].claimamount}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[1].deliverydate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[1].completiondate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[1].claimdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[1].supportdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[1].claimamount}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[2].deliverydate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[2].completiondate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[2].claimdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[2].supportdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[2].claimamount}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[3].deliverydate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[3].completiondate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[3].claimdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[3].supportdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[3].claimamount}</t>
+    <t>${qu.pjnamechinese}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2682,337 +2682,46 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="182" fontId="11" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="31" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="29" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="30" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -3030,6 +2739,297 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="31" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="29" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="30" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="20" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3467,8 +3467,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -3484,28 +3484,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="G1" s="214" t="s">
+      <c r="B1" s="111"/>
+      <c r="G1" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="H1" s="215"/>
+      <c r="H1" s="118"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="10"/>
-      <c r="G2" s="216"/>
-      <c r="H2" s="217"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="120"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="34" t="s">
@@ -3515,8 +3515,8 @@
       <c r="C3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="216"/>
-      <c r="H3" s="217"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="120"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="33" t="s">
@@ -3528,8 +3528,8 @@
       <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="216"/>
-      <c r="H4" s="217"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="120"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="33" t="s">
@@ -3539,8 +3539,8 @@
       <c r="C5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="216"/>
-      <c r="H5" s="217"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="120"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="35" t="s">
@@ -3552,8 +3552,8 @@
       <c r="C6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="216"/>
-      <c r="H6" s="217"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="120"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="35" t="s">
@@ -3565,8 +3565,8 @@
       <c r="C7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="216"/>
-      <c r="H7" s="217"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="120"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="33" t="s">
@@ -3576,8 +3576,8 @@
       <c r="C8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="216"/>
-      <c r="H8" s="217"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="120"/>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A9" s="34" t="s">
@@ -3589,8 +3589,8 @@
       <c r="C9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="216"/>
-      <c r="H9" s="217"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="120"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="33" t="s">
@@ -3602,34 +3602,34 @@
       <c r="C10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="216"/>
-      <c r="H10" s="217"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="120"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="33" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="216"/>
-      <c r="H11" s="217"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="120"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="33" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="216"/>
-      <c r="H12" s="217"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="120"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="33" t="s">
@@ -3639,34 +3639,34 @@
       <c r="C13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="216"/>
-      <c r="H13" s="217"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="120"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="33" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="216"/>
-      <c r="H14" s="217"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="120"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="216"/>
-      <c r="H15" s="217"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="120"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="33" t="s">
@@ -3676,8 +3676,8 @@
       <c r="C16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="216"/>
-      <c r="H16" s="217"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="120"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="33" t="s">
@@ -3687,8 +3687,8 @@
       <c r="C17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="216"/>
-      <c r="H17" s="217"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="120"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="33" t="s">
@@ -3698,34 +3698,34 @@
       <c r="C18" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="216"/>
-      <c r="H18" s="217"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="120"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="33" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="216"/>
-      <c r="H19" s="217"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="120"/>
     </row>
     <row r="20" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A20" s="33" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="216"/>
-      <c r="H20" s="217"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="120"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="33" t="s">
@@ -3735,8 +3735,8 @@
       <c r="C21" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="216"/>
-      <c r="H21" s="217"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="120"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="33" t="s">
@@ -3746,8 +3746,8 @@
       <c r="C22" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="216"/>
-      <c r="H22" s="217"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="120"/>
     </row>
     <row r="23" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A23" s="34" t="s">
@@ -3757,21 +3757,21 @@
       <c r="C23" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="216"/>
-      <c r="H23" s="217"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="120"/>
     </row>
     <row r="24" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A24" s="34" t="s">
         <v>162</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="216"/>
-      <c r="H24" s="217"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="120"/>
     </row>
     <row r="25" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A25" s="34" t="s">
@@ -3781,8 +3781,8 @@
       <c r="C25" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="216"/>
-      <c r="H25" s="217"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="120"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="34" t="s">
@@ -3792,14 +3792,14 @@
       <c r="C26" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="216"/>
-      <c r="H26" s="217"/>
+      <c r="G26" s="119"/>
+      <c r="H26" s="120"/>
     </row>
     <row r="27" spans="1:8" ht="1.5" hidden="1" customHeight="1">
       <c r="A27" s="36"/>
       <c r="B27" s="1"/>
-      <c r="G27" s="216"/>
-      <c r="H27" s="217"/>
+      <c r="G27" s="119"/>
+      <c r="H27" s="120"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="37" t="s">
@@ -3820,100 +3820,100 @@
       <c r="F28" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="G28" s="216"/>
-      <c r="H28" s="217"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="120"/>
     </row>
     <row r="29" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A29" s="213" t="str">
+      <c r="A29" s="104" t="str">
         <f>IF(B29="","","第一回")</f>
         <v>第一回</v>
       </c>
       <c r="B29" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="E29" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="F29" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="E29" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="F29" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="G29" s="216"/>
-      <c r="H29" s="217"/>
+      <c r="G29" s="119"/>
+      <c r="H29" s="120"/>
     </row>
     <row r="30" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A30" s="213" t="str">
+      <c r="A30" s="104" t="str">
         <f>IF(B30="","","第二回")</f>
         <v>第二回</v>
       </c>
       <c r="B30" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="E30" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="F30" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="E30" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="F30" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="G30" s="216"/>
-      <c r="H30" s="217"/>
+      <c r="G30" s="119"/>
+      <c r="H30" s="120"/>
     </row>
     <row r="31" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A31" s="213" t="str">
+      <c r="A31" s="104" t="str">
         <f>IF(B31="","","第三回")</f>
         <v>第三回</v>
       </c>
       <c r="B31" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D31" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="E31" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="F31" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="E31" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="F31" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="G31" s="216"/>
-      <c r="H31" s="217"/>
+      <c r="G31" s="119"/>
+      <c r="H31" s="120"/>
     </row>
     <row r="32" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A32" s="213" t="str">
+      <c r="A32" s="104" t="str">
         <f>IF(B32="","","第四回")</f>
         <v>第四回</v>
       </c>
       <c r="B32" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="D32" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="E32" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="F32" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="E32" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="F32" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="G32" s="218"/>
-      <c r="H32" s="219"/>
+      <c r="G32" s="121"/>
+      <c r="H32" s="122"/>
     </row>
     <row r="33" spans="1:9" ht="12" customHeight="1">
       <c r="A33" s="2"/>
@@ -3925,23 +3925,23 @@
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="1"/>
-      <c r="D35" s="113" t="s">
+      <c r="D35" s="114" t="s">
         <v>163</v>
       </c>
-      <c r="E35" s="113"/>
-      <c r="F35" s="113"/>
-      <c r="G35" s="113"/>
-      <c r="H35" s="113"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="114"/>
+      <c r="G35" s="114"/>
+      <c r="H35" s="114"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="1"/>
-      <c r="D36" s="114" t="s">
-        <v>176</v>
-      </c>
-      <c r="E36" s="114"/>
-      <c r="F36" s="114"/>
-      <c r="G36" s="114"/>
-      <c r="H36" s="114"/>
+      <c r="D36" s="115" t="s">
+        <v>196</v>
+      </c>
+      <c r="E36" s="115"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="115"/>
     </row>
     <row r="37" spans="1:9" ht="13.5">
       <c r="A37" s="40" t="s">
@@ -3951,10 +3951,10 @@
         <f ca="1">TODAY()</f>
         <v>43908</v>
       </c>
-      <c r="D37" s="112" t="s">
+      <c r="D37" s="113" t="s">
         <v>54</v>
       </c>
-      <c r="E37" s="112"/>
+      <c r="E37" s="113"/>
       <c r="F37" s="29" t="s">
         <v>129</v>
       </c>
@@ -3966,10 +3966,10 @@
     </row>
     <row r="38" spans="1:9" ht="13.5">
       <c r="B38" s="1"/>
-      <c r="D38" s="113" t="s">
+      <c r="D38" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="E38" s="113"/>
+      <c r="E38" s="114"/>
       <c r="F38" s="31" t="s">
         <v>126</v>
       </c>
@@ -3983,14 +3983,14 @@
     <row r="39" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="D39" s="112" t="s">
+      <c r="D39" s="113" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="112"/>
-      <c r="F39" s="115" t="s">
+      <c r="E39" s="113"/>
+      <c r="F39" s="116" t="s">
         <v>124</v>
       </c>
-      <c r="G39" s="115"/>
+      <c r="G39" s="116"/>
       <c r="H39" s="29" t="s">
         <v>125</v>
       </c>
@@ -4008,28 +4008,28 @@
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:9" s="3" customFormat="1" ht="14.25">
-      <c r="A42" s="109" t="s">
+      <c r="A42" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="109" t="s">
+      <c r="B42" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="106" t="s">
+      <c r="C42" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="107"/>
-      <c r="E42" s="107"/>
-      <c r="F42" s="108"/>
-      <c r="G42" s="111" t="s">
+      <c r="D42" s="108"/>
+      <c r="E42" s="108"/>
+      <c r="F42" s="109"/>
+      <c r="G42" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="H42" s="109" t="s">
+      <c r="H42" s="110" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="14.25">
-      <c r="A43" s="109"/>
-      <c r="B43" s="109"/>
+      <c r="A43" s="110"/>
+      <c r="B43" s="110"/>
       <c r="C43" s="13" t="s">
         <v>22</v>
       </c>
@@ -4042,8 +4042,8 @@
       <c r="F43" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="109"/>
-      <c r="H43" s="109"/>
+      <c r="G43" s="110"/>
+      <c r="H43" s="110"/>
     </row>
     <row r="44" spans="1:9" ht="14.25">
       <c r="A44" s="12"/>
@@ -4134,10 +4134,10 @@
       <c r="H48" s="23"/>
     </row>
     <row r="49" spans="1:8" ht="15">
-      <c r="A49" s="104" t="s">
+      <c r="A49" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="105"/>
+      <c r="B49" s="106"/>
       <c r="C49" s="20">
         <f>SUM(C44:C48)</f>
         <v>0</v>
@@ -4199,7 +4199,7 @@
   <dimension ref="A1:U42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4720,37 +4720,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="23.1" customHeight="1">
-      <c r="C1" s="118" t="s">
+      <c r="C1" s="164" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="118"/>
-      <c r="S1" s="118"/>
-      <c r="T1" s="118"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="164"/>
+      <c r="J1" s="164"/>
+      <c r="K1" s="164"/>
+      <c r="L1" s="164"/>
+      <c r="M1" s="164"/>
+      <c r="N1" s="164"/>
+      <c r="O1" s="164"/>
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="164"/>
+      <c r="S1" s="164"/>
+      <c r="T1" s="164"/>
     </row>
     <row r="2" spans="1:20" ht="23.1" customHeight="1">
-      <c r="P2" s="121" t="s">
+      <c r="P2" s="167" t="s">
         <v>122</v>
       </c>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="121" t="str">
+      <c r="Q2" s="167"/>
+      <c r="R2" s="167" t="str">
         <f>記入!B12</f>
         <v>${qu.contractnumber}</v>
       </c>
-      <c r="S2" s="121"/>
+      <c r="S2" s="167"/>
     </row>
     <row r="3" spans="1:20" ht="23.1" customHeight="1">
       <c r="A3" s="44"/>
@@ -4759,11 +4759,11 @@
         <f>記入!B2</f>
         <v>${qu.trusteejapanese}</v>
       </c>
-      <c r="R3" s="124">
+      <c r="R3" s="170">
         <f ca="1">記入!B37</f>
         <v>43908</v>
       </c>
-      <c r="S3" s="124"/>
+      <c r="S3" s="170"/>
     </row>
     <row r="4" spans="1:20" ht="23.1" customHeight="1">
       <c r="A4" s="44"/>
@@ -4786,28 +4786,28 @@
         <f>"(件名番号："&amp;記入!D36&amp;")"</f>
         <v>(件名番号：${qu.requestnumber})</v>
       </c>
-      <c r="K6" s="119" t="s">
+      <c r="K6" s="165" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="119"/>
-      <c r="M6" s="119"/>
-      <c r="N6" s="119"/>
-      <c r="O6" s="119"/>
-      <c r="P6" s="119"/>
-      <c r="Q6" s="119"/>
-      <c r="R6" s="119"/>
-      <c r="S6" s="119"/>
+      <c r="L6" s="165"/>
+      <c r="M6" s="165"/>
+      <c r="N6" s="165"/>
+      <c r="O6" s="165"/>
+      <c r="P6" s="165"/>
+      <c r="Q6" s="165"/>
+      <c r="R6" s="165"/>
+      <c r="S6" s="165"/>
     </row>
     <row r="7" spans="1:20" ht="23.1" customHeight="1">
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="119"/>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
-      <c r="S7" s="119"/>
+      <c r="K7" s="165"/>
+      <c r="L7" s="165"/>
+      <c r="M7" s="165"/>
+      <c r="N7" s="165"/>
+      <c r="O7" s="165"/>
+      <c r="P7" s="165"/>
+      <c r="Q7" s="165"/>
+      <c r="R7" s="165"/>
+      <c r="S7" s="165"/>
     </row>
     <row r="8" spans="1:20" ht="23.1" customHeight="1">
       <c r="A8" s="49"/>
@@ -4815,32 +4815,32 @@
       <c r="C8" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="119"/>
-      <c r="L8" s="119"/>
-      <c r="M8" s="119"/>
-      <c r="N8" s="119"/>
-      <c r="O8" s="119"/>
-      <c r="P8" s="119"/>
-      <c r="Q8" s="119"/>
-      <c r="R8" s="119"/>
-      <c r="S8" s="119"/>
+      <c r="K8" s="165"/>
+      <c r="L8" s="165"/>
+      <c r="M8" s="165"/>
+      <c r="N8" s="165"/>
+      <c r="O8" s="165"/>
+      <c r="P8" s="165"/>
+      <c r="Q8" s="165"/>
+      <c r="R8" s="165"/>
+      <c r="S8" s="165"/>
     </row>
     <row r="9" spans="1:20" ht="23.1" customHeight="1">
-      <c r="C9" s="120" t="str">
+      <c r="C9" s="166" t="str">
         <f>記入!B10</f>
         <v>${qu.pjjapanese}</v>
       </c>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="120"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="166"/>
+      <c r="H9" s="166"/>
+      <c r="I9" s="166"/>
+      <c r="J9" s="166"/>
+      <c r="K9" s="166"/>
+      <c r="L9" s="166"/>
+      <c r="M9" s="166"/>
+      <c r="N9" s="166"/>
     </row>
     <row r="10" spans="1:20" ht="23.1" customHeight="1">
       <c r="C10" s="50"/>
@@ -4860,18 +4860,18 @@
       <c r="C11" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="116" t="str">
+      <c r="E11" s="162" t="str">
         <f>記入!B19</f>
         <v>${qu.currencyposition}</v>
       </c>
-      <c r="F11" s="116"/>
-      <c r="G11" s="125">
+      <c r="F11" s="162"/>
+      <c r="G11" s="171">
         <f>M26</f>
         <v>0</v>
       </c>
-      <c r="H11" s="125"/>
-      <c r="I11" s="125"/>
-      <c r="J11" s="125"/>
+      <c r="H11" s="171"/>
+      <c r="I11" s="171"/>
+      <c r="J11" s="171"/>
       <c r="R11" s="52" t="s">
         <v>53</v>
       </c>
@@ -4916,12 +4916,12 @@
       <c r="C14" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="122" t="str">
+      <c r="F14" s="168" t="str">
         <f>記入!F39</f>
         <v>□あり(12ヵ月）</v>
       </c>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
+      <c r="G14" s="168"/>
+      <c r="H14" s="168"/>
       <c r="I14" s="53"/>
       <c r="J14" s="43" t="str">
         <f>記入!H39</f>
@@ -4932,23 +4932,23 @@
       <c r="C15" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="123" t="str">
+      <c r="F15" s="169" t="str">
         <f>記入!B14</f>
         <v>${qu.startdate}</v>
       </c>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123"/>
+      <c r="G15" s="169"/>
+      <c r="H15" s="169"/>
     </row>
     <row r="16" spans="1:20" ht="23.1" customHeight="1">
       <c r="C16" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="123" t="str">
+      <c r="F16" s="169" t="str">
         <f>記入!B15</f>
         <v>${qu.enddate}</v>
       </c>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
+      <c r="G16" s="169"/>
+      <c r="H16" s="169"/>
     </row>
     <row r="17" spans="1:21" ht="23.1" customHeight="1">
       <c r="C17" s="43" t="s">
@@ -4975,287 +4975,287 @@
       <c r="R18" s="26"/>
     </row>
     <row r="19" spans="1:21" ht="23.1" customHeight="1" thickBot="1">
-      <c r="C19" s="117" t="s">
+      <c r="C19" s="163" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117" t="s">
+      <c r="D19" s="163"/>
+      <c r="E19" s="163"/>
+      <c r="F19" s="163" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="117"/>
-      <c r="H19" s="117"/>
-      <c r="I19" s="117"/>
+      <c r="G19" s="163"/>
+      <c r="H19" s="163"/>
+      <c r="I19" s="163"/>
     </row>
     <row r="20" spans="1:21" ht="23.1" customHeight="1" thickBot="1">
       <c r="B20" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="126" t="s">
+      <c r="C20" s="150" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="126"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="126"/>
-      <c r="H20" s="126"/>
-      <c r="I20" s="126"/>
-      <c r="J20" s="126"/>
-      <c r="K20" s="126"/>
-      <c r="L20" s="127"/>
-      <c r="M20" s="128" t="str">
+      <c r="D20" s="150"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="150"/>
+      <c r="G20" s="150"/>
+      <c r="H20" s="150"/>
+      <c r="I20" s="150"/>
+      <c r="J20" s="150"/>
+      <c r="K20" s="150"/>
+      <c r="L20" s="151"/>
+      <c r="M20" s="152" t="str">
         <f>"金額"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>金額(${qu.currencyposition})</v>
       </c>
-      <c r="N20" s="128"/>
-      <c r="O20" s="128"/>
-      <c r="P20" s="128" t="s">
+      <c r="N20" s="152"/>
+      <c r="O20" s="152"/>
+      <c r="P20" s="152" t="s">
         <v>68</v>
       </c>
-      <c r="Q20" s="128"/>
-      <c r="R20" s="128"/>
-      <c r="S20" s="129"/>
+      <c r="Q20" s="152"/>
+      <c r="R20" s="152"/>
+      <c r="S20" s="153"/>
     </row>
     <row r="21" spans="1:21" ht="33" customHeight="1">
       <c r="B21" s="56">
         <v>1</v>
       </c>
-      <c r="C21" s="130" t="str">
+      <c r="C21" s="154" t="str">
         <f>記入!B10</f>
         <v>${qu.pjjapanese}</v>
       </c>
-      <c r="D21" s="131"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="131"/>
-      <c r="G21" s="131"/>
-      <c r="H21" s="131"/>
-      <c r="I21" s="131"/>
-      <c r="J21" s="131"/>
-      <c r="K21" s="131"/>
-      <c r="L21" s="132"/>
-      <c r="M21" s="133" t="str">
+      <c r="D21" s="155"/>
+      <c r="E21" s="155"/>
+      <c r="F21" s="155"/>
+      <c r="G21" s="155"/>
+      <c r="H21" s="155"/>
+      <c r="I21" s="155"/>
+      <c r="J21" s="155"/>
+      <c r="K21" s="155"/>
+      <c r="L21" s="156"/>
+      <c r="M21" s="157" t="str">
         <f>記入!B20</f>
         <v>${qu.claimamount}</v>
       </c>
-      <c r="N21" s="134"/>
-      <c r="O21" s="135"/>
-      <c r="P21" s="136"/>
-      <c r="Q21" s="136"/>
-      <c r="R21" s="136"/>
-      <c r="S21" s="137"/>
+      <c r="N21" s="158"/>
+      <c r="O21" s="159"/>
+      <c r="P21" s="160"/>
+      <c r="Q21" s="160"/>
+      <c r="R21" s="160"/>
+      <c r="S21" s="161"/>
       <c r="U21" s="57"/>
     </row>
     <row r="22" spans="1:21" ht="23.1" customHeight="1">
       <c r="B22" s="58">
         <v>2</v>
       </c>
-      <c r="C22" s="138" t="s">
+      <c r="C22" s="140" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="138"/>
-      <c r="E22" s="138"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="139"/>
-      <c r="J22" s="139"/>
-      <c r="K22" s="139"/>
-      <c r="L22" s="140"/>
-      <c r="M22" s="141" t="s">
+      <c r="D22" s="140"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="140"/>
+      <c r="G22" s="140"/>
+      <c r="H22" s="141"/>
+      <c r="I22" s="141"/>
+      <c r="J22" s="141"/>
+      <c r="K22" s="141"/>
+      <c r="L22" s="142"/>
+      <c r="M22" s="143" t="s">
         <v>69</v>
       </c>
-      <c r="N22" s="141"/>
-      <c r="O22" s="141"/>
-      <c r="P22" s="142"/>
-      <c r="Q22" s="142"/>
-      <c r="R22" s="142"/>
-      <c r="S22" s="143"/>
+      <c r="N22" s="143"/>
+      <c r="O22" s="143"/>
+      <c r="P22" s="144"/>
+      <c r="Q22" s="144"/>
+      <c r="R22" s="144"/>
+      <c r="S22" s="145"/>
       <c r="U22" s="59"/>
     </row>
     <row r="23" spans="1:21" ht="23.1" customHeight="1">
       <c r="B23" s="58">
         <v>3</v>
       </c>
-      <c r="C23" s="138" t="s">
+      <c r="C23" s="140" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="138"/>
-      <c r="E23" s="138"/>
-      <c r="F23" s="138"/>
-      <c r="G23" s="138"/>
-      <c r="H23" s="139"/>
-      <c r="I23" s="139"/>
-      <c r="J23" s="139"/>
-      <c r="K23" s="139"/>
-      <c r="L23" s="140"/>
-      <c r="M23" s="141">
+      <c r="D23" s="140"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="141"/>
+      <c r="I23" s="141"/>
+      <c r="J23" s="141"/>
+      <c r="K23" s="141"/>
+      <c r="L23" s="142"/>
+      <c r="M23" s="143">
         <v>0</v>
       </c>
-      <c r="N23" s="141"/>
-      <c r="O23" s="141"/>
-      <c r="P23" s="142"/>
-      <c r="Q23" s="142"/>
-      <c r="R23" s="142"/>
-      <c r="S23" s="143"/>
+      <c r="N23" s="143"/>
+      <c r="O23" s="143"/>
+      <c r="P23" s="144"/>
+      <c r="Q23" s="144"/>
+      <c r="R23" s="144"/>
+      <c r="S23" s="145"/>
     </row>
     <row r="24" spans="1:21" ht="23.1" customHeight="1">
       <c r="B24" s="58">
         <v>4</v>
       </c>
-      <c r="C24" s="138"/>
-      <c r="D24" s="138"/>
-      <c r="E24" s="138"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="138"/>
-      <c r="H24" s="139"/>
-      <c r="I24" s="139"/>
-      <c r="J24" s="139"/>
-      <c r="K24" s="139"/>
-      <c r="L24" s="140"/>
-      <c r="M24" s="141">
+      <c r="C24" s="140"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="140"/>
+      <c r="F24" s="140"/>
+      <c r="G24" s="140"/>
+      <c r="H24" s="141"/>
+      <c r="I24" s="141"/>
+      <c r="J24" s="141"/>
+      <c r="K24" s="141"/>
+      <c r="L24" s="142"/>
+      <c r="M24" s="143">
         <v>0</v>
       </c>
-      <c r="N24" s="141"/>
-      <c r="O24" s="141"/>
-      <c r="P24" s="142"/>
-      <c r="Q24" s="142"/>
-      <c r="R24" s="142"/>
-      <c r="S24" s="143"/>
+      <c r="N24" s="143"/>
+      <c r="O24" s="143"/>
+      <c r="P24" s="144"/>
+      <c r="Q24" s="144"/>
+      <c r="R24" s="144"/>
+      <c r="S24" s="145"/>
     </row>
     <row r="25" spans="1:21" ht="23.1" customHeight="1">
       <c r="B25" s="60">
         <v>5</v>
       </c>
-      <c r="C25" s="144"/>
-      <c r="D25" s="144"/>
-      <c r="E25" s="144"/>
-      <c r="F25" s="144"/>
-      <c r="G25" s="144"/>
-      <c r="H25" s="145"/>
-      <c r="I25" s="145"/>
-      <c r="J25" s="145"/>
-      <c r="K25" s="145"/>
-      <c r="L25" s="146"/>
-      <c r="M25" s="147">
+      <c r="C25" s="146"/>
+      <c r="D25" s="146"/>
+      <c r="E25" s="146"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="149">
         <v>0</v>
       </c>
-      <c r="N25" s="147"/>
-      <c r="O25" s="147"/>
-      <c r="P25" s="142"/>
-      <c r="Q25" s="142"/>
-      <c r="R25" s="142"/>
-      <c r="S25" s="143"/>
+      <c r="N25" s="149"/>
+      <c r="O25" s="149"/>
+      <c r="P25" s="144"/>
+      <c r="Q25" s="144"/>
+      <c r="R25" s="144"/>
+      <c r="S25" s="145"/>
     </row>
     <row r="26" spans="1:21" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B26" s="151" t="s">
+      <c r="B26" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="152"/>
-      <c r="D26" s="152"/>
-      <c r="E26" s="152"/>
-      <c r="F26" s="152"/>
-      <c r="G26" s="152"/>
-      <c r="H26" s="152"/>
-      <c r="I26" s="152"/>
-      <c r="J26" s="152"/>
-      <c r="K26" s="152"/>
-      <c r="L26" s="153"/>
-      <c r="M26" s="154">
+      <c r="C26" s="127"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="127"/>
+      <c r="G26" s="127"/>
+      <c r="H26" s="127"/>
+      <c r="I26" s="127"/>
+      <c r="J26" s="127"/>
+      <c r="K26" s="127"/>
+      <c r="L26" s="128"/>
+      <c r="M26" s="129">
         <f>SUM(M21:O25)</f>
         <v>0</v>
       </c>
-      <c r="N26" s="155"/>
-      <c r="O26" s="156"/>
-      <c r="P26" s="157"/>
-      <c r="Q26" s="157"/>
-      <c r="R26" s="157"/>
-      <c r="S26" s="158"/>
+      <c r="N26" s="130"/>
+      <c r="O26" s="131"/>
+      <c r="P26" s="132"/>
+      <c r="Q26" s="132"/>
+      <c r="R26" s="132"/>
+      <c r="S26" s="133"/>
     </row>
     <row r="27" spans="1:21" ht="23.1" customHeight="1">
-      <c r="C27" s="159" t="s">
+      <c r="C27" s="134" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="160"/>
-      <c r="E27" s="160"/>
-      <c r="F27" s="160"/>
-      <c r="G27" s="160"/>
-      <c r="H27" s="160"/>
-      <c r="I27" s="160"/>
-      <c r="J27" s="160"/>
-      <c r="K27" s="160"/>
-      <c r="L27" s="160"/>
-      <c r="M27" s="160"/>
-      <c r="N27" s="160"/>
-      <c r="O27" s="160"/>
-      <c r="P27" s="160"/>
-      <c r="Q27" s="160"/>
-      <c r="R27" s="160"/>
-      <c r="S27" s="161"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="135"/>
+      <c r="G27" s="135"/>
+      <c r="H27" s="135"/>
+      <c r="I27" s="135"/>
+      <c r="J27" s="135"/>
+      <c r="K27" s="135"/>
+      <c r="L27" s="135"/>
+      <c r="M27" s="135"/>
+      <c r="N27" s="135"/>
+      <c r="O27" s="135"/>
+      <c r="P27" s="135"/>
+      <c r="Q27" s="135"/>
+      <c r="R27" s="135"/>
+      <c r="S27" s="136"/>
     </row>
     <row r="28" spans="1:21" ht="18" customHeight="1">
       <c r="A28" s="61"/>
       <c r="B28" s="61"/>
-      <c r="C28" s="162" t="s">
+      <c r="C28" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="163"/>
-      <c r="E28" s="163"/>
-      <c r="F28" s="163"/>
-      <c r="G28" s="163"/>
-      <c r="H28" s="163"/>
-      <c r="I28" s="163"/>
-      <c r="J28" s="163"/>
-      <c r="K28" s="163"/>
-      <c r="L28" s="163"/>
-      <c r="M28" s="163"/>
-      <c r="N28" s="163"/>
-      <c r="O28" s="163"/>
-      <c r="P28" s="163"/>
-      <c r="Q28" s="163"/>
-      <c r="R28" s="163"/>
-      <c r="S28" s="164"/>
+      <c r="D28" s="138"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="138"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="138"/>
+      <c r="J28" s="138"/>
+      <c r="K28" s="138"/>
+      <c r="L28" s="138"/>
+      <c r="M28" s="138"/>
+      <c r="N28" s="138"/>
+      <c r="O28" s="138"/>
+      <c r="P28" s="138"/>
+      <c r="Q28" s="138"/>
+      <c r="R28" s="138"/>
+      <c r="S28" s="139"/>
     </row>
     <row r="29" spans="1:21" ht="18" customHeight="1">
       <c r="A29" s="61"/>
       <c r="B29" s="61"/>
-      <c r="C29" s="159"/>
-      <c r="D29" s="160"/>
-      <c r="E29" s="160"/>
-      <c r="F29" s="160"/>
-      <c r="G29" s="160"/>
-      <c r="H29" s="160"/>
-      <c r="I29" s="160"/>
-      <c r="J29" s="160"/>
-      <c r="K29" s="160"/>
-      <c r="L29" s="160"/>
-      <c r="M29" s="160"/>
-      <c r="N29" s="160"/>
-      <c r="O29" s="160"/>
-      <c r="P29" s="160"/>
-      <c r="Q29" s="160"/>
-      <c r="R29" s="160"/>
-      <c r="S29" s="161"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="135"/>
+      <c r="F29" s="135"/>
+      <c r="G29" s="135"/>
+      <c r="H29" s="135"/>
+      <c r="I29" s="135"/>
+      <c r="J29" s="135"/>
+      <c r="K29" s="135"/>
+      <c r="L29" s="135"/>
+      <c r="M29" s="135"/>
+      <c r="N29" s="135"/>
+      <c r="O29" s="135"/>
+      <c r="P29" s="135"/>
+      <c r="Q29" s="135"/>
+      <c r="R29" s="135"/>
+      <c r="S29" s="136"/>
     </row>
     <row r="30" spans="1:21" ht="18" customHeight="1">
       <c r="A30" s="61"/>
       <c r="B30" s="61"/>
-      <c r="C30" s="148"/>
-      <c r="D30" s="149"/>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
-      <c r="N30" s="149"/>
-      <c r="O30" s="149"/>
-      <c r="P30" s="149"/>
-      <c r="Q30" s="149"/>
-      <c r="R30" s="149"/>
-      <c r="S30" s="150"/>
+      <c r="C30" s="123"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="124"/>
+      <c r="F30" s="124"/>
+      <c r="G30" s="124"/>
+      <c r="H30" s="124"/>
+      <c r="I30" s="124"/>
+      <c r="J30" s="124"/>
+      <c r="K30" s="124"/>
+      <c r="L30" s="124"/>
+      <c r="M30" s="124"/>
+      <c r="N30" s="124"/>
+      <c r="O30" s="124"/>
+      <c r="P30" s="124"/>
+      <c r="Q30" s="124"/>
+      <c r="R30" s="124"/>
+      <c r="S30" s="125"/>
     </row>
     <row r="31" spans="1:21" ht="21.95" customHeight="1"/>
     <row r="32" spans="1:21" ht="21.95" customHeight="1"/>
@@ -5271,31 +5271,6 @@
     <row r="42" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="C30:S30"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="C27:S27"/>
-    <mergeCell ref="C28:S28"/>
-    <mergeCell ref="C29:S29"/>
-    <mergeCell ref="C24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="C25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="P25:S25"/>
-    <mergeCell ref="C22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="C23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="C20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="C21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:S21"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="F19:I19"/>
@@ -5309,6 +5284,31 @@
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="G11:J11"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="C21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="C22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="C23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="C24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="C25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="P25:S25"/>
+    <mergeCell ref="C30:S30"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="C27:S27"/>
+    <mergeCell ref="C28:S28"/>
+    <mergeCell ref="C29:S29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -6106,106 +6106,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1">
-      <c r="N1" s="121" t="s">
+      <c r="N1" s="167" t="s">
         <v>122</v>
       </c>
-      <c r="O1" s="121"/>
-      <c r="P1" s="167" t="str">
+      <c r="O1" s="167"/>
+      <c r="P1" s="202" t="str">
         <f>お見積書!R2</f>
         <v>${qu.contractnumber}</v>
       </c>
-      <c r="Q1" s="167"/>
-      <c r="R1" s="167"/>
+      <c r="Q1" s="202"/>
+      <c r="R1" s="202"/>
     </row>
     <row r="2" spans="1:18" ht="18" customHeight="1">
-      <c r="O2" s="165">
+      <c r="O2" s="200">
         <f ca="1">お見積書!R3</f>
         <v>43908</v>
       </c>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="166"/>
+      <c r="P2" s="201"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="201"/>
     </row>
     <row r="3" spans="1:18" ht="18" customHeight="1">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="204" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="176"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="176"/>
-      <c r="K3" s="176"/>
-      <c r="L3" s="176"/>
-      <c r="M3" s="176"/>
-      <c r="N3" s="176"/>
-      <c r="O3" s="176"/>
-      <c r="P3" s="176"/>
-      <c r="Q3" s="176"/>
-      <c r="R3" s="176"/>
+      <c r="B3" s="205"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="205"/>
+      <c r="H3" s="205"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="205"/>
+      <c r="K3" s="205"/>
+      <c r="L3" s="205"/>
+      <c r="M3" s="205"/>
+      <c r="N3" s="205"/>
+      <c r="O3" s="205"/>
+      <c r="P3" s="205"/>
+      <c r="Q3" s="205"/>
+      <c r="R3" s="205"/>
     </row>
     <row r="4" spans="1:18" ht="18" customHeight="1">
-      <c r="A4" s="167" t="str">
+      <c r="A4" s="202" t="str">
         <f>お見積書!C5</f>
         <v>ご照会の件につき下記の通りお見積り申し上げます。</v>
       </c>
-      <c r="B4" s="167"/>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="167"/>
-      <c r="L4" s="167"/>
-      <c r="M4" s="167"/>
-      <c r="N4" s="167"/>
-      <c r="O4" s="167"/>
-      <c r="P4" s="167"/>
-      <c r="Q4" s="167"/>
-      <c r="R4" s="167"/>
+      <c r="B4" s="202"/>
+      <c r="C4" s="202"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="202"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="202"/>
+      <c r="H4" s="202"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="202"/>
+      <c r="K4" s="202"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="202"/>
+      <c r="N4" s="202"/>
+      <c r="O4" s="202"/>
+      <c r="P4" s="202"/>
+      <c r="Q4" s="202"/>
+      <c r="R4" s="202"/>
     </row>
     <row r="5" spans="1:18" ht="18" customHeight="1"/>
     <row r="6" spans="1:18" ht="18" customHeight="1">
-      <c r="I6" s="122" t="s">
+      <c r="I6" s="168" t="s">
         <v>75</v>
       </c>
-      <c r="J6" s="122"/>
-      <c r="K6" s="122"/>
-      <c r="L6" s="122"/>
-      <c r="M6" s="122"/>
-      <c r="N6" s="122"/>
-      <c r="O6" s="122"/>
-      <c r="P6" s="122"/>
-      <c r="Q6" s="122"/>
+      <c r="J6" s="168"/>
+      <c r="K6" s="168"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="168"/>
+      <c r="N6" s="168"/>
+      <c r="O6" s="168"/>
+      <c r="P6" s="168"/>
+      <c r="Q6" s="168"/>
     </row>
     <row r="7" spans="1:18" ht="18" customHeight="1">
-      <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
-      <c r="L7" s="122"/>
-      <c r="M7" s="122"/>
-      <c r="N7" s="122"/>
-      <c r="O7" s="122"/>
-      <c r="P7" s="122"/>
-      <c r="Q7" s="122"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="168"/>
+      <c r="K7" s="168"/>
+      <c r="L7" s="168"/>
+      <c r="M7" s="168"/>
+      <c r="N7" s="168"/>
+      <c r="O7" s="168"/>
+      <c r="P7" s="168"/>
+      <c r="Q7" s="168"/>
     </row>
     <row r="8" spans="1:18" ht="18" customHeight="1">
-      <c r="I8" s="122"/>
-      <c r="J8" s="122"/>
-      <c r="K8" s="122"/>
-      <c r="L8" s="122"/>
-      <c r="M8" s="122"/>
-      <c r="N8" s="122"/>
-      <c r="O8" s="122"/>
-      <c r="P8" s="122"/>
-      <c r="Q8" s="122"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="168"/>
+      <c r="K8" s="168"/>
+      <c r="L8" s="168"/>
+      <c r="M8" s="168"/>
+      <c r="N8" s="168"/>
+      <c r="O8" s="168"/>
+      <c r="P8" s="168"/>
+      <c r="Q8" s="168"/>
     </row>
     <row r="9" spans="1:18" ht="18" customHeight="1">
       <c r="A9" s="62" t="s">
@@ -6213,36 +6213,36 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="18" customHeight="1">
-      <c r="B10" s="171" t="s">
+      <c r="B10" s="195" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="172"/>
-      <c r="D10" s="172"/>
-      <c r="E10" s="173"/>
-      <c r="F10" s="174" t="str">
+      <c r="C10" s="196"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="197"/>
+      <c r="F10" s="178" t="str">
         <f>お見積書!C9</f>
         <v>${qu.pjjapanese}</v>
       </c>
-      <c r="G10" s="139"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="139"/>
-      <c r="J10" s="139"/>
-      <c r="K10" s="139"/>
-      <c r="L10" s="139"/>
-      <c r="M10" s="139"/>
-      <c r="N10" s="139"/>
-      <c r="O10" s="139"/>
-      <c r="P10" s="139"/>
-      <c r="Q10" s="139"/>
-      <c r="R10" s="140"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="141"/>
+      <c r="K10" s="141"/>
+      <c r="L10" s="141"/>
+      <c r="M10" s="141"/>
+      <c r="N10" s="141"/>
+      <c r="O10" s="141"/>
+      <c r="P10" s="141"/>
+      <c r="Q10" s="141"/>
+      <c r="R10" s="142"/>
     </row>
     <row r="11" spans="1:18" ht="18" customHeight="1">
-      <c r="B11" s="171" t="s">
+      <c r="B11" s="195" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="172"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="173"/>
+      <c r="C11" s="196"/>
+      <c r="D11" s="196"/>
+      <c r="E11" s="197"/>
       <c r="F11" s="63" t="str">
         <f>お見積書!F13</f>
         <v>□請負</v>
@@ -6267,57 +6267,57 @@
       <c r="R11" s="64"/>
     </row>
     <row r="12" spans="1:18" ht="18" customHeight="1">
-      <c r="B12" s="171" t="s">
+      <c r="B12" s="195" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="172"/>
-      <c r="D12" s="172"/>
-      <c r="E12" s="173"/>
-      <c r="F12" s="177" t="str">
+      <c r="C12" s="196"/>
+      <c r="D12" s="196"/>
+      <c r="E12" s="197"/>
+      <c r="F12" s="198" t="str">
         <f>お見積書!F15</f>
         <v>${qu.startdate}</v>
       </c>
-      <c r="G12" s="178"/>
-      <c r="H12" s="178"/>
-      <c r="I12" s="178"/>
+      <c r="G12" s="193"/>
+      <c r="H12" s="193"/>
+      <c r="I12" s="193"/>
       <c r="J12" s="65"/>
       <c r="K12" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="L12" s="179" t="str">
+      <c r="L12" s="192" t="str">
         <f>お見積書!F16</f>
         <v>${qu.enddate}</v>
       </c>
-      <c r="M12" s="178"/>
-      <c r="N12" s="178"/>
-      <c r="O12" s="178"/>
-      <c r="P12" s="178"/>
-      <c r="Q12" s="178"/>
-      <c r="R12" s="180"/>
+      <c r="M12" s="193"/>
+      <c r="N12" s="193"/>
+      <c r="O12" s="193"/>
+      <c r="P12" s="193"/>
+      <c r="Q12" s="193"/>
+      <c r="R12" s="194"/>
     </row>
     <row r="13" spans="1:18" ht="18" customHeight="1">
-      <c r="B13" s="171" t="s">
+      <c r="B13" s="195" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="172"/>
-      <c r="D13" s="172"/>
-      <c r="E13" s="173"/>
-      <c r="F13" s="177" t="str">
+      <c r="C13" s="196"/>
+      <c r="D13" s="196"/>
+      <c r="E13" s="197"/>
+      <c r="F13" s="198" t="str">
         <f>お見積書!F16</f>
         <v>${qu.enddate}</v>
       </c>
-      <c r="G13" s="178"/>
-      <c r="H13" s="178"/>
-      <c r="I13" s="178"/>
-      <c r="J13" s="178"/>
-      <c r="K13" s="178"/>
-      <c r="L13" s="178"/>
-      <c r="M13" s="178"/>
-      <c r="N13" s="178"/>
-      <c r="O13" s="178"/>
-      <c r="P13" s="178"/>
-      <c r="Q13" s="178"/>
-      <c r="R13" s="180"/>
+      <c r="G13" s="193"/>
+      <c r="H13" s="193"/>
+      <c r="I13" s="193"/>
+      <c r="J13" s="193"/>
+      <c r="K13" s="193"/>
+      <c r="L13" s="193"/>
+      <c r="M13" s="193"/>
+      <c r="N13" s="193"/>
+      <c r="O13" s="193"/>
+      <c r="P13" s="193"/>
+      <c r="Q13" s="193"/>
+      <c r="R13" s="194"/>
     </row>
     <row r="14" spans="1:18" ht="18" customHeight="1"/>
     <row r="15" spans="1:18" ht="18" customHeight="1">
@@ -6326,116 +6326,116 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="18" customHeight="1">
-      <c r="B16" s="171" t="s">
+      <c r="B16" s="195" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="172"/>
-      <c r="D16" s="172"/>
-      <c r="E16" s="173"/>
-      <c r="F16" s="174" t="str">
+      <c r="C16" s="196"/>
+      <c r="D16" s="196"/>
+      <c r="E16" s="197"/>
+      <c r="F16" s="178" t="str">
         <f>記入!B24</f>
         <v>${qu.loadingjudge}</v>
       </c>
-      <c r="G16" s="139"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="139"/>
-      <c r="J16" s="139"/>
-      <c r="K16" s="139"/>
-      <c r="L16" s="139"/>
-      <c r="M16" s="139"/>
-      <c r="N16" s="139"/>
-      <c r="O16" s="139"/>
-      <c r="P16" s="139"/>
-      <c r="Q16" s="139"/>
-      <c r="R16" s="140"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="141"/>
+      <c r="I16" s="141"/>
+      <c r="J16" s="141"/>
+      <c r="K16" s="141"/>
+      <c r="L16" s="141"/>
+      <c r="M16" s="141"/>
+      <c r="N16" s="141"/>
+      <c r="O16" s="141"/>
+      <c r="P16" s="141"/>
+      <c r="Q16" s="141"/>
+      <c r="R16" s="142"/>
     </row>
     <row r="17" spans="1:19" ht="18" customHeight="1">
-      <c r="B17" s="171" t="s">
+      <c r="B17" s="195" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="172"/>
-      <c r="D17" s="172"/>
-      <c r="E17" s="173"/>
-      <c r="F17" s="174" t="str">
+      <c r="C17" s="196"/>
+      <c r="D17" s="196"/>
+      <c r="E17" s="197"/>
+      <c r="F17" s="178" t="str">
         <f>記入!B9</f>
         <v>${qu.deployment}</v>
       </c>
-      <c r="G17" s="139"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="139"/>
-      <c r="K17" s="139"/>
-      <c r="L17" s="139"/>
-      <c r="M17" s="139"/>
-      <c r="N17" s="140"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="141"/>
+      <c r="I17" s="141"/>
+      <c r="J17" s="141"/>
+      <c r="K17" s="141"/>
+      <c r="L17" s="141"/>
+      <c r="M17" s="141"/>
+      <c r="N17" s="142"/>
       <c r="O17" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="P17" s="139" t="s">
+      <c r="P17" s="141" t="s">
         <v>84</v>
       </c>
-      <c r="Q17" s="139"/>
-      <c r="R17" s="140"/>
+      <c r="Q17" s="141"/>
+      <c r="R17" s="142"/>
     </row>
     <row r="18" spans="1:19" ht="18" customHeight="1"/>
     <row r="19" spans="1:19" ht="18" customHeight="1">
-      <c r="B19" s="181" t="s">
+      <c r="B19" s="199" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="145"/>
-      <c r="D19" s="145"/>
-      <c r="E19" s="145"/>
-      <c r="F19" s="145"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="145"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="145"/>
-      <c r="K19" s="145"/>
-      <c r="L19" s="145"/>
-      <c r="M19" s="145"/>
-      <c r="N19" s="145"/>
-      <c r="O19" s="145"/>
-      <c r="P19" s="145"/>
-      <c r="Q19" s="145"/>
-      <c r="R19" s="146"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="147"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="147"/>
+      <c r="I19" s="147"/>
+      <c r="J19" s="147"/>
+      <c r="K19" s="147"/>
+      <c r="L19" s="147"/>
+      <c r="M19" s="147"/>
+      <c r="N19" s="147"/>
+      <c r="O19" s="147"/>
+      <c r="P19" s="147"/>
+      <c r="Q19" s="147"/>
+      <c r="R19" s="148"/>
     </row>
     <row r="20" spans="1:19" ht="18" customHeight="1">
-      <c r="B20" s="159"/>
-      <c r="C20" s="160"/>
-      <c r="D20" s="160"/>
-      <c r="E20" s="160"/>
-      <c r="F20" s="160"/>
-      <c r="G20" s="160"/>
-      <c r="H20" s="160"/>
-      <c r="I20" s="160"/>
-      <c r="J20" s="160"/>
-      <c r="K20" s="160"/>
-      <c r="L20" s="160"/>
-      <c r="M20" s="160"/>
-      <c r="N20" s="160"/>
-      <c r="O20" s="160"/>
-      <c r="P20" s="160"/>
-      <c r="Q20" s="160"/>
-      <c r="R20" s="161"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="135"/>
+      <c r="F20" s="135"/>
+      <c r="G20" s="135"/>
+      <c r="H20" s="135"/>
+      <c r="I20" s="135"/>
+      <c r="J20" s="135"/>
+      <c r="K20" s="135"/>
+      <c r="L20" s="135"/>
+      <c r="M20" s="135"/>
+      <c r="N20" s="135"/>
+      <c r="O20" s="135"/>
+      <c r="P20" s="135"/>
+      <c r="Q20" s="135"/>
+      <c r="R20" s="136"/>
     </row>
     <row r="21" spans="1:19" ht="18" customHeight="1">
-      <c r="B21" s="148"/>
-      <c r="C21" s="149"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="149"/>
-      <c r="F21" s="149"/>
-      <c r="G21" s="149"/>
-      <c r="H21" s="149"/>
-      <c r="I21" s="149"/>
-      <c r="J21" s="149"/>
-      <c r="K21" s="149"/>
-      <c r="L21" s="149"/>
-      <c r="M21" s="149"/>
-      <c r="N21" s="149"/>
-      <c r="O21" s="149"/>
-      <c r="P21" s="149"/>
-      <c r="Q21" s="149"/>
-      <c r="R21" s="150"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="124"/>
+      <c r="G21" s="124"/>
+      <c r="H21" s="124"/>
+      <c r="I21" s="124"/>
+      <c r="J21" s="124"/>
+      <c r="K21" s="124"/>
+      <c r="L21" s="124"/>
+      <c r="M21" s="124"/>
+      <c r="N21" s="124"/>
+      <c r="O21" s="124"/>
+      <c r="P21" s="124"/>
+      <c r="Q21" s="124"/>
+      <c r="R21" s="125"/>
     </row>
     <row r="22" spans="1:19" ht="18" customHeight="1"/>
     <row r="23" spans="1:19" ht="18" customHeight="1">
@@ -6460,189 +6460,189 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="18" customHeight="1">
-      <c r="B27" s="174" t="s">
+      <c r="B27" s="178" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="139"/>
-      <c r="D27" s="139"/>
-      <c r="E27" s="139"/>
-      <c r="F27" s="139"/>
-      <c r="G27" s="139"/>
-      <c r="H27" s="139"/>
-      <c r="I27" s="140"/>
-      <c r="J27" s="174" t="s">
+      <c r="C27" s="141"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="141"/>
+      <c r="I27" s="142"/>
+      <c r="J27" s="178" t="s">
         <v>91</v>
       </c>
-      <c r="K27" s="139"/>
-      <c r="L27" s="139"/>
-      <c r="M27" s="139"/>
-      <c r="N27" s="139"/>
-      <c r="O27" s="139"/>
-      <c r="P27" s="139"/>
-      <c r="Q27" s="139"/>
-      <c r="R27" s="140"/>
+      <c r="K27" s="141"/>
+      <c r="L27" s="141"/>
+      <c r="M27" s="141"/>
+      <c r="N27" s="141"/>
+      <c r="O27" s="141"/>
+      <c r="P27" s="141"/>
+      <c r="Q27" s="141"/>
+      <c r="R27" s="142"/>
     </row>
     <row r="28" spans="1:19" ht="18" customHeight="1">
-      <c r="B28" s="174" t="s">
+      <c r="B28" s="178" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="139"/>
-      <c r="D28" s="139"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="139"/>
-      <c r="I28" s="140"/>
-      <c r="J28" s="174" t="s">
+      <c r="C28" s="141"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="141"/>
+      <c r="I28" s="142"/>
+      <c r="J28" s="178" t="s">
         <v>93</v>
       </c>
-      <c r="K28" s="139"/>
-      <c r="L28" s="139"/>
-      <c r="M28" s="139"/>
-      <c r="N28" s="139"/>
-      <c r="O28" s="139"/>
-      <c r="P28" s="139"/>
-      <c r="Q28" s="139"/>
-      <c r="R28" s="140"/>
+      <c r="K28" s="141"/>
+      <c r="L28" s="141"/>
+      <c r="M28" s="141"/>
+      <c r="N28" s="141"/>
+      <c r="O28" s="141"/>
+      <c r="P28" s="141"/>
+      <c r="Q28" s="141"/>
+      <c r="R28" s="142"/>
       <c r="S28" s="68"/>
     </row>
     <row r="29" spans="1:19" ht="18" customHeight="1">
-      <c r="B29" s="174" t="s">
+      <c r="B29" s="178" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="139"/>
-      <c r="D29" s="139"/>
-      <c r="E29" s="139"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="139"/>
-      <c r="H29" s="139"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="174" t="s">
+      <c r="C29" s="141"/>
+      <c r="D29" s="141"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="141"/>
+      <c r="H29" s="141"/>
+      <c r="I29" s="142"/>
+      <c r="J29" s="178" t="s">
         <v>95</v>
       </c>
-      <c r="K29" s="139"/>
-      <c r="L29" s="139"/>
-      <c r="M29" s="139"/>
-      <c r="N29" s="139"/>
-      <c r="O29" s="139"/>
-      <c r="P29" s="139"/>
-      <c r="Q29" s="139"/>
-      <c r="R29" s="140"/>
+      <c r="K29" s="141"/>
+      <c r="L29" s="141"/>
+      <c r="M29" s="141"/>
+      <c r="N29" s="141"/>
+      <c r="O29" s="141"/>
+      <c r="P29" s="141"/>
+      <c r="Q29" s="141"/>
+      <c r="R29" s="142"/>
     </row>
     <row r="30" spans="1:19" ht="18" customHeight="1">
-      <c r="B30" s="174" t="s">
+      <c r="B30" s="178" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="139"/>
-      <c r="D30" s="139"/>
-      <c r="E30" s="139"/>
-      <c r="F30" s="139"/>
-      <c r="G30" s="139"/>
-      <c r="H30" s="139"/>
-      <c r="I30" s="140"/>
-      <c r="J30" s="174" t="s">
+      <c r="C30" s="141"/>
+      <c r="D30" s="141"/>
+      <c r="E30" s="141"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="141"/>
+      <c r="H30" s="141"/>
+      <c r="I30" s="142"/>
+      <c r="J30" s="178" t="s">
         <v>97</v>
       </c>
-      <c r="K30" s="139"/>
-      <c r="L30" s="139"/>
-      <c r="M30" s="139"/>
-      <c r="N30" s="139"/>
-      <c r="O30" s="139"/>
-      <c r="P30" s="139"/>
-      <c r="Q30" s="139"/>
-      <c r="R30" s="140"/>
+      <c r="K30" s="141"/>
+      <c r="L30" s="141"/>
+      <c r="M30" s="141"/>
+      <c r="N30" s="141"/>
+      <c r="O30" s="141"/>
+      <c r="P30" s="141"/>
+      <c r="Q30" s="141"/>
+      <c r="R30" s="142"/>
     </row>
     <row r="31" spans="1:19" ht="18" customHeight="1">
-      <c r="B31" s="174" t="s">
+      <c r="B31" s="178" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="139"/>
-      <c r="D31" s="139"/>
-      <c r="E31" s="139"/>
-      <c r="F31" s="139"/>
-      <c r="G31" s="139"/>
-      <c r="H31" s="139"/>
-      <c r="I31" s="140"/>
-      <c r="J31" s="174" t="s">
+      <c r="C31" s="141"/>
+      <c r="D31" s="141"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="141"/>
+      <c r="G31" s="141"/>
+      <c r="H31" s="141"/>
+      <c r="I31" s="142"/>
+      <c r="J31" s="178" t="s">
         <v>99</v>
       </c>
-      <c r="K31" s="139"/>
-      <c r="L31" s="139"/>
-      <c r="M31" s="139"/>
-      <c r="N31" s="139"/>
-      <c r="O31" s="139"/>
-      <c r="P31" s="139"/>
-      <c r="Q31" s="139"/>
-      <c r="R31" s="140"/>
+      <c r="K31" s="141"/>
+      <c r="L31" s="141"/>
+      <c r="M31" s="141"/>
+      <c r="N31" s="141"/>
+      <c r="O31" s="141"/>
+      <c r="P31" s="141"/>
+      <c r="Q31" s="141"/>
+      <c r="R31" s="142"/>
     </row>
     <row r="32" spans="1:19" ht="18" customHeight="1">
-      <c r="B32" s="174" t="s">
+      <c r="B32" s="178" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="139"/>
-      <c r="D32" s="139"/>
-      <c r="E32" s="139"/>
-      <c r="F32" s="139"/>
-      <c r="G32" s="139"/>
-      <c r="H32" s="139"/>
-      <c r="I32" s="140"/>
-      <c r="J32" s="174" t="s">
+      <c r="C32" s="141"/>
+      <c r="D32" s="141"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="141"/>
+      <c r="G32" s="141"/>
+      <c r="H32" s="141"/>
+      <c r="I32" s="142"/>
+      <c r="J32" s="178" t="s">
         <v>101</v>
       </c>
-      <c r="K32" s="139"/>
-      <c r="L32" s="139"/>
-      <c r="M32" s="139"/>
-      <c r="N32" s="139"/>
-      <c r="O32" s="139"/>
-      <c r="P32" s="139"/>
-      <c r="Q32" s="139"/>
-      <c r="R32" s="140"/>
+      <c r="K32" s="141"/>
+      <c r="L32" s="141"/>
+      <c r="M32" s="141"/>
+      <c r="N32" s="141"/>
+      <c r="O32" s="141"/>
+      <c r="P32" s="141"/>
+      <c r="Q32" s="141"/>
+      <c r="R32" s="142"/>
     </row>
     <row r="33" spans="1:20" ht="18" customHeight="1">
-      <c r="B33" s="174" t="s">
+      <c r="B33" s="178" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="139"/>
-      <c r="D33" s="139"/>
-      <c r="E33" s="139"/>
-      <c r="F33" s="139"/>
-      <c r="G33" s="139"/>
-      <c r="H33" s="139"/>
-      <c r="I33" s="140"/>
-      <c r="J33" s="174" t="s">
+      <c r="C33" s="141"/>
+      <c r="D33" s="141"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="141"/>
+      <c r="H33" s="141"/>
+      <c r="I33" s="142"/>
+      <c r="J33" s="178" t="s">
         <v>103</v>
       </c>
-      <c r="K33" s="139"/>
-      <c r="L33" s="139"/>
-      <c r="M33" s="139"/>
-      <c r="N33" s="139"/>
-      <c r="O33" s="139"/>
-      <c r="P33" s="139"/>
-      <c r="Q33" s="139"/>
-      <c r="R33" s="140"/>
+      <c r="K33" s="141"/>
+      <c r="L33" s="141"/>
+      <c r="M33" s="141"/>
+      <c r="N33" s="141"/>
+      <c r="O33" s="141"/>
+      <c r="P33" s="141"/>
+      <c r="Q33" s="141"/>
+      <c r="R33" s="142"/>
     </row>
     <row r="34" spans="1:20" ht="18" customHeight="1">
-      <c r="B34" s="174" t="s">
+      <c r="B34" s="178" t="s">
         <v>104</v>
       </c>
-      <c r="C34" s="139"/>
-      <c r="D34" s="139"/>
-      <c r="E34" s="139"/>
-      <c r="F34" s="139"/>
-      <c r="G34" s="139"/>
-      <c r="H34" s="139"/>
-      <c r="I34" s="140"/>
-      <c r="J34" s="174" t="s">
+      <c r="C34" s="141"/>
+      <c r="D34" s="141"/>
+      <c r="E34" s="141"/>
+      <c r="F34" s="141"/>
+      <c r="G34" s="141"/>
+      <c r="H34" s="141"/>
+      <c r="I34" s="142"/>
+      <c r="J34" s="178" t="s">
         <v>105</v>
       </c>
-      <c r="K34" s="139"/>
-      <c r="L34" s="139"/>
-      <c r="M34" s="139"/>
-      <c r="N34" s="139"/>
-      <c r="O34" s="139"/>
-      <c r="P34" s="139"/>
-      <c r="Q34" s="139"/>
-      <c r="R34" s="140"/>
+      <c r="K34" s="141"/>
+      <c r="L34" s="141"/>
+      <c r="M34" s="141"/>
+      <c r="N34" s="141"/>
+      <c r="O34" s="141"/>
+      <c r="P34" s="141"/>
+      <c r="Q34" s="141"/>
+      <c r="R34" s="142"/>
     </row>
     <row r="35" spans="1:20" ht="18" customHeight="1">
       <c r="B35" s="69"/>
@@ -6706,118 +6706,118 @@
       <c r="R37" s="73"/>
     </row>
     <row r="38" spans="1:20" ht="18" customHeight="1">
-      <c r="B38" s="168" t="s">
+      <c r="B38" s="189" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="169"/>
-      <c r="D38" s="169"/>
-      <c r="E38" s="169"/>
-      <c r="F38" s="169"/>
-      <c r="G38" s="169"/>
-      <c r="H38" s="170" t="str">
+      <c r="C38" s="190"/>
+      <c r="D38" s="190"/>
+      <c r="E38" s="190"/>
+      <c r="F38" s="190"/>
+      <c r="G38" s="190"/>
+      <c r="H38" s="203" t="str">
         <f>記入!D36</f>
         <v>${qu.requestnumber}</v>
       </c>
-      <c r="I38" s="170"/>
-      <c r="J38" s="169"/>
-      <c r="K38" s="169"/>
-      <c r="L38" s="169"/>
-      <c r="M38" s="169"/>
-      <c r="N38" s="169"/>
-      <c r="O38" s="169"/>
-      <c r="P38" s="169"/>
-      <c r="Q38" s="169"/>
+      <c r="I38" s="203"/>
+      <c r="J38" s="190"/>
+      <c r="K38" s="190"/>
+      <c r="L38" s="190"/>
+      <c r="M38" s="190"/>
+      <c r="N38" s="190"/>
+      <c r="O38" s="190"/>
+      <c r="P38" s="190"/>
+      <c r="Q38" s="190"/>
       <c r="R38" s="74"/>
       <c r="S38" s="75"/>
       <c r="T38" s="75"/>
     </row>
     <row r="39" spans="1:20" ht="18" customHeight="1">
-      <c r="B39" s="168" t="s">
+      <c r="B39" s="189" t="s">
         <v>133</v>
       </c>
-      <c r="C39" s="169"/>
-      <c r="D39" s="169"/>
-      <c r="E39" s="169"/>
-      <c r="F39" s="169"/>
-      <c r="G39" s="169"/>
-      <c r="H39" s="169"/>
-      <c r="I39" s="169"/>
-      <c r="J39" s="169"/>
-      <c r="K39" s="169"/>
-      <c r="L39" s="169"/>
-      <c r="M39" s="169"/>
-      <c r="N39" s="169"/>
-      <c r="O39" s="169"/>
-      <c r="P39" s="169"/>
-      <c r="Q39" s="169"/>
-      <c r="R39" s="185"/>
+      <c r="C39" s="190"/>
+      <c r="D39" s="190"/>
+      <c r="E39" s="190"/>
+      <c r="F39" s="190"/>
+      <c r="G39" s="190"/>
+      <c r="H39" s="190"/>
+      <c r="I39" s="190"/>
+      <c r="J39" s="190"/>
+      <c r="K39" s="190"/>
+      <c r="L39" s="190"/>
+      <c r="M39" s="190"/>
+      <c r="N39" s="190"/>
+      <c r="O39" s="190"/>
+      <c r="P39" s="190"/>
+      <c r="Q39" s="190"/>
+      <c r="R39" s="191"/>
       <c r="S39" s="75"/>
       <c r="T39" s="75"/>
     </row>
     <row r="40" spans="1:20" ht="18" customHeight="1">
-      <c r="B40" s="182" t="s">
+      <c r="B40" s="186" t="s">
         <v>131</v>
       </c>
-      <c r="C40" s="183"/>
-      <c r="D40" s="183"/>
-      <c r="E40" s="183"/>
-      <c r="F40" s="183"/>
-      <c r="G40" s="183"/>
-      <c r="H40" s="183"/>
-      <c r="I40" s="183"/>
-      <c r="J40" s="183"/>
-      <c r="K40" s="183"/>
-      <c r="L40" s="183"/>
-      <c r="M40" s="183"/>
-      <c r="N40" s="183"/>
-      <c r="O40" s="183"/>
-      <c r="P40" s="183"/>
-      <c r="Q40" s="183"/>
-      <c r="R40" s="184"/>
+      <c r="C40" s="187"/>
+      <c r="D40" s="187"/>
+      <c r="E40" s="187"/>
+      <c r="F40" s="187"/>
+      <c r="G40" s="187"/>
+      <c r="H40" s="187"/>
+      <c r="I40" s="187"/>
+      <c r="J40" s="187"/>
+      <c r="K40" s="187"/>
+      <c r="L40" s="187"/>
+      <c r="M40" s="187"/>
+      <c r="N40" s="187"/>
+      <c r="O40" s="187"/>
+      <c r="P40" s="187"/>
+      <c r="Q40" s="187"/>
+      <c r="R40" s="188"/>
       <c r="S40" s="76"/>
       <c r="T40" s="76"/>
     </row>
     <row r="41" spans="1:20" ht="18" customHeight="1">
-      <c r="B41" s="182" t="s">
+      <c r="B41" s="186" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="183"/>
-      <c r="D41" s="183"/>
-      <c r="E41" s="183"/>
-      <c r="F41" s="183"/>
-      <c r="G41" s="183"/>
-      <c r="H41" s="183"/>
-      <c r="I41" s="183"/>
-      <c r="J41" s="183"/>
-      <c r="K41" s="183"/>
-      <c r="L41" s="183"/>
-      <c r="M41" s="183"/>
-      <c r="N41" s="183"/>
-      <c r="O41" s="183"/>
-      <c r="P41" s="183"/>
-      <c r="Q41" s="183"/>
-      <c r="R41" s="184"/>
+      <c r="C41" s="187"/>
+      <c r="D41" s="187"/>
+      <c r="E41" s="187"/>
+      <c r="F41" s="187"/>
+      <c r="G41" s="187"/>
+      <c r="H41" s="187"/>
+      <c r="I41" s="187"/>
+      <c r="J41" s="187"/>
+      <c r="K41" s="187"/>
+      <c r="L41" s="187"/>
+      <c r="M41" s="187"/>
+      <c r="N41" s="187"/>
+      <c r="O41" s="187"/>
+      <c r="P41" s="187"/>
+      <c r="Q41" s="187"/>
+      <c r="R41" s="188"/>
       <c r="S41" s="76"/>
       <c r="T41" s="76"/>
     </row>
     <row r="42" spans="1:20" ht="18" customHeight="1">
-      <c r="B42" s="148"/>
-      <c r="C42" s="149"/>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
-      <c r="N42" s="149"/>
-      <c r="O42" s="149"/>
-      <c r="P42" s="149"/>
-      <c r="Q42" s="149"/>
-      <c r="R42" s="150"/>
+      <c r="B42" s="123"/>
+      <c r="C42" s="124"/>
+      <c r="D42" s="124"/>
+      <c r="E42" s="124"/>
+      <c r="F42" s="124"/>
+      <c r="G42" s="124"/>
+      <c r="H42" s="124"/>
+      <c r="I42" s="124"/>
+      <c r="J42" s="124"/>
+      <c r="K42" s="124"/>
+      <c r="L42" s="124"/>
+      <c r="M42" s="124"/>
+      <c r="N42" s="124"/>
+      <c r="O42" s="124"/>
+      <c r="P42" s="124"/>
+      <c r="Q42" s="124"/>
+      <c r="R42" s="125"/>
     </row>
     <row r="43" spans="1:20" ht="18" customHeight="1"/>
     <row r="44" spans="1:20" ht="18" customHeight="1">
@@ -6831,69 +6831,69 @@
       </c>
     </row>
     <row r="46" spans="1:20" ht="18" customHeight="1">
-      <c r="B46" s="195" t="s">
+      <c r="B46" s="177" t="s">
         <v>110</v>
       </c>
-      <c r="C46" s="195"/>
-      <c r="D46" s="195"/>
-      <c r="E46" s="195"/>
-      <c r="F46" s="195"/>
-      <c r="G46" s="195"/>
-      <c r="H46" s="195"/>
-      <c r="I46" s="195" t="s">
+      <c r="C46" s="177"/>
+      <c r="D46" s="177"/>
+      <c r="E46" s="177"/>
+      <c r="F46" s="177"/>
+      <c r="G46" s="177"/>
+      <c r="H46" s="177"/>
+      <c r="I46" s="177" t="s">
         <v>111</v>
       </c>
-      <c r="J46" s="195"/>
-      <c r="K46" s="195"/>
-      <c r="L46" s="195"/>
-      <c r="M46" s="195"/>
-      <c r="N46" s="195"/>
-      <c r="O46" s="195"/>
-      <c r="P46" s="195"/>
-      <c r="Q46" s="195"/>
-      <c r="R46" s="195"/>
+      <c r="J46" s="177"/>
+      <c r="K46" s="177"/>
+      <c r="L46" s="177"/>
+      <c r="M46" s="177"/>
+      <c r="N46" s="177"/>
+      <c r="O46" s="177"/>
+      <c r="P46" s="177"/>
+      <c r="Q46" s="177"/>
+      <c r="R46" s="177"/>
     </row>
     <row r="47" spans="1:20" ht="18" customHeight="1">
-      <c r="B47" s="174" t="s">
+      <c r="B47" s="178" t="s">
         <v>112</v>
       </c>
-      <c r="C47" s="139"/>
-      <c r="D47" s="139"/>
-      <c r="E47" s="139"/>
-      <c r="F47" s="139"/>
-      <c r="G47" s="139"/>
-      <c r="H47" s="140"/>
-      <c r="I47" s="174" t="s">
+      <c r="C47" s="141"/>
+      <c r="D47" s="141"/>
+      <c r="E47" s="141"/>
+      <c r="F47" s="141"/>
+      <c r="G47" s="141"/>
+      <c r="H47" s="142"/>
+      <c r="I47" s="178" t="s">
         <v>113</v>
       </c>
-      <c r="J47" s="139"/>
-      <c r="K47" s="139"/>
-      <c r="L47" s="139"/>
-      <c r="M47" s="139"/>
-      <c r="N47" s="139"/>
-      <c r="O47" s="139"/>
-      <c r="P47" s="139"/>
-      <c r="Q47" s="139"/>
-      <c r="R47" s="140"/>
+      <c r="J47" s="141"/>
+      <c r="K47" s="141"/>
+      <c r="L47" s="141"/>
+      <c r="M47" s="141"/>
+      <c r="N47" s="141"/>
+      <c r="O47" s="141"/>
+      <c r="P47" s="141"/>
+      <c r="Q47" s="141"/>
+      <c r="R47" s="142"/>
     </row>
     <row r="48" spans="1:20" ht="18" customHeight="1">
-      <c r="B48" s="174"/>
-      <c r="C48" s="139"/>
-      <c r="D48" s="139"/>
-      <c r="E48" s="139"/>
-      <c r="F48" s="139"/>
-      <c r="G48" s="139"/>
-      <c r="H48" s="140"/>
-      <c r="I48" s="174"/>
-      <c r="J48" s="139"/>
-      <c r="K48" s="139"/>
-      <c r="L48" s="139"/>
-      <c r="M48" s="139"/>
-      <c r="N48" s="139"/>
-      <c r="O48" s="139"/>
-      <c r="P48" s="139"/>
-      <c r="Q48" s="139"/>
-      <c r="R48" s="140"/>
+      <c r="B48" s="178"/>
+      <c r="C48" s="141"/>
+      <c r="D48" s="141"/>
+      <c r="E48" s="141"/>
+      <c r="F48" s="141"/>
+      <c r="G48" s="141"/>
+      <c r="H48" s="142"/>
+      <c r="I48" s="178"/>
+      <c r="J48" s="141"/>
+      <c r="K48" s="141"/>
+      <c r="L48" s="141"/>
+      <c r="M48" s="141"/>
+      <c r="N48" s="141"/>
+      <c r="O48" s="141"/>
+      <c r="P48" s="141"/>
+      <c r="Q48" s="141"/>
+      <c r="R48" s="142"/>
     </row>
     <row r="49" spans="1:18" ht="18" customHeight="1"/>
     <row r="50" spans="1:18" ht="18" customHeight="1">
@@ -6903,185 +6903,185 @@
     </row>
     <row r="51" spans="1:18" ht="18" customHeight="1"/>
     <row r="52" spans="1:18" ht="18.75" customHeight="1">
-      <c r="B52" s="194"/>
-      <c r="C52" s="194"/>
-      <c r="D52" s="191" t="s">
+      <c r="B52" s="185"/>
+      <c r="C52" s="185"/>
+      <c r="D52" s="174" t="s">
         <v>115</v>
       </c>
-      <c r="E52" s="191"/>
-      <c r="F52" s="191" t="s">
+      <c r="E52" s="174"/>
+      <c r="F52" s="174" t="s">
         <v>116</v>
       </c>
-      <c r="G52" s="191"/>
-      <c r="H52" s="191" t="s">
+      <c r="G52" s="174"/>
+      <c r="H52" s="174" t="s">
         <v>117</v>
       </c>
-      <c r="I52" s="191"/>
-      <c r="J52" s="191" t="s">
+      <c r="I52" s="174"/>
+      <c r="J52" s="174" t="s">
         <v>118</v>
       </c>
-      <c r="K52" s="191"/>
-      <c r="L52" s="191" t="str">
+      <c r="K52" s="174"/>
+      <c r="L52" s="174" t="str">
         <f>お見積書!M20</f>
         <v>金額(${qu.currencyposition})</v>
       </c>
-      <c r="M52" s="191"/>
-      <c r="N52" s="196" t="str">
+      <c r="M52" s="174"/>
+      <c r="N52" s="179" t="str">
         <f>"金額総計"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>金額総計(${qu.currencyposition})</v>
       </c>
-      <c r="O52" s="197"/>
-      <c r="P52" s="197"/>
-      <c r="Q52" s="197"/>
-      <c r="R52" s="198"/>
+      <c r="O52" s="180"/>
+      <c r="P52" s="180"/>
+      <c r="Q52" s="180"/>
+      <c r="R52" s="181"/>
     </row>
     <row r="53" spans="1:18" ht="28.5" customHeight="1">
-      <c r="B53" s="191" t="str">
+      <c r="B53" s="174" t="str">
         <f>IF(記入!A29="","",記入!A29)</f>
         <v>第一回</v>
       </c>
-      <c r="C53" s="191"/>
-      <c r="D53" s="192" t="str">
+      <c r="C53" s="174"/>
+      <c r="D53" s="175" t="str">
         <f>IF(記入!B29="","",記入!B29)</f>
         <v>${num[0].deliverydate}</v>
       </c>
-      <c r="E53" s="193"/>
-      <c r="F53" s="192" t="str">
+      <c r="E53" s="176"/>
+      <c r="F53" s="175" t="str">
         <f>IF(記入!C29="","",記入!C29)</f>
         <v>${num[0].completiondate}</v>
       </c>
-      <c r="G53" s="193"/>
-      <c r="H53" s="192" t="str">
+      <c r="G53" s="176"/>
+      <c r="H53" s="175" t="str">
         <f>IF(記入!D29="","",記入!D29)</f>
         <v>${num[0].claimdate}</v>
       </c>
-      <c r="I53" s="193"/>
-      <c r="J53" s="192" t="str">
+      <c r="I53" s="176"/>
+      <c r="J53" s="175" t="str">
         <f>IF(記入!E29="","",記入!E29)</f>
         <v>${num[0].supportdate}</v>
       </c>
-      <c r="K53" s="193"/>
-      <c r="L53" s="189" t="str">
+      <c r="K53" s="176"/>
+      <c r="L53" s="172" t="str">
         <f>IF(記入!F29="","",記入!F29)</f>
         <v>${num[0].claimamount}</v>
       </c>
-      <c r="M53" s="190"/>
-      <c r="N53" s="186" t="e">
+      <c r="M53" s="173"/>
+      <c r="N53" s="182" t="e">
         <f>SUM(L53:M56)</f>
         <v>#REF!</v>
       </c>
-      <c r="O53" s="187"/>
-      <c r="P53" s="187"/>
-      <c r="Q53" s="187"/>
-      <c r="R53" s="188"/>
+      <c r="O53" s="183"/>
+      <c r="P53" s="183"/>
+      <c r="Q53" s="183"/>
+      <c r="R53" s="184"/>
     </row>
     <row r="54" spans="1:18" ht="28.5" customHeight="1">
-      <c r="B54" s="191" t="e">
+      <c r="B54" s="174" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="C54" s="191"/>
-      <c r="D54" s="192" t="e">
+      <c r="C54" s="174"/>
+      <c r="D54" s="175" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="E54" s="193"/>
-      <c r="F54" s="192" t="e">
+      <c r="E54" s="176"/>
+      <c r="F54" s="175" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G54" s="193"/>
-      <c r="H54" s="192" t="e">
+      <c r="G54" s="176"/>
+      <c r="H54" s="175" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="I54" s="193"/>
-      <c r="J54" s="192" t="e">
+      <c r="I54" s="176"/>
+      <c r="J54" s="175" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="K54" s="193"/>
-      <c r="L54" s="189"/>
-      <c r="M54" s="190"/>
-      <c r="N54" s="186"/>
-      <c r="O54" s="187"/>
-      <c r="P54" s="187"/>
-      <c r="Q54" s="187"/>
-      <c r="R54" s="188"/>
+      <c r="K54" s="176"/>
+      <c r="L54" s="172"/>
+      <c r="M54" s="173"/>
+      <c r="N54" s="182"/>
+      <c r="O54" s="183"/>
+      <c r="P54" s="183"/>
+      <c r="Q54" s="183"/>
+      <c r="R54" s="184"/>
     </row>
     <row r="55" spans="1:18" ht="28.5" customHeight="1">
-      <c r="B55" s="191" t="e">
+      <c r="B55" s="174" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="C55" s="191"/>
-      <c r="D55" s="192" t="e">
+      <c r="C55" s="174"/>
+      <c r="D55" s="175" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="E55" s="193"/>
-      <c r="F55" s="192" t="e">
+      <c r="E55" s="176"/>
+      <c r="F55" s="175" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G55" s="193"/>
-      <c r="H55" s="192" t="e">
+      <c r="G55" s="176"/>
+      <c r="H55" s="175" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="I55" s="193"/>
-      <c r="J55" s="192" t="e">
+      <c r="I55" s="176"/>
+      <c r="J55" s="175" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="K55" s="193"/>
-      <c r="L55" s="189" t="e">
+      <c r="K55" s="176"/>
+      <c r="L55" s="172" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="M55" s="190"/>
-      <c r="N55" s="186"/>
-      <c r="O55" s="187"/>
-      <c r="P55" s="187"/>
-      <c r="Q55" s="187"/>
-      <c r="R55" s="188"/>
+      <c r="M55" s="173"/>
+      <c r="N55" s="182"/>
+      <c r="O55" s="183"/>
+      <c r="P55" s="183"/>
+      <c r="Q55" s="183"/>
+      <c r="R55" s="184"/>
     </row>
     <row r="56" spans="1:18" ht="31.5" customHeight="1">
-      <c r="B56" s="191" t="e">
+      <c r="B56" s="174" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="C56" s="191"/>
-      <c r="D56" s="192" t="e">
+      <c r="C56" s="174"/>
+      <c r="D56" s="175" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="193"/>
-      <c r="F56" s="192" t="e">
+      <c r="E56" s="176"/>
+      <c r="F56" s="175" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="193"/>
-      <c r="H56" s="192" t="e">
+      <c r="G56" s="176"/>
+      <c r="H56" s="175" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="193"/>
-      <c r="J56" s="192" t="e">
+      <c r="I56" s="176"/>
+      <c r="J56" s="175" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="193"/>
-      <c r="L56" s="189" t="e">
+      <c r="K56" s="176"/>
+      <c r="L56" s="172" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="190"/>
-      <c r="N56" s="186"/>
-      <c r="O56" s="187"/>
-      <c r="P56" s="187"/>
-      <c r="Q56" s="187"/>
-      <c r="R56" s="188"/>
+      <c r="M56" s="173"/>
+      <c r="N56" s="182"/>
+      <c r="O56" s="183"/>
+      <c r="P56" s="183"/>
+      <c r="Q56" s="183"/>
+      <c r="R56" s="184"/>
     </row>
     <row r="57" spans="1:18" ht="18" customHeight="1"/>
     <row r="58" spans="1:18" ht="18" customHeight="1">
@@ -7282,29 +7282,50 @@
     <row r="69" spans="2:18" ht="10.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="B42:R42"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="I46:R46"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="I47:R47"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="I48:R48"/>
-    <mergeCell ref="N52:R52"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:Q38"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:R16"/>
+    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="I6:Q8"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:R10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:R13"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="J27:R27"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:N17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="J28:R28"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="J29:R29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="J30:R30"/>
+    <mergeCell ref="B41:R41"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="J31:R31"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="J32:R32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="J33:R33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="J34:R34"/>
+    <mergeCell ref="B39:R39"/>
+    <mergeCell ref="B40:R40"/>
     <mergeCell ref="N53:R56"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="B56:C56"/>
@@ -7321,50 +7342,29 @@
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="F54:G54"/>
     <mergeCell ref="H54:I54"/>
-    <mergeCell ref="B41:R41"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="J31:R31"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="J32:R32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="J33:R33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="J34:R34"/>
-    <mergeCell ref="B39:R39"/>
-    <mergeCell ref="B40:R40"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="J28:R28"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="J29:R29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="J30:R30"/>
-    <mergeCell ref="L12:R12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:R13"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="J27:R27"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:N17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:Q38"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:R16"/>
-    <mergeCell ref="A3:R3"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="I6:Q8"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:R10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="B42:R42"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="I46:R46"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="I47:R47"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="I48:R48"/>
+    <mergeCell ref="N52:R52"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J54:K54"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -7917,10 +7917,10 @@
       <c r="E3" s="88"/>
     </row>
     <row r="4" spans="1:6" ht="28.5">
-      <c r="A4" s="200" t="s">
+      <c r="A4" s="207" t="s">
         <v>138</v>
       </c>
-      <c r="B4" s="201"/>
+      <c r="B4" s="208"/>
       <c r="C4" s="89" t="s">
         <v>139</v>
       </c>
@@ -7932,7 +7932,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="202" t="s">
+      <c r="A5" s="213" t="s">
         <v>142</v>
       </c>
       <c r="B5" s="90" t="s">
@@ -7951,7 +7951,7 @@
       <c r="F5" s="94"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="203"/>
+      <c r="A6" s="214"/>
       <c r="B6" s="90" t="s">
         <v>144</v>
       </c>
@@ -7968,7 +7968,7 @@
       <c r="F6" s="94"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="203"/>
+      <c r="A7" s="214"/>
       <c r="B7" s="90" t="s">
         <v>145</v>
       </c>
@@ -7985,7 +7985,7 @@
       <c r="F7" s="94"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="203"/>
+      <c r="A8" s="214"/>
       <c r="B8" s="90" t="s">
         <v>146</v>
       </c>
@@ -8002,7 +8002,7 @@
       <c r="F8" s="94"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="203"/>
+      <c r="A9" s="214"/>
       <c r="B9" s="90" t="s">
         <v>147</v>
       </c>
@@ -8019,7 +8019,7 @@
       <c r="F9" s="94"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="204"/>
+      <c r="A10" s="215"/>
       <c r="B10" s="90" t="s">
         <v>149</v>
       </c>
@@ -8036,7 +8036,7 @@
       <c r="F10" s="94"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A11" s="205" t="s">
+      <c r="A11" s="216" t="s">
         <v>150</v>
       </c>
       <c r="B11" s="90" t="s">
@@ -8055,7 +8055,7 @@
       <c r="F11" s="94"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="206"/>
+      <c r="A12" s="217"/>
       <c r="B12" s="90" t="s">
         <v>144</v>
       </c>
@@ -8072,7 +8072,7 @@
       <c r="F12" s="94"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="206"/>
+      <c r="A13" s="217"/>
       <c r="B13" s="90" t="s">
         <v>145</v>
       </c>
@@ -8087,7 +8087,7 @@
       <c r="F13" s="94"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="206"/>
+      <c r="A14" s="217"/>
       <c r="B14" s="90" t="s">
         <v>146</v>
       </c>
@@ -8102,7 +8102,7 @@
       <c r="F14" s="94"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="206"/>
+      <c r="A15" s="217"/>
       <c r="B15" s="90" t="s">
         <v>147</v>
       </c>
@@ -8117,7 +8117,7 @@
       <c r="F15" s="94"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="206"/>
+      <c r="A16" s="217"/>
       <c r="B16" s="90" t="s">
         <v>148</v>
       </c>
@@ -8132,7 +8132,7 @@
       <c r="F16" s="94"/>
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A17" s="205" t="s">
+      <c r="A17" s="216" t="s">
         <v>151</v>
       </c>
       <c r="B17" s="90" t="s">
@@ -8149,7 +8149,7 @@
       <c r="F17" s="94"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="206"/>
+      <c r="A18" s="217"/>
       <c r="B18" s="90" t="s">
         <v>144</v>
       </c>
@@ -8164,7 +8164,7 @@
       <c r="F18" s="94"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="206"/>
+      <c r="A19" s="217"/>
       <c r="B19" s="90" t="s">
         <v>145</v>
       </c>
@@ -8181,7 +8181,7 @@
       <c r="F19" s="94"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="206"/>
+      <c r="A20" s="217"/>
       <c r="B20" s="90" t="s">
         <v>146</v>
       </c>
@@ -8198,7 +8198,7 @@
       <c r="F20" s="94"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="206"/>
+      <c r="A21" s="217"/>
       <c r="B21" s="90" t="s">
         <v>147</v>
       </c>
@@ -8215,7 +8215,7 @@
       <c r="F21" s="94"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="206"/>
+      <c r="A22" s="217"/>
       <c r="B22" s="90" t="s">
         <v>148</v>
       </c>
@@ -8232,11 +8232,11 @@
       <c r="F22" s="94"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="207" t="s">
+      <c r="A23" s="218" t="s">
         <v>152</v>
       </c>
-      <c r="B23" s="208"/>
-      <c r="C23" s="208"/>
+      <c r="B23" s="219"/>
+      <c r="C23" s="219"/>
       <c r="D23" s="92">
         <f>SUM(D5:D22)</f>
         <v>26.3</v>
@@ -8261,20 +8261,20 @@
       <c r="E25" s="95"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="199" t="s">
+      <c r="A26" s="212" t="s">
         <v>153</v>
       </c>
-      <c r="B26" s="199"/>
-      <c r="C26" s="199"/>
+      <c r="B26" s="212"/>
+      <c r="C26" s="212"/>
       <c r="D26" s="88"/>
       <c r="E26" s="96"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="97"/>
-      <c r="B27" s="200" t="s">
+      <c r="B27" s="207" t="s">
         <v>154</v>
       </c>
-      <c r="C27" s="201"/>
+      <c r="C27" s="208"/>
       <c r="D27" s="98" t="s">
         <v>155</v>
       </c>
@@ -8286,20 +8286,20 @@
       <c r="A28" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="B28" s="210"/>
-      <c r="C28" s="211"/>
+      <c r="B28" s="209"/>
+      <c r="C28" s="210"/>
       <c r="D28" s="101"/>
       <c r="E28" s="93"/>
       <c r="F28" s="102"/>
       <c r="G28" s="102"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="209" t="s">
+      <c r="A29" s="206" t="s">
         <v>152</v>
       </c>
-      <c r="B29" s="209"/>
-      <c r="C29" s="209"/>
-      <c r="D29" s="209"/>
+      <c r="B29" s="206"/>
+      <c r="C29" s="206"/>
+      <c r="D29" s="206"/>
       <c r="E29" s="103">
         <f>SUM(E28:E28)</f>
         <v>0</v>
@@ -8320,47 +8320,47 @@
       <c r="E31" s="88"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="212" t="s">
+      <c r="A32" s="211" t="s">
         <v>158</v>
       </c>
-      <c r="B32" s="212"/>
-      <c r="C32" s="212"/>
-      <c r="D32" s="212"/>
+      <c r="B32" s="211"/>
+      <c r="C32" s="211"/>
+      <c r="D32" s="211"/>
       <c r="E32" s="99" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A33" s="209" t="s">
+      <c r="A33" s="206" t="s">
         <v>160</v>
       </c>
-      <c r="B33" s="209"/>
-      <c r="C33" s="209"/>
-      <c r="D33" s="209"/>
+      <c r="B33" s="206"/>
+      <c r="C33" s="206"/>
+      <c r="D33" s="206"/>
       <c r="E33" s="103">
         <f>E23</f>
         <v>110000</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="209" t="s">
+      <c r="A34" s="206" t="s">
         <v>153</v>
       </c>
-      <c r="B34" s="209"/>
-      <c r="C34" s="209"/>
-      <c r="D34" s="209"/>
+      <c r="B34" s="206"/>
+      <c r="C34" s="206"/>
+      <c r="D34" s="206"/>
       <c r="E34" s="103">
         <f>E29</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="209" t="s">
+      <c r="A35" s="206" t="s">
         <v>152</v>
       </c>
-      <c r="B35" s="209"/>
-      <c r="C35" s="209"/>
-      <c r="D35" s="209"/>
+      <c r="B35" s="206"/>
+      <c r="C35" s="206"/>
+      <c r="D35" s="206"/>
       <c r="E35" s="103">
         <f>E33+E34</f>
         <v>110000</v>
@@ -8368,6 +8368,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
@@ -8375,12 +8381,6 @@
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A23:C23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/controller/src/main/resources/jxls_templates/jianjishu_shoutuo.xlsx
+++ b/controller/src/main/resources/jxls_templates/jianjishu_shoutuo.xlsx
@@ -1607,14 +1607,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${qu.startdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${qu.enddate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>${qu.currencyposition}</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1717,6 +1709,12 @@
   <si>
     <t>${qu.pjnamechinese}</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${statime[0]}</t>
+  </si>
+  <si>
+    <t>${statime[1]}</t>
   </si>
 </sst>
 </file>
@@ -2740,6 +2738,102 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="20" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2791,101 +2885,77 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2903,10 +2973,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2917,87 +2987,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3005,30 +3027,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3468,7 +3466,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -3498,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>15</v>
@@ -3610,7 +3608,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>15</v>
@@ -3647,7 +3645,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>15</v>
@@ -3660,7 +3658,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>15</v>
@@ -3706,7 +3704,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>15</v>
@@ -3719,7 +3717,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>15</v>
@@ -3765,7 +3763,7 @@
         <v>162</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>15</v>
@@ -3829,19 +3827,19 @@
         <v>第一回</v>
       </c>
       <c r="B29" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="D29" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="E29" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="F29" s="32" t="s">
         <v>178</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="F29" s="32" t="s">
-        <v>180</v>
       </c>
       <c r="G29" s="119"/>
       <c r="H29" s="120"/>
@@ -3852,19 +3850,19 @@
         <v>第二回</v>
       </c>
       <c r="B30" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="D30" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="E30" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="F30" s="32" t="s">
         <v>183</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="F30" s="32" t="s">
-        <v>185</v>
       </c>
       <c r="G30" s="119"/>
       <c r="H30" s="120"/>
@@ -3875,19 +3873,19 @@
         <v>第三回</v>
       </c>
       <c r="B31" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="D31" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="E31" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="F31" s="32" t="s">
         <v>188</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="F31" s="32" t="s">
-        <v>190</v>
       </c>
       <c r="G31" s="119"/>
       <c r="H31" s="120"/>
@@ -3898,19 +3896,19 @@
         <v>第四回</v>
       </c>
       <c r="B32" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="D32" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="E32" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="F32" s="32" t="s">
         <v>193</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="F32" s="32" t="s">
-        <v>195</v>
       </c>
       <c r="G32" s="121"/>
       <c r="H32" s="122"/>
@@ -3936,7 +3934,7 @@
     <row r="36" spans="1:9">
       <c r="B36" s="1"/>
       <c r="D36" s="115" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E36" s="115"/>
       <c r="F36" s="115"/>
@@ -4720,37 +4718,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="23.1" customHeight="1">
-      <c r="C1" s="164" t="s">
+      <c r="C1" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
-      <c r="I1" s="164"/>
-      <c r="J1" s="164"/>
-      <c r="K1" s="164"/>
-      <c r="L1" s="164"/>
-      <c r="M1" s="164"/>
-      <c r="N1" s="164"/>
-      <c r="O1" s="164"/>
-      <c r="P1" s="164"/>
-      <c r="Q1" s="164"/>
-      <c r="R1" s="164"/>
-      <c r="S1" s="164"/>
-      <c r="T1" s="164"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
     </row>
     <row r="2" spans="1:20" ht="23.1" customHeight="1">
-      <c r="P2" s="167" t="s">
+      <c r="P2" s="128" t="s">
         <v>122</v>
       </c>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="167" t="str">
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128" t="str">
         <f>記入!B12</f>
         <v>${qu.contractnumber}</v>
       </c>
-      <c r="S2" s="167"/>
+      <c r="S2" s="128"/>
     </row>
     <row r="3" spans="1:20" ht="23.1" customHeight="1">
       <c r="A3" s="44"/>
@@ -4759,11 +4757,11 @@
         <f>記入!B2</f>
         <v>${qu.trusteejapanese}</v>
       </c>
-      <c r="R3" s="170">
+      <c r="R3" s="131">
         <f ca="1">記入!B37</f>
         <v>43908</v>
       </c>
-      <c r="S3" s="170"/>
+      <c r="S3" s="131"/>
     </row>
     <row r="4" spans="1:20" ht="23.1" customHeight="1">
       <c r="A4" s="44"/>
@@ -4786,28 +4784,28 @@
         <f>"(件名番号："&amp;記入!D36&amp;")"</f>
         <v>(件名番号：${qu.requestnumber})</v>
       </c>
-      <c r="K6" s="165" t="s">
+      <c r="K6" s="126" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="165"/>
-      <c r="M6" s="165"/>
-      <c r="N6" s="165"/>
-      <c r="O6" s="165"/>
-      <c r="P6" s="165"/>
-      <c r="Q6" s="165"/>
-      <c r="R6" s="165"/>
-      <c r="S6" s="165"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="126"/>
+      <c r="N6" s="126"/>
+      <c r="O6" s="126"/>
+      <c r="P6" s="126"/>
+      <c r="Q6" s="126"/>
+      <c r="R6" s="126"/>
+      <c r="S6" s="126"/>
     </row>
     <row r="7" spans="1:20" ht="23.1" customHeight="1">
-      <c r="K7" s="165"/>
-      <c r="L7" s="165"/>
-      <c r="M7" s="165"/>
-      <c r="N7" s="165"/>
-      <c r="O7" s="165"/>
-      <c r="P7" s="165"/>
-      <c r="Q7" s="165"/>
-      <c r="R7" s="165"/>
-      <c r="S7" s="165"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
+      <c r="M7" s="126"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="126"/>
+      <c r="P7" s="126"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="126"/>
+      <c r="S7" s="126"/>
     </row>
     <row r="8" spans="1:20" ht="23.1" customHeight="1">
       <c r="A8" s="49"/>
@@ -4815,32 +4813,32 @@
       <c r="C8" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="165"/>
-      <c r="L8" s="165"/>
-      <c r="M8" s="165"/>
-      <c r="N8" s="165"/>
-      <c r="O8" s="165"/>
-      <c r="P8" s="165"/>
-      <c r="Q8" s="165"/>
-      <c r="R8" s="165"/>
-      <c r="S8" s="165"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="126"/>
+      <c r="N8" s="126"/>
+      <c r="O8" s="126"/>
+      <c r="P8" s="126"/>
+      <c r="Q8" s="126"/>
+      <c r="R8" s="126"/>
+      <c r="S8" s="126"/>
     </row>
     <row r="9" spans="1:20" ht="23.1" customHeight="1">
-      <c r="C9" s="166" t="str">
+      <c r="C9" s="127" t="str">
         <f>記入!B10</f>
         <v>${qu.pjjapanese}</v>
       </c>
-      <c r="D9" s="166"/>
-      <c r="E9" s="166"/>
-      <c r="F9" s="166"/>
-      <c r="G9" s="166"/>
-      <c r="H9" s="166"/>
-      <c r="I9" s="166"/>
-      <c r="J9" s="166"/>
-      <c r="K9" s="166"/>
-      <c r="L9" s="166"/>
-      <c r="M9" s="166"/>
-      <c r="N9" s="166"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="127"/>
+      <c r="M9" s="127"/>
+      <c r="N9" s="127"/>
     </row>
     <row r="10" spans="1:20" ht="23.1" customHeight="1">
       <c r="C10" s="50"/>
@@ -4860,18 +4858,18 @@
       <c r="C11" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="162" t="str">
+      <c r="E11" s="123" t="str">
         <f>記入!B19</f>
         <v>${qu.currencyposition}</v>
       </c>
-      <c r="F11" s="162"/>
-      <c r="G11" s="171">
+      <c r="F11" s="123"/>
+      <c r="G11" s="132">
         <f>M26</f>
         <v>0</v>
       </c>
-      <c r="H11" s="171"/>
-      <c r="I11" s="171"/>
-      <c r="J11" s="171"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="132"/>
       <c r="R11" s="52" t="s">
         <v>53</v>
       </c>
@@ -4916,12 +4914,12 @@
       <c r="C14" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="168" t="str">
+      <c r="F14" s="129" t="str">
         <f>記入!F39</f>
         <v>□あり(12ヵ月）</v>
       </c>
-      <c r="G14" s="168"/>
-      <c r="H14" s="168"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
       <c r="I14" s="53"/>
       <c r="J14" s="43" t="str">
         <f>記入!H39</f>
@@ -4932,23 +4930,23 @@
       <c r="C15" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="169" t="str">
+      <c r="F15" s="130" t="str">
         <f>記入!B14</f>
-        <v>${qu.startdate}</v>
-      </c>
-      <c r="G15" s="169"/>
-      <c r="H15" s="169"/>
+        <v>${statime[0]}</v>
+      </c>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
     </row>
     <row r="16" spans="1:20" ht="23.1" customHeight="1">
       <c r="C16" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="169" t="str">
+      <c r="F16" s="130" t="str">
         <f>記入!B15</f>
-        <v>${qu.enddate}</v>
-      </c>
-      <c r="G16" s="169"/>
-      <c r="H16" s="169"/>
+        <v>${statime[1]}</v>
+      </c>
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
     </row>
     <row r="17" spans="1:21" ht="23.1" customHeight="1">
       <c r="C17" s="43" t="s">
@@ -4975,287 +4973,287 @@
       <c r="R18" s="26"/>
     </row>
     <row r="19" spans="1:21" ht="23.1" customHeight="1" thickBot="1">
-      <c r="C19" s="163" t="s">
+      <c r="C19" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="163"/>
-      <c r="E19" s="163"/>
-      <c r="F19" s="163" t="s">
+      <c r="D19" s="124"/>
+      <c r="E19" s="124"/>
+      <c r="F19" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="163"/>
-      <c r="H19" s="163"/>
-      <c r="I19" s="163"/>
+      <c r="G19" s="124"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="124"/>
     </row>
     <row r="20" spans="1:21" ht="23.1" customHeight="1" thickBot="1">
       <c r="B20" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="150" t="s">
+      <c r="C20" s="133" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="150"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="150"/>
-      <c r="G20" s="150"/>
-      <c r="H20" s="150"/>
-      <c r="I20" s="150"/>
-      <c r="J20" s="150"/>
-      <c r="K20" s="150"/>
-      <c r="L20" s="151"/>
-      <c r="M20" s="152" t="str">
+      <c r="D20" s="133"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="133"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="133"/>
+      <c r="J20" s="133"/>
+      <c r="K20" s="133"/>
+      <c r="L20" s="134"/>
+      <c r="M20" s="135" t="str">
         <f>"金額"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>金額(${qu.currencyposition})</v>
       </c>
-      <c r="N20" s="152"/>
-      <c r="O20" s="152"/>
-      <c r="P20" s="152" t="s">
+      <c r="N20" s="135"/>
+      <c r="O20" s="135"/>
+      <c r="P20" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="Q20" s="152"/>
-      <c r="R20" s="152"/>
-      <c r="S20" s="153"/>
+      <c r="Q20" s="135"/>
+      <c r="R20" s="135"/>
+      <c r="S20" s="136"/>
     </row>
     <row r="21" spans="1:21" ht="33" customHeight="1">
       <c r="B21" s="56">
         <v>1</v>
       </c>
-      <c r="C21" s="154" t="str">
+      <c r="C21" s="137" t="str">
         <f>記入!B10</f>
         <v>${qu.pjjapanese}</v>
       </c>
-      <c r="D21" s="155"/>
-      <c r="E21" s="155"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="155"/>
-      <c r="H21" s="155"/>
-      <c r="I21" s="155"/>
-      <c r="J21" s="155"/>
-      <c r="K21" s="155"/>
-      <c r="L21" s="156"/>
-      <c r="M21" s="157" t="str">
+      <c r="D21" s="138"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="138"/>
+      <c r="J21" s="138"/>
+      <c r="K21" s="138"/>
+      <c r="L21" s="139"/>
+      <c r="M21" s="140" t="str">
         <f>記入!B20</f>
         <v>${qu.claimamount}</v>
       </c>
-      <c r="N21" s="158"/>
-      <c r="O21" s="159"/>
-      <c r="P21" s="160"/>
-      <c r="Q21" s="160"/>
-      <c r="R21" s="160"/>
-      <c r="S21" s="161"/>
+      <c r="N21" s="141"/>
+      <c r="O21" s="142"/>
+      <c r="P21" s="143"/>
+      <c r="Q21" s="143"/>
+      <c r="R21" s="143"/>
+      <c r="S21" s="144"/>
       <c r="U21" s="57"/>
     </row>
     <row r="22" spans="1:21" ht="23.1" customHeight="1">
       <c r="B22" s="58">
         <v>2</v>
       </c>
-      <c r="C22" s="140" t="s">
+      <c r="C22" s="145" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="140"/>
-      <c r="E22" s="140"/>
-      <c r="F22" s="140"/>
-      <c r="G22" s="140"/>
-      <c r="H22" s="141"/>
-      <c r="I22" s="141"/>
-      <c r="J22" s="141"/>
-      <c r="K22" s="141"/>
-      <c r="L22" s="142"/>
-      <c r="M22" s="143" t="s">
+      <c r="D22" s="145"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="146"/>
+      <c r="I22" s="146"/>
+      <c r="J22" s="146"/>
+      <c r="K22" s="146"/>
+      <c r="L22" s="147"/>
+      <c r="M22" s="148" t="s">
         <v>69</v>
       </c>
-      <c r="N22" s="143"/>
-      <c r="O22" s="143"/>
-      <c r="P22" s="144"/>
-      <c r="Q22" s="144"/>
-      <c r="R22" s="144"/>
-      <c r="S22" s="145"/>
+      <c r="N22" s="148"/>
+      <c r="O22" s="148"/>
+      <c r="P22" s="149"/>
+      <c r="Q22" s="149"/>
+      <c r="R22" s="149"/>
+      <c r="S22" s="150"/>
       <c r="U22" s="59"/>
     </row>
     <row r="23" spans="1:21" ht="23.1" customHeight="1">
       <c r="B23" s="58">
         <v>3</v>
       </c>
-      <c r="C23" s="140" t="s">
+      <c r="C23" s="145" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="140"/>
-      <c r="E23" s="140"/>
-      <c r="F23" s="140"/>
-      <c r="G23" s="140"/>
-      <c r="H23" s="141"/>
-      <c r="I23" s="141"/>
-      <c r="J23" s="141"/>
-      <c r="K23" s="141"/>
-      <c r="L23" s="142"/>
-      <c r="M23" s="143">
+      <c r="D23" s="145"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="146"/>
+      <c r="I23" s="146"/>
+      <c r="J23" s="146"/>
+      <c r="K23" s="146"/>
+      <c r="L23" s="147"/>
+      <c r="M23" s="148">
         <v>0</v>
       </c>
-      <c r="N23" s="143"/>
-      <c r="O23" s="143"/>
-      <c r="P23" s="144"/>
-      <c r="Q23" s="144"/>
-      <c r="R23" s="144"/>
-      <c r="S23" s="145"/>
+      <c r="N23" s="148"/>
+      <c r="O23" s="148"/>
+      <c r="P23" s="149"/>
+      <c r="Q23" s="149"/>
+      <c r="R23" s="149"/>
+      <c r="S23" s="150"/>
     </row>
     <row r="24" spans="1:21" ht="23.1" customHeight="1">
       <c r="B24" s="58">
         <v>4</v>
       </c>
-      <c r="C24" s="140"/>
-      <c r="D24" s="140"/>
-      <c r="E24" s="140"/>
-      <c r="F24" s="140"/>
-      <c r="G24" s="140"/>
-      <c r="H24" s="141"/>
-      <c r="I24" s="141"/>
-      <c r="J24" s="141"/>
-      <c r="K24" s="141"/>
-      <c r="L24" s="142"/>
-      <c r="M24" s="143">
+      <c r="C24" s="145"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="146"/>
+      <c r="I24" s="146"/>
+      <c r="J24" s="146"/>
+      <c r="K24" s="146"/>
+      <c r="L24" s="147"/>
+      <c r="M24" s="148">
         <v>0</v>
       </c>
-      <c r="N24" s="143"/>
-      <c r="O24" s="143"/>
-      <c r="P24" s="144"/>
-      <c r="Q24" s="144"/>
-      <c r="R24" s="144"/>
-      <c r="S24" s="145"/>
+      <c r="N24" s="148"/>
+      <c r="O24" s="148"/>
+      <c r="P24" s="149"/>
+      <c r="Q24" s="149"/>
+      <c r="R24" s="149"/>
+      <c r="S24" s="150"/>
     </row>
     <row r="25" spans="1:21" ht="23.1" customHeight="1">
       <c r="B25" s="60">
         <v>5</v>
       </c>
-      <c r="C25" s="146"/>
-      <c r="D25" s="146"/>
-      <c r="E25" s="146"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="147"/>
-      <c r="I25" s="147"/>
-      <c r="J25" s="147"/>
-      <c r="K25" s="147"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="149">
+      <c r="C25" s="151"/>
+      <c r="D25" s="151"/>
+      <c r="E25" s="151"/>
+      <c r="F25" s="151"/>
+      <c r="G25" s="151"/>
+      <c r="H25" s="152"/>
+      <c r="I25" s="152"/>
+      <c r="J25" s="152"/>
+      <c r="K25" s="152"/>
+      <c r="L25" s="153"/>
+      <c r="M25" s="154">
         <v>0</v>
       </c>
-      <c r="N25" s="149"/>
-      <c r="O25" s="149"/>
-      <c r="P25" s="144"/>
-      <c r="Q25" s="144"/>
-      <c r="R25" s="144"/>
-      <c r="S25" s="145"/>
+      <c r="N25" s="154"/>
+      <c r="O25" s="154"/>
+      <c r="P25" s="149"/>
+      <c r="Q25" s="149"/>
+      <c r="R25" s="149"/>
+      <c r="S25" s="150"/>
     </row>
     <row r="26" spans="1:21" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B26" s="126" t="s">
+      <c r="B26" s="158" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="127"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="127"/>
-      <c r="H26" s="127"/>
-      <c r="I26" s="127"/>
-      <c r="J26" s="127"/>
-      <c r="K26" s="127"/>
-      <c r="L26" s="128"/>
-      <c r="M26" s="129">
+      <c r="C26" s="159"/>
+      <c r="D26" s="159"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="159"/>
+      <c r="J26" s="159"/>
+      <c r="K26" s="159"/>
+      <c r="L26" s="160"/>
+      <c r="M26" s="161">
         <f>SUM(M21:O25)</f>
         <v>0</v>
       </c>
-      <c r="N26" s="130"/>
-      <c r="O26" s="131"/>
-      <c r="P26" s="132"/>
-      <c r="Q26" s="132"/>
-      <c r="R26" s="132"/>
-      <c r="S26" s="133"/>
+      <c r="N26" s="162"/>
+      <c r="O26" s="163"/>
+      <c r="P26" s="164"/>
+      <c r="Q26" s="164"/>
+      <c r="R26" s="164"/>
+      <c r="S26" s="165"/>
     </row>
     <row r="27" spans="1:21" ht="23.1" customHeight="1">
-      <c r="C27" s="134" t="s">
+      <c r="C27" s="166" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="135"/>
-      <c r="E27" s="135"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="135"/>
-      <c r="H27" s="135"/>
-      <c r="I27" s="135"/>
-      <c r="J27" s="135"/>
-      <c r="K27" s="135"/>
-      <c r="L27" s="135"/>
-      <c r="M27" s="135"/>
-      <c r="N27" s="135"/>
-      <c r="O27" s="135"/>
-      <c r="P27" s="135"/>
-      <c r="Q27" s="135"/>
-      <c r="R27" s="135"/>
-      <c r="S27" s="136"/>
+      <c r="D27" s="167"/>
+      <c r="E27" s="167"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="167"/>
+      <c r="H27" s="167"/>
+      <c r="I27" s="167"/>
+      <c r="J27" s="167"/>
+      <c r="K27" s="167"/>
+      <c r="L27" s="167"/>
+      <c r="M27" s="167"/>
+      <c r="N27" s="167"/>
+      <c r="O27" s="167"/>
+      <c r="P27" s="167"/>
+      <c r="Q27" s="167"/>
+      <c r="R27" s="167"/>
+      <c r="S27" s="168"/>
     </row>
     <row r="28" spans="1:21" ht="18" customHeight="1">
       <c r="A28" s="61"/>
       <c r="B28" s="61"/>
-      <c r="C28" s="137" t="s">
+      <c r="C28" s="169" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="138"/>
-      <c r="E28" s="138"/>
-      <c r="F28" s="138"/>
-      <c r="G28" s="138"/>
-      <c r="H28" s="138"/>
-      <c r="I28" s="138"/>
-      <c r="J28" s="138"/>
-      <c r="K28" s="138"/>
-      <c r="L28" s="138"/>
-      <c r="M28" s="138"/>
-      <c r="N28" s="138"/>
-      <c r="O28" s="138"/>
-      <c r="P28" s="138"/>
-      <c r="Q28" s="138"/>
-      <c r="R28" s="138"/>
-      <c r="S28" s="139"/>
+      <c r="D28" s="170"/>
+      <c r="E28" s="170"/>
+      <c r="F28" s="170"/>
+      <c r="G28" s="170"/>
+      <c r="H28" s="170"/>
+      <c r="I28" s="170"/>
+      <c r="J28" s="170"/>
+      <c r="K28" s="170"/>
+      <c r="L28" s="170"/>
+      <c r="M28" s="170"/>
+      <c r="N28" s="170"/>
+      <c r="O28" s="170"/>
+      <c r="P28" s="170"/>
+      <c r="Q28" s="170"/>
+      <c r="R28" s="170"/>
+      <c r="S28" s="171"/>
     </row>
     <row r="29" spans="1:21" ht="18" customHeight="1">
       <c r="A29" s="61"/>
       <c r="B29" s="61"/>
-      <c r="C29" s="134"/>
-      <c r="D29" s="135"/>
-      <c r="E29" s="135"/>
-      <c r="F29" s="135"/>
-      <c r="G29" s="135"/>
-      <c r="H29" s="135"/>
-      <c r="I29" s="135"/>
-      <c r="J29" s="135"/>
-      <c r="K29" s="135"/>
-      <c r="L29" s="135"/>
-      <c r="M29" s="135"/>
-      <c r="N29" s="135"/>
-      <c r="O29" s="135"/>
-      <c r="P29" s="135"/>
-      <c r="Q29" s="135"/>
-      <c r="R29" s="135"/>
-      <c r="S29" s="136"/>
+      <c r="C29" s="166"/>
+      <c r="D29" s="167"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="167"/>
+      <c r="H29" s="167"/>
+      <c r="I29" s="167"/>
+      <c r="J29" s="167"/>
+      <c r="K29" s="167"/>
+      <c r="L29" s="167"/>
+      <c r="M29" s="167"/>
+      <c r="N29" s="167"/>
+      <c r="O29" s="167"/>
+      <c r="P29" s="167"/>
+      <c r="Q29" s="167"/>
+      <c r="R29" s="167"/>
+      <c r="S29" s="168"/>
     </row>
     <row r="30" spans="1:21" ht="18" customHeight="1">
       <c r="A30" s="61"/>
       <c r="B30" s="61"/>
-      <c r="C30" s="123"/>
-      <c r="D30" s="124"/>
-      <c r="E30" s="124"/>
-      <c r="F30" s="124"/>
-      <c r="G30" s="124"/>
-      <c r="H30" s="124"/>
-      <c r="I30" s="124"/>
-      <c r="J30" s="124"/>
-      <c r="K30" s="124"/>
-      <c r="L30" s="124"/>
-      <c r="M30" s="124"/>
-      <c r="N30" s="124"/>
-      <c r="O30" s="124"/>
-      <c r="P30" s="124"/>
-      <c r="Q30" s="124"/>
-      <c r="R30" s="124"/>
-      <c r="S30" s="125"/>
+      <c r="C30" s="155"/>
+      <c r="D30" s="156"/>
+      <c r="E30" s="156"/>
+      <c r="F30" s="156"/>
+      <c r="G30" s="156"/>
+      <c r="H30" s="156"/>
+      <c r="I30" s="156"/>
+      <c r="J30" s="156"/>
+      <c r="K30" s="156"/>
+      <c r="L30" s="156"/>
+      <c r="M30" s="156"/>
+      <c r="N30" s="156"/>
+      <c r="O30" s="156"/>
+      <c r="P30" s="156"/>
+      <c r="Q30" s="156"/>
+      <c r="R30" s="156"/>
+      <c r="S30" s="157"/>
     </row>
     <row r="31" spans="1:21" ht="21.95" customHeight="1"/>
     <row r="32" spans="1:21" ht="21.95" customHeight="1"/>
@@ -5271,6 +5269,31 @@
     <row r="42" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="C30:S30"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="C27:S27"/>
+    <mergeCell ref="C28:S28"/>
+    <mergeCell ref="C29:S29"/>
+    <mergeCell ref="C24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="C25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="P25:S25"/>
+    <mergeCell ref="C22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="C23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="C21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:S21"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="F19:I19"/>
@@ -5284,31 +5307,6 @@
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="G11:J11"/>
-    <mergeCell ref="C20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="C21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="C22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="C23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="C24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="C25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="P25:S25"/>
-    <mergeCell ref="C30:S30"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="C27:S27"/>
-    <mergeCell ref="C28:S28"/>
-    <mergeCell ref="C29:S29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -6106,106 +6104,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1">
-      <c r="N1" s="167" t="s">
+      <c r="N1" s="128" t="s">
         <v>122</v>
       </c>
-      <c r="O1" s="167"/>
-      <c r="P1" s="202" t="str">
+      <c r="O1" s="128"/>
+      <c r="P1" s="174" t="str">
         <f>お見積書!R2</f>
         <v>${qu.contractnumber}</v>
       </c>
-      <c r="Q1" s="202"/>
-      <c r="R1" s="202"/>
+      <c r="Q1" s="174"/>
+      <c r="R1" s="174"/>
     </row>
     <row r="2" spans="1:18" ht="18" customHeight="1">
-      <c r="O2" s="200">
+      <c r="O2" s="172">
         <f ca="1">お見積書!R3</f>
         <v>43908</v>
       </c>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="201"/>
+      <c r="P2" s="173"/>
+      <c r="Q2" s="173"/>
+      <c r="R2" s="173"/>
     </row>
     <row r="3" spans="1:18" ht="18" customHeight="1">
-      <c r="A3" s="204" t="s">
+      <c r="A3" s="182" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="205"/>
-      <c r="C3" s="205"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="205"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="205"/>
-      <c r="I3" s="205"/>
-      <c r="J3" s="205"/>
-      <c r="K3" s="205"/>
-      <c r="L3" s="205"/>
-      <c r="M3" s="205"/>
-      <c r="N3" s="205"/>
-      <c r="O3" s="205"/>
-      <c r="P3" s="205"/>
-      <c r="Q3" s="205"/>
-      <c r="R3" s="205"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="183"/>
+      <c r="K3" s="183"/>
+      <c r="L3" s="183"/>
+      <c r="M3" s="183"/>
+      <c r="N3" s="183"/>
+      <c r="O3" s="183"/>
+      <c r="P3" s="183"/>
+      <c r="Q3" s="183"/>
+      <c r="R3" s="183"/>
     </row>
     <row r="4" spans="1:18" ht="18" customHeight="1">
-      <c r="A4" s="202" t="str">
+      <c r="A4" s="174" t="str">
         <f>お見積書!C5</f>
         <v>ご照会の件につき下記の通りお見積り申し上げます。</v>
       </c>
-      <c r="B4" s="202"/>
-      <c r="C4" s="202"/>
-      <c r="D4" s="202"/>
-      <c r="E4" s="202"/>
-      <c r="F4" s="202"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="202"/>
-      <c r="J4" s="202"/>
-      <c r="K4" s="202"/>
-      <c r="L4" s="202"/>
-      <c r="M4" s="202"/>
-      <c r="N4" s="202"/>
-      <c r="O4" s="202"/>
-      <c r="P4" s="202"/>
-      <c r="Q4" s="202"/>
-      <c r="R4" s="202"/>
+      <c r="B4" s="174"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="174"/>
+      <c r="H4" s="174"/>
+      <c r="I4" s="174"/>
+      <c r="J4" s="174"/>
+      <c r="K4" s="174"/>
+      <c r="L4" s="174"/>
+      <c r="M4" s="174"/>
+      <c r="N4" s="174"/>
+      <c r="O4" s="174"/>
+      <c r="P4" s="174"/>
+      <c r="Q4" s="174"/>
+      <c r="R4" s="174"/>
     </row>
     <row r="5" spans="1:18" ht="18" customHeight="1"/>
     <row r="6" spans="1:18" ht="18" customHeight="1">
-      <c r="I6" s="168" t="s">
+      <c r="I6" s="129" t="s">
         <v>75</v>
       </c>
-      <c r="J6" s="168"/>
-      <c r="K6" s="168"/>
-      <c r="L6" s="168"/>
-      <c r="M6" s="168"/>
-      <c r="N6" s="168"/>
-      <c r="O6" s="168"/>
-      <c r="P6" s="168"/>
-      <c r="Q6" s="168"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="129"/>
+      <c r="M6" s="129"/>
+      <c r="N6" s="129"/>
+      <c r="O6" s="129"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="129"/>
     </row>
     <row r="7" spans="1:18" ht="18" customHeight="1">
-      <c r="I7" s="168"/>
-      <c r="J7" s="168"/>
-      <c r="K7" s="168"/>
-      <c r="L7" s="168"/>
-      <c r="M7" s="168"/>
-      <c r="N7" s="168"/>
-      <c r="O7" s="168"/>
-      <c r="P7" s="168"/>
-      <c r="Q7" s="168"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="129"/>
+      <c r="M7" s="129"/>
+      <c r="N7" s="129"/>
+      <c r="O7" s="129"/>
+      <c r="P7" s="129"/>
+      <c r="Q7" s="129"/>
     </row>
     <row r="8" spans="1:18" ht="18" customHeight="1">
-      <c r="I8" s="168"/>
-      <c r="J8" s="168"/>
-      <c r="K8" s="168"/>
-      <c r="L8" s="168"/>
-      <c r="M8" s="168"/>
-      <c r="N8" s="168"/>
-      <c r="O8" s="168"/>
-      <c r="P8" s="168"/>
-      <c r="Q8" s="168"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="129"/>
+      <c r="K8" s="129"/>
+      <c r="L8" s="129"/>
+      <c r="M8" s="129"/>
+      <c r="N8" s="129"/>
+      <c r="O8" s="129"/>
+      <c r="P8" s="129"/>
+      <c r="Q8" s="129"/>
     </row>
     <row r="9" spans="1:18" ht="18" customHeight="1">
       <c r="A9" s="62" t="s">
@@ -6213,36 +6211,36 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="18" customHeight="1">
-      <c r="B10" s="195" t="s">
+      <c r="B10" s="178" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="196"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="197"/>
-      <c r="F10" s="178" t="str">
+      <c r="C10" s="179"/>
+      <c r="D10" s="179"/>
+      <c r="E10" s="180"/>
+      <c r="F10" s="181" t="str">
         <f>お見積書!C9</f>
         <v>${qu.pjjapanese}</v>
       </c>
-      <c r="G10" s="141"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="141"/>
-      <c r="J10" s="141"/>
-      <c r="K10" s="141"/>
-      <c r="L10" s="141"/>
-      <c r="M10" s="141"/>
-      <c r="N10" s="141"/>
-      <c r="O10" s="141"/>
-      <c r="P10" s="141"/>
-      <c r="Q10" s="141"/>
-      <c r="R10" s="142"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="146"/>
+      <c r="J10" s="146"/>
+      <c r="K10" s="146"/>
+      <c r="L10" s="146"/>
+      <c r="M10" s="146"/>
+      <c r="N10" s="146"/>
+      <c r="O10" s="146"/>
+      <c r="P10" s="146"/>
+      <c r="Q10" s="146"/>
+      <c r="R10" s="147"/>
     </row>
     <row r="11" spans="1:18" ht="18" customHeight="1">
-      <c r="B11" s="195" t="s">
+      <c r="B11" s="178" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="196"/>
-      <c r="D11" s="196"/>
-      <c r="E11" s="197"/>
+      <c r="C11" s="179"/>
+      <c r="D11" s="179"/>
+      <c r="E11" s="180"/>
       <c r="F11" s="63" t="str">
         <f>お見積書!F13</f>
         <v>□請負</v>
@@ -6267,57 +6265,57 @@
       <c r="R11" s="64"/>
     </row>
     <row r="12" spans="1:18" ht="18" customHeight="1">
-      <c r="B12" s="195" t="s">
+      <c r="B12" s="178" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="196"/>
-      <c r="D12" s="196"/>
-      <c r="E12" s="197"/>
-      <c r="F12" s="198" t="str">
+      <c r="C12" s="179"/>
+      <c r="D12" s="179"/>
+      <c r="E12" s="180"/>
+      <c r="F12" s="184" t="str">
         <f>お見積書!F15</f>
-        <v>${qu.startdate}</v>
-      </c>
-      <c r="G12" s="193"/>
-      <c r="H12" s="193"/>
-      <c r="I12" s="193"/>
+        <v>${statime[0]}</v>
+      </c>
+      <c r="G12" s="185"/>
+      <c r="H12" s="185"/>
+      <c r="I12" s="185"/>
       <c r="J12" s="65"/>
       <c r="K12" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="L12" s="192" t="str">
+      <c r="L12" s="186" t="str">
         <f>お見積書!F16</f>
-        <v>${qu.enddate}</v>
-      </c>
-      <c r="M12" s="193"/>
-      <c r="N12" s="193"/>
-      <c r="O12" s="193"/>
-      <c r="P12" s="193"/>
-      <c r="Q12" s="193"/>
-      <c r="R12" s="194"/>
+        <v>${statime[1]}</v>
+      </c>
+      <c r="M12" s="185"/>
+      <c r="N12" s="185"/>
+      <c r="O12" s="185"/>
+      <c r="P12" s="185"/>
+      <c r="Q12" s="185"/>
+      <c r="R12" s="187"/>
     </row>
     <row r="13" spans="1:18" ht="18" customHeight="1">
-      <c r="B13" s="195" t="s">
+      <c r="B13" s="178" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="196"/>
-      <c r="D13" s="196"/>
-      <c r="E13" s="197"/>
-      <c r="F13" s="198" t="str">
+      <c r="C13" s="179"/>
+      <c r="D13" s="179"/>
+      <c r="E13" s="180"/>
+      <c r="F13" s="184" t="str">
         <f>お見積書!F16</f>
-        <v>${qu.enddate}</v>
-      </c>
-      <c r="G13" s="193"/>
-      <c r="H13" s="193"/>
-      <c r="I13" s="193"/>
-      <c r="J13" s="193"/>
-      <c r="K13" s="193"/>
-      <c r="L13" s="193"/>
-      <c r="M13" s="193"/>
-      <c r="N13" s="193"/>
-      <c r="O13" s="193"/>
-      <c r="P13" s="193"/>
-      <c r="Q13" s="193"/>
-      <c r="R13" s="194"/>
+        <v>${statime[1]}</v>
+      </c>
+      <c r="G13" s="185"/>
+      <c r="H13" s="185"/>
+      <c r="I13" s="185"/>
+      <c r="J13" s="185"/>
+      <c r="K13" s="185"/>
+      <c r="L13" s="185"/>
+      <c r="M13" s="185"/>
+      <c r="N13" s="185"/>
+      <c r="O13" s="185"/>
+      <c r="P13" s="185"/>
+      <c r="Q13" s="185"/>
+      <c r="R13" s="187"/>
     </row>
     <row r="14" spans="1:18" ht="18" customHeight="1"/>
     <row r="15" spans="1:18" ht="18" customHeight="1">
@@ -6326,116 +6324,116 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="18" customHeight="1">
-      <c r="B16" s="195" t="s">
+      <c r="B16" s="178" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="196"/>
-      <c r="D16" s="196"/>
-      <c r="E16" s="197"/>
-      <c r="F16" s="178" t="str">
+      <c r="C16" s="179"/>
+      <c r="D16" s="179"/>
+      <c r="E16" s="180"/>
+      <c r="F16" s="181" t="str">
         <f>記入!B24</f>
         <v>${qu.loadingjudge}</v>
       </c>
-      <c r="G16" s="141"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="141"/>
-      <c r="J16" s="141"/>
-      <c r="K16" s="141"/>
-      <c r="L16" s="141"/>
-      <c r="M16" s="141"/>
-      <c r="N16" s="141"/>
-      <c r="O16" s="141"/>
-      <c r="P16" s="141"/>
-      <c r="Q16" s="141"/>
-      <c r="R16" s="142"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="146"/>
+      <c r="K16" s="146"/>
+      <c r="L16" s="146"/>
+      <c r="M16" s="146"/>
+      <c r="N16" s="146"/>
+      <c r="O16" s="146"/>
+      <c r="P16" s="146"/>
+      <c r="Q16" s="146"/>
+      <c r="R16" s="147"/>
     </row>
     <row r="17" spans="1:19" ht="18" customHeight="1">
-      <c r="B17" s="195" t="s">
+      <c r="B17" s="178" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="196"/>
-      <c r="D17" s="196"/>
-      <c r="E17" s="197"/>
-      <c r="F17" s="178" t="str">
+      <c r="C17" s="179"/>
+      <c r="D17" s="179"/>
+      <c r="E17" s="180"/>
+      <c r="F17" s="181" t="str">
         <f>記入!B9</f>
         <v>${qu.deployment}</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="141"/>
-      <c r="I17" s="141"/>
-      <c r="J17" s="141"/>
-      <c r="K17" s="141"/>
-      <c r="L17" s="141"/>
-      <c r="M17" s="141"/>
-      <c r="N17" s="142"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="146"/>
+      <c r="I17" s="146"/>
+      <c r="J17" s="146"/>
+      <c r="K17" s="146"/>
+      <c r="L17" s="146"/>
+      <c r="M17" s="146"/>
+      <c r="N17" s="147"/>
       <c r="O17" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="P17" s="141" t="s">
+      <c r="P17" s="146" t="s">
         <v>84</v>
       </c>
-      <c r="Q17" s="141"/>
-      <c r="R17" s="142"/>
+      <c r="Q17" s="146"/>
+      <c r="R17" s="147"/>
     </row>
     <row r="18" spans="1:19" ht="18" customHeight="1"/>
     <row r="19" spans="1:19" ht="18" customHeight="1">
-      <c r="B19" s="199" t="s">
+      <c r="B19" s="188" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="147"/>
-      <c r="D19" s="147"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="147"/>
-      <c r="I19" s="147"/>
-      <c r="J19" s="147"/>
-      <c r="K19" s="147"/>
-      <c r="L19" s="147"/>
-      <c r="M19" s="147"/>
-      <c r="N19" s="147"/>
-      <c r="O19" s="147"/>
-      <c r="P19" s="147"/>
-      <c r="Q19" s="147"/>
-      <c r="R19" s="148"/>
+      <c r="C19" s="152"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="152"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="152"/>
+      <c r="K19" s="152"/>
+      <c r="L19" s="152"/>
+      <c r="M19" s="152"/>
+      <c r="N19" s="152"/>
+      <c r="O19" s="152"/>
+      <c r="P19" s="152"/>
+      <c r="Q19" s="152"/>
+      <c r="R19" s="153"/>
     </row>
     <row r="20" spans="1:19" ht="18" customHeight="1">
-      <c r="B20" s="134"/>
-      <c r="C20" s="135"/>
-      <c r="D20" s="135"/>
-      <c r="E20" s="135"/>
-      <c r="F20" s="135"/>
-      <c r="G20" s="135"/>
-      <c r="H20" s="135"/>
-      <c r="I20" s="135"/>
-      <c r="J20" s="135"/>
-      <c r="K20" s="135"/>
-      <c r="L20" s="135"/>
-      <c r="M20" s="135"/>
-      <c r="N20" s="135"/>
-      <c r="O20" s="135"/>
-      <c r="P20" s="135"/>
-      <c r="Q20" s="135"/>
-      <c r="R20" s="136"/>
+      <c r="B20" s="166"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="167"/>
+      <c r="E20" s="167"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="167"/>
+      <c r="H20" s="167"/>
+      <c r="I20" s="167"/>
+      <c r="J20" s="167"/>
+      <c r="K20" s="167"/>
+      <c r="L20" s="167"/>
+      <c r="M20" s="167"/>
+      <c r="N20" s="167"/>
+      <c r="O20" s="167"/>
+      <c r="P20" s="167"/>
+      <c r="Q20" s="167"/>
+      <c r="R20" s="168"/>
     </row>
     <row r="21" spans="1:19" ht="18" customHeight="1">
-      <c r="B21" s="123"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="124"/>
-      <c r="H21" s="124"/>
-      <c r="I21" s="124"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="124"/>
-      <c r="L21" s="124"/>
-      <c r="M21" s="124"/>
-      <c r="N21" s="124"/>
-      <c r="O21" s="124"/>
-      <c r="P21" s="124"/>
-      <c r="Q21" s="124"/>
-      <c r="R21" s="125"/>
+      <c r="B21" s="155"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="156"/>
+      <c r="E21" s="156"/>
+      <c r="F21" s="156"/>
+      <c r="G21" s="156"/>
+      <c r="H21" s="156"/>
+      <c r="I21" s="156"/>
+      <c r="J21" s="156"/>
+      <c r="K21" s="156"/>
+      <c r="L21" s="156"/>
+      <c r="M21" s="156"/>
+      <c r="N21" s="156"/>
+      <c r="O21" s="156"/>
+      <c r="P21" s="156"/>
+      <c r="Q21" s="156"/>
+      <c r="R21" s="157"/>
     </row>
     <row r="22" spans="1:19" ht="18" customHeight="1"/>
     <row r="23" spans="1:19" ht="18" customHeight="1">
@@ -6460,189 +6458,189 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="18" customHeight="1">
-      <c r="B27" s="178" t="s">
+      <c r="B27" s="181" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="141"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="141"/>
-      <c r="H27" s="141"/>
-      <c r="I27" s="142"/>
-      <c r="J27" s="178" t="s">
+      <c r="C27" s="146"/>
+      <c r="D27" s="146"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="146"/>
+      <c r="I27" s="147"/>
+      <c r="J27" s="181" t="s">
         <v>91</v>
       </c>
-      <c r="K27" s="141"/>
-      <c r="L27" s="141"/>
-      <c r="M27" s="141"/>
-      <c r="N27" s="141"/>
-      <c r="O27" s="141"/>
-      <c r="P27" s="141"/>
-      <c r="Q27" s="141"/>
-      <c r="R27" s="142"/>
+      <c r="K27" s="146"/>
+      <c r="L27" s="146"/>
+      <c r="M27" s="146"/>
+      <c r="N27" s="146"/>
+      <c r="O27" s="146"/>
+      <c r="P27" s="146"/>
+      <c r="Q27" s="146"/>
+      <c r="R27" s="147"/>
     </row>
     <row r="28" spans="1:19" ht="18" customHeight="1">
-      <c r="B28" s="178" t="s">
+      <c r="B28" s="181" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="141"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="141"/>
-      <c r="H28" s="141"/>
-      <c r="I28" s="142"/>
-      <c r="J28" s="178" t="s">
+      <c r="C28" s="146"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="147"/>
+      <c r="J28" s="181" t="s">
         <v>93</v>
       </c>
-      <c r="K28" s="141"/>
-      <c r="L28" s="141"/>
-      <c r="M28" s="141"/>
-      <c r="N28" s="141"/>
-      <c r="O28" s="141"/>
-      <c r="P28" s="141"/>
-      <c r="Q28" s="141"/>
-      <c r="R28" s="142"/>
+      <c r="K28" s="146"/>
+      <c r="L28" s="146"/>
+      <c r="M28" s="146"/>
+      <c r="N28" s="146"/>
+      <c r="O28" s="146"/>
+      <c r="P28" s="146"/>
+      <c r="Q28" s="146"/>
+      <c r="R28" s="147"/>
       <c r="S28" s="68"/>
     </row>
     <row r="29" spans="1:19" ht="18" customHeight="1">
-      <c r="B29" s="178" t="s">
+      <c r="B29" s="181" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="141"/>
-      <c r="D29" s="141"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="141"/>
-      <c r="G29" s="141"/>
-      <c r="H29" s="141"/>
-      <c r="I29" s="142"/>
-      <c r="J29" s="178" t="s">
+      <c r="C29" s="146"/>
+      <c r="D29" s="146"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="147"/>
+      <c r="J29" s="181" t="s">
         <v>95</v>
       </c>
-      <c r="K29" s="141"/>
-      <c r="L29" s="141"/>
-      <c r="M29" s="141"/>
-      <c r="N29" s="141"/>
-      <c r="O29" s="141"/>
-      <c r="P29" s="141"/>
-      <c r="Q29" s="141"/>
-      <c r="R29" s="142"/>
+      <c r="K29" s="146"/>
+      <c r="L29" s="146"/>
+      <c r="M29" s="146"/>
+      <c r="N29" s="146"/>
+      <c r="O29" s="146"/>
+      <c r="P29" s="146"/>
+      <c r="Q29" s="146"/>
+      <c r="R29" s="147"/>
     </row>
     <row r="30" spans="1:19" ht="18" customHeight="1">
-      <c r="B30" s="178" t="s">
+      <c r="B30" s="181" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="141"/>
-      <c r="D30" s="141"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="141"/>
-      <c r="G30" s="141"/>
-      <c r="H30" s="141"/>
-      <c r="I30" s="142"/>
-      <c r="J30" s="178" t="s">
+      <c r="C30" s="146"/>
+      <c r="D30" s="146"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="146"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="147"/>
+      <c r="J30" s="181" t="s">
         <v>97</v>
       </c>
-      <c r="K30" s="141"/>
-      <c r="L30" s="141"/>
-      <c r="M30" s="141"/>
-      <c r="N30" s="141"/>
-      <c r="O30" s="141"/>
-      <c r="P30" s="141"/>
-      <c r="Q30" s="141"/>
-      <c r="R30" s="142"/>
+      <c r="K30" s="146"/>
+      <c r="L30" s="146"/>
+      <c r="M30" s="146"/>
+      <c r="N30" s="146"/>
+      <c r="O30" s="146"/>
+      <c r="P30" s="146"/>
+      <c r="Q30" s="146"/>
+      <c r="R30" s="147"/>
     </row>
     <row r="31" spans="1:19" ht="18" customHeight="1">
-      <c r="B31" s="178" t="s">
+      <c r="B31" s="181" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="141"/>
-      <c r="D31" s="141"/>
-      <c r="E31" s="141"/>
-      <c r="F31" s="141"/>
-      <c r="G31" s="141"/>
-      <c r="H31" s="141"/>
-      <c r="I31" s="142"/>
-      <c r="J31" s="178" t="s">
+      <c r="C31" s="146"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="147"/>
+      <c r="J31" s="181" t="s">
         <v>99</v>
       </c>
-      <c r="K31" s="141"/>
-      <c r="L31" s="141"/>
-      <c r="M31" s="141"/>
-      <c r="N31" s="141"/>
-      <c r="O31" s="141"/>
-      <c r="P31" s="141"/>
-      <c r="Q31" s="141"/>
-      <c r="R31" s="142"/>
+      <c r="K31" s="146"/>
+      <c r="L31" s="146"/>
+      <c r="M31" s="146"/>
+      <c r="N31" s="146"/>
+      <c r="O31" s="146"/>
+      <c r="P31" s="146"/>
+      <c r="Q31" s="146"/>
+      <c r="R31" s="147"/>
     </row>
     <row r="32" spans="1:19" ht="18" customHeight="1">
-      <c r="B32" s="178" t="s">
+      <c r="B32" s="181" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="141"/>
-      <c r="D32" s="141"/>
-      <c r="E32" s="141"/>
-      <c r="F32" s="141"/>
-      <c r="G32" s="141"/>
-      <c r="H32" s="141"/>
-      <c r="I32" s="142"/>
-      <c r="J32" s="178" t="s">
+      <c r="C32" s="146"/>
+      <c r="D32" s="146"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="146"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="146"/>
+      <c r="I32" s="147"/>
+      <c r="J32" s="181" t="s">
         <v>101</v>
       </c>
-      <c r="K32" s="141"/>
-      <c r="L32" s="141"/>
-      <c r="M32" s="141"/>
-      <c r="N32" s="141"/>
-      <c r="O32" s="141"/>
-      <c r="P32" s="141"/>
-      <c r="Q32" s="141"/>
-      <c r="R32" s="142"/>
+      <c r="K32" s="146"/>
+      <c r="L32" s="146"/>
+      <c r="M32" s="146"/>
+      <c r="N32" s="146"/>
+      <c r="O32" s="146"/>
+      <c r="P32" s="146"/>
+      <c r="Q32" s="146"/>
+      <c r="R32" s="147"/>
     </row>
     <row r="33" spans="1:20" ht="18" customHeight="1">
-      <c r="B33" s="178" t="s">
+      <c r="B33" s="181" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="141"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="141"/>
-      <c r="H33" s="141"/>
-      <c r="I33" s="142"/>
-      <c r="J33" s="178" t="s">
+      <c r="C33" s="146"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="146"/>
+      <c r="F33" s="146"/>
+      <c r="G33" s="146"/>
+      <c r="H33" s="146"/>
+      <c r="I33" s="147"/>
+      <c r="J33" s="181" t="s">
         <v>103</v>
       </c>
-      <c r="K33" s="141"/>
-      <c r="L33" s="141"/>
-      <c r="M33" s="141"/>
-      <c r="N33" s="141"/>
-      <c r="O33" s="141"/>
-      <c r="P33" s="141"/>
-      <c r="Q33" s="141"/>
-      <c r="R33" s="142"/>
+      <c r="K33" s="146"/>
+      <c r="L33" s="146"/>
+      <c r="M33" s="146"/>
+      <c r="N33" s="146"/>
+      <c r="O33" s="146"/>
+      <c r="P33" s="146"/>
+      <c r="Q33" s="146"/>
+      <c r="R33" s="147"/>
     </row>
     <row r="34" spans="1:20" ht="18" customHeight="1">
-      <c r="B34" s="178" t="s">
+      <c r="B34" s="181" t="s">
         <v>104</v>
       </c>
-      <c r="C34" s="141"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="141"/>
-      <c r="G34" s="141"/>
-      <c r="H34" s="141"/>
-      <c r="I34" s="142"/>
-      <c r="J34" s="178" t="s">
+      <c r="C34" s="146"/>
+      <c r="D34" s="146"/>
+      <c r="E34" s="146"/>
+      <c r="F34" s="146"/>
+      <c r="G34" s="146"/>
+      <c r="H34" s="146"/>
+      <c r="I34" s="147"/>
+      <c r="J34" s="181" t="s">
         <v>105</v>
       </c>
-      <c r="K34" s="141"/>
-      <c r="L34" s="141"/>
-      <c r="M34" s="141"/>
-      <c r="N34" s="141"/>
-      <c r="O34" s="141"/>
-      <c r="P34" s="141"/>
-      <c r="Q34" s="141"/>
-      <c r="R34" s="142"/>
+      <c r="K34" s="146"/>
+      <c r="L34" s="146"/>
+      <c r="M34" s="146"/>
+      <c r="N34" s="146"/>
+      <c r="O34" s="146"/>
+      <c r="P34" s="146"/>
+      <c r="Q34" s="146"/>
+      <c r="R34" s="147"/>
     </row>
     <row r="35" spans="1:20" ht="18" customHeight="1">
       <c r="B35" s="69"/>
@@ -6706,118 +6704,118 @@
       <c r="R37" s="73"/>
     </row>
     <row r="38" spans="1:20" ht="18" customHeight="1">
-      <c r="B38" s="189" t="s">
+      <c r="B38" s="175" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="190"/>
-      <c r="D38" s="190"/>
-      <c r="E38" s="190"/>
-      <c r="F38" s="190"/>
-      <c r="G38" s="190"/>
-      <c r="H38" s="203" t="str">
+      <c r="C38" s="176"/>
+      <c r="D38" s="176"/>
+      <c r="E38" s="176"/>
+      <c r="F38" s="176"/>
+      <c r="G38" s="176"/>
+      <c r="H38" s="177" t="str">
         <f>記入!D36</f>
         <v>${qu.requestnumber}</v>
       </c>
-      <c r="I38" s="203"/>
-      <c r="J38" s="190"/>
-      <c r="K38" s="190"/>
-      <c r="L38" s="190"/>
-      <c r="M38" s="190"/>
-      <c r="N38" s="190"/>
-      <c r="O38" s="190"/>
-      <c r="P38" s="190"/>
-      <c r="Q38" s="190"/>
+      <c r="I38" s="177"/>
+      <c r="J38" s="176"/>
+      <c r="K38" s="176"/>
+      <c r="L38" s="176"/>
+      <c r="M38" s="176"/>
+      <c r="N38" s="176"/>
+      <c r="O38" s="176"/>
+      <c r="P38" s="176"/>
+      <c r="Q38" s="176"/>
       <c r="R38" s="74"/>
       <c r="S38" s="75"/>
       <c r="T38" s="75"/>
     </row>
     <row r="39" spans="1:20" ht="18" customHeight="1">
-      <c r="B39" s="189" t="s">
+      <c r="B39" s="175" t="s">
         <v>133</v>
       </c>
-      <c r="C39" s="190"/>
-      <c r="D39" s="190"/>
-      <c r="E39" s="190"/>
-      <c r="F39" s="190"/>
-      <c r="G39" s="190"/>
-      <c r="H39" s="190"/>
-      <c r="I39" s="190"/>
-      <c r="J39" s="190"/>
-      <c r="K39" s="190"/>
-      <c r="L39" s="190"/>
-      <c r="M39" s="190"/>
-      <c r="N39" s="190"/>
-      <c r="O39" s="190"/>
-      <c r="P39" s="190"/>
-      <c r="Q39" s="190"/>
-      <c r="R39" s="191"/>
+      <c r="C39" s="176"/>
+      <c r="D39" s="176"/>
+      <c r="E39" s="176"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
+      <c r="H39" s="176"/>
+      <c r="I39" s="176"/>
+      <c r="J39" s="176"/>
+      <c r="K39" s="176"/>
+      <c r="L39" s="176"/>
+      <c r="M39" s="176"/>
+      <c r="N39" s="176"/>
+      <c r="O39" s="176"/>
+      <c r="P39" s="176"/>
+      <c r="Q39" s="176"/>
+      <c r="R39" s="192"/>
       <c r="S39" s="75"/>
       <c r="T39" s="75"/>
     </row>
     <row r="40" spans="1:20" ht="18" customHeight="1">
-      <c r="B40" s="186" t="s">
+      <c r="B40" s="189" t="s">
         <v>131</v>
       </c>
-      <c r="C40" s="187"/>
-      <c r="D40" s="187"/>
-      <c r="E40" s="187"/>
-      <c r="F40" s="187"/>
-      <c r="G40" s="187"/>
-      <c r="H40" s="187"/>
-      <c r="I40" s="187"/>
-      <c r="J40" s="187"/>
-      <c r="K40" s="187"/>
-      <c r="L40" s="187"/>
-      <c r="M40" s="187"/>
-      <c r="N40" s="187"/>
-      <c r="O40" s="187"/>
-      <c r="P40" s="187"/>
-      <c r="Q40" s="187"/>
-      <c r="R40" s="188"/>
+      <c r="C40" s="190"/>
+      <c r="D40" s="190"/>
+      <c r="E40" s="190"/>
+      <c r="F40" s="190"/>
+      <c r="G40" s="190"/>
+      <c r="H40" s="190"/>
+      <c r="I40" s="190"/>
+      <c r="J40" s="190"/>
+      <c r="K40" s="190"/>
+      <c r="L40" s="190"/>
+      <c r="M40" s="190"/>
+      <c r="N40" s="190"/>
+      <c r="O40" s="190"/>
+      <c r="P40" s="190"/>
+      <c r="Q40" s="190"/>
+      <c r="R40" s="191"/>
       <c r="S40" s="76"/>
       <c r="T40" s="76"/>
     </row>
     <row r="41" spans="1:20" ht="18" customHeight="1">
-      <c r="B41" s="186" t="s">
+      <c r="B41" s="189" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="187"/>
-      <c r="D41" s="187"/>
-      <c r="E41" s="187"/>
-      <c r="F41" s="187"/>
-      <c r="G41" s="187"/>
-      <c r="H41" s="187"/>
-      <c r="I41" s="187"/>
-      <c r="J41" s="187"/>
-      <c r="K41" s="187"/>
-      <c r="L41" s="187"/>
-      <c r="M41" s="187"/>
-      <c r="N41" s="187"/>
-      <c r="O41" s="187"/>
-      <c r="P41" s="187"/>
-      <c r="Q41" s="187"/>
-      <c r="R41" s="188"/>
+      <c r="C41" s="190"/>
+      <c r="D41" s="190"/>
+      <c r="E41" s="190"/>
+      <c r="F41" s="190"/>
+      <c r="G41" s="190"/>
+      <c r="H41" s="190"/>
+      <c r="I41" s="190"/>
+      <c r="J41" s="190"/>
+      <c r="K41" s="190"/>
+      <c r="L41" s="190"/>
+      <c r="M41" s="190"/>
+      <c r="N41" s="190"/>
+      <c r="O41" s="190"/>
+      <c r="P41" s="190"/>
+      <c r="Q41" s="190"/>
+      <c r="R41" s="191"/>
       <c r="S41" s="76"/>
       <c r="T41" s="76"/>
     </row>
     <row r="42" spans="1:20" ht="18" customHeight="1">
-      <c r="B42" s="123"/>
-      <c r="C42" s="124"/>
-      <c r="D42" s="124"/>
-      <c r="E42" s="124"/>
-      <c r="F42" s="124"/>
-      <c r="G42" s="124"/>
-      <c r="H42" s="124"/>
-      <c r="I42" s="124"/>
-      <c r="J42" s="124"/>
-      <c r="K42" s="124"/>
-      <c r="L42" s="124"/>
-      <c r="M42" s="124"/>
-      <c r="N42" s="124"/>
-      <c r="O42" s="124"/>
-      <c r="P42" s="124"/>
-      <c r="Q42" s="124"/>
-      <c r="R42" s="125"/>
+      <c r="B42" s="155"/>
+      <c r="C42" s="156"/>
+      <c r="D42" s="156"/>
+      <c r="E42" s="156"/>
+      <c r="F42" s="156"/>
+      <c r="G42" s="156"/>
+      <c r="H42" s="156"/>
+      <c r="I42" s="156"/>
+      <c r="J42" s="156"/>
+      <c r="K42" s="156"/>
+      <c r="L42" s="156"/>
+      <c r="M42" s="156"/>
+      <c r="N42" s="156"/>
+      <c r="O42" s="156"/>
+      <c r="P42" s="156"/>
+      <c r="Q42" s="156"/>
+      <c r="R42" s="157"/>
     </row>
     <row r="43" spans="1:20" ht="18" customHeight="1"/>
     <row r="44" spans="1:20" ht="18" customHeight="1">
@@ -6831,69 +6829,69 @@
       </c>
     </row>
     <row r="46" spans="1:20" ht="18" customHeight="1">
-      <c r="B46" s="177" t="s">
+      <c r="B46" s="202" t="s">
         <v>110</v>
       </c>
-      <c r="C46" s="177"/>
-      <c r="D46" s="177"/>
-      <c r="E46" s="177"/>
-      <c r="F46" s="177"/>
-      <c r="G46" s="177"/>
-      <c r="H46" s="177"/>
-      <c r="I46" s="177" t="s">
+      <c r="C46" s="202"/>
+      <c r="D46" s="202"/>
+      <c r="E46" s="202"/>
+      <c r="F46" s="202"/>
+      <c r="G46" s="202"/>
+      <c r="H46" s="202"/>
+      <c r="I46" s="202" t="s">
         <v>111</v>
       </c>
-      <c r="J46" s="177"/>
-      <c r="K46" s="177"/>
-      <c r="L46" s="177"/>
-      <c r="M46" s="177"/>
-      <c r="N46" s="177"/>
-      <c r="O46" s="177"/>
-      <c r="P46" s="177"/>
-      <c r="Q46" s="177"/>
-      <c r="R46" s="177"/>
+      <c r="J46" s="202"/>
+      <c r="K46" s="202"/>
+      <c r="L46" s="202"/>
+      <c r="M46" s="202"/>
+      <c r="N46" s="202"/>
+      <c r="O46" s="202"/>
+      <c r="P46" s="202"/>
+      <c r="Q46" s="202"/>
+      <c r="R46" s="202"/>
     </row>
     <row r="47" spans="1:20" ht="18" customHeight="1">
-      <c r="B47" s="178" t="s">
+      <c r="B47" s="181" t="s">
         <v>112</v>
       </c>
-      <c r="C47" s="141"/>
-      <c r="D47" s="141"/>
-      <c r="E47" s="141"/>
-      <c r="F47" s="141"/>
-      <c r="G47" s="141"/>
-      <c r="H47" s="142"/>
-      <c r="I47" s="178" t="s">
+      <c r="C47" s="146"/>
+      <c r="D47" s="146"/>
+      <c r="E47" s="146"/>
+      <c r="F47" s="146"/>
+      <c r="G47" s="146"/>
+      <c r="H47" s="147"/>
+      <c r="I47" s="181" t="s">
         <v>113</v>
       </c>
-      <c r="J47" s="141"/>
-      <c r="K47" s="141"/>
-      <c r="L47" s="141"/>
-      <c r="M47" s="141"/>
-      <c r="N47" s="141"/>
-      <c r="O47" s="141"/>
-      <c r="P47" s="141"/>
-      <c r="Q47" s="141"/>
-      <c r="R47" s="142"/>
+      <c r="J47" s="146"/>
+      <c r="K47" s="146"/>
+      <c r="L47" s="146"/>
+      <c r="M47" s="146"/>
+      <c r="N47" s="146"/>
+      <c r="O47" s="146"/>
+      <c r="P47" s="146"/>
+      <c r="Q47" s="146"/>
+      <c r="R47" s="147"/>
     </row>
     <row r="48" spans="1:20" ht="18" customHeight="1">
-      <c r="B48" s="178"/>
-      <c r="C48" s="141"/>
-      <c r="D48" s="141"/>
-      <c r="E48" s="141"/>
-      <c r="F48" s="141"/>
-      <c r="G48" s="141"/>
-      <c r="H48" s="142"/>
-      <c r="I48" s="178"/>
-      <c r="J48" s="141"/>
-      <c r="K48" s="141"/>
-      <c r="L48" s="141"/>
-      <c r="M48" s="141"/>
-      <c r="N48" s="141"/>
-      <c r="O48" s="141"/>
-      <c r="P48" s="141"/>
-      <c r="Q48" s="141"/>
-      <c r="R48" s="142"/>
+      <c r="B48" s="181"/>
+      <c r="C48" s="146"/>
+      <c r="D48" s="146"/>
+      <c r="E48" s="146"/>
+      <c r="F48" s="146"/>
+      <c r="G48" s="146"/>
+      <c r="H48" s="147"/>
+      <c r="I48" s="181"/>
+      <c r="J48" s="146"/>
+      <c r="K48" s="146"/>
+      <c r="L48" s="146"/>
+      <c r="M48" s="146"/>
+      <c r="N48" s="146"/>
+      <c r="O48" s="146"/>
+      <c r="P48" s="146"/>
+      <c r="Q48" s="146"/>
+      <c r="R48" s="147"/>
     </row>
     <row r="49" spans="1:18" ht="18" customHeight="1"/>
     <row r="50" spans="1:18" ht="18" customHeight="1">
@@ -6903,185 +6901,185 @@
     </row>
     <row r="51" spans="1:18" ht="18" customHeight="1"/>
     <row r="52" spans="1:18" ht="18.75" customHeight="1">
-      <c r="B52" s="185"/>
-      <c r="C52" s="185"/>
-      <c r="D52" s="174" t="s">
+      <c r="B52" s="201"/>
+      <c r="C52" s="201"/>
+      <c r="D52" s="198" t="s">
         <v>115</v>
       </c>
-      <c r="E52" s="174"/>
-      <c r="F52" s="174" t="s">
+      <c r="E52" s="198"/>
+      <c r="F52" s="198" t="s">
         <v>116</v>
       </c>
-      <c r="G52" s="174"/>
-      <c r="H52" s="174" t="s">
+      <c r="G52" s="198"/>
+      <c r="H52" s="198" t="s">
         <v>117</v>
       </c>
-      <c r="I52" s="174"/>
-      <c r="J52" s="174" t="s">
+      <c r="I52" s="198"/>
+      <c r="J52" s="198" t="s">
         <v>118</v>
       </c>
-      <c r="K52" s="174"/>
-      <c r="L52" s="174" t="str">
+      <c r="K52" s="198"/>
+      <c r="L52" s="198" t="str">
         <f>お見積書!M20</f>
         <v>金額(${qu.currencyposition})</v>
       </c>
-      <c r="M52" s="174"/>
-      <c r="N52" s="179" t="str">
+      <c r="M52" s="198"/>
+      <c r="N52" s="203" t="str">
         <f>"金額総計"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>金額総計(${qu.currencyposition})</v>
       </c>
-      <c r="O52" s="180"/>
-      <c r="P52" s="180"/>
-      <c r="Q52" s="180"/>
-      <c r="R52" s="181"/>
+      <c r="O52" s="204"/>
+      <c r="P52" s="204"/>
+      <c r="Q52" s="204"/>
+      <c r="R52" s="205"/>
     </row>
     <row r="53" spans="1:18" ht="28.5" customHeight="1">
-      <c r="B53" s="174" t="str">
+      <c r="B53" s="198" t="str">
         <f>IF(記入!A29="","",記入!A29)</f>
         <v>第一回</v>
       </c>
-      <c r="C53" s="174"/>
-      <c r="D53" s="175" t="str">
+      <c r="C53" s="198"/>
+      <c r="D53" s="199" t="str">
         <f>IF(記入!B29="","",記入!B29)</f>
         <v>${num[0].deliverydate}</v>
       </c>
-      <c r="E53" s="176"/>
-      <c r="F53" s="175" t="str">
+      <c r="E53" s="200"/>
+      <c r="F53" s="199" t="str">
         <f>IF(記入!C29="","",記入!C29)</f>
         <v>${num[0].completiondate}</v>
       </c>
-      <c r="G53" s="176"/>
-      <c r="H53" s="175" t="str">
+      <c r="G53" s="200"/>
+      <c r="H53" s="199" t="str">
         <f>IF(記入!D29="","",記入!D29)</f>
         <v>${num[0].claimdate}</v>
       </c>
-      <c r="I53" s="176"/>
-      <c r="J53" s="175" t="str">
+      <c r="I53" s="200"/>
+      <c r="J53" s="199" t="str">
         <f>IF(記入!E29="","",記入!E29)</f>
         <v>${num[0].supportdate}</v>
       </c>
-      <c r="K53" s="176"/>
-      <c r="L53" s="172" t="str">
+      <c r="K53" s="200"/>
+      <c r="L53" s="196" t="str">
         <f>IF(記入!F29="","",記入!F29)</f>
         <v>${num[0].claimamount}</v>
       </c>
-      <c r="M53" s="173"/>
-      <c r="N53" s="182" t="e">
+      <c r="M53" s="197"/>
+      <c r="N53" s="193" t="e">
         <f>SUM(L53:M56)</f>
         <v>#REF!</v>
       </c>
-      <c r="O53" s="183"/>
-      <c r="P53" s="183"/>
-      <c r="Q53" s="183"/>
-      <c r="R53" s="184"/>
+      <c r="O53" s="194"/>
+      <c r="P53" s="194"/>
+      <c r="Q53" s="194"/>
+      <c r="R53" s="195"/>
     </row>
     <row r="54" spans="1:18" ht="28.5" customHeight="1">
-      <c r="B54" s="174" t="e">
+      <c r="B54" s="198" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="C54" s="174"/>
-      <c r="D54" s="175" t="e">
+      <c r="C54" s="198"/>
+      <c r="D54" s="199" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="E54" s="176"/>
-      <c r="F54" s="175" t="e">
+      <c r="E54" s="200"/>
+      <c r="F54" s="199" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G54" s="176"/>
-      <c r="H54" s="175" t="e">
+      <c r="G54" s="200"/>
+      <c r="H54" s="199" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="I54" s="176"/>
-      <c r="J54" s="175" t="e">
+      <c r="I54" s="200"/>
+      <c r="J54" s="199" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="K54" s="176"/>
-      <c r="L54" s="172"/>
-      <c r="M54" s="173"/>
-      <c r="N54" s="182"/>
-      <c r="O54" s="183"/>
-      <c r="P54" s="183"/>
-      <c r="Q54" s="183"/>
-      <c r="R54" s="184"/>
+      <c r="K54" s="200"/>
+      <c r="L54" s="196"/>
+      <c r="M54" s="197"/>
+      <c r="N54" s="193"/>
+      <c r="O54" s="194"/>
+      <c r="P54" s="194"/>
+      <c r="Q54" s="194"/>
+      <c r="R54" s="195"/>
     </row>
     <row r="55" spans="1:18" ht="28.5" customHeight="1">
-      <c r="B55" s="174" t="e">
+      <c r="B55" s="198" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="C55" s="174"/>
-      <c r="D55" s="175" t="e">
+      <c r="C55" s="198"/>
+      <c r="D55" s="199" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="E55" s="176"/>
-      <c r="F55" s="175" t="e">
+      <c r="E55" s="200"/>
+      <c r="F55" s="199" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G55" s="176"/>
-      <c r="H55" s="175" t="e">
+      <c r="G55" s="200"/>
+      <c r="H55" s="199" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="I55" s="176"/>
-      <c r="J55" s="175" t="e">
+      <c r="I55" s="200"/>
+      <c r="J55" s="199" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="K55" s="176"/>
-      <c r="L55" s="172" t="e">
+      <c r="K55" s="200"/>
+      <c r="L55" s="196" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="M55" s="173"/>
-      <c r="N55" s="182"/>
-      <c r="O55" s="183"/>
-      <c r="P55" s="183"/>
-      <c r="Q55" s="183"/>
-      <c r="R55" s="184"/>
+      <c r="M55" s="197"/>
+      <c r="N55" s="193"/>
+      <c r="O55" s="194"/>
+      <c r="P55" s="194"/>
+      <c r="Q55" s="194"/>
+      <c r="R55" s="195"/>
     </row>
     <row r="56" spans="1:18" ht="31.5" customHeight="1">
-      <c r="B56" s="174" t="e">
+      <c r="B56" s="198" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="C56" s="174"/>
-      <c r="D56" s="175" t="e">
+      <c r="C56" s="198"/>
+      <c r="D56" s="199" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="176"/>
-      <c r="F56" s="175" t="e">
+      <c r="E56" s="200"/>
+      <c r="F56" s="199" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="176"/>
-      <c r="H56" s="175" t="e">
+      <c r="G56" s="200"/>
+      <c r="H56" s="199" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="176"/>
-      <c r="J56" s="175" t="e">
+      <c r="I56" s="200"/>
+      <c r="J56" s="199" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="176"/>
-      <c r="L56" s="172" t="e">
+      <c r="K56" s="200"/>
+      <c r="L56" s="196" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="173"/>
-      <c r="N56" s="182"/>
-      <c r="O56" s="183"/>
-      <c r="P56" s="183"/>
-      <c r="Q56" s="183"/>
-      <c r="R56" s="184"/>
+      <c r="M56" s="197"/>
+      <c r="N56" s="193"/>
+      <c r="O56" s="194"/>
+      <c r="P56" s="194"/>
+      <c r="Q56" s="194"/>
+      <c r="R56" s="195"/>
     </row>
     <row r="57" spans="1:18" ht="18" customHeight="1"/>
     <row r="58" spans="1:18" ht="18" customHeight="1">
@@ -7282,6 +7280,73 @@
     <row r="69" spans="2:18" ht="10.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="83">
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="B42:R42"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="I46:R46"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="I47:R47"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="I48:R48"/>
+    <mergeCell ref="N52:R52"/>
+    <mergeCell ref="N53:R56"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="B41:R41"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="J31:R31"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="J32:R32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="J33:R33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="J34:R34"/>
+    <mergeCell ref="B39:R39"/>
+    <mergeCell ref="B40:R40"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="J28:R28"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="J29:R29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="J30:R30"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:R13"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="J27:R27"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:N17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:R1"/>
@@ -7298,73 +7363,6 @@
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="F12:I12"/>
-    <mergeCell ref="L12:R12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:R13"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="J27:R27"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:N17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="J28:R28"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="J29:R29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="J30:R30"/>
-    <mergeCell ref="B41:R41"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="J31:R31"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="J32:R32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="J33:R33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="J34:R34"/>
-    <mergeCell ref="B39:R39"/>
-    <mergeCell ref="B40:R40"/>
-    <mergeCell ref="N53:R56"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="B42:R42"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="I46:R46"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="I47:R47"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="I48:R48"/>
-    <mergeCell ref="N52:R52"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J54:K54"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -7932,7 +7930,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="213" t="s">
+      <c r="A5" s="209" t="s">
         <v>142</v>
       </c>
       <c r="B5" s="90" t="s">
@@ -7951,7 +7949,7 @@
       <c r="F5" s="94"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="214"/>
+      <c r="A6" s="210"/>
       <c r="B6" s="90" t="s">
         <v>144</v>
       </c>
@@ -7968,7 +7966,7 @@
       <c r="F6" s="94"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="214"/>
+      <c r="A7" s="210"/>
       <c r="B7" s="90" t="s">
         <v>145</v>
       </c>
@@ -7985,7 +7983,7 @@
       <c r="F7" s="94"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="214"/>
+      <c r="A8" s="210"/>
       <c r="B8" s="90" t="s">
         <v>146</v>
       </c>
@@ -8002,7 +8000,7 @@
       <c r="F8" s="94"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="214"/>
+      <c r="A9" s="210"/>
       <c r="B9" s="90" t="s">
         <v>147</v>
       </c>
@@ -8019,7 +8017,7 @@
       <c r="F9" s="94"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="215"/>
+      <c r="A10" s="211"/>
       <c r="B10" s="90" t="s">
         <v>149</v>
       </c>
@@ -8036,7 +8034,7 @@
       <c r="F10" s="94"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A11" s="216" t="s">
+      <c r="A11" s="212" t="s">
         <v>150</v>
       </c>
       <c r="B11" s="90" t="s">
@@ -8055,7 +8053,7 @@
       <c r="F11" s="94"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="217"/>
+      <c r="A12" s="213"/>
       <c r="B12" s="90" t="s">
         <v>144</v>
       </c>
@@ -8072,7 +8070,7 @@
       <c r="F12" s="94"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="217"/>
+      <c r="A13" s="213"/>
       <c r="B13" s="90" t="s">
         <v>145</v>
       </c>
@@ -8087,7 +8085,7 @@
       <c r="F13" s="94"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="217"/>
+      <c r="A14" s="213"/>
       <c r="B14" s="90" t="s">
         <v>146</v>
       </c>
@@ -8102,7 +8100,7 @@
       <c r="F14" s="94"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="217"/>
+      <c r="A15" s="213"/>
       <c r="B15" s="90" t="s">
         <v>147</v>
       </c>
@@ -8117,7 +8115,7 @@
       <c r="F15" s="94"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="217"/>
+      <c r="A16" s="213"/>
       <c r="B16" s="90" t="s">
         <v>148</v>
       </c>
@@ -8132,7 +8130,7 @@
       <c r="F16" s="94"/>
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A17" s="216" t="s">
+      <c r="A17" s="212" t="s">
         <v>151</v>
       </c>
       <c r="B17" s="90" t="s">
@@ -8149,7 +8147,7 @@
       <c r="F17" s="94"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="217"/>
+      <c r="A18" s="213"/>
       <c r="B18" s="90" t="s">
         <v>144</v>
       </c>
@@ -8164,7 +8162,7 @@
       <c r="F18" s="94"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="217"/>
+      <c r="A19" s="213"/>
       <c r="B19" s="90" t="s">
         <v>145</v>
       </c>
@@ -8181,7 +8179,7 @@
       <c r="F19" s="94"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="217"/>
+      <c r="A20" s="213"/>
       <c r="B20" s="90" t="s">
         <v>146</v>
       </c>
@@ -8198,7 +8196,7 @@
       <c r="F20" s="94"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="217"/>
+      <c r="A21" s="213"/>
       <c r="B21" s="90" t="s">
         <v>147</v>
       </c>
@@ -8215,7 +8213,7 @@
       <c r="F21" s="94"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="217"/>
+      <c r="A22" s="213"/>
       <c r="B22" s="90" t="s">
         <v>148</v>
       </c>
@@ -8232,11 +8230,11 @@
       <c r="F22" s="94"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="218" t="s">
+      <c r="A23" s="214" t="s">
         <v>152</v>
       </c>
-      <c r="B23" s="219"/>
-      <c r="C23" s="219"/>
+      <c r="B23" s="215"/>
+      <c r="C23" s="215"/>
       <c r="D23" s="92">
         <f>SUM(D5:D22)</f>
         <v>26.3</v>
@@ -8261,11 +8259,11 @@
       <c r="E25" s="95"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="212" t="s">
+      <c r="A26" s="206" t="s">
         <v>153</v>
       </c>
-      <c r="B26" s="212"/>
-      <c r="C26" s="212"/>
+      <c r="B26" s="206"/>
+      <c r="C26" s="206"/>
       <c r="D26" s="88"/>
       <c r="E26" s="96"/>
     </row>
@@ -8286,20 +8284,20 @@
       <c r="A28" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="B28" s="209"/>
-      <c r="C28" s="210"/>
+      <c r="B28" s="217"/>
+      <c r="C28" s="218"/>
       <c r="D28" s="101"/>
       <c r="E28" s="93"/>
       <c r="F28" s="102"/>
       <c r="G28" s="102"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="206" t="s">
+      <c r="A29" s="216" t="s">
         <v>152</v>
       </c>
-      <c r="B29" s="206"/>
-      <c r="C29" s="206"/>
-      <c r="D29" s="206"/>
+      <c r="B29" s="216"/>
+      <c r="C29" s="216"/>
+      <c r="D29" s="216"/>
       <c r="E29" s="103">
         <f>SUM(E28:E28)</f>
         <v>0</v>
@@ -8320,47 +8318,47 @@
       <c r="E31" s="88"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="211" t="s">
+      <c r="A32" s="219" t="s">
         <v>158</v>
       </c>
-      <c r="B32" s="211"/>
-      <c r="C32" s="211"/>
-      <c r="D32" s="211"/>
+      <c r="B32" s="219"/>
+      <c r="C32" s="219"/>
+      <c r="D32" s="219"/>
       <c r="E32" s="99" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A33" s="206" t="s">
+      <c r="A33" s="216" t="s">
         <v>160</v>
       </c>
-      <c r="B33" s="206"/>
-      <c r="C33" s="206"/>
-      <c r="D33" s="206"/>
+      <c r="B33" s="216"/>
+      <c r="C33" s="216"/>
+      <c r="D33" s="216"/>
       <c r="E33" s="103">
         <f>E23</f>
         <v>110000</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="206" t="s">
+      <c r="A34" s="216" t="s">
         <v>153</v>
       </c>
-      <c r="B34" s="206"/>
-      <c r="C34" s="206"/>
-      <c r="D34" s="206"/>
+      <c r="B34" s="216"/>
+      <c r="C34" s="216"/>
+      <c r="D34" s="216"/>
       <c r="E34" s="103">
         <f>E29</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="206" t="s">
+      <c r="A35" s="216" t="s">
         <v>152</v>
       </c>
-      <c r="B35" s="206"/>
-      <c r="C35" s="206"/>
-      <c r="D35" s="206"/>
+      <c r="B35" s="216"/>
+      <c r="C35" s="216"/>
+      <c r="D35" s="216"/>
       <c r="E35" s="103">
         <f>E33+E34</f>
         <v>110000</v>
@@ -8368,12 +8366,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
@@ -8381,6 +8373,12 @@
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A23:C23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/controller/src/main/resources/jxls_templates/jianjishu_shoutuo.xlsx
+++ b/controller/src/main/resources/jxls_templates/jianjishu_shoutuo.xlsx
@@ -1619,102 +1619,102 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>${num[0].deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[0].completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[0].claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[0].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[0].claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${qu.requestnumber}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${qu.pjnamechinese}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${statime[0]}</t>
+  </si>
+  <si>
+    <t>${statime[1]}</t>
+  </si>
+  <si>
     <t>${qu.trusteejapanese}</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[0].deliverydate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[0].completiondate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[0].claimdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[0].supportdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[0].claimamount}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[1].deliverydate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[1].completiondate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[1].claimdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[1].supportdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[1].claimamount}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[2].deliverydate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[2].completiondate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[2].claimdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[2].supportdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[2].claimamount}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[3].deliverydate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[3].completiondate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[3].claimdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[3].supportdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[3].claimamount}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${qu.requestnumber}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${qu.pjnamechinese}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${statime[0]}</t>
-  </si>
-  <si>
-    <t>${statime[1]}</t>
   </si>
 </sst>
 </file>
@@ -2738,6 +2738,123 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="31" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="29" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="30" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="178" fontId="19" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2768,121 +2885,88 @@
     <xf numFmtId="178" fontId="20" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="31" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="29" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="30" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="31" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2894,108 +2978,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3015,18 +3027,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3465,8 +3465,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -3496,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>15</v>
@@ -3608,7 +3608,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>15</v>
@@ -3645,7 +3645,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>15</v>
@@ -3658,7 +3658,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>15</v>
@@ -3827,19 +3827,19 @@
         <v>第一回</v>
       </c>
       <c r="B29" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="D29" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="E29" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="F29" s="32" t="s">
         <v>177</v>
-      </c>
-      <c r="F29" s="32" t="s">
-        <v>178</v>
       </c>
       <c r="G29" s="119"/>
       <c r="H29" s="120"/>
@@ -3850,19 +3850,19 @@
         <v>第二回</v>
       </c>
       <c r="B30" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C30" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="D30" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="E30" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="F30" s="32" t="s">
         <v>182</v>
-      </c>
-      <c r="F30" s="32" t="s">
-        <v>183</v>
       </c>
       <c r="G30" s="119"/>
       <c r="H30" s="120"/>
@@ -3873,19 +3873,19 @@
         <v>第三回</v>
       </c>
       <c r="B31" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C31" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="D31" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="E31" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="E31" s="27" t="s">
+      <c r="F31" s="32" t="s">
         <v>187</v>
-      </c>
-      <c r="F31" s="32" t="s">
-        <v>188</v>
       </c>
       <c r="G31" s="119"/>
       <c r="H31" s="120"/>
@@ -3896,19 +3896,19 @@
         <v>第四回</v>
       </c>
       <c r="B32" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="C32" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="D32" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="E32" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="F32" s="32" t="s">
         <v>192</v>
-      </c>
-      <c r="F32" s="32" t="s">
-        <v>193</v>
       </c>
       <c r="G32" s="121"/>
       <c r="H32" s="122"/>
@@ -3934,7 +3934,7 @@
     <row r="36" spans="1:9">
       <c r="B36" s="1"/>
       <c r="D36" s="115" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E36" s="115"/>
       <c r="F36" s="115"/>
@@ -3947,7 +3947,7 @@
       </c>
       <c r="B37" s="41">
         <f ca="1">TODAY()</f>
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="D37" s="113" t="s">
         <v>54</v>
@@ -4718,37 +4718,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="23.1" customHeight="1">
-      <c r="C1" s="125" t="s">
+      <c r="C1" s="164" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
-      <c r="R1" s="125"/>
-      <c r="S1" s="125"/>
-      <c r="T1" s="125"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="164"/>
+      <c r="J1" s="164"/>
+      <c r="K1" s="164"/>
+      <c r="L1" s="164"/>
+      <c r="M1" s="164"/>
+      <c r="N1" s="164"/>
+      <c r="O1" s="164"/>
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="164"/>
+      <c r="S1" s="164"/>
+      <c r="T1" s="164"/>
     </row>
     <row r="2" spans="1:20" ht="23.1" customHeight="1">
-      <c r="P2" s="128" t="s">
+      <c r="P2" s="167" t="s">
         <v>122</v>
       </c>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="128" t="str">
+      <c r="Q2" s="167"/>
+      <c r="R2" s="167" t="str">
         <f>記入!B12</f>
         <v>${qu.contractnumber}</v>
       </c>
-      <c r="S2" s="128"/>
+      <c r="S2" s="167"/>
     </row>
     <row r="3" spans="1:20" ht="23.1" customHeight="1">
       <c r="A3" s="44"/>
@@ -4757,11 +4757,11 @@
         <f>記入!B2</f>
         <v>${qu.trusteejapanese}</v>
       </c>
-      <c r="R3" s="131">
+      <c r="R3" s="170">
         <f ca="1">記入!B37</f>
-        <v>43908</v>
-      </c>
-      <c r="S3" s="131"/>
+        <v>43909</v>
+      </c>
+      <c r="S3" s="170"/>
     </row>
     <row r="4" spans="1:20" ht="23.1" customHeight="1">
       <c r="A4" s="44"/>
@@ -4784,28 +4784,28 @@
         <f>"(件名番号："&amp;記入!D36&amp;")"</f>
         <v>(件名番号：${qu.requestnumber})</v>
       </c>
-      <c r="K6" s="126" t="s">
+      <c r="K6" s="165" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="126"/>
-      <c r="O6" s="126"/>
-      <c r="P6" s="126"/>
-      <c r="Q6" s="126"/>
-      <c r="R6" s="126"/>
-      <c r="S6" s="126"/>
+      <c r="L6" s="165"/>
+      <c r="M6" s="165"/>
+      <c r="N6" s="165"/>
+      <c r="O6" s="165"/>
+      <c r="P6" s="165"/>
+      <c r="Q6" s="165"/>
+      <c r="R6" s="165"/>
+      <c r="S6" s="165"/>
     </row>
     <row r="7" spans="1:20" ht="23.1" customHeight="1">
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="126"/>
-      <c r="O7" s="126"/>
-      <c r="P7" s="126"/>
-      <c r="Q7" s="126"/>
-      <c r="R7" s="126"/>
-      <c r="S7" s="126"/>
+      <c r="K7" s="165"/>
+      <c r="L7" s="165"/>
+      <c r="M7" s="165"/>
+      <c r="N7" s="165"/>
+      <c r="O7" s="165"/>
+      <c r="P7" s="165"/>
+      <c r="Q7" s="165"/>
+      <c r="R7" s="165"/>
+      <c r="S7" s="165"/>
     </row>
     <row r="8" spans="1:20" ht="23.1" customHeight="1">
       <c r="A8" s="49"/>
@@ -4813,32 +4813,32 @@
       <c r="C8" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="126"/>
-      <c r="N8" s="126"/>
-      <c r="O8" s="126"/>
-      <c r="P8" s="126"/>
-      <c r="Q8" s="126"/>
-      <c r="R8" s="126"/>
-      <c r="S8" s="126"/>
+      <c r="K8" s="165"/>
+      <c r="L8" s="165"/>
+      <c r="M8" s="165"/>
+      <c r="N8" s="165"/>
+      <c r="O8" s="165"/>
+      <c r="P8" s="165"/>
+      <c r="Q8" s="165"/>
+      <c r="R8" s="165"/>
+      <c r="S8" s="165"/>
     </row>
     <row r="9" spans="1:20" ht="23.1" customHeight="1">
-      <c r="C9" s="127" t="str">
+      <c r="C9" s="166" t="str">
         <f>記入!B10</f>
         <v>${qu.pjjapanese}</v>
       </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="127"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
-      <c r="L9" s="127"/>
-      <c r="M9" s="127"/>
-      <c r="N9" s="127"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="166"/>
+      <c r="H9" s="166"/>
+      <c r="I9" s="166"/>
+      <c r="J9" s="166"/>
+      <c r="K9" s="166"/>
+      <c r="L9" s="166"/>
+      <c r="M9" s="166"/>
+      <c r="N9" s="166"/>
     </row>
     <row r="10" spans="1:20" ht="23.1" customHeight="1">
       <c r="C10" s="50"/>
@@ -4858,18 +4858,18 @@
       <c r="C11" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="123" t="str">
+      <c r="E11" s="162" t="str">
         <f>記入!B19</f>
         <v>${qu.currencyposition}</v>
       </c>
-      <c r="F11" s="123"/>
-      <c r="G11" s="132">
+      <c r="F11" s="162"/>
+      <c r="G11" s="171">
         <f>M26</f>
         <v>0</v>
       </c>
-      <c r="H11" s="132"/>
-      <c r="I11" s="132"/>
-      <c r="J11" s="132"/>
+      <c r="H11" s="171"/>
+      <c r="I11" s="171"/>
+      <c r="J11" s="171"/>
       <c r="R11" s="52" t="s">
         <v>53</v>
       </c>
@@ -4914,12 +4914,12 @@
       <c r="C14" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="129" t="str">
+      <c r="F14" s="168" t="str">
         <f>記入!F39</f>
         <v>□あり(12ヵ月）</v>
       </c>
-      <c r="G14" s="129"/>
-      <c r="H14" s="129"/>
+      <c r="G14" s="168"/>
+      <c r="H14" s="168"/>
       <c r="I14" s="53"/>
       <c r="J14" s="43" t="str">
         <f>記入!H39</f>
@@ -4930,23 +4930,23 @@
       <c r="C15" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="130" t="str">
+      <c r="F15" s="169" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
+      <c r="G15" s="169"/>
+      <c r="H15" s="169"/>
     </row>
     <row r="16" spans="1:20" ht="23.1" customHeight="1">
       <c r="C16" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="130" t="str">
+      <c r="F16" s="169" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
+      <c r="G16" s="169"/>
+      <c r="H16" s="169"/>
     </row>
     <row r="17" spans="1:21" ht="23.1" customHeight="1">
       <c r="C17" s="43" t="s">
@@ -4973,287 +4973,287 @@
       <c r="R18" s="26"/>
     </row>
     <row r="19" spans="1:21" ht="23.1" customHeight="1" thickBot="1">
-      <c r="C19" s="124" t="s">
+      <c r="C19" s="163" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="124"/>
-      <c r="E19" s="124"/>
-      <c r="F19" s="124" t="s">
+      <c r="D19" s="163"/>
+      <c r="E19" s="163"/>
+      <c r="F19" s="163" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="124"/>
-      <c r="H19" s="124"/>
-      <c r="I19" s="124"/>
+      <c r="G19" s="163"/>
+      <c r="H19" s="163"/>
+      <c r="I19" s="163"/>
     </row>
     <row r="20" spans="1:21" ht="23.1" customHeight="1" thickBot="1">
       <c r="B20" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="133" t="s">
+      <c r="C20" s="150" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="133"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="133"/>
-      <c r="G20" s="133"/>
-      <c r="H20" s="133"/>
-      <c r="I20" s="133"/>
-      <c r="J20" s="133"/>
-      <c r="K20" s="133"/>
-      <c r="L20" s="134"/>
-      <c r="M20" s="135" t="str">
+      <c r="D20" s="150"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="150"/>
+      <c r="G20" s="150"/>
+      <c r="H20" s="150"/>
+      <c r="I20" s="150"/>
+      <c r="J20" s="150"/>
+      <c r="K20" s="150"/>
+      <c r="L20" s="151"/>
+      <c r="M20" s="152" t="str">
         <f>"金額"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>金額(${qu.currencyposition})</v>
       </c>
-      <c r="N20" s="135"/>
-      <c r="O20" s="135"/>
-      <c r="P20" s="135" t="s">
+      <c r="N20" s="152"/>
+      <c r="O20" s="152"/>
+      <c r="P20" s="152" t="s">
         <v>68</v>
       </c>
-      <c r="Q20" s="135"/>
-      <c r="R20" s="135"/>
-      <c r="S20" s="136"/>
+      <c r="Q20" s="152"/>
+      <c r="R20" s="152"/>
+      <c r="S20" s="153"/>
     </row>
     <row r="21" spans="1:21" ht="33" customHeight="1">
       <c r="B21" s="56">
         <v>1</v>
       </c>
-      <c r="C21" s="137" t="str">
+      <c r="C21" s="154" t="str">
         <f>記入!B10</f>
         <v>${qu.pjjapanese}</v>
       </c>
-      <c r="D21" s="138"/>
-      <c r="E21" s="138"/>
-      <c r="F21" s="138"/>
-      <c r="G21" s="138"/>
-      <c r="H21" s="138"/>
-      <c r="I21" s="138"/>
-      <c r="J21" s="138"/>
-      <c r="K21" s="138"/>
-      <c r="L21" s="139"/>
-      <c r="M21" s="140" t="str">
+      <c r="D21" s="155"/>
+      <c r="E21" s="155"/>
+      <c r="F21" s="155"/>
+      <c r="G21" s="155"/>
+      <c r="H21" s="155"/>
+      <c r="I21" s="155"/>
+      <c r="J21" s="155"/>
+      <c r="K21" s="155"/>
+      <c r="L21" s="156"/>
+      <c r="M21" s="157" t="str">
         <f>記入!B20</f>
         <v>${qu.claimamount}</v>
       </c>
-      <c r="N21" s="141"/>
-      <c r="O21" s="142"/>
-      <c r="P21" s="143"/>
-      <c r="Q21" s="143"/>
-      <c r="R21" s="143"/>
-      <c r="S21" s="144"/>
+      <c r="N21" s="158"/>
+      <c r="O21" s="159"/>
+      <c r="P21" s="160"/>
+      <c r="Q21" s="160"/>
+      <c r="R21" s="160"/>
+      <c r="S21" s="161"/>
       <c r="U21" s="57"/>
     </row>
     <row r="22" spans="1:21" ht="23.1" customHeight="1">
       <c r="B22" s="58">
         <v>2</v>
       </c>
-      <c r="C22" s="145" t="s">
+      <c r="C22" s="140" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="145"/>
-      <c r="E22" s="145"/>
-      <c r="F22" s="145"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="146"/>
-      <c r="I22" s="146"/>
-      <c r="J22" s="146"/>
-      <c r="K22" s="146"/>
-      <c r="L22" s="147"/>
-      <c r="M22" s="148" t="s">
+      <c r="D22" s="140"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="140"/>
+      <c r="G22" s="140"/>
+      <c r="H22" s="141"/>
+      <c r="I22" s="141"/>
+      <c r="J22" s="141"/>
+      <c r="K22" s="141"/>
+      <c r="L22" s="142"/>
+      <c r="M22" s="143" t="s">
         <v>69</v>
       </c>
-      <c r="N22" s="148"/>
-      <c r="O22" s="148"/>
-      <c r="P22" s="149"/>
-      <c r="Q22" s="149"/>
-      <c r="R22" s="149"/>
-      <c r="S22" s="150"/>
+      <c r="N22" s="143"/>
+      <c r="O22" s="143"/>
+      <c r="P22" s="144"/>
+      <c r="Q22" s="144"/>
+      <c r="R22" s="144"/>
+      <c r="S22" s="145"/>
       <c r="U22" s="59"/>
     </row>
     <row r="23" spans="1:21" ht="23.1" customHeight="1">
       <c r="B23" s="58">
         <v>3</v>
       </c>
-      <c r="C23" s="145" t="s">
+      <c r="C23" s="140" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="145"/>
-      <c r="E23" s="145"/>
-      <c r="F23" s="145"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="146"/>
-      <c r="I23" s="146"/>
-      <c r="J23" s="146"/>
-      <c r="K23" s="146"/>
-      <c r="L23" s="147"/>
-      <c r="M23" s="148">
+      <c r="D23" s="140"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="141"/>
+      <c r="I23" s="141"/>
+      <c r="J23" s="141"/>
+      <c r="K23" s="141"/>
+      <c r="L23" s="142"/>
+      <c r="M23" s="143">
         <v>0</v>
       </c>
-      <c r="N23" s="148"/>
-      <c r="O23" s="148"/>
-      <c r="P23" s="149"/>
-      <c r="Q23" s="149"/>
-      <c r="R23" s="149"/>
-      <c r="S23" s="150"/>
+      <c r="N23" s="143"/>
+      <c r="O23" s="143"/>
+      <c r="P23" s="144"/>
+      <c r="Q23" s="144"/>
+      <c r="R23" s="144"/>
+      <c r="S23" s="145"/>
     </row>
     <row r="24" spans="1:21" ht="23.1" customHeight="1">
       <c r="B24" s="58">
         <v>4</v>
       </c>
-      <c r="C24" s="145"/>
-      <c r="D24" s="145"/>
-      <c r="E24" s="145"/>
-      <c r="F24" s="145"/>
-      <c r="G24" s="145"/>
-      <c r="H24" s="146"/>
-      <c r="I24" s="146"/>
-      <c r="J24" s="146"/>
-      <c r="K24" s="146"/>
-      <c r="L24" s="147"/>
-      <c r="M24" s="148">
+      <c r="C24" s="140"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="140"/>
+      <c r="F24" s="140"/>
+      <c r="G24" s="140"/>
+      <c r="H24" s="141"/>
+      <c r="I24" s="141"/>
+      <c r="J24" s="141"/>
+      <c r="K24" s="141"/>
+      <c r="L24" s="142"/>
+      <c r="M24" s="143">
         <v>0</v>
       </c>
-      <c r="N24" s="148"/>
-      <c r="O24" s="148"/>
-      <c r="P24" s="149"/>
-      <c r="Q24" s="149"/>
-      <c r="R24" s="149"/>
-      <c r="S24" s="150"/>
+      <c r="N24" s="143"/>
+      <c r="O24" s="143"/>
+      <c r="P24" s="144"/>
+      <c r="Q24" s="144"/>
+      <c r="R24" s="144"/>
+      <c r="S24" s="145"/>
     </row>
     <row r="25" spans="1:21" ht="23.1" customHeight="1">
       <c r="B25" s="60">
         <v>5</v>
       </c>
-      <c r="C25" s="151"/>
-      <c r="D25" s="151"/>
-      <c r="E25" s="151"/>
-      <c r="F25" s="151"/>
-      <c r="G25" s="151"/>
-      <c r="H25" s="152"/>
-      <c r="I25" s="152"/>
-      <c r="J25" s="152"/>
-      <c r="K25" s="152"/>
-      <c r="L25" s="153"/>
-      <c r="M25" s="154">
+      <c r="C25" s="146"/>
+      <c r="D25" s="146"/>
+      <c r="E25" s="146"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="149">
         <v>0</v>
       </c>
-      <c r="N25" s="154"/>
-      <c r="O25" s="154"/>
-      <c r="P25" s="149"/>
-      <c r="Q25" s="149"/>
-      <c r="R25" s="149"/>
-      <c r="S25" s="150"/>
+      <c r="N25" s="149"/>
+      <c r="O25" s="149"/>
+      <c r="P25" s="144"/>
+      <c r="Q25" s="144"/>
+      <c r="R25" s="144"/>
+      <c r="S25" s="145"/>
     </row>
     <row r="26" spans="1:21" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B26" s="158" t="s">
+      <c r="B26" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="159"/>
-      <c r="D26" s="159"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="159"/>
-      <c r="H26" s="159"/>
-      <c r="I26" s="159"/>
-      <c r="J26" s="159"/>
-      <c r="K26" s="159"/>
-      <c r="L26" s="160"/>
-      <c r="M26" s="161">
+      <c r="C26" s="127"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="127"/>
+      <c r="G26" s="127"/>
+      <c r="H26" s="127"/>
+      <c r="I26" s="127"/>
+      <c r="J26" s="127"/>
+      <c r="K26" s="127"/>
+      <c r="L26" s="128"/>
+      <c r="M26" s="129">
         <f>SUM(M21:O25)</f>
         <v>0</v>
       </c>
-      <c r="N26" s="162"/>
-      <c r="O26" s="163"/>
-      <c r="P26" s="164"/>
-      <c r="Q26" s="164"/>
-      <c r="R26" s="164"/>
-      <c r="S26" s="165"/>
+      <c r="N26" s="130"/>
+      <c r="O26" s="131"/>
+      <c r="P26" s="132"/>
+      <c r="Q26" s="132"/>
+      <c r="R26" s="132"/>
+      <c r="S26" s="133"/>
     </row>
     <row r="27" spans="1:21" ht="23.1" customHeight="1">
-      <c r="C27" s="166" t="s">
+      <c r="C27" s="134" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="167"/>
-      <c r="E27" s="167"/>
-      <c r="F27" s="167"/>
-      <c r="G27" s="167"/>
-      <c r="H27" s="167"/>
-      <c r="I27" s="167"/>
-      <c r="J27" s="167"/>
-      <c r="K27" s="167"/>
-      <c r="L27" s="167"/>
-      <c r="M27" s="167"/>
-      <c r="N27" s="167"/>
-      <c r="O27" s="167"/>
-      <c r="P27" s="167"/>
-      <c r="Q27" s="167"/>
-      <c r="R27" s="167"/>
-      <c r="S27" s="168"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="135"/>
+      <c r="G27" s="135"/>
+      <c r="H27" s="135"/>
+      <c r="I27" s="135"/>
+      <c r="J27" s="135"/>
+      <c r="K27" s="135"/>
+      <c r="L27" s="135"/>
+      <c r="M27" s="135"/>
+      <c r="N27" s="135"/>
+      <c r="O27" s="135"/>
+      <c r="P27" s="135"/>
+      <c r="Q27" s="135"/>
+      <c r="R27" s="135"/>
+      <c r="S27" s="136"/>
     </row>
     <row r="28" spans="1:21" ht="18" customHeight="1">
       <c r="A28" s="61"/>
       <c r="B28" s="61"/>
-      <c r="C28" s="169" t="s">
+      <c r="C28" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="170"/>
-      <c r="E28" s="170"/>
-      <c r="F28" s="170"/>
-      <c r="G28" s="170"/>
-      <c r="H28" s="170"/>
-      <c r="I28" s="170"/>
-      <c r="J28" s="170"/>
-      <c r="K28" s="170"/>
-      <c r="L28" s="170"/>
-      <c r="M28" s="170"/>
-      <c r="N28" s="170"/>
-      <c r="O28" s="170"/>
-      <c r="P28" s="170"/>
-      <c r="Q28" s="170"/>
-      <c r="R28" s="170"/>
-      <c r="S28" s="171"/>
+      <c r="D28" s="138"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="138"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="138"/>
+      <c r="J28" s="138"/>
+      <c r="K28" s="138"/>
+      <c r="L28" s="138"/>
+      <c r="M28" s="138"/>
+      <c r="N28" s="138"/>
+      <c r="O28" s="138"/>
+      <c r="P28" s="138"/>
+      <c r="Q28" s="138"/>
+      <c r="R28" s="138"/>
+      <c r="S28" s="139"/>
     </row>
     <row r="29" spans="1:21" ht="18" customHeight="1">
       <c r="A29" s="61"/>
       <c r="B29" s="61"/>
-      <c r="C29" s="166"/>
-      <c r="D29" s="167"/>
-      <c r="E29" s="167"/>
-      <c r="F29" s="167"/>
-      <c r="G29" s="167"/>
-      <c r="H29" s="167"/>
-      <c r="I29" s="167"/>
-      <c r="J29" s="167"/>
-      <c r="K29" s="167"/>
-      <c r="L29" s="167"/>
-      <c r="M29" s="167"/>
-      <c r="N29" s="167"/>
-      <c r="O29" s="167"/>
-      <c r="P29" s="167"/>
-      <c r="Q29" s="167"/>
-      <c r="R29" s="167"/>
-      <c r="S29" s="168"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="135"/>
+      <c r="F29" s="135"/>
+      <c r="G29" s="135"/>
+      <c r="H29" s="135"/>
+      <c r="I29" s="135"/>
+      <c r="J29" s="135"/>
+      <c r="K29" s="135"/>
+      <c r="L29" s="135"/>
+      <c r="M29" s="135"/>
+      <c r="N29" s="135"/>
+      <c r="O29" s="135"/>
+      <c r="P29" s="135"/>
+      <c r="Q29" s="135"/>
+      <c r="R29" s="135"/>
+      <c r="S29" s="136"/>
     </row>
     <row r="30" spans="1:21" ht="18" customHeight="1">
       <c r="A30" s="61"/>
       <c r="B30" s="61"/>
-      <c r="C30" s="155"/>
-      <c r="D30" s="156"/>
-      <c r="E30" s="156"/>
-      <c r="F30" s="156"/>
-      <c r="G30" s="156"/>
-      <c r="H30" s="156"/>
-      <c r="I30" s="156"/>
-      <c r="J30" s="156"/>
-      <c r="K30" s="156"/>
-      <c r="L30" s="156"/>
-      <c r="M30" s="156"/>
-      <c r="N30" s="156"/>
-      <c r="O30" s="156"/>
-      <c r="P30" s="156"/>
-      <c r="Q30" s="156"/>
-      <c r="R30" s="156"/>
-      <c r="S30" s="157"/>
+      <c r="C30" s="123"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="124"/>
+      <c r="F30" s="124"/>
+      <c r="G30" s="124"/>
+      <c r="H30" s="124"/>
+      <c r="I30" s="124"/>
+      <c r="J30" s="124"/>
+      <c r="K30" s="124"/>
+      <c r="L30" s="124"/>
+      <c r="M30" s="124"/>
+      <c r="N30" s="124"/>
+      <c r="O30" s="124"/>
+      <c r="P30" s="124"/>
+      <c r="Q30" s="124"/>
+      <c r="R30" s="124"/>
+      <c r="S30" s="125"/>
     </row>
     <row r="31" spans="1:21" ht="21.95" customHeight="1"/>
     <row r="32" spans="1:21" ht="21.95" customHeight="1"/>
@@ -5269,31 +5269,6 @@
     <row r="42" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="C30:S30"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="C27:S27"/>
-    <mergeCell ref="C28:S28"/>
-    <mergeCell ref="C29:S29"/>
-    <mergeCell ref="C24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="C25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="P25:S25"/>
-    <mergeCell ref="C22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="C23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="C20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="C21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:S21"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="F19:I19"/>
@@ -5307,6 +5282,31 @@
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="G11:J11"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="C21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="C22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="C23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="C24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="C25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="P25:S25"/>
+    <mergeCell ref="C30:S30"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="C27:S27"/>
+    <mergeCell ref="C28:S28"/>
+    <mergeCell ref="C29:S29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -6104,106 +6104,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1">
-      <c r="N1" s="128" t="s">
+      <c r="N1" s="167" t="s">
         <v>122</v>
       </c>
-      <c r="O1" s="128"/>
-      <c r="P1" s="174" t="str">
+      <c r="O1" s="167"/>
+      <c r="P1" s="202" t="str">
         <f>お見積書!R2</f>
         <v>${qu.contractnumber}</v>
       </c>
-      <c r="Q1" s="174"/>
-      <c r="R1" s="174"/>
+      <c r="Q1" s="202"/>
+      <c r="R1" s="202"/>
     </row>
     <row r="2" spans="1:18" ht="18" customHeight="1">
-      <c r="O2" s="172">
+      <c r="O2" s="200">
         <f ca="1">お見積書!R3</f>
-        <v>43908</v>
-      </c>
-      <c r="P2" s="173"/>
-      <c r="Q2" s="173"/>
-      <c r="R2" s="173"/>
+        <v>43909</v>
+      </c>
+      <c r="P2" s="201"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="201"/>
     </row>
     <row r="3" spans="1:18" ht="18" customHeight="1">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="204" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="183"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="183"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="183"/>
-      <c r="I3" s="183"/>
-      <c r="J3" s="183"/>
-      <c r="K3" s="183"/>
-      <c r="L3" s="183"/>
-      <c r="M3" s="183"/>
-      <c r="N3" s="183"/>
-      <c r="O3" s="183"/>
-      <c r="P3" s="183"/>
-      <c r="Q3" s="183"/>
-      <c r="R3" s="183"/>
+      <c r="B3" s="205"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="205"/>
+      <c r="H3" s="205"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="205"/>
+      <c r="K3" s="205"/>
+      <c r="L3" s="205"/>
+      <c r="M3" s="205"/>
+      <c r="N3" s="205"/>
+      <c r="O3" s="205"/>
+      <c r="P3" s="205"/>
+      <c r="Q3" s="205"/>
+      <c r="R3" s="205"/>
     </row>
     <row r="4" spans="1:18" ht="18" customHeight="1">
-      <c r="A4" s="174" t="str">
+      <c r="A4" s="202" t="str">
         <f>お見積書!C5</f>
         <v>ご照会の件につき下記の通りお見積り申し上げます。</v>
       </c>
-      <c r="B4" s="174"/>
-      <c r="C4" s="174"/>
-      <c r="D4" s="174"/>
-      <c r="E4" s="174"/>
-      <c r="F4" s="174"/>
-      <c r="G4" s="174"/>
-      <c r="H4" s="174"/>
-      <c r="I4" s="174"/>
-      <c r="J4" s="174"/>
-      <c r="K4" s="174"/>
-      <c r="L4" s="174"/>
-      <c r="M4" s="174"/>
-      <c r="N4" s="174"/>
-      <c r="O4" s="174"/>
-      <c r="P4" s="174"/>
-      <c r="Q4" s="174"/>
-      <c r="R4" s="174"/>
+      <c r="B4" s="202"/>
+      <c r="C4" s="202"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="202"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="202"/>
+      <c r="H4" s="202"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="202"/>
+      <c r="K4" s="202"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="202"/>
+      <c r="N4" s="202"/>
+      <c r="O4" s="202"/>
+      <c r="P4" s="202"/>
+      <c r="Q4" s="202"/>
+      <c r="R4" s="202"/>
     </row>
     <row r="5" spans="1:18" ht="18" customHeight="1"/>
     <row r="6" spans="1:18" ht="18" customHeight="1">
-      <c r="I6" s="129" t="s">
+      <c r="I6" s="168" t="s">
         <v>75</v>
       </c>
-      <c r="J6" s="129"/>
-      <c r="K6" s="129"/>
-      <c r="L6" s="129"/>
-      <c r="M6" s="129"/>
-      <c r="N6" s="129"/>
-      <c r="O6" s="129"/>
-      <c r="P6" s="129"/>
-      <c r="Q6" s="129"/>
+      <c r="J6" s="168"/>
+      <c r="K6" s="168"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="168"/>
+      <c r="N6" s="168"/>
+      <c r="O6" s="168"/>
+      <c r="P6" s="168"/>
+      <c r="Q6" s="168"/>
     </row>
     <row r="7" spans="1:18" ht="18" customHeight="1">
-      <c r="I7" s="129"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="129"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="129"/>
-      <c r="O7" s="129"/>
-      <c r="P7" s="129"/>
-      <c r="Q7" s="129"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="168"/>
+      <c r="K7" s="168"/>
+      <c r="L7" s="168"/>
+      <c r="M7" s="168"/>
+      <c r="N7" s="168"/>
+      <c r="O7" s="168"/>
+      <c r="P7" s="168"/>
+      <c r="Q7" s="168"/>
     </row>
     <row r="8" spans="1:18" ht="18" customHeight="1">
-      <c r="I8" s="129"/>
-      <c r="J8" s="129"/>
-      <c r="K8" s="129"/>
-      <c r="L8" s="129"/>
-      <c r="M8" s="129"/>
-      <c r="N8" s="129"/>
-      <c r="O8" s="129"/>
-      <c r="P8" s="129"/>
-      <c r="Q8" s="129"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="168"/>
+      <c r="K8" s="168"/>
+      <c r="L8" s="168"/>
+      <c r="M8" s="168"/>
+      <c r="N8" s="168"/>
+      <c r="O8" s="168"/>
+      <c r="P8" s="168"/>
+      <c r="Q8" s="168"/>
     </row>
     <row r="9" spans="1:18" ht="18" customHeight="1">
       <c r="A9" s="62" t="s">
@@ -6211,36 +6211,36 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="18" customHeight="1">
-      <c r="B10" s="178" t="s">
+      <c r="B10" s="195" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="179"/>
-      <c r="D10" s="179"/>
-      <c r="E10" s="180"/>
-      <c r="F10" s="181" t="str">
+      <c r="C10" s="196"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="197"/>
+      <c r="F10" s="178" t="str">
         <f>お見積書!C9</f>
         <v>${qu.pjjapanese}</v>
       </c>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="146"/>
-      <c r="J10" s="146"/>
-      <c r="K10" s="146"/>
-      <c r="L10" s="146"/>
-      <c r="M10" s="146"/>
-      <c r="N10" s="146"/>
-      <c r="O10" s="146"/>
-      <c r="P10" s="146"/>
-      <c r="Q10" s="146"/>
-      <c r="R10" s="147"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="141"/>
+      <c r="K10" s="141"/>
+      <c r="L10" s="141"/>
+      <c r="M10" s="141"/>
+      <c r="N10" s="141"/>
+      <c r="O10" s="141"/>
+      <c r="P10" s="141"/>
+      <c r="Q10" s="141"/>
+      <c r="R10" s="142"/>
     </row>
     <row r="11" spans="1:18" ht="18" customHeight="1">
-      <c r="B11" s="178" t="s">
+      <c r="B11" s="195" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="179"/>
-      <c r="D11" s="179"/>
-      <c r="E11" s="180"/>
+      <c r="C11" s="196"/>
+      <c r="D11" s="196"/>
+      <c r="E11" s="197"/>
       <c r="F11" s="63" t="str">
         <f>お見積書!F13</f>
         <v>□請負</v>
@@ -6265,57 +6265,57 @@
       <c r="R11" s="64"/>
     </row>
     <row r="12" spans="1:18" ht="18" customHeight="1">
-      <c r="B12" s="178" t="s">
+      <c r="B12" s="195" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="179"/>
-      <c r="D12" s="179"/>
-      <c r="E12" s="180"/>
-      <c r="F12" s="184" t="str">
+      <c r="C12" s="196"/>
+      <c r="D12" s="196"/>
+      <c r="E12" s="197"/>
+      <c r="F12" s="198" t="str">
         <f>お見積書!F15</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="G12" s="185"/>
-      <c r="H12" s="185"/>
-      <c r="I12" s="185"/>
+      <c r="G12" s="193"/>
+      <c r="H12" s="193"/>
+      <c r="I12" s="193"/>
       <c r="J12" s="65"/>
       <c r="K12" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="L12" s="186" t="str">
+      <c r="L12" s="192" t="str">
         <f>お見積書!F16</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="M12" s="185"/>
-      <c r="N12" s="185"/>
-      <c r="O12" s="185"/>
-      <c r="P12" s="185"/>
-      <c r="Q12" s="185"/>
-      <c r="R12" s="187"/>
+      <c r="M12" s="193"/>
+      <c r="N12" s="193"/>
+      <c r="O12" s="193"/>
+      <c r="P12" s="193"/>
+      <c r="Q12" s="193"/>
+      <c r="R12" s="194"/>
     </row>
     <row r="13" spans="1:18" ht="18" customHeight="1">
-      <c r="B13" s="178" t="s">
+      <c r="B13" s="195" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="179"/>
-      <c r="D13" s="179"/>
-      <c r="E13" s="180"/>
-      <c r="F13" s="184" t="str">
+      <c r="C13" s="196"/>
+      <c r="D13" s="196"/>
+      <c r="E13" s="197"/>
+      <c r="F13" s="198" t="str">
         <f>お見積書!F16</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="G13" s="185"/>
-      <c r="H13" s="185"/>
-      <c r="I13" s="185"/>
-      <c r="J13" s="185"/>
-      <c r="K13" s="185"/>
-      <c r="L13" s="185"/>
-      <c r="M13" s="185"/>
-      <c r="N13" s="185"/>
-      <c r="O13" s="185"/>
-      <c r="P13" s="185"/>
-      <c r="Q13" s="185"/>
-      <c r="R13" s="187"/>
+      <c r="G13" s="193"/>
+      <c r="H13" s="193"/>
+      <c r="I13" s="193"/>
+      <c r="J13" s="193"/>
+      <c r="K13" s="193"/>
+      <c r="L13" s="193"/>
+      <c r="M13" s="193"/>
+      <c r="N13" s="193"/>
+      <c r="O13" s="193"/>
+      <c r="P13" s="193"/>
+      <c r="Q13" s="193"/>
+      <c r="R13" s="194"/>
     </row>
     <row r="14" spans="1:18" ht="18" customHeight="1"/>
     <row r="15" spans="1:18" ht="18" customHeight="1">
@@ -6324,116 +6324,116 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="18" customHeight="1">
-      <c r="B16" s="178" t="s">
+      <c r="B16" s="195" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="179"/>
-      <c r="D16" s="179"/>
-      <c r="E16" s="180"/>
-      <c r="F16" s="181" t="str">
+      <c r="C16" s="196"/>
+      <c r="D16" s="196"/>
+      <c r="E16" s="197"/>
+      <c r="F16" s="178" t="str">
         <f>記入!B24</f>
         <v>${qu.loadingjudge}</v>
       </c>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="146"/>
-      <c r="K16" s="146"/>
-      <c r="L16" s="146"/>
-      <c r="M16" s="146"/>
-      <c r="N16" s="146"/>
-      <c r="O16" s="146"/>
-      <c r="P16" s="146"/>
-      <c r="Q16" s="146"/>
-      <c r="R16" s="147"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="141"/>
+      <c r="I16" s="141"/>
+      <c r="J16" s="141"/>
+      <c r="K16" s="141"/>
+      <c r="L16" s="141"/>
+      <c r="M16" s="141"/>
+      <c r="N16" s="141"/>
+      <c r="O16" s="141"/>
+      <c r="P16" s="141"/>
+      <c r="Q16" s="141"/>
+      <c r="R16" s="142"/>
     </row>
     <row r="17" spans="1:19" ht="18" customHeight="1">
-      <c r="B17" s="178" t="s">
+      <c r="B17" s="195" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="179"/>
-      <c r="D17" s="179"/>
-      <c r="E17" s="180"/>
-      <c r="F17" s="181" t="str">
+      <c r="C17" s="196"/>
+      <c r="D17" s="196"/>
+      <c r="E17" s="197"/>
+      <c r="F17" s="178" t="str">
         <f>記入!B9</f>
         <v>${qu.deployment}</v>
       </c>
-      <c r="G17" s="146"/>
-      <c r="H17" s="146"/>
-      <c r="I17" s="146"/>
-      <c r="J17" s="146"/>
-      <c r="K17" s="146"/>
-      <c r="L17" s="146"/>
-      <c r="M17" s="146"/>
-      <c r="N17" s="147"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="141"/>
+      <c r="I17" s="141"/>
+      <c r="J17" s="141"/>
+      <c r="K17" s="141"/>
+      <c r="L17" s="141"/>
+      <c r="M17" s="141"/>
+      <c r="N17" s="142"/>
       <c r="O17" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="P17" s="146" t="s">
+      <c r="P17" s="141" t="s">
         <v>84</v>
       </c>
-      <c r="Q17" s="146"/>
-      <c r="R17" s="147"/>
+      <c r="Q17" s="141"/>
+      <c r="R17" s="142"/>
     </row>
     <row r="18" spans="1:19" ht="18" customHeight="1"/>
     <row r="19" spans="1:19" ht="18" customHeight="1">
-      <c r="B19" s="188" t="s">
+      <c r="B19" s="199" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="152"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="152"/>
-      <c r="H19" s="152"/>
-      <c r="I19" s="152"/>
-      <c r="J19" s="152"/>
-      <c r="K19" s="152"/>
-      <c r="L19" s="152"/>
-      <c r="M19" s="152"/>
-      <c r="N19" s="152"/>
-      <c r="O19" s="152"/>
-      <c r="P19" s="152"/>
-      <c r="Q19" s="152"/>
-      <c r="R19" s="153"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="147"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="147"/>
+      <c r="I19" s="147"/>
+      <c r="J19" s="147"/>
+      <c r="K19" s="147"/>
+      <c r="L19" s="147"/>
+      <c r="M19" s="147"/>
+      <c r="N19" s="147"/>
+      <c r="O19" s="147"/>
+      <c r="P19" s="147"/>
+      <c r="Q19" s="147"/>
+      <c r="R19" s="148"/>
     </row>
     <row r="20" spans="1:19" ht="18" customHeight="1">
-      <c r="B20" s="166"/>
-      <c r="C20" s="167"/>
-      <c r="D20" s="167"/>
-      <c r="E20" s="167"/>
-      <c r="F20" s="167"/>
-      <c r="G20" s="167"/>
-      <c r="H20" s="167"/>
-      <c r="I20" s="167"/>
-      <c r="J20" s="167"/>
-      <c r="K20" s="167"/>
-      <c r="L20" s="167"/>
-      <c r="M20" s="167"/>
-      <c r="N20" s="167"/>
-      <c r="O20" s="167"/>
-      <c r="P20" s="167"/>
-      <c r="Q20" s="167"/>
-      <c r="R20" s="168"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="135"/>
+      <c r="F20" s="135"/>
+      <c r="G20" s="135"/>
+      <c r="H20" s="135"/>
+      <c r="I20" s="135"/>
+      <c r="J20" s="135"/>
+      <c r="K20" s="135"/>
+      <c r="L20" s="135"/>
+      <c r="M20" s="135"/>
+      <c r="N20" s="135"/>
+      <c r="O20" s="135"/>
+      <c r="P20" s="135"/>
+      <c r="Q20" s="135"/>
+      <c r="R20" s="136"/>
     </row>
     <row r="21" spans="1:19" ht="18" customHeight="1">
-      <c r="B21" s="155"/>
-      <c r="C21" s="156"/>
-      <c r="D21" s="156"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="156"/>
-      <c r="G21" s="156"/>
-      <c r="H21" s="156"/>
-      <c r="I21" s="156"/>
-      <c r="J21" s="156"/>
-      <c r="K21" s="156"/>
-      <c r="L21" s="156"/>
-      <c r="M21" s="156"/>
-      <c r="N21" s="156"/>
-      <c r="O21" s="156"/>
-      <c r="P21" s="156"/>
-      <c r="Q21" s="156"/>
-      <c r="R21" s="157"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="124"/>
+      <c r="G21" s="124"/>
+      <c r="H21" s="124"/>
+      <c r="I21" s="124"/>
+      <c r="J21" s="124"/>
+      <c r="K21" s="124"/>
+      <c r="L21" s="124"/>
+      <c r="M21" s="124"/>
+      <c r="N21" s="124"/>
+      <c r="O21" s="124"/>
+      <c r="P21" s="124"/>
+      <c r="Q21" s="124"/>
+      <c r="R21" s="125"/>
     </row>
     <row r="22" spans="1:19" ht="18" customHeight="1"/>
     <row r="23" spans="1:19" ht="18" customHeight="1">
@@ -6458,189 +6458,189 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="18" customHeight="1">
-      <c r="B27" s="181" t="s">
+      <c r="B27" s="178" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="146"/>
-      <c r="D27" s="146"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="146"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="146"/>
-      <c r="I27" s="147"/>
-      <c r="J27" s="181" t="s">
+      <c r="C27" s="141"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="141"/>
+      <c r="I27" s="142"/>
+      <c r="J27" s="178" t="s">
         <v>91</v>
       </c>
-      <c r="K27" s="146"/>
-      <c r="L27" s="146"/>
-      <c r="M27" s="146"/>
-      <c r="N27" s="146"/>
-      <c r="O27" s="146"/>
-      <c r="P27" s="146"/>
-      <c r="Q27" s="146"/>
-      <c r="R27" s="147"/>
+      <c r="K27" s="141"/>
+      <c r="L27" s="141"/>
+      <c r="M27" s="141"/>
+      <c r="N27" s="141"/>
+      <c r="O27" s="141"/>
+      <c r="P27" s="141"/>
+      <c r="Q27" s="141"/>
+      <c r="R27" s="142"/>
     </row>
     <row r="28" spans="1:19" ht="18" customHeight="1">
-      <c r="B28" s="181" t="s">
+      <c r="B28" s="178" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="146"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="146"/>
-      <c r="I28" s="147"/>
-      <c r="J28" s="181" t="s">
+      <c r="C28" s="141"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="141"/>
+      <c r="I28" s="142"/>
+      <c r="J28" s="178" t="s">
         <v>93</v>
       </c>
-      <c r="K28" s="146"/>
-      <c r="L28" s="146"/>
-      <c r="M28" s="146"/>
-      <c r="N28" s="146"/>
-      <c r="O28" s="146"/>
-      <c r="P28" s="146"/>
-      <c r="Q28" s="146"/>
-      <c r="R28" s="147"/>
+      <c r="K28" s="141"/>
+      <c r="L28" s="141"/>
+      <c r="M28" s="141"/>
+      <c r="N28" s="141"/>
+      <c r="O28" s="141"/>
+      <c r="P28" s="141"/>
+      <c r="Q28" s="141"/>
+      <c r="R28" s="142"/>
       <c r="S28" s="68"/>
     </row>
     <row r="29" spans="1:19" ht="18" customHeight="1">
-      <c r="B29" s="181" t="s">
+      <c r="B29" s="178" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="146"/>
-      <c r="D29" s="146"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="146"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="181" t="s">
+      <c r="C29" s="141"/>
+      <c r="D29" s="141"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="141"/>
+      <c r="H29" s="141"/>
+      <c r="I29" s="142"/>
+      <c r="J29" s="178" t="s">
         <v>95</v>
       </c>
-      <c r="K29" s="146"/>
-      <c r="L29" s="146"/>
-      <c r="M29" s="146"/>
-      <c r="N29" s="146"/>
-      <c r="O29" s="146"/>
-      <c r="P29" s="146"/>
-      <c r="Q29" s="146"/>
-      <c r="R29" s="147"/>
+      <c r="K29" s="141"/>
+      <c r="L29" s="141"/>
+      <c r="M29" s="141"/>
+      <c r="N29" s="141"/>
+      <c r="O29" s="141"/>
+      <c r="P29" s="141"/>
+      <c r="Q29" s="141"/>
+      <c r="R29" s="142"/>
     </row>
     <row r="30" spans="1:19" ht="18" customHeight="1">
-      <c r="B30" s="181" t="s">
+      <c r="B30" s="178" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="146"/>
-      <c r="D30" s="146"/>
-      <c r="E30" s="146"/>
-      <c r="F30" s="146"/>
-      <c r="G30" s="146"/>
-      <c r="H30" s="146"/>
-      <c r="I30" s="147"/>
-      <c r="J30" s="181" t="s">
+      <c r="C30" s="141"/>
+      <c r="D30" s="141"/>
+      <c r="E30" s="141"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="141"/>
+      <c r="H30" s="141"/>
+      <c r="I30" s="142"/>
+      <c r="J30" s="178" t="s">
         <v>97</v>
       </c>
-      <c r="K30" s="146"/>
-      <c r="L30" s="146"/>
-      <c r="M30" s="146"/>
-      <c r="N30" s="146"/>
-      <c r="O30" s="146"/>
-      <c r="P30" s="146"/>
-      <c r="Q30" s="146"/>
-      <c r="R30" s="147"/>
+      <c r="K30" s="141"/>
+      <c r="L30" s="141"/>
+      <c r="M30" s="141"/>
+      <c r="N30" s="141"/>
+      <c r="O30" s="141"/>
+      <c r="P30" s="141"/>
+      <c r="Q30" s="141"/>
+      <c r="R30" s="142"/>
     </row>
     <row r="31" spans="1:19" ht="18" customHeight="1">
-      <c r="B31" s="181" t="s">
+      <c r="B31" s="178" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="146"/>
-      <c r="D31" s="146"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="147"/>
-      <c r="J31" s="181" t="s">
+      <c r="C31" s="141"/>
+      <c r="D31" s="141"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="141"/>
+      <c r="G31" s="141"/>
+      <c r="H31" s="141"/>
+      <c r="I31" s="142"/>
+      <c r="J31" s="178" t="s">
         <v>99</v>
       </c>
-      <c r="K31" s="146"/>
-      <c r="L31" s="146"/>
-      <c r="M31" s="146"/>
-      <c r="N31" s="146"/>
-      <c r="O31" s="146"/>
-      <c r="P31" s="146"/>
-      <c r="Q31" s="146"/>
-      <c r="R31" s="147"/>
+      <c r="K31" s="141"/>
+      <c r="L31" s="141"/>
+      <c r="M31" s="141"/>
+      <c r="N31" s="141"/>
+      <c r="O31" s="141"/>
+      <c r="P31" s="141"/>
+      <c r="Q31" s="141"/>
+      <c r="R31" s="142"/>
     </row>
     <row r="32" spans="1:19" ht="18" customHeight="1">
-      <c r="B32" s="181" t="s">
+      <c r="B32" s="178" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="146"/>
-      <c r="D32" s="146"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="146"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="146"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="181" t="s">
+      <c r="C32" s="141"/>
+      <c r="D32" s="141"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="141"/>
+      <c r="G32" s="141"/>
+      <c r="H32" s="141"/>
+      <c r="I32" s="142"/>
+      <c r="J32" s="178" t="s">
         <v>101</v>
       </c>
-      <c r="K32" s="146"/>
-      <c r="L32" s="146"/>
-      <c r="M32" s="146"/>
-      <c r="N32" s="146"/>
-      <c r="O32" s="146"/>
-      <c r="P32" s="146"/>
-      <c r="Q32" s="146"/>
-      <c r="R32" s="147"/>
+      <c r="K32" s="141"/>
+      <c r="L32" s="141"/>
+      <c r="M32" s="141"/>
+      <c r="N32" s="141"/>
+      <c r="O32" s="141"/>
+      <c r="P32" s="141"/>
+      <c r="Q32" s="141"/>
+      <c r="R32" s="142"/>
     </row>
     <row r="33" spans="1:20" ht="18" customHeight="1">
-      <c r="B33" s="181" t="s">
+      <c r="B33" s="178" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="146"/>
-      <c r="D33" s="146"/>
-      <c r="E33" s="146"/>
-      <c r="F33" s="146"/>
-      <c r="G33" s="146"/>
-      <c r="H33" s="146"/>
-      <c r="I33" s="147"/>
-      <c r="J33" s="181" t="s">
+      <c r="C33" s="141"/>
+      <c r="D33" s="141"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="141"/>
+      <c r="H33" s="141"/>
+      <c r="I33" s="142"/>
+      <c r="J33" s="178" t="s">
         <v>103</v>
       </c>
-      <c r="K33" s="146"/>
-      <c r="L33" s="146"/>
-      <c r="M33" s="146"/>
-      <c r="N33" s="146"/>
-      <c r="O33" s="146"/>
-      <c r="P33" s="146"/>
-      <c r="Q33" s="146"/>
-      <c r="R33" s="147"/>
+      <c r="K33" s="141"/>
+      <c r="L33" s="141"/>
+      <c r="M33" s="141"/>
+      <c r="N33" s="141"/>
+      <c r="O33" s="141"/>
+      <c r="P33" s="141"/>
+      <c r="Q33" s="141"/>
+      <c r="R33" s="142"/>
     </row>
     <row r="34" spans="1:20" ht="18" customHeight="1">
-      <c r="B34" s="181" t="s">
+      <c r="B34" s="178" t="s">
         <v>104</v>
       </c>
-      <c r="C34" s="146"/>
-      <c r="D34" s="146"/>
-      <c r="E34" s="146"/>
-      <c r="F34" s="146"/>
-      <c r="G34" s="146"/>
-      <c r="H34" s="146"/>
-      <c r="I34" s="147"/>
-      <c r="J34" s="181" t="s">
+      <c r="C34" s="141"/>
+      <c r="D34" s="141"/>
+      <c r="E34" s="141"/>
+      <c r="F34" s="141"/>
+      <c r="G34" s="141"/>
+      <c r="H34" s="141"/>
+      <c r="I34" s="142"/>
+      <c r="J34" s="178" t="s">
         <v>105</v>
       </c>
-      <c r="K34" s="146"/>
-      <c r="L34" s="146"/>
-      <c r="M34" s="146"/>
-      <c r="N34" s="146"/>
-      <c r="O34" s="146"/>
-      <c r="P34" s="146"/>
-      <c r="Q34" s="146"/>
-      <c r="R34" s="147"/>
+      <c r="K34" s="141"/>
+      <c r="L34" s="141"/>
+      <c r="M34" s="141"/>
+      <c r="N34" s="141"/>
+      <c r="O34" s="141"/>
+      <c r="P34" s="141"/>
+      <c r="Q34" s="141"/>
+      <c r="R34" s="142"/>
     </row>
     <row r="35" spans="1:20" ht="18" customHeight="1">
       <c r="B35" s="69"/>
@@ -6704,118 +6704,118 @@
       <c r="R37" s="73"/>
     </row>
     <row r="38" spans="1:20" ht="18" customHeight="1">
-      <c r="B38" s="175" t="s">
+      <c r="B38" s="189" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="176"/>
-      <c r="D38" s="176"/>
-      <c r="E38" s="176"/>
-      <c r="F38" s="176"/>
-      <c r="G38" s="176"/>
-      <c r="H38" s="177" t="str">
+      <c r="C38" s="190"/>
+      <c r="D38" s="190"/>
+      <c r="E38" s="190"/>
+      <c r="F38" s="190"/>
+      <c r="G38" s="190"/>
+      <c r="H38" s="203" t="str">
         <f>記入!D36</f>
         <v>${qu.requestnumber}</v>
       </c>
-      <c r="I38" s="177"/>
-      <c r="J38" s="176"/>
-      <c r="K38" s="176"/>
-      <c r="L38" s="176"/>
-      <c r="M38" s="176"/>
-      <c r="N38" s="176"/>
-      <c r="O38" s="176"/>
-      <c r="P38" s="176"/>
-      <c r="Q38" s="176"/>
+      <c r="I38" s="203"/>
+      <c r="J38" s="190"/>
+      <c r="K38" s="190"/>
+      <c r="L38" s="190"/>
+      <c r="M38" s="190"/>
+      <c r="N38" s="190"/>
+      <c r="O38" s="190"/>
+      <c r="P38" s="190"/>
+      <c r="Q38" s="190"/>
       <c r="R38" s="74"/>
       <c r="S38" s="75"/>
       <c r="T38" s="75"/>
     </row>
     <row r="39" spans="1:20" ht="18" customHeight="1">
-      <c r="B39" s="175" t="s">
+      <c r="B39" s="189" t="s">
         <v>133</v>
       </c>
-      <c r="C39" s="176"/>
-      <c r="D39" s="176"/>
-      <c r="E39" s="176"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
-      <c r="H39" s="176"/>
-      <c r="I39" s="176"/>
-      <c r="J39" s="176"/>
-      <c r="K39" s="176"/>
-      <c r="L39" s="176"/>
-      <c r="M39" s="176"/>
-      <c r="N39" s="176"/>
-      <c r="O39" s="176"/>
-      <c r="P39" s="176"/>
-      <c r="Q39" s="176"/>
-      <c r="R39" s="192"/>
+      <c r="C39" s="190"/>
+      <c r="D39" s="190"/>
+      <c r="E39" s="190"/>
+      <c r="F39" s="190"/>
+      <c r="G39" s="190"/>
+      <c r="H39" s="190"/>
+      <c r="I39" s="190"/>
+      <c r="J39" s="190"/>
+      <c r="K39" s="190"/>
+      <c r="L39" s="190"/>
+      <c r="M39" s="190"/>
+      <c r="N39" s="190"/>
+      <c r="O39" s="190"/>
+      <c r="P39" s="190"/>
+      <c r="Q39" s="190"/>
+      <c r="R39" s="191"/>
       <c r="S39" s="75"/>
       <c r="T39" s="75"/>
     </row>
     <row r="40" spans="1:20" ht="18" customHeight="1">
-      <c r="B40" s="189" t="s">
+      <c r="B40" s="186" t="s">
         <v>131</v>
       </c>
-      <c r="C40" s="190"/>
-      <c r="D40" s="190"/>
-      <c r="E40" s="190"/>
-      <c r="F40" s="190"/>
-      <c r="G40" s="190"/>
-      <c r="H40" s="190"/>
-      <c r="I40" s="190"/>
-      <c r="J40" s="190"/>
-      <c r="K40" s="190"/>
-      <c r="L40" s="190"/>
-      <c r="M40" s="190"/>
-      <c r="N40" s="190"/>
-      <c r="O40" s="190"/>
-      <c r="P40" s="190"/>
-      <c r="Q40" s="190"/>
-      <c r="R40" s="191"/>
+      <c r="C40" s="187"/>
+      <c r="D40" s="187"/>
+      <c r="E40" s="187"/>
+      <c r="F40" s="187"/>
+      <c r="G40" s="187"/>
+      <c r="H40" s="187"/>
+      <c r="I40" s="187"/>
+      <c r="J40" s="187"/>
+      <c r="K40" s="187"/>
+      <c r="L40" s="187"/>
+      <c r="M40" s="187"/>
+      <c r="N40" s="187"/>
+      <c r="O40" s="187"/>
+      <c r="P40" s="187"/>
+      <c r="Q40" s="187"/>
+      <c r="R40" s="188"/>
       <c r="S40" s="76"/>
       <c r="T40" s="76"/>
     </row>
     <row r="41" spans="1:20" ht="18" customHeight="1">
-      <c r="B41" s="189" t="s">
+      <c r="B41" s="186" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="190"/>
-      <c r="D41" s="190"/>
-      <c r="E41" s="190"/>
-      <c r="F41" s="190"/>
-      <c r="G41" s="190"/>
-      <c r="H41" s="190"/>
-      <c r="I41" s="190"/>
-      <c r="J41" s="190"/>
-      <c r="K41" s="190"/>
-      <c r="L41" s="190"/>
-      <c r="M41" s="190"/>
-      <c r="N41" s="190"/>
-      <c r="O41" s="190"/>
-      <c r="P41" s="190"/>
-      <c r="Q41" s="190"/>
-      <c r="R41" s="191"/>
+      <c r="C41" s="187"/>
+      <c r="D41" s="187"/>
+      <c r="E41" s="187"/>
+      <c r="F41" s="187"/>
+      <c r="G41" s="187"/>
+      <c r="H41" s="187"/>
+      <c r="I41" s="187"/>
+      <c r="J41" s="187"/>
+      <c r="K41" s="187"/>
+      <c r="L41" s="187"/>
+      <c r="M41" s="187"/>
+      <c r="N41" s="187"/>
+      <c r="O41" s="187"/>
+      <c r="P41" s="187"/>
+      <c r="Q41" s="187"/>
+      <c r="R41" s="188"/>
       <c r="S41" s="76"/>
       <c r="T41" s="76"/>
     </row>
     <row r="42" spans="1:20" ht="18" customHeight="1">
-      <c r="B42" s="155"/>
-      <c r="C42" s="156"/>
-      <c r="D42" s="156"/>
-      <c r="E42" s="156"/>
-      <c r="F42" s="156"/>
-      <c r="G42" s="156"/>
-      <c r="H42" s="156"/>
-      <c r="I42" s="156"/>
-      <c r="J42" s="156"/>
-      <c r="K42" s="156"/>
-      <c r="L42" s="156"/>
-      <c r="M42" s="156"/>
-      <c r="N42" s="156"/>
-      <c r="O42" s="156"/>
-      <c r="P42" s="156"/>
-      <c r="Q42" s="156"/>
-      <c r="R42" s="157"/>
+      <c r="B42" s="123"/>
+      <c r="C42" s="124"/>
+      <c r="D42" s="124"/>
+      <c r="E42" s="124"/>
+      <c r="F42" s="124"/>
+      <c r="G42" s="124"/>
+      <c r="H42" s="124"/>
+      <c r="I42" s="124"/>
+      <c r="J42" s="124"/>
+      <c r="K42" s="124"/>
+      <c r="L42" s="124"/>
+      <c r="M42" s="124"/>
+      <c r="N42" s="124"/>
+      <c r="O42" s="124"/>
+      <c r="P42" s="124"/>
+      <c r="Q42" s="124"/>
+      <c r="R42" s="125"/>
     </row>
     <row r="43" spans="1:20" ht="18" customHeight="1"/>
     <row r="44" spans="1:20" ht="18" customHeight="1">
@@ -6829,69 +6829,69 @@
       </c>
     </row>
     <row r="46" spans="1:20" ht="18" customHeight="1">
-      <c r="B46" s="202" t="s">
+      <c r="B46" s="177" t="s">
         <v>110</v>
       </c>
-      <c r="C46" s="202"/>
-      <c r="D46" s="202"/>
-      <c r="E46" s="202"/>
-      <c r="F46" s="202"/>
-      <c r="G46" s="202"/>
-      <c r="H46" s="202"/>
-      <c r="I46" s="202" t="s">
+      <c r="C46" s="177"/>
+      <c r="D46" s="177"/>
+      <c r="E46" s="177"/>
+      <c r="F46" s="177"/>
+      <c r="G46" s="177"/>
+      <c r="H46" s="177"/>
+      <c r="I46" s="177" t="s">
         <v>111</v>
       </c>
-      <c r="J46" s="202"/>
-      <c r="K46" s="202"/>
-      <c r="L46" s="202"/>
-      <c r="M46" s="202"/>
-      <c r="N46" s="202"/>
-      <c r="O46" s="202"/>
-      <c r="P46" s="202"/>
-      <c r="Q46" s="202"/>
-      <c r="R46" s="202"/>
+      <c r="J46" s="177"/>
+      <c r="K46" s="177"/>
+      <c r="L46" s="177"/>
+      <c r="M46" s="177"/>
+      <c r="N46" s="177"/>
+      <c r="O46" s="177"/>
+      <c r="P46" s="177"/>
+      <c r="Q46" s="177"/>
+      <c r="R46" s="177"/>
     </row>
     <row r="47" spans="1:20" ht="18" customHeight="1">
-      <c r="B47" s="181" t="s">
+      <c r="B47" s="178" t="s">
         <v>112</v>
       </c>
-      <c r="C47" s="146"/>
-      <c r="D47" s="146"/>
-      <c r="E47" s="146"/>
-      <c r="F47" s="146"/>
-      <c r="G47" s="146"/>
-      <c r="H47" s="147"/>
-      <c r="I47" s="181" t="s">
+      <c r="C47" s="141"/>
+      <c r="D47" s="141"/>
+      <c r="E47" s="141"/>
+      <c r="F47" s="141"/>
+      <c r="G47" s="141"/>
+      <c r="H47" s="142"/>
+      <c r="I47" s="178" t="s">
         <v>113</v>
       </c>
-      <c r="J47" s="146"/>
-      <c r="K47" s="146"/>
-      <c r="L47" s="146"/>
-      <c r="M47" s="146"/>
-      <c r="N47" s="146"/>
-      <c r="O47" s="146"/>
-      <c r="P47" s="146"/>
-      <c r="Q47" s="146"/>
-      <c r="R47" s="147"/>
+      <c r="J47" s="141"/>
+      <c r="K47" s="141"/>
+      <c r="L47" s="141"/>
+      <c r="M47" s="141"/>
+      <c r="N47" s="141"/>
+      <c r="O47" s="141"/>
+      <c r="P47" s="141"/>
+      <c r="Q47" s="141"/>
+      <c r="R47" s="142"/>
     </row>
     <row r="48" spans="1:20" ht="18" customHeight="1">
-      <c r="B48" s="181"/>
-      <c r="C48" s="146"/>
-      <c r="D48" s="146"/>
-      <c r="E48" s="146"/>
-      <c r="F48" s="146"/>
-      <c r="G48" s="146"/>
-      <c r="H48" s="147"/>
-      <c r="I48" s="181"/>
-      <c r="J48" s="146"/>
-      <c r="K48" s="146"/>
-      <c r="L48" s="146"/>
-      <c r="M48" s="146"/>
-      <c r="N48" s="146"/>
-      <c r="O48" s="146"/>
-      <c r="P48" s="146"/>
-      <c r="Q48" s="146"/>
-      <c r="R48" s="147"/>
+      <c r="B48" s="178"/>
+      <c r="C48" s="141"/>
+      <c r="D48" s="141"/>
+      <c r="E48" s="141"/>
+      <c r="F48" s="141"/>
+      <c r="G48" s="141"/>
+      <c r="H48" s="142"/>
+      <c r="I48" s="178"/>
+      <c r="J48" s="141"/>
+      <c r="K48" s="141"/>
+      <c r="L48" s="141"/>
+      <c r="M48" s="141"/>
+      <c r="N48" s="141"/>
+      <c r="O48" s="141"/>
+      <c r="P48" s="141"/>
+      <c r="Q48" s="141"/>
+      <c r="R48" s="142"/>
     </row>
     <row r="49" spans="1:18" ht="18" customHeight="1"/>
     <row r="50" spans="1:18" ht="18" customHeight="1">
@@ -6901,185 +6901,185 @@
     </row>
     <row r="51" spans="1:18" ht="18" customHeight="1"/>
     <row r="52" spans="1:18" ht="18.75" customHeight="1">
-      <c r="B52" s="201"/>
-      <c r="C52" s="201"/>
-      <c r="D52" s="198" t="s">
+      <c r="B52" s="185"/>
+      <c r="C52" s="185"/>
+      <c r="D52" s="174" t="s">
         <v>115</v>
       </c>
-      <c r="E52" s="198"/>
-      <c r="F52" s="198" t="s">
+      <c r="E52" s="174"/>
+      <c r="F52" s="174" t="s">
         <v>116</v>
       </c>
-      <c r="G52" s="198"/>
-      <c r="H52" s="198" t="s">
+      <c r="G52" s="174"/>
+      <c r="H52" s="174" t="s">
         <v>117</v>
       </c>
-      <c r="I52" s="198"/>
-      <c r="J52" s="198" t="s">
+      <c r="I52" s="174"/>
+      <c r="J52" s="174" t="s">
         <v>118</v>
       </c>
-      <c r="K52" s="198"/>
-      <c r="L52" s="198" t="str">
+      <c r="K52" s="174"/>
+      <c r="L52" s="174" t="str">
         <f>お見積書!M20</f>
         <v>金額(${qu.currencyposition})</v>
       </c>
-      <c r="M52" s="198"/>
-      <c r="N52" s="203" t="str">
+      <c r="M52" s="174"/>
+      <c r="N52" s="179" t="str">
         <f>"金額総計"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>金額総計(${qu.currencyposition})</v>
       </c>
-      <c r="O52" s="204"/>
-      <c r="P52" s="204"/>
-      <c r="Q52" s="204"/>
-      <c r="R52" s="205"/>
+      <c r="O52" s="180"/>
+      <c r="P52" s="180"/>
+      <c r="Q52" s="180"/>
+      <c r="R52" s="181"/>
     </row>
     <row r="53" spans="1:18" ht="28.5" customHeight="1">
-      <c r="B53" s="198" t="str">
+      <c r="B53" s="174" t="str">
         <f>IF(記入!A29="","",記入!A29)</f>
         <v>第一回</v>
       </c>
-      <c r="C53" s="198"/>
-      <c r="D53" s="199" t="str">
+      <c r="C53" s="174"/>
+      <c r="D53" s="175" t="str">
         <f>IF(記入!B29="","",記入!B29)</f>
         <v>${num[0].deliverydate}</v>
       </c>
-      <c r="E53" s="200"/>
-      <c r="F53" s="199" t="str">
+      <c r="E53" s="176"/>
+      <c r="F53" s="175" t="str">
         <f>IF(記入!C29="","",記入!C29)</f>
         <v>${num[0].completiondate}</v>
       </c>
-      <c r="G53" s="200"/>
-      <c r="H53" s="199" t="str">
+      <c r="G53" s="176"/>
+      <c r="H53" s="175" t="str">
         <f>IF(記入!D29="","",記入!D29)</f>
         <v>${num[0].claimdate}</v>
       </c>
-      <c r="I53" s="200"/>
-      <c r="J53" s="199" t="str">
+      <c r="I53" s="176"/>
+      <c r="J53" s="175" t="str">
         <f>IF(記入!E29="","",記入!E29)</f>
         <v>${num[0].supportdate}</v>
       </c>
-      <c r="K53" s="200"/>
-      <c r="L53" s="196" t="str">
+      <c r="K53" s="176"/>
+      <c r="L53" s="172" t="str">
         <f>IF(記入!F29="","",記入!F29)</f>
         <v>${num[0].claimamount}</v>
       </c>
-      <c r="M53" s="197"/>
-      <c r="N53" s="193" t="e">
+      <c r="M53" s="173"/>
+      <c r="N53" s="182" t="e">
         <f>SUM(L53:M56)</f>
         <v>#REF!</v>
       </c>
-      <c r="O53" s="194"/>
-      <c r="P53" s="194"/>
-      <c r="Q53" s="194"/>
-      <c r="R53" s="195"/>
+      <c r="O53" s="183"/>
+      <c r="P53" s="183"/>
+      <c r="Q53" s="183"/>
+      <c r="R53" s="184"/>
     </row>
     <row r="54" spans="1:18" ht="28.5" customHeight="1">
-      <c r="B54" s="198" t="e">
+      <c r="B54" s="174" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="C54" s="198"/>
-      <c r="D54" s="199" t="e">
+      <c r="C54" s="174"/>
+      <c r="D54" s="175" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="E54" s="200"/>
-      <c r="F54" s="199" t="e">
+      <c r="E54" s="176"/>
+      <c r="F54" s="175" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G54" s="200"/>
-      <c r="H54" s="199" t="e">
+      <c r="G54" s="176"/>
+      <c r="H54" s="175" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="I54" s="200"/>
-      <c r="J54" s="199" t="e">
+      <c r="I54" s="176"/>
+      <c r="J54" s="175" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="K54" s="200"/>
-      <c r="L54" s="196"/>
-      <c r="M54" s="197"/>
-      <c r="N54" s="193"/>
-      <c r="O54" s="194"/>
-      <c r="P54" s="194"/>
-      <c r="Q54" s="194"/>
-      <c r="R54" s="195"/>
+      <c r="K54" s="176"/>
+      <c r="L54" s="172"/>
+      <c r="M54" s="173"/>
+      <c r="N54" s="182"/>
+      <c r="O54" s="183"/>
+      <c r="P54" s="183"/>
+      <c r="Q54" s="183"/>
+      <c r="R54" s="184"/>
     </row>
     <row r="55" spans="1:18" ht="28.5" customHeight="1">
-      <c r="B55" s="198" t="e">
+      <c r="B55" s="174" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="C55" s="198"/>
-      <c r="D55" s="199" t="e">
+      <c r="C55" s="174"/>
+      <c r="D55" s="175" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="E55" s="200"/>
-      <c r="F55" s="199" t="e">
+      <c r="E55" s="176"/>
+      <c r="F55" s="175" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G55" s="200"/>
-      <c r="H55" s="199" t="e">
+      <c r="G55" s="176"/>
+      <c r="H55" s="175" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="I55" s="200"/>
-      <c r="J55" s="199" t="e">
+      <c r="I55" s="176"/>
+      <c r="J55" s="175" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="K55" s="200"/>
-      <c r="L55" s="196" t="e">
+      <c r="K55" s="176"/>
+      <c r="L55" s="172" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="M55" s="197"/>
-      <c r="N55" s="193"/>
-      <c r="O55" s="194"/>
-      <c r="P55" s="194"/>
-      <c r="Q55" s="194"/>
-      <c r="R55" s="195"/>
+      <c r="M55" s="173"/>
+      <c r="N55" s="182"/>
+      <c r="O55" s="183"/>
+      <c r="P55" s="183"/>
+      <c r="Q55" s="183"/>
+      <c r="R55" s="184"/>
     </row>
     <row r="56" spans="1:18" ht="31.5" customHeight="1">
-      <c r="B56" s="198" t="e">
+      <c r="B56" s="174" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="C56" s="198"/>
-      <c r="D56" s="199" t="e">
+      <c r="C56" s="174"/>
+      <c r="D56" s="175" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="200"/>
-      <c r="F56" s="199" t="e">
+      <c r="E56" s="176"/>
+      <c r="F56" s="175" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="200"/>
-      <c r="H56" s="199" t="e">
+      <c r="G56" s="176"/>
+      <c r="H56" s="175" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="200"/>
-      <c r="J56" s="199" t="e">
+      <c r="I56" s="176"/>
+      <c r="J56" s="175" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="200"/>
-      <c r="L56" s="196" t="e">
+      <c r="K56" s="176"/>
+      <c r="L56" s="172" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="197"/>
-      <c r="N56" s="193"/>
-      <c r="O56" s="194"/>
-      <c r="P56" s="194"/>
-      <c r="Q56" s="194"/>
-      <c r="R56" s="195"/>
+      <c r="M56" s="173"/>
+      <c r="N56" s="182"/>
+      <c r="O56" s="183"/>
+      <c r="P56" s="183"/>
+      <c r="Q56" s="183"/>
+      <c r="R56" s="184"/>
     </row>
     <row r="57" spans="1:18" ht="18" customHeight="1"/>
     <row r="58" spans="1:18" ht="18" customHeight="1">
@@ -7280,29 +7280,50 @@
     <row r="69" spans="2:18" ht="10.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="B42:R42"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="I46:R46"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="I47:R47"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="I48:R48"/>
-    <mergeCell ref="N52:R52"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:Q38"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:R16"/>
+    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="I6:Q8"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:R10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:R13"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="J27:R27"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:N17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="J28:R28"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="J29:R29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="J30:R30"/>
+    <mergeCell ref="B41:R41"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="J31:R31"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="J32:R32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="J33:R33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="J34:R34"/>
+    <mergeCell ref="B39:R39"/>
+    <mergeCell ref="B40:R40"/>
     <mergeCell ref="N53:R56"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="B56:C56"/>
@@ -7319,50 +7340,29 @@
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="F54:G54"/>
     <mergeCell ref="H54:I54"/>
-    <mergeCell ref="B41:R41"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="J31:R31"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="J32:R32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="J33:R33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="J34:R34"/>
-    <mergeCell ref="B39:R39"/>
-    <mergeCell ref="B40:R40"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="J28:R28"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="J29:R29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="J30:R30"/>
-    <mergeCell ref="L12:R12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:R13"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="J27:R27"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:N17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:Q38"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:R16"/>
-    <mergeCell ref="A3:R3"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="I6:Q8"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:R10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="B42:R42"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="I46:R46"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="I47:R47"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="I48:R48"/>
+    <mergeCell ref="N52:R52"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J54:K54"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -7382,7 +7382,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7930,153 +7930,119 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="209" t="s">
+      <c r="A5" s="213" t="s">
         <v>142</v>
       </c>
       <c r="B5" s="90" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="91">
-        <v>4200</v>
-      </c>
-      <c r="D5" s="92">
-        <v>2</v>
-      </c>
+      <c r="C5" s="91"/>
+      <c r="D5" s="92"/>
       <c r="E5" s="93">
         <f t="shared" ref="E5:E21" si="0">C5*D5</f>
-        <v>8400</v>
+        <v>0</v>
       </c>
       <c r="F5" s="94"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="210"/>
+      <c r="A6" s="214"/>
       <c r="B6" s="90" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="91">
-        <v>4200</v>
-      </c>
-      <c r="D6" s="92">
-        <v>2</v>
-      </c>
+      <c r="C6" s="91"/>
+      <c r="D6" s="92"/>
       <c r="E6" s="93">
         <f t="shared" si="0"/>
-        <v>8400</v>
+        <v>0</v>
       </c>
       <c r="F6" s="94"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="210"/>
+      <c r="A7" s="214"/>
       <c r="B7" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="C7" s="91">
-        <v>4200</v>
-      </c>
-      <c r="D7" s="92">
-        <v>2</v>
-      </c>
+      <c r="C7" s="91"/>
+      <c r="D7" s="92"/>
       <c r="E7" s="93">
         <f t="shared" si="0"/>
-        <v>8400</v>
+        <v>0</v>
       </c>
       <c r="F7" s="94"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="210"/>
+      <c r="A8" s="214"/>
       <c r="B8" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="C8" s="91">
-        <v>4200</v>
-      </c>
-      <c r="D8" s="92">
-        <v>1</v>
-      </c>
+      <c r="C8" s="91"/>
+      <c r="D8" s="92"/>
       <c r="E8" s="93">
         <f t="shared" si="0"/>
-        <v>4200</v>
+        <v>0</v>
       </c>
       <c r="F8" s="94"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="210"/>
+      <c r="A9" s="214"/>
       <c r="B9" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="91">
-        <v>4200</v>
-      </c>
-      <c r="D9" s="92">
-        <v>4</v>
-      </c>
+      <c r="C9" s="91"/>
+      <c r="D9" s="92"/>
       <c r="E9" s="93">
         <f t="shared" si="0"/>
-        <v>16800</v>
+        <v>0</v>
       </c>
       <c r="F9" s="94"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="211"/>
+      <c r="A10" s="215"/>
       <c r="B10" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="91">
-        <v>4200</v>
-      </c>
-      <c r="D10" s="92">
-        <v>2</v>
-      </c>
+      <c r="C10" s="91"/>
+      <c r="D10" s="92"/>
       <c r="E10" s="93">
         <f t="shared" si="0"/>
-        <v>8400</v>
+        <v>0</v>
       </c>
       <c r="F10" s="94"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A11" s="212" t="s">
+      <c r="A11" s="216" t="s">
         <v>150</v>
       </c>
       <c r="B11" s="90" t="s">
         <v>143</v>
       </c>
-      <c r="C11" s="91">
-        <v>4200</v>
-      </c>
-      <c r="D11" s="92">
-        <v>2</v>
-      </c>
+      <c r="C11" s="91"/>
+      <c r="D11" s="92"/>
       <c r="E11" s="93">
         <f t="shared" si="0"/>
-        <v>8400</v>
+        <v>0</v>
       </c>
       <c r="F11" s="94"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="213"/>
+      <c r="A12" s="217"/>
       <c r="B12" s="90" t="s">
         <v>144</v>
       </c>
-      <c r="C12" s="91">
-        <v>4200</v>
-      </c>
-      <c r="D12" s="92">
-        <v>3</v>
-      </c>
+      <c r="C12" s="91"/>
+      <c r="D12" s="92"/>
       <c r="E12" s="93">
         <f t="shared" si="0"/>
-        <v>12600</v>
+        <v>0</v>
       </c>
       <c r="F12" s="94"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="213"/>
+      <c r="A13" s="217"/>
       <c r="B13" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="C13" s="91">
-        <v>4200</v>
-      </c>
+      <c r="C13" s="91"/>
       <c r="D13" s="92"/>
       <c r="E13" s="93">
         <f t="shared" si="0"/>
@@ -8085,13 +8051,11 @@
       <c r="F13" s="94"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="213"/>
+      <c r="A14" s="217"/>
       <c r="B14" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="91">
-        <v>4200</v>
-      </c>
+      <c r="C14" s="91"/>
       <c r="D14" s="92"/>
       <c r="E14" s="93">
         <f t="shared" si="0"/>
@@ -8100,13 +8064,11 @@
       <c r="F14" s="94"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="213"/>
+      <c r="A15" s="217"/>
       <c r="B15" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="91">
-        <v>4200</v>
-      </c>
+      <c r="C15" s="91"/>
       <c r="D15" s="92"/>
       <c r="E15" s="93">
         <f t="shared" si="0"/>
@@ -8115,13 +8077,11 @@
       <c r="F15" s="94"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="213"/>
+      <c r="A16" s="217"/>
       <c r="B16" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="C16" s="91">
-        <v>4200</v>
-      </c>
+      <c r="C16" s="91"/>
       <c r="D16" s="92"/>
       <c r="E16" s="93">
         <f t="shared" si="0"/>
@@ -8130,15 +8090,13 @@
       <c r="F16" s="94"/>
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A17" s="212" t="s">
+      <c r="A17" s="216" t="s">
         <v>151</v>
       </c>
       <c r="B17" s="90" t="s">
         <v>143</v>
       </c>
-      <c r="C17" s="91">
-        <v>4200</v>
-      </c>
+      <c r="C17" s="91"/>
       <c r="D17" s="92"/>
       <c r="E17" s="93">
         <f t="shared" si="0"/>
@@ -8147,13 +8105,11 @@
       <c r="F17" s="94"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="213"/>
+      <c r="A18" s="217"/>
       <c r="B18" s="90" t="s">
         <v>144</v>
       </c>
-      <c r="C18" s="91">
-        <v>4200</v>
-      </c>
+      <c r="C18" s="91"/>
       <c r="D18" s="92"/>
       <c r="E18" s="93">
         <f t="shared" si="0"/>
@@ -8162,86 +8118,70 @@
       <c r="F18" s="94"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="213"/>
+      <c r="A19" s="217"/>
       <c r="B19" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="C19" s="91">
-        <v>4200</v>
-      </c>
-      <c r="D19" s="92">
-        <v>2</v>
-      </c>
+      <c r="C19" s="91"/>
+      <c r="D19" s="92"/>
       <c r="E19" s="93">
         <f t="shared" si="0"/>
-        <v>8400</v>
+        <v>0</v>
       </c>
       <c r="F19" s="94"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="213"/>
+      <c r="A20" s="217"/>
       <c r="B20" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="C20" s="91">
-        <v>4200</v>
-      </c>
-      <c r="D20" s="92">
-        <v>2</v>
-      </c>
+      <c r="C20" s="91"/>
+      <c r="D20" s="92"/>
       <c r="E20" s="93">
         <f t="shared" si="0"/>
-        <v>8400</v>
+        <v>0</v>
       </c>
       <c r="F20" s="94"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="213"/>
+      <c r="A21" s="217"/>
       <c r="B21" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="C21" s="91">
-        <v>4200</v>
-      </c>
-      <c r="D21" s="92">
-        <v>3</v>
-      </c>
+      <c r="C21" s="91"/>
+      <c r="D21" s="92"/>
       <c r="E21" s="93">
         <f t="shared" si="0"/>
-        <v>12600</v>
+        <v>0</v>
       </c>
       <c r="F21" s="94"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="213"/>
+      <c r="A22" s="217"/>
       <c r="B22" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="C22" s="91">
-        <v>4200</v>
-      </c>
-      <c r="D22" s="92">
-        <v>1.3</v>
-      </c>
+      <c r="C22" s="91"/>
+      <c r="D22" s="92"/>
       <c r="E22" s="93">
         <f>C22*D22-460</f>
-        <v>5000</v>
+        <v>-460</v>
       </c>
       <c r="F22" s="94"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="214" t="s">
+      <c r="A23" s="218" t="s">
         <v>152</v>
       </c>
-      <c r="B23" s="215"/>
-      <c r="C23" s="215"/>
+      <c r="B23" s="219"/>
+      <c r="C23" s="219"/>
       <c r="D23" s="92">
         <f>SUM(D5:D22)</f>
-        <v>26.3</v>
+        <v>0</v>
       </c>
       <c r="E23" s="93">
         <f>SUM(E5:E22)</f>
-        <v>110000</v>
+        <v>-460</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -8259,11 +8199,11 @@
       <c r="E25" s="95"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="206" t="s">
+      <c r="A26" s="212" t="s">
         <v>153</v>
       </c>
-      <c r="B26" s="206"/>
-      <c r="C26" s="206"/>
+      <c r="B26" s="212"/>
+      <c r="C26" s="212"/>
       <c r="D26" s="88"/>
       <c r="E26" s="96"/>
     </row>
@@ -8284,20 +8224,20 @@
       <c r="A28" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="B28" s="217"/>
-      <c r="C28" s="218"/>
+      <c r="B28" s="209"/>
+      <c r="C28" s="210"/>
       <c r="D28" s="101"/>
       <c r="E28" s="93"/>
       <c r="F28" s="102"/>
       <c r="G28" s="102"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="216" t="s">
+      <c r="A29" s="206" t="s">
         <v>152</v>
       </c>
-      <c r="B29" s="216"/>
-      <c r="C29" s="216"/>
-      <c r="D29" s="216"/>
+      <c r="B29" s="206"/>
+      <c r="C29" s="206"/>
+      <c r="D29" s="206"/>
       <c r="E29" s="103">
         <f>SUM(E28:E28)</f>
         <v>0</v>
@@ -8318,54 +8258,60 @@
       <c r="E31" s="88"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="219" t="s">
+      <c r="A32" s="211" t="s">
         <v>158</v>
       </c>
-      <c r="B32" s="219"/>
-      <c r="C32" s="219"/>
-      <c r="D32" s="219"/>
+      <c r="B32" s="211"/>
+      <c r="C32" s="211"/>
+      <c r="D32" s="211"/>
       <c r="E32" s="99" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A33" s="216" t="s">
+      <c r="A33" s="206" t="s">
         <v>160</v>
       </c>
-      <c r="B33" s="216"/>
-      <c r="C33" s="216"/>
-      <c r="D33" s="216"/>
+      <c r="B33" s="206"/>
+      <c r="C33" s="206"/>
+      <c r="D33" s="206"/>
       <c r="E33" s="103">
         <f>E23</f>
-        <v>110000</v>
+        <v>-460</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="216" t="s">
+      <c r="A34" s="206" t="s">
         <v>153</v>
       </c>
-      <c r="B34" s="216"/>
-      <c r="C34" s="216"/>
-      <c r="D34" s="216"/>
+      <c r="B34" s="206"/>
+      <c r="C34" s="206"/>
+      <c r="D34" s="206"/>
       <c r="E34" s="103">
         <f>E29</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="216" t="s">
+      <c r="A35" s="206" t="s">
         <v>152</v>
       </c>
-      <c r="B35" s="216"/>
-      <c r="C35" s="216"/>
-      <c r="D35" s="216"/>
+      <c r="B35" s="206"/>
+      <c r="C35" s="206"/>
+      <c r="D35" s="206"/>
       <c r="E35" s="103">
         <f>E33+E34</f>
-        <v>110000</v>
+        <v>-460</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
@@ -8373,12 +8319,6 @@
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A23:C23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/controller/src/main/resources/jxls_templates/jianjishu_shoutuo.xlsx
+++ b/controller/src/main/resources/jxls_templates/jianjishu_shoutuo.xlsx
@@ -1599,121 +1599,121 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>${qu.contractnumber}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${qu.currencyposition}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${qu.claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${qu.loadingjudge}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[0].deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[0].completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[0].claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[0].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[0].claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${qu.requestnumber}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${statime[0]}</t>
+  </si>
+  <si>
+    <t>${statime[1]}</t>
+  </si>
+  <si>
+    <t>${qu.trusteejapanese}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>${qu.pjjapanese}</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${qu.contractnumber}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${qu.currencyposition}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${qu.claimamount}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${qu.loadingjudge}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[0].deliverydate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[0].completiondate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[0].claimdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[0].supportdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[0].claimamount}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[1].deliverydate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[1].completiondate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[1].claimdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[1].supportdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[1].claimamount}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[2].deliverydate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[2].completiondate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[2].claimdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[2].supportdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[2].claimamount}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[3].deliverydate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[3].completiondate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[3].claimdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[3].supportdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[3].claimamount}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${qu.requestnumber}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${qu.pjnamechinese}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${statime[0]}</t>
-  </si>
-  <si>
-    <t>${statime[1]}</t>
-  </si>
-  <si>
-    <t>${qu.trusteejapanese}</t>
+    <t>${qu.pjchinese}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3465,8 +3465,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -3496,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>15</v>
@@ -3595,7 +3595,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>15</v>
@@ -3608,7 +3608,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>15</v>
@@ -3621,7 +3621,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>15</v>
@@ -3645,7 +3645,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>15</v>
@@ -3658,7 +3658,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>15</v>
@@ -3704,7 +3704,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>15</v>
@@ -3717,7 +3717,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>15</v>
@@ -3763,7 +3763,7 @@
         <v>162</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>15</v>
@@ -3827,19 +3827,19 @@
         <v>第一回</v>
       </c>
       <c r="B29" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="D29" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="E29" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="F29" s="32" t="s">
         <v>176</v>
-      </c>
-      <c r="F29" s="32" t="s">
-        <v>177</v>
       </c>
       <c r="G29" s="119"/>
       <c r="H29" s="120"/>
@@ -3850,19 +3850,19 @@
         <v>第二回</v>
       </c>
       <c r="B30" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="D30" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="E30" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="F30" s="32" t="s">
         <v>181</v>
-      </c>
-      <c r="F30" s="32" t="s">
-        <v>182</v>
       </c>
       <c r="G30" s="119"/>
       <c r="H30" s="120"/>
@@ -3873,19 +3873,19 @@
         <v>第三回</v>
       </c>
       <c r="B31" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="D31" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="E31" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="E31" s="27" t="s">
+      <c r="F31" s="32" t="s">
         <v>186</v>
-      </c>
-      <c r="F31" s="32" t="s">
-        <v>187</v>
       </c>
       <c r="G31" s="119"/>
       <c r="H31" s="120"/>
@@ -3896,19 +3896,19 @@
         <v>第四回</v>
       </c>
       <c r="B32" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="C32" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="D32" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="E32" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="F32" s="32" t="s">
         <v>191</v>
-      </c>
-      <c r="F32" s="32" t="s">
-        <v>192</v>
       </c>
       <c r="G32" s="121"/>
       <c r="H32" s="122"/>
@@ -3934,7 +3934,7 @@
     <row r="36" spans="1:9">
       <c r="B36" s="1"/>
       <c r="D36" s="115" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E36" s="115"/>
       <c r="F36" s="115"/>
@@ -4197,7 +4197,7 @@
   <dimension ref="A1:U42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="R2" sqref="R2:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/controller/src/main/resources/jxls_templates/jianjishu_shoutuo.xlsx
+++ b/controller/src/main/resources/jxls_templates/jianjishu_shoutuo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12750" yWindow="45" windowWidth="15900" windowHeight="12420" tabRatio="570"/>
+    <workbookView xWindow="12750" yWindow="45" windowWidth="15900" windowHeight="12420" tabRatio="570" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -100,6 +100,8 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>DONG</author>
+    <author>ADMIN</author>
+    <author>fdsfdsf</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -117,12 +119,281 @@
         </r>
       </text>
     </comment>
+    <comment ref="C5" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:each(items="qlist", var="t", lastCell="D22")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>jx:each(items="qlist", var="t", lastCell="D22")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>jx:each(items="qlist", var="t", lastCell="D22")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>jx:each(items="qlist", var="t", lastCell="D22")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>jx:each(items="qlist", var="t", lastCell="D22")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>jx:each(items="qlist", var="t", lastCell="D22")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>jx:each(items="qlist", var="t", lastCell="D22")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C12" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>jx:each(items="qlist", var="t", lastCell="D22")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>jx:each(items="qlist", var="t", lastCell="D22")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C14" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>jx:each(items="qlist", var="t", lastCell="D22")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C15" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>jx:each(items="qlist", var="t", lastCell="D22")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C16" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>jx:each(items="qlist", var="t", lastCell="D22")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C17" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>jx:each(items="qlist", var="t", lastCell="D22")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C18" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>jx:each(items="qlist", var="t", lastCell="D22")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C19" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>jx:each(items="qlist", var="t", lastCell="D22")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C20" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>jx:each(items="qlist", var="t", lastCell="D22")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C21" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>jx:each(items="qlist", var="t", lastCell="D22")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C22" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>jx:each(items="qlist", var="t", lastCell="D22")</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="234">
   <si>
     <t>委託元（和文）</t>
     <rPh sb="4" eb="6">
@@ -1611,6 +1882,104 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>${num[0].completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[0].claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[0].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[0].claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${qu.requestnumber}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${statime[0]}</t>
+  </si>
+  <si>
+    <t>${statime[1]}</t>
+  </si>
+  <si>
+    <t>${qu.trusteejapanese}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${qu.pjjapanese}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${qu.pjchinese}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>${qu.loadingjudge}</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1619,101 +1988,147 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${num[0].completiondate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[0].claimdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[0].supportdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[0].claimamount}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[1].deliverydate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[1].completiondate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[1].claimdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[1].supportdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[1].claimamount}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[2].deliverydate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[2].completiondate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[2].claimdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[2].supportdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[2].claimamount}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[3].deliverydate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[3].completiondate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[3].claimdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[3].supportdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[3].claimamount}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${qu.requestnumber}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${statime[0]}</t>
-  </si>
-  <si>
-    <t>${statime[1]}</t>
-  </si>
-  <si>
-    <t>${qu.trusteejapanese}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${qu.pjjapanese}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${qu.pjchinese}</t>
+    <t>${t[0].functionsprice1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t[2].functionhour1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t[0].functionhour1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t[1].functionhour1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t[3].functionhour1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t[4].functionhour1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t[5].functionhour1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t[6].functionhour1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t[7].functionhour1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t[8].functionhour1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t[9].functionhour1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t[10].functionhour1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t[11].functionhour1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t[12].functionhour1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t[13].functionhour1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t[14].functionhour1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t[15].functionhour1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t[16].functionhour1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t[17].functionhour1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t[1].functionsprice1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t[2].functionsprice1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t[3].functionsprice1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t[4].functionsprice1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t[5].functionsprice1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t[6].functionsprice1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t[7].functionsprice1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t[8].functionsprice1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t[9].functionsprice1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t[10].functionsprice1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t[11].functionsprice1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t[12].functionsprice1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t[13].functionsprice1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t[14].functionsprice1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t[15].functionsprice1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t[16].functionsprice1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t[17].functionsprice1}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1721,7 +2136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
@@ -1734,8 +2149,9 @@
     <numFmt numFmtId="183" formatCode="0.000_ "/>
     <numFmt numFmtId="184" formatCode="&quot;¥&quot;#,##0"/>
     <numFmt numFmtId="185" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="186" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1915,6 +2331,21 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2399,7 +2830,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2683,6 +3114,9 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="186" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3465,8 +3899,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -3482,28 +3916,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="112" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="G1" s="117" t="s">
+      <c r="B1" s="112"/>
+      <c r="G1" s="118" t="s">
         <v>134</v>
       </c>
-      <c r="H1" s="118"/>
+      <c r="H1" s="119"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="10"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="121"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="34" t="s">
@@ -3513,8 +3947,8 @@
       <c r="C3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="119"/>
-      <c r="H3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="121"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="33" t="s">
@@ -3526,8 +3960,8 @@
       <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="119"/>
-      <c r="H4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="121"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="33" t="s">
@@ -3537,8 +3971,8 @@
       <c r="C5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="119"/>
-      <c r="H5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="121"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="35" t="s">
@@ -3550,8 +3984,8 @@
       <c r="C6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="119"/>
-      <c r="H6" s="120"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="121"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="35" t="s">
@@ -3563,8 +3997,8 @@
       <c r="C7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="119"/>
-      <c r="H7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="121"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="33" t="s">
@@ -3574,8 +4008,8 @@
       <c r="C8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="119"/>
-      <c r="H8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="121"/>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A9" s="34" t="s">
@@ -3587,34 +4021,34 @@
       <c r="C9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="119"/>
-      <c r="H9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="121"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="33" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="119"/>
-      <c r="H10" s="120"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="121"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="33" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="119"/>
-      <c r="H11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="121"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="33" t="s">
@@ -3626,8 +4060,8 @@
       <c r="C12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="119"/>
-      <c r="H12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="121"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="33" t="s">
@@ -3637,34 +4071,34 @@
       <c r="C13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="119"/>
-      <c r="H13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="33" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="119"/>
-      <c r="H14" s="120"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="119"/>
-      <c r="H15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="33" t="s">
@@ -3674,8 +4108,8 @@
       <c r="C16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="119"/>
-      <c r="H16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="33" t="s">
@@ -3685,8 +4119,8 @@
       <c r="C17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="119"/>
-      <c r="H17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="121"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="33" t="s">
@@ -3696,8 +4130,8 @@
       <c r="C18" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="119"/>
-      <c r="H18" s="120"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="121"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="33" t="s">
@@ -3709,8 +4143,8 @@
       <c r="C19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="119"/>
-      <c r="H19" s="120"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="121"/>
     </row>
     <row r="20" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A20" s="33" t="s">
@@ -3722,8 +4156,8 @@
       <c r="C20" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="119"/>
-      <c r="H20" s="120"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="121"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="33" t="s">
@@ -3733,8 +4167,8 @@
       <c r="C21" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="119"/>
-      <c r="H21" s="120"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="121"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="33" t="s">
@@ -3744,8 +4178,8 @@
       <c r="C22" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="119"/>
-      <c r="H22" s="120"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="121"/>
     </row>
     <row r="23" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A23" s="34" t="s">
@@ -3755,21 +4189,21 @@
       <c r="C23" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="119"/>
-      <c r="H23" s="120"/>
+      <c r="G23" s="120"/>
+      <c r="H23" s="121"/>
     </row>
     <row r="24" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A24" s="34" t="s">
         <v>162</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="119"/>
-      <c r="H24" s="120"/>
+      <c r="G24" s="120"/>
+      <c r="H24" s="121"/>
     </row>
     <row r="25" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A25" s="34" t="s">
@@ -3779,8 +4213,8 @@
       <c r="C25" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="119"/>
-      <c r="H25" s="120"/>
+      <c r="G25" s="120"/>
+      <c r="H25" s="121"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="34" t="s">
@@ -3790,14 +4224,14 @@
       <c r="C26" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="119"/>
-      <c r="H26" s="120"/>
+      <c r="G26" s="120"/>
+      <c r="H26" s="121"/>
     </row>
     <row r="27" spans="1:8" ht="1.5" hidden="1" customHeight="1">
       <c r="A27" s="36"/>
       <c r="B27" s="1"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="120"/>
+      <c r="G27" s="120"/>
+      <c r="H27" s="121"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="37" t="s">
@@ -3818,8 +4252,8 @@
       <c r="F28" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="G28" s="119"/>
-      <c r="H28" s="120"/>
+      <c r="G28" s="120"/>
+      <c r="H28" s="121"/>
     </row>
     <row r="29" spans="1:8" ht="13.5" customHeight="1">
       <c r="A29" s="104" t="str">
@@ -3827,22 +4261,22 @@
         <v>第一回</v>
       </c>
       <c r="B29" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="E29" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="F29" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="E29" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="F29" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="G29" s="119"/>
-      <c r="H29" s="120"/>
+      <c r="G29" s="120"/>
+      <c r="H29" s="121"/>
     </row>
     <row r="30" spans="1:8" ht="13.5" customHeight="1">
       <c r="A30" s="104" t="str">
@@ -3850,22 +4284,22 @@
         <v>第二回</v>
       </c>
       <c r="B30" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="D30" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="E30" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="F30" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="E30" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="F30" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="G30" s="119"/>
-      <c r="H30" s="120"/>
+      <c r="G30" s="120"/>
+      <c r="H30" s="121"/>
     </row>
     <row r="31" spans="1:8" ht="13.5" customHeight="1">
       <c r="A31" s="104" t="str">
@@ -3873,22 +4307,22 @@
         <v>第三回</v>
       </c>
       <c r="B31" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="D31" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="E31" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="F31" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="E31" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="F31" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="G31" s="119"/>
-      <c r="H31" s="120"/>
+      <c r="G31" s="120"/>
+      <c r="H31" s="121"/>
     </row>
     <row r="32" spans="1:8" ht="13.5" customHeight="1">
       <c r="A32" s="104" t="str">
@@ -3896,22 +4330,22 @@
         <v>第四回</v>
       </c>
       <c r="B32" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="D32" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="E32" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="F32" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="E32" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="F32" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="G32" s="121"/>
-      <c r="H32" s="122"/>
+      <c r="G32" s="122"/>
+      <c r="H32" s="123"/>
     </row>
     <row r="33" spans="1:9" ht="12" customHeight="1">
       <c r="A33" s="2"/>
@@ -3923,23 +4357,23 @@
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="1"/>
-      <c r="D35" s="114" t="s">
+      <c r="D35" s="115" t="s">
         <v>163</v>
       </c>
-      <c r="E35" s="114"/>
-      <c r="F35" s="114"/>
-      <c r="G35" s="114"/>
-      <c r="H35" s="114"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="115"/>
+      <c r="H35" s="115"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="1"/>
-      <c r="D36" s="115" t="s">
-        <v>192</v>
-      </c>
-      <c r="E36" s="115"/>
-      <c r="F36" s="115"/>
-      <c r="G36" s="115"/>
-      <c r="H36" s="115"/>
+      <c r="D36" s="116" t="s">
+        <v>190</v>
+      </c>
+      <c r="E36" s="116"/>
+      <c r="F36" s="116"/>
+      <c r="G36" s="116"/>
+      <c r="H36" s="116"/>
     </row>
     <row r="37" spans="1:9" ht="13.5">
       <c r="A37" s="40" t="s">
@@ -3947,12 +4381,12 @@
       </c>
       <c r="B37" s="41">
         <f ca="1">TODAY()</f>
-        <v>43909</v>
-      </c>
-      <c r="D37" s="113" t="s">
+        <v>43913</v>
+      </c>
+      <c r="D37" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="E37" s="113"/>
+      <c r="E37" s="114"/>
       <c r="F37" s="29" t="s">
         <v>129</v>
       </c>
@@ -3964,10 +4398,10 @@
     </row>
     <row r="38" spans="1:9" ht="13.5">
       <c r="B38" s="1"/>
-      <c r="D38" s="114" t="s">
+      <c r="D38" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="E38" s="114"/>
+      <c r="E38" s="115"/>
       <c r="F38" s="31" t="s">
         <v>126</v>
       </c>
@@ -3981,14 +4415,14 @@
     <row r="39" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="D39" s="113" t="s">
+      <c r="D39" s="114" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="113"/>
-      <c r="F39" s="116" t="s">
+      <c r="E39" s="114"/>
+      <c r="F39" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="G39" s="116"/>
+      <c r="G39" s="117"/>
       <c r="H39" s="29" t="s">
         <v>125</v>
       </c>
@@ -4006,28 +4440,28 @@
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:9" s="3" customFormat="1" ht="14.25">
-      <c r="A42" s="110" t="s">
+      <c r="A42" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="110" t="s">
+      <c r="B42" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="107" t="s">
+      <c r="C42" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="108"/>
-      <c r="E42" s="108"/>
-      <c r="F42" s="109"/>
-      <c r="G42" s="112" t="s">
+      <c r="D42" s="109"/>
+      <c r="E42" s="109"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="H42" s="110" t="s">
+      <c r="H42" s="111" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="14.25">
-      <c r="A43" s="110"/>
-      <c r="B43" s="110"/>
+      <c r="A43" s="111"/>
+      <c r="B43" s="111"/>
       <c r="C43" s="13" t="s">
         <v>22</v>
       </c>
@@ -4040,8 +4474,8 @@
       <c r="F43" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="110"/>
-      <c r="H43" s="110"/>
+      <c r="G43" s="111"/>
+      <c r="H43" s="111"/>
     </row>
     <row r="44" spans="1:9" ht="14.25">
       <c r="A44" s="12"/>
@@ -4132,10 +4566,10 @@
       <c r="H48" s="23"/>
     </row>
     <row r="49" spans="1:8" ht="15">
-      <c r="A49" s="105" t="s">
+      <c r="A49" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="106"/>
+      <c r="B49" s="107"/>
       <c r="C49" s="20">
         <f>SUM(C44:C48)</f>
         <v>0</v>
@@ -4196,7 +4630,7 @@
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection activeCell="R2" sqref="R2:S2"/>
     </sheetView>
   </sheetViews>
@@ -4718,37 +5152,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="23.1" customHeight="1">
-      <c r="C1" s="164" t="s">
+      <c r="C1" s="165" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
-      <c r="I1" s="164"/>
-      <c r="J1" s="164"/>
-      <c r="K1" s="164"/>
-      <c r="L1" s="164"/>
-      <c r="M1" s="164"/>
-      <c r="N1" s="164"/>
-      <c r="O1" s="164"/>
-      <c r="P1" s="164"/>
-      <c r="Q1" s="164"/>
-      <c r="R1" s="164"/>
-      <c r="S1" s="164"/>
-      <c r="T1" s="164"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="165"/>
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="165"/>
+      <c r="T1" s="165"/>
     </row>
     <row r="2" spans="1:20" ht="23.1" customHeight="1">
-      <c r="P2" s="167" t="s">
+      <c r="P2" s="168" t="s">
         <v>122</v>
       </c>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="167" t="str">
+      <c r="Q2" s="168"/>
+      <c r="R2" s="168" t="str">
         <f>記入!B12</f>
         <v>${qu.contractnumber}</v>
       </c>
-      <c r="S2" s="167"/>
+      <c r="S2" s="168"/>
     </row>
     <row r="3" spans="1:20" ht="23.1" customHeight="1">
       <c r="A3" s="44"/>
@@ -4757,11 +5191,11 @@
         <f>記入!B2</f>
         <v>${qu.trusteejapanese}</v>
       </c>
-      <c r="R3" s="170">
+      <c r="R3" s="171">
         <f ca="1">記入!B37</f>
-        <v>43909</v>
-      </c>
-      <c r="S3" s="170"/>
+        <v>43913</v>
+      </c>
+      <c r="S3" s="171"/>
     </row>
     <row r="4" spans="1:20" ht="23.1" customHeight="1">
       <c r="A4" s="44"/>
@@ -4784,28 +5218,28 @@
         <f>"(件名番号："&amp;記入!D36&amp;")"</f>
         <v>(件名番号：${qu.requestnumber})</v>
       </c>
-      <c r="K6" s="165" t="s">
+      <c r="K6" s="166" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="165"/>
-      <c r="M6" s="165"/>
-      <c r="N6" s="165"/>
-      <c r="O6" s="165"/>
-      <c r="P6" s="165"/>
-      <c r="Q6" s="165"/>
-      <c r="R6" s="165"/>
-      <c r="S6" s="165"/>
+      <c r="L6" s="166"/>
+      <c r="M6" s="166"/>
+      <c r="N6" s="166"/>
+      <c r="O6" s="166"/>
+      <c r="P6" s="166"/>
+      <c r="Q6" s="166"/>
+      <c r="R6" s="166"/>
+      <c r="S6" s="166"/>
     </row>
     <row r="7" spans="1:20" ht="23.1" customHeight="1">
-      <c r="K7" s="165"/>
-      <c r="L7" s="165"/>
-      <c r="M7" s="165"/>
-      <c r="N7" s="165"/>
-      <c r="O7" s="165"/>
-      <c r="P7" s="165"/>
-      <c r="Q7" s="165"/>
-      <c r="R7" s="165"/>
-      <c r="S7" s="165"/>
+      <c r="K7" s="166"/>
+      <c r="L7" s="166"/>
+      <c r="M7" s="166"/>
+      <c r="N7" s="166"/>
+      <c r="O7" s="166"/>
+      <c r="P7" s="166"/>
+      <c r="Q7" s="166"/>
+      <c r="R7" s="166"/>
+      <c r="S7" s="166"/>
     </row>
     <row r="8" spans="1:20" ht="23.1" customHeight="1">
       <c r="A8" s="49"/>
@@ -4813,32 +5247,32 @@
       <c r="C8" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="165"/>
-      <c r="L8" s="165"/>
-      <c r="M8" s="165"/>
-      <c r="N8" s="165"/>
-      <c r="O8" s="165"/>
-      <c r="P8" s="165"/>
-      <c r="Q8" s="165"/>
-      <c r="R8" s="165"/>
-      <c r="S8" s="165"/>
+      <c r="K8" s="166"/>
+      <c r="L8" s="166"/>
+      <c r="M8" s="166"/>
+      <c r="N8" s="166"/>
+      <c r="O8" s="166"/>
+      <c r="P8" s="166"/>
+      <c r="Q8" s="166"/>
+      <c r="R8" s="166"/>
+      <c r="S8" s="166"/>
     </row>
     <row r="9" spans="1:20" ht="23.1" customHeight="1">
-      <c r="C9" s="166" t="str">
+      <c r="C9" s="167" t="str">
         <f>記入!B10</f>
         <v>${qu.pjjapanese}</v>
       </c>
-      <c r="D9" s="166"/>
-      <c r="E9" s="166"/>
-      <c r="F9" s="166"/>
-      <c r="G9" s="166"/>
-      <c r="H9" s="166"/>
-      <c r="I9" s="166"/>
-      <c r="J9" s="166"/>
-      <c r="K9" s="166"/>
-      <c r="L9" s="166"/>
-      <c r="M9" s="166"/>
-      <c r="N9" s="166"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="167"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="167"/>
+      <c r="I9" s="167"/>
+      <c r="J9" s="167"/>
+      <c r="K9" s="167"/>
+      <c r="L9" s="167"/>
+      <c r="M9" s="167"/>
+      <c r="N9" s="167"/>
     </row>
     <row r="10" spans="1:20" ht="23.1" customHeight="1">
       <c r="C10" s="50"/>
@@ -4858,18 +5292,18 @@
       <c r="C11" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="162" t="str">
+      <c r="E11" s="163" t="str">
         <f>記入!B19</f>
         <v>${qu.currencyposition}</v>
       </c>
-      <c r="F11" s="162"/>
-      <c r="G11" s="171">
+      <c r="F11" s="163"/>
+      <c r="G11" s="172">
         <f>M26</f>
         <v>0</v>
       </c>
-      <c r="H11" s="171"/>
-      <c r="I11" s="171"/>
-      <c r="J11" s="171"/>
+      <c r="H11" s="172"/>
+      <c r="I11" s="172"/>
+      <c r="J11" s="172"/>
       <c r="R11" s="52" t="s">
         <v>53</v>
       </c>
@@ -4914,12 +5348,12 @@
       <c r="C14" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="168" t="str">
+      <c r="F14" s="169" t="str">
         <f>記入!F39</f>
         <v>□あり(12ヵ月）</v>
       </c>
-      <c r="G14" s="168"/>
-      <c r="H14" s="168"/>
+      <c r="G14" s="169"/>
+      <c r="H14" s="169"/>
       <c r="I14" s="53"/>
       <c r="J14" s="43" t="str">
         <f>記入!H39</f>
@@ -4930,23 +5364,23 @@
       <c r="C15" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="169" t="str">
+      <c r="F15" s="170" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="G15" s="169"/>
-      <c r="H15" s="169"/>
+      <c r="G15" s="170"/>
+      <c r="H15" s="170"/>
     </row>
     <row r="16" spans="1:20" ht="23.1" customHeight="1">
       <c r="C16" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="169" t="str">
+      <c r="F16" s="170" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="G16" s="169"/>
-      <c r="H16" s="169"/>
+      <c r="G16" s="170"/>
+      <c r="H16" s="170"/>
     </row>
     <row r="17" spans="1:21" ht="23.1" customHeight="1">
       <c r="C17" s="43" t="s">
@@ -4973,287 +5407,287 @@
       <c r="R18" s="26"/>
     </row>
     <row r="19" spans="1:21" ht="23.1" customHeight="1" thickBot="1">
-      <c r="C19" s="163" t="s">
+      <c r="C19" s="164" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="163"/>
-      <c r="E19" s="163"/>
-      <c r="F19" s="163" t="s">
+      <c r="D19" s="164"/>
+      <c r="E19" s="164"/>
+      <c r="F19" s="164" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="163"/>
-      <c r="H19" s="163"/>
-      <c r="I19" s="163"/>
+      <c r="G19" s="164"/>
+      <c r="H19" s="164"/>
+      <c r="I19" s="164"/>
     </row>
     <row r="20" spans="1:21" ht="23.1" customHeight="1" thickBot="1">
       <c r="B20" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="150" t="s">
+      <c r="C20" s="151" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="150"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="150"/>
-      <c r="G20" s="150"/>
-      <c r="H20" s="150"/>
-      <c r="I20" s="150"/>
-      <c r="J20" s="150"/>
-      <c r="K20" s="150"/>
-      <c r="L20" s="151"/>
-      <c r="M20" s="152" t="str">
+      <c r="D20" s="151"/>
+      <c r="E20" s="151"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="151"/>
+      <c r="K20" s="151"/>
+      <c r="L20" s="152"/>
+      <c r="M20" s="153" t="str">
         <f>"金額"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>金額(${qu.currencyposition})</v>
       </c>
-      <c r="N20" s="152"/>
-      <c r="O20" s="152"/>
-      <c r="P20" s="152" t="s">
+      <c r="N20" s="153"/>
+      <c r="O20" s="153"/>
+      <c r="P20" s="153" t="s">
         <v>68</v>
       </c>
-      <c r="Q20" s="152"/>
-      <c r="R20" s="152"/>
-      <c r="S20" s="153"/>
+      <c r="Q20" s="153"/>
+      <c r="R20" s="153"/>
+      <c r="S20" s="154"/>
     </row>
     <row r="21" spans="1:21" ht="33" customHeight="1">
       <c r="B21" s="56">
         <v>1</v>
       </c>
-      <c r="C21" s="154" t="str">
+      <c r="C21" s="155" t="str">
         <f>記入!B10</f>
         <v>${qu.pjjapanese}</v>
       </c>
-      <c r="D21" s="155"/>
-      <c r="E21" s="155"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="155"/>
-      <c r="H21" s="155"/>
-      <c r="I21" s="155"/>
-      <c r="J21" s="155"/>
-      <c r="K21" s="155"/>
-      <c r="L21" s="156"/>
-      <c r="M21" s="157" t="str">
+      <c r="D21" s="156"/>
+      <c r="E21" s="156"/>
+      <c r="F21" s="156"/>
+      <c r="G21" s="156"/>
+      <c r="H21" s="156"/>
+      <c r="I21" s="156"/>
+      <c r="J21" s="156"/>
+      <c r="K21" s="156"/>
+      <c r="L21" s="157"/>
+      <c r="M21" s="158" t="str">
         <f>記入!B20</f>
         <v>${qu.claimamount}</v>
       </c>
-      <c r="N21" s="158"/>
-      <c r="O21" s="159"/>
-      <c r="P21" s="160"/>
-      <c r="Q21" s="160"/>
-      <c r="R21" s="160"/>
-      <c r="S21" s="161"/>
+      <c r="N21" s="159"/>
+      <c r="O21" s="160"/>
+      <c r="P21" s="161"/>
+      <c r="Q21" s="161"/>
+      <c r="R21" s="161"/>
+      <c r="S21" s="162"/>
       <c r="U21" s="57"/>
     </row>
     <row r="22" spans="1:21" ht="23.1" customHeight="1">
       <c r="B22" s="58">
         <v>2</v>
       </c>
-      <c r="C22" s="140" t="s">
+      <c r="C22" s="141" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="140"/>
-      <c r="E22" s="140"/>
-      <c r="F22" s="140"/>
-      <c r="G22" s="140"/>
-      <c r="H22" s="141"/>
-      <c r="I22" s="141"/>
-      <c r="J22" s="141"/>
-      <c r="K22" s="141"/>
-      <c r="L22" s="142"/>
-      <c r="M22" s="143" t="s">
+      <c r="D22" s="141"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="141"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="142"/>
+      <c r="J22" s="142"/>
+      <c r="K22" s="142"/>
+      <c r="L22" s="143"/>
+      <c r="M22" s="144" t="s">
         <v>69</v>
       </c>
-      <c r="N22" s="143"/>
-      <c r="O22" s="143"/>
-      <c r="P22" s="144"/>
-      <c r="Q22" s="144"/>
-      <c r="R22" s="144"/>
-      <c r="S22" s="145"/>
+      <c r="N22" s="144"/>
+      <c r="O22" s="144"/>
+      <c r="P22" s="145"/>
+      <c r="Q22" s="145"/>
+      <c r="R22" s="145"/>
+      <c r="S22" s="146"/>
       <c r="U22" s="59"/>
     </row>
     <row r="23" spans="1:21" ht="23.1" customHeight="1">
       <c r="B23" s="58">
         <v>3</v>
       </c>
-      <c r="C23" s="140" t="s">
+      <c r="C23" s="141" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="140"/>
-      <c r="E23" s="140"/>
-      <c r="F23" s="140"/>
-      <c r="G23" s="140"/>
-      <c r="H23" s="141"/>
-      <c r="I23" s="141"/>
-      <c r="J23" s="141"/>
-      <c r="K23" s="141"/>
-      <c r="L23" s="142"/>
-      <c r="M23" s="143">
+      <c r="D23" s="141"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="142"/>
+      <c r="J23" s="142"/>
+      <c r="K23" s="142"/>
+      <c r="L23" s="143"/>
+      <c r="M23" s="144">
         <v>0</v>
       </c>
-      <c r="N23" s="143"/>
-      <c r="O23" s="143"/>
-      <c r="P23" s="144"/>
-      <c r="Q23" s="144"/>
-      <c r="R23" s="144"/>
-      <c r="S23" s="145"/>
+      <c r="N23" s="144"/>
+      <c r="O23" s="144"/>
+      <c r="P23" s="145"/>
+      <c r="Q23" s="145"/>
+      <c r="R23" s="145"/>
+      <c r="S23" s="146"/>
     </row>
     <row r="24" spans="1:21" ht="23.1" customHeight="1">
       <c r="B24" s="58">
         <v>4</v>
       </c>
-      <c r="C24" s="140"/>
-      <c r="D24" s="140"/>
-      <c r="E24" s="140"/>
-      <c r="F24" s="140"/>
-      <c r="G24" s="140"/>
-      <c r="H24" s="141"/>
-      <c r="I24" s="141"/>
-      <c r="J24" s="141"/>
-      <c r="K24" s="141"/>
-      <c r="L24" s="142"/>
-      <c r="M24" s="143">
+      <c r="C24" s="141"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="142"/>
+      <c r="I24" s="142"/>
+      <c r="J24" s="142"/>
+      <c r="K24" s="142"/>
+      <c r="L24" s="143"/>
+      <c r="M24" s="144">
         <v>0</v>
       </c>
-      <c r="N24" s="143"/>
-      <c r="O24" s="143"/>
-      <c r="P24" s="144"/>
-      <c r="Q24" s="144"/>
-      <c r="R24" s="144"/>
-      <c r="S24" s="145"/>
+      <c r="N24" s="144"/>
+      <c r="O24" s="144"/>
+      <c r="P24" s="145"/>
+      <c r="Q24" s="145"/>
+      <c r="R24" s="145"/>
+      <c r="S24" s="146"/>
     </row>
     <row r="25" spans="1:21" ht="23.1" customHeight="1">
       <c r="B25" s="60">
         <v>5</v>
       </c>
-      <c r="C25" s="146"/>
-      <c r="D25" s="146"/>
-      <c r="E25" s="146"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="147"/>
-      <c r="I25" s="147"/>
-      <c r="J25" s="147"/>
-      <c r="K25" s="147"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="149">
+      <c r="C25" s="147"/>
+      <c r="D25" s="147"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="150">
         <v>0</v>
       </c>
-      <c r="N25" s="149"/>
-      <c r="O25" s="149"/>
-      <c r="P25" s="144"/>
-      <c r="Q25" s="144"/>
-      <c r="R25" s="144"/>
-      <c r="S25" s="145"/>
+      <c r="N25" s="150"/>
+      <c r="O25" s="150"/>
+      <c r="P25" s="145"/>
+      <c r="Q25" s="145"/>
+      <c r="R25" s="145"/>
+      <c r="S25" s="146"/>
     </row>
     <row r="26" spans="1:21" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B26" s="126" t="s">
+      <c r="B26" s="127" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="127"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="127"/>
-      <c r="H26" s="127"/>
-      <c r="I26" s="127"/>
-      <c r="J26" s="127"/>
-      <c r="K26" s="127"/>
-      <c r="L26" s="128"/>
-      <c r="M26" s="129">
+      <c r="C26" s="128"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="128"/>
+      <c r="J26" s="128"/>
+      <c r="K26" s="128"/>
+      <c r="L26" s="129"/>
+      <c r="M26" s="130">
         <f>SUM(M21:O25)</f>
         <v>0</v>
       </c>
-      <c r="N26" s="130"/>
-      <c r="O26" s="131"/>
-      <c r="P26" s="132"/>
-      <c r="Q26" s="132"/>
-      <c r="R26" s="132"/>
-      <c r="S26" s="133"/>
+      <c r="N26" s="131"/>
+      <c r="O26" s="132"/>
+      <c r="P26" s="133"/>
+      <c r="Q26" s="133"/>
+      <c r="R26" s="133"/>
+      <c r="S26" s="134"/>
     </row>
     <row r="27" spans="1:21" ht="23.1" customHeight="1">
-      <c r="C27" s="134" t="s">
+      <c r="C27" s="135" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="135"/>
-      <c r="E27" s="135"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="135"/>
-      <c r="H27" s="135"/>
-      <c r="I27" s="135"/>
-      <c r="J27" s="135"/>
-      <c r="K27" s="135"/>
-      <c r="L27" s="135"/>
-      <c r="M27" s="135"/>
-      <c r="N27" s="135"/>
-      <c r="O27" s="135"/>
-      <c r="P27" s="135"/>
-      <c r="Q27" s="135"/>
-      <c r="R27" s="135"/>
-      <c r="S27" s="136"/>
+      <c r="D27" s="136"/>
+      <c r="E27" s="136"/>
+      <c r="F27" s="136"/>
+      <c r="G27" s="136"/>
+      <c r="H27" s="136"/>
+      <c r="I27" s="136"/>
+      <c r="J27" s="136"/>
+      <c r="K27" s="136"/>
+      <c r="L27" s="136"/>
+      <c r="M27" s="136"/>
+      <c r="N27" s="136"/>
+      <c r="O27" s="136"/>
+      <c r="P27" s="136"/>
+      <c r="Q27" s="136"/>
+      <c r="R27" s="136"/>
+      <c r="S27" s="137"/>
     </row>
     <row r="28" spans="1:21" ht="18" customHeight="1">
       <c r="A28" s="61"/>
       <c r="B28" s="61"/>
-      <c r="C28" s="137" t="s">
+      <c r="C28" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="138"/>
-      <c r="E28" s="138"/>
-      <c r="F28" s="138"/>
-      <c r="G28" s="138"/>
-      <c r="H28" s="138"/>
-      <c r="I28" s="138"/>
-      <c r="J28" s="138"/>
-      <c r="K28" s="138"/>
-      <c r="L28" s="138"/>
-      <c r="M28" s="138"/>
-      <c r="N28" s="138"/>
-      <c r="O28" s="138"/>
-      <c r="P28" s="138"/>
-      <c r="Q28" s="138"/>
-      <c r="R28" s="138"/>
-      <c r="S28" s="139"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="139"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="139"/>
+      <c r="I28" s="139"/>
+      <c r="J28" s="139"/>
+      <c r="K28" s="139"/>
+      <c r="L28" s="139"/>
+      <c r="M28" s="139"/>
+      <c r="N28" s="139"/>
+      <c r="O28" s="139"/>
+      <c r="P28" s="139"/>
+      <c r="Q28" s="139"/>
+      <c r="R28" s="139"/>
+      <c r="S28" s="140"/>
     </row>
     <row r="29" spans="1:21" ht="18" customHeight="1">
       <c r="A29" s="61"/>
       <c r="B29" s="61"/>
-      <c r="C29" s="134"/>
-      <c r="D29" s="135"/>
-      <c r="E29" s="135"/>
-      <c r="F29" s="135"/>
-      <c r="G29" s="135"/>
-      <c r="H29" s="135"/>
-      <c r="I29" s="135"/>
-      <c r="J29" s="135"/>
-      <c r="K29" s="135"/>
-      <c r="L29" s="135"/>
-      <c r="M29" s="135"/>
-      <c r="N29" s="135"/>
-      <c r="O29" s="135"/>
-      <c r="P29" s="135"/>
-      <c r="Q29" s="135"/>
-      <c r="R29" s="135"/>
-      <c r="S29" s="136"/>
+      <c r="C29" s="135"/>
+      <c r="D29" s="136"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="136"/>
+      <c r="I29" s="136"/>
+      <c r="J29" s="136"/>
+      <c r="K29" s="136"/>
+      <c r="L29" s="136"/>
+      <c r="M29" s="136"/>
+      <c r="N29" s="136"/>
+      <c r="O29" s="136"/>
+      <c r="P29" s="136"/>
+      <c r="Q29" s="136"/>
+      <c r="R29" s="136"/>
+      <c r="S29" s="137"/>
     </row>
     <row r="30" spans="1:21" ht="18" customHeight="1">
       <c r="A30" s="61"/>
       <c r="B30" s="61"/>
-      <c r="C30" s="123"/>
-      <c r="D30" s="124"/>
-      <c r="E30" s="124"/>
-      <c r="F30" s="124"/>
-      <c r="G30" s="124"/>
-      <c r="H30" s="124"/>
-      <c r="I30" s="124"/>
-      <c r="J30" s="124"/>
-      <c r="K30" s="124"/>
-      <c r="L30" s="124"/>
-      <c r="M30" s="124"/>
-      <c r="N30" s="124"/>
-      <c r="O30" s="124"/>
-      <c r="P30" s="124"/>
-      <c r="Q30" s="124"/>
-      <c r="R30" s="124"/>
-      <c r="S30" s="125"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="125"/>
+      <c r="H30" s="125"/>
+      <c r="I30" s="125"/>
+      <c r="J30" s="125"/>
+      <c r="K30" s="125"/>
+      <c r="L30" s="125"/>
+      <c r="M30" s="125"/>
+      <c r="N30" s="125"/>
+      <c r="O30" s="125"/>
+      <c r="P30" s="125"/>
+      <c r="Q30" s="125"/>
+      <c r="R30" s="125"/>
+      <c r="S30" s="126"/>
     </row>
     <row r="31" spans="1:21" ht="21.95" customHeight="1"/>
     <row r="32" spans="1:21" ht="21.95" customHeight="1"/>
@@ -6104,106 +6538,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1">
-      <c r="N1" s="167" t="s">
+      <c r="N1" s="168" t="s">
         <v>122</v>
       </c>
-      <c r="O1" s="167"/>
-      <c r="P1" s="202" t="str">
+      <c r="O1" s="168"/>
+      <c r="P1" s="203" t="str">
         <f>お見積書!R2</f>
         <v>${qu.contractnumber}</v>
       </c>
-      <c r="Q1" s="202"/>
-      <c r="R1" s="202"/>
+      <c r="Q1" s="203"/>
+      <c r="R1" s="203"/>
     </row>
     <row r="2" spans="1:18" ht="18" customHeight="1">
-      <c r="O2" s="200">
+      <c r="O2" s="201">
         <f ca="1">お見積書!R3</f>
-        <v>43909</v>
-      </c>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="201"/>
+        <v>43913</v>
+      </c>
+      <c r="P2" s="202"/>
+      <c r="Q2" s="202"/>
+      <c r="R2" s="202"/>
     </row>
     <row r="3" spans="1:18" ht="18" customHeight="1">
-      <c r="A3" s="204" t="s">
+      <c r="A3" s="205" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="205"/>
-      <c r="C3" s="205"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="205"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="205"/>
-      <c r="I3" s="205"/>
-      <c r="J3" s="205"/>
-      <c r="K3" s="205"/>
-      <c r="L3" s="205"/>
-      <c r="M3" s="205"/>
-      <c r="N3" s="205"/>
-      <c r="O3" s="205"/>
-      <c r="P3" s="205"/>
-      <c r="Q3" s="205"/>
-      <c r="R3" s="205"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="206"/>
+      <c r="K3" s="206"/>
+      <c r="L3" s="206"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="206"/>
+      <c r="O3" s="206"/>
+      <c r="P3" s="206"/>
+      <c r="Q3" s="206"/>
+      <c r="R3" s="206"/>
     </row>
     <row r="4" spans="1:18" ht="18" customHeight="1">
-      <c r="A4" s="202" t="str">
+      <c r="A4" s="203" t="str">
         <f>お見積書!C5</f>
         <v>ご照会の件につき下記の通りお見積り申し上げます。</v>
       </c>
-      <c r="B4" s="202"/>
-      <c r="C4" s="202"/>
-      <c r="D4" s="202"/>
-      <c r="E4" s="202"/>
-      <c r="F4" s="202"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="202"/>
-      <c r="J4" s="202"/>
-      <c r="K4" s="202"/>
-      <c r="L4" s="202"/>
-      <c r="M4" s="202"/>
-      <c r="N4" s="202"/>
-      <c r="O4" s="202"/>
-      <c r="P4" s="202"/>
-      <c r="Q4" s="202"/>
-      <c r="R4" s="202"/>
+      <c r="B4" s="203"/>
+      <c r="C4" s="203"/>
+      <c r="D4" s="203"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="203"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="203"/>
+      <c r="J4" s="203"/>
+      <c r="K4" s="203"/>
+      <c r="L4" s="203"/>
+      <c r="M4" s="203"/>
+      <c r="N4" s="203"/>
+      <c r="O4" s="203"/>
+      <c r="P4" s="203"/>
+      <c r="Q4" s="203"/>
+      <c r="R4" s="203"/>
     </row>
     <row r="5" spans="1:18" ht="18" customHeight="1"/>
     <row r="6" spans="1:18" ht="18" customHeight="1">
-      <c r="I6" s="168" t="s">
+      <c r="I6" s="169" t="s">
         <v>75</v>
       </c>
-      <c r="J6" s="168"/>
-      <c r="K6" s="168"/>
-      <c r="L6" s="168"/>
-      <c r="M6" s="168"/>
-      <c r="N6" s="168"/>
-      <c r="O6" s="168"/>
-      <c r="P6" s="168"/>
-      <c r="Q6" s="168"/>
+      <c r="J6" s="169"/>
+      <c r="K6" s="169"/>
+      <c r="L6" s="169"/>
+      <c r="M6" s="169"/>
+      <c r="N6" s="169"/>
+      <c r="O6" s="169"/>
+      <c r="P6" s="169"/>
+      <c r="Q6" s="169"/>
     </row>
     <row r="7" spans="1:18" ht="18" customHeight="1">
-      <c r="I7" s="168"/>
-      <c r="J7" s="168"/>
-      <c r="K7" s="168"/>
-      <c r="L7" s="168"/>
-      <c r="M7" s="168"/>
-      <c r="N7" s="168"/>
-      <c r="O7" s="168"/>
-      <c r="P7" s="168"/>
-      <c r="Q7" s="168"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="169"/>
+      <c r="K7" s="169"/>
+      <c r="L7" s="169"/>
+      <c r="M7" s="169"/>
+      <c r="N7" s="169"/>
+      <c r="O7" s="169"/>
+      <c r="P7" s="169"/>
+      <c r="Q7" s="169"/>
     </row>
     <row r="8" spans="1:18" ht="18" customHeight="1">
-      <c r="I8" s="168"/>
-      <c r="J8" s="168"/>
-      <c r="K8" s="168"/>
-      <c r="L8" s="168"/>
-      <c r="M8" s="168"/>
-      <c r="N8" s="168"/>
-      <c r="O8" s="168"/>
-      <c r="P8" s="168"/>
-      <c r="Q8" s="168"/>
+      <c r="I8" s="169"/>
+      <c r="J8" s="169"/>
+      <c r="K8" s="169"/>
+      <c r="L8" s="169"/>
+      <c r="M8" s="169"/>
+      <c r="N8" s="169"/>
+      <c r="O8" s="169"/>
+      <c r="P8" s="169"/>
+      <c r="Q8" s="169"/>
     </row>
     <row r="9" spans="1:18" ht="18" customHeight="1">
       <c r="A9" s="62" t="s">
@@ -6211,36 +6645,36 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="18" customHeight="1">
-      <c r="B10" s="195" t="s">
+      <c r="B10" s="196" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="196"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="197"/>
-      <c r="F10" s="178" t="str">
+      <c r="C10" s="197"/>
+      <c r="D10" s="197"/>
+      <c r="E10" s="198"/>
+      <c r="F10" s="179" t="str">
         <f>お見積書!C9</f>
         <v>${qu.pjjapanese}</v>
       </c>
-      <c r="G10" s="141"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="141"/>
-      <c r="J10" s="141"/>
-      <c r="K10" s="141"/>
-      <c r="L10" s="141"/>
-      <c r="M10" s="141"/>
-      <c r="N10" s="141"/>
-      <c r="O10" s="141"/>
-      <c r="P10" s="141"/>
-      <c r="Q10" s="141"/>
-      <c r="R10" s="142"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="142"/>
+      <c r="J10" s="142"/>
+      <c r="K10" s="142"/>
+      <c r="L10" s="142"/>
+      <c r="M10" s="142"/>
+      <c r="N10" s="142"/>
+      <c r="O10" s="142"/>
+      <c r="P10" s="142"/>
+      <c r="Q10" s="142"/>
+      <c r="R10" s="143"/>
     </row>
     <row r="11" spans="1:18" ht="18" customHeight="1">
-      <c r="B11" s="195" t="s">
+      <c r="B11" s="196" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="196"/>
-      <c r="D11" s="196"/>
-      <c r="E11" s="197"/>
+      <c r="C11" s="197"/>
+      <c r="D11" s="197"/>
+      <c r="E11" s="198"/>
       <c r="F11" s="63" t="str">
         <f>お見積書!F13</f>
         <v>□請負</v>
@@ -6265,57 +6699,57 @@
       <c r="R11" s="64"/>
     </row>
     <row r="12" spans="1:18" ht="18" customHeight="1">
-      <c r="B12" s="195" t="s">
+      <c r="B12" s="196" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="196"/>
-      <c r="D12" s="196"/>
-      <c r="E12" s="197"/>
-      <c r="F12" s="198" t="str">
+      <c r="C12" s="197"/>
+      <c r="D12" s="197"/>
+      <c r="E12" s="198"/>
+      <c r="F12" s="199" t="str">
         <f>お見積書!F15</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="G12" s="193"/>
-      <c r="H12" s="193"/>
-      <c r="I12" s="193"/>
+      <c r="G12" s="194"/>
+      <c r="H12" s="194"/>
+      <c r="I12" s="194"/>
       <c r="J12" s="65"/>
       <c r="K12" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="L12" s="192" t="str">
+      <c r="L12" s="193" t="str">
         <f>お見積書!F16</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="M12" s="193"/>
-      <c r="N12" s="193"/>
-      <c r="O12" s="193"/>
-      <c r="P12" s="193"/>
-      <c r="Q12" s="193"/>
-      <c r="R12" s="194"/>
+      <c r="M12" s="194"/>
+      <c r="N12" s="194"/>
+      <c r="O12" s="194"/>
+      <c r="P12" s="194"/>
+      <c r="Q12" s="194"/>
+      <c r="R12" s="195"/>
     </row>
     <row r="13" spans="1:18" ht="18" customHeight="1">
-      <c r="B13" s="195" t="s">
+      <c r="B13" s="196" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="196"/>
-      <c r="D13" s="196"/>
-      <c r="E13" s="197"/>
-      <c r="F13" s="198" t="str">
+      <c r="C13" s="197"/>
+      <c r="D13" s="197"/>
+      <c r="E13" s="198"/>
+      <c r="F13" s="199" t="str">
         <f>お見積書!F16</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="G13" s="193"/>
-      <c r="H13" s="193"/>
-      <c r="I13" s="193"/>
-      <c r="J13" s="193"/>
-      <c r="K13" s="193"/>
-      <c r="L13" s="193"/>
-      <c r="M13" s="193"/>
-      <c r="N13" s="193"/>
-      <c r="O13" s="193"/>
-      <c r="P13" s="193"/>
-      <c r="Q13" s="193"/>
-      <c r="R13" s="194"/>
+      <c r="G13" s="194"/>
+      <c r="H13" s="194"/>
+      <c r="I13" s="194"/>
+      <c r="J13" s="194"/>
+      <c r="K13" s="194"/>
+      <c r="L13" s="194"/>
+      <c r="M13" s="194"/>
+      <c r="N13" s="194"/>
+      <c r="O13" s="194"/>
+      <c r="P13" s="194"/>
+      <c r="Q13" s="194"/>
+      <c r="R13" s="195"/>
     </row>
     <row r="14" spans="1:18" ht="18" customHeight="1"/>
     <row r="15" spans="1:18" ht="18" customHeight="1">
@@ -6324,116 +6758,116 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="18" customHeight="1">
-      <c r="B16" s="195" t="s">
+      <c r="B16" s="196" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="196"/>
-      <c r="D16" s="196"/>
-      <c r="E16" s="197"/>
-      <c r="F16" s="178" t="str">
+      <c r="C16" s="197"/>
+      <c r="D16" s="197"/>
+      <c r="E16" s="198"/>
+      <c r="F16" s="179" t="str">
         <f>記入!B24</f>
         <v>${qu.loadingjudge}</v>
       </c>
-      <c r="G16" s="141"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="141"/>
-      <c r="J16" s="141"/>
-      <c r="K16" s="141"/>
-      <c r="L16" s="141"/>
-      <c r="M16" s="141"/>
-      <c r="N16" s="141"/>
-      <c r="O16" s="141"/>
-      <c r="P16" s="141"/>
-      <c r="Q16" s="141"/>
-      <c r="R16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
+      <c r="M16" s="142"/>
+      <c r="N16" s="142"/>
+      <c r="O16" s="142"/>
+      <c r="P16" s="142"/>
+      <c r="Q16" s="142"/>
+      <c r="R16" s="143"/>
     </row>
     <row r="17" spans="1:19" ht="18" customHeight="1">
-      <c r="B17" s="195" t="s">
+      <c r="B17" s="196" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="196"/>
-      <c r="D17" s="196"/>
-      <c r="E17" s="197"/>
-      <c r="F17" s="178" t="str">
+      <c r="C17" s="197"/>
+      <c r="D17" s="197"/>
+      <c r="E17" s="198"/>
+      <c r="F17" s="179" t="str">
         <f>記入!B9</f>
         <v>${qu.deployment}</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="141"/>
-      <c r="I17" s="141"/>
-      <c r="J17" s="141"/>
-      <c r="K17" s="141"/>
-      <c r="L17" s="141"/>
-      <c r="M17" s="141"/>
-      <c r="N17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="142"/>
+      <c r="J17" s="142"/>
+      <c r="K17" s="142"/>
+      <c r="L17" s="142"/>
+      <c r="M17" s="142"/>
+      <c r="N17" s="143"/>
       <c r="O17" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="P17" s="141" t="s">
+      <c r="P17" s="142" t="s">
         <v>84</v>
       </c>
-      <c r="Q17" s="141"/>
-      <c r="R17" s="142"/>
+      <c r="Q17" s="142"/>
+      <c r="R17" s="143"/>
     </row>
     <row r="18" spans="1:19" ht="18" customHeight="1"/>
     <row r="19" spans="1:19" ht="18" customHeight="1">
-      <c r="B19" s="199" t="s">
+      <c r="B19" s="200" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="147"/>
-      <c r="D19" s="147"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="147"/>
-      <c r="I19" s="147"/>
-      <c r="J19" s="147"/>
-      <c r="K19" s="147"/>
-      <c r="L19" s="147"/>
-      <c r="M19" s="147"/>
-      <c r="N19" s="147"/>
-      <c r="O19" s="147"/>
-      <c r="P19" s="147"/>
-      <c r="Q19" s="147"/>
-      <c r="R19" s="148"/>
+      <c r="C19" s="148"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="148"/>
+      <c r="F19" s="148"/>
+      <c r="G19" s="148"/>
+      <c r="H19" s="148"/>
+      <c r="I19" s="148"/>
+      <c r="J19" s="148"/>
+      <c r="K19" s="148"/>
+      <c r="L19" s="148"/>
+      <c r="M19" s="148"/>
+      <c r="N19" s="148"/>
+      <c r="O19" s="148"/>
+      <c r="P19" s="148"/>
+      <c r="Q19" s="148"/>
+      <c r="R19" s="149"/>
     </row>
     <row r="20" spans="1:19" ht="18" customHeight="1">
-      <c r="B20" s="134"/>
-      <c r="C20" s="135"/>
-      <c r="D20" s="135"/>
-      <c r="E20" s="135"/>
-      <c r="F20" s="135"/>
-      <c r="G20" s="135"/>
-      <c r="H20" s="135"/>
-      <c r="I20" s="135"/>
-      <c r="J20" s="135"/>
-      <c r="K20" s="135"/>
-      <c r="L20" s="135"/>
-      <c r="M20" s="135"/>
-      <c r="N20" s="135"/>
-      <c r="O20" s="135"/>
-      <c r="P20" s="135"/>
-      <c r="Q20" s="135"/>
-      <c r="R20" s="136"/>
+      <c r="B20" s="135"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="136"/>
+      <c r="I20" s="136"/>
+      <c r="J20" s="136"/>
+      <c r="K20" s="136"/>
+      <c r="L20" s="136"/>
+      <c r="M20" s="136"/>
+      <c r="N20" s="136"/>
+      <c r="O20" s="136"/>
+      <c r="P20" s="136"/>
+      <c r="Q20" s="136"/>
+      <c r="R20" s="137"/>
     </row>
     <row r="21" spans="1:19" ht="18" customHeight="1">
-      <c r="B21" s="123"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="124"/>
-      <c r="H21" s="124"/>
-      <c r="I21" s="124"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="124"/>
-      <c r="L21" s="124"/>
-      <c r="M21" s="124"/>
-      <c r="N21" s="124"/>
-      <c r="O21" s="124"/>
-      <c r="P21" s="124"/>
-      <c r="Q21" s="124"/>
-      <c r="R21" s="125"/>
+      <c r="B21" s="124"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="125"/>
+      <c r="I21" s="125"/>
+      <c r="J21" s="125"/>
+      <c r="K21" s="125"/>
+      <c r="L21" s="125"/>
+      <c r="M21" s="125"/>
+      <c r="N21" s="125"/>
+      <c r="O21" s="125"/>
+      <c r="P21" s="125"/>
+      <c r="Q21" s="125"/>
+      <c r="R21" s="126"/>
     </row>
     <row r="22" spans="1:19" ht="18" customHeight="1"/>
     <row r="23" spans="1:19" ht="18" customHeight="1">
@@ -6458,189 +6892,189 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="18" customHeight="1">
-      <c r="B27" s="178" t="s">
+      <c r="B27" s="179" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="141"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="141"/>
-      <c r="H27" s="141"/>
-      <c r="I27" s="142"/>
-      <c r="J27" s="178" t="s">
+      <c r="C27" s="142"/>
+      <c r="D27" s="142"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="142"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="179" t="s">
         <v>91</v>
       </c>
-      <c r="K27" s="141"/>
-      <c r="L27" s="141"/>
-      <c r="M27" s="141"/>
-      <c r="N27" s="141"/>
-      <c r="O27" s="141"/>
-      <c r="P27" s="141"/>
-      <c r="Q27" s="141"/>
-      <c r="R27" s="142"/>
+      <c r="K27" s="142"/>
+      <c r="L27" s="142"/>
+      <c r="M27" s="142"/>
+      <c r="N27" s="142"/>
+      <c r="O27" s="142"/>
+      <c r="P27" s="142"/>
+      <c r="Q27" s="142"/>
+      <c r="R27" s="143"/>
     </row>
     <row r="28" spans="1:19" ht="18" customHeight="1">
-      <c r="B28" s="178" t="s">
+      <c r="B28" s="179" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="141"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="141"/>
-      <c r="H28" s="141"/>
-      <c r="I28" s="142"/>
-      <c r="J28" s="178" t="s">
+      <c r="C28" s="142"/>
+      <c r="D28" s="142"/>
+      <c r="E28" s="142"/>
+      <c r="F28" s="142"/>
+      <c r="G28" s="142"/>
+      <c r="H28" s="142"/>
+      <c r="I28" s="143"/>
+      <c r="J28" s="179" t="s">
         <v>93</v>
       </c>
-      <c r="K28" s="141"/>
-      <c r="L28" s="141"/>
-      <c r="M28" s="141"/>
-      <c r="N28" s="141"/>
-      <c r="O28" s="141"/>
-      <c r="P28" s="141"/>
-      <c r="Q28" s="141"/>
-      <c r="R28" s="142"/>
+      <c r="K28" s="142"/>
+      <c r="L28" s="142"/>
+      <c r="M28" s="142"/>
+      <c r="N28" s="142"/>
+      <c r="O28" s="142"/>
+      <c r="P28" s="142"/>
+      <c r="Q28" s="142"/>
+      <c r="R28" s="143"/>
       <c r="S28" s="68"/>
     </row>
     <row r="29" spans="1:19" ht="18" customHeight="1">
-      <c r="B29" s="178" t="s">
+      <c r="B29" s="179" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="141"/>
-      <c r="D29" s="141"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="141"/>
-      <c r="G29" s="141"/>
-      <c r="H29" s="141"/>
-      <c r="I29" s="142"/>
-      <c r="J29" s="178" t="s">
+      <c r="C29" s="142"/>
+      <c r="D29" s="142"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="142"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="142"/>
+      <c r="I29" s="143"/>
+      <c r="J29" s="179" t="s">
         <v>95</v>
       </c>
-      <c r="K29" s="141"/>
-      <c r="L29" s="141"/>
-      <c r="M29" s="141"/>
-      <c r="N29" s="141"/>
-      <c r="O29" s="141"/>
-      <c r="P29" s="141"/>
-      <c r="Q29" s="141"/>
-      <c r="R29" s="142"/>
+      <c r="K29" s="142"/>
+      <c r="L29" s="142"/>
+      <c r="M29" s="142"/>
+      <c r="N29" s="142"/>
+      <c r="O29" s="142"/>
+      <c r="P29" s="142"/>
+      <c r="Q29" s="142"/>
+      <c r="R29" s="143"/>
     </row>
     <row r="30" spans="1:19" ht="18" customHeight="1">
-      <c r="B30" s="178" t="s">
+      <c r="B30" s="179" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="141"/>
-      <c r="D30" s="141"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="141"/>
-      <c r="G30" s="141"/>
-      <c r="H30" s="141"/>
-      <c r="I30" s="142"/>
-      <c r="J30" s="178" t="s">
+      <c r="C30" s="142"/>
+      <c r="D30" s="142"/>
+      <c r="E30" s="142"/>
+      <c r="F30" s="142"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="142"/>
+      <c r="I30" s="143"/>
+      <c r="J30" s="179" t="s">
         <v>97</v>
       </c>
-      <c r="K30" s="141"/>
-      <c r="L30" s="141"/>
-      <c r="M30" s="141"/>
-      <c r="N30" s="141"/>
-      <c r="O30" s="141"/>
-      <c r="P30" s="141"/>
-      <c r="Q30" s="141"/>
-      <c r="R30" s="142"/>
+      <c r="K30" s="142"/>
+      <c r="L30" s="142"/>
+      <c r="M30" s="142"/>
+      <c r="N30" s="142"/>
+      <c r="O30" s="142"/>
+      <c r="P30" s="142"/>
+      <c r="Q30" s="142"/>
+      <c r="R30" s="143"/>
     </row>
     <row r="31" spans="1:19" ht="18" customHeight="1">
-      <c r="B31" s="178" t="s">
+      <c r="B31" s="179" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="141"/>
-      <c r="D31" s="141"/>
-      <c r="E31" s="141"/>
-      <c r="F31" s="141"/>
-      <c r="G31" s="141"/>
-      <c r="H31" s="141"/>
-      <c r="I31" s="142"/>
-      <c r="J31" s="178" t="s">
+      <c r="C31" s="142"/>
+      <c r="D31" s="142"/>
+      <c r="E31" s="142"/>
+      <c r="F31" s="142"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="142"/>
+      <c r="I31" s="143"/>
+      <c r="J31" s="179" t="s">
         <v>99</v>
       </c>
-      <c r="K31" s="141"/>
-      <c r="L31" s="141"/>
-      <c r="M31" s="141"/>
-      <c r="N31" s="141"/>
-      <c r="O31" s="141"/>
-      <c r="P31" s="141"/>
-      <c r="Q31" s="141"/>
-      <c r="R31" s="142"/>
+      <c r="K31" s="142"/>
+      <c r="L31" s="142"/>
+      <c r="M31" s="142"/>
+      <c r="N31" s="142"/>
+      <c r="O31" s="142"/>
+      <c r="P31" s="142"/>
+      <c r="Q31" s="142"/>
+      <c r="R31" s="143"/>
     </row>
     <row r="32" spans="1:19" ht="18" customHeight="1">
-      <c r="B32" s="178" t="s">
+      <c r="B32" s="179" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="141"/>
-      <c r="D32" s="141"/>
-      <c r="E32" s="141"/>
-      <c r="F32" s="141"/>
-      <c r="G32" s="141"/>
-      <c r="H32" s="141"/>
-      <c r="I32" s="142"/>
-      <c r="J32" s="178" t="s">
+      <c r="C32" s="142"/>
+      <c r="D32" s="142"/>
+      <c r="E32" s="142"/>
+      <c r="F32" s="142"/>
+      <c r="G32" s="142"/>
+      <c r="H32" s="142"/>
+      <c r="I32" s="143"/>
+      <c r="J32" s="179" t="s">
         <v>101</v>
       </c>
-      <c r="K32" s="141"/>
-      <c r="L32" s="141"/>
-      <c r="M32" s="141"/>
-      <c r="N32" s="141"/>
-      <c r="O32" s="141"/>
-      <c r="P32" s="141"/>
-      <c r="Q32" s="141"/>
-      <c r="R32" s="142"/>
+      <c r="K32" s="142"/>
+      <c r="L32" s="142"/>
+      <c r="M32" s="142"/>
+      <c r="N32" s="142"/>
+      <c r="O32" s="142"/>
+      <c r="P32" s="142"/>
+      <c r="Q32" s="142"/>
+      <c r="R32" s="143"/>
     </row>
     <row r="33" spans="1:20" ht="18" customHeight="1">
-      <c r="B33" s="178" t="s">
+      <c r="B33" s="179" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="141"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="141"/>
-      <c r="H33" s="141"/>
-      <c r="I33" s="142"/>
-      <c r="J33" s="178" t="s">
+      <c r="C33" s="142"/>
+      <c r="D33" s="142"/>
+      <c r="E33" s="142"/>
+      <c r="F33" s="142"/>
+      <c r="G33" s="142"/>
+      <c r="H33" s="142"/>
+      <c r="I33" s="143"/>
+      <c r="J33" s="179" t="s">
         <v>103</v>
       </c>
-      <c r="K33" s="141"/>
-      <c r="L33" s="141"/>
-      <c r="M33" s="141"/>
-      <c r="N33" s="141"/>
-      <c r="O33" s="141"/>
-      <c r="P33" s="141"/>
-      <c r="Q33" s="141"/>
-      <c r="R33" s="142"/>
+      <c r="K33" s="142"/>
+      <c r="L33" s="142"/>
+      <c r="M33" s="142"/>
+      <c r="N33" s="142"/>
+      <c r="O33" s="142"/>
+      <c r="P33" s="142"/>
+      <c r="Q33" s="142"/>
+      <c r="R33" s="143"/>
     </row>
     <row r="34" spans="1:20" ht="18" customHeight="1">
-      <c r="B34" s="178" t="s">
+      <c r="B34" s="179" t="s">
         <v>104</v>
       </c>
-      <c r="C34" s="141"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="141"/>
-      <c r="G34" s="141"/>
-      <c r="H34" s="141"/>
-      <c r="I34" s="142"/>
-      <c r="J34" s="178" t="s">
+      <c r="C34" s="142"/>
+      <c r="D34" s="142"/>
+      <c r="E34" s="142"/>
+      <c r="F34" s="142"/>
+      <c r="G34" s="142"/>
+      <c r="H34" s="142"/>
+      <c r="I34" s="143"/>
+      <c r="J34" s="179" t="s">
         <v>105</v>
       </c>
-      <c r="K34" s="141"/>
-      <c r="L34" s="141"/>
-      <c r="M34" s="141"/>
-      <c r="N34" s="141"/>
-      <c r="O34" s="141"/>
-      <c r="P34" s="141"/>
-      <c r="Q34" s="141"/>
-      <c r="R34" s="142"/>
+      <c r="K34" s="142"/>
+      <c r="L34" s="142"/>
+      <c r="M34" s="142"/>
+      <c r="N34" s="142"/>
+      <c r="O34" s="142"/>
+      <c r="P34" s="142"/>
+      <c r="Q34" s="142"/>
+      <c r="R34" s="143"/>
     </row>
     <row r="35" spans="1:20" ht="18" customHeight="1">
       <c r="B35" s="69"/>
@@ -6704,118 +7138,118 @@
       <c r="R37" s="73"/>
     </row>
     <row r="38" spans="1:20" ht="18" customHeight="1">
-      <c r="B38" s="189" t="s">
+      <c r="B38" s="190" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="190"/>
-      <c r="D38" s="190"/>
-      <c r="E38" s="190"/>
-      <c r="F38" s="190"/>
-      <c r="G38" s="190"/>
-      <c r="H38" s="203" t="str">
+      <c r="C38" s="191"/>
+      <c r="D38" s="191"/>
+      <c r="E38" s="191"/>
+      <c r="F38" s="191"/>
+      <c r="G38" s="191"/>
+      <c r="H38" s="204" t="str">
         <f>記入!D36</f>
         <v>${qu.requestnumber}</v>
       </c>
-      <c r="I38" s="203"/>
-      <c r="J38" s="190"/>
-      <c r="K38" s="190"/>
-      <c r="L38" s="190"/>
-      <c r="M38" s="190"/>
-      <c r="N38" s="190"/>
-      <c r="O38" s="190"/>
-      <c r="P38" s="190"/>
-      <c r="Q38" s="190"/>
+      <c r="I38" s="204"/>
+      <c r="J38" s="191"/>
+      <c r="K38" s="191"/>
+      <c r="L38" s="191"/>
+      <c r="M38" s="191"/>
+      <c r="N38" s="191"/>
+      <c r="O38" s="191"/>
+      <c r="P38" s="191"/>
+      <c r="Q38" s="191"/>
       <c r="R38" s="74"/>
       <c r="S38" s="75"/>
       <c r="T38" s="75"/>
     </row>
     <row r="39" spans="1:20" ht="18" customHeight="1">
-      <c r="B39" s="189" t="s">
+      <c r="B39" s="190" t="s">
         <v>133</v>
       </c>
-      <c r="C39" s="190"/>
-      <c r="D39" s="190"/>
-      <c r="E39" s="190"/>
-      <c r="F39" s="190"/>
-      <c r="G39" s="190"/>
-      <c r="H39" s="190"/>
-      <c r="I39" s="190"/>
-      <c r="J39" s="190"/>
-      <c r="K39" s="190"/>
-      <c r="L39" s="190"/>
-      <c r="M39" s="190"/>
-      <c r="N39" s="190"/>
-      <c r="O39" s="190"/>
-      <c r="P39" s="190"/>
-      <c r="Q39" s="190"/>
-      <c r="R39" s="191"/>
+      <c r="C39" s="191"/>
+      <c r="D39" s="191"/>
+      <c r="E39" s="191"/>
+      <c r="F39" s="191"/>
+      <c r="G39" s="191"/>
+      <c r="H39" s="191"/>
+      <c r="I39" s="191"/>
+      <c r="J39" s="191"/>
+      <c r="K39" s="191"/>
+      <c r="L39" s="191"/>
+      <c r="M39" s="191"/>
+      <c r="N39" s="191"/>
+      <c r="O39" s="191"/>
+      <c r="P39" s="191"/>
+      <c r="Q39" s="191"/>
+      <c r="R39" s="192"/>
       <c r="S39" s="75"/>
       <c r="T39" s="75"/>
     </row>
     <row r="40" spans="1:20" ht="18" customHeight="1">
-      <c r="B40" s="186" t="s">
+      <c r="B40" s="187" t="s">
         <v>131</v>
       </c>
-      <c r="C40" s="187"/>
-      <c r="D40" s="187"/>
-      <c r="E40" s="187"/>
-      <c r="F40" s="187"/>
-      <c r="G40" s="187"/>
-      <c r="H40" s="187"/>
-      <c r="I40" s="187"/>
-      <c r="J40" s="187"/>
-      <c r="K40" s="187"/>
-      <c r="L40" s="187"/>
-      <c r="M40" s="187"/>
-      <c r="N40" s="187"/>
-      <c r="O40" s="187"/>
-      <c r="P40" s="187"/>
-      <c r="Q40" s="187"/>
-      <c r="R40" s="188"/>
+      <c r="C40" s="188"/>
+      <c r="D40" s="188"/>
+      <c r="E40" s="188"/>
+      <c r="F40" s="188"/>
+      <c r="G40" s="188"/>
+      <c r="H40" s="188"/>
+      <c r="I40" s="188"/>
+      <c r="J40" s="188"/>
+      <c r="K40" s="188"/>
+      <c r="L40" s="188"/>
+      <c r="M40" s="188"/>
+      <c r="N40" s="188"/>
+      <c r="O40" s="188"/>
+      <c r="P40" s="188"/>
+      <c r="Q40" s="188"/>
+      <c r="R40" s="189"/>
       <c r="S40" s="76"/>
       <c r="T40" s="76"/>
     </row>
     <row r="41" spans="1:20" ht="18" customHeight="1">
-      <c r="B41" s="186" t="s">
+      <c r="B41" s="187" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="187"/>
-      <c r="D41" s="187"/>
-      <c r="E41" s="187"/>
-      <c r="F41" s="187"/>
-      <c r="G41" s="187"/>
-      <c r="H41" s="187"/>
-      <c r="I41" s="187"/>
-      <c r="J41" s="187"/>
-      <c r="K41" s="187"/>
-      <c r="L41" s="187"/>
-      <c r="M41" s="187"/>
-      <c r="N41" s="187"/>
-      <c r="O41" s="187"/>
-      <c r="P41" s="187"/>
-      <c r="Q41" s="187"/>
-      <c r="R41" s="188"/>
+      <c r="C41" s="188"/>
+      <c r="D41" s="188"/>
+      <c r="E41" s="188"/>
+      <c r="F41" s="188"/>
+      <c r="G41" s="188"/>
+      <c r="H41" s="188"/>
+      <c r="I41" s="188"/>
+      <c r="J41" s="188"/>
+      <c r="K41" s="188"/>
+      <c r="L41" s="188"/>
+      <c r="M41" s="188"/>
+      <c r="N41" s="188"/>
+      <c r="O41" s="188"/>
+      <c r="P41" s="188"/>
+      <c r="Q41" s="188"/>
+      <c r="R41" s="189"/>
       <c r="S41" s="76"/>
       <c r="T41" s="76"/>
     </row>
     <row r="42" spans="1:20" ht="18" customHeight="1">
-      <c r="B42" s="123"/>
-      <c r="C42" s="124"/>
-      <c r="D42" s="124"/>
-      <c r="E42" s="124"/>
-      <c r="F42" s="124"/>
-      <c r="G42" s="124"/>
-      <c r="H42" s="124"/>
-      <c r="I42" s="124"/>
-      <c r="J42" s="124"/>
-      <c r="K42" s="124"/>
-      <c r="L42" s="124"/>
-      <c r="M42" s="124"/>
-      <c r="N42" s="124"/>
-      <c r="O42" s="124"/>
-      <c r="P42" s="124"/>
-      <c r="Q42" s="124"/>
-      <c r="R42" s="125"/>
+      <c r="B42" s="124"/>
+      <c r="C42" s="125"/>
+      <c r="D42" s="125"/>
+      <c r="E42" s="125"/>
+      <c r="F42" s="125"/>
+      <c r="G42" s="125"/>
+      <c r="H42" s="125"/>
+      <c r="I42" s="125"/>
+      <c r="J42" s="125"/>
+      <c r="K42" s="125"/>
+      <c r="L42" s="125"/>
+      <c r="M42" s="125"/>
+      <c r="N42" s="125"/>
+      <c r="O42" s="125"/>
+      <c r="P42" s="125"/>
+      <c r="Q42" s="125"/>
+      <c r="R42" s="126"/>
     </row>
     <row r="43" spans="1:20" ht="18" customHeight="1"/>
     <row r="44" spans="1:20" ht="18" customHeight="1">
@@ -6829,69 +7263,69 @@
       </c>
     </row>
     <row r="46" spans="1:20" ht="18" customHeight="1">
-      <c r="B46" s="177" t="s">
+      <c r="B46" s="178" t="s">
         <v>110</v>
       </c>
-      <c r="C46" s="177"/>
-      <c r="D46" s="177"/>
-      <c r="E46" s="177"/>
-      <c r="F46" s="177"/>
-      <c r="G46" s="177"/>
-      <c r="H46" s="177"/>
-      <c r="I46" s="177" t="s">
+      <c r="C46" s="178"/>
+      <c r="D46" s="178"/>
+      <c r="E46" s="178"/>
+      <c r="F46" s="178"/>
+      <c r="G46" s="178"/>
+      <c r="H46" s="178"/>
+      <c r="I46" s="178" t="s">
         <v>111</v>
       </c>
-      <c r="J46" s="177"/>
-      <c r="K46" s="177"/>
-      <c r="L46" s="177"/>
-      <c r="M46" s="177"/>
-      <c r="N46" s="177"/>
-      <c r="O46" s="177"/>
-      <c r="P46" s="177"/>
-      <c r="Q46" s="177"/>
-      <c r="R46" s="177"/>
+      <c r="J46" s="178"/>
+      <c r="K46" s="178"/>
+      <c r="L46" s="178"/>
+      <c r="M46" s="178"/>
+      <c r="N46" s="178"/>
+      <c r="O46" s="178"/>
+      <c r="P46" s="178"/>
+      <c r="Q46" s="178"/>
+      <c r="R46" s="178"/>
     </row>
     <row r="47" spans="1:20" ht="18" customHeight="1">
-      <c r="B47" s="178" t="s">
+      <c r="B47" s="179" t="s">
         <v>112</v>
       </c>
-      <c r="C47" s="141"/>
-      <c r="D47" s="141"/>
-      <c r="E47" s="141"/>
-      <c r="F47" s="141"/>
-      <c r="G47" s="141"/>
-      <c r="H47" s="142"/>
-      <c r="I47" s="178" t="s">
+      <c r="C47" s="142"/>
+      <c r="D47" s="142"/>
+      <c r="E47" s="142"/>
+      <c r="F47" s="142"/>
+      <c r="G47" s="142"/>
+      <c r="H47" s="143"/>
+      <c r="I47" s="179" t="s">
         <v>113</v>
       </c>
-      <c r="J47" s="141"/>
-      <c r="K47" s="141"/>
-      <c r="L47" s="141"/>
-      <c r="M47" s="141"/>
-      <c r="N47" s="141"/>
-      <c r="O47" s="141"/>
-      <c r="P47" s="141"/>
-      <c r="Q47" s="141"/>
-      <c r="R47" s="142"/>
+      <c r="J47" s="142"/>
+      <c r="K47" s="142"/>
+      <c r="L47" s="142"/>
+      <c r="M47" s="142"/>
+      <c r="N47" s="142"/>
+      <c r="O47" s="142"/>
+      <c r="P47" s="142"/>
+      <c r="Q47" s="142"/>
+      <c r="R47" s="143"/>
     </row>
     <row r="48" spans="1:20" ht="18" customHeight="1">
-      <c r="B48" s="178"/>
-      <c r="C48" s="141"/>
-      <c r="D48" s="141"/>
-      <c r="E48" s="141"/>
-      <c r="F48" s="141"/>
-      <c r="G48" s="141"/>
-      <c r="H48" s="142"/>
-      <c r="I48" s="178"/>
-      <c r="J48" s="141"/>
-      <c r="K48" s="141"/>
-      <c r="L48" s="141"/>
-      <c r="M48" s="141"/>
-      <c r="N48" s="141"/>
-      <c r="O48" s="141"/>
-      <c r="P48" s="141"/>
-      <c r="Q48" s="141"/>
-      <c r="R48" s="142"/>
+      <c r="B48" s="179"/>
+      <c r="C48" s="142"/>
+      <c r="D48" s="142"/>
+      <c r="E48" s="142"/>
+      <c r="F48" s="142"/>
+      <c r="G48" s="142"/>
+      <c r="H48" s="143"/>
+      <c r="I48" s="179"/>
+      <c r="J48" s="142"/>
+      <c r="K48" s="142"/>
+      <c r="L48" s="142"/>
+      <c r="M48" s="142"/>
+      <c r="N48" s="142"/>
+      <c r="O48" s="142"/>
+      <c r="P48" s="142"/>
+      <c r="Q48" s="142"/>
+      <c r="R48" s="143"/>
     </row>
     <row r="49" spans="1:18" ht="18" customHeight="1"/>
     <row r="50" spans="1:18" ht="18" customHeight="1">
@@ -6901,185 +7335,185 @@
     </row>
     <row r="51" spans="1:18" ht="18" customHeight="1"/>
     <row r="52" spans="1:18" ht="18.75" customHeight="1">
-      <c r="B52" s="185"/>
-      <c r="C52" s="185"/>
-      <c r="D52" s="174" t="s">
+      <c r="B52" s="186"/>
+      <c r="C52" s="186"/>
+      <c r="D52" s="175" t="s">
         <v>115</v>
       </c>
-      <c r="E52" s="174"/>
-      <c r="F52" s="174" t="s">
+      <c r="E52" s="175"/>
+      <c r="F52" s="175" t="s">
         <v>116</v>
       </c>
-      <c r="G52" s="174"/>
-      <c r="H52" s="174" t="s">
+      <c r="G52" s="175"/>
+      <c r="H52" s="175" t="s">
         <v>117</v>
       </c>
-      <c r="I52" s="174"/>
-      <c r="J52" s="174" t="s">
+      <c r="I52" s="175"/>
+      <c r="J52" s="175" t="s">
         <v>118</v>
       </c>
-      <c r="K52" s="174"/>
-      <c r="L52" s="174" t="str">
+      <c r="K52" s="175"/>
+      <c r="L52" s="175" t="str">
         <f>お見積書!M20</f>
         <v>金額(${qu.currencyposition})</v>
       </c>
-      <c r="M52" s="174"/>
-      <c r="N52" s="179" t="str">
+      <c r="M52" s="175"/>
+      <c r="N52" s="180" t="str">
         <f>"金額総計"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>金額総計(${qu.currencyposition})</v>
       </c>
-      <c r="O52" s="180"/>
-      <c r="P52" s="180"/>
-      <c r="Q52" s="180"/>
-      <c r="R52" s="181"/>
+      <c r="O52" s="181"/>
+      <c r="P52" s="181"/>
+      <c r="Q52" s="181"/>
+      <c r="R52" s="182"/>
     </row>
     <row r="53" spans="1:18" ht="28.5" customHeight="1">
-      <c r="B53" s="174" t="str">
+      <c r="B53" s="175" t="str">
         <f>IF(記入!A29="","",記入!A29)</f>
         <v>第一回</v>
       </c>
-      <c r="C53" s="174"/>
-      <c r="D53" s="175" t="str">
+      <c r="C53" s="175"/>
+      <c r="D53" s="176" t="str">
         <f>IF(記入!B29="","",記入!B29)</f>
         <v>${num[0].deliverydate}</v>
       </c>
-      <c r="E53" s="176"/>
-      <c r="F53" s="175" t="str">
+      <c r="E53" s="177"/>
+      <c r="F53" s="176" t="str">
         <f>IF(記入!C29="","",記入!C29)</f>
         <v>${num[0].completiondate}</v>
       </c>
-      <c r="G53" s="176"/>
-      <c r="H53" s="175" t="str">
+      <c r="G53" s="177"/>
+      <c r="H53" s="176" t="str">
         <f>IF(記入!D29="","",記入!D29)</f>
         <v>${num[0].claimdate}</v>
       </c>
-      <c r="I53" s="176"/>
-      <c r="J53" s="175" t="str">
+      <c r="I53" s="177"/>
+      <c r="J53" s="176" t="str">
         <f>IF(記入!E29="","",記入!E29)</f>
         <v>${num[0].supportdate}</v>
       </c>
-      <c r="K53" s="176"/>
-      <c r="L53" s="172" t="str">
+      <c r="K53" s="177"/>
+      <c r="L53" s="173" t="str">
         <f>IF(記入!F29="","",記入!F29)</f>
         <v>${num[0].claimamount}</v>
       </c>
-      <c r="M53" s="173"/>
-      <c r="N53" s="182" t="e">
+      <c r="M53" s="174"/>
+      <c r="N53" s="183" t="e">
         <f>SUM(L53:M56)</f>
         <v>#REF!</v>
       </c>
-      <c r="O53" s="183"/>
-      <c r="P53" s="183"/>
-      <c r="Q53" s="183"/>
-      <c r="R53" s="184"/>
+      <c r="O53" s="184"/>
+      <c r="P53" s="184"/>
+      <c r="Q53" s="184"/>
+      <c r="R53" s="185"/>
     </row>
     <row r="54" spans="1:18" ht="28.5" customHeight="1">
-      <c r="B54" s="174" t="e">
+      <c r="B54" s="175" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="C54" s="174"/>
-      <c r="D54" s="175" t="e">
+      <c r="C54" s="175"/>
+      <c r="D54" s="176" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="E54" s="176"/>
-      <c r="F54" s="175" t="e">
+      <c r="E54" s="177"/>
+      <c r="F54" s="176" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G54" s="176"/>
-      <c r="H54" s="175" t="e">
+      <c r="G54" s="177"/>
+      <c r="H54" s="176" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="I54" s="176"/>
-      <c r="J54" s="175" t="e">
+      <c r="I54" s="177"/>
+      <c r="J54" s="176" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="K54" s="176"/>
-      <c r="L54" s="172"/>
-      <c r="M54" s="173"/>
-      <c r="N54" s="182"/>
-      <c r="O54" s="183"/>
-      <c r="P54" s="183"/>
-      <c r="Q54" s="183"/>
-      <c r="R54" s="184"/>
+      <c r="K54" s="177"/>
+      <c r="L54" s="173"/>
+      <c r="M54" s="174"/>
+      <c r="N54" s="183"/>
+      <c r="O54" s="184"/>
+      <c r="P54" s="184"/>
+      <c r="Q54" s="184"/>
+      <c r="R54" s="185"/>
     </row>
     <row r="55" spans="1:18" ht="28.5" customHeight="1">
-      <c r="B55" s="174" t="e">
+      <c r="B55" s="175" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="C55" s="174"/>
-      <c r="D55" s="175" t="e">
+      <c r="C55" s="175"/>
+      <c r="D55" s="176" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="E55" s="176"/>
-      <c r="F55" s="175" t="e">
+      <c r="E55" s="177"/>
+      <c r="F55" s="176" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G55" s="176"/>
-      <c r="H55" s="175" t="e">
+      <c r="G55" s="177"/>
+      <c r="H55" s="176" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="I55" s="176"/>
-      <c r="J55" s="175" t="e">
+      <c r="I55" s="177"/>
+      <c r="J55" s="176" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="K55" s="176"/>
-      <c r="L55" s="172" t="e">
+      <c r="K55" s="177"/>
+      <c r="L55" s="173" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="M55" s="173"/>
-      <c r="N55" s="182"/>
-      <c r="O55" s="183"/>
-      <c r="P55" s="183"/>
-      <c r="Q55" s="183"/>
-      <c r="R55" s="184"/>
+      <c r="M55" s="174"/>
+      <c r="N55" s="183"/>
+      <c r="O55" s="184"/>
+      <c r="P55" s="184"/>
+      <c r="Q55" s="184"/>
+      <c r="R55" s="185"/>
     </row>
     <row r="56" spans="1:18" ht="31.5" customHeight="1">
-      <c r="B56" s="174" t="e">
+      <c r="B56" s="175" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="C56" s="174"/>
-      <c r="D56" s="175" t="e">
+      <c r="C56" s="175"/>
+      <c r="D56" s="176" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="176"/>
-      <c r="F56" s="175" t="e">
+      <c r="E56" s="177"/>
+      <c r="F56" s="176" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="176"/>
-      <c r="H56" s="175" t="e">
+      <c r="G56" s="177"/>
+      <c r="H56" s="176" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="176"/>
-      <c r="J56" s="175" t="e">
+      <c r="I56" s="177"/>
+      <c r="J56" s="176" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="176"/>
-      <c r="L56" s="172" t="e">
+      <c r="K56" s="177"/>
+      <c r="L56" s="173" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="173"/>
-      <c r="N56" s="182"/>
-      <c r="O56" s="183"/>
-      <c r="P56" s="183"/>
-      <c r="Q56" s="183"/>
-      <c r="R56" s="184"/>
+      <c r="M56" s="174"/>
+      <c r="N56" s="183"/>
+      <c r="O56" s="184"/>
+      <c r="P56" s="184"/>
+      <c r="Q56" s="184"/>
+      <c r="R56" s="185"/>
     </row>
     <row r="57" spans="1:18" ht="18" customHeight="1"/>
     <row r="58" spans="1:18" ht="18" customHeight="1">
@@ -7381,16 +7815,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19.25" style="87" customWidth="1"/>
     <col min="2" max="2" width="35.625" style="87" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" style="87" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="87" customWidth="1"/>
+    <col min="4" max="4" width="24.25" style="87" customWidth="1"/>
     <col min="5" max="5" width="15.25" style="87" customWidth="1"/>
     <col min="6" max="6" width="3.5" style="87" customWidth="1"/>
     <col min="7" max="7" width="5.5" style="87" bestFit="1" customWidth="1"/>
@@ -7915,10 +8349,10 @@
       <c r="E3" s="88"/>
     </row>
     <row r="4" spans="1:6" ht="28.5">
-      <c r="A4" s="207" t="s">
+      <c r="A4" s="208" t="s">
         <v>138</v>
       </c>
-      <c r="B4" s="208"/>
+      <c r="B4" s="209"/>
       <c r="C4" s="89" t="s">
         <v>139</v>
       </c>
@@ -7930,258 +8364,330 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="213" t="s">
+      <c r="A5" s="214" t="s">
         <v>142</v>
       </c>
       <c r="B5" s="90" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="93">
+      <c r="C5" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" s="92" t="s">
+        <v>200</v>
+      </c>
+      <c r="E5" s="93" t="e">
         <f t="shared" ref="E5:E21" si="0">C5*D5</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F5" s="94"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="214"/>
+      <c r="A6" s="215"/>
       <c r="B6" s="90" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="91"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="93">
+      <c r="C6" s="105" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="92" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6" s="93" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F6" s="94"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="214"/>
+      <c r="A7" s="215"/>
       <c r="B7" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="93">
+      <c r="C7" s="105" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" s="92" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="93" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F7" s="94"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="214"/>
+      <c r="A8" s="215"/>
       <c r="B8" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="C8" s="91"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="93">
+      <c r="C8" s="105" t="s">
+        <v>219</v>
+      </c>
+      <c r="D8" s="92" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" s="93" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F8" s="94"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="214"/>
+      <c r="A9" s="215"/>
       <c r="B9" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="91"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="93">
+      <c r="C9" s="105" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" s="92" t="s">
+        <v>203</v>
+      </c>
+      <c r="E9" s="93" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F9" s="94"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="215"/>
+      <c r="A10" s="216"/>
       <c r="B10" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="91"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="93">
+      <c r="C10" s="105" t="s">
+        <v>221</v>
+      </c>
+      <c r="D10" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" s="93" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F10" s="94"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A11" s="216" t="s">
+      <c r="A11" s="217" t="s">
         <v>150</v>
       </c>
       <c r="B11" s="90" t="s">
         <v>143</v>
       </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="93">
+      <c r="C11" s="105" t="s">
+        <v>222</v>
+      </c>
+      <c r="D11" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="E11" s="93" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F11" s="94"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="217"/>
+      <c r="A12" s="218"/>
       <c r="B12" s="90" t="s">
         <v>144</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="93">
+      <c r="C12" s="105" t="s">
+        <v>223</v>
+      </c>
+      <c r="D12" s="92" t="s">
+        <v>206</v>
+      </c>
+      <c r="E12" s="93" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F12" s="94"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="217"/>
+      <c r="A13" s="218"/>
       <c r="B13" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="93">
+      <c r="C13" s="105" t="s">
+        <v>224</v>
+      </c>
+      <c r="D13" s="92" t="s">
+        <v>207</v>
+      </c>
+      <c r="E13" s="93" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F13" s="94"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="217"/>
+      <c r="A14" s="218"/>
       <c r="B14" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="91"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="93">
+      <c r="C14" s="105" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="92" t="s">
+        <v>208</v>
+      </c>
+      <c r="E14" s="93" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F14" s="94"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="217"/>
+      <c r="A15" s="218"/>
       <c r="B15" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="93">
+      <c r="C15" s="105" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="E15" s="93" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F15" s="94"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="217"/>
+      <c r="A16" s="218"/>
       <c r="B16" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="93">
+      <c r="C16" s="105" t="s">
+        <v>227</v>
+      </c>
+      <c r="D16" s="92" t="s">
+        <v>210</v>
+      </c>
+      <c r="E16" s="93" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F16" s="94"/>
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A17" s="216" t="s">
+      <c r="A17" s="217" t="s">
         <v>151</v>
       </c>
       <c r="B17" s="90" t="s">
         <v>143</v>
       </c>
-      <c r="C17" s="91"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="93">
+      <c r="C17" s="105" t="s">
+        <v>228</v>
+      </c>
+      <c r="D17" s="92" t="s">
+        <v>211</v>
+      </c>
+      <c r="E17" s="93" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F17" s="94"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="217"/>
+      <c r="A18" s="218"/>
       <c r="B18" s="90" t="s">
         <v>144</v>
       </c>
-      <c r="C18" s="91"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="93">
+      <c r="C18" s="105" t="s">
+        <v>229</v>
+      </c>
+      <c r="D18" s="92" t="s">
+        <v>212</v>
+      </c>
+      <c r="E18" s="93" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F18" s="94"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="217"/>
+      <c r="A19" s="218"/>
       <c r="B19" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="C19" s="91"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="93">
+      <c r="C19" s="105" t="s">
+        <v>230</v>
+      </c>
+      <c r="D19" s="92" t="s">
+        <v>213</v>
+      </c>
+      <c r="E19" s="93" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F19" s="94"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="217"/>
+      <c r="A20" s="218"/>
       <c r="B20" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="C20" s="91"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="93">
+      <c r="C20" s="105" t="s">
+        <v>231</v>
+      </c>
+      <c r="D20" s="92" t="s">
+        <v>214</v>
+      </c>
+      <c r="E20" s="93" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F20" s="94"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="217"/>
+      <c r="A21" s="218"/>
       <c r="B21" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="C21" s="91"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="93">
+      <c r="C21" s="105" t="s">
+        <v>232</v>
+      </c>
+      <c r="D21" s="92" t="s">
+        <v>215</v>
+      </c>
+      <c r="E21" s="93" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F21" s="94"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="217"/>
+      <c r="A22" s="218"/>
       <c r="B22" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="C22" s="91"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="93">
+      <c r="C22" s="105" t="s">
+        <v>233</v>
+      </c>
+      <c r="D22" s="92" t="s">
+        <v>216</v>
+      </c>
+      <c r="E22" s="93" t="e">
         <f>C22*D22-460</f>
-        <v>-460</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F22" s="94"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="218" t="s">
+      <c r="A23" s="219" t="s">
         <v>152</v>
       </c>
-      <c r="B23" s="219"/>
-      <c r="C23" s="219"/>
-      <c r="D23" s="92">
+      <c r="B23" s="220"/>
+      <c r="C23" s="220"/>
+      <c r="D23" s="91">
         <f>SUM(D5:D22)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="93">
+      <c r="E23" s="93" t="e">
         <f>SUM(E5:E22)</f>
-        <v>-460</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -8199,20 +8705,20 @@
       <c r="E25" s="95"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="212" t="s">
+      <c r="A26" s="213" t="s">
         <v>153</v>
       </c>
-      <c r="B26" s="212"/>
-      <c r="C26" s="212"/>
+      <c r="B26" s="213"/>
+      <c r="C26" s="213"/>
       <c r="D26" s="88"/>
       <c r="E26" s="96"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="97"/>
-      <c r="B27" s="207" t="s">
+      <c r="B27" s="208" t="s">
         <v>154</v>
       </c>
-      <c r="C27" s="208"/>
+      <c r="C27" s="209"/>
       <c r="D27" s="98" t="s">
         <v>155</v>
       </c>
@@ -8224,20 +8730,20 @@
       <c r="A28" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="B28" s="209"/>
-      <c r="C28" s="210"/>
+      <c r="B28" s="210"/>
+      <c r="C28" s="211"/>
       <c r="D28" s="101"/>
       <c r="E28" s="93"/>
       <c r="F28" s="102"/>
       <c r="G28" s="102"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="206" t="s">
+      <c r="A29" s="207" t="s">
         <v>152</v>
       </c>
-      <c r="B29" s="206"/>
-      <c r="C29" s="206"/>
-      <c r="D29" s="206"/>
+      <c r="B29" s="207"/>
+      <c r="C29" s="207"/>
+      <c r="D29" s="207"/>
       <c r="E29" s="103">
         <f>SUM(E28:E28)</f>
         <v>0</v>
@@ -8258,53 +8764,56 @@
       <c r="E31" s="88"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="211" t="s">
+      <c r="A32" s="212" t="s">
         <v>158</v>
       </c>
-      <c r="B32" s="211"/>
-      <c r="C32" s="211"/>
-      <c r="D32" s="211"/>
+      <c r="B32" s="212"/>
+      <c r="C32" s="212"/>
+      <c r="D32" s="212"/>
       <c r="E32" s="99" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A33" s="206" t="s">
+      <c r="A33" s="207" t="s">
         <v>160</v>
       </c>
-      <c r="B33" s="206"/>
-      <c r="C33" s="206"/>
-      <c r="D33" s="206"/>
-      <c r="E33" s="103">
+      <c r="B33" s="207"/>
+      <c r="C33" s="207"/>
+      <c r="D33" s="207"/>
+      <c r="E33" s="103" t="e">
         <f>E23</f>
-        <v>-460</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="206" t="s">
+      <c r="A34" s="207" t="s">
         <v>153</v>
       </c>
-      <c r="B34" s="206"/>
-      <c r="C34" s="206"/>
-      <c r="D34" s="206"/>
+      <c r="B34" s="207"/>
+      <c r="C34" s="207"/>
+      <c r="D34" s="207"/>
       <c r="E34" s="103">
         <f>E29</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="206" t="s">
+      <c r="A35" s="207" t="s">
         <v>152</v>
       </c>
-      <c r="B35" s="206"/>
-      <c r="C35" s="206"/>
-      <c r="D35" s="206"/>
-      <c r="E35" s="103">
+      <c r="B35" s="207"/>
+      <c r="C35" s="207"/>
+      <c r="D35" s="207"/>
+      <c r="E35" s="103" t="e">
         <f>E33+E34</f>
-        <v>-460</v>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
+  <protectedRanges>
+    <protectedRange sqref="C5:C22" name="範囲3_1"/>
+  </protectedRanges>
   <mergeCells count="13">
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A4:B4"/>

--- a/controller/src/main/resources/jxls_templates/jianjishu_shoutuo.xlsx
+++ b/controller/src/main/resources/jxls_templates/jianjishu_shoutuo.xlsx
@@ -7816,7 +7816,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/controller/src/main/resources/jxls_templates/jianjishu_shoutuo.xlsx
+++ b/controller/src/main/resources/jxls_templates/jianjishu_shoutuo.xlsx
@@ -3172,6 +3172,102 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="20" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3223,101 +3319,77 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3335,10 +3407,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3349,87 +3421,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3437,30 +3461,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3900,7 +3900,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -4381,7 +4381,7 @@
       </c>
       <c r="B37" s="41">
         <f ca="1">TODAY()</f>
-        <v>43913</v>
+        <v>43916</v>
       </c>
       <c r="D37" s="114" t="s">
         <v>54</v>
@@ -5152,37 +5152,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="23.1" customHeight="1">
-      <c r="C1" s="165" t="s">
+      <c r="C1" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="165"/>
-      <c r="L1" s="165"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="165"/>
-      <c r="O1" s="165"/>
-      <c r="P1" s="165"/>
-      <c r="Q1" s="165"/>
-      <c r="R1" s="165"/>
-      <c r="S1" s="165"/>
-      <c r="T1" s="165"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
     </row>
     <row r="2" spans="1:20" ht="23.1" customHeight="1">
-      <c r="P2" s="168" t="s">
+      <c r="P2" s="129" t="s">
         <v>122</v>
       </c>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="168" t="str">
+      <c r="Q2" s="129"/>
+      <c r="R2" s="129" t="str">
         <f>記入!B12</f>
         <v>${qu.contractnumber}</v>
       </c>
-      <c r="S2" s="168"/>
+      <c r="S2" s="129"/>
     </row>
     <row r="3" spans="1:20" ht="23.1" customHeight="1">
       <c r="A3" s="44"/>
@@ -5191,11 +5191,11 @@
         <f>記入!B2</f>
         <v>${qu.trusteejapanese}</v>
       </c>
-      <c r="R3" s="171">
+      <c r="R3" s="132">
         <f ca="1">記入!B37</f>
-        <v>43913</v>
-      </c>
-      <c r="S3" s="171"/>
+        <v>43916</v>
+      </c>
+      <c r="S3" s="132"/>
     </row>
     <row r="4" spans="1:20" ht="23.1" customHeight="1">
       <c r="A4" s="44"/>
@@ -5218,28 +5218,28 @@
         <f>"(件名番号："&amp;記入!D36&amp;")"</f>
         <v>(件名番号：${qu.requestnumber})</v>
       </c>
-      <c r="K6" s="166" t="s">
+      <c r="K6" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="166"/>
-      <c r="M6" s="166"/>
-      <c r="N6" s="166"/>
-      <c r="O6" s="166"/>
-      <c r="P6" s="166"/>
-      <c r="Q6" s="166"/>
-      <c r="R6" s="166"/>
-      <c r="S6" s="166"/>
+      <c r="L6" s="127"/>
+      <c r="M6" s="127"/>
+      <c r="N6" s="127"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="127"/>
+      <c r="Q6" s="127"/>
+      <c r="R6" s="127"/>
+      <c r="S6" s="127"/>
     </row>
     <row r="7" spans="1:20" ht="23.1" customHeight="1">
-      <c r="K7" s="166"/>
-      <c r="L7" s="166"/>
-      <c r="M7" s="166"/>
-      <c r="N7" s="166"/>
-      <c r="O7" s="166"/>
-      <c r="P7" s="166"/>
-      <c r="Q7" s="166"/>
-      <c r="R7" s="166"/>
-      <c r="S7" s="166"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="127"/>
+      <c r="M7" s="127"/>
+      <c r="N7" s="127"/>
+      <c r="O7" s="127"/>
+      <c r="P7" s="127"/>
+      <c r="Q7" s="127"/>
+      <c r="R7" s="127"/>
+      <c r="S7" s="127"/>
     </row>
     <row r="8" spans="1:20" ht="23.1" customHeight="1">
       <c r="A8" s="49"/>
@@ -5247,32 +5247,32 @@
       <c r="C8" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="166"/>
-      <c r="L8" s="166"/>
-      <c r="M8" s="166"/>
-      <c r="N8" s="166"/>
-      <c r="O8" s="166"/>
-      <c r="P8" s="166"/>
-      <c r="Q8" s="166"/>
-      <c r="R8" s="166"/>
-      <c r="S8" s="166"/>
+      <c r="K8" s="127"/>
+      <c r="L8" s="127"/>
+      <c r="M8" s="127"/>
+      <c r="N8" s="127"/>
+      <c r="O8" s="127"/>
+      <c r="P8" s="127"/>
+      <c r="Q8" s="127"/>
+      <c r="R8" s="127"/>
+      <c r="S8" s="127"/>
     </row>
     <row r="9" spans="1:20" ht="23.1" customHeight="1">
-      <c r="C9" s="167" t="str">
+      <c r="C9" s="128" t="str">
         <f>記入!B10</f>
         <v>${qu.pjjapanese}</v>
       </c>
-      <c r="D9" s="167"/>
-      <c r="E9" s="167"/>
-      <c r="F9" s="167"/>
-      <c r="G9" s="167"/>
-      <c r="H9" s="167"/>
-      <c r="I9" s="167"/>
-      <c r="J9" s="167"/>
-      <c r="K9" s="167"/>
-      <c r="L9" s="167"/>
-      <c r="M9" s="167"/>
-      <c r="N9" s="167"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="128"/>
+      <c r="M9" s="128"/>
+      <c r="N9" s="128"/>
     </row>
     <row r="10" spans="1:20" ht="23.1" customHeight="1">
       <c r="C10" s="50"/>
@@ -5292,18 +5292,18 @@
       <c r="C11" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="163" t="str">
+      <c r="E11" s="124" t="str">
         <f>記入!B19</f>
         <v>${qu.currencyposition}</v>
       </c>
-      <c r="F11" s="163"/>
-      <c r="G11" s="172">
+      <c r="F11" s="124"/>
+      <c r="G11" s="133">
         <f>M26</f>
         <v>0</v>
       </c>
-      <c r="H11" s="172"/>
-      <c r="I11" s="172"/>
-      <c r="J11" s="172"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="133"/>
       <c r="R11" s="52" t="s">
         <v>53</v>
       </c>
@@ -5348,12 +5348,12 @@
       <c r="C14" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="169" t="str">
+      <c r="F14" s="130" t="str">
         <f>記入!F39</f>
         <v>□あり(12ヵ月）</v>
       </c>
-      <c r="G14" s="169"/>
-      <c r="H14" s="169"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
       <c r="I14" s="53"/>
       <c r="J14" s="43" t="str">
         <f>記入!H39</f>
@@ -5364,23 +5364,23 @@
       <c r="C15" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="170" t="str">
+      <c r="F15" s="131" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="G15" s="170"/>
-      <c r="H15" s="170"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="131"/>
     </row>
     <row r="16" spans="1:20" ht="23.1" customHeight="1">
       <c r="C16" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="170" t="str">
+      <c r="F16" s="131" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="G16" s="170"/>
-      <c r="H16" s="170"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="131"/>
     </row>
     <row r="17" spans="1:21" ht="23.1" customHeight="1">
       <c r="C17" s="43" t="s">
@@ -5407,287 +5407,287 @@
       <c r="R18" s="26"/>
     </row>
     <row r="19" spans="1:21" ht="23.1" customHeight="1" thickBot="1">
-      <c r="C19" s="164" t="s">
+      <c r="C19" s="125" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="164"/>
-      <c r="E19" s="164"/>
-      <c r="F19" s="164" t="s">
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="125" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="164"/>
-      <c r="H19" s="164"/>
-      <c r="I19" s="164"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="125"/>
     </row>
     <row r="20" spans="1:21" ht="23.1" customHeight="1" thickBot="1">
       <c r="B20" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="151" t="s">
+      <c r="C20" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="151"/>
-      <c r="E20" s="151"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="151"/>
-      <c r="K20" s="151"/>
-      <c r="L20" s="152"/>
-      <c r="M20" s="153" t="str">
+      <c r="D20" s="134"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="134"/>
+      <c r="H20" s="134"/>
+      <c r="I20" s="134"/>
+      <c r="J20" s="134"/>
+      <c r="K20" s="134"/>
+      <c r="L20" s="135"/>
+      <c r="M20" s="136" t="str">
         <f>"金額"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>金額(${qu.currencyposition})</v>
       </c>
-      <c r="N20" s="153"/>
-      <c r="O20" s="153"/>
-      <c r="P20" s="153" t="s">
+      <c r="N20" s="136"/>
+      <c r="O20" s="136"/>
+      <c r="P20" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="Q20" s="153"/>
-      <c r="R20" s="153"/>
-      <c r="S20" s="154"/>
+      <c r="Q20" s="136"/>
+      <c r="R20" s="136"/>
+      <c r="S20" s="137"/>
     </row>
     <row r="21" spans="1:21" ht="33" customHeight="1">
       <c r="B21" s="56">
         <v>1</v>
       </c>
-      <c r="C21" s="155" t="str">
+      <c r="C21" s="138" t="str">
         <f>記入!B10</f>
         <v>${qu.pjjapanese}</v>
       </c>
-      <c r="D21" s="156"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="156"/>
-      <c r="G21" s="156"/>
-      <c r="H21" s="156"/>
-      <c r="I21" s="156"/>
-      <c r="J21" s="156"/>
-      <c r="K21" s="156"/>
-      <c r="L21" s="157"/>
-      <c r="M21" s="158" t="str">
+      <c r="D21" s="139"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="139"/>
+      <c r="K21" s="139"/>
+      <c r="L21" s="140"/>
+      <c r="M21" s="141" t="str">
         <f>記入!B20</f>
         <v>${qu.claimamount}</v>
       </c>
-      <c r="N21" s="159"/>
-      <c r="O21" s="160"/>
-      <c r="P21" s="161"/>
-      <c r="Q21" s="161"/>
-      <c r="R21" s="161"/>
-      <c r="S21" s="162"/>
+      <c r="N21" s="142"/>
+      <c r="O21" s="143"/>
+      <c r="P21" s="144"/>
+      <c r="Q21" s="144"/>
+      <c r="R21" s="144"/>
+      <c r="S21" s="145"/>
       <c r="U21" s="57"/>
     </row>
     <row r="22" spans="1:21" ht="23.1" customHeight="1">
       <c r="B22" s="58">
         <v>2</v>
       </c>
-      <c r="C22" s="141" t="s">
+      <c r="C22" s="146" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="141"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="141"/>
-      <c r="G22" s="141"/>
-      <c r="H22" s="142"/>
-      <c r="I22" s="142"/>
-      <c r="J22" s="142"/>
-      <c r="K22" s="142"/>
-      <c r="L22" s="143"/>
-      <c r="M22" s="144" t="s">
+      <c r="D22" s="146"/>
+      <c r="E22" s="146"/>
+      <c r="F22" s="146"/>
+      <c r="G22" s="146"/>
+      <c r="H22" s="147"/>
+      <c r="I22" s="147"/>
+      <c r="J22" s="147"/>
+      <c r="K22" s="147"/>
+      <c r="L22" s="148"/>
+      <c r="M22" s="149" t="s">
         <v>69</v>
       </c>
-      <c r="N22" s="144"/>
-      <c r="O22" s="144"/>
-      <c r="P22" s="145"/>
-      <c r="Q22" s="145"/>
-      <c r="R22" s="145"/>
-      <c r="S22" s="146"/>
+      <c r="N22" s="149"/>
+      <c r="O22" s="149"/>
+      <c r="P22" s="150"/>
+      <c r="Q22" s="150"/>
+      <c r="R22" s="150"/>
+      <c r="S22" s="151"/>
       <c r="U22" s="59"/>
     </row>
     <row r="23" spans="1:21" ht="23.1" customHeight="1">
       <c r="B23" s="58">
         <v>3</v>
       </c>
-      <c r="C23" s="141" t="s">
+      <c r="C23" s="146" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="141"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="141"/>
-      <c r="H23" s="142"/>
-      <c r="I23" s="142"/>
-      <c r="J23" s="142"/>
-      <c r="K23" s="142"/>
-      <c r="L23" s="143"/>
-      <c r="M23" s="144">
+      <c r="D23" s="146"/>
+      <c r="E23" s="146"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="147"/>
+      <c r="I23" s="147"/>
+      <c r="J23" s="147"/>
+      <c r="K23" s="147"/>
+      <c r="L23" s="148"/>
+      <c r="M23" s="149">
         <v>0</v>
       </c>
-      <c r="N23" s="144"/>
-      <c r="O23" s="144"/>
-      <c r="P23" s="145"/>
-      <c r="Q23" s="145"/>
-      <c r="R23" s="145"/>
-      <c r="S23" s="146"/>
+      <c r="N23" s="149"/>
+      <c r="O23" s="149"/>
+      <c r="P23" s="150"/>
+      <c r="Q23" s="150"/>
+      <c r="R23" s="150"/>
+      <c r="S23" s="151"/>
     </row>
     <row r="24" spans="1:21" ht="23.1" customHeight="1">
       <c r="B24" s="58">
         <v>4</v>
       </c>
-      <c r="C24" s="141"/>
-      <c r="D24" s="141"/>
-      <c r="E24" s="141"/>
-      <c r="F24" s="141"/>
-      <c r="G24" s="141"/>
-      <c r="H24" s="142"/>
-      <c r="I24" s="142"/>
-      <c r="J24" s="142"/>
-      <c r="K24" s="142"/>
-      <c r="L24" s="143"/>
-      <c r="M24" s="144">
+      <c r="C24" s="146"/>
+      <c r="D24" s="146"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="147"/>
+      <c r="I24" s="147"/>
+      <c r="J24" s="147"/>
+      <c r="K24" s="147"/>
+      <c r="L24" s="148"/>
+      <c r="M24" s="149">
         <v>0</v>
       </c>
-      <c r="N24" s="144"/>
-      <c r="O24" s="144"/>
-      <c r="P24" s="145"/>
-      <c r="Q24" s="145"/>
-      <c r="R24" s="145"/>
-      <c r="S24" s="146"/>
+      <c r="N24" s="149"/>
+      <c r="O24" s="149"/>
+      <c r="P24" s="150"/>
+      <c r="Q24" s="150"/>
+      <c r="R24" s="150"/>
+      <c r="S24" s="151"/>
     </row>
     <row r="25" spans="1:21" ht="23.1" customHeight="1">
       <c r="B25" s="60">
         <v>5</v>
       </c>
-      <c r="C25" s="147"/>
-      <c r="D25" s="147"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="147"/>
-      <c r="G25" s="147"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="150">
+      <c r="C25" s="152"/>
+      <c r="D25" s="152"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="152"/>
+      <c r="G25" s="152"/>
+      <c r="H25" s="153"/>
+      <c r="I25" s="153"/>
+      <c r="J25" s="153"/>
+      <c r="K25" s="153"/>
+      <c r="L25" s="154"/>
+      <c r="M25" s="155">
         <v>0</v>
       </c>
-      <c r="N25" s="150"/>
-      <c r="O25" s="150"/>
-      <c r="P25" s="145"/>
-      <c r="Q25" s="145"/>
-      <c r="R25" s="145"/>
-      <c r="S25" s="146"/>
+      <c r="N25" s="155"/>
+      <c r="O25" s="155"/>
+      <c r="P25" s="150"/>
+      <c r="Q25" s="150"/>
+      <c r="R25" s="150"/>
+      <c r="S25" s="151"/>
     </row>
     <row r="26" spans="1:21" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B26" s="127" t="s">
+      <c r="B26" s="159" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="128"/>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="128"/>
-      <c r="K26" s="128"/>
-      <c r="L26" s="129"/>
-      <c r="M26" s="130">
+      <c r="C26" s="160"/>
+      <c r="D26" s="160"/>
+      <c r="E26" s="160"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="160"/>
+      <c r="H26" s="160"/>
+      <c r="I26" s="160"/>
+      <c r="J26" s="160"/>
+      <c r="K26" s="160"/>
+      <c r="L26" s="161"/>
+      <c r="M26" s="162">
         <f>SUM(M21:O25)</f>
         <v>0</v>
       </c>
-      <c r="N26" s="131"/>
-      <c r="O26" s="132"/>
-      <c r="P26" s="133"/>
-      <c r="Q26" s="133"/>
-      <c r="R26" s="133"/>
-      <c r="S26" s="134"/>
+      <c r="N26" s="163"/>
+      <c r="O26" s="164"/>
+      <c r="P26" s="165"/>
+      <c r="Q26" s="165"/>
+      <c r="R26" s="165"/>
+      <c r="S26" s="166"/>
     </row>
     <row r="27" spans="1:21" ht="23.1" customHeight="1">
-      <c r="C27" s="135" t="s">
+      <c r="C27" s="167" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="136"/>
-      <c r="E27" s="136"/>
-      <c r="F27" s="136"/>
-      <c r="G27" s="136"/>
-      <c r="H27" s="136"/>
-      <c r="I27" s="136"/>
-      <c r="J27" s="136"/>
-      <c r="K27" s="136"/>
-      <c r="L27" s="136"/>
-      <c r="M27" s="136"/>
-      <c r="N27" s="136"/>
-      <c r="O27" s="136"/>
-      <c r="P27" s="136"/>
-      <c r="Q27" s="136"/>
-      <c r="R27" s="136"/>
-      <c r="S27" s="137"/>
+      <c r="D27" s="168"/>
+      <c r="E27" s="168"/>
+      <c r="F27" s="168"/>
+      <c r="G27" s="168"/>
+      <c r="H27" s="168"/>
+      <c r="I27" s="168"/>
+      <c r="J27" s="168"/>
+      <c r="K27" s="168"/>
+      <c r="L27" s="168"/>
+      <c r="M27" s="168"/>
+      <c r="N27" s="168"/>
+      <c r="O27" s="168"/>
+      <c r="P27" s="168"/>
+      <c r="Q27" s="168"/>
+      <c r="R27" s="168"/>
+      <c r="S27" s="169"/>
     </row>
     <row r="28" spans="1:21" ht="18" customHeight="1">
       <c r="A28" s="61"/>
       <c r="B28" s="61"/>
-      <c r="C28" s="138" t="s">
+      <c r="C28" s="170" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="139"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="139"/>
-      <c r="I28" s="139"/>
-      <c r="J28" s="139"/>
-      <c r="K28" s="139"/>
-      <c r="L28" s="139"/>
-      <c r="M28" s="139"/>
-      <c r="N28" s="139"/>
-      <c r="O28" s="139"/>
-      <c r="P28" s="139"/>
-      <c r="Q28" s="139"/>
-      <c r="R28" s="139"/>
-      <c r="S28" s="140"/>
+      <c r="D28" s="171"/>
+      <c r="E28" s="171"/>
+      <c r="F28" s="171"/>
+      <c r="G28" s="171"/>
+      <c r="H28" s="171"/>
+      <c r="I28" s="171"/>
+      <c r="J28" s="171"/>
+      <c r="K28" s="171"/>
+      <c r="L28" s="171"/>
+      <c r="M28" s="171"/>
+      <c r="N28" s="171"/>
+      <c r="O28" s="171"/>
+      <c r="P28" s="171"/>
+      <c r="Q28" s="171"/>
+      <c r="R28" s="171"/>
+      <c r="S28" s="172"/>
     </row>
     <row r="29" spans="1:21" ht="18" customHeight="1">
       <c r="A29" s="61"/>
       <c r="B29" s="61"/>
-      <c r="C29" s="135"/>
-      <c r="D29" s="136"/>
-      <c r="E29" s="136"/>
-      <c r="F29" s="136"/>
-      <c r="G29" s="136"/>
-      <c r="H29" s="136"/>
-      <c r="I29" s="136"/>
-      <c r="J29" s="136"/>
-      <c r="K29" s="136"/>
-      <c r="L29" s="136"/>
-      <c r="M29" s="136"/>
-      <c r="N29" s="136"/>
-      <c r="O29" s="136"/>
-      <c r="P29" s="136"/>
-      <c r="Q29" s="136"/>
-      <c r="R29" s="136"/>
-      <c r="S29" s="137"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="168"/>
+      <c r="E29" s="168"/>
+      <c r="F29" s="168"/>
+      <c r="G29" s="168"/>
+      <c r="H29" s="168"/>
+      <c r="I29" s="168"/>
+      <c r="J29" s="168"/>
+      <c r="K29" s="168"/>
+      <c r="L29" s="168"/>
+      <c r="M29" s="168"/>
+      <c r="N29" s="168"/>
+      <c r="O29" s="168"/>
+      <c r="P29" s="168"/>
+      <c r="Q29" s="168"/>
+      <c r="R29" s="168"/>
+      <c r="S29" s="169"/>
     </row>
     <row r="30" spans="1:21" ht="18" customHeight="1">
       <c r="A30" s="61"/>
       <c r="B30" s="61"/>
-      <c r="C30" s="124"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="125"/>
-      <c r="G30" s="125"/>
-      <c r="H30" s="125"/>
-      <c r="I30" s="125"/>
-      <c r="J30" s="125"/>
-      <c r="K30" s="125"/>
-      <c r="L30" s="125"/>
-      <c r="M30" s="125"/>
-      <c r="N30" s="125"/>
-      <c r="O30" s="125"/>
-      <c r="P30" s="125"/>
-      <c r="Q30" s="125"/>
-      <c r="R30" s="125"/>
-      <c r="S30" s="126"/>
+      <c r="C30" s="156"/>
+      <c r="D30" s="157"/>
+      <c r="E30" s="157"/>
+      <c r="F30" s="157"/>
+      <c r="G30" s="157"/>
+      <c r="H30" s="157"/>
+      <c r="I30" s="157"/>
+      <c r="J30" s="157"/>
+      <c r="K30" s="157"/>
+      <c r="L30" s="157"/>
+      <c r="M30" s="157"/>
+      <c r="N30" s="157"/>
+      <c r="O30" s="157"/>
+      <c r="P30" s="157"/>
+      <c r="Q30" s="157"/>
+      <c r="R30" s="157"/>
+      <c r="S30" s="158"/>
     </row>
     <row r="31" spans="1:21" ht="21.95" customHeight="1"/>
     <row r="32" spans="1:21" ht="21.95" customHeight="1"/>
@@ -5703,6 +5703,31 @@
     <row r="42" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="C30:S30"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="C27:S27"/>
+    <mergeCell ref="C28:S28"/>
+    <mergeCell ref="C29:S29"/>
+    <mergeCell ref="C24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="C25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="P25:S25"/>
+    <mergeCell ref="C22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="C23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="C21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:S21"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="F19:I19"/>
@@ -5716,31 +5741,6 @@
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="G11:J11"/>
-    <mergeCell ref="C20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="C21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="C22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="C23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="C24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="C25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="P25:S25"/>
-    <mergeCell ref="C30:S30"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="C27:S27"/>
-    <mergeCell ref="C28:S28"/>
-    <mergeCell ref="C29:S29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -6538,106 +6538,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1">
-      <c r="N1" s="168" t="s">
+      <c r="N1" s="129" t="s">
         <v>122</v>
       </c>
-      <c r="O1" s="168"/>
-      <c r="P1" s="203" t="str">
+      <c r="O1" s="129"/>
+      <c r="P1" s="175" t="str">
         <f>お見積書!R2</f>
         <v>${qu.contractnumber}</v>
       </c>
-      <c r="Q1" s="203"/>
-      <c r="R1" s="203"/>
+      <c r="Q1" s="175"/>
+      <c r="R1" s="175"/>
     </row>
     <row r="2" spans="1:18" ht="18" customHeight="1">
-      <c r="O2" s="201">
+      <c r="O2" s="173">
         <f ca="1">お見積書!R3</f>
-        <v>43913</v>
-      </c>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="202"/>
-      <c r="R2" s="202"/>
+        <v>43916</v>
+      </c>
+      <c r="P2" s="174"/>
+      <c r="Q2" s="174"/>
+      <c r="R2" s="174"/>
     </row>
     <row r="3" spans="1:18" ht="18" customHeight="1">
-      <c r="A3" s="205" t="s">
+      <c r="A3" s="183" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="206"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="206"/>
-      <c r="G3" s="206"/>
-      <c r="H3" s="206"/>
-      <c r="I3" s="206"/>
-      <c r="J3" s="206"/>
-      <c r="K3" s="206"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="206"/>
-      <c r="P3" s="206"/>
-      <c r="Q3" s="206"/>
-      <c r="R3" s="206"/>
+      <c r="B3" s="184"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="184"/>
+      <c r="G3" s="184"/>
+      <c r="H3" s="184"/>
+      <c r="I3" s="184"/>
+      <c r="J3" s="184"/>
+      <c r="K3" s="184"/>
+      <c r="L3" s="184"/>
+      <c r="M3" s="184"/>
+      <c r="N3" s="184"/>
+      <c r="O3" s="184"/>
+      <c r="P3" s="184"/>
+      <c r="Q3" s="184"/>
+      <c r="R3" s="184"/>
     </row>
     <row r="4" spans="1:18" ht="18" customHeight="1">
-      <c r="A4" s="203" t="str">
+      <c r="A4" s="175" t="str">
         <f>お見積書!C5</f>
         <v>ご照会の件につき下記の通りお見積り申し上げます。</v>
       </c>
-      <c r="B4" s="203"/>
-      <c r="C4" s="203"/>
-      <c r="D4" s="203"/>
-      <c r="E4" s="203"/>
-      <c r="F4" s="203"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="203"/>
-      <c r="J4" s="203"/>
-      <c r="K4" s="203"/>
-      <c r="L4" s="203"/>
-      <c r="M4" s="203"/>
-      <c r="N4" s="203"/>
-      <c r="O4" s="203"/>
-      <c r="P4" s="203"/>
-      <c r="Q4" s="203"/>
-      <c r="R4" s="203"/>
+      <c r="B4" s="175"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="175"/>
+      <c r="I4" s="175"/>
+      <c r="J4" s="175"/>
+      <c r="K4" s="175"/>
+      <c r="L4" s="175"/>
+      <c r="M4" s="175"/>
+      <c r="N4" s="175"/>
+      <c r="O4" s="175"/>
+      <c r="P4" s="175"/>
+      <c r="Q4" s="175"/>
+      <c r="R4" s="175"/>
     </row>
     <row r="5" spans="1:18" ht="18" customHeight="1"/>
     <row r="6" spans="1:18" ht="18" customHeight="1">
-      <c r="I6" s="169" t="s">
+      <c r="I6" s="130" t="s">
         <v>75</v>
       </c>
-      <c r="J6" s="169"/>
-      <c r="K6" s="169"/>
-      <c r="L6" s="169"/>
-      <c r="M6" s="169"/>
-      <c r="N6" s="169"/>
-      <c r="O6" s="169"/>
-      <c r="P6" s="169"/>
-      <c r="Q6" s="169"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="130"/>
+      <c r="M6" s="130"/>
+      <c r="N6" s="130"/>
+      <c r="O6" s="130"/>
+      <c r="P6" s="130"/>
+      <c r="Q6" s="130"/>
     </row>
     <row r="7" spans="1:18" ht="18" customHeight="1">
-      <c r="I7" s="169"/>
-      <c r="J7" s="169"/>
-      <c r="K7" s="169"/>
-      <c r="L7" s="169"/>
-      <c r="M7" s="169"/>
-      <c r="N7" s="169"/>
-      <c r="O7" s="169"/>
-      <c r="P7" s="169"/>
-      <c r="Q7" s="169"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="130"/>
+      <c r="K7" s="130"/>
+      <c r="L7" s="130"/>
+      <c r="M7" s="130"/>
+      <c r="N7" s="130"/>
+      <c r="O7" s="130"/>
+      <c r="P7" s="130"/>
+      <c r="Q7" s="130"/>
     </row>
     <row r="8" spans="1:18" ht="18" customHeight="1">
-      <c r="I8" s="169"/>
-      <c r="J8" s="169"/>
-      <c r="K8" s="169"/>
-      <c r="L8" s="169"/>
-      <c r="M8" s="169"/>
-      <c r="N8" s="169"/>
-      <c r="O8" s="169"/>
-      <c r="P8" s="169"/>
-      <c r="Q8" s="169"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="130"/>
+      <c r="M8" s="130"/>
+      <c r="N8" s="130"/>
+      <c r="O8" s="130"/>
+      <c r="P8" s="130"/>
+      <c r="Q8" s="130"/>
     </row>
     <row r="9" spans="1:18" ht="18" customHeight="1">
       <c r="A9" s="62" t="s">
@@ -6645,36 +6645,36 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="18" customHeight="1">
-      <c r="B10" s="196" t="s">
+      <c r="B10" s="179" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="197"/>
-      <c r="D10" s="197"/>
-      <c r="E10" s="198"/>
-      <c r="F10" s="179" t="str">
+      <c r="C10" s="180"/>
+      <c r="D10" s="180"/>
+      <c r="E10" s="181"/>
+      <c r="F10" s="182" t="str">
         <f>お見積書!C9</f>
         <v>${qu.pjjapanese}</v>
       </c>
-      <c r="G10" s="142"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="142"/>
-      <c r="J10" s="142"/>
-      <c r="K10" s="142"/>
-      <c r="L10" s="142"/>
-      <c r="M10" s="142"/>
-      <c r="N10" s="142"/>
-      <c r="O10" s="142"/>
-      <c r="P10" s="142"/>
-      <c r="Q10" s="142"/>
-      <c r="R10" s="143"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="147"/>
+      <c r="K10" s="147"/>
+      <c r="L10" s="147"/>
+      <c r="M10" s="147"/>
+      <c r="N10" s="147"/>
+      <c r="O10" s="147"/>
+      <c r="P10" s="147"/>
+      <c r="Q10" s="147"/>
+      <c r="R10" s="148"/>
     </row>
     <row r="11" spans="1:18" ht="18" customHeight="1">
-      <c r="B11" s="196" t="s">
+      <c r="B11" s="179" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="197"/>
-      <c r="D11" s="197"/>
-      <c r="E11" s="198"/>
+      <c r="C11" s="180"/>
+      <c r="D11" s="180"/>
+      <c r="E11" s="181"/>
       <c r="F11" s="63" t="str">
         <f>お見積書!F13</f>
         <v>□請負</v>
@@ -6699,57 +6699,57 @@
       <c r="R11" s="64"/>
     </row>
     <row r="12" spans="1:18" ht="18" customHeight="1">
-      <c r="B12" s="196" t="s">
+      <c r="B12" s="179" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="197"/>
-      <c r="D12" s="197"/>
-      <c r="E12" s="198"/>
-      <c r="F12" s="199" t="str">
+      <c r="C12" s="180"/>
+      <c r="D12" s="180"/>
+      <c r="E12" s="181"/>
+      <c r="F12" s="185" t="str">
         <f>お見積書!F15</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="G12" s="194"/>
-      <c r="H12" s="194"/>
-      <c r="I12" s="194"/>
+      <c r="G12" s="186"/>
+      <c r="H12" s="186"/>
+      <c r="I12" s="186"/>
       <c r="J12" s="65"/>
       <c r="K12" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="L12" s="193" t="str">
+      <c r="L12" s="187" t="str">
         <f>お見積書!F16</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="M12" s="194"/>
-      <c r="N12" s="194"/>
-      <c r="O12" s="194"/>
-      <c r="P12" s="194"/>
-      <c r="Q12" s="194"/>
-      <c r="R12" s="195"/>
+      <c r="M12" s="186"/>
+      <c r="N12" s="186"/>
+      <c r="O12" s="186"/>
+      <c r="P12" s="186"/>
+      <c r="Q12" s="186"/>
+      <c r="R12" s="188"/>
     </row>
     <row r="13" spans="1:18" ht="18" customHeight="1">
-      <c r="B13" s="196" t="s">
+      <c r="B13" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="197"/>
-      <c r="D13" s="197"/>
-      <c r="E13" s="198"/>
-      <c r="F13" s="199" t="str">
+      <c r="C13" s="180"/>
+      <c r="D13" s="180"/>
+      <c r="E13" s="181"/>
+      <c r="F13" s="185" t="str">
         <f>お見積書!F16</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="G13" s="194"/>
-      <c r="H13" s="194"/>
-      <c r="I13" s="194"/>
-      <c r="J13" s="194"/>
-      <c r="K13" s="194"/>
-      <c r="L13" s="194"/>
-      <c r="M13" s="194"/>
-      <c r="N13" s="194"/>
-      <c r="O13" s="194"/>
-      <c r="P13" s="194"/>
-      <c r="Q13" s="194"/>
-      <c r="R13" s="195"/>
+      <c r="G13" s="186"/>
+      <c r="H13" s="186"/>
+      <c r="I13" s="186"/>
+      <c r="J13" s="186"/>
+      <c r="K13" s="186"/>
+      <c r="L13" s="186"/>
+      <c r="M13" s="186"/>
+      <c r="N13" s="186"/>
+      <c r="O13" s="186"/>
+      <c r="P13" s="186"/>
+      <c r="Q13" s="186"/>
+      <c r="R13" s="188"/>
     </row>
     <row r="14" spans="1:18" ht="18" customHeight="1"/>
     <row r="15" spans="1:18" ht="18" customHeight="1">
@@ -6758,116 +6758,116 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="18" customHeight="1">
-      <c r="B16" s="196" t="s">
+      <c r="B16" s="179" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="197"/>
-      <c r="D16" s="197"/>
-      <c r="E16" s="198"/>
-      <c r="F16" s="179" t="str">
+      <c r="C16" s="180"/>
+      <c r="D16" s="180"/>
+      <c r="E16" s="181"/>
+      <c r="F16" s="182" t="str">
         <f>記入!B24</f>
         <v>${qu.loadingjudge}</v>
       </c>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="142"/>
-      <c r="M16" s="142"/>
-      <c r="N16" s="142"/>
-      <c r="O16" s="142"/>
-      <c r="P16" s="142"/>
-      <c r="Q16" s="142"/>
-      <c r="R16" s="143"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="147"/>
+      <c r="K16" s="147"/>
+      <c r="L16" s="147"/>
+      <c r="M16" s="147"/>
+      <c r="N16" s="147"/>
+      <c r="O16" s="147"/>
+      <c r="P16" s="147"/>
+      <c r="Q16" s="147"/>
+      <c r="R16" s="148"/>
     </row>
     <row r="17" spans="1:19" ht="18" customHeight="1">
-      <c r="B17" s="196" t="s">
+      <c r="B17" s="179" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="197"/>
-      <c r="D17" s="197"/>
-      <c r="E17" s="198"/>
-      <c r="F17" s="179" t="str">
+      <c r="C17" s="180"/>
+      <c r="D17" s="180"/>
+      <c r="E17" s="181"/>
+      <c r="F17" s="182" t="str">
         <f>記入!B9</f>
         <v>${qu.deployment}</v>
       </c>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="142"/>
-      <c r="K17" s="142"/>
-      <c r="L17" s="142"/>
-      <c r="M17" s="142"/>
-      <c r="N17" s="143"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="147"/>
+      <c r="J17" s="147"/>
+      <c r="K17" s="147"/>
+      <c r="L17" s="147"/>
+      <c r="M17" s="147"/>
+      <c r="N17" s="148"/>
       <c r="O17" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="P17" s="142" t="s">
+      <c r="P17" s="147" t="s">
         <v>84</v>
       </c>
-      <c r="Q17" s="142"/>
-      <c r="R17" s="143"/>
+      <c r="Q17" s="147"/>
+      <c r="R17" s="148"/>
     </row>
     <row r="18" spans="1:19" ht="18" customHeight="1"/>
     <row r="19" spans="1:19" ht="18" customHeight="1">
-      <c r="B19" s="200" t="s">
+      <c r="B19" s="189" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="148"/>
-      <c r="D19" s="148"/>
-      <c r="E19" s="148"/>
-      <c r="F19" s="148"/>
-      <c r="G19" s="148"/>
-      <c r="H19" s="148"/>
-      <c r="I19" s="148"/>
-      <c r="J19" s="148"/>
-      <c r="K19" s="148"/>
-      <c r="L19" s="148"/>
-      <c r="M19" s="148"/>
-      <c r="N19" s="148"/>
-      <c r="O19" s="148"/>
-      <c r="P19" s="148"/>
-      <c r="Q19" s="148"/>
-      <c r="R19" s="149"/>
+      <c r="C19" s="153"/>
+      <c r="D19" s="153"/>
+      <c r="E19" s="153"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="153"/>
+      <c r="I19" s="153"/>
+      <c r="J19" s="153"/>
+      <c r="K19" s="153"/>
+      <c r="L19" s="153"/>
+      <c r="M19" s="153"/>
+      <c r="N19" s="153"/>
+      <c r="O19" s="153"/>
+      <c r="P19" s="153"/>
+      <c r="Q19" s="153"/>
+      <c r="R19" s="154"/>
     </row>
     <row r="20" spans="1:19" ht="18" customHeight="1">
-      <c r="B20" s="135"/>
-      <c r="C20" s="136"/>
-      <c r="D20" s="136"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="136"/>
-      <c r="G20" s="136"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="136"/>
-      <c r="J20" s="136"/>
-      <c r="K20" s="136"/>
-      <c r="L20" s="136"/>
-      <c r="M20" s="136"/>
-      <c r="N20" s="136"/>
-      <c r="O20" s="136"/>
-      <c r="P20" s="136"/>
-      <c r="Q20" s="136"/>
-      <c r="R20" s="137"/>
+      <c r="B20" s="167"/>
+      <c r="C20" s="168"/>
+      <c r="D20" s="168"/>
+      <c r="E20" s="168"/>
+      <c r="F20" s="168"/>
+      <c r="G20" s="168"/>
+      <c r="H20" s="168"/>
+      <c r="I20" s="168"/>
+      <c r="J20" s="168"/>
+      <c r="K20" s="168"/>
+      <c r="L20" s="168"/>
+      <c r="M20" s="168"/>
+      <c r="N20" s="168"/>
+      <c r="O20" s="168"/>
+      <c r="P20" s="168"/>
+      <c r="Q20" s="168"/>
+      <c r="R20" s="169"/>
     </row>
     <row r="21" spans="1:19" ht="18" customHeight="1">
-      <c r="B21" s="124"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="125"/>
-      <c r="J21" s="125"/>
-      <c r="K21" s="125"/>
-      <c r="L21" s="125"/>
-      <c r="M21" s="125"/>
-      <c r="N21" s="125"/>
-      <c r="O21" s="125"/>
-      <c r="P21" s="125"/>
-      <c r="Q21" s="125"/>
-      <c r="R21" s="126"/>
+      <c r="B21" s="156"/>
+      <c r="C21" s="157"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="157"/>
+      <c r="G21" s="157"/>
+      <c r="H21" s="157"/>
+      <c r="I21" s="157"/>
+      <c r="J21" s="157"/>
+      <c r="K21" s="157"/>
+      <c r="L21" s="157"/>
+      <c r="M21" s="157"/>
+      <c r="N21" s="157"/>
+      <c r="O21" s="157"/>
+      <c r="P21" s="157"/>
+      <c r="Q21" s="157"/>
+      <c r="R21" s="158"/>
     </row>
     <row r="22" spans="1:19" ht="18" customHeight="1"/>
     <row r="23" spans="1:19" ht="18" customHeight="1">
@@ -6892,189 +6892,189 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="18" customHeight="1">
-      <c r="B27" s="179" t="s">
+      <c r="B27" s="182" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="142"/>
-      <c r="D27" s="142"/>
-      <c r="E27" s="142"/>
-      <c r="F27" s="142"/>
-      <c r="G27" s="142"/>
-      <c r="H27" s="142"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="179" t="s">
+      <c r="C27" s="147"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="147"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="182" t="s">
         <v>91</v>
       </c>
-      <c r="K27" s="142"/>
-      <c r="L27" s="142"/>
-      <c r="M27" s="142"/>
-      <c r="N27" s="142"/>
-      <c r="O27" s="142"/>
-      <c r="P27" s="142"/>
-      <c r="Q27" s="142"/>
-      <c r="R27" s="143"/>
+      <c r="K27" s="147"/>
+      <c r="L27" s="147"/>
+      <c r="M27" s="147"/>
+      <c r="N27" s="147"/>
+      <c r="O27" s="147"/>
+      <c r="P27" s="147"/>
+      <c r="Q27" s="147"/>
+      <c r="R27" s="148"/>
     </row>
     <row r="28" spans="1:19" ht="18" customHeight="1">
-      <c r="B28" s="179" t="s">
+      <c r="B28" s="182" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="142"/>
-      <c r="D28" s="142"/>
-      <c r="E28" s="142"/>
-      <c r="F28" s="142"/>
-      <c r="G28" s="142"/>
-      <c r="H28" s="142"/>
-      <c r="I28" s="143"/>
-      <c r="J28" s="179" t="s">
+      <c r="C28" s="147"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="147"/>
+      <c r="G28" s="147"/>
+      <c r="H28" s="147"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="182" t="s">
         <v>93</v>
       </c>
-      <c r="K28" s="142"/>
-      <c r="L28" s="142"/>
-      <c r="M28" s="142"/>
-      <c r="N28" s="142"/>
-      <c r="O28" s="142"/>
-      <c r="P28" s="142"/>
-      <c r="Q28" s="142"/>
-      <c r="R28" s="143"/>
+      <c r="K28" s="147"/>
+      <c r="L28" s="147"/>
+      <c r="M28" s="147"/>
+      <c r="N28" s="147"/>
+      <c r="O28" s="147"/>
+      <c r="P28" s="147"/>
+      <c r="Q28" s="147"/>
+      <c r="R28" s="148"/>
       <c r="S28" s="68"/>
     </row>
     <row r="29" spans="1:19" ht="18" customHeight="1">
-      <c r="B29" s="179" t="s">
+      <c r="B29" s="182" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="142"/>
-      <c r="D29" s="142"/>
-      <c r="E29" s="142"/>
-      <c r="F29" s="142"/>
-      <c r="G29" s="142"/>
-      <c r="H29" s="142"/>
-      <c r="I29" s="143"/>
-      <c r="J29" s="179" t="s">
+      <c r="C29" s="147"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="147"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="182" t="s">
         <v>95</v>
       </c>
-      <c r="K29" s="142"/>
-      <c r="L29" s="142"/>
-      <c r="M29" s="142"/>
-      <c r="N29" s="142"/>
-      <c r="O29" s="142"/>
-      <c r="P29" s="142"/>
-      <c r="Q29" s="142"/>
-      <c r="R29" s="143"/>
+      <c r="K29" s="147"/>
+      <c r="L29" s="147"/>
+      <c r="M29" s="147"/>
+      <c r="N29" s="147"/>
+      <c r="O29" s="147"/>
+      <c r="P29" s="147"/>
+      <c r="Q29" s="147"/>
+      <c r="R29" s="148"/>
     </row>
     <row r="30" spans="1:19" ht="18" customHeight="1">
-      <c r="B30" s="179" t="s">
+      <c r="B30" s="182" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="142"/>
-      <c r="D30" s="142"/>
-      <c r="E30" s="142"/>
-      <c r="F30" s="142"/>
-      <c r="G30" s="142"/>
-      <c r="H30" s="142"/>
-      <c r="I30" s="143"/>
-      <c r="J30" s="179" t="s">
+      <c r="C30" s="147"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="147"/>
+      <c r="H30" s="147"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="182" t="s">
         <v>97</v>
       </c>
-      <c r="K30" s="142"/>
-      <c r="L30" s="142"/>
-      <c r="M30" s="142"/>
-      <c r="N30" s="142"/>
-      <c r="O30" s="142"/>
-      <c r="P30" s="142"/>
-      <c r="Q30" s="142"/>
-      <c r="R30" s="143"/>
+      <c r="K30" s="147"/>
+      <c r="L30" s="147"/>
+      <c r="M30" s="147"/>
+      <c r="N30" s="147"/>
+      <c r="O30" s="147"/>
+      <c r="P30" s="147"/>
+      <c r="Q30" s="147"/>
+      <c r="R30" s="148"/>
     </row>
     <row r="31" spans="1:19" ht="18" customHeight="1">
-      <c r="B31" s="179" t="s">
+      <c r="B31" s="182" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="142"/>
-      <c r="D31" s="142"/>
-      <c r="E31" s="142"/>
-      <c r="F31" s="142"/>
-      <c r="G31" s="142"/>
-      <c r="H31" s="142"/>
-      <c r="I31" s="143"/>
-      <c r="J31" s="179" t="s">
+      <c r="C31" s="147"/>
+      <c r="D31" s="147"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="147"/>
+      <c r="H31" s="147"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="182" t="s">
         <v>99</v>
       </c>
-      <c r="K31" s="142"/>
-      <c r="L31" s="142"/>
-      <c r="M31" s="142"/>
-      <c r="N31" s="142"/>
-      <c r="O31" s="142"/>
-      <c r="P31" s="142"/>
-      <c r="Q31" s="142"/>
-      <c r="R31" s="143"/>
+      <c r="K31" s="147"/>
+      <c r="L31" s="147"/>
+      <c r="M31" s="147"/>
+      <c r="N31" s="147"/>
+      <c r="O31" s="147"/>
+      <c r="P31" s="147"/>
+      <c r="Q31" s="147"/>
+      <c r="R31" s="148"/>
     </row>
     <row r="32" spans="1:19" ht="18" customHeight="1">
-      <c r="B32" s="179" t="s">
+      <c r="B32" s="182" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="142"/>
-      <c r="D32" s="142"/>
-      <c r="E32" s="142"/>
-      <c r="F32" s="142"/>
-      <c r="G32" s="142"/>
-      <c r="H32" s="142"/>
-      <c r="I32" s="143"/>
-      <c r="J32" s="179" t="s">
+      <c r="C32" s="147"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="147"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="182" t="s">
         <v>101</v>
       </c>
-      <c r="K32" s="142"/>
-      <c r="L32" s="142"/>
-      <c r="M32" s="142"/>
-      <c r="N32" s="142"/>
-      <c r="O32" s="142"/>
-      <c r="P32" s="142"/>
-      <c r="Q32" s="142"/>
-      <c r="R32" s="143"/>
+      <c r="K32" s="147"/>
+      <c r="L32" s="147"/>
+      <c r="M32" s="147"/>
+      <c r="N32" s="147"/>
+      <c r="O32" s="147"/>
+      <c r="P32" s="147"/>
+      <c r="Q32" s="147"/>
+      <c r="R32" s="148"/>
     </row>
     <row r="33" spans="1:20" ht="18" customHeight="1">
-      <c r="B33" s="179" t="s">
+      <c r="B33" s="182" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="142"/>
-      <c r="D33" s="142"/>
-      <c r="E33" s="142"/>
-      <c r="F33" s="142"/>
-      <c r="G33" s="142"/>
-      <c r="H33" s="142"/>
-      <c r="I33" s="143"/>
-      <c r="J33" s="179" t="s">
+      <c r="C33" s="147"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="147"/>
+      <c r="H33" s="147"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="182" t="s">
         <v>103</v>
       </c>
-      <c r="K33" s="142"/>
-      <c r="L33" s="142"/>
-      <c r="M33" s="142"/>
-      <c r="N33" s="142"/>
-      <c r="O33" s="142"/>
-      <c r="P33" s="142"/>
-      <c r="Q33" s="142"/>
-      <c r="R33" s="143"/>
+      <c r="K33" s="147"/>
+      <c r="L33" s="147"/>
+      <c r="M33" s="147"/>
+      <c r="N33" s="147"/>
+      <c r="O33" s="147"/>
+      <c r="P33" s="147"/>
+      <c r="Q33" s="147"/>
+      <c r="R33" s="148"/>
     </row>
     <row r="34" spans="1:20" ht="18" customHeight="1">
-      <c r="B34" s="179" t="s">
+      <c r="B34" s="182" t="s">
         <v>104</v>
       </c>
-      <c r="C34" s="142"/>
-      <c r="D34" s="142"/>
-      <c r="E34" s="142"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="142"/>
-      <c r="H34" s="142"/>
-      <c r="I34" s="143"/>
-      <c r="J34" s="179" t="s">
+      <c r="C34" s="147"/>
+      <c r="D34" s="147"/>
+      <c r="E34" s="147"/>
+      <c r="F34" s="147"/>
+      <c r="G34" s="147"/>
+      <c r="H34" s="147"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="182" t="s">
         <v>105</v>
       </c>
-      <c r="K34" s="142"/>
-      <c r="L34" s="142"/>
-      <c r="M34" s="142"/>
-      <c r="N34" s="142"/>
-      <c r="O34" s="142"/>
-      <c r="P34" s="142"/>
-      <c r="Q34" s="142"/>
-      <c r="R34" s="143"/>
+      <c r="K34" s="147"/>
+      <c r="L34" s="147"/>
+      <c r="M34" s="147"/>
+      <c r="N34" s="147"/>
+      <c r="O34" s="147"/>
+      <c r="P34" s="147"/>
+      <c r="Q34" s="147"/>
+      <c r="R34" s="148"/>
     </row>
     <row r="35" spans="1:20" ht="18" customHeight="1">
       <c r="B35" s="69"/>
@@ -7138,118 +7138,118 @@
       <c r="R37" s="73"/>
     </row>
     <row r="38" spans="1:20" ht="18" customHeight="1">
-      <c r="B38" s="190" t="s">
+      <c r="B38" s="176" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="191"/>
-      <c r="D38" s="191"/>
-      <c r="E38" s="191"/>
-      <c r="F38" s="191"/>
-      <c r="G38" s="191"/>
-      <c r="H38" s="204" t="str">
+      <c r="C38" s="177"/>
+      <c r="D38" s="177"/>
+      <c r="E38" s="177"/>
+      <c r="F38" s="177"/>
+      <c r="G38" s="177"/>
+      <c r="H38" s="178" t="str">
         <f>記入!D36</f>
         <v>${qu.requestnumber}</v>
       </c>
-      <c r="I38" s="204"/>
-      <c r="J38" s="191"/>
-      <c r="K38" s="191"/>
-      <c r="L38" s="191"/>
-      <c r="M38" s="191"/>
-      <c r="N38" s="191"/>
-      <c r="O38" s="191"/>
-      <c r="P38" s="191"/>
-      <c r="Q38" s="191"/>
+      <c r="I38" s="178"/>
+      <c r="J38" s="177"/>
+      <c r="K38" s="177"/>
+      <c r="L38" s="177"/>
+      <c r="M38" s="177"/>
+      <c r="N38" s="177"/>
+      <c r="O38" s="177"/>
+      <c r="P38" s="177"/>
+      <c r="Q38" s="177"/>
       <c r="R38" s="74"/>
       <c r="S38" s="75"/>
       <c r="T38" s="75"/>
     </row>
     <row r="39" spans="1:20" ht="18" customHeight="1">
-      <c r="B39" s="190" t="s">
+      <c r="B39" s="176" t="s">
         <v>133</v>
       </c>
-      <c r="C39" s="191"/>
-      <c r="D39" s="191"/>
-      <c r="E39" s="191"/>
-      <c r="F39" s="191"/>
-      <c r="G39" s="191"/>
-      <c r="H39" s="191"/>
-      <c r="I39" s="191"/>
-      <c r="J39" s="191"/>
-      <c r="K39" s="191"/>
-      <c r="L39" s="191"/>
-      <c r="M39" s="191"/>
-      <c r="N39" s="191"/>
-      <c r="O39" s="191"/>
-      <c r="P39" s="191"/>
-      <c r="Q39" s="191"/>
-      <c r="R39" s="192"/>
+      <c r="C39" s="177"/>
+      <c r="D39" s="177"/>
+      <c r="E39" s="177"/>
+      <c r="F39" s="177"/>
+      <c r="G39" s="177"/>
+      <c r="H39" s="177"/>
+      <c r="I39" s="177"/>
+      <c r="J39" s="177"/>
+      <c r="K39" s="177"/>
+      <c r="L39" s="177"/>
+      <c r="M39" s="177"/>
+      <c r="N39" s="177"/>
+      <c r="O39" s="177"/>
+      <c r="P39" s="177"/>
+      <c r="Q39" s="177"/>
+      <c r="R39" s="193"/>
       <c r="S39" s="75"/>
       <c r="T39" s="75"/>
     </row>
     <row r="40" spans="1:20" ht="18" customHeight="1">
-      <c r="B40" s="187" t="s">
+      <c r="B40" s="190" t="s">
         <v>131</v>
       </c>
-      <c r="C40" s="188"/>
-      <c r="D40" s="188"/>
-      <c r="E40" s="188"/>
-      <c r="F40" s="188"/>
-      <c r="G40" s="188"/>
-      <c r="H40" s="188"/>
-      <c r="I40" s="188"/>
-      <c r="J40" s="188"/>
-      <c r="K40" s="188"/>
-      <c r="L40" s="188"/>
-      <c r="M40" s="188"/>
-      <c r="N40" s="188"/>
-      <c r="O40" s="188"/>
-      <c r="P40" s="188"/>
-      <c r="Q40" s="188"/>
-      <c r="R40" s="189"/>
+      <c r="C40" s="191"/>
+      <c r="D40" s="191"/>
+      <c r="E40" s="191"/>
+      <c r="F40" s="191"/>
+      <c r="G40" s="191"/>
+      <c r="H40" s="191"/>
+      <c r="I40" s="191"/>
+      <c r="J40" s="191"/>
+      <c r="K40" s="191"/>
+      <c r="L40" s="191"/>
+      <c r="M40" s="191"/>
+      <c r="N40" s="191"/>
+      <c r="O40" s="191"/>
+      <c r="P40" s="191"/>
+      <c r="Q40" s="191"/>
+      <c r="R40" s="192"/>
       <c r="S40" s="76"/>
       <c r="T40" s="76"/>
     </row>
     <row r="41" spans="1:20" ht="18" customHeight="1">
-      <c r="B41" s="187" t="s">
+      <c r="B41" s="190" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="188"/>
-      <c r="D41" s="188"/>
-      <c r="E41" s="188"/>
-      <c r="F41" s="188"/>
-      <c r="G41" s="188"/>
-      <c r="H41" s="188"/>
-      <c r="I41" s="188"/>
-      <c r="J41" s="188"/>
-      <c r="K41" s="188"/>
-      <c r="L41" s="188"/>
-      <c r="M41" s="188"/>
-      <c r="N41" s="188"/>
-      <c r="O41" s="188"/>
-      <c r="P41" s="188"/>
-      <c r="Q41" s="188"/>
-      <c r="R41" s="189"/>
+      <c r="C41" s="191"/>
+      <c r="D41" s="191"/>
+      <c r="E41" s="191"/>
+      <c r="F41" s="191"/>
+      <c r="G41" s="191"/>
+      <c r="H41" s="191"/>
+      <c r="I41" s="191"/>
+      <c r="J41" s="191"/>
+      <c r="K41" s="191"/>
+      <c r="L41" s="191"/>
+      <c r="M41" s="191"/>
+      <c r="N41" s="191"/>
+      <c r="O41" s="191"/>
+      <c r="P41" s="191"/>
+      <c r="Q41" s="191"/>
+      <c r="R41" s="192"/>
       <c r="S41" s="76"/>
       <c r="T41" s="76"/>
     </row>
     <row r="42" spans="1:20" ht="18" customHeight="1">
-      <c r="B42" s="124"/>
-      <c r="C42" s="125"/>
-      <c r="D42" s="125"/>
-      <c r="E42" s="125"/>
-      <c r="F42" s="125"/>
-      <c r="G42" s="125"/>
-      <c r="H42" s="125"/>
-      <c r="I42" s="125"/>
-      <c r="J42" s="125"/>
-      <c r="K42" s="125"/>
-      <c r="L42" s="125"/>
-      <c r="M42" s="125"/>
-      <c r="N42" s="125"/>
-      <c r="O42" s="125"/>
-      <c r="P42" s="125"/>
-      <c r="Q42" s="125"/>
-      <c r="R42" s="126"/>
+      <c r="B42" s="156"/>
+      <c r="C42" s="157"/>
+      <c r="D42" s="157"/>
+      <c r="E42" s="157"/>
+      <c r="F42" s="157"/>
+      <c r="G42" s="157"/>
+      <c r="H42" s="157"/>
+      <c r="I42" s="157"/>
+      <c r="J42" s="157"/>
+      <c r="K42" s="157"/>
+      <c r="L42" s="157"/>
+      <c r="M42" s="157"/>
+      <c r="N42" s="157"/>
+      <c r="O42" s="157"/>
+      <c r="P42" s="157"/>
+      <c r="Q42" s="157"/>
+      <c r="R42" s="158"/>
     </row>
     <row r="43" spans="1:20" ht="18" customHeight="1"/>
     <row r="44" spans="1:20" ht="18" customHeight="1">
@@ -7263,69 +7263,69 @@
       </c>
     </row>
     <row r="46" spans="1:20" ht="18" customHeight="1">
-      <c r="B46" s="178" t="s">
+      <c r="B46" s="203" t="s">
         <v>110</v>
       </c>
-      <c r="C46" s="178"/>
-      <c r="D46" s="178"/>
-      <c r="E46" s="178"/>
-      <c r="F46" s="178"/>
-      <c r="G46" s="178"/>
-      <c r="H46" s="178"/>
-      <c r="I46" s="178" t="s">
+      <c r="C46" s="203"/>
+      <c r="D46" s="203"/>
+      <c r="E46" s="203"/>
+      <c r="F46" s="203"/>
+      <c r="G46" s="203"/>
+      <c r="H46" s="203"/>
+      <c r="I46" s="203" t="s">
         <v>111</v>
       </c>
-      <c r="J46" s="178"/>
-      <c r="K46" s="178"/>
-      <c r="L46" s="178"/>
-      <c r="M46" s="178"/>
-      <c r="N46" s="178"/>
-      <c r="O46" s="178"/>
-      <c r="P46" s="178"/>
-      <c r="Q46" s="178"/>
-      <c r="R46" s="178"/>
+      <c r="J46" s="203"/>
+      <c r="K46" s="203"/>
+      <c r="L46" s="203"/>
+      <c r="M46" s="203"/>
+      <c r="N46" s="203"/>
+      <c r="O46" s="203"/>
+      <c r="P46" s="203"/>
+      <c r="Q46" s="203"/>
+      <c r="R46" s="203"/>
     </row>
     <row r="47" spans="1:20" ht="18" customHeight="1">
-      <c r="B47" s="179" t="s">
+      <c r="B47" s="182" t="s">
         <v>112</v>
       </c>
-      <c r="C47" s="142"/>
-      <c r="D47" s="142"/>
-      <c r="E47" s="142"/>
-      <c r="F47" s="142"/>
-      <c r="G47" s="142"/>
-      <c r="H47" s="143"/>
-      <c r="I47" s="179" t="s">
+      <c r="C47" s="147"/>
+      <c r="D47" s="147"/>
+      <c r="E47" s="147"/>
+      <c r="F47" s="147"/>
+      <c r="G47" s="147"/>
+      <c r="H47" s="148"/>
+      <c r="I47" s="182" t="s">
         <v>113</v>
       </c>
-      <c r="J47" s="142"/>
-      <c r="K47" s="142"/>
-      <c r="L47" s="142"/>
-      <c r="M47" s="142"/>
-      <c r="N47" s="142"/>
-      <c r="O47" s="142"/>
-      <c r="P47" s="142"/>
-      <c r="Q47" s="142"/>
-      <c r="R47" s="143"/>
+      <c r="J47" s="147"/>
+      <c r="K47" s="147"/>
+      <c r="L47" s="147"/>
+      <c r="M47" s="147"/>
+      <c r="N47" s="147"/>
+      <c r="O47" s="147"/>
+      <c r="P47" s="147"/>
+      <c r="Q47" s="147"/>
+      <c r="R47" s="148"/>
     </row>
     <row r="48" spans="1:20" ht="18" customHeight="1">
-      <c r="B48" s="179"/>
-      <c r="C48" s="142"/>
-      <c r="D48" s="142"/>
-      <c r="E48" s="142"/>
-      <c r="F48" s="142"/>
-      <c r="G48" s="142"/>
-      <c r="H48" s="143"/>
-      <c r="I48" s="179"/>
-      <c r="J48" s="142"/>
-      <c r="K48" s="142"/>
-      <c r="L48" s="142"/>
-      <c r="M48" s="142"/>
-      <c r="N48" s="142"/>
-      <c r="O48" s="142"/>
-      <c r="P48" s="142"/>
-      <c r="Q48" s="142"/>
-      <c r="R48" s="143"/>
+      <c r="B48" s="182"/>
+      <c r="C48" s="147"/>
+      <c r="D48" s="147"/>
+      <c r="E48" s="147"/>
+      <c r="F48" s="147"/>
+      <c r="G48" s="147"/>
+      <c r="H48" s="148"/>
+      <c r="I48" s="182"/>
+      <c r="J48" s="147"/>
+      <c r="K48" s="147"/>
+      <c r="L48" s="147"/>
+      <c r="M48" s="147"/>
+      <c r="N48" s="147"/>
+      <c r="O48" s="147"/>
+      <c r="P48" s="147"/>
+      <c r="Q48" s="147"/>
+      <c r="R48" s="148"/>
     </row>
     <row r="49" spans="1:18" ht="18" customHeight="1"/>
     <row r="50" spans="1:18" ht="18" customHeight="1">
@@ -7335,185 +7335,185 @@
     </row>
     <row r="51" spans="1:18" ht="18" customHeight="1"/>
     <row r="52" spans="1:18" ht="18.75" customHeight="1">
-      <c r="B52" s="186"/>
-      <c r="C52" s="186"/>
-      <c r="D52" s="175" t="s">
+      <c r="B52" s="202"/>
+      <c r="C52" s="202"/>
+      <c r="D52" s="199" t="s">
         <v>115</v>
       </c>
-      <c r="E52" s="175"/>
-      <c r="F52" s="175" t="s">
+      <c r="E52" s="199"/>
+      <c r="F52" s="199" t="s">
         <v>116</v>
       </c>
-      <c r="G52" s="175"/>
-      <c r="H52" s="175" t="s">
+      <c r="G52" s="199"/>
+      <c r="H52" s="199" t="s">
         <v>117</v>
       </c>
-      <c r="I52" s="175"/>
-      <c r="J52" s="175" t="s">
+      <c r="I52" s="199"/>
+      <c r="J52" s="199" t="s">
         <v>118</v>
       </c>
-      <c r="K52" s="175"/>
-      <c r="L52" s="175" t="str">
+      <c r="K52" s="199"/>
+      <c r="L52" s="199" t="str">
         <f>お見積書!M20</f>
         <v>金額(${qu.currencyposition})</v>
       </c>
-      <c r="M52" s="175"/>
-      <c r="N52" s="180" t="str">
+      <c r="M52" s="199"/>
+      <c r="N52" s="204" t="str">
         <f>"金額総計"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>金額総計(${qu.currencyposition})</v>
       </c>
-      <c r="O52" s="181"/>
-      <c r="P52" s="181"/>
-      <c r="Q52" s="181"/>
-      <c r="R52" s="182"/>
+      <c r="O52" s="205"/>
+      <c r="P52" s="205"/>
+      <c r="Q52" s="205"/>
+      <c r="R52" s="206"/>
     </row>
     <row r="53" spans="1:18" ht="28.5" customHeight="1">
-      <c r="B53" s="175" t="str">
+      <c r="B53" s="199" t="str">
         <f>IF(記入!A29="","",記入!A29)</f>
         <v>第一回</v>
       </c>
-      <c r="C53" s="175"/>
-      <c r="D53" s="176" t="str">
+      <c r="C53" s="199"/>
+      <c r="D53" s="200" t="str">
         <f>IF(記入!B29="","",記入!B29)</f>
         <v>${num[0].deliverydate}</v>
       </c>
-      <c r="E53" s="177"/>
-      <c r="F53" s="176" t="str">
+      <c r="E53" s="201"/>
+      <c r="F53" s="200" t="str">
         <f>IF(記入!C29="","",記入!C29)</f>
         <v>${num[0].completiondate}</v>
       </c>
-      <c r="G53" s="177"/>
-      <c r="H53" s="176" t="str">
+      <c r="G53" s="201"/>
+      <c r="H53" s="200" t="str">
         <f>IF(記入!D29="","",記入!D29)</f>
         <v>${num[0].claimdate}</v>
       </c>
-      <c r="I53" s="177"/>
-      <c r="J53" s="176" t="str">
+      <c r="I53" s="201"/>
+      <c r="J53" s="200" t="str">
         <f>IF(記入!E29="","",記入!E29)</f>
         <v>${num[0].supportdate}</v>
       </c>
-      <c r="K53" s="177"/>
-      <c r="L53" s="173" t="str">
+      <c r="K53" s="201"/>
+      <c r="L53" s="197" t="str">
         <f>IF(記入!F29="","",記入!F29)</f>
         <v>${num[0].claimamount}</v>
       </c>
-      <c r="M53" s="174"/>
-      <c r="N53" s="183" t="e">
+      <c r="M53" s="198"/>
+      <c r="N53" s="194" t="e">
         <f>SUM(L53:M56)</f>
         <v>#REF!</v>
       </c>
-      <c r="O53" s="184"/>
-      <c r="P53" s="184"/>
-      <c r="Q53" s="184"/>
-      <c r="R53" s="185"/>
+      <c r="O53" s="195"/>
+      <c r="P53" s="195"/>
+      <c r="Q53" s="195"/>
+      <c r="R53" s="196"/>
     </row>
     <row r="54" spans="1:18" ht="28.5" customHeight="1">
-      <c r="B54" s="175" t="e">
+      <c r="B54" s="199" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="C54" s="175"/>
-      <c r="D54" s="176" t="e">
+      <c r="C54" s="199"/>
+      <c r="D54" s="200" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="E54" s="177"/>
-      <c r="F54" s="176" t="e">
+      <c r="E54" s="201"/>
+      <c r="F54" s="200" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G54" s="177"/>
-      <c r="H54" s="176" t="e">
+      <c r="G54" s="201"/>
+      <c r="H54" s="200" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="I54" s="177"/>
-      <c r="J54" s="176" t="e">
+      <c r="I54" s="201"/>
+      <c r="J54" s="200" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="K54" s="177"/>
-      <c r="L54" s="173"/>
-      <c r="M54" s="174"/>
-      <c r="N54" s="183"/>
-      <c r="O54" s="184"/>
-      <c r="P54" s="184"/>
-      <c r="Q54" s="184"/>
-      <c r="R54" s="185"/>
+      <c r="K54" s="201"/>
+      <c r="L54" s="197"/>
+      <c r="M54" s="198"/>
+      <c r="N54" s="194"/>
+      <c r="O54" s="195"/>
+      <c r="P54" s="195"/>
+      <c r="Q54" s="195"/>
+      <c r="R54" s="196"/>
     </row>
     <row r="55" spans="1:18" ht="28.5" customHeight="1">
-      <c r="B55" s="175" t="e">
+      <c r="B55" s="199" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="C55" s="175"/>
-      <c r="D55" s="176" t="e">
+      <c r="C55" s="199"/>
+      <c r="D55" s="200" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="E55" s="177"/>
-      <c r="F55" s="176" t="e">
+      <c r="E55" s="201"/>
+      <c r="F55" s="200" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G55" s="177"/>
-      <c r="H55" s="176" t="e">
+      <c r="G55" s="201"/>
+      <c r="H55" s="200" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="I55" s="177"/>
-      <c r="J55" s="176" t="e">
+      <c r="I55" s="201"/>
+      <c r="J55" s="200" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="K55" s="177"/>
-      <c r="L55" s="173" t="e">
+      <c r="K55" s="201"/>
+      <c r="L55" s="197" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="M55" s="174"/>
-      <c r="N55" s="183"/>
-      <c r="O55" s="184"/>
-      <c r="P55" s="184"/>
-      <c r="Q55" s="184"/>
-      <c r="R55" s="185"/>
+      <c r="M55" s="198"/>
+      <c r="N55" s="194"/>
+      <c r="O55" s="195"/>
+      <c r="P55" s="195"/>
+      <c r="Q55" s="195"/>
+      <c r="R55" s="196"/>
     </row>
     <row r="56" spans="1:18" ht="31.5" customHeight="1">
-      <c r="B56" s="175" t="e">
+      <c r="B56" s="199" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="C56" s="175"/>
-      <c r="D56" s="176" t="e">
+      <c r="C56" s="199"/>
+      <c r="D56" s="200" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="177"/>
-      <c r="F56" s="176" t="e">
+      <c r="E56" s="201"/>
+      <c r="F56" s="200" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="177"/>
-      <c r="H56" s="176" t="e">
+      <c r="G56" s="201"/>
+      <c r="H56" s="200" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="177"/>
-      <c r="J56" s="176" t="e">
+      <c r="I56" s="201"/>
+      <c r="J56" s="200" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="177"/>
-      <c r="L56" s="173" t="e">
+      <c r="K56" s="201"/>
+      <c r="L56" s="197" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="174"/>
-      <c r="N56" s="183"/>
-      <c r="O56" s="184"/>
-      <c r="P56" s="184"/>
-      <c r="Q56" s="184"/>
-      <c r="R56" s="185"/>
+      <c r="M56" s="198"/>
+      <c r="N56" s="194"/>
+      <c r="O56" s="195"/>
+      <c r="P56" s="195"/>
+      <c r="Q56" s="195"/>
+      <c r="R56" s="196"/>
     </row>
     <row r="57" spans="1:18" ht="18" customHeight="1"/>
     <row r="58" spans="1:18" ht="18" customHeight="1">
@@ -7714,6 +7714,73 @@
     <row r="69" spans="2:18" ht="10.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="83">
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="B42:R42"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="I46:R46"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="I47:R47"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="I48:R48"/>
+    <mergeCell ref="N52:R52"/>
+    <mergeCell ref="N53:R56"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="B41:R41"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="J31:R31"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="J32:R32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="J33:R33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="J34:R34"/>
+    <mergeCell ref="B39:R39"/>
+    <mergeCell ref="B40:R40"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="J28:R28"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="J29:R29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="J30:R30"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:R13"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="J27:R27"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:N17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:R1"/>
@@ -7730,73 +7797,6 @@
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="F12:I12"/>
-    <mergeCell ref="L12:R12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:R13"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="J27:R27"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:N17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="J28:R28"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="J29:R29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="J30:R30"/>
-    <mergeCell ref="B41:R41"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="J31:R31"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="J32:R32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="J33:R33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="J34:R34"/>
-    <mergeCell ref="B39:R39"/>
-    <mergeCell ref="B40:R40"/>
-    <mergeCell ref="N53:R56"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="B42:R42"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="I46:R46"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="I47:R47"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="I48:R48"/>
-    <mergeCell ref="N52:R52"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J54:K54"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -7816,7 +7816,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8364,7 +8364,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="214" t="s">
+      <c r="A5" s="210" t="s">
         <v>142</v>
       </c>
       <c r="B5" s="90" t="s">
@@ -8383,7 +8383,7 @@
       <c r="F5" s="94"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="215"/>
+      <c r="A6" s="211"/>
       <c r="B6" s="90" t="s">
         <v>144</v>
       </c>
@@ -8400,7 +8400,7 @@
       <c r="F6" s="94"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="215"/>
+      <c r="A7" s="211"/>
       <c r="B7" s="90" t="s">
         <v>145</v>
       </c>
@@ -8417,7 +8417,7 @@
       <c r="F7" s="94"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="215"/>
+      <c r="A8" s="211"/>
       <c r="B8" s="90" t="s">
         <v>146</v>
       </c>
@@ -8434,7 +8434,7 @@
       <c r="F8" s="94"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="215"/>
+      <c r="A9" s="211"/>
       <c r="B9" s="90" t="s">
         <v>147</v>
       </c>
@@ -8451,7 +8451,7 @@
       <c r="F9" s="94"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="216"/>
+      <c r="A10" s="212"/>
       <c r="B10" s="90" t="s">
         <v>149</v>
       </c>
@@ -8468,7 +8468,7 @@
       <c r="F10" s="94"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A11" s="217" t="s">
+      <c r="A11" s="213" t="s">
         <v>150</v>
       </c>
       <c r="B11" s="90" t="s">
@@ -8487,7 +8487,7 @@
       <c r="F11" s="94"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="218"/>
+      <c r="A12" s="214"/>
       <c r="B12" s="90" t="s">
         <v>144</v>
       </c>
@@ -8504,7 +8504,7 @@
       <c r="F12" s="94"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="218"/>
+      <c r="A13" s="214"/>
       <c r="B13" s="90" t="s">
         <v>145</v>
       </c>
@@ -8521,7 +8521,7 @@
       <c r="F13" s="94"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="218"/>
+      <c r="A14" s="214"/>
       <c r="B14" s="90" t="s">
         <v>146</v>
       </c>
@@ -8538,7 +8538,7 @@
       <c r="F14" s="94"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="218"/>
+      <c r="A15" s="214"/>
       <c r="B15" s="90" t="s">
         <v>147</v>
       </c>
@@ -8555,7 +8555,7 @@
       <c r="F15" s="94"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="218"/>
+      <c r="A16" s="214"/>
       <c r="B16" s="90" t="s">
         <v>148</v>
       </c>
@@ -8572,7 +8572,7 @@
       <c r="F16" s="94"/>
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A17" s="217" t="s">
+      <c r="A17" s="213" t="s">
         <v>151</v>
       </c>
       <c r="B17" s="90" t="s">
@@ -8591,7 +8591,7 @@
       <c r="F17" s="94"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="218"/>
+      <c r="A18" s="214"/>
       <c r="B18" s="90" t="s">
         <v>144</v>
       </c>
@@ -8608,7 +8608,7 @@
       <c r="F18" s="94"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="218"/>
+      <c r="A19" s="214"/>
       <c r="B19" s="90" t="s">
         <v>145</v>
       </c>
@@ -8625,7 +8625,7 @@
       <c r="F19" s="94"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="218"/>
+      <c r="A20" s="214"/>
       <c r="B20" s="90" t="s">
         <v>146</v>
       </c>
@@ -8642,7 +8642,7 @@
       <c r="F20" s="94"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="218"/>
+      <c r="A21" s="214"/>
       <c r="B21" s="90" t="s">
         <v>147</v>
       </c>
@@ -8653,13 +8653,13 @@
         <v>215</v>
       </c>
       <c r="E21" s="93" t="e">
-        <f t="shared" si="0"/>
+        <f>C21*D21</f>
         <v>#VALUE!</v>
       </c>
       <c r="F21" s="94"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="218"/>
+      <c r="A22" s="214"/>
       <c r="B22" s="90" t="s">
         <v>148</v>
       </c>
@@ -8676,11 +8676,11 @@
       <c r="F22" s="94"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="219" t="s">
+      <c r="A23" s="215" t="s">
         <v>152</v>
       </c>
-      <c r="B23" s="220"/>
-      <c r="C23" s="220"/>
+      <c r="B23" s="216"/>
+      <c r="C23" s="216"/>
       <c r="D23" s="91">
         <f>SUM(D5:D22)</f>
         <v>0</v>
@@ -8705,11 +8705,11 @@
       <c r="E25" s="95"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="213" t="s">
+      <c r="A26" s="207" t="s">
         <v>153</v>
       </c>
-      <c r="B26" s="213"/>
-      <c r="C26" s="213"/>
+      <c r="B26" s="207"/>
+      <c r="C26" s="207"/>
       <c r="D26" s="88"/>
       <c r="E26" s="96"/>
     </row>
@@ -8730,20 +8730,20 @@
       <c r="A28" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="B28" s="210"/>
-      <c r="C28" s="211"/>
+      <c r="B28" s="218"/>
+      <c r="C28" s="219"/>
       <c r="D28" s="101"/>
       <c r="E28" s="93"/>
       <c r="F28" s="102"/>
       <c r="G28" s="102"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="207" t="s">
+      <c r="A29" s="217" t="s">
         <v>152</v>
       </c>
-      <c r="B29" s="207"/>
-      <c r="C29" s="207"/>
-      <c r="D29" s="207"/>
+      <c r="B29" s="217"/>
+      <c r="C29" s="217"/>
+      <c r="D29" s="217"/>
       <c r="E29" s="103">
         <f>SUM(E28:E28)</f>
         <v>0</v>
@@ -8764,47 +8764,47 @@
       <c r="E31" s="88"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="212" t="s">
+      <c r="A32" s="220" t="s">
         <v>158</v>
       </c>
-      <c r="B32" s="212"/>
-      <c r="C32" s="212"/>
-      <c r="D32" s="212"/>
+      <c r="B32" s="220"/>
+      <c r="C32" s="220"/>
+      <c r="D32" s="220"/>
       <c r="E32" s="99" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A33" s="207" t="s">
+      <c r="A33" s="217" t="s">
         <v>160</v>
       </c>
-      <c r="B33" s="207"/>
-      <c r="C33" s="207"/>
-      <c r="D33" s="207"/>
+      <c r="B33" s="217"/>
+      <c r="C33" s="217"/>
+      <c r="D33" s="217"/>
       <c r="E33" s="103" t="e">
         <f>E23</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="207" t="s">
+      <c r="A34" s="217" t="s">
         <v>153</v>
       </c>
-      <c r="B34" s="207"/>
-      <c r="C34" s="207"/>
-      <c r="D34" s="207"/>
+      <c r="B34" s="217"/>
+      <c r="C34" s="217"/>
+      <c r="D34" s="217"/>
       <c r="E34" s="103">
         <f>E29</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="207" t="s">
+      <c r="A35" s="217" t="s">
         <v>152</v>
       </c>
-      <c r="B35" s="207"/>
-      <c r="C35" s="207"/>
-      <c r="D35" s="207"/>
+      <c r="B35" s="217"/>
+      <c r="C35" s="217"/>
+      <c r="D35" s="217"/>
       <c r="E35" s="103" t="e">
         <f>E33+E34</f>
         <v>#VALUE!</v>
@@ -8815,12 +8815,6 @@
     <protectedRange sqref="C5:C22" name="範囲3_1"/>
   </protectedRanges>
   <mergeCells count="13">
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
@@ -8828,6 +8822,12 @@
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A23:C23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/controller/src/main/resources/jxls_templates/jianjishu_shoutuo.xlsx
+++ b/controller/src/main/resources/jxls_templates/jianjishu_shoutuo.xlsx
@@ -799,13 +799,6 @@
     <phoneticPr fontId="16"/>
   </si>
   <si>
-    <t>住　所:中華人民共和国遼寧省大連市
-       高新技術産業園区軟件園東路23号15号楼401室
-会社名:パナソニックソフトウェア開発センター大連（有）
-ＴＥＬ：86-411-84768550</t>
-    <phoneticPr fontId="16"/>
-  </si>
-  <si>
     <t>件名</t>
     <rPh sb="0" eb="2">
       <t>ケンメイ</t>
@@ -1076,13 +1069,6 @@
     <rPh sb="8" eb="9">
       <t>ショ</t>
     </rPh>
-    <phoneticPr fontId="16"/>
-  </si>
-  <si>
-    <t>住　所:中華人民共和国遼寧省大連市
-       高新技術産業園区軟件園東路23号15号楼401室
-会社名:パナソニックソフトウェア開発センター大連（有）
-ＴＥＬ：86-411-84768550</t>
     <phoneticPr fontId="16"/>
   </si>
   <si>
@@ -2130,6 +2116,18 @@
   <si>
     <t>${t[17].functionsprice1}</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住　所:中国遼寧省大連市高新技術産業園区黄浦路900号30号楼
+会社名:パナソニックソフトウェア開発センター大連（有）
+ＴＥＬ：86-411-84768550</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>住　所:中国遼寧省大連市高新技術産業園区黄浦路900号30号楼
+会社名:パナソニックソフトウェア開発センター大連（有）
+ＴＥＬ：86-411-84768550</t>
+    <phoneticPr fontId="16"/>
   </si>
 </sst>
 </file>
@@ -3172,6 +3170,123 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="31" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="29" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="30" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="178" fontId="19" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -3202,121 +3317,88 @@
     <xf numFmtId="178" fontId="20" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="31" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="29" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="30" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="31" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3328,108 +3410,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3449,18 +3459,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3917,11 +3915,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
       <c r="A1" s="112" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B1" s="112"/>
       <c r="G1" s="118" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H1" s="119"/>
     </row>
@@ -3930,7 +3928,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>15</v>
@@ -3955,7 +3953,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>15</v>
@@ -3979,7 +3977,7 @@
         <v>44</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>15</v>
@@ -3992,7 +3990,7 @@
         <v>45</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>15</v>
@@ -4013,10 +4011,10 @@
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A9" s="34" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>15</v>
@@ -4029,7 +4027,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>15</v>
@@ -4042,7 +4040,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>15</v>
@@ -4055,7 +4053,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>15</v>
@@ -4079,7 +4077,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>15</v>
@@ -4092,7 +4090,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>15</v>
@@ -4138,7 +4136,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>15</v>
@@ -4151,7 +4149,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>15</v>
@@ -4194,10 +4192,10 @@
     </row>
     <row r="24" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A24" s="34" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>15</v>
@@ -4261,19 +4259,19 @@
         <v>第一回</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C29" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="E29" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="F29" s="32" t="s">
         <v>172</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="F29" s="32" t="s">
-        <v>174</v>
       </c>
       <c r="G29" s="120"/>
       <c r="H29" s="121"/>
@@ -4284,19 +4282,19 @@
         <v>第二回</v>
       </c>
       <c r="B30" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="D30" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="E30" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="F30" s="32" t="s">
         <v>177</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="F30" s="32" t="s">
-        <v>179</v>
       </c>
       <c r="G30" s="120"/>
       <c r="H30" s="121"/>
@@ -4307,19 +4305,19 @@
         <v>第三回</v>
       </c>
       <c r="B31" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="D31" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="E31" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="F31" s="32" t="s">
         <v>182</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="F31" s="32" t="s">
-        <v>184</v>
       </c>
       <c r="G31" s="120"/>
       <c r="H31" s="121"/>
@@ -4330,19 +4328,19 @@
         <v>第四回</v>
       </c>
       <c r="B32" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="D32" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="E32" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="F32" s="32" t="s">
         <v>187</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="F32" s="32" t="s">
-        <v>189</v>
       </c>
       <c r="G32" s="122"/>
       <c r="H32" s="123"/>
@@ -4358,7 +4356,7 @@
     <row r="35" spans="1:9">
       <c r="B35" s="1"/>
       <c r="D35" s="115" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E35" s="115"/>
       <c r="F35" s="115"/>
@@ -4368,7 +4366,7 @@
     <row r="36" spans="1:9">
       <c r="B36" s="1"/>
       <c r="D36" s="116" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E36" s="116"/>
       <c r="F36" s="116"/>
@@ -4377,21 +4375,21 @@
     </row>
     <row r="37" spans="1:9" ht="13.5">
       <c r="A37" s="40" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B37" s="41">
         <f ca="1">TODAY()</f>
-        <v>43916</v>
+        <v>43922</v>
       </c>
       <c r="D37" s="114" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E37" s="114"/>
       <c r="F37" s="29" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H37" s="30"/>
       <c r="I37" s="25"/>
@@ -4399,32 +4397,32 @@
     <row r="38" spans="1:9" ht="13.5">
       <c r="B38" s="1"/>
       <c r="D38" s="115" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E38" s="115"/>
       <c r="F38" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="G38" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="H38" s="29" t="s">
         <v>126</v>
-      </c>
-      <c r="G38" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="H38" s="29" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="D39" s="114" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E39" s="114"/>
       <c r="F39" s="117" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G39" s="117"/>
       <c r="H39" s="29" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="3" customFormat="1">
@@ -4630,8 +4628,8 @@
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:S2"/>
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5152,37 +5150,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="23.1" customHeight="1">
-      <c r="C1" s="126" t="s">
+      <c r="C1" s="165" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="126"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="165"/>
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="165"/>
+      <c r="T1" s="165"/>
     </row>
     <row r="2" spans="1:20" ht="23.1" customHeight="1">
-      <c r="P2" s="129" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="129" t="str">
+      <c r="P2" s="168" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="168" t="str">
         <f>記入!B12</f>
         <v>${qu.contractnumber}</v>
       </c>
-      <c r="S2" s="129"/>
+      <c r="S2" s="168"/>
     </row>
     <row r="3" spans="1:20" ht="23.1" customHeight="1">
       <c r="A3" s="44"/>
@@ -5191,17 +5189,17 @@
         <f>記入!B2</f>
         <v>${qu.trusteejapanese}</v>
       </c>
-      <c r="R3" s="132">
+      <c r="R3" s="171">
         <f ca="1">記入!B37</f>
-        <v>43916</v>
-      </c>
-      <c r="S3" s="132"/>
+        <v>43922</v>
+      </c>
+      <c r="S3" s="171"/>
     </row>
     <row r="4" spans="1:20" ht="23.1" customHeight="1">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="45" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="23.1" customHeight="1">
@@ -5218,61 +5216,61 @@
         <f>"(件名番号："&amp;記入!D36&amp;")"</f>
         <v>(件名番号：${qu.requestnumber})</v>
       </c>
-      <c r="K6" s="127" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" s="127"/>
-      <c r="M6" s="127"/>
-      <c r="N6" s="127"/>
-      <c r="O6" s="127"/>
-      <c r="P6" s="127"/>
-      <c r="Q6" s="127"/>
-      <c r="R6" s="127"/>
-      <c r="S6" s="127"/>
+      <c r="K6" s="166" t="s">
+        <v>233</v>
+      </c>
+      <c r="L6" s="166"/>
+      <c r="M6" s="166"/>
+      <c r="N6" s="166"/>
+      <c r="O6" s="166"/>
+      <c r="P6" s="166"/>
+      <c r="Q6" s="166"/>
+      <c r="R6" s="166"/>
+      <c r="S6" s="166"/>
     </row>
     <row r="7" spans="1:20" ht="23.1" customHeight="1">
-      <c r="K7" s="127"/>
-      <c r="L7" s="127"/>
-      <c r="M7" s="127"/>
-      <c r="N7" s="127"/>
-      <c r="O7" s="127"/>
-      <c r="P7" s="127"/>
-      <c r="Q7" s="127"/>
-      <c r="R7" s="127"/>
-      <c r="S7" s="127"/>
+      <c r="K7" s="166"/>
+      <c r="L7" s="166"/>
+      <c r="M7" s="166"/>
+      <c r="N7" s="166"/>
+      <c r="O7" s="166"/>
+      <c r="P7" s="166"/>
+      <c r="Q7" s="166"/>
+      <c r="R7" s="166"/>
+      <c r="S7" s="166"/>
     </row>
     <row r="8" spans="1:20" ht="23.1" customHeight="1">
       <c r="A8" s="49"/>
       <c r="B8" s="49"/>
       <c r="C8" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="127"/>
-      <c r="L8" s="127"/>
-      <c r="M8" s="127"/>
-      <c r="N8" s="127"/>
-      <c r="O8" s="127"/>
-      <c r="P8" s="127"/>
-      <c r="Q8" s="127"/>
-      <c r="R8" s="127"/>
-      <c r="S8" s="127"/>
+        <v>50</v>
+      </c>
+      <c r="K8" s="166"/>
+      <c r="L8" s="166"/>
+      <c r="M8" s="166"/>
+      <c r="N8" s="166"/>
+      <c r="O8" s="166"/>
+      <c r="P8" s="166"/>
+      <c r="Q8" s="166"/>
+      <c r="R8" s="166"/>
+      <c r="S8" s="166"/>
     </row>
     <row r="9" spans="1:20" ht="23.1" customHeight="1">
-      <c r="C9" s="128" t="str">
+      <c r="C9" s="167" t="str">
         <f>記入!B10</f>
         <v>${qu.pjjapanese}</v>
       </c>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="128"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="128"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="128"/>
-      <c r="M9" s="128"/>
-      <c r="N9" s="128"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="167"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="167"/>
+      <c r="I9" s="167"/>
+      <c r="J9" s="167"/>
+      <c r="K9" s="167"/>
+      <c r="L9" s="167"/>
+      <c r="M9" s="167"/>
+      <c r="N9" s="167"/>
     </row>
     <row r="10" spans="1:20" ht="23.1" customHeight="1">
       <c r="C10" s="50"/>
@@ -5290,27 +5288,27 @@
       <c r="A11" s="51"/>
       <c r="B11" s="51"/>
       <c r="C11" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="124" t="str">
+        <v>51</v>
+      </c>
+      <c r="E11" s="163" t="str">
         <f>記入!B19</f>
         <v>${qu.currencyposition}</v>
       </c>
-      <c r="F11" s="124"/>
-      <c r="G11" s="133">
+      <c r="F11" s="163"/>
+      <c r="G11" s="172">
         <f>M26</f>
         <v>0</v>
       </c>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="133"/>
+      <c r="H11" s="172"/>
+      <c r="I11" s="172"/>
+      <c r="J11" s="172"/>
       <c r="R11" s="52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="23.1" customHeight="1">
       <c r="C12" s="43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" s="43" t="str">
         <f>記入!F37</f>
@@ -5321,12 +5319,12 @@
         <v>□実績精算</v>
       </c>
       <c r="N12" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="23.1" customHeight="1">
       <c r="C13" s="43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F13" s="43" t="str">
         <f>記入!F38</f>
@@ -5341,19 +5339,19 @@
         <v>□保守</v>
       </c>
       <c r="N13" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="24.75" customHeight="1">
       <c r="C14" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="130" t="str">
+        <v>56</v>
+      </c>
+      <c r="F14" s="169" t="str">
         <f>記入!F39</f>
         <v>□あり(12ヵ月）</v>
       </c>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
+      <c r="G14" s="169"/>
+      <c r="H14" s="169"/>
       <c r="I14" s="53"/>
       <c r="J14" s="43" t="str">
         <f>記入!H39</f>
@@ -5362,32 +5360,32 @@
     </row>
     <row r="15" spans="1:20" ht="23.1" customHeight="1">
       <c r="C15" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="131" t="str">
+        <v>57</v>
+      </c>
+      <c r="F15" s="170" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="G15" s="131"/>
-      <c r="H15" s="131"/>
+      <c r="G15" s="170"/>
+      <c r="H15" s="170"/>
     </row>
     <row r="16" spans="1:20" ht="23.1" customHeight="1">
       <c r="C16" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="131" t="str">
+        <v>58</v>
+      </c>
+      <c r="F16" s="170" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="G16" s="131"/>
-      <c r="H16" s="131"/>
+      <c r="G16" s="170"/>
+      <c r="H16" s="170"/>
     </row>
     <row r="17" spans="1:21" ht="23.1" customHeight="1">
       <c r="C17" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="54" t="s">
         <v>60</v>
-      </c>
-      <c r="F17" s="54" t="s">
-        <v>61</v>
       </c>
       <c r="M17" s="26"/>
       <c r="O17" s="26"/>
@@ -5396,10 +5394,10 @@
     </row>
     <row r="18" spans="1:21" ht="23.1" customHeight="1">
       <c r="C18" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="54" t="s">
         <v>62</v>
-      </c>
-      <c r="F18" s="54" t="s">
-        <v>63</v>
       </c>
       <c r="M18" s="26"/>
       <c r="O18" s="26"/>
@@ -5407,287 +5405,287 @@
       <c r="R18" s="26"/>
     </row>
     <row r="19" spans="1:21" ht="23.1" customHeight="1" thickBot="1">
-      <c r="C19" s="125" t="s">
+      <c r="C19" s="164" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="164"/>
+      <c r="E19" s="164"/>
+      <c r="F19" s="164" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="125"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="125" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="125"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="125"/>
+      <c r="G19" s="164"/>
+      <c r="H19" s="164"/>
+      <c r="I19" s="164"/>
     </row>
     <row r="20" spans="1:21" ht="23.1" customHeight="1" thickBot="1">
       <c r="B20" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="134" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="134"/>
-      <c r="E20" s="134"/>
-      <c r="F20" s="134"/>
-      <c r="G20" s="134"/>
-      <c r="H20" s="134"/>
-      <c r="I20" s="134"/>
-      <c r="J20" s="134"/>
-      <c r="K20" s="134"/>
-      <c r="L20" s="135"/>
-      <c r="M20" s="136" t="str">
+      <c r="D20" s="151"/>
+      <c r="E20" s="151"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="151"/>
+      <c r="K20" s="151"/>
+      <c r="L20" s="152"/>
+      <c r="M20" s="153" t="str">
         <f>"金額"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>金額(${qu.currencyposition})</v>
       </c>
-      <c r="N20" s="136"/>
-      <c r="O20" s="136"/>
-      <c r="P20" s="136" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q20" s="136"/>
-      <c r="R20" s="136"/>
-      <c r="S20" s="137"/>
+      <c r="N20" s="153"/>
+      <c r="O20" s="153"/>
+      <c r="P20" s="153" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q20" s="153"/>
+      <c r="R20" s="153"/>
+      <c r="S20" s="154"/>
     </row>
     <row r="21" spans="1:21" ht="33" customHeight="1">
       <c r="B21" s="56">
         <v>1</v>
       </c>
-      <c r="C21" s="138" t="str">
+      <c r="C21" s="155" t="str">
         <f>記入!B10</f>
         <v>${qu.pjjapanese}</v>
       </c>
-      <c r="D21" s="139"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="139"/>
-      <c r="J21" s="139"/>
-      <c r="K21" s="139"/>
-      <c r="L21" s="140"/>
-      <c r="M21" s="141" t="str">
+      <c r="D21" s="156"/>
+      <c r="E21" s="156"/>
+      <c r="F21" s="156"/>
+      <c r="G21" s="156"/>
+      <c r="H21" s="156"/>
+      <c r="I21" s="156"/>
+      <c r="J21" s="156"/>
+      <c r="K21" s="156"/>
+      <c r="L21" s="157"/>
+      <c r="M21" s="158" t="str">
         <f>記入!B20</f>
         <v>${qu.claimamount}</v>
       </c>
-      <c r="N21" s="142"/>
-      <c r="O21" s="143"/>
-      <c r="P21" s="144"/>
-      <c r="Q21" s="144"/>
-      <c r="R21" s="144"/>
-      <c r="S21" s="145"/>
+      <c r="N21" s="159"/>
+      <c r="O21" s="160"/>
+      <c r="P21" s="161"/>
+      <c r="Q21" s="161"/>
+      <c r="R21" s="161"/>
+      <c r="S21" s="162"/>
       <c r="U21" s="57"/>
     </row>
     <row r="22" spans="1:21" ht="23.1" customHeight="1">
       <c r="B22" s="58">
         <v>2</v>
       </c>
-      <c r="C22" s="146" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22" s="146"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="146"/>
-      <c r="G22" s="146"/>
-      <c r="H22" s="147"/>
-      <c r="I22" s="147"/>
-      <c r="J22" s="147"/>
-      <c r="K22" s="147"/>
-      <c r="L22" s="148"/>
-      <c r="M22" s="149" t="s">
-        <v>69</v>
-      </c>
-      <c r="N22" s="149"/>
-      <c r="O22" s="149"/>
-      <c r="P22" s="150"/>
-      <c r="Q22" s="150"/>
-      <c r="R22" s="150"/>
-      <c r="S22" s="151"/>
+      <c r="C22" s="141" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="141"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="141"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="142"/>
+      <c r="J22" s="142"/>
+      <c r="K22" s="142"/>
+      <c r="L22" s="143"/>
+      <c r="M22" s="144" t="s">
+        <v>68</v>
+      </c>
+      <c r="N22" s="144"/>
+      <c r="O22" s="144"/>
+      <c r="P22" s="145"/>
+      <c r="Q22" s="145"/>
+      <c r="R22" s="145"/>
+      <c r="S22" s="146"/>
       <c r="U22" s="59"/>
     </row>
     <row r="23" spans="1:21" ht="23.1" customHeight="1">
       <c r="B23" s="58">
         <v>3</v>
       </c>
-      <c r="C23" s="146" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="146"/>
-      <c r="E23" s="146"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="147"/>
-      <c r="I23" s="147"/>
-      <c r="J23" s="147"/>
-      <c r="K23" s="147"/>
-      <c r="L23" s="148"/>
-      <c r="M23" s="149">
+      <c r="C23" s="141" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="141"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="142"/>
+      <c r="J23" s="142"/>
+      <c r="K23" s="142"/>
+      <c r="L23" s="143"/>
+      <c r="M23" s="144">
         <v>0</v>
       </c>
-      <c r="N23" s="149"/>
-      <c r="O23" s="149"/>
-      <c r="P23" s="150"/>
-      <c r="Q23" s="150"/>
-      <c r="R23" s="150"/>
-      <c r="S23" s="151"/>
+      <c r="N23" s="144"/>
+      <c r="O23" s="144"/>
+      <c r="P23" s="145"/>
+      <c r="Q23" s="145"/>
+      <c r="R23" s="145"/>
+      <c r="S23" s="146"/>
     </row>
     <row r="24" spans="1:21" ht="23.1" customHeight="1">
       <c r="B24" s="58">
         <v>4</v>
       </c>
-      <c r="C24" s="146"/>
-      <c r="D24" s="146"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="147"/>
-      <c r="I24" s="147"/>
-      <c r="J24" s="147"/>
-      <c r="K24" s="147"/>
-      <c r="L24" s="148"/>
-      <c r="M24" s="149">
+      <c r="C24" s="141"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="142"/>
+      <c r="I24" s="142"/>
+      <c r="J24" s="142"/>
+      <c r="K24" s="142"/>
+      <c r="L24" s="143"/>
+      <c r="M24" s="144">
         <v>0</v>
       </c>
-      <c r="N24" s="149"/>
-      <c r="O24" s="149"/>
-      <c r="P24" s="150"/>
-      <c r="Q24" s="150"/>
-      <c r="R24" s="150"/>
-      <c r="S24" s="151"/>
+      <c r="N24" s="144"/>
+      <c r="O24" s="144"/>
+      <c r="P24" s="145"/>
+      <c r="Q24" s="145"/>
+      <c r="R24" s="145"/>
+      <c r="S24" s="146"/>
     </row>
     <row r="25" spans="1:21" ht="23.1" customHeight="1">
       <c r="B25" s="60">
         <v>5</v>
       </c>
-      <c r="C25" s="152"/>
-      <c r="D25" s="152"/>
-      <c r="E25" s="152"/>
-      <c r="F25" s="152"/>
-      <c r="G25" s="152"/>
-      <c r="H25" s="153"/>
-      <c r="I25" s="153"/>
-      <c r="J25" s="153"/>
-      <c r="K25" s="153"/>
-      <c r="L25" s="154"/>
-      <c r="M25" s="155">
+      <c r="C25" s="147"/>
+      <c r="D25" s="147"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="150">
         <v>0</v>
       </c>
-      <c r="N25" s="155"/>
-      <c r="O25" s="155"/>
-      <c r="P25" s="150"/>
-      <c r="Q25" s="150"/>
-      <c r="R25" s="150"/>
-      <c r="S25" s="151"/>
+      <c r="N25" s="150"/>
+      <c r="O25" s="150"/>
+      <c r="P25" s="145"/>
+      <c r="Q25" s="145"/>
+      <c r="R25" s="145"/>
+      <c r="S25" s="146"/>
     </row>
     <row r="26" spans="1:21" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B26" s="159" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="160"/>
-      <c r="D26" s="160"/>
-      <c r="E26" s="160"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="160"/>
-      <c r="H26" s="160"/>
-      <c r="I26" s="160"/>
-      <c r="J26" s="160"/>
-      <c r="K26" s="160"/>
-      <c r="L26" s="161"/>
-      <c r="M26" s="162">
+      <c r="B26" s="127" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="128"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="128"/>
+      <c r="J26" s="128"/>
+      <c r="K26" s="128"/>
+      <c r="L26" s="129"/>
+      <c r="M26" s="130">
         <f>SUM(M21:O25)</f>
         <v>0</v>
       </c>
-      <c r="N26" s="163"/>
-      <c r="O26" s="164"/>
-      <c r="P26" s="165"/>
-      <c r="Q26" s="165"/>
-      <c r="R26" s="165"/>
-      <c r="S26" s="166"/>
+      <c r="N26" s="131"/>
+      <c r="O26" s="132"/>
+      <c r="P26" s="133"/>
+      <c r="Q26" s="133"/>
+      <c r="R26" s="133"/>
+      <c r="S26" s="134"/>
     </row>
     <row r="27" spans="1:21" ht="23.1" customHeight="1">
-      <c r="C27" s="167" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="168"/>
-      <c r="E27" s="168"/>
-      <c r="F27" s="168"/>
-      <c r="G27" s="168"/>
-      <c r="H27" s="168"/>
-      <c r="I27" s="168"/>
-      <c r="J27" s="168"/>
-      <c r="K27" s="168"/>
-      <c r="L27" s="168"/>
-      <c r="M27" s="168"/>
-      <c r="N27" s="168"/>
-      <c r="O27" s="168"/>
-      <c r="P27" s="168"/>
-      <c r="Q27" s="168"/>
-      <c r="R27" s="168"/>
-      <c r="S27" s="169"/>
+      <c r="C27" s="135" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="136"/>
+      <c r="E27" s="136"/>
+      <c r="F27" s="136"/>
+      <c r="G27" s="136"/>
+      <c r="H27" s="136"/>
+      <c r="I27" s="136"/>
+      <c r="J27" s="136"/>
+      <c r="K27" s="136"/>
+      <c r="L27" s="136"/>
+      <c r="M27" s="136"/>
+      <c r="N27" s="136"/>
+      <c r="O27" s="136"/>
+      <c r="P27" s="136"/>
+      <c r="Q27" s="136"/>
+      <c r="R27" s="136"/>
+      <c r="S27" s="137"/>
     </row>
     <row r="28" spans="1:21" ht="18" customHeight="1">
       <c r="A28" s="61"/>
       <c r="B28" s="61"/>
-      <c r="C28" s="170" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="171"/>
-      <c r="E28" s="171"/>
-      <c r="F28" s="171"/>
-      <c r="G28" s="171"/>
-      <c r="H28" s="171"/>
-      <c r="I28" s="171"/>
-      <c r="J28" s="171"/>
-      <c r="K28" s="171"/>
-      <c r="L28" s="171"/>
-      <c r="M28" s="171"/>
-      <c r="N28" s="171"/>
-      <c r="O28" s="171"/>
-      <c r="P28" s="171"/>
-      <c r="Q28" s="171"/>
-      <c r="R28" s="171"/>
-      <c r="S28" s="172"/>
+      <c r="C28" s="138" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="139"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="139"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="139"/>
+      <c r="I28" s="139"/>
+      <c r="J28" s="139"/>
+      <c r="K28" s="139"/>
+      <c r="L28" s="139"/>
+      <c r="M28" s="139"/>
+      <c r="N28" s="139"/>
+      <c r="O28" s="139"/>
+      <c r="P28" s="139"/>
+      <c r="Q28" s="139"/>
+      <c r="R28" s="139"/>
+      <c r="S28" s="140"/>
     </row>
     <row r="29" spans="1:21" ht="18" customHeight="1">
       <c r="A29" s="61"/>
       <c r="B29" s="61"/>
-      <c r="C29" s="167"/>
-      <c r="D29" s="168"/>
-      <c r="E29" s="168"/>
-      <c r="F29" s="168"/>
-      <c r="G29" s="168"/>
-      <c r="H29" s="168"/>
-      <c r="I29" s="168"/>
-      <c r="J29" s="168"/>
-      <c r="K29" s="168"/>
-      <c r="L29" s="168"/>
-      <c r="M29" s="168"/>
-      <c r="N29" s="168"/>
-      <c r="O29" s="168"/>
-      <c r="P29" s="168"/>
-      <c r="Q29" s="168"/>
-      <c r="R29" s="168"/>
-      <c r="S29" s="169"/>
+      <c r="C29" s="135"/>
+      <c r="D29" s="136"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="136"/>
+      <c r="I29" s="136"/>
+      <c r="J29" s="136"/>
+      <c r="K29" s="136"/>
+      <c r="L29" s="136"/>
+      <c r="M29" s="136"/>
+      <c r="N29" s="136"/>
+      <c r="O29" s="136"/>
+      <c r="P29" s="136"/>
+      <c r="Q29" s="136"/>
+      <c r="R29" s="136"/>
+      <c r="S29" s="137"/>
     </row>
     <row r="30" spans="1:21" ht="18" customHeight="1">
       <c r="A30" s="61"/>
       <c r="B30" s="61"/>
-      <c r="C30" s="156"/>
-      <c r="D30" s="157"/>
-      <c r="E30" s="157"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="157"/>
-      <c r="H30" s="157"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="157"/>
-      <c r="K30" s="157"/>
-      <c r="L30" s="157"/>
-      <c r="M30" s="157"/>
-      <c r="N30" s="157"/>
-      <c r="O30" s="157"/>
-      <c r="P30" s="157"/>
-      <c r="Q30" s="157"/>
-      <c r="R30" s="157"/>
-      <c r="S30" s="158"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="125"/>
+      <c r="H30" s="125"/>
+      <c r="I30" s="125"/>
+      <c r="J30" s="125"/>
+      <c r="K30" s="125"/>
+      <c r="L30" s="125"/>
+      <c r="M30" s="125"/>
+      <c r="N30" s="125"/>
+      <c r="O30" s="125"/>
+      <c r="P30" s="125"/>
+      <c r="Q30" s="125"/>
+      <c r="R30" s="125"/>
+      <c r="S30" s="126"/>
     </row>
     <row r="31" spans="1:21" ht="21.95" customHeight="1"/>
     <row r="32" spans="1:21" ht="21.95" customHeight="1"/>
@@ -5703,31 +5701,6 @@
     <row r="42" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="C30:S30"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="C27:S27"/>
-    <mergeCell ref="C28:S28"/>
-    <mergeCell ref="C29:S29"/>
-    <mergeCell ref="C24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="C25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="P25:S25"/>
-    <mergeCell ref="C22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="C23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="C20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="C21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:S21"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="F19:I19"/>
@@ -5741,6 +5714,31 @@
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="G11:J11"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="C21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="C22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="C23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="C24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="C25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="P25:S25"/>
+    <mergeCell ref="C30:S30"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="C27:S27"/>
+    <mergeCell ref="C28:S28"/>
+    <mergeCell ref="C29:S29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -5761,7 +5759,7 @@
   <dimension ref="A1:T69"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17:N17"/>
+      <selection activeCell="I6" sqref="I6:Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6538,143 +6536,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1">
-      <c r="N1" s="129" t="s">
-        <v>122</v>
-      </c>
-      <c r="O1" s="129"/>
-      <c r="P1" s="175" t="str">
+      <c r="N1" s="168" t="s">
+        <v>120</v>
+      </c>
+      <c r="O1" s="168"/>
+      <c r="P1" s="203" t="str">
         <f>お見積書!R2</f>
         <v>${qu.contractnumber}</v>
       </c>
-      <c r="Q1" s="175"/>
-      <c r="R1" s="175"/>
+      <c r="Q1" s="203"/>
+      <c r="R1" s="203"/>
     </row>
     <row r="2" spans="1:18" ht="18" customHeight="1">
-      <c r="O2" s="173">
+      <c r="O2" s="201">
         <f ca="1">お見積書!R3</f>
-        <v>43916</v>
-      </c>
-      <c r="P2" s="174"/>
-      <c r="Q2" s="174"/>
-      <c r="R2" s="174"/>
+        <v>43922</v>
+      </c>
+      <c r="P2" s="202"/>
+      <c r="Q2" s="202"/>
+      <c r="R2" s="202"/>
     </row>
     <row r="3" spans="1:18" ht="18" customHeight="1">
-      <c r="A3" s="183" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="184"/>
-      <c r="C3" s="184"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="184"/>
-      <c r="F3" s="184"/>
-      <c r="G3" s="184"/>
-      <c r="H3" s="184"/>
-      <c r="I3" s="184"/>
-      <c r="J3" s="184"/>
-      <c r="K3" s="184"/>
-      <c r="L3" s="184"/>
-      <c r="M3" s="184"/>
-      <c r="N3" s="184"/>
-      <c r="O3" s="184"/>
-      <c r="P3" s="184"/>
-      <c r="Q3" s="184"/>
-      <c r="R3" s="184"/>
+      <c r="A3" s="205" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="206"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="206"/>
+      <c r="K3" s="206"/>
+      <c r="L3" s="206"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="206"/>
+      <c r="O3" s="206"/>
+      <c r="P3" s="206"/>
+      <c r="Q3" s="206"/>
+      <c r="R3" s="206"/>
     </row>
     <row r="4" spans="1:18" ht="18" customHeight="1">
-      <c r="A4" s="175" t="str">
+      <c r="A4" s="203" t="str">
         <f>お見積書!C5</f>
         <v>ご照会の件につき下記の通りお見積り申し上げます。</v>
       </c>
-      <c r="B4" s="175"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
-      <c r="H4" s="175"/>
-      <c r="I4" s="175"/>
-      <c r="J4" s="175"/>
-      <c r="K4" s="175"/>
-      <c r="L4" s="175"/>
-      <c r="M4" s="175"/>
-      <c r="N4" s="175"/>
-      <c r="O4" s="175"/>
-      <c r="P4" s="175"/>
-      <c r="Q4" s="175"/>
-      <c r="R4" s="175"/>
+      <c r="B4" s="203"/>
+      <c r="C4" s="203"/>
+      <c r="D4" s="203"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="203"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="203"/>
+      <c r="J4" s="203"/>
+      <c r="K4" s="203"/>
+      <c r="L4" s="203"/>
+      <c r="M4" s="203"/>
+      <c r="N4" s="203"/>
+      <c r="O4" s="203"/>
+      <c r="P4" s="203"/>
+      <c r="Q4" s="203"/>
+      <c r="R4" s="203"/>
     </row>
     <row r="5" spans="1:18" ht="18" customHeight="1"/>
     <row r="6" spans="1:18" ht="18" customHeight="1">
-      <c r="I6" s="130" t="s">
-        <v>75</v>
-      </c>
-      <c r="J6" s="130"/>
-      <c r="K6" s="130"/>
-      <c r="L6" s="130"/>
-      <c r="M6" s="130"/>
-      <c r="N6" s="130"/>
-      <c r="O6" s="130"/>
-      <c r="P6" s="130"/>
-      <c r="Q6" s="130"/>
+      <c r="I6" s="169" t="s">
+        <v>232</v>
+      </c>
+      <c r="J6" s="169"/>
+      <c r="K6" s="169"/>
+      <c r="L6" s="169"/>
+      <c r="M6" s="169"/>
+      <c r="N6" s="169"/>
+      <c r="O6" s="169"/>
+      <c r="P6" s="169"/>
+      <c r="Q6" s="169"/>
     </row>
     <row r="7" spans="1:18" ht="18" customHeight="1">
-      <c r="I7" s="130"/>
-      <c r="J7" s="130"/>
-      <c r="K7" s="130"/>
-      <c r="L7" s="130"/>
-      <c r="M7" s="130"/>
-      <c r="N7" s="130"/>
-      <c r="O7" s="130"/>
-      <c r="P7" s="130"/>
-      <c r="Q7" s="130"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="169"/>
+      <c r="K7" s="169"/>
+      <c r="L7" s="169"/>
+      <c r="M7" s="169"/>
+      <c r="N7" s="169"/>
+      <c r="O7" s="169"/>
+      <c r="P7" s="169"/>
+      <c r="Q7" s="169"/>
     </row>
     <row r="8" spans="1:18" ht="18" customHeight="1">
-      <c r="I8" s="130"/>
-      <c r="J8" s="130"/>
-      <c r="K8" s="130"/>
-      <c r="L8" s="130"/>
-      <c r="M8" s="130"/>
-      <c r="N8" s="130"/>
-      <c r="O8" s="130"/>
-      <c r="P8" s="130"/>
-      <c r="Q8" s="130"/>
+      <c r="I8" s="169"/>
+      <c r="J8" s="169"/>
+      <c r="K8" s="169"/>
+      <c r="L8" s="169"/>
+      <c r="M8" s="169"/>
+      <c r="N8" s="169"/>
+      <c r="O8" s="169"/>
+      <c r="P8" s="169"/>
+      <c r="Q8" s="169"/>
     </row>
     <row r="9" spans="1:18" ht="18" customHeight="1">
       <c r="A9" s="62" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="18" customHeight="1">
-      <c r="B10" s="179" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="180"/>
-      <c r="D10" s="180"/>
-      <c r="E10" s="181"/>
-      <c r="F10" s="182" t="str">
+      <c r="B10" s="196" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="197"/>
+      <c r="D10" s="197"/>
+      <c r="E10" s="198"/>
+      <c r="F10" s="179" t="str">
         <f>お見積書!C9</f>
         <v>${qu.pjjapanese}</v>
       </c>
-      <c r="G10" s="147"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="147"/>
-      <c r="K10" s="147"/>
-      <c r="L10" s="147"/>
-      <c r="M10" s="147"/>
-      <c r="N10" s="147"/>
-      <c r="O10" s="147"/>
-      <c r="P10" s="147"/>
-      <c r="Q10" s="147"/>
-      <c r="R10" s="148"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="142"/>
+      <c r="J10" s="142"/>
+      <c r="K10" s="142"/>
+      <c r="L10" s="142"/>
+      <c r="M10" s="142"/>
+      <c r="N10" s="142"/>
+      <c r="O10" s="142"/>
+      <c r="P10" s="142"/>
+      <c r="Q10" s="142"/>
+      <c r="R10" s="143"/>
     </row>
     <row r="11" spans="1:18" ht="18" customHeight="1">
-      <c r="B11" s="179" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="180"/>
-      <c r="D11" s="180"/>
-      <c r="E11" s="181"/>
+      <c r="B11" s="196" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="197"/>
+      <c r="D11" s="197"/>
+      <c r="E11" s="198"/>
       <c r="F11" s="63" t="str">
         <f>お見積書!F13</f>
         <v>□請負</v>
@@ -6699,382 +6697,382 @@
       <c r="R11" s="64"/>
     </row>
     <row r="12" spans="1:18" ht="18" customHeight="1">
-      <c r="B12" s="179" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="180"/>
-      <c r="D12" s="180"/>
-      <c r="E12" s="181"/>
-      <c r="F12" s="185" t="str">
+      <c r="B12" s="196" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="197"/>
+      <c r="D12" s="197"/>
+      <c r="E12" s="198"/>
+      <c r="F12" s="199" t="str">
         <f>お見積書!F15</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="G12" s="186"/>
-      <c r="H12" s="186"/>
-      <c r="I12" s="186"/>
+      <c r="G12" s="194"/>
+      <c r="H12" s="194"/>
+      <c r="I12" s="194"/>
       <c r="J12" s="65"/>
       <c r="K12" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="L12" s="187" t="str">
+        <v>77</v>
+      </c>
+      <c r="L12" s="193" t="str">
         <f>お見積書!F16</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="M12" s="186"/>
-      <c r="N12" s="186"/>
-      <c r="O12" s="186"/>
-      <c r="P12" s="186"/>
-      <c r="Q12" s="186"/>
-      <c r="R12" s="188"/>
+      <c r="M12" s="194"/>
+      <c r="N12" s="194"/>
+      <c r="O12" s="194"/>
+      <c r="P12" s="194"/>
+      <c r="Q12" s="194"/>
+      <c r="R12" s="195"/>
     </row>
     <row r="13" spans="1:18" ht="18" customHeight="1">
-      <c r="B13" s="179" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="180"/>
-      <c r="D13" s="180"/>
-      <c r="E13" s="181"/>
-      <c r="F13" s="185" t="str">
+      <c r="B13" s="196" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="197"/>
+      <c r="D13" s="197"/>
+      <c r="E13" s="198"/>
+      <c r="F13" s="199" t="str">
         <f>お見積書!F16</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="G13" s="186"/>
-      <c r="H13" s="186"/>
-      <c r="I13" s="186"/>
-      <c r="J13" s="186"/>
-      <c r="K13" s="186"/>
-      <c r="L13" s="186"/>
-      <c r="M13" s="186"/>
-      <c r="N13" s="186"/>
-      <c r="O13" s="186"/>
-      <c r="P13" s="186"/>
-      <c r="Q13" s="186"/>
-      <c r="R13" s="188"/>
+      <c r="G13" s="194"/>
+      <c r="H13" s="194"/>
+      <c r="I13" s="194"/>
+      <c r="J13" s="194"/>
+      <c r="K13" s="194"/>
+      <c r="L13" s="194"/>
+      <c r="M13" s="194"/>
+      <c r="N13" s="194"/>
+      <c r="O13" s="194"/>
+      <c r="P13" s="194"/>
+      <c r="Q13" s="194"/>
+      <c r="R13" s="195"/>
     </row>
     <row r="14" spans="1:18" ht="18" customHeight="1"/>
     <row r="15" spans="1:18" ht="18" customHeight="1">
       <c r="A15" s="62" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="18" customHeight="1">
-      <c r="B16" s="179" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="180"/>
-      <c r="D16" s="180"/>
-      <c r="E16" s="181"/>
-      <c r="F16" s="182" t="str">
+      <c r="B16" s="196" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="197"/>
+      <c r="D16" s="197"/>
+      <c r="E16" s="198"/>
+      <c r="F16" s="179" t="str">
         <f>記入!B24</f>
         <v>${qu.loadingjudge}</v>
       </c>
-      <c r="G16" s="147"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="147"/>
-      <c r="K16" s="147"/>
-      <c r="L16" s="147"/>
-      <c r="M16" s="147"/>
-      <c r="N16" s="147"/>
-      <c r="O16" s="147"/>
-      <c r="P16" s="147"/>
-      <c r="Q16" s="147"/>
-      <c r="R16" s="148"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
+      <c r="M16" s="142"/>
+      <c r="N16" s="142"/>
+      <c r="O16" s="142"/>
+      <c r="P16" s="142"/>
+      <c r="Q16" s="142"/>
+      <c r="R16" s="143"/>
     </row>
     <row r="17" spans="1:19" ht="18" customHeight="1">
-      <c r="B17" s="179" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="180"/>
-      <c r="D17" s="180"/>
-      <c r="E17" s="181"/>
-      <c r="F17" s="182" t="str">
+      <c r="B17" s="196" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="197"/>
+      <c r="D17" s="197"/>
+      <c r="E17" s="198"/>
+      <c r="F17" s="179" t="str">
         <f>記入!B9</f>
         <v>${qu.deployment}</v>
       </c>
-      <c r="G17" s="147"/>
-      <c r="H17" s="147"/>
-      <c r="I17" s="147"/>
-      <c r="J17" s="147"/>
-      <c r="K17" s="147"/>
-      <c r="L17" s="147"/>
-      <c r="M17" s="147"/>
-      <c r="N17" s="148"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="142"/>
+      <c r="J17" s="142"/>
+      <c r="K17" s="142"/>
+      <c r="L17" s="142"/>
+      <c r="M17" s="142"/>
+      <c r="N17" s="143"/>
       <c r="O17" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="P17" s="147" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q17" s="147"/>
-      <c r="R17" s="148"/>
+        <v>81</v>
+      </c>
+      <c r="P17" s="142" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q17" s="142"/>
+      <c r="R17" s="143"/>
     </row>
     <row r="18" spans="1:19" ht="18" customHeight="1"/>
     <row r="19" spans="1:19" ht="18" customHeight="1">
-      <c r="B19" s="189" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="153"/>
-      <c r="D19" s="153"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="153"/>
-      <c r="I19" s="153"/>
-      <c r="J19" s="153"/>
-      <c r="K19" s="153"/>
-      <c r="L19" s="153"/>
-      <c r="M19" s="153"/>
-      <c r="N19" s="153"/>
-      <c r="O19" s="153"/>
-      <c r="P19" s="153"/>
-      <c r="Q19" s="153"/>
-      <c r="R19" s="154"/>
+      <c r="B19" s="200" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="148"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="148"/>
+      <c r="F19" s="148"/>
+      <c r="G19" s="148"/>
+      <c r="H19" s="148"/>
+      <c r="I19" s="148"/>
+      <c r="J19" s="148"/>
+      <c r="K19" s="148"/>
+      <c r="L19" s="148"/>
+      <c r="M19" s="148"/>
+      <c r="N19" s="148"/>
+      <c r="O19" s="148"/>
+      <c r="P19" s="148"/>
+      <c r="Q19" s="148"/>
+      <c r="R19" s="149"/>
     </row>
     <row r="20" spans="1:19" ht="18" customHeight="1">
-      <c r="B20" s="167"/>
-      <c r="C20" s="168"/>
-      <c r="D20" s="168"/>
-      <c r="E20" s="168"/>
-      <c r="F20" s="168"/>
-      <c r="G20" s="168"/>
-      <c r="H20" s="168"/>
-      <c r="I20" s="168"/>
-      <c r="J20" s="168"/>
-      <c r="K20" s="168"/>
-      <c r="L20" s="168"/>
-      <c r="M20" s="168"/>
-      <c r="N20" s="168"/>
-      <c r="O20" s="168"/>
-      <c r="P20" s="168"/>
-      <c r="Q20" s="168"/>
-      <c r="R20" s="169"/>
+      <c r="B20" s="135"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="136"/>
+      <c r="I20" s="136"/>
+      <c r="J20" s="136"/>
+      <c r="K20" s="136"/>
+      <c r="L20" s="136"/>
+      <c r="M20" s="136"/>
+      <c r="N20" s="136"/>
+      <c r="O20" s="136"/>
+      <c r="P20" s="136"/>
+      <c r="Q20" s="136"/>
+      <c r="R20" s="137"/>
     </row>
     <row r="21" spans="1:19" ht="18" customHeight="1">
-      <c r="B21" s="156"/>
-      <c r="C21" s="157"/>
-      <c r="D21" s="157"/>
-      <c r="E21" s="157"/>
-      <c r="F21" s="157"/>
-      <c r="G21" s="157"/>
-      <c r="H21" s="157"/>
-      <c r="I21" s="157"/>
-      <c r="J21" s="157"/>
-      <c r="K21" s="157"/>
-      <c r="L21" s="157"/>
-      <c r="M21" s="157"/>
-      <c r="N21" s="157"/>
-      <c r="O21" s="157"/>
-      <c r="P21" s="157"/>
-      <c r="Q21" s="157"/>
-      <c r="R21" s="158"/>
+      <c r="B21" s="124"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="125"/>
+      <c r="I21" s="125"/>
+      <c r="J21" s="125"/>
+      <c r="K21" s="125"/>
+      <c r="L21" s="125"/>
+      <c r="M21" s="125"/>
+      <c r="N21" s="125"/>
+      <c r="O21" s="125"/>
+      <c r="P21" s="125"/>
+      <c r="Q21" s="125"/>
+      <c r="R21" s="126"/>
     </row>
     <row r="22" spans="1:19" ht="18" customHeight="1"/>
     <row r="23" spans="1:19" ht="18" customHeight="1">
       <c r="A23" s="62" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="18" customHeight="1">
       <c r="A24" s="62"/>
       <c r="B24" s="43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="18" customHeight="1">
       <c r="C25" s="43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="18" customHeight="1">
       <c r="B26" s="43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="18" customHeight="1">
+      <c r="B27" s="179" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="142"/>
+      <c r="D27" s="142"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="142"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="179" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" ht="18" customHeight="1">
-      <c r="B27" s="182" t="s">
+      <c r="K27" s="142"/>
+      <c r="L27" s="142"/>
+      <c r="M27" s="142"/>
+      <c r="N27" s="142"/>
+      <c r="O27" s="142"/>
+      <c r="P27" s="142"/>
+      <c r="Q27" s="142"/>
+      <c r="R27" s="143"/>
+    </row>
+    <row r="28" spans="1:19" ht="18" customHeight="1">
+      <c r="B28" s="179" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="147"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="147"/>
-      <c r="I27" s="148"/>
-      <c r="J27" s="182" t="s">
+      <c r="C28" s="142"/>
+      <c r="D28" s="142"/>
+      <c r="E28" s="142"/>
+      <c r="F28" s="142"/>
+      <c r="G28" s="142"/>
+      <c r="H28" s="142"/>
+      <c r="I28" s="143"/>
+      <c r="J28" s="179" t="s">
         <v>91</v>
       </c>
-      <c r="K27" s="147"/>
-      <c r="L27" s="147"/>
-      <c r="M27" s="147"/>
-      <c r="N27" s="147"/>
-      <c r="O27" s="147"/>
-      <c r="P27" s="147"/>
-      <c r="Q27" s="147"/>
-      <c r="R27" s="148"/>
-    </row>
-    <row r="28" spans="1:19" ht="18" customHeight="1">
-      <c r="B28" s="182" t="s">
+      <c r="K28" s="142"/>
+      <c r="L28" s="142"/>
+      <c r="M28" s="142"/>
+      <c r="N28" s="142"/>
+      <c r="O28" s="142"/>
+      <c r="P28" s="142"/>
+      <c r="Q28" s="142"/>
+      <c r="R28" s="143"/>
+      <c r="S28" s="68"/>
+    </row>
+    <row r="29" spans="1:19" ht="18" customHeight="1">
+      <c r="B29" s="179" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="147"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="147"/>
-      <c r="G28" s="147"/>
-      <c r="H28" s="147"/>
-      <c r="I28" s="148"/>
-      <c r="J28" s="182" t="s">
+      <c r="C29" s="142"/>
+      <c r="D29" s="142"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="142"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="142"/>
+      <c r="I29" s="143"/>
+      <c r="J29" s="179" t="s">
         <v>93</v>
       </c>
-      <c r="K28" s="147"/>
-      <c r="L28" s="147"/>
-      <c r="M28" s="147"/>
-      <c r="N28" s="147"/>
-      <c r="O28" s="147"/>
-      <c r="P28" s="147"/>
-      <c r="Q28" s="147"/>
-      <c r="R28" s="148"/>
-      <c r="S28" s="68"/>
-    </row>
-    <row r="29" spans="1:19" ht="18" customHeight="1">
-      <c r="B29" s="182" t="s">
+      <c r="K29" s="142"/>
+      <c r="L29" s="142"/>
+      <c r="M29" s="142"/>
+      <c r="N29" s="142"/>
+      <c r="O29" s="142"/>
+      <c r="P29" s="142"/>
+      <c r="Q29" s="142"/>
+      <c r="R29" s="143"/>
+    </row>
+    <row r="30" spans="1:19" ht="18" customHeight="1">
+      <c r="B30" s="179" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="147"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="147"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="148"/>
-      <c r="J29" s="182" t="s">
+      <c r="C30" s="142"/>
+      <c r="D30" s="142"/>
+      <c r="E30" s="142"/>
+      <c r="F30" s="142"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="142"/>
+      <c r="I30" s="143"/>
+      <c r="J30" s="179" t="s">
         <v>95</v>
       </c>
-      <c r="K29" s="147"/>
-      <c r="L29" s="147"/>
-      <c r="M29" s="147"/>
-      <c r="N29" s="147"/>
-      <c r="O29" s="147"/>
-      <c r="P29" s="147"/>
-      <c r="Q29" s="147"/>
-      <c r="R29" s="148"/>
-    </row>
-    <row r="30" spans="1:19" ht="18" customHeight="1">
-      <c r="B30" s="182" t="s">
+      <c r="K30" s="142"/>
+      <c r="L30" s="142"/>
+      <c r="M30" s="142"/>
+      <c r="N30" s="142"/>
+      <c r="O30" s="142"/>
+      <c r="P30" s="142"/>
+      <c r="Q30" s="142"/>
+      <c r="R30" s="143"/>
+    </row>
+    <row r="31" spans="1:19" ht="18" customHeight="1">
+      <c r="B31" s="179" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="147"/>
-      <c r="D30" s="147"/>
-      <c r="E30" s="147"/>
-      <c r="F30" s="147"/>
-      <c r="G30" s="147"/>
-      <c r="H30" s="147"/>
-      <c r="I30" s="148"/>
-      <c r="J30" s="182" t="s">
+      <c r="C31" s="142"/>
+      <c r="D31" s="142"/>
+      <c r="E31" s="142"/>
+      <c r="F31" s="142"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="142"/>
+      <c r="I31" s="143"/>
+      <c r="J31" s="179" t="s">
         <v>97</v>
       </c>
-      <c r="K30" s="147"/>
-      <c r="L30" s="147"/>
-      <c r="M30" s="147"/>
-      <c r="N30" s="147"/>
-      <c r="O30" s="147"/>
-      <c r="P30" s="147"/>
-      <c r="Q30" s="147"/>
-      <c r="R30" s="148"/>
-    </row>
-    <row r="31" spans="1:19" ht="18" customHeight="1">
-      <c r="B31" s="182" t="s">
+      <c r="K31" s="142"/>
+      <c r="L31" s="142"/>
+      <c r="M31" s="142"/>
+      <c r="N31" s="142"/>
+      <c r="O31" s="142"/>
+      <c r="P31" s="142"/>
+      <c r="Q31" s="142"/>
+      <c r="R31" s="143"/>
+    </row>
+    <row r="32" spans="1:19" ht="18" customHeight="1">
+      <c r="B32" s="179" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="147"/>
-      <c r="D31" s="147"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="147"/>
-      <c r="G31" s="147"/>
-      <c r="H31" s="147"/>
-      <c r="I31" s="148"/>
-      <c r="J31" s="182" t="s">
+      <c r="C32" s="142"/>
+      <c r="D32" s="142"/>
+      <c r="E32" s="142"/>
+      <c r="F32" s="142"/>
+      <c r="G32" s="142"/>
+      <c r="H32" s="142"/>
+      <c r="I32" s="143"/>
+      <c r="J32" s="179" t="s">
         <v>99</v>
       </c>
-      <c r="K31" s="147"/>
-      <c r="L31" s="147"/>
-      <c r="M31" s="147"/>
-      <c r="N31" s="147"/>
-      <c r="O31" s="147"/>
-      <c r="P31" s="147"/>
-      <c r="Q31" s="147"/>
-      <c r="R31" s="148"/>
-    </row>
-    <row r="32" spans="1:19" ht="18" customHeight="1">
-      <c r="B32" s="182" t="s">
+      <c r="K32" s="142"/>
+      <c r="L32" s="142"/>
+      <c r="M32" s="142"/>
+      <c r="N32" s="142"/>
+      <c r="O32" s="142"/>
+      <c r="P32" s="142"/>
+      <c r="Q32" s="142"/>
+      <c r="R32" s="143"/>
+    </row>
+    <row r="33" spans="1:20" ht="18" customHeight="1">
+      <c r="B33" s="179" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="147"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="147"/>
-      <c r="I32" s="148"/>
-      <c r="J32" s="182" t="s">
+      <c r="C33" s="142"/>
+      <c r="D33" s="142"/>
+      <c r="E33" s="142"/>
+      <c r="F33" s="142"/>
+      <c r="G33" s="142"/>
+      <c r="H33" s="142"/>
+      <c r="I33" s="143"/>
+      <c r="J33" s="179" t="s">
         <v>101</v>
       </c>
-      <c r="K32" s="147"/>
-      <c r="L32" s="147"/>
-      <c r="M32" s="147"/>
-      <c r="N32" s="147"/>
-      <c r="O32" s="147"/>
-      <c r="P32" s="147"/>
-      <c r="Q32" s="147"/>
-      <c r="R32" s="148"/>
-    </row>
-    <row r="33" spans="1:20" ht="18" customHeight="1">
-      <c r="B33" s="182" t="s">
+      <c r="K33" s="142"/>
+      <c r="L33" s="142"/>
+      <c r="M33" s="142"/>
+      <c r="N33" s="142"/>
+      <c r="O33" s="142"/>
+      <c r="P33" s="142"/>
+      <c r="Q33" s="142"/>
+      <c r="R33" s="143"/>
+    </row>
+    <row r="34" spans="1:20" ht="18" customHeight="1">
+      <c r="B34" s="179" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="147"/>
-      <c r="D33" s="147"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="147"/>
-      <c r="G33" s="147"/>
-      <c r="H33" s="147"/>
-      <c r="I33" s="148"/>
-      <c r="J33" s="182" t="s">
+      <c r="C34" s="142"/>
+      <c r="D34" s="142"/>
+      <c r="E34" s="142"/>
+      <c r="F34" s="142"/>
+      <c r="G34" s="142"/>
+      <c r="H34" s="142"/>
+      <c r="I34" s="143"/>
+      <c r="J34" s="179" t="s">
         <v>103</v>
       </c>
-      <c r="K33" s="147"/>
-      <c r="L33" s="147"/>
-      <c r="M33" s="147"/>
-      <c r="N33" s="147"/>
-      <c r="O33" s="147"/>
-      <c r="P33" s="147"/>
-      <c r="Q33" s="147"/>
-      <c r="R33" s="148"/>
-    </row>
-    <row r="34" spans="1:20" ht="18" customHeight="1">
-      <c r="B34" s="182" t="s">
-        <v>104</v>
-      </c>
-      <c r="C34" s="147"/>
-      <c r="D34" s="147"/>
-      <c r="E34" s="147"/>
-      <c r="F34" s="147"/>
-      <c r="G34" s="147"/>
-      <c r="H34" s="147"/>
-      <c r="I34" s="148"/>
-      <c r="J34" s="182" t="s">
-        <v>105</v>
-      </c>
-      <c r="K34" s="147"/>
-      <c r="L34" s="147"/>
-      <c r="M34" s="147"/>
-      <c r="N34" s="147"/>
-      <c r="O34" s="147"/>
-      <c r="P34" s="147"/>
-      <c r="Q34" s="147"/>
-      <c r="R34" s="148"/>
+      <c r="K34" s="142"/>
+      <c r="L34" s="142"/>
+      <c r="M34" s="142"/>
+      <c r="N34" s="142"/>
+      <c r="O34" s="142"/>
+      <c r="P34" s="142"/>
+      <c r="Q34" s="142"/>
+      <c r="R34" s="143"/>
     </row>
     <row r="35" spans="1:20" ht="18" customHeight="1">
       <c r="B35" s="69"/>
@@ -7097,7 +7095,7 @@
     </row>
     <row r="36" spans="1:20" ht="18" customHeight="1">
       <c r="B36" s="70" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C36" s="70"/>
       <c r="D36" s="70"/>
@@ -7118,7 +7116,7 @@
     </row>
     <row r="37" spans="1:20" ht="18" customHeight="1">
       <c r="B37" s="71" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C37" s="72"/>
       <c r="D37" s="72"/>
@@ -7138,387 +7136,387 @@
       <c r="R37" s="73"/>
     </row>
     <row r="38" spans="1:20" ht="18" customHeight="1">
-      <c r="B38" s="176" t="s">
-        <v>123</v>
-      </c>
-      <c r="C38" s="177"/>
-      <c r="D38" s="177"/>
-      <c r="E38" s="177"/>
-      <c r="F38" s="177"/>
-      <c r="G38" s="177"/>
-      <c r="H38" s="178" t="str">
+      <c r="B38" s="190" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="191"/>
+      <c r="D38" s="191"/>
+      <c r="E38" s="191"/>
+      <c r="F38" s="191"/>
+      <c r="G38" s="191"/>
+      <c r="H38" s="204" t="str">
         <f>記入!D36</f>
         <v>${qu.requestnumber}</v>
       </c>
-      <c r="I38" s="178"/>
-      <c r="J38" s="177"/>
-      <c r="K38" s="177"/>
-      <c r="L38" s="177"/>
-      <c r="M38" s="177"/>
-      <c r="N38" s="177"/>
-      <c r="O38" s="177"/>
-      <c r="P38" s="177"/>
-      <c r="Q38" s="177"/>
+      <c r="I38" s="204"/>
+      <c r="J38" s="191"/>
+      <c r="K38" s="191"/>
+      <c r="L38" s="191"/>
+      <c r="M38" s="191"/>
+      <c r="N38" s="191"/>
+      <c r="O38" s="191"/>
+      <c r="P38" s="191"/>
+      <c r="Q38" s="191"/>
       <c r="R38" s="74"/>
       <c r="S38" s="75"/>
       <c r="T38" s="75"/>
     </row>
     <row r="39" spans="1:20" ht="18" customHeight="1">
-      <c r="B39" s="176" t="s">
-        <v>133</v>
-      </c>
-      <c r="C39" s="177"/>
-      <c r="D39" s="177"/>
-      <c r="E39" s="177"/>
-      <c r="F39" s="177"/>
-      <c r="G39" s="177"/>
-      <c r="H39" s="177"/>
-      <c r="I39" s="177"/>
-      <c r="J39" s="177"/>
-      <c r="K39" s="177"/>
-      <c r="L39" s="177"/>
-      <c r="M39" s="177"/>
-      <c r="N39" s="177"/>
-      <c r="O39" s="177"/>
-      <c r="P39" s="177"/>
-      <c r="Q39" s="177"/>
-      <c r="R39" s="193"/>
+      <c r="B39" s="190" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" s="191"/>
+      <c r="D39" s="191"/>
+      <c r="E39" s="191"/>
+      <c r="F39" s="191"/>
+      <c r="G39" s="191"/>
+      <c r="H39" s="191"/>
+      <c r="I39" s="191"/>
+      <c r="J39" s="191"/>
+      <c r="K39" s="191"/>
+      <c r="L39" s="191"/>
+      <c r="M39" s="191"/>
+      <c r="N39" s="191"/>
+      <c r="O39" s="191"/>
+      <c r="P39" s="191"/>
+      <c r="Q39" s="191"/>
+      <c r="R39" s="192"/>
       <c r="S39" s="75"/>
       <c r="T39" s="75"/>
     </row>
     <row r="40" spans="1:20" ht="18" customHeight="1">
-      <c r="B40" s="190" t="s">
-        <v>131</v>
-      </c>
-      <c r="C40" s="191"/>
-      <c r="D40" s="191"/>
-      <c r="E40" s="191"/>
-      <c r="F40" s="191"/>
-      <c r="G40" s="191"/>
-      <c r="H40" s="191"/>
-      <c r="I40" s="191"/>
-      <c r="J40" s="191"/>
-      <c r="K40" s="191"/>
-      <c r="L40" s="191"/>
-      <c r="M40" s="191"/>
-      <c r="N40" s="191"/>
-      <c r="O40" s="191"/>
-      <c r="P40" s="191"/>
-      <c r="Q40" s="191"/>
-      <c r="R40" s="192"/>
+      <c r="B40" s="187" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="188"/>
+      <c r="D40" s="188"/>
+      <c r="E40" s="188"/>
+      <c r="F40" s="188"/>
+      <c r="G40" s="188"/>
+      <c r="H40" s="188"/>
+      <c r="I40" s="188"/>
+      <c r="J40" s="188"/>
+      <c r="K40" s="188"/>
+      <c r="L40" s="188"/>
+      <c r="M40" s="188"/>
+      <c r="N40" s="188"/>
+      <c r="O40" s="188"/>
+      <c r="P40" s="188"/>
+      <c r="Q40" s="188"/>
+      <c r="R40" s="189"/>
       <c r="S40" s="76"/>
       <c r="T40" s="76"/>
     </row>
     <row r="41" spans="1:20" ht="18" customHeight="1">
-      <c r="B41" s="190" t="s">
-        <v>132</v>
-      </c>
-      <c r="C41" s="191"/>
-      <c r="D41" s="191"/>
-      <c r="E41" s="191"/>
-      <c r="F41" s="191"/>
-      <c r="G41" s="191"/>
-      <c r="H41" s="191"/>
-      <c r="I41" s="191"/>
-      <c r="J41" s="191"/>
-      <c r="K41" s="191"/>
-      <c r="L41" s="191"/>
-      <c r="M41" s="191"/>
-      <c r="N41" s="191"/>
-      <c r="O41" s="191"/>
-      <c r="P41" s="191"/>
-      <c r="Q41" s="191"/>
-      <c r="R41" s="192"/>
+      <c r="B41" s="187" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="188"/>
+      <c r="D41" s="188"/>
+      <c r="E41" s="188"/>
+      <c r="F41" s="188"/>
+      <c r="G41" s="188"/>
+      <c r="H41" s="188"/>
+      <c r="I41" s="188"/>
+      <c r="J41" s="188"/>
+      <c r="K41" s="188"/>
+      <c r="L41" s="188"/>
+      <c r="M41" s="188"/>
+      <c r="N41" s="188"/>
+      <c r="O41" s="188"/>
+      <c r="P41" s="188"/>
+      <c r="Q41" s="188"/>
+      <c r="R41" s="189"/>
       <c r="S41" s="76"/>
       <c r="T41" s="76"/>
     </row>
     <row r="42" spans="1:20" ht="18" customHeight="1">
-      <c r="B42" s="156"/>
-      <c r="C42" s="157"/>
-      <c r="D42" s="157"/>
-      <c r="E42" s="157"/>
-      <c r="F42" s="157"/>
-      <c r="G42" s="157"/>
-      <c r="H42" s="157"/>
-      <c r="I42" s="157"/>
-      <c r="J42" s="157"/>
-      <c r="K42" s="157"/>
-      <c r="L42" s="157"/>
-      <c r="M42" s="157"/>
-      <c r="N42" s="157"/>
-      <c r="O42" s="157"/>
-      <c r="P42" s="157"/>
-      <c r="Q42" s="157"/>
-      <c r="R42" s="158"/>
+      <c r="B42" s="124"/>
+      <c r="C42" s="125"/>
+      <c r="D42" s="125"/>
+      <c r="E42" s="125"/>
+      <c r="F42" s="125"/>
+      <c r="G42" s="125"/>
+      <c r="H42" s="125"/>
+      <c r="I42" s="125"/>
+      <c r="J42" s="125"/>
+      <c r="K42" s="125"/>
+      <c r="L42" s="125"/>
+      <c r="M42" s="125"/>
+      <c r="N42" s="125"/>
+      <c r="O42" s="125"/>
+      <c r="P42" s="125"/>
+      <c r="Q42" s="125"/>
+      <c r="R42" s="126"/>
     </row>
     <row r="43" spans="1:20" ht="18" customHeight="1"/>
     <row r="44" spans="1:20" ht="18" customHeight="1">
       <c r="A44" s="62" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="18" customHeight="1">
       <c r="B45" s="43" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="18" customHeight="1">
+      <c r="B46" s="178" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" s="178"/>
+      <c r="D46" s="178"/>
+      <c r="E46" s="178"/>
+      <c r="F46" s="178"/>
+      <c r="G46" s="178"/>
+      <c r="H46" s="178"/>
+      <c r="I46" s="178" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" ht="18" customHeight="1">
-      <c r="B46" s="203" t="s">
+      <c r="J46" s="178"/>
+      <c r="K46" s="178"/>
+      <c r="L46" s="178"/>
+      <c r="M46" s="178"/>
+      <c r="N46" s="178"/>
+      <c r="O46" s="178"/>
+      <c r="P46" s="178"/>
+      <c r="Q46" s="178"/>
+      <c r="R46" s="178"/>
+    </row>
+    <row r="47" spans="1:20" ht="18" customHeight="1">
+      <c r="B47" s="179" t="s">
         <v>110</v>
       </c>
-      <c r="C46" s="203"/>
-      <c r="D46" s="203"/>
-      <c r="E46" s="203"/>
-      <c r="F46" s="203"/>
-      <c r="G46" s="203"/>
-      <c r="H46" s="203"/>
-      <c r="I46" s="203" t="s">
+      <c r="C47" s="142"/>
+      <c r="D47" s="142"/>
+      <c r="E47" s="142"/>
+      <c r="F47" s="142"/>
+      <c r="G47" s="142"/>
+      <c r="H47" s="143"/>
+      <c r="I47" s="179" t="s">
         <v>111</v>
       </c>
-      <c r="J46" s="203"/>
-      <c r="K46" s="203"/>
-      <c r="L46" s="203"/>
-      <c r="M46" s="203"/>
-      <c r="N46" s="203"/>
-      <c r="O46" s="203"/>
-      <c r="P46" s="203"/>
-      <c r="Q46" s="203"/>
-      <c r="R46" s="203"/>
-    </row>
-    <row r="47" spans="1:20" ht="18" customHeight="1">
-      <c r="B47" s="182" t="s">
-        <v>112</v>
-      </c>
-      <c r="C47" s="147"/>
-      <c r="D47" s="147"/>
-      <c r="E47" s="147"/>
-      <c r="F47" s="147"/>
-      <c r="G47" s="147"/>
-      <c r="H47" s="148"/>
-      <c r="I47" s="182" t="s">
-        <v>113</v>
-      </c>
-      <c r="J47" s="147"/>
-      <c r="K47" s="147"/>
-      <c r="L47" s="147"/>
-      <c r="M47" s="147"/>
-      <c r="N47" s="147"/>
-      <c r="O47" s="147"/>
-      <c r="P47" s="147"/>
-      <c r="Q47" s="147"/>
-      <c r="R47" s="148"/>
+      <c r="J47" s="142"/>
+      <c r="K47" s="142"/>
+      <c r="L47" s="142"/>
+      <c r="M47" s="142"/>
+      <c r="N47" s="142"/>
+      <c r="O47" s="142"/>
+      <c r="P47" s="142"/>
+      <c r="Q47" s="142"/>
+      <c r="R47" s="143"/>
     </row>
     <row r="48" spans="1:20" ht="18" customHeight="1">
-      <c r="B48" s="182"/>
-      <c r="C48" s="147"/>
-      <c r="D48" s="147"/>
-      <c r="E48" s="147"/>
-      <c r="F48" s="147"/>
-      <c r="G48" s="147"/>
-      <c r="H48" s="148"/>
-      <c r="I48" s="182"/>
-      <c r="J48" s="147"/>
-      <c r="K48" s="147"/>
-      <c r="L48" s="147"/>
-      <c r="M48" s="147"/>
-      <c r="N48" s="147"/>
-      <c r="O48" s="147"/>
-      <c r="P48" s="147"/>
-      <c r="Q48" s="147"/>
-      <c r="R48" s="148"/>
+      <c r="B48" s="179"/>
+      <c r="C48" s="142"/>
+      <c r="D48" s="142"/>
+      <c r="E48" s="142"/>
+      <c r="F48" s="142"/>
+      <c r="G48" s="142"/>
+      <c r="H48" s="143"/>
+      <c r="I48" s="179"/>
+      <c r="J48" s="142"/>
+      <c r="K48" s="142"/>
+      <c r="L48" s="142"/>
+      <c r="M48" s="142"/>
+      <c r="N48" s="142"/>
+      <c r="O48" s="142"/>
+      <c r="P48" s="142"/>
+      <c r="Q48" s="142"/>
+      <c r="R48" s="143"/>
     </row>
     <row r="49" spans="1:18" ht="18" customHeight="1"/>
     <row r="50" spans="1:18" ht="18" customHeight="1">
       <c r="A50" s="62" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="18" customHeight="1"/>
     <row r="52" spans="1:18" ht="18.75" customHeight="1">
-      <c r="B52" s="202"/>
-      <c r="C52" s="202"/>
-      <c r="D52" s="199" t="s">
+      <c r="B52" s="186"/>
+      <c r="C52" s="186"/>
+      <c r="D52" s="175" t="s">
+        <v>113</v>
+      </c>
+      <c r="E52" s="175"/>
+      <c r="F52" s="175" t="s">
+        <v>114</v>
+      </c>
+      <c r="G52" s="175"/>
+      <c r="H52" s="175" t="s">
         <v>115</v>
       </c>
-      <c r="E52" s="199"/>
-      <c r="F52" s="199" t="s">
+      <c r="I52" s="175"/>
+      <c r="J52" s="175" t="s">
         <v>116</v>
       </c>
-      <c r="G52" s="199"/>
-      <c r="H52" s="199" t="s">
-        <v>117</v>
-      </c>
-      <c r="I52" s="199"/>
-      <c r="J52" s="199" t="s">
-        <v>118</v>
-      </c>
-      <c r="K52" s="199"/>
-      <c r="L52" s="199" t="str">
+      <c r="K52" s="175"/>
+      <c r="L52" s="175" t="str">
         <f>お見積書!M20</f>
         <v>金額(${qu.currencyposition})</v>
       </c>
-      <c r="M52" s="199"/>
-      <c r="N52" s="204" t="str">
+      <c r="M52" s="175"/>
+      <c r="N52" s="180" t="str">
         <f>"金額総計"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>金額総計(${qu.currencyposition})</v>
       </c>
-      <c r="O52" s="205"/>
-      <c r="P52" s="205"/>
-      <c r="Q52" s="205"/>
-      <c r="R52" s="206"/>
+      <c r="O52" s="181"/>
+      <c r="P52" s="181"/>
+      <c r="Q52" s="181"/>
+      <c r="R52" s="182"/>
     </row>
     <row r="53" spans="1:18" ht="28.5" customHeight="1">
-      <c r="B53" s="199" t="str">
+      <c r="B53" s="175" t="str">
         <f>IF(記入!A29="","",記入!A29)</f>
         <v>第一回</v>
       </c>
-      <c r="C53" s="199"/>
-      <c r="D53" s="200" t="str">
+      <c r="C53" s="175"/>
+      <c r="D53" s="176" t="str">
         <f>IF(記入!B29="","",記入!B29)</f>
         <v>${num[0].deliverydate}</v>
       </c>
-      <c r="E53" s="201"/>
-      <c r="F53" s="200" t="str">
+      <c r="E53" s="177"/>
+      <c r="F53" s="176" t="str">
         <f>IF(記入!C29="","",記入!C29)</f>
         <v>${num[0].completiondate}</v>
       </c>
-      <c r="G53" s="201"/>
-      <c r="H53" s="200" t="str">
+      <c r="G53" s="177"/>
+      <c r="H53" s="176" t="str">
         <f>IF(記入!D29="","",記入!D29)</f>
         <v>${num[0].claimdate}</v>
       </c>
-      <c r="I53" s="201"/>
-      <c r="J53" s="200" t="str">
+      <c r="I53" s="177"/>
+      <c r="J53" s="176" t="str">
         <f>IF(記入!E29="","",記入!E29)</f>
         <v>${num[0].supportdate}</v>
       </c>
-      <c r="K53" s="201"/>
-      <c r="L53" s="197" t="str">
+      <c r="K53" s="177"/>
+      <c r="L53" s="173" t="str">
         <f>IF(記入!F29="","",記入!F29)</f>
         <v>${num[0].claimamount}</v>
       </c>
-      <c r="M53" s="198"/>
-      <c r="N53" s="194" t="e">
+      <c r="M53" s="174"/>
+      <c r="N53" s="183" t="e">
         <f>SUM(L53:M56)</f>
         <v>#REF!</v>
       </c>
-      <c r="O53" s="195"/>
-      <c r="P53" s="195"/>
-      <c r="Q53" s="195"/>
-      <c r="R53" s="196"/>
+      <c r="O53" s="184"/>
+      <c r="P53" s="184"/>
+      <c r="Q53" s="184"/>
+      <c r="R53" s="185"/>
     </row>
     <row r="54" spans="1:18" ht="28.5" customHeight="1">
-      <c r="B54" s="199" t="e">
+      <c r="B54" s="175" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="C54" s="199"/>
-      <c r="D54" s="200" t="e">
+      <c r="C54" s="175"/>
+      <c r="D54" s="176" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="E54" s="201"/>
-      <c r="F54" s="200" t="e">
+      <c r="E54" s="177"/>
+      <c r="F54" s="176" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G54" s="201"/>
-      <c r="H54" s="200" t="e">
+      <c r="G54" s="177"/>
+      <c r="H54" s="176" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="I54" s="201"/>
-      <c r="J54" s="200" t="e">
+      <c r="I54" s="177"/>
+      <c r="J54" s="176" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="K54" s="201"/>
-      <c r="L54" s="197"/>
-      <c r="M54" s="198"/>
-      <c r="N54" s="194"/>
-      <c r="O54" s="195"/>
-      <c r="P54" s="195"/>
-      <c r="Q54" s="195"/>
-      <c r="R54" s="196"/>
+      <c r="K54" s="177"/>
+      <c r="L54" s="173"/>
+      <c r="M54" s="174"/>
+      <c r="N54" s="183"/>
+      <c r="O54" s="184"/>
+      <c r="P54" s="184"/>
+      <c r="Q54" s="184"/>
+      <c r="R54" s="185"/>
     </row>
     <row r="55" spans="1:18" ht="28.5" customHeight="1">
-      <c r="B55" s="199" t="e">
+      <c r="B55" s="175" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="C55" s="199"/>
-      <c r="D55" s="200" t="e">
+      <c r="C55" s="175"/>
+      <c r="D55" s="176" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="E55" s="201"/>
-      <c r="F55" s="200" t="e">
+      <c r="E55" s="177"/>
+      <c r="F55" s="176" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G55" s="201"/>
-      <c r="H55" s="200" t="e">
+      <c r="G55" s="177"/>
+      <c r="H55" s="176" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="I55" s="201"/>
-      <c r="J55" s="200" t="e">
+      <c r="I55" s="177"/>
+      <c r="J55" s="176" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="K55" s="201"/>
-      <c r="L55" s="197" t="e">
+      <c r="K55" s="177"/>
+      <c r="L55" s="173" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="M55" s="198"/>
-      <c r="N55" s="194"/>
-      <c r="O55" s="195"/>
-      <c r="P55" s="195"/>
-      <c r="Q55" s="195"/>
-      <c r="R55" s="196"/>
+      <c r="M55" s="174"/>
+      <c r="N55" s="183"/>
+      <c r="O55" s="184"/>
+      <c r="P55" s="184"/>
+      <c r="Q55" s="184"/>
+      <c r="R55" s="185"/>
     </row>
     <row r="56" spans="1:18" ht="31.5" customHeight="1">
-      <c r="B56" s="199" t="e">
+      <c r="B56" s="175" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="C56" s="199"/>
-      <c r="D56" s="200" t="e">
+      <c r="C56" s="175"/>
+      <c r="D56" s="176" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="201"/>
-      <c r="F56" s="200" t="e">
+      <c r="E56" s="177"/>
+      <c r="F56" s="176" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="201"/>
-      <c r="H56" s="200" t="e">
+      <c r="G56" s="177"/>
+      <c r="H56" s="176" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="201"/>
-      <c r="J56" s="200" t="e">
+      <c r="I56" s="177"/>
+      <c r="J56" s="176" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="201"/>
-      <c r="L56" s="197" t="e">
+      <c r="K56" s="177"/>
+      <c r="L56" s="173" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="198"/>
-      <c r="N56" s="194"/>
-      <c r="O56" s="195"/>
-      <c r="P56" s="195"/>
-      <c r="Q56" s="195"/>
-      <c r="R56" s="196"/>
+      <c r="M56" s="174"/>
+      <c r="N56" s="183"/>
+      <c r="O56" s="184"/>
+      <c r="P56" s="184"/>
+      <c r="Q56" s="184"/>
+      <c r="R56" s="185"/>
     </row>
     <row r="57" spans="1:18" ht="18" customHeight="1"/>
     <row r="58" spans="1:18" ht="18" customHeight="1">
       <c r="A58" s="62" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:18" ht="18" customHeight="1">
@@ -7714,29 +7712,50 @@
     <row r="69" spans="2:18" ht="10.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="B42:R42"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="I46:R46"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="I47:R47"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="I48:R48"/>
-    <mergeCell ref="N52:R52"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:Q38"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:R16"/>
+    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="I6:Q8"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:R10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:R13"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="J27:R27"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:N17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="J28:R28"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="J29:R29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="J30:R30"/>
+    <mergeCell ref="B41:R41"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="J31:R31"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="J32:R32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="J33:R33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="J34:R34"/>
+    <mergeCell ref="B39:R39"/>
+    <mergeCell ref="B40:R40"/>
     <mergeCell ref="N53:R56"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="B56:C56"/>
@@ -7753,50 +7772,29 @@
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="F54:G54"/>
     <mergeCell ref="H54:I54"/>
-    <mergeCell ref="B41:R41"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="J31:R31"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="J32:R32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="J33:R33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="J34:R34"/>
-    <mergeCell ref="B39:R39"/>
-    <mergeCell ref="B40:R40"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="J28:R28"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="J29:R29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="J30:R30"/>
-    <mergeCell ref="L12:R12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:R13"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="J27:R27"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:N17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:Q38"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:R16"/>
-    <mergeCell ref="A3:R3"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="I6:Q8"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:R10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="B42:R42"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="I46:R46"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="I47:R47"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="I48:R48"/>
+    <mergeCell ref="N52:R52"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J54:K54"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -7815,8 +7813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8341,7 +8339,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="88" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B3" s="88"/>
       <c r="C3" s="88"/>
@@ -8350,48 +8348,48 @@
     </row>
     <row r="4" spans="1:6" ht="28.5">
       <c r="A4" s="208" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" s="209"/>
       <c r="C4" s="89" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="89" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="89" t="s">
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="214" t="s">
         <v>140</v>
       </c>
-      <c r="E4" s="89" t="s">
+      <c r="B5" s="90" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="210" t="s">
+      <c r="C5" s="105" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="92" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" s="93" t="e">
+        <f t="shared" ref="E5:E20" si="0">C5*D5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F5" s="94"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="215"/>
+      <c r="B6" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="90" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" s="105" t="s">
-        <v>198</v>
-      </c>
-      <c r="D5" s="92" t="s">
-        <v>200</v>
-      </c>
-      <c r="E5" s="93" t="e">
-        <f t="shared" ref="E5:E21" si="0">C5*D5</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F5" s="94"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="211"/>
-      <c r="B6" s="90" t="s">
-        <v>144</v>
-      </c>
       <c r="C6" s="105" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D6" s="92" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E6" s="93" t="e">
         <f t="shared" si="0"/>
@@ -8400,15 +8398,15 @@
       <c r="F6" s="94"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="211"/>
+      <c r="A7" s="215"/>
       <c r="B7" s="90" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C7" s="105" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D7" s="92" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E7" s="93" t="e">
         <f t="shared" si="0"/>
@@ -8417,15 +8415,15 @@
       <c r="F7" s="94"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="211"/>
+      <c r="A8" s="215"/>
       <c r="B8" s="90" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C8" s="105" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D8" s="92" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E8" s="93" t="e">
         <f t="shared" si="0"/>
@@ -8434,15 +8432,15 @@
       <c r="F8" s="94"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="211"/>
+      <c r="A9" s="215"/>
       <c r="B9" s="90" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C9" s="105" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D9" s="92" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E9" s="93" t="e">
         <f t="shared" si="0"/>
@@ -8451,15 +8449,15 @@
       <c r="F9" s="94"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="212"/>
+      <c r="A10" s="216"/>
       <c r="B10" s="90" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C10" s="105" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D10" s="92" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E10" s="93" t="e">
         <f t="shared" si="0"/>
@@ -8468,17 +8466,17 @@
       <c r="F10" s="94"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A11" s="213" t="s">
-        <v>150</v>
+      <c r="A11" s="217" t="s">
+        <v>148</v>
       </c>
       <c r="B11" s="90" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C11" s="105" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D11" s="92" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E11" s="93" t="e">
         <f t="shared" si="0"/>
@@ -8487,15 +8485,15 @@
       <c r="F11" s="94"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="214"/>
+      <c r="A12" s="218"/>
       <c r="B12" s="90" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C12" s="105" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D12" s="92" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E12" s="93" t="e">
         <f t="shared" si="0"/>
@@ -8504,15 +8502,15 @@
       <c r="F12" s="94"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="214"/>
+      <c r="A13" s="218"/>
       <c r="B13" s="90" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C13" s="105" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D13" s="92" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E13" s="93" t="e">
         <f t="shared" si="0"/>
@@ -8521,15 +8519,15 @@
       <c r="F13" s="94"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="214"/>
+      <c r="A14" s="218"/>
       <c r="B14" s="90" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C14" s="105" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D14" s="92" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E14" s="93" t="e">
         <f t="shared" si="0"/>
@@ -8538,15 +8536,15 @@
       <c r="F14" s="94"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="214"/>
+      <c r="A15" s="218"/>
       <c r="B15" s="90" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C15" s="105" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D15" s="92" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E15" s="93" t="e">
         <f t="shared" si="0"/>
@@ -8555,15 +8553,15 @@
       <c r="F15" s="94"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="214"/>
+      <c r="A16" s="218"/>
       <c r="B16" s="90" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C16" s="105" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D16" s="92" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E16" s="93" t="e">
         <f t="shared" si="0"/>
@@ -8572,17 +8570,17 @@
       <c r="F16" s="94"/>
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A17" s="213" t="s">
-        <v>151</v>
+      <c r="A17" s="217" t="s">
+        <v>149</v>
       </c>
       <c r="B17" s="90" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C17" s="105" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D17" s="92" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E17" s="93" t="e">
         <f t="shared" si="0"/>
@@ -8591,15 +8589,15 @@
       <c r="F17" s="94"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="214"/>
+      <c r="A18" s="218"/>
       <c r="B18" s="90" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C18" s="105" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D18" s="92" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E18" s="93" t="e">
         <f t="shared" si="0"/>
@@ -8608,15 +8606,15 @@
       <c r="F18" s="94"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="214"/>
+      <c r="A19" s="218"/>
       <c r="B19" s="90" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C19" s="105" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D19" s="92" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E19" s="93" t="e">
         <f t="shared" si="0"/>
@@ -8625,15 +8623,15 @@
       <c r="F19" s="94"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="214"/>
+      <c r="A20" s="218"/>
       <c r="B20" s="90" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C20" s="105" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D20" s="92" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E20" s="93" t="e">
         <f t="shared" si="0"/>
@@ -8642,15 +8640,15 @@
       <c r="F20" s="94"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="214"/>
+      <c r="A21" s="218"/>
       <c r="B21" s="90" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C21" s="105" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D21" s="92" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E21" s="93" t="e">
         <f>C21*D21</f>
@@ -8659,15 +8657,15 @@
       <c r="F21" s="94"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="214"/>
+      <c r="A22" s="218"/>
       <c r="B22" s="90" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C22" s="105" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D22" s="92" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E22" s="93" t="e">
         <f>C22*D22-460</f>
@@ -8676,11 +8674,11 @@
       <c r="F22" s="94"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="215" t="s">
-        <v>152</v>
-      </c>
-      <c r="B23" s="216"/>
-      <c r="C23" s="216"/>
+      <c r="A23" s="219" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="220"/>
+      <c r="C23" s="220"/>
       <c r="D23" s="91">
         <f>SUM(D5:D22)</f>
         <v>0</v>
@@ -8705,45 +8703,45 @@
       <c r="E25" s="95"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="207" t="s">
-        <v>153</v>
-      </c>
-      <c r="B26" s="207"/>
-      <c r="C26" s="207"/>
+      <c r="A26" s="213" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" s="213"/>
+      <c r="C26" s="213"/>
       <c r="D26" s="88"/>
       <c r="E26" s="96"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="97"/>
       <c r="B27" s="208" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C27" s="209"/>
       <c r="D27" s="98" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E27" s="99" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="18" customHeight="1">
       <c r="A28" s="100" t="s">
-        <v>157</v>
-      </c>
-      <c r="B28" s="218"/>
-      <c r="C28" s="219"/>
+        <v>155</v>
+      </c>
+      <c r="B28" s="210"/>
+      <c r="C28" s="211"/>
       <c r="D28" s="101"/>
       <c r="E28" s="93"/>
       <c r="F28" s="102"/>
       <c r="G28" s="102"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="217" t="s">
-        <v>152</v>
-      </c>
-      <c r="B29" s="217"/>
-      <c r="C29" s="217"/>
-      <c r="D29" s="217"/>
+      <c r="A29" s="207" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="207"/>
+      <c r="C29" s="207"/>
+      <c r="D29" s="207"/>
       <c r="E29" s="103">
         <f>SUM(E28:E28)</f>
         <v>0</v>
@@ -8764,47 +8762,47 @@
       <c r="E31" s="88"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="220" t="s">
+      <c r="A32" s="212" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" s="212"/>
+      <c r="C32" s="212"/>
+      <c r="D32" s="212"/>
+      <c r="E32" s="99" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A33" s="207" t="s">
         <v>158</v>
       </c>
-      <c r="B32" s="220"/>
-      <c r="C32" s="220"/>
-      <c r="D32" s="220"/>
-      <c r="E32" s="99" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A33" s="217" t="s">
-        <v>160</v>
-      </c>
-      <c r="B33" s="217"/>
-      <c r="C33" s="217"/>
-      <c r="D33" s="217"/>
+      <c r="B33" s="207"/>
+      <c r="C33" s="207"/>
+      <c r="D33" s="207"/>
       <c r="E33" s="103" t="e">
         <f>E23</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="217" t="s">
-        <v>153</v>
-      </c>
-      <c r="B34" s="217"/>
-      <c r="C34" s="217"/>
-      <c r="D34" s="217"/>
+      <c r="A34" s="207" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" s="207"/>
+      <c r="C34" s="207"/>
+      <c r="D34" s="207"/>
       <c r="E34" s="103">
         <f>E29</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="217" t="s">
-        <v>152</v>
-      </c>
-      <c r="B35" s="217"/>
-      <c r="C35" s="217"/>
-      <c r="D35" s="217"/>
+      <c r="A35" s="207" t="s">
+        <v>150</v>
+      </c>
+      <c r="B35" s="207"/>
+      <c r="C35" s="207"/>
+      <c r="D35" s="207"/>
       <c r="E35" s="103" t="e">
         <f>E33+E34</f>
         <v>#VALUE!</v>
@@ -8815,6 +8813,12 @@
     <protectedRange sqref="C5:C22" name="範囲3_1"/>
   </protectedRanges>
   <mergeCells count="13">
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
@@ -8822,12 +8826,6 @@
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A23:C23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/controller/src/main/resources/jxls_templates/jianjishu_shoutuo.xlsx
+++ b/controller/src/main/resources/jxls_templates/jianjishu_shoutuo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12750" yWindow="45" windowWidth="15900" windowHeight="12420" tabRatio="570" activeTab="3"/>
+    <workbookView xWindow="12750" yWindow="45" windowWidth="15900" windowHeight="12420" tabRatio="570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -2118,13 +2118,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>住　所:中国遼寧省大連市高新技術産業園区黄浦路900号30号楼
+    <t>住　所:中国遼寧省大連市高新技術産業園区黄浦路900号30号楼&lt;116085&gt;
 会社名:パナソニックソフトウェア開発センター大連（有）
 ＴＥＬ：86-411-84768550</t>
     <phoneticPr fontId="16"/>
   </si>
   <si>
-    <t>住　所:中国遼寧省大連市高新技術産業園区黄浦路900号30号楼
+    <t>住　所:中国遼寧省大連市高新技術産業園区黄浦路900号30号楼&lt;116085&gt;
 会社名:パナソニックソフトウェア開発センター大連（有）
 ＴＥＬ：86-411-84768550</t>
     <phoneticPr fontId="16"/>
@@ -3170,6 +3170,102 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="20" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3221,101 +3317,77 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3333,10 +3405,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3347,87 +3419,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3435,30 +3459,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4628,8 +4628,8 @@
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4638,7 +4638,7 @@
     <col min="3" max="3" width="5.625" style="43" customWidth="1"/>
     <col min="4" max="4" width="7.25" style="43" customWidth="1"/>
     <col min="5" max="18" width="5.625" style="43" customWidth="1"/>
-    <col min="19" max="19" width="9.375" style="43" customWidth="1"/>
+    <col min="19" max="19" width="18.625" style="43" customWidth="1"/>
     <col min="20" max="20" width="2.625" style="43" customWidth="1"/>
     <col min="21" max="21" width="20.875" style="43" customWidth="1"/>
     <col min="22" max="22" width="5.625" style="43" customWidth="1"/>
@@ -5150,37 +5150,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="23.1" customHeight="1">
-      <c r="C1" s="165" t="s">
+      <c r="C1" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="165"/>
-      <c r="L1" s="165"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="165"/>
-      <c r="O1" s="165"/>
-      <c r="P1" s="165"/>
-      <c r="Q1" s="165"/>
-      <c r="R1" s="165"/>
-      <c r="S1" s="165"/>
-      <c r="T1" s="165"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
     </row>
     <row r="2" spans="1:20" ht="23.1" customHeight="1">
-      <c r="P2" s="168" t="s">
+      <c r="P2" s="129" t="s">
         <v>120</v>
       </c>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="168" t="str">
+      <c r="Q2" s="129"/>
+      <c r="R2" s="129" t="str">
         <f>記入!B12</f>
         <v>${qu.contractnumber}</v>
       </c>
-      <c r="S2" s="168"/>
+      <c r="S2" s="129"/>
     </row>
     <row r="3" spans="1:20" ht="23.1" customHeight="1">
       <c r="A3" s="44"/>
@@ -5189,11 +5189,11 @@
         <f>記入!B2</f>
         <v>${qu.trusteejapanese}</v>
       </c>
-      <c r="R3" s="171">
+      <c r="R3" s="132">
         <f ca="1">記入!B37</f>
         <v>43922</v>
       </c>
-      <c r="S3" s="171"/>
+      <c r="S3" s="132"/>
     </row>
     <row r="4" spans="1:20" ht="23.1" customHeight="1">
       <c r="A4" s="44"/>
@@ -5216,28 +5216,28 @@
         <f>"(件名番号："&amp;記入!D36&amp;")"</f>
         <v>(件名番号：${qu.requestnumber})</v>
       </c>
-      <c r="K6" s="166" t="s">
+      <c r="K6" s="127" t="s">
         <v>233</v>
       </c>
-      <c r="L6" s="166"/>
-      <c r="M6" s="166"/>
-      <c r="N6" s="166"/>
-      <c r="O6" s="166"/>
-      <c r="P6" s="166"/>
-      <c r="Q6" s="166"/>
-      <c r="R6" s="166"/>
-      <c r="S6" s="166"/>
+      <c r="L6" s="127"/>
+      <c r="M6" s="127"/>
+      <c r="N6" s="127"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="127"/>
+      <c r="Q6" s="127"/>
+      <c r="R6" s="127"/>
+      <c r="S6" s="127"/>
     </row>
     <row r="7" spans="1:20" ht="23.1" customHeight="1">
-      <c r="K7" s="166"/>
-      <c r="L7" s="166"/>
-      <c r="M7" s="166"/>
-      <c r="N7" s="166"/>
-      <c r="O7" s="166"/>
-      <c r="P7" s="166"/>
-      <c r="Q7" s="166"/>
-      <c r="R7" s="166"/>
-      <c r="S7" s="166"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="127"/>
+      <c r="M7" s="127"/>
+      <c r="N7" s="127"/>
+      <c r="O7" s="127"/>
+      <c r="P7" s="127"/>
+      <c r="Q7" s="127"/>
+      <c r="R7" s="127"/>
+      <c r="S7" s="127"/>
     </row>
     <row r="8" spans="1:20" ht="23.1" customHeight="1">
       <c r="A8" s="49"/>
@@ -5245,32 +5245,32 @@
       <c r="C8" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="166"/>
-      <c r="L8" s="166"/>
-      <c r="M8" s="166"/>
-      <c r="N8" s="166"/>
-      <c r="O8" s="166"/>
-      <c r="P8" s="166"/>
-      <c r="Q8" s="166"/>
-      <c r="R8" s="166"/>
-      <c r="S8" s="166"/>
+      <c r="K8" s="127"/>
+      <c r="L8" s="127"/>
+      <c r="M8" s="127"/>
+      <c r="N8" s="127"/>
+      <c r="O8" s="127"/>
+      <c r="P8" s="127"/>
+      <c r="Q8" s="127"/>
+      <c r="R8" s="127"/>
+      <c r="S8" s="127"/>
     </row>
     <row r="9" spans="1:20" ht="23.1" customHeight="1">
-      <c r="C9" s="167" t="str">
+      <c r="C9" s="128" t="str">
         <f>記入!B10</f>
         <v>${qu.pjjapanese}</v>
       </c>
-      <c r="D9" s="167"/>
-      <c r="E9" s="167"/>
-      <c r="F9" s="167"/>
-      <c r="G9" s="167"/>
-      <c r="H9" s="167"/>
-      <c r="I9" s="167"/>
-      <c r="J9" s="167"/>
-      <c r="K9" s="167"/>
-      <c r="L9" s="167"/>
-      <c r="M9" s="167"/>
-      <c r="N9" s="167"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="128"/>
+      <c r="M9" s="128"/>
+      <c r="N9" s="128"/>
     </row>
     <row r="10" spans="1:20" ht="23.1" customHeight="1">
       <c r="C10" s="50"/>
@@ -5290,18 +5290,18 @@
       <c r="C11" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="163" t="str">
+      <c r="E11" s="124" t="str">
         <f>記入!B19</f>
         <v>${qu.currencyposition}</v>
       </c>
-      <c r="F11" s="163"/>
-      <c r="G11" s="172">
+      <c r="F11" s="124"/>
+      <c r="G11" s="133">
         <f>M26</f>
         <v>0</v>
       </c>
-      <c r="H11" s="172"/>
-      <c r="I11" s="172"/>
-      <c r="J11" s="172"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="133"/>
       <c r="R11" s="52" t="s">
         <v>52</v>
       </c>
@@ -5346,12 +5346,12 @@
       <c r="C14" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="169" t="str">
+      <c r="F14" s="130" t="str">
         <f>記入!F39</f>
         <v>□あり(12ヵ月）</v>
       </c>
-      <c r="G14" s="169"/>
-      <c r="H14" s="169"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
       <c r="I14" s="53"/>
       <c r="J14" s="43" t="str">
         <f>記入!H39</f>
@@ -5362,23 +5362,23 @@
       <c r="C15" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="170" t="str">
+      <c r="F15" s="131" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="G15" s="170"/>
-      <c r="H15" s="170"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="131"/>
     </row>
     <row r="16" spans="1:20" ht="23.1" customHeight="1">
       <c r="C16" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="170" t="str">
+      <c r="F16" s="131" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="G16" s="170"/>
-      <c r="H16" s="170"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="131"/>
     </row>
     <row r="17" spans="1:21" ht="23.1" customHeight="1">
       <c r="C17" s="43" t="s">
@@ -5405,287 +5405,287 @@
       <c r="R18" s="26"/>
     </row>
     <row r="19" spans="1:21" ht="23.1" customHeight="1" thickBot="1">
-      <c r="C19" s="164" t="s">
+      <c r="C19" s="125" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="164"/>
-      <c r="E19" s="164"/>
-      <c r="F19" s="164" t="s">
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="125" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="164"/>
-      <c r="H19" s="164"/>
-      <c r="I19" s="164"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="125"/>
     </row>
     <row r="20" spans="1:21" ht="23.1" customHeight="1" thickBot="1">
       <c r="B20" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="151" t="s">
+      <c r="C20" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="151"/>
-      <c r="E20" s="151"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="151"/>
-      <c r="K20" s="151"/>
-      <c r="L20" s="152"/>
-      <c r="M20" s="153" t="str">
+      <c r="D20" s="134"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="134"/>
+      <c r="H20" s="134"/>
+      <c r="I20" s="134"/>
+      <c r="J20" s="134"/>
+      <c r="K20" s="134"/>
+      <c r="L20" s="135"/>
+      <c r="M20" s="136" t="str">
         <f>"金額"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>金額(${qu.currencyposition})</v>
       </c>
-      <c r="N20" s="153"/>
-      <c r="O20" s="153"/>
-      <c r="P20" s="153" t="s">
+      <c r="N20" s="136"/>
+      <c r="O20" s="136"/>
+      <c r="P20" s="136" t="s">
         <v>67</v>
       </c>
-      <c r="Q20" s="153"/>
-      <c r="R20" s="153"/>
-      <c r="S20" s="154"/>
+      <c r="Q20" s="136"/>
+      <c r="R20" s="136"/>
+      <c r="S20" s="137"/>
     </row>
     <row r="21" spans="1:21" ht="33" customHeight="1">
       <c r="B21" s="56">
         <v>1</v>
       </c>
-      <c r="C21" s="155" t="str">
+      <c r="C21" s="138" t="str">
         <f>記入!B10</f>
         <v>${qu.pjjapanese}</v>
       </c>
-      <c r="D21" s="156"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="156"/>
-      <c r="G21" s="156"/>
-      <c r="H21" s="156"/>
-      <c r="I21" s="156"/>
-      <c r="J21" s="156"/>
-      <c r="K21" s="156"/>
-      <c r="L21" s="157"/>
-      <c r="M21" s="158" t="str">
+      <c r="D21" s="139"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="139"/>
+      <c r="K21" s="139"/>
+      <c r="L21" s="140"/>
+      <c r="M21" s="141" t="str">
         <f>記入!B20</f>
         <v>${qu.claimamount}</v>
       </c>
-      <c r="N21" s="159"/>
-      <c r="O21" s="160"/>
-      <c r="P21" s="161"/>
-      <c r="Q21" s="161"/>
-      <c r="R21" s="161"/>
-      <c r="S21" s="162"/>
+      <c r="N21" s="142"/>
+      <c r="O21" s="143"/>
+      <c r="P21" s="144"/>
+      <c r="Q21" s="144"/>
+      <c r="R21" s="144"/>
+      <c r="S21" s="145"/>
       <c r="U21" s="57"/>
     </row>
     <row r="22" spans="1:21" ht="23.1" customHeight="1">
       <c r="B22" s="58">
         <v>2</v>
       </c>
-      <c r="C22" s="141" t="s">
+      <c r="C22" s="146" t="s">
         <v>133</v>
       </c>
-      <c r="D22" s="141"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="141"/>
-      <c r="G22" s="141"/>
-      <c r="H22" s="142"/>
-      <c r="I22" s="142"/>
-      <c r="J22" s="142"/>
-      <c r="K22" s="142"/>
-      <c r="L22" s="143"/>
-      <c r="M22" s="144" t="s">
+      <c r="D22" s="146"/>
+      <c r="E22" s="146"/>
+      <c r="F22" s="146"/>
+      <c r="G22" s="146"/>
+      <c r="H22" s="147"/>
+      <c r="I22" s="147"/>
+      <c r="J22" s="147"/>
+      <c r="K22" s="147"/>
+      <c r="L22" s="148"/>
+      <c r="M22" s="149" t="s">
         <v>68</v>
       </c>
-      <c r="N22" s="144"/>
-      <c r="O22" s="144"/>
-      <c r="P22" s="145"/>
-      <c r="Q22" s="145"/>
-      <c r="R22" s="145"/>
-      <c r="S22" s="146"/>
+      <c r="N22" s="149"/>
+      <c r="O22" s="149"/>
+      <c r="P22" s="150"/>
+      <c r="Q22" s="150"/>
+      <c r="R22" s="150"/>
+      <c r="S22" s="151"/>
       <c r="U22" s="59"/>
     </row>
     <row r="23" spans="1:21" ht="23.1" customHeight="1">
       <c r="B23" s="58">
         <v>3</v>
       </c>
-      <c r="C23" s="141" t="s">
+      <c r="C23" s="146" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="141"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="141"/>
-      <c r="H23" s="142"/>
-      <c r="I23" s="142"/>
-      <c r="J23" s="142"/>
-      <c r="K23" s="142"/>
-      <c r="L23" s="143"/>
-      <c r="M23" s="144">
+      <c r="D23" s="146"/>
+      <c r="E23" s="146"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="147"/>
+      <c r="I23" s="147"/>
+      <c r="J23" s="147"/>
+      <c r="K23" s="147"/>
+      <c r="L23" s="148"/>
+      <c r="M23" s="149">
         <v>0</v>
       </c>
-      <c r="N23" s="144"/>
-      <c r="O23" s="144"/>
-      <c r="P23" s="145"/>
-      <c r="Q23" s="145"/>
-      <c r="R23" s="145"/>
-      <c r="S23" s="146"/>
+      <c r="N23" s="149"/>
+      <c r="O23" s="149"/>
+      <c r="P23" s="150"/>
+      <c r="Q23" s="150"/>
+      <c r="R23" s="150"/>
+      <c r="S23" s="151"/>
     </row>
     <row r="24" spans="1:21" ht="23.1" customHeight="1">
       <c r="B24" s="58">
         <v>4</v>
       </c>
-      <c r="C24" s="141"/>
-      <c r="D24" s="141"/>
-      <c r="E24" s="141"/>
-      <c r="F24" s="141"/>
-      <c r="G24" s="141"/>
-      <c r="H24" s="142"/>
-      <c r="I24" s="142"/>
-      <c r="J24" s="142"/>
-      <c r="K24" s="142"/>
-      <c r="L24" s="143"/>
-      <c r="M24" s="144">
+      <c r="C24" s="146"/>
+      <c r="D24" s="146"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="147"/>
+      <c r="I24" s="147"/>
+      <c r="J24" s="147"/>
+      <c r="K24" s="147"/>
+      <c r="L24" s="148"/>
+      <c r="M24" s="149">
         <v>0</v>
       </c>
-      <c r="N24" s="144"/>
-      <c r="O24" s="144"/>
-      <c r="P24" s="145"/>
-      <c r="Q24" s="145"/>
-      <c r="R24" s="145"/>
-      <c r="S24" s="146"/>
+      <c r="N24" s="149"/>
+      <c r="O24" s="149"/>
+      <c r="P24" s="150"/>
+      <c r="Q24" s="150"/>
+      <c r="R24" s="150"/>
+      <c r="S24" s="151"/>
     </row>
     <row r="25" spans="1:21" ht="23.1" customHeight="1">
       <c r="B25" s="60">
         <v>5</v>
       </c>
-      <c r="C25" s="147"/>
-      <c r="D25" s="147"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="147"/>
-      <c r="G25" s="147"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="150">
+      <c r="C25" s="152"/>
+      <c r="D25" s="152"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="152"/>
+      <c r="G25" s="152"/>
+      <c r="H25" s="153"/>
+      <c r="I25" s="153"/>
+      <c r="J25" s="153"/>
+      <c r="K25" s="153"/>
+      <c r="L25" s="154"/>
+      <c r="M25" s="155">
         <v>0</v>
       </c>
-      <c r="N25" s="150"/>
-      <c r="O25" s="150"/>
-      <c r="P25" s="145"/>
-      <c r="Q25" s="145"/>
-      <c r="R25" s="145"/>
-      <c r="S25" s="146"/>
+      <c r="N25" s="155"/>
+      <c r="O25" s="155"/>
+      <c r="P25" s="150"/>
+      <c r="Q25" s="150"/>
+      <c r="R25" s="150"/>
+      <c r="S25" s="151"/>
     </row>
     <row r="26" spans="1:21" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B26" s="127" t="s">
+      <c r="B26" s="159" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="128"/>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="128"/>
-      <c r="K26" s="128"/>
-      <c r="L26" s="129"/>
-      <c r="M26" s="130">
+      <c r="C26" s="160"/>
+      <c r="D26" s="160"/>
+      <c r="E26" s="160"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="160"/>
+      <c r="H26" s="160"/>
+      <c r="I26" s="160"/>
+      <c r="J26" s="160"/>
+      <c r="K26" s="160"/>
+      <c r="L26" s="161"/>
+      <c r="M26" s="162">
         <f>SUM(M21:O25)</f>
         <v>0</v>
       </c>
-      <c r="N26" s="131"/>
-      <c r="O26" s="132"/>
-      <c r="P26" s="133"/>
-      <c r="Q26" s="133"/>
-      <c r="R26" s="133"/>
-      <c r="S26" s="134"/>
+      <c r="N26" s="163"/>
+      <c r="O26" s="164"/>
+      <c r="P26" s="165"/>
+      <c r="Q26" s="165"/>
+      <c r="R26" s="165"/>
+      <c r="S26" s="166"/>
     </row>
     <row r="27" spans="1:21" ht="23.1" customHeight="1">
-      <c r="C27" s="135" t="s">
+      <c r="C27" s="167" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="136"/>
-      <c r="E27" s="136"/>
-      <c r="F27" s="136"/>
-      <c r="G27" s="136"/>
-      <c r="H27" s="136"/>
-      <c r="I27" s="136"/>
-      <c r="J27" s="136"/>
-      <c r="K27" s="136"/>
-      <c r="L27" s="136"/>
-      <c r="M27" s="136"/>
-      <c r="N27" s="136"/>
-      <c r="O27" s="136"/>
-      <c r="P27" s="136"/>
-      <c r="Q27" s="136"/>
-      <c r="R27" s="136"/>
-      <c r="S27" s="137"/>
+      <c r="D27" s="168"/>
+      <c r="E27" s="168"/>
+      <c r="F27" s="168"/>
+      <c r="G27" s="168"/>
+      <c r="H27" s="168"/>
+      <c r="I27" s="168"/>
+      <c r="J27" s="168"/>
+      <c r="K27" s="168"/>
+      <c r="L27" s="168"/>
+      <c r="M27" s="168"/>
+      <c r="N27" s="168"/>
+      <c r="O27" s="168"/>
+      <c r="P27" s="168"/>
+      <c r="Q27" s="168"/>
+      <c r="R27" s="168"/>
+      <c r="S27" s="169"/>
     </row>
     <row r="28" spans="1:21" ht="18" customHeight="1">
       <c r="A28" s="61"/>
       <c r="B28" s="61"/>
-      <c r="C28" s="138" t="s">
+      <c r="C28" s="170" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="139"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="139"/>
-      <c r="I28" s="139"/>
-      <c r="J28" s="139"/>
-      <c r="K28" s="139"/>
-      <c r="L28" s="139"/>
-      <c r="M28" s="139"/>
-      <c r="N28" s="139"/>
-      <c r="O28" s="139"/>
-      <c r="P28" s="139"/>
-      <c r="Q28" s="139"/>
-      <c r="R28" s="139"/>
-      <c r="S28" s="140"/>
+      <c r="D28" s="171"/>
+      <c r="E28" s="171"/>
+      <c r="F28" s="171"/>
+      <c r="G28" s="171"/>
+      <c r="H28" s="171"/>
+      <c r="I28" s="171"/>
+      <c r="J28" s="171"/>
+      <c r="K28" s="171"/>
+      <c r="L28" s="171"/>
+      <c r="M28" s="171"/>
+      <c r="N28" s="171"/>
+      <c r="O28" s="171"/>
+      <c r="P28" s="171"/>
+      <c r="Q28" s="171"/>
+      <c r="R28" s="171"/>
+      <c r="S28" s="172"/>
     </row>
     <row r="29" spans="1:21" ht="18" customHeight="1">
       <c r="A29" s="61"/>
       <c r="B29" s="61"/>
-      <c r="C29" s="135"/>
-      <c r="D29" s="136"/>
-      <c r="E29" s="136"/>
-      <c r="F29" s="136"/>
-      <c r="G29" s="136"/>
-      <c r="H29" s="136"/>
-      <c r="I29" s="136"/>
-      <c r="J29" s="136"/>
-      <c r="K29" s="136"/>
-      <c r="L29" s="136"/>
-      <c r="M29" s="136"/>
-      <c r="N29" s="136"/>
-      <c r="O29" s="136"/>
-      <c r="P29" s="136"/>
-      <c r="Q29" s="136"/>
-      <c r="R29" s="136"/>
-      <c r="S29" s="137"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="168"/>
+      <c r="E29" s="168"/>
+      <c r="F29" s="168"/>
+      <c r="G29" s="168"/>
+      <c r="H29" s="168"/>
+      <c r="I29" s="168"/>
+      <c r="J29" s="168"/>
+      <c r="K29" s="168"/>
+      <c r="L29" s="168"/>
+      <c r="M29" s="168"/>
+      <c r="N29" s="168"/>
+      <c r="O29" s="168"/>
+      <c r="P29" s="168"/>
+      <c r="Q29" s="168"/>
+      <c r="R29" s="168"/>
+      <c r="S29" s="169"/>
     </row>
     <row r="30" spans="1:21" ht="18" customHeight="1">
       <c r="A30" s="61"/>
       <c r="B30" s="61"/>
-      <c r="C30" s="124"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="125"/>
-      <c r="G30" s="125"/>
-      <c r="H30" s="125"/>
-      <c r="I30" s="125"/>
-      <c r="J30" s="125"/>
-      <c r="K30" s="125"/>
-      <c r="L30" s="125"/>
-      <c r="M30" s="125"/>
-      <c r="N30" s="125"/>
-      <c r="O30" s="125"/>
-      <c r="P30" s="125"/>
-      <c r="Q30" s="125"/>
-      <c r="R30" s="125"/>
-      <c r="S30" s="126"/>
+      <c r="C30" s="156"/>
+      <c r="D30" s="157"/>
+      <c r="E30" s="157"/>
+      <c r="F30" s="157"/>
+      <c r="G30" s="157"/>
+      <c r="H30" s="157"/>
+      <c r="I30" s="157"/>
+      <c r="J30" s="157"/>
+      <c r="K30" s="157"/>
+      <c r="L30" s="157"/>
+      <c r="M30" s="157"/>
+      <c r="N30" s="157"/>
+      <c r="O30" s="157"/>
+      <c r="P30" s="157"/>
+      <c r="Q30" s="157"/>
+      <c r="R30" s="157"/>
+      <c r="S30" s="158"/>
     </row>
     <row r="31" spans="1:21" ht="21.95" customHeight="1"/>
     <row r="32" spans="1:21" ht="21.95" customHeight="1"/>
@@ -5701,6 +5701,31 @@
     <row r="42" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="C30:S30"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="C27:S27"/>
+    <mergeCell ref="C28:S28"/>
+    <mergeCell ref="C29:S29"/>
+    <mergeCell ref="C24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="C25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="P25:S25"/>
+    <mergeCell ref="C22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="C23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="C21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:S21"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="F19:I19"/>
@@ -5714,36 +5739,11 @@
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="G11:J11"/>
-    <mergeCell ref="C20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="C21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="C22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="C23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="C24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="C25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="P25:S25"/>
-    <mergeCell ref="C30:S30"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="C27:S27"/>
-    <mergeCell ref="C28:S28"/>
-    <mergeCell ref="C29:S29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.51181102362204722" right="0.47244094488188981" top="0.51181102362204722" bottom="0.55118110236220474" header="0.39370078740157483" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="82" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="76" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -5759,7 +5759,7 @@
   <dimension ref="A1:T69"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:Q8"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6536,106 +6536,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1">
-      <c r="N1" s="168" t="s">
+      <c r="N1" s="129" t="s">
         <v>120</v>
       </c>
-      <c r="O1" s="168"/>
-      <c r="P1" s="203" t="str">
+      <c r="O1" s="129"/>
+      <c r="P1" s="175" t="str">
         <f>お見積書!R2</f>
         <v>${qu.contractnumber}</v>
       </c>
-      <c r="Q1" s="203"/>
-      <c r="R1" s="203"/>
+      <c r="Q1" s="175"/>
+      <c r="R1" s="175"/>
     </row>
     <row r="2" spans="1:18" ht="18" customHeight="1">
-      <c r="O2" s="201">
+      <c r="O2" s="173">
         <f ca="1">お見積書!R3</f>
         <v>43922</v>
       </c>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="202"/>
-      <c r="R2" s="202"/>
+      <c r="P2" s="174"/>
+      <c r="Q2" s="174"/>
+      <c r="R2" s="174"/>
     </row>
     <row r="3" spans="1:18" ht="18" customHeight="1">
-      <c r="A3" s="205" t="s">
+      <c r="A3" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="206"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="206"/>
-      <c r="G3" s="206"/>
-      <c r="H3" s="206"/>
-      <c r="I3" s="206"/>
-      <c r="J3" s="206"/>
-      <c r="K3" s="206"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="206"/>
-      <c r="P3" s="206"/>
-      <c r="Q3" s="206"/>
-      <c r="R3" s="206"/>
+      <c r="B3" s="184"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="184"/>
+      <c r="G3" s="184"/>
+      <c r="H3" s="184"/>
+      <c r="I3" s="184"/>
+      <c r="J3" s="184"/>
+      <c r="K3" s="184"/>
+      <c r="L3" s="184"/>
+      <c r="M3" s="184"/>
+      <c r="N3" s="184"/>
+      <c r="O3" s="184"/>
+      <c r="P3" s="184"/>
+      <c r="Q3" s="184"/>
+      <c r="R3" s="184"/>
     </row>
     <row r="4" spans="1:18" ht="18" customHeight="1">
-      <c r="A4" s="203" t="str">
+      <c r="A4" s="175" t="str">
         <f>お見積書!C5</f>
         <v>ご照会の件につき下記の通りお見積り申し上げます。</v>
       </c>
-      <c r="B4" s="203"/>
-      <c r="C4" s="203"/>
-      <c r="D4" s="203"/>
-      <c r="E4" s="203"/>
-      <c r="F4" s="203"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="203"/>
-      <c r="J4" s="203"/>
-      <c r="K4" s="203"/>
-      <c r="L4" s="203"/>
-      <c r="M4" s="203"/>
-      <c r="N4" s="203"/>
-      <c r="O4" s="203"/>
-      <c r="P4" s="203"/>
-      <c r="Q4" s="203"/>
-      <c r="R4" s="203"/>
+      <c r="B4" s="175"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="175"/>
+      <c r="I4" s="175"/>
+      <c r="J4" s="175"/>
+      <c r="K4" s="175"/>
+      <c r="L4" s="175"/>
+      <c r="M4" s="175"/>
+      <c r="N4" s="175"/>
+      <c r="O4" s="175"/>
+      <c r="P4" s="175"/>
+      <c r="Q4" s="175"/>
+      <c r="R4" s="175"/>
     </row>
     <row r="5" spans="1:18" ht="18" customHeight="1"/>
     <row r="6" spans="1:18" ht="18" customHeight="1">
-      <c r="I6" s="169" t="s">
+      <c r="I6" s="130" t="s">
         <v>232</v>
       </c>
-      <c r="J6" s="169"/>
-      <c r="K6" s="169"/>
-      <c r="L6" s="169"/>
-      <c r="M6" s="169"/>
-      <c r="N6" s="169"/>
-      <c r="O6" s="169"/>
-      <c r="P6" s="169"/>
-      <c r="Q6" s="169"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="130"/>
+      <c r="M6" s="130"/>
+      <c r="N6" s="130"/>
+      <c r="O6" s="130"/>
+      <c r="P6" s="130"/>
+      <c r="Q6" s="130"/>
     </row>
     <row r="7" spans="1:18" ht="18" customHeight="1">
-      <c r="I7" s="169"/>
-      <c r="J7" s="169"/>
-      <c r="K7" s="169"/>
-      <c r="L7" s="169"/>
-      <c r="M7" s="169"/>
-      <c r="N7" s="169"/>
-      <c r="O7" s="169"/>
-      <c r="P7" s="169"/>
-      <c r="Q7" s="169"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="130"/>
+      <c r="K7" s="130"/>
+      <c r="L7" s="130"/>
+      <c r="M7" s="130"/>
+      <c r="N7" s="130"/>
+      <c r="O7" s="130"/>
+      <c r="P7" s="130"/>
+      <c r="Q7" s="130"/>
     </row>
     <row r="8" spans="1:18" ht="18" customHeight="1">
-      <c r="I8" s="169"/>
-      <c r="J8" s="169"/>
-      <c r="K8" s="169"/>
-      <c r="L8" s="169"/>
-      <c r="M8" s="169"/>
-      <c r="N8" s="169"/>
-      <c r="O8" s="169"/>
-      <c r="P8" s="169"/>
-      <c r="Q8" s="169"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="130"/>
+      <c r="M8" s="130"/>
+      <c r="N8" s="130"/>
+      <c r="O8" s="130"/>
+      <c r="P8" s="130"/>
+      <c r="Q8" s="130"/>
     </row>
     <row r="9" spans="1:18" ht="18" customHeight="1">
       <c r="A9" s="62" t="s">
@@ -6643,36 +6643,36 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="18" customHeight="1">
-      <c r="B10" s="196" t="s">
+      <c r="B10" s="179" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="197"/>
-      <c r="D10" s="197"/>
-      <c r="E10" s="198"/>
-      <c r="F10" s="179" t="str">
+      <c r="C10" s="180"/>
+      <c r="D10" s="180"/>
+      <c r="E10" s="181"/>
+      <c r="F10" s="182" t="str">
         <f>お見積書!C9</f>
         <v>${qu.pjjapanese}</v>
       </c>
-      <c r="G10" s="142"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="142"/>
-      <c r="J10" s="142"/>
-      <c r="K10" s="142"/>
-      <c r="L10" s="142"/>
-      <c r="M10" s="142"/>
-      <c r="N10" s="142"/>
-      <c r="O10" s="142"/>
-      <c r="P10" s="142"/>
-      <c r="Q10" s="142"/>
-      <c r="R10" s="143"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="147"/>
+      <c r="K10" s="147"/>
+      <c r="L10" s="147"/>
+      <c r="M10" s="147"/>
+      <c r="N10" s="147"/>
+      <c r="O10" s="147"/>
+      <c r="P10" s="147"/>
+      <c r="Q10" s="147"/>
+      <c r="R10" s="148"/>
     </row>
     <row r="11" spans="1:18" ht="18" customHeight="1">
-      <c r="B11" s="196" t="s">
+      <c r="B11" s="179" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="197"/>
-      <c r="D11" s="197"/>
-      <c r="E11" s="198"/>
+      <c r="C11" s="180"/>
+      <c r="D11" s="180"/>
+      <c r="E11" s="181"/>
       <c r="F11" s="63" t="str">
         <f>お見積書!F13</f>
         <v>□請負</v>
@@ -6697,57 +6697,57 @@
       <c r="R11" s="64"/>
     </row>
     <row r="12" spans="1:18" ht="18" customHeight="1">
-      <c r="B12" s="196" t="s">
+      <c r="B12" s="179" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="197"/>
-      <c r="D12" s="197"/>
-      <c r="E12" s="198"/>
-      <c r="F12" s="199" t="str">
+      <c r="C12" s="180"/>
+      <c r="D12" s="180"/>
+      <c r="E12" s="181"/>
+      <c r="F12" s="185" t="str">
         <f>お見積書!F15</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="G12" s="194"/>
-      <c r="H12" s="194"/>
-      <c r="I12" s="194"/>
+      <c r="G12" s="186"/>
+      <c r="H12" s="186"/>
+      <c r="I12" s="186"/>
       <c r="J12" s="65"/>
       <c r="K12" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="L12" s="193" t="str">
+      <c r="L12" s="187" t="str">
         <f>お見積書!F16</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="M12" s="194"/>
-      <c r="N12" s="194"/>
-      <c r="O12" s="194"/>
-      <c r="P12" s="194"/>
-      <c r="Q12" s="194"/>
-      <c r="R12" s="195"/>
+      <c r="M12" s="186"/>
+      <c r="N12" s="186"/>
+      <c r="O12" s="186"/>
+      <c r="P12" s="186"/>
+      <c r="Q12" s="186"/>
+      <c r="R12" s="188"/>
     </row>
     <row r="13" spans="1:18" ht="18" customHeight="1">
-      <c r="B13" s="196" t="s">
+      <c r="B13" s="179" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="197"/>
-      <c r="D13" s="197"/>
-      <c r="E13" s="198"/>
-      <c r="F13" s="199" t="str">
+      <c r="C13" s="180"/>
+      <c r="D13" s="180"/>
+      <c r="E13" s="181"/>
+      <c r="F13" s="185" t="str">
         <f>お見積書!F16</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="G13" s="194"/>
-      <c r="H13" s="194"/>
-      <c r="I13" s="194"/>
-      <c r="J13" s="194"/>
-      <c r="K13" s="194"/>
-      <c r="L13" s="194"/>
-      <c r="M13" s="194"/>
-      <c r="N13" s="194"/>
-      <c r="O13" s="194"/>
-      <c r="P13" s="194"/>
-      <c r="Q13" s="194"/>
-      <c r="R13" s="195"/>
+      <c r="G13" s="186"/>
+      <c r="H13" s="186"/>
+      <c r="I13" s="186"/>
+      <c r="J13" s="186"/>
+      <c r="K13" s="186"/>
+      <c r="L13" s="186"/>
+      <c r="M13" s="186"/>
+      <c r="N13" s="186"/>
+      <c r="O13" s="186"/>
+      <c r="P13" s="186"/>
+      <c r="Q13" s="186"/>
+      <c r="R13" s="188"/>
     </row>
     <row r="14" spans="1:18" ht="18" customHeight="1"/>
     <row r="15" spans="1:18" ht="18" customHeight="1">
@@ -6756,116 +6756,116 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="18" customHeight="1">
-      <c r="B16" s="196" t="s">
+      <c r="B16" s="179" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="197"/>
-      <c r="D16" s="197"/>
-      <c r="E16" s="198"/>
-      <c r="F16" s="179" t="str">
+      <c r="C16" s="180"/>
+      <c r="D16" s="180"/>
+      <c r="E16" s="181"/>
+      <c r="F16" s="182" t="str">
         <f>記入!B24</f>
         <v>${qu.loadingjudge}</v>
       </c>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="142"/>
-      <c r="M16" s="142"/>
-      <c r="N16" s="142"/>
-      <c r="O16" s="142"/>
-      <c r="P16" s="142"/>
-      <c r="Q16" s="142"/>
-      <c r="R16" s="143"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="147"/>
+      <c r="K16" s="147"/>
+      <c r="L16" s="147"/>
+      <c r="M16" s="147"/>
+      <c r="N16" s="147"/>
+      <c r="O16" s="147"/>
+      <c r="P16" s="147"/>
+      <c r="Q16" s="147"/>
+      <c r="R16" s="148"/>
     </row>
     <row r="17" spans="1:19" ht="18" customHeight="1">
-      <c r="B17" s="196" t="s">
+      <c r="B17" s="179" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="197"/>
-      <c r="D17" s="197"/>
-      <c r="E17" s="198"/>
-      <c r="F17" s="179" t="str">
+      <c r="C17" s="180"/>
+      <c r="D17" s="180"/>
+      <c r="E17" s="181"/>
+      <c r="F17" s="182" t="str">
         <f>記入!B9</f>
         <v>${qu.deployment}</v>
       </c>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="142"/>
-      <c r="K17" s="142"/>
-      <c r="L17" s="142"/>
-      <c r="M17" s="142"/>
-      <c r="N17" s="143"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="147"/>
+      <c r="J17" s="147"/>
+      <c r="K17" s="147"/>
+      <c r="L17" s="147"/>
+      <c r="M17" s="147"/>
+      <c r="N17" s="148"/>
       <c r="O17" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="P17" s="142" t="s">
+      <c r="P17" s="147" t="s">
         <v>82</v>
       </c>
-      <c r="Q17" s="142"/>
-      <c r="R17" s="143"/>
+      <c r="Q17" s="147"/>
+      <c r="R17" s="148"/>
     </row>
     <row r="18" spans="1:19" ht="18" customHeight="1"/>
     <row r="19" spans="1:19" ht="18" customHeight="1">
-      <c r="B19" s="200" t="s">
+      <c r="B19" s="189" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="148"/>
-      <c r="D19" s="148"/>
-      <c r="E19" s="148"/>
-      <c r="F19" s="148"/>
-      <c r="G19" s="148"/>
-      <c r="H19" s="148"/>
-      <c r="I19" s="148"/>
-      <c r="J19" s="148"/>
-      <c r="K19" s="148"/>
-      <c r="L19" s="148"/>
-      <c r="M19" s="148"/>
-      <c r="N19" s="148"/>
-      <c r="O19" s="148"/>
-      <c r="P19" s="148"/>
-      <c r="Q19" s="148"/>
-      <c r="R19" s="149"/>
+      <c r="C19" s="153"/>
+      <c r="D19" s="153"/>
+      <c r="E19" s="153"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="153"/>
+      <c r="I19" s="153"/>
+      <c r="J19" s="153"/>
+      <c r="K19" s="153"/>
+      <c r="L19" s="153"/>
+      <c r="M19" s="153"/>
+      <c r="N19" s="153"/>
+      <c r="O19" s="153"/>
+      <c r="P19" s="153"/>
+      <c r="Q19" s="153"/>
+      <c r="R19" s="154"/>
     </row>
     <row r="20" spans="1:19" ht="18" customHeight="1">
-      <c r="B20" s="135"/>
-      <c r="C20" s="136"/>
-      <c r="D20" s="136"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="136"/>
-      <c r="G20" s="136"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="136"/>
-      <c r="J20" s="136"/>
-      <c r="K20" s="136"/>
-      <c r="L20" s="136"/>
-      <c r="M20" s="136"/>
-      <c r="N20" s="136"/>
-      <c r="O20" s="136"/>
-      <c r="P20" s="136"/>
-      <c r="Q20" s="136"/>
-      <c r="R20" s="137"/>
+      <c r="B20" s="167"/>
+      <c r="C20" s="168"/>
+      <c r="D20" s="168"/>
+      <c r="E20" s="168"/>
+      <c r="F20" s="168"/>
+      <c r="G20" s="168"/>
+      <c r="H20" s="168"/>
+      <c r="I20" s="168"/>
+      <c r="J20" s="168"/>
+      <c r="K20" s="168"/>
+      <c r="L20" s="168"/>
+      <c r="M20" s="168"/>
+      <c r="N20" s="168"/>
+      <c r="O20" s="168"/>
+      <c r="P20" s="168"/>
+      <c r="Q20" s="168"/>
+      <c r="R20" s="169"/>
     </row>
     <row r="21" spans="1:19" ht="18" customHeight="1">
-      <c r="B21" s="124"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="125"/>
-      <c r="J21" s="125"/>
-      <c r="K21" s="125"/>
-      <c r="L21" s="125"/>
-      <c r="M21" s="125"/>
-      <c r="N21" s="125"/>
-      <c r="O21" s="125"/>
-      <c r="P21" s="125"/>
-      <c r="Q21" s="125"/>
-      <c r="R21" s="126"/>
+      <c r="B21" s="156"/>
+      <c r="C21" s="157"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="157"/>
+      <c r="G21" s="157"/>
+      <c r="H21" s="157"/>
+      <c r="I21" s="157"/>
+      <c r="J21" s="157"/>
+      <c r="K21" s="157"/>
+      <c r="L21" s="157"/>
+      <c r="M21" s="157"/>
+      <c r="N21" s="157"/>
+      <c r="O21" s="157"/>
+      <c r="P21" s="157"/>
+      <c r="Q21" s="157"/>
+      <c r="R21" s="158"/>
     </row>
     <row r="22" spans="1:19" ht="18" customHeight="1"/>
     <row r="23" spans="1:19" ht="18" customHeight="1">
@@ -6890,189 +6890,189 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="18" customHeight="1">
-      <c r="B27" s="179" t="s">
+      <c r="B27" s="182" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="142"/>
-      <c r="D27" s="142"/>
-      <c r="E27" s="142"/>
-      <c r="F27" s="142"/>
-      <c r="G27" s="142"/>
-      <c r="H27" s="142"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="179" t="s">
+      <c r="C27" s="147"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="147"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="182" t="s">
         <v>89</v>
       </c>
-      <c r="K27" s="142"/>
-      <c r="L27" s="142"/>
-      <c r="M27" s="142"/>
-      <c r="N27" s="142"/>
-      <c r="O27" s="142"/>
-      <c r="P27" s="142"/>
-      <c r="Q27" s="142"/>
-      <c r="R27" s="143"/>
+      <c r="K27" s="147"/>
+      <c r="L27" s="147"/>
+      <c r="M27" s="147"/>
+      <c r="N27" s="147"/>
+      <c r="O27" s="147"/>
+      <c r="P27" s="147"/>
+      <c r="Q27" s="147"/>
+      <c r="R27" s="148"/>
     </row>
     <row r="28" spans="1:19" ht="18" customHeight="1">
-      <c r="B28" s="179" t="s">
+      <c r="B28" s="182" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="142"/>
-      <c r="D28" s="142"/>
-      <c r="E28" s="142"/>
-      <c r="F28" s="142"/>
-      <c r="G28" s="142"/>
-      <c r="H28" s="142"/>
-      <c r="I28" s="143"/>
-      <c r="J28" s="179" t="s">
+      <c r="C28" s="147"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="147"/>
+      <c r="G28" s="147"/>
+      <c r="H28" s="147"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="182" t="s">
         <v>91</v>
       </c>
-      <c r="K28" s="142"/>
-      <c r="L28" s="142"/>
-      <c r="M28" s="142"/>
-      <c r="N28" s="142"/>
-      <c r="O28" s="142"/>
-      <c r="P28" s="142"/>
-      <c r="Q28" s="142"/>
-      <c r="R28" s="143"/>
+      <c r="K28" s="147"/>
+      <c r="L28" s="147"/>
+      <c r="M28" s="147"/>
+      <c r="N28" s="147"/>
+      <c r="O28" s="147"/>
+      <c r="P28" s="147"/>
+      <c r="Q28" s="147"/>
+      <c r="R28" s="148"/>
       <c r="S28" s="68"/>
     </row>
     <row r="29" spans="1:19" ht="18" customHeight="1">
-      <c r="B29" s="179" t="s">
+      <c r="B29" s="182" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="142"/>
-      <c r="D29" s="142"/>
-      <c r="E29" s="142"/>
-      <c r="F29" s="142"/>
-      <c r="G29" s="142"/>
-      <c r="H29" s="142"/>
-      <c r="I29" s="143"/>
-      <c r="J29" s="179" t="s">
+      <c r="C29" s="147"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="147"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="182" t="s">
         <v>93</v>
       </c>
-      <c r="K29" s="142"/>
-      <c r="L29" s="142"/>
-      <c r="M29" s="142"/>
-      <c r="N29" s="142"/>
-      <c r="O29" s="142"/>
-      <c r="P29" s="142"/>
-      <c r="Q29" s="142"/>
-      <c r="R29" s="143"/>
+      <c r="K29" s="147"/>
+      <c r="L29" s="147"/>
+      <c r="M29" s="147"/>
+      <c r="N29" s="147"/>
+      <c r="O29" s="147"/>
+      <c r="P29" s="147"/>
+      <c r="Q29" s="147"/>
+      <c r="R29" s="148"/>
     </row>
     <row r="30" spans="1:19" ht="18" customHeight="1">
-      <c r="B30" s="179" t="s">
+      <c r="B30" s="182" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="142"/>
-      <c r="D30" s="142"/>
-      <c r="E30" s="142"/>
-      <c r="F30" s="142"/>
-      <c r="G30" s="142"/>
-      <c r="H30" s="142"/>
-      <c r="I30" s="143"/>
-      <c r="J30" s="179" t="s">
+      <c r="C30" s="147"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="147"/>
+      <c r="H30" s="147"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="182" t="s">
         <v>95</v>
       </c>
-      <c r="K30" s="142"/>
-      <c r="L30" s="142"/>
-      <c r="M30" s="142"/>
-      <c r="N30" s="142"/>
-      <c r="O30" s="142"/>
-      <c r="P30" s="142"/>
-      <c r="Q30" s="142"/>
-      <c r="R30" s="143"/>
+      <c r="K30" s="147"/>
+      <c r="L30" s="147"/>
+      <c r="M30" s="147"/>
+      <c r="N30" s="147"/>
+      <c r="O30" s="147"/>
+      <c r="P30" s="147"/>
+      <c r="Q30" s="147"/>
+      <c r="R30" s="148"/>
     </row>
     <row r="31" spans="1:19" ht="18" customHeight="1">
-      <c r="B31" s="179" t="s">
+      <c r="B31" s="182" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="142"/>
-      <c r="D31" s="142"/>
-      <c r="E31" s="142"/>
-      <c r="F31" s="142"/>
-      <c r="G31" s="142"/>
-      <c r="H31" s="142"/>
-      <c r="I31" s="143"/>
-      <c r="J31" s="179" t="s">
+      <c r="C31" s="147"/>
+      <c r="D31" s="147"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="147"/>
+      <c r="H31" s="147"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="182" t="s">
         <v>97</v>
       </c>
-      <c r="K31" s="142"/>
-      <c r="L31" s="142"/>
-      <c r="M31" s="142"/>
-      <c r="N31" s="142"/>
-      <c r="O31" s="142"/>
-      <c r="P31" s="142"/>
-      <c r="Q31" s="142"/>
-      <c r="R31" s="143"/>
+      <c r="K31" s="147"/>
+      <c r="L31" s="147"/>
+      <c r="M31" s="147"/>
+      <c r="N31" s="147"/>
+      <c r="O31" s="147"/>
+      <c r="P31" s="147"/>
+      <c r="Q31" s="147"/>
+      <c r="R31" s="148"/>
     </row>
     <row r="32" spans="1:19" ht="18" customHeight="1">
-      <c r="B32" s="179" t="s">
+      <c r="B32" s="182" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="142"/>
-      <c r="D32" s="142"/>
-      <c r="E32" s="142"/>
-      <c r="F32" s="142"/>
-      <c r="G32" s="142"/>
-      <c r="H32" s="142"/>
-      <c r="I32" s="143"/>
-      <c r="J32" s="179" t="s">
+      <c r="C32" s="147"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="147"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="182" t="s">
         <v>99</v>
       </c>
-      <c r="K32" s="142"/>
-      <c r="L32" s="142"/>
-      <c r="M32" s="142"/>
-      <c r="N32" s="142"/>
-      <c r="O32" s="142"/>
-      <c r="P32" s="142"/>
-      <c r="Q32" s="142"/>
-      <c r="R32" s="143"/>
+      <c r="K32" s="147"/>
+      <c r="L32" s="147"/>
+      <c r="M32" s="147"/>
+      <c r="N32" s="147"/>
+      <c r="O32" s="147"/>
+      <c r="P32" s="147"/>
+      <c r="Q32" s="147"/>
+      <c r="R32" s="148"/>
     </row>
     <row r="33" spans="1:20" ht="18" customHeight="1">
-      <c r="B33" s="179" t="s">
+      <c r="B33" s="182" t="s">
         <v>100</v>
       </c>
-      <c r="C33" s="142"/>
-      <c r="D33" s="142"/>
-      <c r="E33" s="142"/>
-      <c r="F33" s="142"/>
-      <c r="G33" s="142"/>
-      <c r="H33" s="142"/>
-      <c r="I33" s="143"/>
-      <c r="J33" s="179" t="s">
+      <c r="C33" s="147"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="147"/>
+      <c r="H33" s="147"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="182" t="s">
         <v>101</v>
       </c>
-      <c r="K33" s="142"/>
-      <c r="L33" s="142"/>
-      <c r="M33" s="142"/>
-      <c r="N33" s="142"/>
-      <c r="O33" s="142"/>
-      <c r="P33" s="142"/>
-      <c r="Q33" s="142"/>
-      <c r="R33" s="143"/>
+      <c r="K33" s="147"/>
+      <c r="L33" s="147"/>
+      <c r="M33" s="147"/>
+      <c r="N33" s="147"/>
+      <c r="O33" s="147"/>
+      <c r="P33" s="147"/>
+      <c r="Q33" s="147"/>
+      <c r="R33" s="148"/>
     </row>
     <row r="34" spans="1:20" ht="18" customHeight="1">
-      <c r="B34" s="179" t="s">
+      <c r="B34" s="182" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="142"/>
-      <c r="D34" s="142"/>
-      <c r="E34" s="142"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="142"/>
-      <c r="H34" s="142"/>
-      <c r="I34" s="143"/>
-      <c r="J34" s="179" t="s">
+      <c r="C34" s="147"/>
+      <c r="D34" s="147"/>
+      <c r="E34" s="147"/>
+      <c r="F34" s="147"/>
+      <c r="G34" s="147"/>
+      <c r="H34" s="147"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="182" t="s">
         <v>103</v>
       </c>
-      <c r="K34" s="142"/>
-      <c r="L34" s="142"/>
-      <c r="M34" s="142"/>
-      <c r="N34" s="142"/>
-      <c r="O34" s="142"/>
-      <c r="P34" s="142"/>
-      <c r="Q34" s="142"/>
-      <c r="R34" s="143"/>
+      <c r="K34" s="147"/>
+      <c r="L34" s="147"/>
+      <c r="M34" s="147"/>
+      <c r="N34" s="147"/>
+      <c r="O34" s="147"/>
+      <c r="P34" s="147"/>
+      <c r="Q34" s="147"/>
+      <c r="R34" s="148"/>
     </row>
     <row r="35" spans="1:20" ht="18" customHeight="1">
       <c r="B35" s="69"/>
@@ -7136,118 +7136,118 @@
       <c r="R37" s="73"/>
     </row>
     <row r="38" spans="1:20" ht="18" customHeight="1">
-      <c r="B38" s="190" t="s">
+      <c r="B38" s="176" t="s">
         <v>121</v>
       </c>
-      <c r="C38" s="191"/>
-      <c r="D38" s="191"/>
-      <c r="E38" s="191"/>
-      <c r="F38" s="191"/>
-      <c r="G38" s="191"/>
-      <c r="H38" s="204" t="str">
+      <c r="C38" s="177"/>
+      <c r="D38" s="177"/>
+      <c r="E38" s="177"/>
+      <c r="F38" s="177"/>
+      <c r="G38" s="177"/>
+      <c r="H38" s="178" t="str">
         <f>記入!D36</f>
         <v>${qu.requestnumber}</v>
       </c>
-      <c r="I38" s="204"/>
-      <c r="J38" s="191"/>
-      <c r="K38" s="191"/>
-      <c r="L38" s="191"/>
-      <c r="M38" s="191"/>
-      <c r="N38" s="191"/>
-      <c r="O38" s="191"/>
-      <c r="P38" s="191"/>
-      <c r="Q38" s="191"/>
+      <c r="I38" s="178"/>
+      <c r="J38" s="177"/>
+      <c r="K38" s="177"/>
+      <c r="L38" s="177"/>
+      <c r="M38" s="177"/>
+      <c r="N38" s="177"/>
+      <c r="O38" s="177"/>
+      <c r="P38" s="177"/>
+      <c r="Q38" s="177"/>
       <c r="R38" s="74"/>
       <c r="S38" s="75"/>
       <c r="T38" s="75"/>
     </row>
     <row r="39" spans="1:20" ht="18" customHeight="1">
-      <c r="B39" s="190" t="s">
+      <c r="B39" s="176" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="191"/>
-      <c r="D39" s="191"/>
-      <c r="E39" s="191"/>
-      <c r="F39" s="191"/>
-      <c r="G39" s="191"/>
-      <c r="H39" s="191"/>
-      <c r="I39" s="191"/>
-      <c r="J39" s="191"/>
-      <c r="K39" s="191"/>
-      <c r="L39" s="191"/>
-      <c r="M39" s="191"/>
-      <c r="N39" s="191"/>
-      <c r="O39" s="191"/>
-      <c r="P39" s="191"/>
-      <c r="Q39" s="191"/>
-      <c r="R39" s="192"/>
+      <c r="C39" s="177"/>
+      <c r="D39" s="177"/>
+      <c r="E39" s="177"/>
+      <c r="F39" s="177"/>
+      <c r="G39" s="177"/>
+      <c r="H39" s="177"/>
+      <c r="I39" s="177"/>
+      <c r="J39" s="177"/>
+      <c r="K39" s="177"/>
+      <c r="L39" s="177"/>
+      <c r="M39" s="177"/>
+      <c r="N39" s="177"/>
+      <c r="O39" s="177"/>
+      <c r="P39" s="177"/>
+      <c r="Q39" s="177"/>
+      <c r="R39" s="193"/>
       <c r="S39" s="75"/>
       <c r="T39" s="75"/>
     </row>
     <row r="40" spans="1:20" ht="18" customHeight="1">
-      <c r="B40" s="187" t="s">
+      <c r="B40" s="190" t="s">
         <v>129</v>
       </c>
-      <c r="C40" s="188"/>
-      <c r="D40" s="188"/>
-      <c r="E40" s="188"/>
-      <c r="F40" s="188"/>
-      <c r="G40" s="188"/>
-      <c r="H40" s="188"/>
-      <c r="I40" s="188"/>
-      <c r="J40" s="188"/>
-      <c r="K40" s="188"/>
-      <c r="L40" s="188"/>
-      <c r="M40" s="188"/>
-      <c r="N40" s="188"/>
-      <c r="O40" s="188"/>
-      <c r="P40" s="188"/>
-      <c r="Q40" s="188"/>
-      <c r="R40" s="189"/>
+      <c r="C40" s="191"/>
+      <c r="D40" s="191"/>
+      <c r="E40" s="191"/>
+      <c r="F40" s="191"/>
+      <c r="G40" s="191"/>
+      <c r="H40" s="191"/>
+      <c r="I40" s="191"/>
+      <c r="J40" s="191"/>
+      <c r="K40" s="191"/>
+      <c r="L40" s="191"/>
+      <c r="M40" s="191"/>
+      <c r="N40" s="191"/>
+      <c r="O40" s="191"/>
+      <c r="P40" s="191"/>
+      <c r="Q40" s="191"/>
+      <c r="R40" s="192"/>
       <c r="S40" s="76"/>
       <c r="T40" s="76"/>
     </row>
     <row r="41" spans="1:20" ht="18" customHeight="1">
-      <c r="B41" s="187" t="s">
+      <c r="B41" s="190" t="s">
         <v>130</v>
       </c>
-      <c r="C41" s="188"/>
-      <c r="D41" s="188"/>
-      <c r="E41" s="188"/>
-      <c r="F41" s="188"/>
-      <c r="G41" s="188"/>
-      <c r="H41" s="188"/>
-      <c r="I41" s="188"/>
-      <c r="J41" s="188"/>
-      <c r="K41" s="188"/>
-      <c r="L41" s="188"/>
-      <c r="M41" s="188"/>
-      <c r="N41" s="188"/>
-      <c r="O41" s="188"/>
-      <c r="P41" s="188"/>
-      <c r="Q41" s="188"/>
-      <c r="R41" s="189"/>
+      <c r="C41" s="191"/>
+      <c r="D41" s="191"/>
+      <c r="E41" s="191"/>
+      <c r="F41" s="191"/>
+      <c r="G41" s="191"/>
+      <c r="H41" s="191"/>
+      <c r="I41" s="191"/>
+      <c r="J41" s="191"/>
+      <c r="K41" s="191"/>
+      <c r="L41" s="191"/>
+      <c r="M41" s="191"/>
+      <c r="N41" s="191"/>
+      <c r="O41" s="191"/>
+      <c r="P41" s="191"/>
+      <c r="Q41" s="191"/>
+      <c r="R41" s="192"/>
       <c r="S41" s="76"/>
       <c r="T41" s="76"/>
     </row>
     <row r="42" spans="1:20" ht="18" customHeight="1">
-      <c r="B42" s="124"/>
-      <c r="C42" s="125"/>
-      <c r="D42" s="125"/>
-      <c r="E42" s="125"/>
-      <c r="F42" s="125"/>
-      <c r="G42" s="125"/>
-      <c r="H42" s="125"/>
-      <c r="I42" s="125"/>
-      <c r="J42" s="125"/>
-      <c r="K42" s="125"/>
-      <c r="L42" s="125"/>
-      <c r="M42" s="125"/>
-      <c r="N42" s="125"/>
-      <c r="O42" s="125"/>
-      <c r="P42" s="125"/>
-      <c r="Q42" s="125"/>
-      <c r="R42" s="126"/>
+      <c r="B42" s="156"/>
+      <c r="C42" s="157"/>
+      <c r="D42" s="157"/>
+      <c r="E42" s="157"/>
+      <c r="F42" s="157"/>
+      <c r="G42" s="157"/>
+      <c r="H42" s="157"/>
+      <c r="I42" s="157"/>
+      <c r="J42" s="157"/>
+      <c r="K42" s="157"/>
+      <c r="L42" s="157"/>
+      <c r="M42" s="157"/>
+      <c r="N42" s="157"/>
+      <c r="O42" s="157"/>
+      <c r="P42" s="157"/>
+      <c r="Q42" s="157"/>
+      <c r="R42" s="158"/>
     </row>
     <row r="43" spans="1:20" ht="18" customHeight="1"/>
     <row r="44" spans="1:20" ht="18" customHeight="1">
@@ -7261,69 +7261,69 @@
       </c>
     </row>
     <row r="46" spans="1:20" ht="18" customHeight="1">
-      <c r="B46" s="178" t="s">
+      <c r="B46" s="203" t="s">
         <v>108</v>
       </c>
-      <c r="C46" s="178"/>
-      <c r="D46" s="178"/>
-      <c r="E46" s="178"/>
-      <c r="F46" s="178"/>
-      <c r="G46" s="178"/>
-      <c r="H46" s="178"/>
-      <c r="I46" s="178" t="s">
+      <c r="C46" s="203"/>
+      <c r="D46" s="203"/>
+      <c r="E46" s="203"/>
+      <c r="F46" s="203"/>
+      <c r="G46" s="203"/>
+      <c r="H46" s="203"/>
+      <c r="I46" s="203" t="s">
         <v>109</v>
       </c>
-      <c r="J46" s="178"/>
-      <c r="K46" s="178"/>
-      <c r="L46" s="178"/>
-      <c r="M46" s="178"/>
-      <c r="N46" s="178"/>
-      <c r="O46" s="178"/>
-      <c r="P46" s="178"/>
-      <c r="Q46" s="178"/>
-      <c r="R46" s="178"/>
+      <c r="J46" s="203"/>
+      <c r="K46" s="203"/>
+      <c r="L46" s="203"/>
+      <c r="M46" s="203"/>
+      <c r="N46" s="203"/>
+      <c r="O46" s="203"/>
+      <c r="P46" s="203"/>
+      <c r="Q46" s="203"/>
+      <c r="R46" s="203"/>
     </row>
     <row r="47" spans="1:20" ht="18" customHeight="1">
-      <c r="B47" s="179" t="s">
+      <c r="B47" s="182" t="s">
         <v>110</v>
       </c>
-      <c r="C47" s="142"/>
-      <c r="D47" s="142"/>
-      <c r="E47" s="142"/>
-      <c r="F47" s="142"/>
-      <c r="G47" s="142"/>
-      <c r="H47" s="143"/>
-      <c r="I47" s="179" t="s">
+      <c r="C47" s="147"/>
+      <c r="D47" s="147"/>
+      <c r="E47" s="147"/>
+      <c r="F47" s="147"/>
+      <c r="G47" s="147"/>
+      <c r="H47" s="148"/>
+      <c r="I47" s="182" t="s">
         <v>111</v>
       </c>
-      <c r="J47" s="142"/>
-      <c r="K47" s="142"/>
-      <c r="L47" s="142"/>
-      <c r="M47" s="142"/>
-      <c r="N47" s="142"/>
-      <c r="O47" s="142"/>
-      <c r="P47" s="142"/>
-      <c r="Q47" s="142"/>
-      <c r="R47" s="143"/>
+      <c r="J47" s="147"/>
+      <c r="K47" s="147"/>
+      <c r="L47" s="147"/>
+      <c r="M47" s="147"/>
+      <c r="N47" s="147"/>
+      <c r="O47" s="147"/>
+      <c r="P47" s="147"/>
+      <c r="Q47" s="147"/>
+      <c r="R47" s="148"/>
     </row>
     <row r="48" spans="1:20" ht="18" customHeight="1">
-      <c r="B48" s="179"/>
-      <c r="C48" s="142"/>
-      <c r="D48" s="142"/>
-      <c r="E48" s="142"/>
-      <c r="F48" s="142"/>
-      <c r="G48" s="142"/>
-      <c r="H48" s="143"/>
-      <c r="I48" s="179"/>
-      <c r="J48" s="142"/>
-      <c r="K48" s="142"/>
-      <c r="L48" s="142"/>
-      <c r="M48" s="142"/>
-      <c r="N48" s="142"/>
-      <c r="O48" s="142"/>
-      <c r="P48" s="142"/>
-      <c r="Q48" s="142"/>
-      <c r="R48" s="143"/>
+      <c r="B48" s="182"/>
+      <c r="C48" s="147"/>
+      <c r="D48" s="147"/>
+      <c r="E48" s="147"/>
+      <c r="F48" s="147"/>
+      <c r="G48" s="147"/>
+      <c r="H48" s="148"/>
+      <c r="I48" s="182"/>
+      <c r="J48" s="147"/>
+      <c r="K48" s="147"/>
+      <c r="L48" s="147"/>
+      <c r="M48" s="147"/>
+      <c r="N48" s="147"/>
+      <c r="O48" s="147"/>
+      <c r="P48" s="147"/>
+      <c r="Q48" s="147"/>
+      <c r="R48" s="148"/>
     </row>
     <row r="49" spans="1:18" ht="18" customHeight="1"/>
     <row r="50" spans="1:18" ht="18" customHeight="1">
@@ -7333,185 +7333,185 @@
     </row>
     <row r="51" spans="1:18" ht="18" customHeight="1"/>
     <row r="52" spans="1:18" ht="18.75" customHeight="1">
-      <c r="B52" s="186"/>
-      <c r="C52" s="186"/>
-      <c r="D52" s="175" t="s">
+      <c r="B52" s="202"/>
+      <c r="C52" s="202"/>
+      <c r="D52" s="199" t="s">
         <v>113</v>
       </c>
-      <c r="E52" s="175"/>
-      <c r="F52" s="175" t="s">
+      <c r="E52" s="199"/>
+      <c r="F52" s="199" t="s">
         <v>114</v>
       </c>
-      <c r="G52" s="175"/>
-      <c r="H52" s="175" t="s">
+      <c r="G52" s="199"/>
+      <c r="H52" s="199" t="s">
         <v>115</v>
       </c>
-      <c r="I52" s="175"/>
-      <c r="J52" s="175" t="s">
+      <c r="I52" s="199"/>
+      <c r="J52" s="199" t="s">
         <v>116</v>
       </c>
-      <c r="K52" s="175"/>
-      <c r="L52" s="175" t="str">
+      <c r="K52" s="199"/>
+      <c r="L52" s="199" t="str">
         <f>お見積書!M20</f>
         <v>金額(${qu.currencyposition})</v>
       </c>
-      <c r="M52" s="175"/>
-      <c r="N52" s="180" t="str">
+      <c r="M52" s="199"/>
+      <c r="N52" s="204" t="str">
         <f>"金額総計"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>金額総計(${qu.currencyposition})</v>
       </c>
-      <c r="O52" s="181"/>
-      <c r="P52" s="181"/>
-      <c r="Q52" s="181"/>
-      <c r="R52" s="182"/>
+      <c r="O52" s="205"/>
+      <c r="P52" s="205"/>
+      <c r="Q52" s="205"/>
+      <c r="R52" s="206"/>
     </row>
     <row r="53" spans="1:18" ht="28.5" customHeight="1">
-      <c r="B53" s="175" t="str">
+      <c r="B53" s="199" t="str">
         <f>IF(記入!A29="","",記入!A29)</f>
         <v>第一回</v>
       </c>
-      <c r="C53" s="175"/>
-      <c r="D53" s="176" t="str">
+      <c r="C53" s="199"/>
+      <c r="D53" s="200" t="str">
         <f>IF(記入!B29="","",記入!B29)</f>
         <v>${num[0].deliverydate}</v>
       </c>
-      <c r="E53" s="177"/>
-      <c r="F53" s="176" t="str">
+      <c r="E53" s="201"/>
+      <c r="F53" s="200" t="str">
         <f>IF(記入!C29="","",記入!C29)</f>
         <v>${num[0].completiondate}</v>
       </c>
-      <c r="G53" s="177"/>
-      <c r="H53" s="176" t="str">
+      <c r="G53" s="201"/>
+      <c r="H53" s="200" t="str">
         <f>IF(記入!D29="","",記入!D29)</f>
         <v>${num[0].claimdate}</v>
       </c>
-      <c r="I53" s="177"/>
-      <c r="J53" s="176" t="str">
+      <c r="I53" s="201"/>
+      <c r="J53" s="200" t="str">
         <f>IF(記入!E29="","",記入!E29)</f>
         <v>${num[0].supportdate}</v>
       </c>
-      <c r="K53" s="177"/>
-      <c r="L53" s="173" t="str">
+      <c r="K53" s="201"/>
+      <c r="L53" s="197" t="str">
         <f>IF(記入!F29="","",記入!F29)</f>
         <v>${num[0].claimamount}</v>
       </c>
-      <c r="M53" s="174"/>
-      <c r="N53" s="183" t="e">
+      <c r="M53" s="198"/>
+      <c r="N53" s="194" t="e">
         <f>SUM(L53:M56)</f>
         <v>#REF!</v>
       </c>
-      <c r="O53" s="184"/>
-      <c r="P53" s="184"/>
-      <c r="Q53" s="184"/>
-      <c r="R53" s="185"/>
+      <c r="O53" s="195"/>
+      <c r="P53" s="195"/>
+      <c r="Q53" s="195"/>
+      <c r="R53" s="196"/>
     </row>
     <row r="54" spans="1:18" ht="28.5" customHeight="1">
-      <c r="B54" s="175" t="e">
+      <c r="B54" s="199" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="C54" s="175"/>
-      <c r="D54" s="176" t="e">
+      <c r="C54" s="199"/>
+      <c r="D54" s="200" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="E54" s="177"/>
-      <c r="F54" s="176" t="e">
+      <c r="E54" s="201"/>
+      <c r="F54" s="200" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G54" s="177"/>
-      <c r="H54" s="176" t="e">
+      <c r="G54" s="201"/>
+      <c r="H54" s="200" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="I54" s="177"/>
-      <c r="J54" s="176" t="e">
+      <c r="I54" s="201"/>
+      <c r="J54" s="200" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="K54" s="177"/>
-      <c r="L54" s="173"/>
-      <c r="M54" s="174"/>
-      <c r="N54" s="183"/>
-      <c r="O54" s="184"/>
-      <c r="P54" s="184"/>
-      <c r="Q54" s="184"/>
-      <c r="R54" s="185"/>
+      <c r="K54" s="201"/>
+      <c r="L54" s="197"/>
+      <c r="M54" s="198"/>
+      <c r="N54" s="194"/>
+      <c r="O54" s="195"/>
+      <c r="P54" s="195"/>
+      <c r="Q54" s="195"/>
+      <c r="R54" s="196"/>
     </row>
     <row r="55" spans="1:18" ht="28.5" customHeight="1">
-      <c r="B55" s="175" t="e">
+      <c r="B55" s="199" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="C55" s="175"/>
-      <c r="D55" s="176" t="e">
+      <c r="C55" s="199"/>
+      <c r="D55" s="200" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="E55" s="177"/>
-      <c r="F55" s="176" t="e">
+      <c r="E55" s="201"/>
+      <c r="F55" s="200" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G55" s="177"/>
-      <c r="H55" s="176" t="e">
+      <c r="G55" s="201"/>
+      <c r="H55" s="200" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="I55" s="177"/>
-      <c r="J55" s="176" t="e">
+      <c r="I55" s="201"/>
+      <c r="J55" s="200" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="K55" s="177"/>
-      <c r="L55" s="173" t="e">
+      <c r="K55" s="201"/>
+      <c r="L55" s="197" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="M55" s="174"/>
-      <c r="N55" s="183"/>
-      <c r="O55" s="184"/>
-      <c r="P55" s="184"/>
-      <c r="Q55" s="184"/>
-      <c r="R55" s="185"/>
+      <c r="M55" s="198"/>
+      <c r="N55" s="194"/>
+      <c r="O55" s="195"/>
+      <c r="P55" s="195"/>
+      <c r="Q55" s="195"/>
+      <c r="R55" s="196"/>
     </row>
     <row r="56" spans="1:18" ht="31.5" customHeight="1">
-      <c r="B56" s="175" t="e">
+      <c r="B56" s="199" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="C56" s="175"/>
-      <c r="D56" s="176" t="e">
+      <c r="C56" s="199"/>
+      <c r="D56" s="200" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="177"/>
-      <c r="F56" s="176" t="e">
+      <c r="E56" s="201"/>
+      <c r="F56" s="200" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="177"/>
-      <c r="H56" s="176" t="e">
+      <c r="G56" s="201"/>
+      <c r="H56" s="200" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="177"/>
-      <c r="J56" s="176" t="e">
+      <c r="I56" s="201"/>
+      <c r="J56" s="200" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="177"/>
-      <c r="L56" s="173" t="e">
+      <c r="K56" s="201"/>
+      <c r="L56" s="197" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="174"/>
-      <c r="N56" s="183"/>
-      <c r="O56" s="184"/>
-      <c r="P56" s="184"/>
-      <c r="Q56" s="184"/>
-      <c r="R56" s="185"/>
+      <c r="M56" s="198"/>
+      <c r="N56" s="194"/>
+      <c r="O56" s="195"/>
+      <c r="P56" s="195"/>
+      <c r="Q56" s="195"/>
+      <c r="R56" s="196"/>
     </row>
     <row r="57" spans="1:18" ht="18" customHeight="1"/>
     <row r="58" spans="1:18" ht="18" customHeight="1">
@@ -7712,6 +7712,73 @@
     <row r="69" spans="2:18" ht="10.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="83">
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="B42:R42"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="I46:R46"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="I47:R47"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="I48:R48"/>
+    <mergeCell ref="N52:R52"/>
+    <mergeCell ref="N53:R56"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="B41:R41"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="J31:R31"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="J32:R32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="J33:R33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="J34:R34"/>
+    <mergeCell ref="B39:R39"/>
+    <mergeCell ref="B40:R40"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="J28:R28"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="J29:R29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="J30:R30"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:R13"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="J27:R27"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:N17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:R1"/>
@@ -7728,73 +7795,6 @@
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="F12:I12"/>
-    <mergeCell ref="L12:R12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:R13"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="J27:R27"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:N17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="J28:R28"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="J29:R29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="J30:R30"/>
-    <mergeCell ref="B41:R41"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="J31:R31"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="J32:R32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="J33:R33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="J34:R34"/>
-    <mergeCell ref="B39:R39"/>
-    <mergeCell ref="B40:R40"/>
-    <mergeCell ref="N53:R56"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="B42:R42"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="I46:R46"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="I47:R47"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="I48:R48"/>
-    <mergeCell ref="N52:R52"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J54:K54"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -7813,7 +7813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A33" sqref="A33:D33"/>
     </sheetView>
   </sheetViews>
@@ -8362,7 +8362,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="214" t="s">
+      <c r="A5" s="210" t="s">
         <v>140</v>
       </c>
       <c r="B5" s="90" t="s">
@@ -8381,7 +8381,7 @@
       <c r="F5" s="94"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="215"/>
+      <c r="A6" s="211"/>
       <c r="B6" s="90" t="s">
         <v>142</v>
       </c>
@@ -8398,7 +8398,7 @@
       <c r="F6" s="94"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="215"/>
+      <c r="A7" s="211"/>
       <c r="B7" s="90" t="s">
         <v>143</v>
       </c>
@@ -8415,7 +8415,7 @@
       <c r="F7" s="94"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="215"/>
+      <c r="A8" s="211"/>
       <c r="B8" s="90" t="s">
         <v>144</v>
       </c>
@@ -8432,7 +8432,7 @@
       <c r="F8" s="94"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="215"/>
+      <c r="A9" s="211"/>
       <c r="B9" s="90" t="s">
         <v>145</v>
       </c>
@@ -8449,7 +8449,7 @@
       <c r="F9" s="94"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="216"/>
+      <c r="A10" s="212"/>
       <c r="B10" s="90" t="s">
         <v>147</v>
       </c>
@@ -8466,7 +8466,7 @@
       <c r="F10" s="94"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A11" s="217" t="s">
+      <c r="A11" s="213" t="s">
         <v>148</v>
       </c>
       <c r="B11" s="90" t="s">
@@ -8485,7 +8485,7 @@
       <c r="F11" s="94"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="218"/>
+      <c r="A12" s="214"/>
       <c r="B12" s="90" t="s">
         <v>142</v>
       </c>
@@ -8502,7 +8502,7 @@
       <c r="F12" s="94"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="218"/>
+      <c r="A13" s="214"/>
       <c r="B13" s="90" t="s">
         <v>143</v>
       </c>
@@ -8519,7 +8519,7 @@
       <c r="F13" s="94"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="218"/>
+      <c r="A14" s="214"/>
       <c r="B14" s="90" t="s">
         <v>144</v>
       </c>
@@ -8536,7 +8536,7 @@
       <c r="F14" s="94"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="218"/>
+      <c r="A15" s="214"/>
       <c r="B15" s="90" t="s">
         <v>145</v>
       </c>
@@ -8553,7 +8553,7 @@
       <c r="F15" s="94"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="218"/>
+      <c r="A16" s="214"/>
       <c r="B16" s="90" t="s">
         <v>146</v>
       </c>
@@ -8570,7 +8570,7 @@
       <c r="F16" s="94"/>
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A17" s="217" t="s">
+      <c r="A17" s="213" t="s">
         <v>149</v>
       </c>
       <c r="B17" s="90" t="s">
@@ -8589,7 +8589,7 @@
       <c r="F17" s="94"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="218"/>
+      <c r="A18" s="214"/>
       <c r="B18" s="90" t="s">
         <v>142</v>
       </c>
@@ -8606,7 +8606,7 @@
       <c r="F18" s="94"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="218"/>
+      <c r="A19" s="214"/>
       <c r="B19" s="90" t="s">
         <v>143</v>
       </c>
@@ -8623,7 +8623,7 @@
       <c r="F19" s="94"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="218"/>
+      <c r="A20" s="214"/>
       <c r="B20" s="90" t="s">
         <v>144</v>
       </c>
@@ -8640,7 +8640,7 @@
       <c r="F20" s="94"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="218"/>
+      <c r="A21" s="214"/>
       <c r="B21" s="90" t="s">
         <v>145</v>
       </c>
@@ -8657,7 +8657,7 @@
       <c r="F21" s="94"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="218"/>
+      <c r="A22" s="214"/>
       <c r="B22" s="90" t="s">
         <v>146</v>
       </c>
@@ -8674,11 +8674,11 @@
       <c r="F22" s="94"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="219" t="s">
+      <c r="A23" s="215" t="s">
         <v>150</v>
       </c>
-      <c r="B23" s="220"/>
-      <c r="C23" s="220"/>
+      <c r="B23" s="216"/>
+      <c r="C23" s="216"/>
       <c r="D23" s="91">
         <f>SUM(D5:D22)</f>
         <v>0</v>
@@ -8703,11 +8703,11 @@
       <c r="E25" s="95"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="213" t="s">
+      <c r="A26" s="207" t="s">
         <v>151</v>
       </c>
-      <c r="B26" s="213"/>
-      <c r="C26" s="213"/>
+      <c r="B26" s="207"/>
+      <c r="C26" s="207"/>
       <c r="D26" s="88"/>
       <c r="E26" s="96"/>
     </row>
@@ -8728,20 +8728,20 @@
       <c r="A28" s="100" t="s">
         <v>155</v>
       </c>
-      <c r="B28" s="210"/>
-      <c r="C28" s="211"/>
+      <c r="B28" s="218"/>
+      <c r="C28" s="219"/>
       <c r="D28" s="101"/>
       <c r="E28" s="93"/>
       <c r="F28" s="102"/>
       <c r="G28" s="102"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="207" t="s">
+      <c r="A29" s="217" t="s">
         <v>150</v>
       </c>
-      <c r="B29" s="207"/>
-      <c r="C29" s="207"/>
-      <c r="D29" s="207"/>
+      <c r="B29" s="217"/>
+      <c r="C29" s="217"/>
+      <c r="D29" s="217"/>
       <c r="E29" s="103">
         <f>SUM(E28:E28)</f>
         <v>0</v>
@@ -8762,47 +8762,47 @@
       <c r="E31" s="88"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="212" t="s">
+      <c r="A32" s="220" t="s">
         <v>156</v>
       </c>
-      <c r="B32" s="212"/>
-      <c r="C32" s="212"/>
-      <c r="D32" s="212"/>
+      <c r="B32" s="220"/>
+      <c r="C32" s="220"/>
+      <c r="D32" s="220"/>
       <c r="E32" s="99" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A33" s="207" t="s">
+      <c r="A33" s="217" t="s">
         <v>158</v>
       </c>
-      <c r="B33" s="207"/>
-      <c r="C33" s="207"/>
-      <c r="D33" s="207"/>
+      <c r="B33" s="217"/>
+      <c r="C33" s="217"/>
+      <c r="D33" s="217"/>
       <c r="E33" s="103" t="e">
         <f>E23</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="207" t="s">
+      <c r="A34" s="217" t="s">
         <v>151</v>
       </c>
-      <c r="B34" s="207"/>
-      <c r="C34" s="207"/>
-      <c r="D34" s="207"/>
+      <c r="B34" s="217"/>
+      <c r="C34" s="217"/>
+      <c r="D34" s="217"/>
       <c r="E34" s="103">
         <f>E29</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="207" t="s">
+      <c r="A35" s="217" t="s">
         <v>150</v>
       </c>
-      <c r="B35" s="207"/>
-      <c r="C35" s="207"/>
-      <c r="D35" s="207"/>
+      <c r="B35" s="217"/>
+      <c r="C35" s="217"/>
+      <c r="D35" s="217"/>
       <c r="E35" s="103" t="e">
         <f>E33+E34</f>
         <v>#VALUE!</v>
@@ -8813,12 +8813,6 @@
     <protectedRange sqref="C5:C22" name="範囲3_1"/>
   </protectedRanges>
   <mergeCells count="13">
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
@@ -8826,6 +8820,12 @@
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A23:C23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/controller/src/main/resources/jxls_templates/jianjishu_shoutuo.xlsx
+++ b/controller/src/main/resources/jxls_templates/jianjishu_shoutuo.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\newtouch\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="12750" yWindow="45" windowWidth="15900" windowHeight="12420" tabRatio="570" activeTab="1"/>
   </bookViews>
@@ -14,10 +19,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">お見積書!$A$1:$T$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">見積条件書!$A$1:$S$69</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">見積詳細!$A$1:$F$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">見積条件書!$A$1:$S$69</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -27,7 +32,7 @@
     <author>DONG</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +57,7 @@
     <author>DONG</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +82,7 @@
     <author>DONG</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +109,7 @@
     <author>fdsfdsf</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="1">
+    <comment ref="C5" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="2">
+    <comment ref="C6" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -148,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="2">
+    <comment ref="C7" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -163,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="2">
+    <comment ref="C8" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -178,7 +183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="2">
+    <comment ref="C9" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -193,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="2">
+    <comment ref="C10" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -208,7 +213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="2">
+    <comment ref="C11" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -223,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="2">
+    <comment ref="C12" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -238,7 +243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="2">
+    <comment ref="C13" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -253,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="2">
+    <comment ref="C14" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -268,7 +273,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C15" authorId="2">
+    <comment ref="C15" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -283,7 +288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="2">
+    <comment ref="C16" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -298,7 +303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="2">
+    <comment ref="C17" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -313,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C18" authorId="2">
+    <comment ref="C18" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -328,7 +333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="2">
+    <comment ref="C19" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -343,7 +348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="2">
+    <comment ref="C20" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -358,7 +363,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C21" authorId="2">
+    <comment ref="C21" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -373,7 +378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C22" authorId="2">
+    <comment ref="C22" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -393,7 +398,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="273">
   <si>
     <t>委託元（和文）</t>
     <rPh sb="4" eb="6">
@@ -1492,13 +1497,6 @@
     <phoneticPr fontId="16"/>
   </si>
   <si>
-    <t>□あり(12ヵ月）</t>
-    <phoneticPr fontId="16"/>
-  </si>
-  <si>
-    <t>■なし</t>
-  </si>
-  <si>
     <t>□請負</t>
     <rPh sb="1" eb="3">
       <t>ウケオイ</t>
@@ -1506,22 +1504,11 @@
     <phoneticPr fontId="16"/>
   </si>
   <si>
-    <t>■委任</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>□保守</t>
-  </si>
-  <si>
     <t>■一括</t>
     <rPh sb="1" eb="3">
       <t>イッカツ</t>
     </rPh>
     <phoneticPr fontId="16"/>
-  </si>
-  <si>
-    <t>□実績精算</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>3．日本側オンサイト作業の発生する場合、出張経費などについては別途請求</t>
@@ -1852,10 +1839,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${qu.deployment}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>${qu.contractnumber}</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1946,12 +1929,6 @@
   <si>
     <t>${qu.requestnumber}</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${statime[0]}</t>
-  </si>
-  <si>
-    <t>${statime[1]}</t>
   </si>
   <si>
     <t>${qu.trusteejapanese}</t>
@@ -2128,6 +2105,193 @@
 会社名:パナソニックソフトウェア開発センター大連（有）
 ＴＥＬ：86-411-84768550</t>
     <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>${qu.trusteejapanese}</t>
+  </si>
+  <si>
+    <t>${qu.contractnumber}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${statime[0]}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${statime[1]}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${statime[1]}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${qu.pjjapanese}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${statime[0]}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${statime[0]}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${statime[1]}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${statime[1]}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${qu.pjjapanese}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${qu.deployment}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${qu.deployment}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[0].deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[0].claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[0].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[0].claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${qu.currencyposition}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■一括</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>□実績精算</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>□実績精算</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>□請負</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■委任</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>□保守</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>□あり(12ヵ月）</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>□あり(12ヵ月）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>□請負</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■委任</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>□保守</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>□保守</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${qu.requestnumber}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${qu.pjjapanese}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${cc.cc}</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2153,14 +2317,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2168,7 +2332,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2176,7 +2340,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2211,7 +2375,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2219,7 +2383,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2237,7 +2401,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2828,7 +2992,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3116,6 +3280,9 @@
     <xf numFmtId="186" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3170,6 +3337,123 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="31" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="29" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="30" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="178" fontId="19" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -3200,121 +3484,88 @@
     <xf numFmtId="178" fontId="20" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="31" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="29" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="30" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="31" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3326,108 +3577,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3447,18 +3626,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3476,6 +3643,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3608,7 +3778,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3650,7 +3820,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3685,7 +3855,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3897,8 +4067,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A8" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -3914,28 +4084,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="113" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="G1" s="118" t="s">
-        <v>132</v>
-      </c>
-      <c r="H1" s="119"/>
+      <c r="B1" s="113"/>
+      <c r="G1" s="119" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" s="120"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="10"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="122"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="34" t="s">
@@ -3945,21 +4115,21 @@
       <c r="C3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="120"/>
-      <c r="H3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="122"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="33" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="120"/>
-      <c r="H4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="122"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="33" t="s">
@@ -3969,34 +4139,34 @@
       <c r="C5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="120"/>
-      <c r="H5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="122"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="35" t="s">
         <v>44</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="120"/>
-      <c r="H6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="122"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="35" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="120"/>
-      <c r="H7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="122"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="33" t="s">
@@ -4006,60 +4176,60 @@
       <c r="C8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="120"/>
-      <c r="H8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="122"/>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A9" s="34" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>165</v>
+        <v>237</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="120"/>
-      <c r="H9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="122"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="33" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="120"/>
-      <c r="H10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="122"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="33" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="120"/>
-      <c r="H11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="122"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="33" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>166</v>
+        <v>227</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="120"/>
-      <c r="H12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="122"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="33" t="s">
@@ -4069,34 +4239,34 @@
       <c r="C13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="33" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="33" t="s">
@@ -4106,8 +4276,8 @@
       <c r="C16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="33" t="s">
@@ -4117,8 +4287,8 @@
       <c r="C17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="120"/>
-      <c r="H17" s="121"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="122"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="33" t="s">
@@ -4128,34 +4298,34 @@
       <c r="C18" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="120"/>
-      <c r="H18" s="121"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="122"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="33" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>167</v>
+        <v>255</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="120"/>
-      <c r="H19" s="121"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="122"/>
     </row>
     <row r="20" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A20" s="33" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="120"/>
-      <c r="H20" s="121"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="122"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="33" t="s">
@@ -4165,8 +4335,8 @@
       <c r="C21" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="120"/>
-      <c r="H21" s="121"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="122"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="33" t="s">
@@ -4176,8 +4346,8 @@
       <c r="C22" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="120"/>
-      <c r="H22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="122"/>
     </row>
     <row r="23" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A23" s="34" t="s">
@@ -4187,21 +4357,21 @@
       <c r="C23" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="120"/>
-      <c r="H23" s="121"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="122"/>
     </row>
     <row r="24" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A24" s="34" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="120"/>
-      <c r="H24" s="121"/>
+      <c r="G24" s="121"/>
+      <c r="H24" s="122"/>
     </row>
     <row r="25" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A25" s="34" t="s">
@@ -4211,8 +4381,8 @@
       <c r="C25" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="120"/>
-      <c r="H25" s="121"/>
+      <c r="G25" s="121"/>
+      <c r="H25" s="122"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="34" t="s">
@@ -4222,14 +4392,14 @@
       <c r="C26" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="120"/>
-      <c r="H26" s="121"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="122"/>
     </row>
     <row r="27" spans="1:8" ht="1.5" hidden="1" customHeight="1">
       <c r="A27" s="36"/>
       <c r="B27" s="1"/>
-      <c r="G27" s="120"/>
-      <c r="H27" s="121"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="122"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="37" t="s">
@@ -4250,8 +4420,8 @@
       <c r="F28" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="G28" s="120"/>
-      <c r="H28" s="121"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="122"/>
     </row>
     <row r="29" spans="1:8" ht="13.5" customHeight="1">
       <c r="A29" s="104" t="str">
@@ -4259,22 +4429,22 @@
         <v>第一回</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>195</v>
+        <v>239</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F29" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="G29" s="120"/>
-      <c r="H29" s="121"/>
+        <v>252</v>
+      </c>
+      <c r="G29" s="121"/>
+      <c r="H29" s="122"/>
     </row>
     <row r="30" spans="1:8" ht="13.5" customHeight="1">
       <c r="A30" s="104" t="str">
@@ -4282,22 +4452,22 @@
         <v>第二回</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="G30" s="120"/>
-      <c r="H30" s="121"/>
+        <v>171</v>
+      </c>
+      <c r="G30" s="121"/>
+      <c r="H30" s="122"/>
     </row>
     <row r="31" spans="1:8" ht="13.5" customHeight="1">
       <c r="A31" s="104" t="str">
@@ -4305,22 +4475,22 @@
         <v>第三回</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="G31" s="120"/>
-      <c r="H31" s="121"/>
+        <v>176</v>
+      </c>
+      <c r="G31" s="121"/>
+      <c r="H31" s="122"/>
     </row>
     <row r="32" spans="1:8" ht="13.5" customHeight="1">
       <c r="A32" s="104" t="str">
@@ -4328,22 +4498,22 @@
         <v>第四回</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="G32" s="122"/>
-      <c r="H32" s="123"/>
+        <v>181</v>
+      </c>
+      <c r="G32" s="123"/>
+      <c r="H32" s="124"/>
     </row>
     <row r="33" spans="1:9" ht="12" customHeight="1">
       <c r="A33" s="2"/>
@@ -4355,74 +4525,74 @@
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="1"/>
-      <c r="D35" s="115" t="s">
-        <v>161</v>
-      </c>
-      <c r="E35" s="115"/>
-      <c r="F35" s="115"/>
-      <c r="G35" s="115"/>
-      <c r="H35" s="115"/>
+      <c r="D35" s="116" t="s">
+        <v>156</v>
+      </c>
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="116"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="1"/>
-      <c r="D36" s="116" t="s">
-        <v>188</v>
-      </c>
-      <c r="E36" s="116"/>
-      <c r="F36" s="116"/>
-      <c r="G36" s="116"/>
-      <c r="H36" s="116"/>
+      <c r="D36" s="117" t="s">
+        <v>270</v>
+      </c>
+      <c r="E36" s="117"/>
+      <c r="F36" s="117"/>
+      <c r="G36" s="117"/>
+      <c r="H36" s="117"/>
     </row>
     <row r="37" spans="1:9" ht="13.5">
       <c r="A37" s="40" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B37" s="41">
         <f ca="1">TODAY()</f>
-        <v>43922</v>
-      </c>
-      <c r="D37" s="114" t="s">
+        <v>43929</v>
+      </c>
+      <c r="D37" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="114"/>
+      <c r="E37" s="115"/>
       <c r="F37" s="29" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>128</v>
+        <v>257</v>
       </c>
       <c r="H37" s="30"/>
       <c r="I37" s="25"/>
     </row>
     <row r="38" spans="1:9" ht="13.5">
       <c r="B38" s="1"/>
-      <c r="D38" s="115" t="s">
+      <c r="D38" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="115"/>
+      <c r="E38" s="116"/>
       <c r="F38" s="31" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>125</v>
+        <v>267</v>
       </c>
       <c r="H38" s="29" t="s">
-        <v>126</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="D39" s="114" t="s">
+      <c r="D39" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="E39" s="114"/>
-      <c r="F39" s="117" t="s">
-        <v>122</v>
-      </c>
-      <c r="G39" s="117"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="118" t="s">
+        <v>262</v>
+      </c>
+      <c r="G39" s="118"/>
       <c r="H39" s="29" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="3" customFormat="1">
@@ -4438,28 +4608,28 @@
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:9" s="3" customFormat="1" ht="14.25">
-      <c r="A42" s="111" t="s">
+      <c r="A42" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="111" t="s">
+      <c r="B42" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="108" t="s">
+      <c r="C42" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="109"/>
-      <c r="E42" s="109"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="113" t="s">
+      <c r="D42" s="110"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="H42" s="111" t="s">
+      <c r="H42" s="112" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="14.25">
-      <c r="A43" s="111"/>
-      <c r="B43" s="111"/>
+      <c r="A43" s="112"/>
+      <c r="B43" s="112"/>
       <c r="C43" s="13" t="s">
         <v>22</v>
       </c>
@@ -4472,8 +4642,8 @@
       <c r="F43" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="111"/>
-      <c r="H43" s="111"/>
+      <c r="G43" s="112"/>
+      <c r="H43" s="112"/>
     </row>
     <row r="44" spans="1:9" ht="14.25">
       <c r="A44" s="12"/>
@@ -4564,10 +4734,10 @@
       <c r="H48" s="23"/>
     </row>
     <row r="49" spans="1:8" ht="15">
-      <c r="A49" s="106" t="s">
+      <c r="A49" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="107"/>
+      <c r="B49" s="108"/>
       <c r="C49" s="20">
         <f>SUM(C44:C48)</f>
         <v>0</v>
@@ -4628,8 +4798,8 @@
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5150,50 +5320,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="23.1" customHeight="1">
-      <c r="C1" s="126" t="s">
+      <c r="C1" s="166" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="126"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="166"/>
+      <c r="L1" s="166"/>
+      <c r="M1" s="166"/>
+      <c r="N1" s="166"/>
+      <c r="O1" s="166"/>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166"/>
+      <c r="R1" s="166"/>
+      <c r="S1" s="166"/>
+      <c r="T1" s="166"/>
     </row>
     <row r="2" spans="1:20" ht="23.1" customHeight="1">
-      <c r="P2" s="129" t="s">
+      <c r="P2" s="169" t="s">
         <v>120</v>
       </c>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="129" t="str">
-        <f>記入!B12</f>
-        <v>${qu.contractnumber}</v>
-      </c>
-      <c r="S2" s="129"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="169" t="s">
+        <v>160</v>
+      </c>
+      <c r="S2" s="169"/>
     </row>
     <row r="3" spans="1:20" ht="23.1" customHeight="1">
       <c r="A3" s="44"/>
       <c r="B3" s="44"/>
-      <c r="C3" s="45" t="str">
-        <f>記入!B2</f>
-        <v>${qu.trusteejapanese}</v>
-      </c>
-      <c r="R3" s="132">
-        <f ca="1">記入!B37</f>
-        <v>43922</v>
-      </c>
-      <c r="S3" s="132"/>
+      <c r="C3" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="R3" s="172">
+        <f ca="1">TODAY()</f>
+        <v>43929</v>
+      </c>
+      <c r="S3" s="172"/>
     </row>
     <row r="4" spans="1:20" ht="23.1" customHeight="1">
       <c r="A4" s="44"/>
@@ -5212,32 +5380,31 @@
     <row r="6" spans="1:20" s="48" customFormat="1" ht="23.1" customHeight="1">
       <c r="A6" s="47"/>
       <c r="B6" s="47"/>
-      <c r="C6" s="48" t="str">
-        <f>"(件名番号："&amp;記入!D36&amp;")"</f>
-        <v>(件名番号：${qu.requestnumber})</v>
-      </c>
-      <c r="K6" s="127" t="s">
-        <v>233</v>
-      </c>
-      <c r="L6" s="127"/>
-      <c r="M6" s="127"/>
-      <c r="N6" s="127"/>
-      <c r="O6" s="127"/>
-      <c r="P6" s="127"/>
-      <c r="Q6" s="127"/>
-      <c r="R6" s="127"/>
-      <c r="S6" s="127"/>
+      <c r="C6" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="K6" s="167" t="s">
+        <v>225</v>
+      </c>
+      <c r="L6" s="167"/>
+      <c r="M6" s="167"/>
+      <c r="N6" s="167"/>
+      <c r="O6" s="167"/>
+      <c r="P6" s="167"/>
+      <c r="Q6" s="167"/>
+      <c r="R6" s="167"/>
+      <c r="S6" s="167"/>
     </row>
     <row r="7" spans="1:20" ht="23.1" customHeight="1">
-      <c r="K7" s="127"/>
-      <c r="L7" s="127"/>
-      <c r="M7" s="127"/>
-      <c r="N7" s="127"/>
-      <c r="O7" s="127"/>
-      <c r="P7" s="127"/>
-      <c r="Q7" s="127"/>
-      <c r="R7" s="127"/>
-      <c r="S7" s="127"/>
+      <c r="K7" s="167"/>
+      <c r="L7" s="167"/>
+      <c r="M7" s="167"/>
+      <c r="N7" s="167"/>
+      <c r="O7" s="167"/>
+      <c r="P7" s="167"/>
+      <c r="Q7" s="167"/>
+      <c r="R7" s="167"/>
+      <c r="S7" s="167"/>
     </row>
     <row r="8" spans="1:20" ht="23.1" customHeight="1">
       <c r="A8" s="49"/>
@@ -5245,32 +5412,31 @@
       <c r="C8" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="127"/>
-      <c r="L8" s="127"/>
-      <c r="M8" s="127"/>
-      <c r="N8" s="127"/>
-      <c r="O8" s="127"/>
-      <c r="P8" s="127"/>
-      <c r="Q8" s="127"/>
-      <c r="R8" s="127"/>
-      <c r="S8" s="127"/>
+      <c r="K8" s="167"/>
+      <c r="L8" s="167"/>
+      <c r="M8" s="167"/>
+      <c r="N8" s="167"/>
+      <c r="O8" s="167"/>
+      <c r="P8" s="167"/>
+      <c r="Q8" s="167"/>
+      <c r="R8" s="167"/>
+      <c r="S8" s="167"/>
     </row>
     <row r="9" spans="1:20" ht="23.1" customHeight="1">
-      <c r="C9" s="128" t="str">
-        <f>記入!B10</f>
-        <v>${qu.pjjapanese}</v>
-      </c>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="128"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="128"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="128"/>
-      <c r="M9" s="128"/>
-      <c r="N9" s="128"/>
+      <c r="C9" s="168" t="s">
+        <v>271</v>
+      </c>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="168"/>
+      <c r="I9" s="168"/>
+      <c r="J9" s="168"/>
+      <c r="K9" s="168"/>
+      <c r="L9" s="168"/>
+      <c r="M9" s="168"/>
+      <c r="N9" s="168"/>
     </row>
     <row r="10" spans="1:20" ht="23.1" customHeight="1">
       <c r="C10" s="50"/>
@@ -5290,18 +5456,17 @@
       <c r="C11" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="124" t="str">
-        <f>記入!B19</f>
-        <v>${qu.currencyposition}</v>
-      </c>
-      <c r="F11" s="124"/>
-      <c r="G11" s="133">
+      <c r="E11" s="164" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" s="164"/>
+      <c r="G11" s="173">
         <f>M26</f>
         <v>0</v>
       </c>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="133"/>
+      <c r="H11" s="173"/>
+      <c r="I11" s="173"/>
+      <c r="J11" s="173"/>
       <c r="R11" s="52" t="s">
         <v>52</v>
       </c>
@@ -5310,13 +5475,11 @@
       <c r="C12" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="43" t="str">
-        <f>記入!F37</f>
-        <v>■一括</v>
-      </c>
-      <c r="H12" s="43" t="str">
-        <f>記入!G37</f>
-        <v>□実績精算</v>
+      <c r="F12" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="H12" s="43" t="s">
+        <v>258</v>
       </c>
       <c r="N12" s="43" t="s">
         <v>54</v>
@@ -5326,17 +5489,14 @@
       <c r="C13" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="43" t="str">
-        <f>記入!F38</f>
-        <v>□請負</v>
-      </c>
-      <c r="H13" s="43" t="str">
-        <f>記入!G38</f>
-        <v>■委任</v>
-      </c>
-      <c r="J13" s="43" t="str">
-        <f>記入!H38</f>
-        <v>□保守</v>
+      <c r="F13" s="43" t="s">
+        <v>259</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>260</v>
+      </c>
+      <c r="J13" s="43" t="s">
+        <v>261</v>
       </c>
       <c r="N13" s="43" t="s">
         <v>54</v>
@@ -5346,39 +5506,35 @@
       <c r="C14" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="130" t="str">
-        <f>記入!F39</f>
-        <v>□あり(12ヵ月）</v>
-      </c>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
+      <c r="F14" s="170" t="s">
+        <v>263</v>
+      </c>
+      <c r="G14" s="170"/>
+      <c r="H14" s="170"/>
       <c r="I14" s="53"/>
-      <c r="J14" s="43" t="str">
-        <f>記入!H39</f>
-        <v>■なし</v>
+      <c r="J14" s="43" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="23.1" customHeight="1">
       <c r="C15" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="131" t="str">
-        <f>記入!B14</f>
-        <v>${statime[0]}</v>
-      </c>
-      <c r="G15" s="131"/>
-      <c r="H15" s="131"/>
+      <c r="F15" s="171" t="s">
+        <v>232</v>
+      </c>
+      <c r="G15" s="171"/>
+      <c r="H15" s="171"/>
     </row>
     <row r="16" spans="1:20" ht="23.1" customHeight="1">
       <c r="C16" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="131" t="str">
-        <f>記入!B15</f>
-        <v>${statime[1]}</v>
-      </c>
-      <c r="G16" s="131"/>
-      <c r="H16" s="131"/>
+      <c r="F16" s="171" t="s">
+        <v>234</v>
+      </c>
+      <c r="G16" s="171"/>
+      <c r="H16" s="171"/>
     </row>
     <row r="17" spans="1:21" ht="23.1" customHeight="1">
       <c r="C17" s="43" t="s">
@@ -5405,327 +5561,305 @@
       <c r="R18" s="26"/>
     </row>
     <row r="19" spans="1:21" ht="23.1" customHeight="1" thickBot="1">
-      <c r="C19" s="125" t="s">
+      <c r="C19" s="165" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="125"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="125" t="s">
+      <c r="D19" s="165"/>
+      <c r="E19" s="165"/>
+      <c r="F19" s="165" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="125"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="125"/>
+      <c r="G19" s="165"/>
+      <c r="H19" s="165"/>
+      <c r="I19" s="165"/>
     </row>
     <row r="20" spans="1:21" ht="23.1" customHeight="1" thickBot="1">
       <c r="B20" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="134" t="s">
+      <c r="C20" s="152" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="134"/>
-      <c r="E20" s="134"/>
-      <c r="F20" s="134"/>
-      <c r="G20" s="134"/>
-      <c r="H20" s="134"/>
-      <c r="I20" s="134"/>
-      <c r="J20" s="134"/>
-      <c r="K20" s="134"/>
-      <c r="L20" s="135"/>
-      <c r="M20" s="136" t="str">
+      <c r="D20" s="152"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="152"/>
+      <c r="I20" s="152"/>
+      <c r="J20" s="152"/>
+      <c r="K20" s="152"/>
+      <c r="L20" s="153"/>
+      <c r="M20" s="154" t="str">
         <f>"金額"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>金額(${qu.currencyposition})</v>
       </c>
-      <c r="N20" s="136"/>
-      <c r="O20" s="136"/>
-      <c r="P20" s="136" t="s">
+      <c r="N20" s="154"/>
+      <c r="O20" s="154"/>
+      <c r="P20" s="154" t="s">
         <v>67</v>
       </c>
-      <c r="Q20" s="136"/>
-      <c r="R20" s="136"/>
-      <c r="S20" s="137"/>
+      <c r="Q20" s="154"/>
+      <c r="R20" s="154"/>
+      <c r="S20" s="155"/>
     </row>
     <row r="21" spans="1:21" ht="33" customHeight="1">
       <c r="B21" s="56">
         <v>1</v>
       </c>
-      <c r="C21" s="138" t="str">
-        <f>記入!B10</f>
-        <v>${qu.pjjapanese}</v>
-      </c>
-      <c r="D21" s="139"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="139"/>
-      <c r="J21" s="139"/>
-      <c r="K21" s="139"/>
-      <c r="L21" s="140"/>
-      <c r="M21" s="141" t="str">
-        <f>記入!B20</f>
-        <v>${qu.claimamount}</v>
-      </c>
-      <c r="N21" s="142"/>
-      <c r="O21" s="143"/>
-      <c r="P21" s="144"/>
-      <c r="Q21" s="144"/>
-      <c r="R21" s="144"/>
-      <c r="S21" s="145"/>
+      <c r="C21" s="156" t="s">
+        <v>231</v>
+      </c>
+      <c r="D21" s="157"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="157"/>
+      <c r="G21" s="157"/>
+      <c r="H21" s="157"/>
+      <c r="I21" s="157"/>
+      <c r="J21" s="157"/>
+      <c r="K21" s="157"/>
+      <c r="L21" s="158"/>
+      <c r="M21" s="159" t="s">
+        <v>162</v>
+      </c>
+      <c r="N21" s="160"/>
+      <c r="O21" s="161"/>
+      <c r="P21" s="162"/>
+      <c r="Q21" s="162"/>
+      <c r="R21" s="162"/>
+      <c r="S21" s="163"/>
       <c r="U21" s="57"/>
     </row>
     <row r="22" spans="1:21" ht="23.1" customHeight="1">
       <c r="B22" s="58">
         <v>2</v>
       </c>
-      <c r="C22" s="146" t="s">
-        <v>133</v>
-      </c>
-      <c r="D22" s="146"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="146"/>
-      <c r="G22" s="146"/>
-      <c r="H22" s="147"/>
-      <c r="I22" s="147"/>
-      <c r="J22" s="147"/>
-      <c r="K22" s="147"/>
-      <c r="L22" s="148"/>
-      <c r="M22" s="149" t="s">
+      <c r="C22" s="142" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="142"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="143"/>
+      <c r="K22" s="143"/>
+      <c r="L22" s="144"/>
+      <c r="M22" s="145" t="s">
         <v>68</v>
       </c>
-      <c r="N22" s="149"/>
-      <c r="O22" s="149"/>
-      <c r="P22" s="150"/>
-      <c r="Q22" s="150"/>
-      <c r="R22" s="150"/>
-      <c r="S22" s="151"/>
+      <c r="N22" s="145"/>
+      <c r="O22" s="145"/>
+      <c r="P22" s="146"/>
+      <c r="Q22" s="146"/>
+      <c r="R22" s="146"/>
+      <c r="S22" s="147"/>
       <c r="U22" s="59"/>
     </row>
     <row r="23" spans="1:21" ht="23.1" customHeight="1">
       <c r="B23" s="58">
         <v>3</v>
       </c>
-      <c r="C23" s="146" t="s">
+      <c r="C23" s="142" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="146"/>
-      <c r="E23" s="146"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="147"/>
-      <c r="I23" s="147"/>
-      <c r="J23" s="147"/>
-      <c r="K23" s="147"/>
-      <c r="L23" s="148"/>
-      <c r="M23" s="149">
+      <c r="D23" s="142"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="143"/>
+      <c r="J23" s="143"/>
+      <c r="K23" s="143"/>
+      <c r="L23" s="144"/>
+      <c r="M23" s="145">
         <v>0</v>
       </c>
-      <c r="N23" s="149"/>
-      <c r="O23" s="149"/>
-      <c r="P23" s="150"/>
-      <c r="Q23" s="150"/>
-      <c r="R23" s="150"/>
-      <c r="S23" s="151"/>
+      <c r="N23" s="145"/>
+      <c r="O23" s="145"/>
+      <c r="P23" s="146"/>
+      <c r="Q23" s="146"/>
+      <c r="R23" s="146"/>
+      <c r="S23" s="147"/>
     </row>
     <row r="24" spans="1:21" ht="23.1" customHeight="1">
       <c r="B24" s="58">
         <v>4</v>
       </c>
-      <c r="C24" s="146"/>
-      <c r="D24" s="146"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="147"/>
-      <c r="I24" s="147"/>
-      <c r="J24" s="147"/>
-      <c r="K24" s="147"/>
-      <c r="L24" s="148"/>
-      <c r="M24" s="149">
+      <c r="C24" s="142"/>
+      <c r="D24" s="142"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="143"/>
+      <c r="I24" s="143"/>
+      <c r="J24" s="143"/>
+      <c r="K24" s="143"/>
+      <c r="L24" s="144"/>
+      <c r="M24" s="145">
         <v>0</v>
       </c>
-      <c r="N24" s="149"/>
-      <c r="O24" s="149"/>
-      <c r="P24" s="150"/>
-      <c r="Q24" s="150"/>
-      <c r="R24" s="150"/>
-      <c r="S24" s="151"/>
+      <c r="N24" s="145"/>
+      <c r="O24" s="145"/>
+      <c r="P24" s="146"/>
+      <c r="Q24" s="146"/>
+      <c r="R24" s="146"/>
+      <c r="S24" s="147"/>
     </row>
     <row r="25" spans="1:21" ht="23.1" customHeight="1">
       <c r="B25" s="60">
         <v>5</v>
       </c>
-      <c r="C25" s="152"/>
-      <c r="D25" s="152"/>
-      <c r="E25" s="152"/>
-      <c r="F25" s="152"/>
-      <c r="G25" s="152"/>
-      <c r="H25" s="153"/>
-      <c r="I25" s="153"/>
-      <c r="J25" s="153"/>
-      <c r="K25" s="153"/>
-      <c r="L25" s="154"/>
-      <c r="M25" s="155">
+      <c r="C25" s="148"/>
+      <c r="D25" s="148"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="150"/>
+      <c r="M25" s="151">
         <v>0</v>
       </c>
-      <c r="N25" s="155"/>
-      <c r="O25" s="155"/>
-      <c r="P25" s="150"/>
-      <c r="Q25" s="150"/>
-      <c r="R25" s="150"/>
-      <c r="S25" s="151"/>
+      <c r="N25" s="151"/>
+      <c r="O25" s="151"/>
+      <c r="P25" s="146"/>
+      <c r="Q25" s="146"/>
+      <c r="R25" s="146"/>
+      <c r="S25" s="147"/>
     </row>
     <row r="26" spans="1:21" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B26" s="159" t="s">
+      <c r="B26" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="160"/>
-      <c r="D26" s="160"/>
-      <c r="E26" s="160"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="160"/>
-      <c r="H26" s="160"/>
-      <c r="I26" s="160"/>
-      <c r="J26" s="160"/>
-      <c r="K26" s="160"/>
-      <c r="L26" s="161"/>
-      <c r="M26" s="162">
+      <c r="C26" s="129"/>
+      <c r="D26" s="129"/>
+      <c r="E26" s="129"/>
+      <c r="F26" s="129"/>
+      <c r="G26" s="129"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="129"/>
+      <c r="J26" s="129"/>
+      <c r="K26" s="129"/>
+      <c r="L26" s="130"/>
+      <c r="M26" s="131">
         <f>SUM(M21:O25)</f>
         <v>0</v>
       </c>
-      <c r="N26" s="163"/>
-      <c r="O26" s="164"/>
-      <c r="P26" s="165"/>
-      <c r="Q26" s="165"/>
-      <c r="R26" s="165"/>
-      <c r="S26" s="166"/>
+      <c r="N26" s="132"/>
+      <c r="O26" s="133"/>
+      <c r="P26" s="134"/>
+      <c r="Q26" s="134"/>
+      <c r="R26" s="134"/>
+      <c r="S26" s="135"/>
     </row>
     <row r="27" spans="1:21" ht="23.1" customHeight="1">
-      <c r="C27" s="167" t="s">
+      <c r="C27" s="136" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="168"/>
-      <c r="E27" s="168"/>
-      <c r="F27" s="168"/>
-      <c r="G27" s="168"/>
-      <c r="H27" s="168"/>
-      <c r="I27" s="168"/>
-      <c r="J27" s="168"/>
-      <c r="K27" s="168"/>
-      <c r="L27" s="168"/>
-      <c r="M27" s="168"/>
-      <c r="N27" s="168"/>
-      <c r="O27" s="168"/>
-      <c r="P27" s="168"/>
-      <c r="Q27" s="168"/>
-      <c r="R27" s="168"/>
-      <c r="S27" s="169"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="137"/>
+      <c r="I27" s="137"/>
+      <c r="J27" s="137"/>
+      <c r="K27" s="137"/>
+      <c r="L27" s="137"/>
+      <c r="M27" s="137"/>
+      <c r="N27" s="137"/>
+      <c r="O27" s="137"/>
+      <c r="P27" s="137"/>
+      <c r="Q27" s="137"/>
+      <c r="R27" s="137"/>
+      <c r="S27" s="138"/>
     </row>
     <row r="28" spans="1:21" ht="18" customHeight="1">
       <c r="A28" s="61"/>
       <c r="B28" s="61"/>
-      <c r="C28" s="170" t="s">
+      <c r="C28" s="139" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="171"/>
-      <c r="E28" s="171"/>
-      <c r="F28" s="171"/>
-      <c r="G28" s="171"/>
-      <c r="H28" s="171"/>
-      <c r="I28" s="171"/>
-      <c r="J28" s="171"/>
-      <c r="K28" s="171"/>
-      <c r="L28" s="171"/>
-      <c r="M28" s="171"/>
-      <c r="N28" s="171"/>
-      <c r="O28" s="171"/>
-      <c r="P28" s="171"/>
-      <c r="Q28" s="171"/>
-      <c r="R28" s="171"/>
-      <c r="S28" s="172"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="140"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="140"/>
+      <c r="J28" s="140"/>
+      <c r="K28" s="140"/>
+      <c r="L28" s="140"/>
+      <c r="M28" s="140"/>
+      <c r="N28" s="140"/>
+      <c r="O28" s="140"/>
+      <c r="P28" s="140"/>
+      <c r="Q28" s="140"/>
+      <c r="R28" s="140"/>
+      <c r="S28" s="141"/>
     </row>
     <row r="29" spans="1:21" ht="18" customHeight="1">
       <c r="A29" s="61"/>
       <c r="B29" s="61"/>
-      <c r="C29" s="167"/>
-      <c r="D29" s="168"/>
-      <c r="E29" s="168"/>
-      <c r="F29" s="168"/>
-      <c r="G29" s="168"/>
-      <c r="H29" s="168"/>
-      <c r="I29" s="168"/>
-      <c r="J29" s="168"/>
-      <c r="K29" s="168"/>
-      <c r="L29" s="168"/>
-      <c r="M29" s="168"/>
-      <c r="N29" s="168"/>
-      <c r="O29" s="168"/>
-      <c r="P29" s="168"/>
-      <c r="Q29" s="168"/>
-      <c r="R29" s="168"/>
-      <c r="S29" s="169"/>
+      <c r="C29" s="136"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="137"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="137"/>
+      <c r="I29" s="137"/>
+      <c r="J29" s="137"/>
+      <c r="K29" s="137"/>
+      <c r="L29" s="137"/>
+      <c r="M29" s="137"/>
+      <c r="N29" s="137"/>
+      <c r="O29" s="137"/>
+      <c r="P29" s="137"/>
+      <c r="Q29" s="137"/>
+      <c r="R29" s="137"/>
+      <c r="S29" s="138"/>
     </row>
     <row r="30" spans="1:21" ht="18" customHeight="1">
       <c r="A30" s="61"/>
       <c r="B30" s="61"/>
-      <c r="C30" s="156"/>
-      <c r="D30" s="157"/>
-      <c r="E30" s="157"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="157"/>
-      <c r="H30" s="157"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="157"/>
-      <c r="K30" s="157"/>
-      <c r="L30" s="157"/>
-      <c r="M30" s="157"/>
-      <c r="N30" s="157"/>
-      <c r="O30" s="157"/>
-      <c r="P30" s="157"/>
-      <c r="Q30" s="157"/>
-      <c r="R30" s="157"/>
-      <c r="S30" s="158"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="126"/>
+      <c r="I30" s="126"/>
+      <c r="J30" s="126"/>
+      <c r="K30" s="126"/>
+      <c r="L30" s="126"/>
+      <c r="M30" s="126"/>
+      <c r="N30" s="126"/>
+      <c r="O30" s="126"/>
+      <c r="P30" s="126"/>
+      <c r="Q30" s="126"/>
+      <c r="R30" s="126"/>
+      <c r="S30" s="127"/>
     </row>
     <row r="31" spans="1:21" ht="21.95" customHeight="1"/>
     <row r="32" spans="1:21" ht="21.95" customHeight="1"/>
-    <row r="33" ht="21.95" customHeight="1"/>
-    <row r="34" ht="21.95" customHeight="1"/>
-    <row r="35" ht="21.95" customHeight="1"/>
-    <row r="36" ht="21.95" customHeight="1"/>
-    <row r="37" ht="21.95" customHeight="1"/>
-    <row r="38" ht="21.95" customHeight="1"/>
-    <row r="39" ht="21.95" customHeight="1"/>
-    <row r="40" ht="20.100000000000001" customHeight="1"/>
-    <row r="41" ht="20.100000000000001" customHeight="1"/>
-    <row r="42" ht="20